--- a/Updated PO.xlsx
+++ b/Updated PO.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="115">
   <si>
     <t>Purchasing Document</t>
   </si>
@@ -299,9 +299,6 @@
     <t>10.02.2023</t>
   </si>
   <si>
-    <t>30.01.2023</t>
-  </si>
-  <si>
     <t>07.02.2023</t>
   </si>
   <si>
@@ -330,12 +327,6 @@
   </si>
   <si>
     <t>20.03.2023</t>
-  </si>
-  <si>
-    <t>08.03.2023</t>
-  </si>
-  <si>
-    <t>07.04.2023</t>
   </si>
   <si>
     <t>10.05.2023</t>
@@ -1020,10 +1011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M85"/>
+  <dimension ref="A1:M90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="J82" sqref="J82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2314,7 +2305,7 @@
         <v>2400</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F8" s="2">
         <v>615181</v>
@@ -2329,10 +2320,10 @@
         <v>12</v>
       </c>
       <c r="J8" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="36" customFormat="1">
@@ -2349,7 +2340,7 @@
         <v>2400</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F9" s="32">
         <v>615181</v>
@@ -2364,10 +2355,10 @@
         <v>12</v>
       </c>
       <c r="J9" s="32">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K9" s="32" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2397,7 +2388,7 @@
         <v>4831</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F11" s="2">
         <v>615698</v>
@@ -2412,10 +2403,10 @@
         <v>12</v>
       </c>
       <c r="J11" s="2">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="36" customFormat="1">
@@ -2432,7 +2423,7 @@
         <v>4831</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F12" s="32">
         <v>615698</v>
@@ -2450,7 +2441,7 @@
         <v>10</v>
       </c>
       <c r="K12" s="32" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2498,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2548,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2578,7 +2569,7 @@
         <v>600</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F18" s="32" t="s">
         <v>24</v>
@@ -2593,10 +2584,10 @@
         <v>12</v>
       </c>
       <c r="J18" s="35">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K18" s="35" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2626,7 +2617,7 @@
         <v>5614</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F20" s="32">
         <v>616026</v>
@@ -2641,10 +2632,10 @@
         <v>12</v>
       </c>
       <c r="J20" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="35" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="36" customFormat="1">
@@ -2661,7 +2652,7 @@
         <v>5614</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F21" s="32">
         <v>616026</v>
@@ -2676,10 +2667,10 @@
         <v>12</v>
       </c>
       <c r="J21" s="32">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K21" s="35" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="36" customFormat="1">
@@ -2709,7 +2700,7 @@
         <v>6521</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>26</v>
@@ -2724,10 +2715,10 @@
         <v>12</v>
       </c>
       <c r="J23" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L23" s="56"/>
     </row>
@@ -2745,7 +2736,7 @@
         <v>6521</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F24" s="32" t="s">
         <v>26</v>
@@ -2763,7 +2754,7 @@
         <v>5</v>
       </c>
       <c r="K24" s="35" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="L24" s="56"/>
     </row>
@@ -2793,8 +2784,8 @@
       <c r="D26" s="65">
         <v>4048</v>
       </c>
-      <c r="E26" s="65" t="s">
-        <v>107</v>
+      <c r="E26" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="F26" s="65">
         <v>630059</v>
@@ -2809,10 +2800,10 @@
         <v>12</v>
       </c>
       <c r="J26" s="65">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K26" s="65" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="36" customFormat="1">
@@ -2829,7 +2820,7 @@
         <v>4048</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F27" s="32">
         <v>630059</v>
@@ -2847,7 +2838,7 @@
         <v>20</v>
       </c>
       <c r="K27" s="32" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2877,7 +2868,7 @@
         <v>5738</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F29" s="6">
         <v>632215</v>
@@ -2892,10 +2883,10 @@
         <v>12</v>
       </c>
       <c r="J29" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="12" customHeight="1">
@@ -3021,7 +3012,7 @@
         <v>2818</v>
       </c>
       <c r="E35" s="32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F35" s="31">
         <v>635656</v>
@@ -3039,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="K35" s="32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -3069,7 +3060,7 @@
         <v>3555</v>
       </c>
       <c r="E37" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F37" s="31">
         <v>646872</v>
@@ -3087,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -3261,7 +3252,7 @@
         <v>6615</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F45" s="2">
         <v>663093</v>
@@ -3276,10 +3267,10 @@
         <v>12</v>
       </c>
       <c r="J45" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="13.5" customHeight="1">
@@ -3315,7 +3306,7 @@
         <v>667226</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H47" s="5">
         <v>2</v>
@@ -3327,7 +3318,7 @@
         <v>2</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="13.5" customHeight="1">
@@ -3405,7 +3396,7 @@
         <v>9703</v>
       </c>
       <c r="E51" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F51" s="31">
         <v>681149</v>
@@ -3423,7 +3414,7 @@
         <v>0</v>
       </c>
       <c r="K51" s="34" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -3455,7 +3446,7 @@
         <v>1908</v>
       </c>
       <c r="E53" s="34" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F53" s="32" t="s">
         <v>34</v>
@@ -3473,7 +3464,7 @@
         <v>40</v>
       </c>
       <c r="K53" s="35" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:13" s="36" customFormat="1">
@@ -3503,7 +3494,7 @@
         <v>8463</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F55" s="6">
         <v>687349</v>
@@ -3521,7 +3512,7 @@
         <v>0</v>
       </c>
       <c r="K55" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56" spans="1:13" s="36" customFormat="1">
@@ -3599,7 +3590,7 @@
         <v>565</v>
       </c>
       <c r="E59" s="34" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F59" s="32" t="s">
         <v>36</v>
@@ -3617,7 +3608,7 @@
         <v>100</v>
       </c>
       <c r="K59" s="35" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -3860,7 +3851,7 @@
         <v>14</v>
       </c>
       <c r="K69" s="55" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:11" s="36" customFormat="1">
@@ -3877,7 +3868,7 @@
         <v>45000</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F70" s="7">
         <v>719031</v>
@@ -3895,7 +3886,7 @@
         <v>1</v>
       </c>
       <c r="K70" s="61" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3925,7 +3916,7 @@
         <v>9999</v>
       </c>
       <c r="E72" s="64" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F72" s="64">
         <v>719381</v>
@@ -3940,10 +3931,10 @@
         <v>12</v>
       </c>
       <c r="J72" s="62">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K72" s="64" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="73" spans="1:11" s="36" customFormat="1">
@@ -3960,7 +3951,7 @@
         <v>9999</v>
       </c>
       <c r="E73" s="31" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F73" s="31">
         <v>719381</v>
@@ -3978,7 +3969,7 @@
         <v>10</v>
       </c>
       <c r="K73" s="31" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -4008,7 +3999,7 @@
         <v>6800</v>
       </c>
       <c r="E75" s="58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F75" s="7">
         <v>720138</v>
@@ -4026,7 +4017,7 @@
         <v>0</v>
       </c>
       <c r="K75" s="58" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -4125,78 +4116,49 @@
         <v>57</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
-      <c r="A81" s="6">
-        <v>151294292</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C81" s="2">
-        <v>10</v>
-      </c>
-      <c r="D81" s="2">
+    <row r="81" spans="1:11" s="36" customFormat="1">
+      <c r="A81" s="31">
+        <v>151315311</v>
+      </c>
+      <c r="B81" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" s="32">
+        <v>10</v>
+      </c>
+      <c r="D81" s="32">
         <v>100</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F81" s="2">
+      <c r="E81" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="F81" s="32">
         <v>728488</v>
       </c>
-      <c r="G81" s="6" t="s">
+      <c r="G81" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="H81" s="2">
-        <v>61</v>
-      </c>
-      <c r="I81" s="2" t="s">
+      <c r="H81" s="32">
+        <v>10</v>
+      </c>
+      <c r="I81" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="J81" s="2">
-        <v>0</v>
-      </c>
-      <c r="K81" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" s="36" customFormat="1">
-      <c r="A82" s="31">
-        <v>151315311</v>
-      </c>
-      <c r="B82" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C82" s="32">
-        <v>10</v>
-      </c>
-      <c r="D82" s="32">
-        <v>100</v>
-      </c>
-      <c r="E82" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="F82" s="32">
-        <v>728488</v>
-      </c>
-      <c r="G82" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="H82" s="32">
-        <v>10</v>
-      </c>
-      <c r="I82" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="J82" s="32">
-        <v>10</v>
-      </c>
-      <c r="K82" s="32" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
-      <c r="F85" s="17"/>
+      <c r="J81" s="32">
+        <v>30.5</v>
+      </c>
+      <c r="K81" s="32" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="F84" s="17"/>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" s="25">
+        <f>60*30.5</f>
+        <v>1830</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4206,10 +4168,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M79"/>
+  <dimension ref="A1:M85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -5500,7 +5462,7 @@
         <v>2400</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F8" s="2">
         <v>615181</v>
@@ -5518,56 +5480,56 @@
         <v>10</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="22"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" s="36" customFormat="1">
-      <c r="A10" s="23">
-        <v>151305308</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="2">
-        <v>10</v>
-      </c>
-      <c r="D10" s="2">
-        <v>4831</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F10" s="2">
-        <v>615698</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H10" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="36" customFormat="1">
+      <c r="A9" s="31">
+        <v>151315311</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="32">
+        <v>140</v>
+      </c>
+      <c r="D9" s="60">
+        <v>2400</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" s="32">
+        <v>615181</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="32">
         <v>15</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>102</v>
-      </c>
+      <c r="I9" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="32">
+        <v>15</v>
+      </c>
+      <c r="K9" s="32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="22"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" s="36" customFormat="1">
       <c r="A11" s="6">
@@ -5583,7 +5545,7 @@
         <v>4831</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F11" s="2">
         <v>615698</v>
@@ -5601,682 +5563,727 @@
         <v>20</v>
       </c>
       <c r="K11" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="36" customFormat="1">
+      <c r="A12" s="31">
+        <v>151315311</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="32">
+        <v>130</v>
+      </c>
+      <c r="D12" s="32">
+        <v>4831</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="F12" s="32">
+        <v>615698</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="32">
+        <v>10</v>
+      </c>
+      <c r="I12" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="32">
+        <v>10</v>
+      </c>
+      <c r="K12" s="32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="11"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="11">
+        <v>151296157</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1">
+        <v>20</v>
+      </c>
+      <c r="D14" s="26">
+        <v>4700</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="12">
+        <v>2</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="12">
+        <v>0</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="11">
+        <v>151296157</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1">
+        <v>10</v>
+      </c>
+      <c r="D16" s="13">
+        <v>3700</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="13">
+        <v>615840</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="13">
+        <v>2</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="13">
+        <v>0</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="15"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="31">
+        <v>151315311</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="32">
+        <v>120</v>
+      </c>
+      <c r="D18" s="33">
+        <v>600</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="35">
+        <v>20</v>
+      </c>
+      <c r="I18" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="35">
+        <v>20</v>
+      </c>
+      <c r="K18" s="35" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+    </row>
+    <row r="20" spans="1:12" s="36" customFormat="1">
+      <c r="A20" s="11">
+        <v>151311194</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="32">
+        <v>10</v>
+      </c>
+      <c r="D20" s="32">
+        <v>5614</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="32">
+        <v>616026</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" s="32">
+        <v>6</v>
+      </c>
+      <c r="I20" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="32">
+        <v>1</v>
+      </c>
+      <c r="K20" s="35" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="11"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="11">
-        <v>151296157</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="1">
-        <v>20</v>
-      </c>
-      <c r="D13" s="26">
-        <v>4700</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="12">
-        <v>2</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="12">
-        <v>0</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="11">
-        <v>151296157</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="1">
-        <v>10</v>
-      </c>
-      <c r="D15" s="13">
-        <v>3700</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="F15" s="13">
-        <v>615840</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="13">
-        <v>2</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="13">
-        <v>0</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="15"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="11">
-        <v>151280693</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="1">
-        <v>100</v>
-      </c>
-      <c r="D17" s="26">
-        <v>600</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="12">
-        <v>10</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" s="12">
-        <v>0</v>
-      </c>
-      <c r="K17" s="12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-    </row>
-    <row r="19" spans="1:12" s="36" customFormat="1">
-      <c r="A19" s="11">
-        <v>151311194</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="32">
-        <v>10</v>
-      </c>
-      <c r="D19" s="32">
+    <row r="21" spans="1:12" s="36" customFormat="1">
+      <c r="A21" s="31">
+        <v>151315311</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="32">
+        <v>110</v>
+      </c>
+      <c r="D21" s="32">
         <v>5614</v>
       </c>
-      <c r="E19" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="F19" s="32">
+      <c r="E21" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="F21" s="32">
         <v>616026</v>
       </c>
-      <c r="G19" s="32" t="s">
+      <c r="G21" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="H19" s="32">
-        <v>6</v>
-      </c>
-      <c r="I19" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" s="32">
-        <v>1</v>
-      </c>
-      <c r="K19" s="35" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="36" customFormat="1">
-      <c r="A20" s="11"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="35"/>
-    </row>
-    <row r="21" spans="1:12" s="36" customFormat="1">
-      <c r="A21" s="6">
-        <v>151308917</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="2">
-        <v>80</v>
-      </c>
-      <c r="D21" s="5">
-        <v>6521</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H21" s="5">
-        <v>10</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="5">
-        <v>10</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="L21" s="56"/>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="H21" s="32">
+        <v>5</v>
+      </c>
+      <c r="I21" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="32">
+        <v>5</v>
+      </c>
+      <c r="K21" s="35" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="36" customFormat="1">
       <c r="A22" s="11"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="35"/>
     </row>
     <row r="23" spans="1:12" s="36" customFormat="1">
-      <c r="A23" s="23">
+      <c r="A23" s="6">
         <v>151308917</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="2">
+        <v>80</v>
+      </c>
+      <c r="D23" s="5">
+        <v>6521</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" s="5">
+        <v>10</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="5">
+        <v>10</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="L23" s="56"/>
+    </row>
+    <row r="24" spans="1:12" s="36" customFormat="1">
+      <c r="A24" s="31">
+        <v>151315311</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="32">
+        <v>100</v>
+      </c>
+      <c r="D24" s="35">
+        <v>6521</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="35">
+        <v>5</v>
+      </c>
+      <c r="I24" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="35">
+        <v>5</v>
+      </c>
+      <c r="K24" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="L24" s="56"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="11"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+    </row>
+    <row r="26" spans="1:12" s="36" customFormat="1">
+      <c r="A26" s="23">
+        <v>151308917</v>
+      </c>
+      <c r="B26" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="65">
         <v>70</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D26" s="65">
         <v>4048</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F23" s="2">
+      <c r="E26" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26" s="65">
         <v>630059</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G26" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="H23" s="2">
-        <v>10</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" s="2">
-        <v>10</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="11"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="1:12" s="36" customFormat="1">
-      <c r="A25" s="6">
+      <c r="H26" s="65">
+        <v>10</v>
+      </c>
+      <c r="I26" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" s="65">
+        <v>10</v>
+      </c>
+      <c r="K26" s="65" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="36" customFormat="1">
+      <c r="A27" s="31">
+        <v>151315311</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="32">
+        <v>90</v>
+      </c>
+      <c r="D27" s="32">
+        <v>4048</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="F27" s="32">
+        <v>630059</v>
+      </c>
+      <c r="G27" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="H27" s="32">
+        <v>20</v>
+      </c>
+      <c r="I27" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" s="32">
+        <v>20</v>
+      </c>
+      <c r="K27" s="32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="11"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:12" s="36" customFormat="1">
+      <c r="A29" s="6">
         <v>151308917</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="2">
-        <v>50</v>
-      </c>
-      <c r="D25" s="20">
-        <v>5738</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="F25" s="6">
-        <v>632215</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H25" s="2">
-        <v>2</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J25" s="2">
-        <v>2</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="12" customHeight="1">
-      <c r="A26" s="11"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="11"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="11">
-        <v>151110116</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="1">
-        <v>60</v>
-      </c>
-      <c r="D27" s="13">
-        <v>3450</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" s="13">
-        <v>634355</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H27" s="13">
-        <v>10</v>
-      </c>
-      <c r="I27" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J27" s="13">
-        <v>10</v>
-      </c>
-      <c r="K27" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="12"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="2">
-        <v>151008992</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C29" s="2">
+        <v>50</v>
+      </c>
+      <c r="D29" s="20">
+        <v>5738</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" s="6">
+        <v>632215</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H29" s="2">
+        <v>2</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J29" s="2">
+        <v>2</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="12" customHeight="1">
+      <c r="A30" s="11"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="11"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="11">
+        <v>151110116</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="1">
+        <v>60</v>
+      </c>
+      <c r="D31" s="13">
+        <v>3450</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" s="13">
+        <v>634355</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" s="13">
+        <v>10</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J31" s="13">
+        <v>10</v>
+      </c>
+      <c r="K31" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="12"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="2">
+        <v>151008992</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="2">
         <v>20</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D33" s="10">
         <v>4726</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F33" s="2">
         <v>635655</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H29" s="2">
-        <v>10</v>
-      </c>
-      <c r="I29" s="2" t="s">
+      <c r="H33" s="2">
+        <v>10</v>
+      </c>
+      <c r="I33" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J33" s="2">
         <v>0</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="K33" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-    </row>
-    <row r="31" spans="1:12" s="36" customFormat="1">
-      <c r="A31" s="31">
-        <v>151302474</v>
-      </c>
-      <c r="B31" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="32">
-        <v>40</v>
-      </c>
-      <c r="D31" s="60">
-        <v>2818</v>
-      </c>
-      <c r="E31" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="F31" s="31">
-        <v>635656</v>
-      </c>
-      <c r="G31" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="H31" s="32">
-        <v>15</v>
-      </c>
-      <c r="I31" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="J31" s="32">
-        <v>0</v>
-      </c>
-      <c r="K31" s="32" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-    </row>
-    <row r="33" spans="1:11" s="36" customFormat="1">
-      <c r="A33" s="31">
-        <v>151302474</v>
-      </c>
-      <c r="B33" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" s="32">
-        <v>50</v>
-      </c>
-      <c r="D33" s="59">
-        <v>3555</v>
-      </c>
-      <c r="E33" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="F33" s="31">
-        <v>646872</v>
-      </c>
-      <c r="G33" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="H33" s="32">
-        <v>10</v>
-      </c>
-      <c r="I33" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J33" s="32">
-        <v>0</v>
-      </c>
-      <c r="K33" s="31" t="s">
-        <v>100</v>
-      </c>
-    </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="11"/>
+      <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
-      <c r="K34" s="11"/>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="11">
-        <v>151110116</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="1">
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:11" s="36" customFormat="1">
+      <c r="A35" s="31">
+        <v>151302474</v>
+      </c>
+      <c r="B35" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="32">
         <v>40</v>
       </c>
-      <c r="D35" s="26">
-        <v>112</v>
-      </c>
-      <c r="E35" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H35" s="12">
-        <v>50</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J35" s="12">
+      <c r="D35" s="60">
+        <v>2818</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="F35" s="31">
+        <v>635656</v>
+      </c>
+      <c r="G35" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="H35" s="32">
+        <v>15</v>
+      </c>
+      <c r="I35" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="J35" s="32">
         <v>0</v>
       </c>
-      <c r="K35" s="12" t="s">
-        <v>65</v>
+      <c r="K35" s="32" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="1"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="11"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="12"/>
+      <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="23">
-        <v>151197029</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="2">
-        <v>60</v>
-      </c>
-      <c r="D37" s="3">
-        <v>3510</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F37" s="2">
-        <v>663091</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H37" s="5">
-        <v>2</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J37" s="5">
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="1:11" s="36" customFormat="1">
+      <c r="A37" s="31">
+        <v>151302474</v>
+      </c>
+      <c r="B37" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="32">
+        <v>50</v>
+      </c>
+      <c r="D37" s="59">
+        <v>3555</v>
+      </c>
+      <c r="E37" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="F37" s="31">
+        <v>646872</v>
+      </c>
+      <c r="G37" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H37" s="32">
+        <v>10</v>
+      </c>
+      <c r="I37" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37" s="32">
         <v>0</v>
       </c>
-      <c r="K37" s="5" t="s">
-        <v>75</v>
+      <c r="K37" s="31" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="1"/>
+      <c r="A38" s="11"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="12"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="11"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="6">
-        <v>151090350</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" s="2">
-        <v>10</v>
-      </c>
-      <c r="D39" s="3">
-        <v>5130</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F39" s="2">
-        <v>663092</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H39" s="5">
-        <v>2</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J39" s="5">
+      <c r="A39" s="11">
+        <v>151110116</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="1">
+        <v>40</v>
+      </c>
+      <c r="D39" s="26">
+        <v>112</v>
+      </c>
+      <c r="E39" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H39" s="12">
+        <v>50</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J39" s="12">
         <v>0</v>
       </c>
-      <c r="K39" s="5" t="s">
-        <v>57</v>
+      <c r="K39" s="12" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -6292,9 +6299,9 @@
       <c r="J40" s="12"/>
       <c r="K40" s="12"/>
     </row>
-    <row r="41" spans="1:11" s="36" customFormat="1">
-      <c r="A41" s="6">
-        <v>151308917</v>
+    <row r="41" spans="1:11">
+      <c r="A41" s="23">
+        <v>151197029</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>16</v>
@@ -6303,16 +6310,16 @@
         <v>60</v>
       </c>
       <c r="D41" s="3">
-        <v>6615</v>
+        <v>3510</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="F41" s="2">
-        <v>663093</v>
+        <v>663091</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H41" s="5">
         <v>2</v>
@@ -6321,13 +6328,13 @@
         <v>12</v>
       </c>
       <c r="J41" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="13.5" customHeight="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -6340,9 +6347,9 @@
       <c r="J42" s="12"/>
       <c r="K42" s="12"/>
     </row>
-    <row r="43" spans="1:11" ht="13.5" customHeight="1">
+    <row r="43" spans="1:11">
       <c r="A43" s="6">
-        <v>151283046</v>
+        <v>151090350</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>16</v>
@@ -6351,16 +6358,16 @@
         <v>10</v>
       </c>
       <c r="D43" s="3">
-        <v>34000</v>
+        <v>5130</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="F43" s="2">
-        <v>667226</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>97</v>
+        <v>663092</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="H43" s="5">
         <v>2</v>
@@ -6369,13 +6376,13 @@
         <v>12</v>
       </c>
       <c r="J43" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="13.5" customHeight="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -6388,332 +6395,329 @@
       <c r="J44" s="12"/>
       <c r="K44" s="12"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" s="36" customFormat="1">
       <c r="A45" s="6">
-        <v>151282825</v>
+        <v>151308917</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C45" s="2">
+        <v>60</v>
+      </c>
+      <c r="D45" s="3">
+        <v>6615</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F45" s="2">
+        <v>663093</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H45" s="5">
+        <v>2</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J45" s="5">
+        <v>2</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+    </row>
+    <row r="47" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A47" s="6">
+        <v>151283046</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="2">
+        <v>10</v>
+      </c>
+      <c r="D47" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F47" s="2">
+        <v>667226</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H47" s="5">
+        <v>2</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J47" s="5">
+        <v>2</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="6">
+        <v>151282825</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="2">
         <v>40</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D49" s="3">
         <v>6000</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E49" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F49" s="2">
         <v>668330</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="G49" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H45" s="5">
+      <c r="H49" s="5">
         <v>3</v>
       </c>
-      <c r="I45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J45" s="5">
+      <c r="I49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J49" s="5">
         <v>0</v>
       </c>
-      <c r="K45" s="5" t="s">
+      <c r="K49" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="36" customFormat="1">
-      <c r="A46" s="37"/>
-      <c r="B46" s="48"/>
-      <c r="C46" s="48"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="50"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="48"/>
-      <c r="H46" s="51"/>
-      <c r="I46" s="48"/>
-      <c r="J46" s="51"/>
-      <c r="K46" s="51"/>
-    </row>
-    <row r="47" spans="1:11" s="36" customFormat="1">
-      <c r="A47" s="11">
+    <row r="50" spans="1:13" s="36" customFormat="1">
+      <c r="A50" s="37"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="51"/>
+      <c r="I50" s="48"/>
+      <c r="J50" s="51"/>
+      <c r="K50" s="51"/>
+    </row>
+    <row r="51" spans="1:13" s="36" customFormat="1">
+      <c r="A51" s="11">
         <v>151306604</v>
       </c>
-      <c r="B47" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" s="32">
-        <v>10</v>
-      </c>
-      <c r="D47" s="33">
+      <c r="B51" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="32">
+        <v>10</v>
+      </c>
+      <c r="D51" s="33">
         <v>9703</v>
       </c>
-      <c r="E47" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="F47" s="31">
+      <c r="E51" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="F51" s="31">
         <v>681149</v>
       </c>
-      <c r="G47" s="31" t="s">
+      <c r="G51" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="H47" s="35">
+      <c r="H51" s="35">
         <v>1</v>
       </c>
-      <c r="I47" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J47" s="35">
+      <c r="I51" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J51" s="35">
         <v>0</v>
       </c>
-      <c r="K47" s="34" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="39" t="s">
+      <c r="K51" s="34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B48" s="40"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="42"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="38"/>
-      <c r="H48" s="43"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="43"/>
-      <c r="K48" s="43"/>
-    </row>
-    <row r="49" spans="1:13" s="36" customFormat="1">
-      <c r="A49" s="11">
-        <v>151288108</v>
-      </c>
-      <c r="B49" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" s="32">
-        <v>10</v>
-      </c>
-      <c r="D49" s="33">
+      <c r="B52" s="40"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="43"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="43"/>
+      <c r="K52" s="43"/>
+    </row>
+    <row r="53" spans="1:13" s="36" customFormat="1">
+      <c r="A53" s="11">
+        <v>151314791</v>
+      </c>
+      <c r="B53" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="32">
+        <v>10</v>
+      </c>
+      <c r="D53" s="33">
         <v>1908</v>
       </c>
-      <c r="E49" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="F49" s="32" t="s">
+      <c r="E53" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="F53" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="G49" s="32" t="s">
+      <c r="G53" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="H49" s="35">
-        <v>10</v>
-      </c>
-      <c r="I49" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J49" s="35">
+      <c r="H53" s="35">
+        <v>40</v>
+      </c>
+      <c r="I53" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J53" s="35">
+        <v>40</v>
+      </c>
+      <c r="K53" s="35" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" s="36" customFormat="1">
+      <c r="A54" s="11"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="32"/>
+      <c r="J54" s="35"/>
+      <c r="K54" s="35"/>
+    </row>
+    <row r="55" spans="1:13" s="36" customFormat="1">
+      <c r="A55" s="6">
+        <v>151288592</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="2">
+        <v>10</v>
+      </c>
+      <c r="D55" s="3">
+        <v>8463</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F55" s="6">
+        <v>687349</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H55" s="5">
+        <v>10</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J55" s="5">
         <v>0</v>
       </c>
-      <c r="K49" s="35" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" s="36" customFormat="1">
-      <c r="A50" s="11"/>
-      <c r="B50" s="32"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="32"/>
-      <c r="J50" s="35"/>
-      <c r="K50" s="35"/>
-    </row>
-    <row r="51" spans="1:13" s="36" customFormat="1">
-      <c r="A51" s="6">
-        <v>151288592</v>
-      </c>
-      <c r="B51" s="2" t="s">
+      <c r="K55" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" s="36" customFormat="1">
+      <c r="A56" s="31"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="57"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="35"/>
+      <c r="K56" s="35"/>
+    </row>
+    <row r="57" spans="1:13" s="36" customFormat="1">
+      <c r="A57" s="6">
+        <v>151242082</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C51" s="2">
-        <v>10</v>
-      </c>
-      <c r="D51" s="3">
-        <v>8463</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F51" s="6">
-        <v>687349</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H51" s="5">
-        <v>10</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J51" s="5">
+      <c r="C57" s="2">
+        <v>10</v>
+      </c>
+      <c r="D57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F57" s="6">
+        <v>691660</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H57" s="5">
+        <v>1</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J57" s="5">
         <v>0</v>
       </c>
-      <c r="K51" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" s="36" customFormat="1">
-      <c r="A52" s="31"/>
-      <c r="B52" s="32"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="57"/>
-      <c r="H52" s="35"/>
-      <c r="I52" s="32"/>
-      <c r="J52" s="35"/>
-      <c r="K52" s="35"/>
-    </row>
-    <row r="53" spans="1:13" s="36" customFormat="1">
-      <c r="A53" s="6">
-        <v>151242082</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C53" s="2">
-        <v>10</v>
-      </c>
-      <c r="D53" s="3">
-        <v>1600</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F53" s="6">
-        <v>691660</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H53" s="5">
-        <v>1</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J53" s="5">
-        <v>0</v>
-      </c>
-      <c r="K53" s="5" t="s">
+      <c r="K57" s="5" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
-    </row>
-    <row r="55" spans="1:13" s="47" customFormat="1">
-      <c r="A55" s="11">
-        <v>151280693</v>
-      </c>
-      <c r="B55" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C55" s="32">
-        <v>40</v>
-      </c>
-      <c r="D55" s="33">
-        <v>565</v>
-      </c>
-      <c r="E55" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="F55" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="G55" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="H55" s="35">
-        <v>100</v>
-      </c>
-      <c r="I55" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J55" s="35">
-        <v>0</v>
-      </c>
-      <c r="K55" s="35" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
-      <c r="M56" s="25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
-      <c r="A57" s="18">
-        <v>151264212</v>
-      </c>
-      <c r="B57" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C57" s="18">
-        <v>10</v>
-      </c>
-      <c r="D57" s="52">
-        <v>10710</v>
-      </c>
-      <c r="E57" s="53" t="s">
-        <v>85</v>
-      </c>
-      <c r="F57" s="18">
-        <v>704681</v>
-      </c>
-      <c r="G57" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="H57" s="19">
-        <v>1</v>
-      </c>
-      <c r="I57" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="J57" s="19">
-        <v>0</v>
-      </c>
-      <c r="K57" s="19" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -6723,45 +6727,45 @@
       <c r="D58" s="26"/>
       <c r="E58" s="27"/>
       <c r="F58" s="1"/>
-      <c r="G58" s="57"/>
+      <c r="G58" s="1"/>
       <c r="H58" s="12"/>
       <c r="I58" s="1"/>
       <c r="J58" s="12"/>
       <c r="K58" s="12"/>
     </row>
-    <row r="59" spans="1:13">
-      <c r="A59" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D59" s="26">
-        <v>4995</v>
-      </c>
-      <c r="E59" s="27">
-        <v>44223</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H59" s="12">
-        <v>2</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J59" s="12">
-        <v>0</v>
-      </c>
-      <c r="K59" s="12" t="s">
-        <v>41</v>
+    <row r="59" spans="1:13" s="47" customFormat="1">
+      <c r="A59" s="11">
+        <v>151314792</v>
+      </c>
+      <c r="B59" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="32">
+        <v>10</v>
+      </c>
+      <c r="D59" s="33">
+        <v>565</v>
+      </c>
+      <c r="E59" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="F59" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G59" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H59" s="35">
+        <v>100</v>
+      </c>
+      <c r="I59" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J59" s="35">
+        <v>100</v>
+      </c>
+      <c r="K59" s="35" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -6776,40 +6780,43 @@
       <c r="I60" s="1"/>
       <c r="J60" s="12"/>
       <c r="K60" s="12"/>
+      <c r="M60" s="25" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D61" s="26">
-        <v>4245</v>
-      </c>
-      <c r="E61" s="27">
-        <v>44223</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H61" s="12">
-        <v>2</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J61" s="12">
+      <c r="A61" s="18">
+        <v>151264212</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="18">
+        <v>10</v>
+      </c>
+      <c r="D61" s="52">
+        <v>10710</v>
+      </c>
+      <c r="E61" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="F61" s="18">
+        <v>704681</v>
+      </c>
+      <c r="G61" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="H61" s="19">
+        <v>1</v>
+      </c>
+      <c r="I61" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J61" s="19">
         <v>0</v>
       </c>
-      <c r="K61" s="12" t="s">
-        <v>41</v>
+      <c r="K61" s="19" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -6819,36 +6826,36 @@
       <c r="D62" s="26"/>
       <c r="E62" s="27"/>
       <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
+      <c r="G62" s="57"/>
       <c r="H62" s="12"/>
       <c r="I62" s="1"/>
       <c r="J62" s="12"/>
       <c r="K62" s="12"/>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="21">
-        <v>151113088</v>
+      <c r="A63" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C63" s="1">
-        <v>10</v>
+      <c r="C63" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D63" s="26">
-        <v>1896</v>
+        <v>4995</v>
       </c>
       <c r="E63" s="27">
-        <v>44487</v>
+        <v>44223</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H63" s="12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>12</v>
@@ -6857,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="K63" s="12" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -6873,308 +6880,474 @@
       <c r="J64" s="12"/>
       <c r="K64" s="12"/>
     </row>
-    <row r="65" spans="1:11" s="36" customFormat="1">
-      <c r="A65" s="31">
+    <row r="65" spans="1:11">
+      <c r="A65" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" s="26">
+        <v>4245</v>
+      </c>
+      <c r="E65" s="27">
+        <v>44223</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H65" s="12">
+        <v>2</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J65" s="12">
+        <v>0</v>
+      </c>
+      <c r="K65" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="21">
+        <v>151113088</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="1">
+        <v>10</v>
+      </c>
+      <c r="D67" s="26">
+        <v>1896</v>
+      </c>
+      <c r="E67" s="27">
+        <v>44487</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" s="12">
+        <v>5</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J67" s="12">
+        <v>0</v>
+      </c>
+      <c r="K67" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+    </row>
+    <row r="69" spans="1:11" s="36" customFormat="1">
+      <c r="A69" s="31">
         <v>151280693</v>
       </c>
-      <c r="B65" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="C65" s="54">
+      <c r="B69" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="54">
         <v>30</v>
       </c>
-      <c r="D65" s="54">
+      <c r="D69" s="54">
         <v>45000</v>
       </c>
-      <c r="E65" s="54" t="s">
+      <c r="E69" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="F65" s="54">
+      <c r="F69" s="54">
         <v>719031</v>
       </c>
-      <c r="G65" s="54" t="s">
+      <c r="G69" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="H65" s="55">
+      <c r="H69" s="55">
         <v>20</v>
       </c>
-      <c r="I65" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="J65" s="55">
+      <c r="I69" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="J69" s="55">
         <v>14</v>
       </c>
-      <c r="K65" s="55" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" s="36" customFormat="1">
-      <c r="A66" s="6">
+      <c r="K69" s="55" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" s="36" customFormat="1">
+      <c r="A70" s="6">
         <v>151308917</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B70" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C66" s="7">
-        <v>10</v>
-      </c>
-      <c r="D66" s="7">
+      <c r="C70" s="7">
+        <v>10</v>
+      </c>
+      <c r="D70" s="7">
         <v>45000</v>
       </c>
-      <c r="E66" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F66" s="7">
+      <c r="E70" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F70" s="7">
         <v>719031</v>
       </c>
-      <c r="G66" s="7" t="s">
+      <c r="G70" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H66" s="61">
+      <c r="H70" s="61">
         <v>1</v>
       </c>
-      <c r="I66" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J66" s="61">
+      <c r="I70" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J70" s="61">
         <v>1</v>
       </c>
-      <c r="K66" s="61" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="39"/>
-      <c r="B67" s="44"/>
-      <c r="C67" s="44"/>
-      <c r="D67" s="44"/>
-      <c r="E67" s="44"/>
-      <c r="F67" s="44"/>
-      <c r="G67" s="44"/>
-      <c r="H67" s="45"/>
-      <c r="I67" s="44"/>
-      <c r="J67" s="45"/>
-      <c r="K67" s="45"/>
-    </row>
-    <row r="68" spans="1:11" s="36" customFormat="1">
-      <c r="A68" s="37">
+      <c r="K70" s="61" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="39"/>
+      <c r="B71" s="44"/>
+      <c r="C71" s="44"/>
+      <c r="D71" s="44"/>
+      <c r="E71" s="44"/>
+      <c r="F71" s="44"/>
+      <c r="G71" s="44"/>
+      <c r="H71" s="45"/>
+      <c r="I71" s="44"/>
+      <c r="J71" s="45"/>
+      <c r="K71" s="45"/>
+    </row>
+    <row r="72" spans="1:11" s="36" customFormat="1">
+      <c r="A72" s="37">
         <v>151306716</v>
       </c>
-      <c r="B68" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C68" s="32">
-        <v>10</v>
-      </c>
-      <c r="D68" s="59">
+      <c r="B72" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="62">
+        <v>10</v>
+      </c>
+      <c r="D72" s="63">
         <v>9999</v>
       </c>
-      <c r="E68" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="F68" s="31">
+      <c r="E72" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="F72" s="64">
         <v>719381</v>
       </c>
-      <c r="G68" s="31" t="s">
+      <c r="G72" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="H68" s="32">
+      <c r="H72" s="62">
         <v>5</v>
       </c>
-      <c r="I68" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J68" s="32">
+      <c r="I72" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="J72" s="62">
         <v>5</v>
       </c>
-      <c r="K68" s="31" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
-      <c r="A69" s="11"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="11"/>
-    </row>
-    <row r="70" spans="1:11">
-      <c r="A70" s="23">
+      <c r="K72" s="64" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" s="36" customFormat="1">
+      <c r="A73" s="31">
+        <v>151315311</v>
+      </c>
+      <c r="B73" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="32">
+        <v>30</v>
+      </c>
+      <c r="D73" s="59">
+        <v>9999</v>
+      </c>
+      <c r="E73" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="F73" s="31">
+        <v>719381</v>
+      </c>
+      <c r="G73" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="H73" s="32">
+        <v>10</v>
+      </c>
+      <c r="I73" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J73" s="32">
+        <v>10</v>
+      </c>
+      <c r="K73" s="31" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="11"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="11"/>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="23">
         <v>151308917</v>
       </c>
-      <c r="B70" s="58" t="s">
+      <c r="B75" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="C70" s="58">
+      <c r="C75" s="58">
         <v>20</v>
       </c>
-      <c r="D70" s="7">
+      <c r="D75" s="7">
         <v>6800</v>
       </c>
-      <c r="E70" s="58" t="s">
-        <v>94</v>
-      </c>
-      <c r="F70" s="7">
+      <c r="E75" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="F75" s="7">
         <v>720138</v>
       </c>
-      <c r="G70" s="7" t="s">
+      <c r="G75" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H70" s="58">
+      <c r="H75" s="58">
         <v>1</v>
       </c>
-      <c r="I70" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="J70" s="58">
+      <c r="I75" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="J75" s="58">
         <v>0</v>
       </c>
-      <c r="K70" s="58" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
-      <c r="A71" s="1"/>
-      <c r="B71" s="40"/>
-      <c r="C71" s="40"/>
-      <c r="D71" s="40"/>
-      <c r="E71" s="40"/>
-      <c r="F71" s="40"/>
-      <c r="G71" s="40"/>
-      <c r="H71" s="40"/>
-      <c r="I71" s="40"/>
-      <c r="J71" s="40"/>
-      <c r="K71" s="40"/>
-    </row>
-    <row r="72" spans="1:11" s="36" customFormat="1">
-      <c r="A72" s="11">
+      <c r="K75" s="58" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="1"/>
+      <c r="B76" s="40"/>
+      <c r="C76" s="40"/>
+      <c r="D76" s="40"/>
+      <c r="E76" s="40"/>
+      <c r="F76" s="40"/>
+      <c r="G76" s="40"/>
+      <c r="H76" s="40"/>
+      <c r="I76" s="40"/>
+      <c r="J76" s="40"/>
+      <c r="K76" s="40"/>
+    </row>
+    <row r="77" spans="1:11" s="36" customFormat="1">
+      <c r="A77" s="11">
         <v>151280693</v>
       </c>
-      <c r="B72" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C72" s="32">
-        <v>10</v>
-      </c>
-      <c r="D72" s="32">
+      <c r="B77" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="32">
+        <v>10</v>
+      </c>
+      <c r="D77" s="32">
         <v>2490</v>
       </c>
-      <c r="E72" s="32" t="s">
+      <c r="E77" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="F72" s="31">
+      <c r="F77" s="31">
         <v>724214</v>
       </c>
-      <c r="G72" s="31" t="s">
+      <c r="G77" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="H72" s="32">
+      <c r="H77" s="32">
         <v>20</v>
       </c>
-      <c r="I72" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J72" s="32">
+      <c r="I77" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J77" s="32">
         <v>0</v>
       </c>
-      <c r="K72" s="32" t="s">
+      <c r="K77" s="32" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-    </row>
-    <row r="74" spans="1:11">
-      <c r="A74" s="1">
+    <row r="78" spans="1:11">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="1">
         <v>16063532</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C74" s="1">
-        <v>10</v>
-      </c>
-      <c r="D74" s="1">
+      <c r="B79" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" s="1">
+        <v>10</v>
+      </c>
+      <c r="D79" s="1">
         <v>2900</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="E79" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F74" s="1">
+      <c r="F79" s="1">
         <v>725828</v>
       </c>
-      <c r="G74" s="1" t="s">
+      <c r="G79" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H74" s="1">
-        <v>10</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J74" s="1">
+      <c r="H79" s="1">
+        <v>10</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J79" s="1">
         <v>0</v>
       </c>
-      <c r="K74" s="1" t="s">
+      <c r="K79" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
-      <c r="A76" s="6">
+    <row r="81" spans="1:11">
+      <c r="A81" s="6">
         <v>151294292</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B81" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C76" s="2">
-        <v>10</v>
-      </c>
-      <c r="D76" s="2">
+      <c r="C81" s="2">
+        <v>10</v>
+      </c>
+      <c r="D81" s="2">
         <v>100</v>
       </c>
-      <c r="E76" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F76" s="2">
+      <c r="E81" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F81" s="2">
         <v>728488</v>
       </c>
-      <c r="G76" s="6" t="s">
+      <c r="G81" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H76" s="2">
+      <c r="H81" s="2">
         <v>61</v>
       </c>
-      <c r="I76" s="2" t="s">
+      <c r="I81" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J76" s="2">
+      <c r="J81" s="2">
         <v>0</v>
       </c>
-      <c r="K76" s="2" t="s">
+      <c r="K81" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
-      <c r="F79" s="17"/>
+    <row r="82" spans="1:11" s="36" customFormat="1">
+      <c r="A82" s="31">
+        <v>151315311</v>
+      </c>
+      <c r="B82" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" s="32">
+        <v>10</v>
+      </c>
+      <c r="D82" s="32">
+        <v>100</v>
+      </c>
+      <c r="E82" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="F82" s="32">
+        <v>728488</v>
+      </c>
+      <c r="G82" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="H82" s="32">
+        <v>10</v>
+      </c>
+      <c r="I82" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="J82" s="32">
+        <v>10</v>
+      </c>
+      <c r="K82" s="32" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="F85" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Updated PO.xlsx
+++ b/Updated PO.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="112">
   <si>
     <t>Purchasing Document</t>
   </si>
@@ -320,9 +320,6 @@
     <t>CPU_DELL_MT0.5 &amp; MT1.0</t>
   </si>
   <si>
-    <t>13.02.2023</t>
-  </si>
-  <si>
     <t>17.05.2023</t>
   </si>
   <si>
@@ -345,12 +342,6 @@
   </si>
   <si>
     <t>13.04.2023</t>
-  </si>
-  <si>
-    <t>21.03.2023</t>
-  </si>
-  <si>
-    <t>19.06.2023</t>
   </si>
   <si>
     <t>29.03.2023</t>
@@ -1011,10 +1002,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M90"/>
+  <dimension ref="A1:M89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="J82" sqref="J82"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2323,7 +2314,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="36" customFormat="1">
@@ -2340,7 +2331,7 @@
         <v>2400</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F9" s="32">
         <v>615181</v>
@@ -2358,7 +2349,7 @@
         <v>13</v>
       </c>
       <c r="K9" s="32" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2406,7 +2397,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="36" customFormat="1">
@@ -2423,7 +2414,7 @@
         <v>4831</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F12" s="32">
         <v>615698</v>
@@ -2441,7 +2432,7 @@
         <v>10</v>
       </c>
       <c r="K12" s="32" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2489,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2539,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2569,7 +2560,7 @@
         <v>600</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F18" s="32" t="s">
         <v>24</v>
@@ -2587,7 +2578,7 @@
         <v>15</v>
       </c>
       <c r="K18" s="35" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2604,20 +2595,20 @@
       <c r="K19" s="12"/>
     </row>
     <row r="20" spans="1:12" s="36" customFormat="1">
-      <c r="A20" s="11">
-        <v>151311194</v>
+      <c r="A20" s="31">
+        <v>151315311</v>
       </c>
       <c r="B20" s="32" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="32">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="D20" s="32">
         <v>5614</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F20" s="32">
         <v>616026</v>
@@ -2626,7 +2617,7 @@
         <v>68</v>
       </c>
       <c r="H20" s="32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I20" s="32" t="s">
         <v>12</v>
@@ -2635,1527 +2626,1492 @@
         <v>0</v>
       </c>
       <c r="K20" s="35" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="36" customFormat="1">
+      <c r="A21" s="11"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="35"/>
+    </row>
+    <row r="22" spans="1:12" s="36" customFormat="1">
+      <c r="A22" s="6">
+        <v>151308917</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="2">
+        <v>80</v>
+      </c>
+      <c r="D22" s="5">
+        <v>6521</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" s="5">
+        <v>10</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="5">
+        <v>0</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L22" s="56"/>
+    </row>
+    <row r="23" spans="1:12" s="36" customFormat="1">
+      <c r="A23" s="31">
+        <v>151315311</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="32">
+        <v>100</v>
+      </c>
+      <c r="D23" s="35">
+        <v>6521</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" s="35">
+        <v>5</v>
+      </c>
+      <c r="I23" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="35">
+        <v>5</v>
+      </c>
+      <c r="K23" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="L23" s="56"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="11"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+    </row>
+    <row r="25" spans="1:12" s="36" customFormat="1">
+      <c r="A25" s="23">
+        <v>151308917</v>
+      </c>
+      <c r="B25" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="65">
+        <v>70</v>
+      </c>
+      <c r="D25" s="65">
+        <v>4048</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" s="65">
+        <v>630059</v>
+      </c>
+      <c r="G25" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" s="65">
+        <v>10</v>
+      </c>
+      <c r="I25" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" s="65">
+        <v>0</v>
+      </c>
+      <c r="K25" s="65" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="36" customFormat="1">
+      <c r="A26" s="31">
+        <v>151315311</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="32">
+        <v>90</v>
+      </c>
+      <c r="D26" s="32">
+        <v>4048</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" s="32">
+        <v>630059</v>
+      </c>
+      <c r="G26" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" s="32">
+        <v>20</v>
+      </c>
+      <c r="I26" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" s="32">
+        <v>20</v>
+      </c>
+      <c r="K26" s="32" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="11"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" s="36" customFormat="1">
+      <c r="A28" s="6">
+        <v>151308917</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="2">
+        <v>50</v>
+      </c>
+      <c r="D28" s="20">
+        <v>5738</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" s="6">
+        <v>632215</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H28" s="2">
+        <v>2</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="12" customHeight="1">
+      <c r="A29" s="11"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="11"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="11">
+        <v>151110116</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="1">
+        <v>60</v>
+      </c>
+      <c r="D30" s="13">
+        <v>3450</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" s="13">
+        <v>634355</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" s="13">
+        <v>10</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J30" s="13">
+        <v>10</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="12"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="2">
+        <v>151008992</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="2">
+        <v>20</v>
+      </c>
+      <c r="D32" s="10">
+        <v>4726</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="2">
+        <v>635655</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" s="2">
+        <v>10</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="1:11" s="36" customFormat="1">
+      <c r="A34" s="31">
+        <v>151302474</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="32">
+        <v>40</v>
+      </c>
+      <c r="D34" s="60">
+        <v>2818</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="F34" s="31">
+        <v>635656</v>
+      </c>
+      <c r="G34" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="H34" s="32">
+        <v>15</v>
+      </c>
+      <c r="I34" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="J34" s="32">
+        <v>0</v>
+      </c>
+      <c r="K34" s="32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:11" s="36" customFormat="1">
+      <c r="A36" s="31">
+        <v>151302474</v>
+      </c>
+      <c r="B36" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="32">
+        <v>50</v>
+      </c>
+      <c r="D36" s="59">
+        <v>3555</v>
+      </c>
+      <c r="E36" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="F36" s="31">
+        <v>646872</v>
+      </c>
+      <c r="G36" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H36" s="32">
+        <v>10</v>
+      </c>
+      <c r="I36" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J36" s="32">
+        <v>0</v>
+      </c>
+      <c r="K36" s="31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="11"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="11"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="11">
+        <v>151110116</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="1">
+        <v>40</v>
+      </c>
+      <c r="D38" s="26">
+        <v>112</v>
+      </c>
+      <c r="E38" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H38" s="12">
+        <v>50</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" s="12">
+        <v>0</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="23">
+        <v>151197029</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="2">
+        <v>60</v>
+      </c>
+      <c r="D40" s="3">
+        <v>3510</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" s="2">
+        <v>663091</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H40" s="5">
+        <v>2</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J40" s="5">
+        <v>0</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="6">
+        <v>151090350</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="2">
+        <v>10</v>
+      </c>
+      <c r="D42" s="3">
+        <v>5130</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F42" s="2">
+        <v>663092</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H42" s="5">
+        <v>2</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J42" s="5">
+        <v>0</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+    </row>
+    <row r="44" spans="1:11" s="36" customFormat="1">
+      <c r="A44" s="6">
+        <v>151308917</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="2">
+        <v>60</v>
+      </c>
+      <c r="D44" s="3">
+        <v>6615</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F44" s="2">
+        <v>663093</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H44" s="5">
+        <v>2</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J44" s="5">
+        <v>0</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+    </row>
+    <row r="46" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A46" s="6">
+        <v>151283046</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="2">
+        <v>10</v>
+      </c>
+      <c r="D46" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F46" s="2">
+        <v>667226</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H46" s="5">
+        <v>2</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J46" s="5">
+        <v>2</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="6">
+        <v>151282825</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="2">
+        <v>40</v>
+      </c>
+      <c r="D48" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F48" s="2">
+        <v>668330</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H48" s="5">
+        <v>3</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J48" s="5">
+        <v>0</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" s="36" customFormat="1">
+      <c r="A49" s="37"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="51"/>
+      <c r="I49" s="48"/>
+      <c r="J49" s="51"/>
+      <c r="K49" s="51"/>
+    </row>
+    <row r="50" spans="1:13" s="36" customFormat="1">
+      <c r="A50" s="11">
+        <v>151306604</v>
+      </c>
+      <c r="B50" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="32">
+        <v>10</v>
+      </c>
+      <c r="D50" s="33">
+        <v>9703</v>
+      </c>
+      <c r="E50" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="F50" s="31">
+        <v>681149</v>
+      </c>
+      <c r="G50" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="H50" s="35">
+        <v>1</v>
+      </c>
+      <c r="I50" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J50" s="35">
+        <v>0</v>
+      </c>
+      <c r="K50" s="34" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" s="40"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="43"/>
+      <c r="K51" s="43"/>
+    </row>
+    <row r="52" spans="1:13" s="36" customFormat="1">
+      <c r="A52" s="11">
+        <v>151314791</v>
+      </c>
+      <c r="B52" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="32">
+        <v>10</v>
+      </c>
+      <c r="D52" s="33">
+        <v>1908</v>
+      </c>
+      <c r="E52" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="F52" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="G52" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="H52" s="35">
+        <v>40</v>
+      </c>
+      <c r="I52" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J52" s="35">
+        <v>40</v>
+      </c>
+      <c r="K52" s="35" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" s="36" customFormat="1">
+      <c r="A53" s="11"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="35"/>
+    </row>
+    <row r="54" spans="1:13" s="36" customFormat="1">
+      <c r="A54" s="6">
+        <v>151288592</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="2">
+        <v>10</v>
+      </c>
+      <c r="D54" s="3">
+        <v>8463</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F54" s="6">
+        <v>687349</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H54" s="5">
+        <v>10</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J54" s="5">
+        <v>0</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" s="36" customFormat="1">
+      <c r="A55" s="31"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="57"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="32"/>
+      <c r="J55" s="35"/>
+      <c r="K55" s="35"/>
+    </row>
+    <row r="56" spans="1:13" s="36" customFormat="1">
+      <c r="A56" s="6">
+        <v>151242082</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="2">
+        <v>10</v>
+      </c>
+      <c r="D56" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F56" s="6">
+        <v>691660</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H56" s="5">
+        <v>1</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J56" s="5">
+        <v>0</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+    </row>
+    <row r="58" spans="1:13" s="47" customFormat="1">
+      <c r="A58" s="11">
+        <v>151314792</v>
+      </c>
+      <c r="B58" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="32">
+        <v>10</v>
+      </c>
+      <c r="D58" s="33">
+        <v>565</v>
+      </c>
+      <c r="E58" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="F58" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G58" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H58" s="35">
+        <v>100</v>
+      </c>
+      <c r="I58" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J58" s="35">
+        <v>100</v>
+      </c>
+      <c r="K58" s="35" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="36" customFormat="1">
-      <c r="A21" s="31">
+    <row r="59" spans="1:13">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="M59" s="25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="18">
+        <v>151264212</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="18">
+        <v>10</v>
+      </c>
+      <c r="D60" s="52">
+        <v>10710</v>
+      </c>
+      <c r="E60" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="F60" s="18">
+        <v>704681</v>
+      </c>
+      <c r="G60" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="H60" s="19">
+        <v>1</v>
+      </c>
+      <c r="I60" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J60" s="19">
+        <v>0</v>
+      </c>
+      <c r="K60" s="19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="57"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D62" s="26">
+        <v>4995</v>
+      </c>
+      <c r="E62" s="27">
+        <v>44223</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H62" s="12">
+        <v>2</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J62" s="12">
+        <v>0</v>
+      </c>
+      <c r="K62" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" s="26">
+        <v>4245</v>
+      </c>
+      <c r="E64" s="27">
+        <v>44223</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H64" s="12">
+        <v>2</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J64" s="12">
+        <v>0</v>
+      </c>
+      <c r="K64" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12"/>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="21">
+        <v>151113088</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" s="1">
+        <v>10</v>
+      </c>
+      <c r="D66" s="26">
+        <v>1896</v>
+      </c>
+      <c r="E66" s="27">
+        <v>44487</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" s="12">
+        <v>5</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J66" s="12">
+        <v>0</v>
+      </c>
+      <c r="K66" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
+    </row>
+    <row r="68" spans="1:11" s="36" customFormat="1">
+      <c r="A68" s="31">
+        <v>151280693</v>
+      </c>
+      <c r="B68" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" s="54">
+        <v>30</v>
+      </c>
+      <c r="D68" s="54">
+        <v>45000</v>
+      </c>
+      <c r="E68" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="F68" s="54">
+        <v>719031</v>
+      </c>
+      <c r="G68" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" s="55">
+        <v>20</v>
+      </c>
+      <c r="I68" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="J68" s="55">
+        <v>14</v>
+      </c>
+      <c r="K68" s="55" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" s="36" customFormat="1">
+      <c r="A69" s="6">
+        <v>151308917</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="7">
+        <v>10</v>
+      </c>
+      <c r="D69" s="7">
+        <v>45000</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F69" s="7">
+        <v>719031</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" s="61">
+        <v>1</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J69" s="61">
+        <v>1</v>
+      </c>
+      <c r="K69" s="61" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="39"/>
+      <c r="B70" s="44"/>
+      <c r="C70" s="44"/>
+      <c r="D70" s="44"/>
+      <c r="E70" s="44"/>
+      <c r="F70" s="44"/>
+      <c r="G70" s="44"/>
+      <c r="H70" s="45"/>
+      <c r="I70" s="44"/>
+      <c r="J70" s="45"/>
+      <c r="K70" s="45"/>
+    </row>
+    <row r="71" spans="1:11" s="36" customFormat="1">
+      <c r="A71" s="37">
+        <v>151306716</v>
+      </c>
+      <c r="B71" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="62">
+        <v>10</v>
+      </c>
+      <c r="D71" s="63">
+        <v>9999</v>
+      </c>
+      <c r="E71" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="F71" s="64">
+        <v>719381</v>
+      </c>
+      <c r="G71" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="H71" s="62">
+        <v>5</v>
+      </c>
+      <c r="I71" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="J71" s="62">
+        <v>0</v>
+      </c>
+      <c r="K71" s="64" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" s="36" customFormat="1">
+      <c r="A72" s="31">
         <v>151315311</v>
       </c>
-      <c r="B21" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="32">
-        <v>110</v>
-      </c>
-      <c r="D21" s="32">
-        <v>5614</v>
-      </c>
-      <c r="E21" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="F21" s="32">
-        <v>616026</v>
-      </c>
-      <c r="G21" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="H21" s="32">
-        <v>5</v>
-      </c>
-      <c r="I21" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="32">
+      <c r="B72" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="32">
+        <v>30</v>
+      </c>
+      <c r="D72" s="59">
+        <v>9999</v>
+      </c>
+      <c r="E72" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="F72" s="31">
+        <v>719381</v>
+      </c>
+      <c r="G72" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="H72" s="32">
+        <v>10</v>
+      </c>
+      <c r="I72" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J72" s="32">
+        <v>10</v>
+      </c>
+      <c r="K72" s="31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="11"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="11"/>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="23">
+        <v>151308917</v>
+      </c>
+      <c r="B74" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" s="58">
+        <v>20</v>
+      </c>
+      <c r="D74" s="7">
+        <v>6800</v>
+      </c>
+      <c r="E74" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="F74" s="7">
+        <v>720138</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H74" s="58">
+        <v>1</v>
+      </c>
+      <c r="I74" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="J74" s="58">
         <v>0</v>
       </c>
-      <c r="K21" s="35" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="36" customFormat="1">
-      <c r="A22" s="11"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="35"/>
-    </row>
-    <row r="23" spans="1:12" s="36" customFormat="1">
-      <c r="A23" s="6">
-        <v>151308917</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="2">
-        <v>80</v>
-      </c>
-      <c r="D23" s="5">
-        <v>6521</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H23" s="5">
-        <v>10</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" s="5">
+      <c r="K74" s="58" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="1"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="40"/>
+      <c r="D75" s="40"/>
+      <c r="E75" s="40"/>
+      <c r="F75" s="40"/>
+      <c r="G75" s="40"/>
+      <c r="H75" s="40"/>
+      <c r="I75" s="40"/>
+      <c r="J75" s="40"/>
+      <c r="K75" s="40"/>
+    </row>
+    <row r="76" spans="1:11" s="36" customFormat="1">
+      <c r="A76" s="11">
+        <v>151280693</v>
+      </c>
+      <c r="B76" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" s="32">
+        <v>10</v>
+      </c>
+      <c r="D76" s="32">
+        <v>2490</v>
+      </c>
+      <c r="E76" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="F76" s="31">
+        <v>724214</v>
+      </c>
+      <c r="G76" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="H76" s="32">
+        <v>20</v>
+      </c>
+      <c r="I76" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J76" s="32">
         <v>0</v>
       </c>
-      <c r="K23" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="L23" s="56"/>
-    </row>
-    <row r="24" spans="1:12" s="36" customFormat="1">
-      <c r="A24" s="31">
+      <c r="K76" s="32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="1">
+        <v>16063532</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" s="1">
+        <v>10</v>
+      </c>
+      <c r="D78" s="1">
+        <v>2900</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F78" s="1">
+        <v>725828</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H78" s="1">
+        <v>10</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J78" s="1">
+        <v>0</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" s="36" customFormat="1">
+      <c r="A80" s="31">
         <v>151315311</v>
       </c>
-      <c r="B24" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="32">
+      <c r="B80" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" s="32">
+        <v>10</v>
+      </c>
+      <c r="D80" s="32">
         <v>100</v>
       </c>
-      <c r="D24" s="35">
-        <v>6521</v>
-      </c>
-      <c r="E24" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="F24" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="H24" s="35">
-        <v>5</v>
-      </c>
-      <c r="I24" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" s="35">
-        <v>5</v>
-      </c>
-      <c r="K24" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="L24" s="56"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="11"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-    </row>
-    <row r="26" spans="1:12" s="36" customFormat="1">
-      <c r="A26" s="23">
-        <v>151308917</v>
-      </c>
-      <c r="B26" s="65" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="65">
-        <v>70</v>
-      </c>
-      <c r="D26" s="65">
-        <v>4048</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F26" s="65">
-        <v>630059</v>
-      </c>
-      <c r="G26" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="H26" s="65">
-        <v>10</v>
-      </c>
-      <c r="I26" s="65" t="s">
-        <v>12</v>
-      </c>
-      <c r="J26" s="65">
-        <v>0</v>
-      </c>
-      <c r="K26" s="65" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" s="36" customFormat="1">
-      <c r="A27" s="31">
-        <v>151315311</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="32">
-        <v>90</v>
-      </c>
-      <c r="D27" s="32">
-        <v>4048</v>
-      </c>
-      <c r="E27" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="F27" s="32">
-        <v>630059</v>
-      </c>
-      <c r="G27" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="H27" s="32">
-        <v>20</v>
-      </c>
-      <c r="I27" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J27" s="32">
-        <v>20</v>
-      </c>
-      <c r="K27" s="32" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="11"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-    </row>
-    <row r="29" spans="1:12" s="36" customFormat="1">
-      <c r="A29" s="6">
-        <v>151308917</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="2">
-        <v>50</v>
-      </c>
-      <c r="D29" s="20">
-        <v>5738</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="F29" s="6">
-        <v>632215</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H29" s="2">
-        <v>2</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J29" s="2">
-        <v>0</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="12" customHeight="1">
-      <c r="A30" s="11"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="11"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="11">
-        <v>151110116</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="1">
-        <v>60</v>
-      </c>
-      <c r="D31" s="13">
-        <v>3450</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F31" s="13">
-        <v>634355</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H31" s="13">
-        <v>10</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J31" s="13">
-        <v>10</v>
-      </c>
-      <c r="K31" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="12"/>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="2">
-        <v>151008992</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="2">
-        <v>20</v>
-      </c>
-      <c r="D33" s="10">
-        <v>4726</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F33" s="2">
-        <v>635655</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H33" s="2">
-        <v>10</v>
-      </c>
-      <c r="I33" s="2" t="s">
+      <c r="E80" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="F80" s="32">
+        <v>728488</v>
+      </c>
+      <c r="G80" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="H80" s="32">
+        <v>10</v>
+      </c>
+      <c r="I80" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="J33" s="2">
-        <v>0</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-    </row>
-    <row r="35" spans="1:11" s="36" customFormat="1">
-      <c r="A35" s="31">
-        <v>151302474</v>
-      </c>
-      <c r="B35" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="32">
-        <v>40</v>
-      </c>
-      <c r="D35" s="60">
-        <v>2818</v>
-      </c>
-      <c r="E35" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="F35" s="31">
-        <v>635656</v>
-      </c>
-      <c r="G35" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="H35" s="32">
-        <v>15</v>
-      </c>
-      <c r="I35" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="J35" s="32">
-        <v>0</v>
-      </c>
-      <c r="K35" s="32" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-    </row>
-    <row r="37" spans="1:11" s="36" customFormat="1">
-      <c r="A37" s="31">
-        <v>151302474</v>
-      </c>
-      <c r="B37" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" s="32">
-        <v>50</v>
-      </c>
-      <c r="D37" s="59">
-        <v>3555</v>
-      </c>
-      <c r="E37" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="F37" s="31">
-        <v>646872</v>
-      </c>
-      <c r="G37" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="H37" s="32">
-        <v>10</v>
-      </c>
-      <c r="I37" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J37" s="32">
-        <v>0</v>
-      </c>
-      <c r="K37" s="31" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="11"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="11"/>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="11">
-        <v>151110116</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" s="1">
-        <v>40</v>
-      </c>
-      <c r="D39" s="26">
-        <v>112</v>
-      </c>
-      <c r="E39" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H39" s="12">
-        <v>50</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J39" s="12">
-        <v>0</v>
-      </c>
-      <c r="K39" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="23">
-        <v>151197029</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" s="2">
-        <v>60</v>
-      </c>
-      <c r="D41" s="3">
-        <v>3510</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F41" s="2">
-        <v>663091</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H41" s="5">
-        <v>2</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J41" s="5">
-        <v>0</v>
-      </c>
-      <c r="K41" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="6">
-        <v>151090350</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C43" s="2">
-        <v>10</v>
-      </c>
-      <c r="D43" s="3">
-        <v>5130</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F43" s="2">
-        <v>663092</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H43" s="5">
-        <v>2</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J43" s="5">
-        <v>0</v>
-      </c>
-      <c r="K43" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-    </row>
-    <row r="45" spans="1:11" s="36" customFormat="1">
-      <c r="A45" s="6">
-        <v>151308917</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C45" s="2">
-        <v>60</v>
-      </c>
-      <c r="D45" s="3">
-        <v>6615</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F45" s="2">
-        <v>663093</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H45" s="5">
-        <v>2</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J45" s="5">
-        <v>0</v>
-      </c>
-      <c r="K45" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-    </row>
-    <row r="47" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A47" s="6">
-        <v>151283046</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47" s="2">
-        <v>10</v>
-      </c>
-      <c r="D47" s="3">
-        <v>34000</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F47" s="2">
-        <v>667226</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="H47" s="5">
-        <v>2</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J47" s="5">
-        <v>2</v>
-      </c>
-      <c r="K47" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-    </row>
-    <row r="49" spans="1:13">
-      <c r="A49" s="6">
-        <v>151282825</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C49" s="2">
-        <v>40</v>
-      </c>
-      <c r="D49" s="3">
-        <v>6000</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F49" s="2">
-        <v>668330</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H49" s="5">
-        <v>3</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J49" s="5">
-        <v>0</v>
-      </c>
-      <c r="K49" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" s="36" customFormat="1">
-      <c r="A50" s="37"/>
-      <c r="B50" s="48"/>
-      <c r="C50" s="48"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="50"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="48"/>
-      <c r="H50" s="51"/>
-      <c r="I50" s="48"/>
-      <c r="J50" s="51"/>
-      <c r="K50" s="51"/>
-    </row>
-    <row r="51" spans="1:13" s="36" customFormat="1">
-      <c r="A51" s="11">
-        <v>151306604</v>
-      </c>
-      <c r="B51" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" s="32">
-        <v>10</v>
-      </c>
-      <c r="D51" s="33">
-        <v>9703</v>
-      </c>
-      <c r="E51" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="F51" s="31">
-        <v>681149</v>
-      </c>
-      <c r="G51" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="H51" s="35">
-        <v>1</v>
-      </c>
-      <c r="I51" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J51" s="35">
-        <v>0</v>
-      </c>
-      <c r="K51" s="34" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="A52" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="B52" s="40"/>
-      <c r="C52" s="40"/>
-      <c r="D52" s="41"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="43"/>
-      <c r="I52" s="40"/>
-      <c r="J52" s="43"/>
-      <c r="K52" s="43"/>
-    </row>
-    <row r="53" spans="1:13" s="36" customFormat="1">
-      <c r="A53" s="11">
-        <v>151314791</v>
-      </c>
-      <c r="B53" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C53" s="32">
-        <v>10</v>
-      </c>
-      <c r="D53" s="33">
-        <v>1908</v>
-      </c>
-      <c r="E53" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="F53" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G53" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="H53" s="35">
-        <v>40</v>
-      </c>
-      <c r="I53" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J53" s="35">
-        <v>40</v>
-      </c>
-      <c r="K53" s="35" t="s">
+      <c r="J80" s="32">
+        <v>30.5</v>
+      </c>
+      <c r="K80" s="32" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="54" spans="1:13" s="36" customFormat="1">
-      <c r="A54" s="11"/>
-      <c r="B54" s="32"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="35"/>
-      <c r="I54" s="32"/>
-      <c r="J54" s="35"/>
-      <c r="K54" s="35"/>
-    </row>
-    <row r="55" spans="1:13" s="36" customFormat="1">
-      <c r="A55" s="6">
-        <v>151288592</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C55" s="2">
-        <v>10</v>
-      </c>
-      <c r="D55" s="3">
-        <v>8463</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F55" s="6">
-        <v>687349</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H55" s="5">
-        <v>10</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J55" s="5">
-        <v>0</v>
-      </c>
-      <c r="K55" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" s="36" customFormat="1">
-      <c r="A56" s="31"/>
-      <c r="B56" s="32"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="32"/>
-      <c r="G56" s="57"/>
-      <c r="H56" s="35"/>
-      <c r="I56" s="32"/>
-      <c r="J56" s="35"/>
-      <c r="K56" s="35"/>
-    </row>
-    <row r="57" spans="1:13" s="36" customFormat="1">
-      <c r="A57" s="6">
-        <v>151242082</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C57" s="2">
-        <v>10</v>
-      </c>
-      <c r="D57" s="3">
-        <v>1600</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F57" s="6">
-        <v>691660</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H57" s="5">
-        <v>1</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J57" s="5">
-        <v>0</v>
-      </c>
-      <c r="K57" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
-    </row>
-    <row r="59" spans="1:13" s="47" customFormat="1">
-      <c r="A59" s="11">
-        <v>151314792</v>
-      </c>
-      <c r="B59" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C59" s="32">
-        <v>10</v>
-      </c>
-      <c r="D59" s="33">
-        <v>565</v>
-      </c>
-      <c r="E59" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="F59" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="G59" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="H59" s="35">
-        <v>100</v>
-      </c>
-      <c r="I59" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J59" s="35">
-        <v>100</v>
-      </c>
-      <c r="K59" s="35" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
-      <c r="M60" s="25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
-      <c r="A61" s="18">
-        <v>151264212</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C61" s="18">
-        <v>10</v>
-      </c>
-      <c r="D61" s="52">
-        <v>10710</v>
-      </c>
-      <c r="E61" s="53" t="s">
-        <v>85</v>
-      </c>
-      <c r="F61" s="18">
-        <v>704681</v>
-      </c>
-      <c r="G61" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="H61" s="19">
-        <v>1</v>
-      </c>
-      <c r="I61" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="J61" s="19">
-        <v>0</v>
-      </c>
-      <c r="K61" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="57"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="12"/>
-    </row>
-    <row r="63" spans="1:13">
-      <c r="A63" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D63" s="26">
-        <v>4995</v>
-      </c>
-      <c r="E63" s="27">
-        <v>44223</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H63" s="12">
-        <v>2</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J63" s="12">
-        <v>0</v>
-      </c>
-      <c r="K63" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="26"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="12"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="12"/>
-    </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D65" s="26">
-        <v>4245</v>
-      </c>
-      <c r="E65" s="27">
-        <v>44223</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H65" s="12">
-        <v>2</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J65" s="12">
-        <v>0</v>
-      </c>
-      <c r="K65" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="12"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="12"/>
-      <c r="K66" s="12"/>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="21">
-        <v>151113088</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C67" s="1">
-        <v>10</v>
-      </c>
-      <c r="D67" s="26">
-        <v>1896</v>
-      </c>
-      <c r="E67" s="27">
-        <v>44487</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H67" s="12">
-        <v>5</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J67" s="12">
-        <v>0</v>
-      </c>
-      <c r="K67" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="27"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="12"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="12"/>
-    </row>
-    <row r="69" spans="1:11" s="36" customFormat="1">
-      <c r="A69" s="31">
-        <v>151280693</v>
-      </c>
-      <c r="B69" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="C69" s="54">
-        <v>30</v>
-      </c>
-      <c r="D69" s="54">
-        <v>45000</v>
-      </c>
-      <c r="E69" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="F69" s="54">
-        <v>719031</v>
-      </c>
-      <c r="G69" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="H69" s="55">
-        <v>20</v>
-      </c>
-      <c r="I69" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="J69" s="55">
-        <v>14</v>
-      </c>
-      <c r="K69" s="55" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" s="36" customFormat="1">
-      <c r="A70" s="6">
-        <v>151308917</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C70" s="7">
-        <v>10</v>
-      </c>
-      <c r="D70" s="7">
-        <v>45000</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F70" s="7">
-        <v>719031</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H70" s="61">
-        <v>1</v>
-      </c>
-      <c r="I70" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J70" s="61">
-        <v>1</v>
-      </c>
-      <c r="K70" s="61" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
-      <c r="A71" s="39"/>
-      <c r="B71" s="44"/>
-      <c r="C71" s="44"/>
-      <c r="D71" s="44"/>
-      <c r="E71" s="44"/>
-      <c r="F71" s="44"/>
-      <c r="G71" s="44"/>
-      <c r="H71" s="45"/>
-      <c r="I71" s="44"/>
-      <c r="J71" s="45"/>
-      <c r="K71" s="45"/>
-    </row>
-    <row r="72" spans="1:11" s="36" customFormat="1">
-      <c r="A72" s="37">
-        <v>151306716</v>
-      </c>
-      <c r="B72" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="C72" s="62">
-        <v>10</v>
-      </c>
-      <c r="D72" s="63">
-        <v>9999</v>
-      </c>
-      <c r="E72" s="64" t="s">
-        <v>95</v>
-      </c>
-      <c r="F72" s="64">
-        <v>719381</v>
-      </c>
-      <c r="G72" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="H72" s="62">
-        <v>5</v>
-      </c>
-      <c r="I72" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="J72" s="62">
-        <v>0</v>
-      </c>
-      <c r="K72" s="64" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" s="36" customFormat="1">
-      <c r="A73" s="31">
-        <v>151315311</v>
-      </c>
-      <c r="B73" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C73" s="32">
-        <v>30</v>
-      </c>
-      <c r="D73" s="59">
-        <v>9999</v>
-      </c>
-      <c r="E73" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="F73" s="31">
-        <v>719381</v>
-      </c>
-      <c r="G73" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="H73" s="32">
-        <v>10</v>
-      </c>
-      <c r="I73" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J73" s="32">
-        <v>10</v>
-      </c>
-      <c r="K73" s="31" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
-      <c r="A74" s="11"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="11"/>
-      <c r="G74" s="11"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="11"/>
-    </row>
-    <row r="75" spans="1:11">
-      <c r="A75" s="23">
-        <v>151308917</v>
-      </c>
-      <c r="B75" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="C75" s="58">
-        <v>20</v>
-      </c>
-      <c r="D75" s="7">
-        <v>6800</v>
-      </c>
-      <c r="E75" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="F75" s="7">
-        <v>720138</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H75" s="58">
-        <v>1</v>
-      </c>
-      <c r="I75" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="J75" s="58">
-        <v>0</v>
-      </c>
-      <c r="K75" s="58" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
-      <c r="A76" s="1"/>
-      <c r="B76" s="40"/>
-      <c r="C76" s="40"/>
-      <c r="D76" s="40"/>
-      <c r="E76" s="40"/>
-      <c r="F76" s="40"/>
-      <c r="G76" s="40"/>
-      <c r="H76" s="40"/>
-      <c r="I76" s="40"/>
-      <c r="J76" s="40"/>
-      <c r="K76" s="40"/>
-    </row>
-    <row r="77" spans="1:11" s="36" customFormat="1">
-      <c r="A77" s="11">
-        <v>151280693</v>
-      </c>
-      <c r="B77" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C77" s="32">
-        <v>10</v>
-      </c>
-      <c r="D77" s="32">
-        <v>2490</v>
-      </c>
-      <c r="E77" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="F77" s="31">
-        <v>724214</v>
-      </c>
-      <c r="G77" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="H77" s="32">
-        <v>20</v>
-      </c>
-      <c r="I77" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J77" s="32">
-        <v>0</v>
-      </c>
-      <c r="K77" s="32" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-    </row>
-    <row r="79" spans="1:11">
-      <c r="A79" s="1">
-        <v>16063532</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C79" s="1">
-        <v>10</v>
-      </c>
-      <c r="D79" s="1">
-        <v>2900</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F79" s="1">
-        <v>725828</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H79" s="1">
-        <v>10</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J79" s="1">
-        <v>0</v>
-      </c>
-      <c r="K79" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" s="36" customFormat="1">
-      <c r="A81" s="31">
-        <v>151315311</v>
-      </c>
-      <c r="B81" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C81" s="32">
-        <v>10</v>
-      </c>
-      <c r="D81" s="32">
-        <v>100</v>
-      </c>
-      <c r="E81" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="F81" s="32">
-        <v>728488</v>
-      </c>
-      <c r="G81" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="H81" s="32">
-        <v>10</v>
-      </c>
-      <c r="I81" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="J81" s="32">
-        <v>30.5</v>
-      </c>
-      <c r="K81" s="32" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
-      <c r="F84" s="17"/>
-    </row>
-    <row r="90" spans="1:11">
-      <c r="A90" s="25">
+    <row r="83" spans="1:6">
+      <c r="F83" s="17"/>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="25">
         <f>60*30.5</f>
         <v>1830</v>
       </c>
@@ -4168,10 +4124,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M85"/>
+  <dimension ref="A1:M89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -5477,10 +5433,10 @@
         <v>12</v>
       </c>
       <c r="J8" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="36" customFormat="1">
@@ -5497,7 +5453,7 @@
         <v>2400</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F9" s="32">
         <v>615181</v>
@@ -5512,10 +5468,10 @@
         <v>12</v>
       </c>
       <c r="J9" s="32">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K9" s="32" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -5560,10 +5516,10 @@
         <v>12</v>
       </c>
       <c r="J11" s="2">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="36" customFormat="1">
@@ -5580,7 +5536,7 @@
         <v>4831</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F12" s="32">
         <v>615698</v>
@@ -5598,7 +5554,7 @@
         <v>10</v>
       </c>
       <c r="K12" s="32" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -5646,7 +5602,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -5696,7 +5652,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -5726,7 +5682,7 @@
         <v>600</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F18" s="32" t="s">
         <v>24</v>
@@ -5741,10 +5697,10 @@
         <v>12</v>
       </c>
       <c r="J18" s="35">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K18" s="35" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -5761,20 +5717,20 @@
       <c r="K19" s="12"/>
     </row>
     <row r="20" spans="1:12" s="36" customFormat="1">
-      <c r="A20" s="11">
-        <v>151311194</v>
+      <c r="A20" s="31">
+        <v>151315311</v>
       </c>
       <c r="B20" s="32" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="32">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="D20" s="32">
         <v>5614</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F20" s="32">
         <v>616026</v>
@@ -5783,1568 +5739,1504 @@
         <v>68</v>
       </c>
       <c r="H20" s="32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I20" s="32" t="s">
         <v>12</v>
       </c>
       <c r="J20" s="32">
+        <v>0</v>
+      </c>
+      <c r="K20" s="35" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="36" customFormat="1">
+      <c r="A21" s="11"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="35"/>
+    </row>
+    <row r="22" spans="1:12" s="36" customFormat="1">
+      <c r="A22" s="6">
+        <v>151308917</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="2">
+        <v>80</v>
+      </c>
+      <c r="D22" s="5">
+        <v>6521</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" s="5">
+        <v>10</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="5">
+        <v>0</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L22" s="56"/>
+    </row>
+    <row r="23" spans="1:12" s="36" customFormat="1">
+      <c r="A23" s="31">
+        <v>151315311</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="32">
+        <v>100</v>
+      </c>
+      <c r="D23" s="35">
+        <v>6521</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" s="35">
+        <v>5</v>
+      </c>
+      <c r="I23" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="35">
+        <v>5</v>
+      </c>
+      <c r="K23" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="L23" s="56"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="11"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+    </row>
+    <row r="25" spans="1:12" s="36" customFormat="1">
+      <c r="A25" s="23">
+        <v>151308917</v>
+      </c>
+      <c r="B25" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="65">
+        <v>70</v>
+      </c>
+      <c r="D25" s="65">
+        <v>4048</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" s="65">
+        <v>630059</v>
+      </c>
+      <c r="G25" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" s="65">
+        <v>10</v>
+      </c>
+      <c r="I25" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" s="65">
+        <v>0</v>
+      </c>
+      <c r="K25" s="65" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="36" customFormat="1">
+      <c r="A26" s="31">
+        <v>151315311</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="32">
+        <v>90</v>
+      </c>
+      <c r="D26" s="32">
+        <v>4048</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" s="32">
+        <v>630059</v>
+      </c>
+      <c r="G26" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" s="32">
+        <v>20</v>
+      </c>
+      <c r="I26" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" s="32">
+        <v>20</v>
+      </c>
+      <c r="K26" s="32" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="11"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" s="36" customFormat="1">
+      <c r="A28" s="6">
+        <v>151308917</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="2">
+        <v>50</v>
+      </c>
+      <c r="D28" s="20">
+        <v>5738</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" s="6">
+        <v>632215</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H28" s="2">
+        <v>2</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="12" customHeight="1">
+      <c r="A29" s="11"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="11"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="11">
+        <v>151110116</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="1">
+        <v>60</v>
+      </c>
+      <c r="D30" s="13">
+        <v>3450</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" s="13">
+        <v>634355</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" s="13">
+        <v>10</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J30" s="13">
+        <v>10</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="12"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="2">
+        <v>151008992</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="2">
+        <v>20</v>
+      </c>
+      <c r="D32" s="10">
+        <v>4726</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="2">
+        <v>635655</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" s="2">
+        <v>10</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="1:11" s="36" customFormat="1">
+      <c r="A34" s="31">
+        <v>151302474</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="32">
+        <v>40</v>
+      </c>
+      <c r="D34" s="60">
+        <v>2818</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="F34" s="31">
+        <v>635656</v>
+      </c>
+      <c r="G34" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="H34" s="32">
+        <v>15</v>
+      </c>
+      <c r="I34" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="J34" s="32">
+        <v>0</v>
+      </c>
+      <c r="K34" s="32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:11" s="36" customFormat="1">
+      <c r="A36" s="31">
+        <v>151302474</v>
+      </c>
+      <c r="B36" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="32">
+        <v>50</v>
+      </c>
+      <c r="D36" s="59">
+        <v>3555</v>
+      </c>
+      <c r="E36" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="F36" s="31">
+        <v>646872</v>
+      </c>
+      <c r="G36" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H36" s="32">
+        <v>10</v>
+      </c>
+      <c r="I36" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J36" s="32">
+        <v>0</v>
+      </c>
+      <c r="K36" s="31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="11"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="11"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="11">
+        <v>151110116</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="1">
+        <v>40</v>
+      </c>
+      <c r="D38" s="26">
+        <v>112</v>
+      </c>
+      <c r="E38" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H38" s="12">
+        <v>50</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" s="12">
+        <v>0</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="23">
+        <v>151197029</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="2">
+        <v>60</v>
+      </c>
+      <c r="D40" s="3">
+        <v>3510</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" s="2">
+        <v>663091</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H40" s="5">
+        <v>2</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J40" s="5">
+        <v>0</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="6">
+        <v>151090350</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="2">
+        <v>10</v>
+      </c>
+      <c r="D42" s="3">
+        <v>5130</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F42" s="2">
+        <v>663092</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H42" s="5">
+        <v>2</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J42" s="5">
+        <v>0</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+    </row>
+    <row r="44" spans="1:11" s="36" customFormat="1">
+      <c r="A44" s="6">
+        <v>151308917</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="2">
+        <v>60</v>
+      </c>
+      <c r="D44" s="3">
+        <v>6615</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F44" s="2">
+        <v>663093</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H44" s="5">
+        <v>2</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J44" s="5">
+        <v>0</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+    </row>
+    <row r="46" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A46" s="6">
+        <v>151283046</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="2">
+        <v>10</v>
+      </c>
+      <c r="D46" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F46" s="2">
+        <v>667226</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H46" s="5">
+        <v>2</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J46" s="5">
+        <v>2</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="6">
+        <v>151282825</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="2">
+        <v>40</v>
+      </c>
+      <c r="D48" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F48" s="2">
+        <v>668330</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H48" s="5">
+        <v>3</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J48" s="5">
+        <v>0</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" s="36" customFormat="1">
+      <c r="A49" s="37"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="51"/>
+      <c r="I49" s="48"/>
+      <c r="J49" s="51"/>
+      <c r="K49" s="51"/>
+    </row>
+    <row r="50" spans="1:13" s="36" customFormat="1">
+      <c r="A50" s="11">
+        <v>151306604</v>
+      </c>
+      <c r="B50" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="32">
+        <v>10</v>
+      </c>
+      <c r="D50" s="33">
+        <v>9703</v>
+      </c>
+      <c r="E50" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="F50" s="31">
+        <v>681149</v>
+      </c>
+      <c r="G50" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="H50" s="35">
         <v>1</v>
       </c>
-      <c r="K20" s="35" t="s">
+      <c r="I50" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J50" s="35">
+        <v>0</v>
+      </c>
+      <c r="K50" s="34" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" s="40"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="43"/>
+      <c r="K51" s="43"/>
+    </row>
+    <row r="52" spans="1:13" s="36" customFormat="1">
+      <c r="A52" s="11">
+        <v>151314791</v>
+      </c>
+      <c r="B52" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="32">
+        <v>10</v>
+      </c>
+      <c r="D52" s="33">
+        <v>1908</v>
+      </c>
+      <c r="E52" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="F52" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="G52" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="H52" s="35">
+        <v>40</v>
+      </c>
+      <c r="I52" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J52" s="35">
+        <v>40</v>
+      </c>
+      <c r="K52" s="35" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" s="36" customFormat="1">
+      <c r="A53" s="11"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="35"/>
+    </row>
+    <row r="54" spans="1:13" s="36" customFormat="1">
+      <c r="A54" s="6">
+        <v>151288592</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="2">
+        <v>10</v>
+      </c>
+      <c r="D54" s="3">
+        <v>8463</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F54" s="6">
+        <v>687349</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H54" s="5">
+        <v>10</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J54" s="5">
+        <v>0</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" s="36" customFormat="1">
+      <c r="A55" s="31"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="57"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="32"/>
+      <c r="J55" s="35"/>
+      <c r="K55" s="35"/>
+    </row>
+    <row r="56" spans="1:13" s="36" customFormat="1">
+      <c r="A56" s="6">
+        <v>151242082</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="2">
+        <v>10</v>
+      </c>
+      <c r="D56" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F56" s="6">
+        <v>691660</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H56" s="5">
+        <v>1</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J56" s="5">
+        <v>0</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+    </row>
+    <row r="58" spans="1:13" s="47" customFormat="1">
+      <c r="A58" s="11">
+        <v>151314792</v>
+      </c>
+      <c r="B58" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="32">
+        <v>10</v>
+      </c>
+      <c r="D58" s="33">
+        <v>565</v>
+      </c>
+      <c r="E58" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="F58" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G58" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H58" s="35">
+        <v>100</v>
+      </c>
+      <c r="I58" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J58" s="35">
+        <v>100</v>
+      </c>
+      <c r="K58" s="35" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="36" customFormat="1">
-      <c r="A21" s="31">
+    <row r="59" spans="1:13">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="M59" s="25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="18">
+        <v>151264212</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="18">
+        <v>10</v>
+      </c>
+      <c r="D60" s="52">
+        <v>10710</v>
+      </c>
+      <c r="E60" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="F60" s="18">
+        <v>704681</v>
+      </c>
+      <c r="G60" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="H60" s="19">
+        <v>1</v>
+      </c>
+      <c r="I60" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J60" s="19">
+        <v>0</v>
+      </c>
+      <c r="K60" s="19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="57"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D62" s="26">
+        <v>4995</v>
+      </c>
+      <c r="E62" s="27">
+        <v>44223</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H62" s="12">
+        <v>2</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J62" s="12">
+        <v>0</v>
+      </c>
+      <c r="K62" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" s="26">
+        <v>4245</v>
+      </c>
+      <c r="E64" s="27">
+        <v>44223</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H64" s="12">
+        <v>2</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J64" s="12">
+        <v>0</v>
+      </c>
+      <c r="K64" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12"/>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="21">
+        <v>151113088</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" s="1">
+        <v>10</v>
+      </c>
+      <c r="D66" s="26">
+        <v>1896</v>
+      </c>
+      <c r="E66" s="27">
+        <v>44487</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" s="12">
+        <v>5</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J66" s="12">
+        <v>0</v>
+      </c>
+      <c r="K66" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
+    </row>
+    <row r="68" spans="1:11" s="36" customFormat="1">
+      <c r="A68" s="31">
+        <v>151280693</v>
+      </c>
+      <c r="B68" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" s="54">
+        <v>30</v>
+      </c>
+      <c r="D68" s="54">
+        <v>45000</v>
+      </c>
+      <c r="E68" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="F68" s="54">
+        <v>719031</v>
+      </c>
+      <c r="G68" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" s="55">
+        <v>20</v>
+      </c>
+      <c r="I68" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="J68" s="55">
+        <v>14</v>
+      </c>
+      <c r="K68" s="55" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" s="36" customFormat="1">
+      <c r="A69" s="6">
+        <v>151308917</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="7">
+        <v>10</v>
+      </c>
+      <c r="D69" s="7">
+        <v>45000</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F69" s="7">
+        <v>719031</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" s="61">
+        <v>1</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J69" s="61">
+        <v>1</v>
+      </c>
+      <c r="K69" s="61" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="39"/>
+      <c r="B70" s="44"/>
+      <c r="C70" s="44"/>
+      <c r="D70" s="44"/>
+      <c r="E70" s="44"/>
+      <c r="F70" s="44"/>
+      <c r="G70" s="44"/>
+      <c r="H70" s="45"/>
+      <c r="I70" s="44"/>
+      <c r="J70" s="45"/>
+      <c r="K70" s="45"/>
+    </row>
+    <row r="71" spans="1:11" s="36" customFormat="1">
+      <c r="A71" s="37">
+        <v>151306716</v>
+      </c>
+      <c r="B71" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="62">
+        <v>10</v>
+      </c>
+      <c r="D71" s="63">
+        <v>9999</v>
+      </c>
+      <c r="E71" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="F71" s="64">
+        <v>719381</v>
+      </c>
+      <c r="G71" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="H71" s="62">
+        <v>5</v>
+      </c>
+      <c r="I71" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="J71" s="62">
+        <v>0</v>
+      </c>
+      <c r="K71" s="64" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" s="36" customFormat="1">
+      <c r="A72" s="31">
         <v>151315311</v>
       </c>
-      <c r="B21" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="32">
-        <v>110</v>
-      </c>
-      <c r="D21" s="32">
-        <v>5614</v>
-      </c>
-      <c r="E21" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="F21" s="32">
-        <v>616026</v>
-      </c>
-      <c r="G21" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="H21" s="32">
-        <v>5</v>
-      </c>
-      <c r="I21" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="32">
-        <v>5</v>
-      </c>
-      <c r="K21" s="35" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="36" customFormat="1">
-      <c r="A22" s="11"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="35"/>
-    </row>
-    <row r="23" spans="1:12" s="36" customFormat="1">
-      <c r="A23" s="6">
+      <c r="B72" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="32">
+        <v>30</v>
+      </c>
+      <c r="D72" s="59">
+        <v>9999</v>
+      </c>
+      <c r="E72" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="F72" s="31">
+        <v>719381</v>
+      </c>
+      <c r="G72" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="H72" s="32">
+        <v>10</v>
+      </c>
+      <c r="I72" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J72" s="32">
+        <v>10</v>
+      </c>
+      <c r="K72" s="31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="11"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="11"/>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="23">
         <v>151308917</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B74" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="2">
-        <v>80</v>
-      </c>
-      <c r="D23" s="5">
-        <v>6521</v>
-      </c>
-      <c r="E23" s="4" t="s">
+      <c r="C74" s="58">
+        <v>20</v>
+      </c>
+      <c r="D74" s="7">
+        <v>6800</v>
+      </c>
+      <c r="E74" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H23" s="5">
-        <v>10</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" s="5">
-        <v>10</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="L23" s="56"/>
-    </row>
-    <row r="24" spans="1:12" s="36" customFormat="1">
-      <c r="A24" s="31">
+      <c r="F74" s="7">
+        <v>720138</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H74" s="58">
+        <v>1</v>
+      </c>
+      <c r="I74" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="J74" s="58">
+        <v>0</v>
+      </c>
+      <c r="K74" s="58" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="1"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="40"/>
+      <c r="D75" s="40"/>
+      <c r="E75" s="40"/>
+      <c r="F75" s="40"/>
+      <c r="G75" s="40"/>
+      <c r="H75" s="40"/>
+      <c r="I75" s="40"/>
+      <c r="J75" s="40"/>
+      <c r="K75" s="40"/>
+    </row>
+    <row r="76" spans="1:11" s="36" customFormat="1">
+      <c r="A76" s="11">
+        <v>151280693</v>
+      </c>
+      <c r="B76" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" s="32">
+        <v>10</v>
+      </c>
+      <c r="D76" s="32">
+        <v>2490</v>
+      </c>
+      <c r="E76" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="F76" s="31">
+        <v>724214</v>
+      </c>
+      <c r="G76" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="H76" s="32">
+        <v>20</v>
+      </c>
+      <c r="I76" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J76" s="32">
+        <v>0</v>
+      </c>
+      <c r="K76" s="32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="1">
+        <v>16063532</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" s="1">
+        <v>10</v>
+      </c>
+      <c r="D78" s="1">
+        <v>2900</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F78" s="1">
+        <v>725828</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H78" s="1">
+        <v>10</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J78" s="1">
+        <v>0</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" s="36" customFormat="1">
+      <c r="A80" s="31">
         <v>151315311</v>
       </c>
-      <c r="B24" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="32">
+      <c r="B80" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" s="32">
+        <v>10</v>
+      </c>
+      <c r="D80" s="32">
         <v>100</v>
       </c>
-      <c r="D24" s="35">
-        <v>6521</v>
-      </c>
-      <c r="E24" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="F24" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="H24" s="35">
-        <v>5</v>
-      </c>
-      <c r="I24" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" s="35">
-        <v>5</v>
-      </c>
-      <c r="K24" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="L24" s="56"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="11"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-    </row>
-    <row r="26" spans="1:12" s="36" customFormat="1">
-      <c r="A26" s="23">
-        <v>151308917</v>
-      </c>
-      <c r="B26" s="65" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="65">
-        <v>70</v>
-      </c>
-      <c r="D26" s="65">
-        <v>4048</v>
-      </c>
-      <c r="E26" s="65" t="s">
-        <v>104</v>
-      </c>
-      <c r="F26" s="65">
-        <v>630059</v>
-      </c>
-      <c r="G26" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="H26" s="65">
-        <v>10</v>
-      </c>
-      <c r="I26" s="65" t="s">
-        <v>12</v>
-      </c>
-      <c r="J26" s="65">
-        <v>10</v>
-      </c>
-      <c r="K26" s="65" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" s="36" customFormat="1">
-      <c r="A27" s="31">
-        <v>151315311</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="32">
-        <v>90</v>
-      </c>
-      <c r="D27" s="32">
-        <v>4048</v>
-      </c>
-      <c r="E27" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="F27" s="32">
-        <v>630059</v>
-      </c>
-      <c r="G27" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="H27" s="32">
-        <v>20</v>
-      </c>
-      <c r="I27" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J27" s="32">
-        <v>20</v>
-      </c>
-      <c r="K27" s="32" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="11"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-    </row>
-    <row r="29" spans="1:12" s="36" customFormat="1">
-      <c r="A29" s="6">
-        <v>151308917</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="2">
-        <v>50</v>
-      </c>
-      <c r="D29" s="20">
-        <v>5738</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="F29" s="6">
-        <v>632215</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H29" s="2">
-        <v>2</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J29" s="2">
-        <v>2</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="12" customHeight="1">
-      <c r="A30" s="11"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="11"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="11">
-        <v>151110116</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="1">
-        <v>60</v>
-      </c>
-      <c r="D31" s="13">
-        <v>3450</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F31" s="13">
-        <v>634355</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H31" s="13">
-        <v>10</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J31" s="13">
-        <v>10</v>
-      </c>
-      <c r="K31" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="12"/>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="2">
-        <v>151008992</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="2">
-        <v>20</v>
-      </c>
-      <c r="D33" s="10">
-        <v>4726</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F33" s="2">
-        <v>635655</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H33" s="2">
-        <v>10</v>
-      </c>
-      <c r="I33" s="2" t="s">
+      <c r="E80" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="F80" s="32">
+        <v>728488</v>
+      </c>
+      <c r="G80" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="H80" s="32">
+        <v>10</v>
+      </c>
+      <c r="I80" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="J33" s="2">
-        <v>0</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-    </row>
-    <row r="35" spans="1:11" s="36" customFormat="1">
-      <c r="A35" s="31">
-        <v>151302474</v>
-      </c>
-      <c r="B35" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="32">
-        <v>40</v>
-      </c>
-      <c r="D35" s="60">
-        <v>2818</v>
-      </c>
-      <c r="E35" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="F35" s="31">
-        <v>635656</v>
-      </c>
-      <c r="G35" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="H35" s="32">
-        <v>15</v>
-      </c>
-      <c r="I35" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="J35" s="32">
-        <v>0</v>
-      </c>
-      <c r="K35" s="32" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-    </row>
-    <row r="37" spans="1:11" s="36" customFormat="1">
-      <c r="A37" s="31">
-        <v>151302474</v>
-      </c>
-      <c r="B37" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" s="32">
-        <v>50</v>
-      </c>
-      <c r="D37" s="59">
-        <v>3555</v>
-      </c>
-      <c r="E37" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="F37" s="31">
-        <v>646872</v>
-      </c>
-      <c r="G37" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="H37" s="32">
-        <v>10</v>
-      </c>
-      <c r="I37" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J37" s="32">
-        <v>0</v>
-      </c>
-      <c r="K37" s="31" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="11"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="11"/>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="11">
-        <v>151110116</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" s="1">
-        <v>40</v>
-      </c>
-      <c r="D39" s="26">
-        <v>112</v>
-      </c>
-      <c r="E39" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H39" s="12">
-        <v>50</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J39" s="12">
-        <v>0</v>
-      </c>
-      <c r="K39" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="23">
-        <v>151197029</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" s="2">
-        <v>60</v>
-      </c>
-      <c r="D41" s="3">
-        <v>3510</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F41" s="2">
-        <v>663091</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H41" s="5">
-        <v>2</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J41" s="5">
-        <v>0</v>
-      </c>
-      <c r="K41" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="6">
-        <v>151090350</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C43" s="2">
-        <v>10</v>
-      </c>
-      <c r="D43" s="3">
-        <v>5130</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F43" s="2">
-        <v>663092</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H43" s="5">
-        <v>2</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J43" s="5">
-        <v>0</v>
-      </c>
-      <c r="K43" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-    </row>
-    <row r="45" spans="1:11" s="36" customFormat="1">
-      <c r="A45" s="6">
-        <v>151308917</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C45" s="2">
-        <v>60</v>
-      </c>
-      <c r="D45" s="3">
-        <v>6615</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F45" s="2">
-        <v>663093</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H45" s="5">
-        <v>2</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J45" s="5">
-        <v>2</v>
-      </c>
-      <c r="K45" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-    </row>
-    <row r="47" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A47" s="6">
-        <v>151283046</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47" s="2">
-        <v>10</v>
-      </c>
-      <c r="D47" s="3">
-        <v>34000</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F47" s="2">
-        <v>667226</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="H47" s="5">
-        <v>2</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J47" s="5">
-        <v>2</v>
-      </c>
-      <c r="K47" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-    </row>
-    <row r="49" spans="1:13">
-      <c r="A49" s="6">
-        <v>151282825</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C49" s="2">
-        <v>40</v>
-      </c>
-      <c r="D49" s="3">
-        <v>6000</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F49" s="2">
-        <v>668330</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H49" s="5">
-        <v>3</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J49" s="5">
-        <v>0</v>
-      </c>
-      <c r="K49" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" s="36" customFormat="1">
-      <c r="A50" s="37"/>
-      <c r="B50" s="48"/>
-      <c r="C50" s="48"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="50"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="48"/>
-      <c r="H50" s="51"/>
-      <c r="I50" s="48"/>
-      <c r="J50" s="51"/>
-      <c r="K50" s="51"/>
-    </row>
-    <row r="51" spans="1:13" s="36" customFormat="1">
-      <c r="A51" s="11">
-        <v>151306604</v>
-      </c>
-      <c r="B51" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" s="32">
-        <v>10</v>
-      </c>
-      <c r="D51" s="33">
-        <v>9703</v>
-      </c>
-      <c r="E51" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="F51" s="31">
-        <v>681149</v>
-      </c>
-      <c r="G51" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="H51" s="35">
-        <v>1</v>
-      </c>
-      <c r="I51" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J51" s="35">
-        <v>0</v>
-      </c>
-      <c r="K51" s="34" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="A52" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="B52" s="40"/>
-      <c r="C52" s="40"/>
-      <c r="D52" s="41"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="43"/>
-      <c r="I52" s="40"/>
-      <c r="J52" s="43"/>
-      <c r="K52" s="43"/>
-    </row>
-    <row r="53" spans="1:13" s="36" customFormat="1">
-      <c r="A53" s="11">
-        <v>151314791</v>
-      </c>
-      <c r="B53" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C53" s="32">
-        <v>10</v>
-      </c>
-      <c r="D53" s="33">
-        <v>1908</v>
-      </c>
-      <c r="E53" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="F53" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G53" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="H53" s="35">
-        <v>40</v>
-      </c>
-      <c r="I53" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J53" s="35">
-        <v>40</v>
-      </c>
-      <c r="K53" s="35" t="s">
+      <c r="J80" s="32">
+        <v>30.5</v>
+      </c>
+      <c r="K80" s="32" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="54" spans="1:13" s="36" customFormat="1">
-      <c r="A54" s="11"/>
-      <c r="B54" s="32"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="35"/>
-      <c r="I54" s="32"/>
-      <c r="J54" s="35"/>
-      <c r="K54" s="35"/>
-    </row>
-    <row r="55" spans="1:13" s="36" customFormat="1">
-      <c r="A55" s="6">
-        <v>151288592</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C55" s="2">
-        <v>10</v>
-      </c>
-      <c r="D55" s="3">
-        <v>8463</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F55" s="6">
-        <v>687349</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H55" s="5">
-        <v>10</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J55" s="5">
-        <v>0</v>
-      </c>
-      <c r="K55" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" s="36" customFormat="1">
-      <c r="A56" s="31"/>
-      <c r="B56" s="32"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="32"/>
-      <c r="G56" s="57"/>
-      <c r="H56" s="35"/>
-      <c r="I56" s="32"/>
-      <c r="J56" s="35"/>
-      <c r="K56" s="35"/>
-    </row>
-    <row r="57" spans="1:13" s="36" customFormat="1">
-      <c r="A57" s="6">
-        <v>151242082</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C57" s="2">
-        <v>10</v>
-      </c>
-      <c r="D57" s="3">
-        <v>1600</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F57" s="6">
-        <v>691660</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H57" s="5">
-        <v>1</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J57" s="5">
-        <v>0</v>
-      </c>
-      <c r="K57" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
-    </row>
-    <row r="59" spans="1:13" s="47" customFormat="1">
-      <c r="A59" s="11">
-        <v>151314792</v>
-      </c>
-      <c r="B59" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C59" s="32">
-        <v>10</v>
-      </c>
-      <c r="D59" s="33">
-        <v>565</v>
-      </c>
-      <c r="E59" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="F59" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="G59" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="H59" s="35">
-        <v>100</v>
-      </c>
-      <c r="I59" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J59" s="35">
-        <v>100</v>
-      </c>
-      <c r="K59" s="35" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
-      <c r="M60" s="25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
-      <c r="A61" s="18">
-        <v>151264212</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C61" s="18">
-        <v>10</v>
-      </c>
-      <c r="D61" s="52">
-        <v>10710</v>
-      </c>
-      <c r="E61" s="53" t="s">
-        <v>85</v>
-      </c>
-      <c r="F61" s="18">
-        <v>704681</v>
-      </c>
-      <c r="G61" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="H61" s="19">
-        <v>1</v>
-      </c>
-      <c r="I61" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="J61" s="19">
-        <v>0</v>
-      </c>
-      <c r="K61" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="57"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="12"/>
-    </row>
-    <row r="63" spans="1:13">
-      <c r="A63" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D63" s="26">
-        <v>4995</v>
-      </c>
-      <c r="E63" s="27">
-        <v>44223</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H63" s="12">
-        <v>2</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J63" s="12">
-        <v>0</v>
-      </c>
-      <c r="K63" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="26"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="12"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="12"/>
-    </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D65" s="26">
-        <v>4245</v>
-      </c>
-      <c r="E65" s="27">
-        <v>44223</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H65" s="12">
-        <v>2</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J65" s="12">
-        <v>0</v>
-      </c>
-      <c r="K65" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="12"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="12"/>
-      <c r="K66" s="12"/>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="21">
-        <v>151113088</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C67" s="1">
-        <v>10</v>
-      </c>
-      <c r="D67" s="26">
-        <v>1896</v>
-      </c>
-      <c r="E67" s="27">
-        <v>44487</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H67" s="12">
-        <v>5</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J67" s="12">
-        <v>0</v>
-      </c>
-      <c r="K67" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="27"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="12"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="12"/>
-    </row>
-    <row r="69" spans="1:11" s="36" customFormat="1">
-      <c r="A69" s="31">
-        <v>151280693</v>
-      </c>
-      <c r="B69" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="C69" s="54">
-        <v>30</v>
-      </c>
-      <c r="D69" s="54">
-        <v>45000</v>
-      </c>
-      <c r="E69" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="F69" s="54">
-        <v>719031</v>
-      </c>
-      <c r="G69" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="H69" s="55">
-        <v>20</v>
-      </c>
-      <c r="I69" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="J69" s="55">
-        <v>14</v>
-      </c>
-      <c r="K69" s="55" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" s="36" customFormat="1">
-      <c r="A70" s="6">
-        <v>151308917</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C70" s="7">
-        <v>10</v>
-      </c>
-      <c r="D70" s="7">
-        <v>45000</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F70" s="7">
-        <v>719031</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H70" s="61">
-        <v>1</v>
-      </c>
-      <c r="I70" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J70" s="61">
-        <v>1</v>
-      </c>
-      <c r="K70" s="61" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
-      <c r="A71" s="39"/>
-      <c r="B71" s="44"/>
-      <c r="C71" s="44"/>
-      <c r="D71" s="44"/>
-      <c r="E71" s="44"/>
-      <c r="F71" s="44"/>
-      <c r="G71" s="44"/>
-      <c r="H71" s="45"/>
-      <c r="I71" s="44"/>
-      <c r="J71" s="45"/>
-      <c r="K71" s="45"/>
-    </row>
-    <row r="72" spans="1:11" s="36" customFormat="1">
-      <c r="A72" s="37">
-        <v>151306716</v>
-      </c>
-      <c r="B72" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="C72" s="62">
-        <v>10</v>
-      </c>
-      <c r="D72" s="63">
-        <v>9999</v>
-      </c>
-      <c r="E72" s="64" t="s">
-        <v>95</v>
-      </c>
-      <c r="F72" s="64">
-        <v>719381</v>
-      </c>
-      <c r="G72" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="H72" s="62">
-        <v>5</v>
-      </c>
-      <c r="I72" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="J72" s="62">
-        <v>5</v>
-      </c>
-      <c r="K72" s="64" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" s="36" customFormat="1">
-      <c r="A73" s="31">
-        <v>151315311</v>
-      </c>
-      <c r="B73" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C73" s="32">
-        <v>30</v>
-      </c>
-      <c r="D73" s="59">
-        <v>9999</v>
-      </c>
-      <c r="E73" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="F73" s="31">
-        <v>719381</v>
-      </c>
-      <c r="G73" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="H73" s="32">
-        <v>10</v>
-      </c>
-      <c r="I73" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J73" s="32">
-        <v>10</v>
-      </c>
-      <c r="K73" s="31" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
-      <c r="A74" s="11"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="11"/>
-      <c r="G74" s="11"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="11"/>
-    </row>
-    <row r="75" spans="1:11">
-      <c r="A75" s="23">
-        <v>151308917</v>
-      </c>
-      <c r="B75" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="C75" s="58">
-        <v>20</v>
-      </c>
-      <c r="D75" s="7">
-        <v>6800</v>
-      </c>
-      <c r="E75" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="F75" s="7">
-        <v>720138</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H75" s="58">
-        <v>1</v>
-      </c>
-      <c r="I75" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="J75" s="58">
-        <v>0</v>
-      </c>
-      <c r="K75" s="58" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
-      <c r="A76" s="1"/>
-      <c r="B76" s="40"/>
-      <c r="C76" s="40"/>
-      <c r="D76" s="40"/>
-      <c r="E76" s="40"/>
-      <c r="F76" s="40"/>
-      <c r="G76" s="40"/>
-      <c r="H76" s="40"/>
-      <c r="I76" s="40"/>
-      <c r="J76" s="40"/>
-      <c r="K76" s="40"/>
-    </row>
-    <row r="77" spans="1:11" s="36" customFormat="1">
-      <c r="A77" s="11">
-        <v>151280693</v>
-      </c>
-      <c r="B77" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C77" s="32">
-        <v>10</v>
-      </c>
-      <c r="D77" s="32">
-        <v>2490</v>
-      </c>
-      <c r="E77" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="F77" s="31">
-        <v>724214</v>
-      </c>
-      <c r="G77" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="H77" s="32">
-        <v>20</v>
-      </c>
-      <c r="I77" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J77" s="32">
-        <v>0</v>
-      </c>
-      <c r="K77" s="32" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-    </row>
-    <row r="79" spans="1:11">
-      <c r="A79" s="1">
-        <v>16063532</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C79" s="1">
-        <v>10</v>
-      </c>
-      <c r="D79" s="1">
-        <v>2900</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F79" s="1">
-        <v>725828</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H79" s="1">
-        <v>10</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J79" s="1">
-        <v>0</v>
-      </c>
-      <c r="K79" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11">
-      <c r="A81" s="6">
-        <v>151294292</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C81" s="2">
-        <v>10</v>
-      </c>
-      <c r="D81" s="2">
-        <v>100</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F81" s="2">
-        <v>728488</v>
-      </c>
-      <c r="G81" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H81" s="2">
-        <v>61</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J81" s="2">
-        <v>0</v>
-      </c>
-      <c r="K81" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" s="36" customFormat="1">
-      <c r="A82" s="31">
-        <v>151315311</v>
-      </c>
-      <c r="B82" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C82" s="32">
-        <v>10</v>
-      </c>
-      <c r="D82" s="32">
-        <v>100</v>
-      </c>
-      <c r="E82" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="F82" s="32">
-        <v>728488</v>
-      </c>
-      <c r="G82" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="H82" s="32">
-        <v>10</v>
-      </c>
-      <c r="I82" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="J82" s="32">
-        <v>10</v>
-      </c>
-      <c r="K82" s="32" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
-      <c r="F85" s="17"/>
+    <row r="83" spans="1:6">
+      <c r="F83" s="17"/>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="25">
+        <f>60*30.5</f>
+        <v>1830</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Updated PO.xlsx
+++ b/Updated PO.xlsx
@@ -1002,10 +1002,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M89"/>
+  <dimension ref="A1:M83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -4107,14 +4107,8 @@
         <v>109</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="6:6">
       <c r="F83" s="17"/>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="25">
-        <f>60*30.5</f>
-        <v>1830</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Updated PO.xlsx
+++ b/Updated PO.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="114">
   <si>
     <t>Purchasing Document</t>
   </si>
@@ -363,6 +363,12 @@
   </si>
   <si>
     <t>28.06.2023</t>
+  </si>
+  <si>
+    <t>12.04.2023</t>
+  </si>
+  <si>
+    <t>11.07.2023</t>
   </si>
 </sst>
 </file>
@@ -1002,10 +1008,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M83"/>
+  <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="E96" sqref="E96"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2630,1485 +2636,1520 @@
       </c>
     </row>
     <row r="21" spans="1:12" s="36" customFormat="1">
-      <c r="A21" s="11"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="35"/>
+      <c r="A21" s="11">
+        <v>151320915</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="32">
+        <v>10</v>
+      </c>
+      <c r="D21" s="32">
+        <v>5614</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" s="32">
+        <v>616026</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21" s="32">
+        <v>10</v>
+      </c>
+      <c r="I21" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="32">
+        <v>10</v>
+      </c>
+      <c r="K21" s="35" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="22" spans="1:12" s="36" customFormat="1">
-      <c r="A22" s="6">
+      <c r="A22" s="11"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="35"/>
+    </row>
+    <row r="23" spans="1:12" s="36" customFormat="1">
+      <c r="A23" s="6">
         <v>151308917</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C23" s="2">
         <v>80</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D23" s="5">
         <v>6521</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H22" s="5">
-        <v>10</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J22" s="5">
+      <c r="H23" s="5">
+        <v>10</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="5">
         <v>0</v>
       </c>
-      <c r="K22" s="5" t="s">
+      <c r="K23" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="L22" s="56"/>
-    </row>
-    <row r="23" spans="1:12" s="36" customFormat="1">
-      <c r="A23" s="31">
+      <c r="L23" s="56"/>
+    </row>
+    <row r="24" spans="1:12" s="36" customFormat="1">
+      <c r="A24" s="31">
         <v>151315311</v>
       </c>
-      <c r="B23" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="32">
+      <c r="B24" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="32">
         <v>100</v>
       </c>
-      <c r="D23" s="35">
+      <c r="D24" s="35">
         <v>6521</v>
       </c>
-      <c r="E23" s="34" t="s">
+      <c r="E24" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="F23" s="32" t="s">
+      <c r="F24" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="32" t="s">
+      <c r="G24" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="H23" s="35">
+      <c r="H24" s="35">
         <v>5</v>
       </c>
-      <c r="I23" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" s="35">
+      <c r="I24" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="35">
         <v>5</v>
       </c>
-      <c r="K23" s="35" t="s">
+      <c r="K24" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="L23" s="56"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="11"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-    </row>
-    <row r="25" spans="1:12" s="36" customFormat="1">
-      <c r="A25" s="23">
+      <c r="L24" s="56"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="11"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+    </row>
+    <row r="26" spans="1:12" s="36" customFormat="1">
+      <c r="A26" s="23">
         <v>151308917</v>
       </c>
-      <c r="B25" s="65" t="s">
+      <c r="B26" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="65">
+      <c r="C26" s="65">
         <v>70</v>
       </c>
-      <c r="D25" s="65">
+      <c r="D26" s="65">
         <v>4048</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F25" s="65">
+      <c r="F26" s="65">
         <v>630059</v>
       </c>
-      <c r="G25" s="65" t="s">
+      <c r="G26" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="H25" s="65">
-        <v>10</v>
-      </c>
-      <c r="I25" s="65" t="s">
-        <v>12</v>
-      </c>
-      <c r="J25" s="65">
+      <c r="H26" s="65">
+        <v>10</v>
+      </c>
+      <c r="I26" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" s="65">
         <v>0</v>
       </c>
-      <c r="K25" s="65" t="s">
+      <c r="K26" s="65" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="36" customFormat="1">
-      <c r="A26" s="31">
+    <row r="27" spans="1:12" s="36" customFormat="1">
+      <c r="A27" s="31">
         <v>151315311</v>
       </c>
-      <c r="B26" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="32">
+      <c r="B27" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="32">
         <v>90</v>
       </c>
-      <c r="D26" s="32">
+      <c r="D27" s="32">
         <v>4048</v>
       </c>
-      <c r="E26" s="32" t="s">
+      <c r="E27" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="F26" s="32">
+      <c r="F27" s="32">
         <v>630059</v>
       </c>
-      <c r="G26" s="32" t="s">
+      <c r="G27" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="H26" s="32">
+      <c r="H27" s="32">
         <v>20</v>
       </c>
-      <c r="I26" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J26" s="32">
+      <c r="I27" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" s="32">
         <v>20</v>
       </c>
-      <c r="K26" s="32" t="s">
+      <c r="K27" s="32" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="11"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-    </row>
-    <row r="28" spans="1:12" s="36" customFormat="1">
-      <c r="A28" s="6">
+    <row r="28" spans="1:12">
+      <c r="A28" s="11"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:12" s="36" customFormat="1">
+      <c r="A29" s="6">
         <v>151308917</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C29" s="2">
         <v>50</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D29" s="20">
         <v>5738</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E29" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F29" s="6">
         <v>632215</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G29" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H29" s="2">
         <v>2</v>
       </c>
-      <c r="I28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J28" s="2">
+      <c r="I29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J29" s="2">
         <v>0</v>
       </c>
-      <c r="K28" s="6" t="s">
+      <c r="K29" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="12" customHeight="1">
-      <c r="A29" s="11"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="11"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="11">
+    <row r="30" spans="1:12" ht="12" customHeight="1">
+      <c r="A30" s="11"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="11"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="11">
         <v>151110116</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="1">
+      <c r="B31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="1">
         <v>60</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D31" s="13">
         <v>3450</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E31" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F31" s="13">
         <v>634355</v>
       </c>
-      <c r="G30" s="13" t="s">
+      <c r="G31" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H30" s="13">
-        <v>10</v>
-      </c>
-      <c r="I30" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J30" s="13">
-        <v>10</v>
-      </c>
-      <c r="K30" s="13" t="s">
+      <c r="H31" s="13">
+        <v>10</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J31" s="13">
+        <v>10</v>
+      </c>
+      <c r="K31" s="13" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="12"/>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="2">
+    <row r="32" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="12"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="2">
         <v>151008992</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C33" s="2">
         <v>20</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D33" s="10">
         <v>4726</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F33" s="2">
         <v>635655</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H32" s="2">
-        <v>10</v>
-      </c>
-      <c r="I32" s="2" t="s">
+      <c r="H33" s="2">
+        <v>10</v>
+      </c>
+      <c r="I33" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J33" s="2">
         <v>0</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="K33" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-    </row>
-    <row r="34" spans="1:11" s="36" customFormat="1">
-      <c r="A34" s="31">
+    <row r="34" spans="1:11">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:11" s="36" customFormat="1">
+      <c r="A35" s="31">
         <v>151302474</v>
       </c>
-      <c r="B34" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="32">
+      <c r="B35" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="32">
         <v>40</v>
       </c>
-      <c r="D34" s="60">
+      <c r="D35" s="60">
         <v>2818</v>
       </c>
-      <c r="E34" s="32" t="s">
+      <c r="E35" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="F34" s="31">
+      <c r="F35" s="31">
         <v>635656</v>
       </c>
-      <c r="G34" s="32" t="s">
+      <c r="G35" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="H34" s="32">
+      <c r="H35" s="32">
         <v>15</v>
       </c>
-      <c r="I34" s="32" t="s">
+      <c r="I35" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="J34" s="32">
+      <c r="J35" s="32">
         <v>0</v>
       </c>
-      <c r="K34" s="32" t="s">
+      <c r="K35" s="32" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-    </row>
-    <row r="36" spans="1:11" s="36" customFormat="1">
-      <c r="A36" s="31">
+    <row r="36" spans="1:11">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="1:11" s="36" customFormat="1">
+      <c r="A37" s="31">
         <v>151302474</v>
       </c>
-      <c r="B36" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="32">
+      <c r="B37" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="32">
         <v>50</v>
       </c>
-      <c r="D36" s="59">
+      <c r="D37" s="59">
         <v>3555</v>
       </c>
-      <c r="E36" s="31" t="s">
+      <c r="E37" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="F36" s="31">
+      <c r="F37" s="31">
         <v>646872</v>
       </c>
-      <c r="G36" s="31" t="s">
+      <c r="G37" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="H36" s="32">
-        <v>10</v>
-      </c>
-      <c r="I36" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J36" s="32">
+      <c r="H37" s="32">
+        <v>10</v>
+      </c>
+      <c r="I37" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37" s="32">
         <v>0</v>
       </c>
-      <c r="K36" s="31" t="s">
+      <c r="K37" s="31" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="11"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="11"/>
-    </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="11">
+      <c r="A38" s="11"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="11"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="11">
         <v>151110116</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" s="1">
+      <c r="B39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="1">
         <v>40</v>
       </c>
-      <c r="D38" s="26">
+      <c r="D39" s="26">
         <v>112</v>
       </c>
-      <c r="E38" s="27" t="s">
+      <c r="E39" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H38" s="12">
+      <c r="H39" s="12">
         <v>50</v>
       </c>
-      <c r="I38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J38" s="12">
+      <c r="I39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J39" s="12">
         <v>0</v>
       </c>
-      <c r="K38" s="12" t="s">
+      <c r="K39" s="12" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-    </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="23">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="23">
         <v>151197029</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C41" s="2">
         <v>60</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D41" s="3">
         <v>3510</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E41" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F41" s="2">
         <v>663091</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H40" s="5">
+      <c r="H41" s="5">
         <v>2</v>
       </c>
-      <c r="I40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J40" s="5">
+      <c r="I41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J41" s="5">
         <v>0</v>
       </c>
-      <c r="K40" s="5" t="s">
+      <c r="K41" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-    </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="6">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="6">
         <v>151090350</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="2">
-        <v>10</v>
-      </c>
-      <c r="D42" s="3">
+      <c r="C43" s="2">
+        <v>10</v>
+      </c>
+      <c r="D43" s="3">
         <v>5130</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E43" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F43" s="2">
         <v>663092</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="G43" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H42" s="5">
+      <c r="H43" s="5">
         <v>2</v>
       </c>
-      <c r="I42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J42" s="5">
+      <c r="I43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J43" s="5">
         <v>0</v>
       </c>
-      <c r="K42" s="5" t="s">
+      <c r="K43" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-    </row>
-    <row r="44" spans="1:11" s="36" customFormat="1">
-      <c r="A44" s="6">
+    <row r="44" spans="1:11">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+    </row>
+    <row r="45" spans="1:11" s="36" customFormat="1">
+      <c r="A45" s="6">
         <v>151308917</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C45" s="2">
         <v>60</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D45" s="3">
         <v>6615</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E45" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F45" s="2">
         <v>663093</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="G45" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H44" s="5">
+      <c r="H45" s="5">
         <v>2</v>
       </c>
-      <c r="I44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J44" s="5">
+      <c r="I45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J45" s="5">
         <v>0</v>
       </c>
-      <c r="K44" s="5" t="s">
+      <c r="K45" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-    </row>
     <row r="46" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A46" s="6">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+    </row>
+    <row r="47" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A47" s="6">
         <v>151283046</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="2">
-        <v>10</v>
-      </c>
-      <c r="D46" s="3">
+      <c r="C47" s="2">
+        <v>10</v>
+      </c>
+      <c r="D47" s="3">
         <v>34000</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E47" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F47" s="2">
         <v>667226</v>
       </c>
-      <c r="G46" s="6" t="s">
+      <c r="G47" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="H46" s="5">
+      <c r="H47" s="5">
         <v>2</v>
       </c>
-      <c r="I46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J46" s="5">
+      <c r="I47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J47" s="5">
         <v>2</v>
       </c>
-      <c r="K46" s="5" t="s">
+      <c r="K47" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="6">
+    <row r="48" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="6">
         <v>151282825</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C49" s="2">
         <v>40</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D49" s="3">
         <v>6000</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E49" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F49" s="2">
         <v>668330</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="G49" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H48" s="5">
+      <c r="H49" s="5">
         <v>3</v>
       </c>
-      <c r="I48" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J48" s="5">
+      <c r="I49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J49" s="5">
         <v>0</v>
       </c>
-      <c r="K48" s="5" t="s">
+      <c r="K49" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="36" customFormat="1">
-      <c r="A49" s="37"/>
-      <c r="B49" s="48"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="49"/>
-      <c r="E49" s="50"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="48"/>
-      <c r="H49" s="51"/>
-      <c r="I49" s="48"/>
-      <c r="J49" s="51"/>
-      <c r="K49" s="51"/>
-    </row>
     <row r="50" spans="1:13" s="36" customFormat="1">
-      <c r="A50" s="11">
+      <c r="A50" s="37"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="51"/>
+      <c r="I50" s="48"/>
+      <c r="J50" s="51"/>
+      <c r="K50" s="51"/>
+    </row>
+    <row r="51" spans="1:13" s="36" customFormat="1">
+      <c r="A51" s="11">
         <v>151306604</v>
       </c>
-      <c r="B50" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" s="32">
-        <v>10</v>
-      </c>
-      <c r="D50" s="33">
+      <c r="B51" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="32">
+        <v>10</v>
+      </c>
+      <c r="D51" s="33">
         <v>9703</v>
       </c>
-      <c r="E50" s="34" t="s">
+      <c r="E51" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="F50" s="31">
+      <c r="F51" s="31">
         <v>681149</v>
       </c>
-      <c r="G50" s="31" t="s">
+      <c r="G51" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="H50" s="35">
+      <c r="H51" s="35">
         <v>1</v>
       </c>
-      <c r="I50" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J50" s="35">
+      <c r="I51" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J51" s="35">
         <v>0</v>
       </c>
-      <c r="K50" s="34" t="s">
+      <c r="K51" s="34" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
-      <c r="A51" s="39" t="s">
+    <row r="52" spans="1:13">
+      <c r="A52" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B51" s="40"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="40"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="43"/>
-      <c r="I51" s="40"/>
-      <c r="J51" s="43"/>
-      <c r="K51" s="43"/>
-    </row>
-    <row r="52" spans="1:13" s="36" customFormat="1">
-      <c r="A52" s="11">
+      <c r="B52" s="40"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="43"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="43"/>
+      <c r="K52" s="43"/>
+    </row>
+    <row r="53" spans="1:13" s="36" customFormat="1">
+      <c r="A53" s="11">
         <v>151314791</v>
       </c>
-      <c r="B52" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" s="32">
-        <v>10</v>
-      </c>
-      <c r="D52" s="33">
+      <c r="B53" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="32">
+        <v>10</v>
+      </c>
+      <c r="D53" s="33">
         <v>1908</v>
       </c>
-      <c r="E52" s="34" t="s">
+      <c r="E53" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="F52" s="32" t="s">
+      <c r="F53" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="G52" s="32" t="s">
+      <c r="G53" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="H52" s="35">
+      <c r="H53" s="35">
         <v>40</v>
       </c>
-      <c r="I52" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J52" s="35">
+      <c r="I53" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J53" s="35">
         <v>40</v>
       </c>
-      <c r="K52" s="35" t="s">
+      <c r="K53" s="35" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="53" spans="1:13" s="36" customFormat="1">
-      <c r="A53" s="11"/>
-      <c r="B53" s="32"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="35"/>
-      <c r="I53" s="32"/>
-      <c r="J53" s="35"/>
-      <c r="K53" s="35"/>
-    </row>
     <row r="54" spans="1:13" s="36" customFormat="1">
-      <c r="A54" s="6">
+      <c r="A54" s="11"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="32"/>
+      <c r="J54" s="35"/>
+      <c r="K54" s="35"/>
+    </row>
+    <row r="55" spans="1:13" s="36" customFormat="1">
+      <c r="A55" s="6">
         <v>151288592</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B55" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C54" s="2">
-        <v>10</v>
-      </c>
-      <c r="D54" s="3">
+      <c r="C55" s="2">
+        <v>10</v>
+      </c>
+      <c r="D55" s="3">
         <v>8463</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="E55" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F55" s="6">
         <v>687349</v>
       </c>
-      <c r="G54" s="6" t="s">
+      <c r="G55" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H54" s="5">
-        <v>10</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J54" s="5">
+      <c r="H55" s="5">
+        <v>10</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J55" s="5">
         <v>0</v>
       </c>
-      <c r="K54" s="5" t="s">
+      <c r="K55" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="55" spans="1:13" s="36" customFormat="1">
-      <c r="A55" s="31"/>
-      <c r="B55" s="32"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="57"/>
-      <c r="H55" s="35"/>
-      <c r="I55" s="32"/>
-      <c r="J55" s="35"/>
-      <c r="K55" s="35"/>
-    </row>
     <row r="56" spans="1:13" s="36" customFormat="1">
-      <c r="A56" s="6">
+      <c r="A56" s="31"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="57"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="35"/>
+      <c r="K56" s="35"/>
+    </row>
+    <row r="57" spans="1:13" s="36" customFormat="1">
+      <c r="A57" s="6">
         <v>151242082</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B57" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="2">
-        <v>10</v>
-      </c>
-      <c r="D56" s="3">
+      <c r="C57" s="2">
+        <v>10</v>
+      </c>
+      <c r="D57" s="3">
         <v>1600</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="E57" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F56" s="6">
+      <c r="F57" s="6">
         <v>691660</v>
       </c>
-      <c r="G56" s="2" t="s">
+      <c r="G57" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="H56" s="5">
+      <c r="H57" s="5">
         <v>1</v>
       </c>
-      <c r="I56" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J56" s="5">
+      <c r="I57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J57" s="5">
         <v>0</v>
       </c>
-      <c r="K56" s="5" t="s">
+      <c r="K57" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
-    </row>
-    <row r="58" spans="1:13" s="47" customFormat="1">
-      <c r="A58" s="11">
+    <row r="58" spans="1:13">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+    </row>
+    <row r="59" spans="1:13" s="47" customFormat="1">
+      <c r="A59" s="11">
         <v>151314792</v>
       </c>
-      <c r="B58" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C58" s="32">
-        <v>10</v>
-      </c>
-      <c r="D58" s="33">
+      <c r="B59" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="32">
+        <v>10</v>
+      </c>
+      <c r="D59" s="33">
         <v>565</v>
       </c>
-      <c r="E58" s="34" t="s">
+      <c r="E59" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="F58" s="32" t="s">
+      <c r="F59" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="G58" s="32" t="s">
+      <c r="G59" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="H58" s="35">
+      <c r="H59" s="35">
         <v>100</v>
       </c>
-      <c r="I58" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J58" s="35">
+      <c r="I59" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J59" s="35">
         <v>100</v>
       </c>
-      <c r="K58" s="35" t="s">
+      <c r="K59" s="35" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="12"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="12"/>
-      <c r="M59" s="25" t="s">
+    <row r="60" spans="1:13">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="M60" s="25" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
-      <c r="A60" s="18">
+    <row r="61" spans="1:13">
+      <c r="A61" s="18">
         <v>151264212</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B61" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C60" s="18">
-        <v>10</v>
-      </c>
-      <c r="D60" s="52">
+      <c r="C61" s="18">
+        <v>10</v>
+      </c>
+      <c r="D61" s="52">
         <v>10710</v>
       </c>
-      <c r="E60" s="53" t="s">
+      <c r="E61" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="F60" s="18">
+      <c r="F61" s="18">
         <v>704681</v>
       </c>
-      <c r="G60" s="18" t="s">
+      <c r="G61" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="H60" s="19">
+      <c r="H61" s="19">
         <v>1</v>
       </c>
-      <c r="I60" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="J60" s="19">
+      <c r="I61" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J61" s="19">
         <v>0</v>
       </c>
-      <c r="K60" s="19" t="s">
+      <c r="K61" s="19" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="57"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="12"/>
-    </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="57"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C62" s="1" t="s">
+      <c r="B63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D62" s="26">
+      <c r="D63" s="26">
         <v>4995</v>
       </c>
-      <c r="E62" s="27">
+      <c r="E63" s="27">
         <v>44223</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="F63" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="G63" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H62" s="12">
+      <c r="H63" s="12">
         <v>2</v>
       </c>
-      <c r="I62" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J62" s="12">
+      <c r="I63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J63" s="12">
         <v>0</v>
       </c>
-      <c r="K62" s="12" t="s">
+      <c r="K63" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="12"/>
-      <c r="K63" s="12"/>
-    </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C64" s="1" t="s">
+      <c r="B65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D64" s="26">
+      <c r="D65" s="26">
         <v>4245</v>
       </c>
-      <c r="E64" s="27">
+      <c r="E65" s="27">
         <v>44223</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="F65" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="G65" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H64" s="12">
+      <c r="H65" s="12">
         <v>2</v>
       </c>
-      <c r="I64" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J64" s="12">
+      <c r="I65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J65" s="12">
         <v>0</v>
       </c>
-      <c r="K64" s="12" t="s">
+      <c r="K65" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="26"/>
-      <c r="E65" s="27"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="12"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="12"/>
-      <c r="K65" s="12"/>
-    </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="21">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="21">
         <v>151113088</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C66" s="1">
-        <v>10</v>
-      </c>
-      <c r="D66" s="26">
+      <c r="B67" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="1">
+        <v>10</v>
+      </c>
+      <c r="D67" s="26">
         <v>1896</v>
       </c>
-      <c r="E66" s="27">
+      <c r="E67" s="27">
         <v>44487</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="F67" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="G67" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H66" s="12">
+      <c r="H67" s="12">
         <v>5</v>
       </c>
-      <c r="I66" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J66" s="12">
+      <c r="I67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J67" s="12">
         <v>0</v>
       </c>
-      <c r="K66" s="12" t="s">
+      <c r="K67" s="12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="12"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="12"/>
-      <c r="K67" s="12"/>
-    </row>
-    <row r="68" spans="1:11" s="36" customFormat="1">
-      <c r="A68" s="31">
+    <row r="68" spans="1:11">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+    </row>
+    <row r="69" spans="1:11" s="36" customFormat="1">
+      <c r="A69" s="31">
         <v>151280693</v>
       </c>
-      <c r="B68" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="C68" s="54">
+      <c r="B69" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="54">
         <v>30</v>
       </c>
-      <c r="D68" s="54">
+      <c r="D69" s="54">
         <v>45000</v>
       </c>
-      <c r="E68" s="54" t="s">
+      <c r="E69" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="F68" s="54">
+      <c r="F69" s="54">
         <v>719031</v>
       </c>
-      <c r="G68" s="54" t="s">
+      <c r="G69" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="H68" s="55">
+      <c r="H69" s="55">
         <v>20</v>
       </c>
-      <c r="I68" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="J68" s="55">
+      <c r="I69" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="J69" s="55">
         <v>14</v>
       </c>
-      <c r="K68" s="55" t="s">
+      <c r="K69" s="55" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="69" spans="1:11" s="36" customFormat="1">
-      <c r="A69" s="6">
+    <row r="70" spans="1:11" s="36" customFormat="1">
+      <c r="A70" s="6">
         <v>151308917</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B70" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C69" s="7">
-        <v>10</v>
-      </c>
-      <c r="D69" s="7">
+      <c r="C70" s="7">
+        <v>10</v>
+      </c>
+      <c r="D70" s="7">
         <v>45000</v>
       </c>
-      <c r="E69" s="7" t="s">
+      <c r="E70" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F69" s="7">
+      <c r="F70" s="7">
         <v>719031</v>
       </c>
-      <c r="G69" s="7" t="s">
+      <c r="G70" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H69" s="61">
+      <c r="H70" s="61">
         <v>1</v>
       </c>
-      <c r="I69" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J69" s="61">
+      <c r="I70" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J70" s="61">
         <v>1</v>
       </c>
-      <c r="K69" s="61" t="s">
+      <c r="K70" s="61" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
-      <c r="A70" s="39"/>
-      <c r="B70" s="44"/>
-      <c r="C70" s="44"/>
-      <c r="D70" s="44"/>
-      <c r="E70" s="44"/>
-      <c r="F70" s="44"/>
-      <c r="G70" s="44"/>
-      <c r="H70" s="45"/>
-      <c r="I70" s="44"/>
-      <c r="J70" s="45"/>
-      <c r="K70" s="45"/>
-    </row>
-    <row r="71" spans="1:11" s="36" customFormat="1">
-      <c r="A71" s="37">
+    <row r="71" spans="1:11">
+      <c r="A71" s="39"/>
+      <c r="B71" s="44"/>
+      <c r="C71" s="44"/>
+      <c r="D71" s="44"/>
+      <c r="E71" s="44"/>
+      <c r="F71" s="44"/>
+      <c r="G71" s="44"/>
+      <c r="H71" s="45"/>
+      <c r="I71" s="44"/>
+      <c r="J71" s="45"/>
+      <c r="K71" s="45"/>
+    </row>
+    <row r="72" spans="1:11" s="36" customFormat="1">
+      <c r="A72" s="37">
         <v>151306716</v>
       </c>
-      <c r="B71" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="C71" s="62">
-        <v>10</v>
-      </c>
-      <c r="D71" s="63">
+      <c r="B72" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="62">
+        <v>10</v>
+      </c>
+      <c r="D72" s="63">
         <v>9999</v>
       </c>
-      <c r="E71" s="64" t="s">
+      <c r="E72" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="F71" s="64">
+      <c r="F72" s="64">
         <v>719381</v>
       </c>
-      <c r="G71" s="64" t="s">
+      <c r="G72" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="H71" s="62">
+      <c r="H72" s="62">
         <v>5</v>
       </c>
-      <c r="I71" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="J71" s="62">
+      <c r="I72" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="J72" s="62">
         <v>0</v>
       </c>
-      <c r="K71" s="64" t="s">
+      <c r="K72" s="64" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="36" customFormat="1">
-      <c r="A72" s="31">
+    <row r="73" spans="1:11" s="36" customFormat="1">
+      <c r="A73" s="31">
         <v>151315311</v>
       </c>
-      <c r="B72" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C72" s="32">
+      <c r="B73" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="32">
         <v>30</v>
       </c>
-      <c r="D72" s="59">
+      <c r="D73" s="59">
         <v>9999</v>
       </c>
-      <c r="E72" s="31" t="s">
+      <c r="E73" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="F72" s="31">
+      <c r="F73" s="31">
         <v>719381</v>
       </c>
-      <c r="G72" s="31" t="s">
+      <c r="G73" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="H72" s="32">
-        <v>10</v>
-      </c>
-      <c r="I72" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J72" s="32">
-        <v>10</v>
-      </c>
-      <c r="K72" s="31" t="s">
+      <c r="H73" s="32">
+        <v>10</v>
+      </c>
+      <c r="I73" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J73" s="32">
+        <v>10</v>
+      </c>
+      <c r="K73" s="31" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
-      <c r="A73" s="11"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="11"/>
-    </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="23">
+      <c r="A74" s="11"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="11"/>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="23">
         <v>151308917</v>
       </c>
-      <c r="B74" s="58" t="s">
+      <c r="B75" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="C74" s="58">
+      <c r="C75" s="58">
         <v>20</v>
       </c>
-      <c r="D74" s="7">
+      <c r="D75" s="7">
         <v>6800</v>
       </c>
-      <c r="E74" s="58" t="s">
+      <c r="E75" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="F74" s="7">
+      <c r="F75" s="7">
         <v>720138</v>
       </c>
-      <c r="G74" s="7" t="s">
+      <c r="G75" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H74" s="58">
+      <c r="H75" s="58">
         <v>1</v>
       </c>
-      <c r="I74" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="J74" s="58">
+      <c r="I75" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="J75" s="58">
         <v>0</v>
       </c>
-      <c r="K74" s="58" t="s">
+      <c r="K75" s="58" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
-      <c r="A75" s="1"/>
-      <c r="B75" s="40"/>
-      <c r="C75" s="40"/>
-      <c r="D75" s="40"/>
-      <c r="E75" s="40"/>
-      <c r="F75" s="40"/>
-      <c r="G75" s="40"/>
-      <c r="H75" s="40"/>
-      <c r="I75" s="40"/>
-      <c r="J75" s="40"/>
-      <c r="K75" s="40"/>
-    </row>
-    <row r="76" spans="1:11" s="36" customFormat="1">
-      <c r="A76" s="11">
+    <row r="76" spans="1:11">
+      <c r="A76" s="1"/>
+      <c r="B76" s="40"/>
+      <c r="C76" s="40"/>
+      <c r="D76" s="40"/>
+      <c r="E76" s="40"/>
+      <c r="F76" s="40"/>
+      <c r="G76" s="40"/>
+      <c r="H76" s="40"/>
+      <c r="I76" s="40"/>
+      <c r="J76" s="40"/>
+      <c r="K76" s="40"/>
+    </row>
+    <row r="77" spans="1:11" s="36" customFormat="1">
+      <c r="A77" s="11">
         <v>151280693</v>
       </c>
-      <c r="B76" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C76" s="32">
-        <v>10</v>
-      </c>
-      <c r="D76" s="32">
+      <c r="B77" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="32">
+        <v>10</v>
+      </c>
+      <c r="D77" s="32">
         <v>2490</v>
       </c>
-      <c r="E76" s="32" t="s">
+      <c r="E77" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="F76" s="31">
+      <c r="F77" s="31">
         <v>724214</v>
       </c>
-      <c r="G76" s="31" t="s">
+      <c r="G77" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="H76" s="32">
+      <c r="H77" s="32">
         <v>20</v>
       </c>
-      <c r="I76" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J76" s="32">
+      <c r="I77" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J77" s="32">
         <v>0</v>
       </c>
-      <c r="K76" s="32" t="s">
+      <c r="K77" s="32" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-    </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="1">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="1">
         <v>16063532</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C78" s="1">
-        <v>10</v>
-      </c>
-      <c r="D78" s="1">
+      <c r="B79" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" s="1">
+        <v>10</v>
+      </c>
+      <c r="D79" s="1">
         <v>2900</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="E79" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F78" s="1">
+      <c r="F79" s="1">
         <v>725828</v>
       </c>
-      <c r="G78" s="1" t="s">
+      <c r="G79" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H78" s="1">
-        <v>10</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J78" s="1">
+      <c r="H79" s="1">
+        <v>10</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J79" s="1">
         <v>0</v>
       </c>
-      <c r="K78" s="1" t="s">
+      <c r="K79" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="36" customFormat="1">
-      <c r="A80" s="31">
+    <row r="81" spans="1:11" s="36" customFormat="1">
+      <c r="A81" s="31">
         <v>151315311</v>
       </c>
-      <c r="B80" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C80" s="32">
-        <v>10</v>
-      </c>
-      <c r="D80" s="32">
+      <c r="B81" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" s="32">
+        <v>10</v>
+      </c>
+      <c r="D81" s="32">
         <v>100</v>
       </c>
-      <c r="E80" s="32" t="s">
+      <c r="E81" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="F80" s="32">
+      <c r="F81" s="32">
         <v>728488</v>
       </c>
-      <c r="G80" s="31" t="s">
+      <c r="G81" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="H80" s="32">
-        <v>10</v>
-      </c>
-      <c r="I80" s="32" t="s">
+      <c r="H81" s="32">
+        <v>10</v>
+      </c>
+      <c r="I81" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="J80" s="32">
+      <c r="J81" s="32">
         <v>30.5</v>
       </c>
-      <c r="K80" s="32" t="s">
+      <c r="K81" s="32" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="83" spans="6:6">
-      <c r="F83" s="17"/>
+    <row r="84" spans="1:11">
+      <c r="F84" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Updated PO.xlsx
+++ b/Updated PO.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="115">
   <si>
     <t>Purchasing Document</t>
   </si>
@@ -983,10 +983,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M79"/>
+  <dimension ref="A1:M78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2292,7 +2292,7 @@
         <v>12</v>
       </c>
       <c r="J8" s="31">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="K8" s="31" t="s">
         <v>108</v>
@@ -2569,7 +2569,7 @@
         <v>12</v>
       </c>
       <c r="J19" s="31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="34" t="s">
         <v>110</v>
@@ -3217,19 +3217,19 @@
     </row>
     <row r="47" spans="1:11" s="35" customFormat="1">
       <c r="A47" s="11">
-        <v>151314791</v>
+        <v>151322710</v>
       </c>
       <c r="B47" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C47" s="31">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D47" s="32">
         <v>1908</v>
       </c>
       <c r="E47" s="33" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="F47" s="31" t="s">
         <v>34</v>
@@ -3238,443 +3238,443 @@
         <v>35</v>
       </c>
       <c r="H47" s="34">
+        <v>30</v>
+      </c>
+      <c r="I47" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J47" s="34">
+        <v>30</v>
+      </c>
+      <c r="K47" s="34" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="35" customFormat="1">
+      <c r="A48" s="11"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="34"/>
+    </row>
+    <row r="49" spans="1:13" s="35" customFormat="1">
+      <c r="A49" s="6">
+        <v>151288592</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="2">
+        <v>10</v>
+      </c>
+      <c r="D49" s="3">
+        <v>8463</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F49" s="6">
+        <v>687349</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H49" s="5">
+        <v>10</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J49" s="5">
+        <v>0</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" s="35" customFormat="1">
+      <c r="A50" s="30"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="34"/>
+      <c r="K50" s="34"/>
+    </row>
+    <row r="51" spans="1:13" s="35" customFormat="1">
+      <c r="A51" s="6">
+        <v>151242082</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="2">
+        <v>10</v>
+      </c>
+      <c r="D51" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F51" s="6">
+        <v>691660</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H51" s="5">
+        <v>1</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J51" s="5">
+        <v>0</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+    </row>
+    <row r="53" spans="1:13" s="46" customFormat="1">
+      <c r="A53" s="11">
+        <v>151314792</v>
+      </c>
+      <c r="B53" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="31">
+        <v>10</v>
+      </c>
+      <c r="D53" s="32">
+        <v>565</v>
+      </c>
+      <c r="E53" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="F53" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G53" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="H53" s="34">
+        <v>100</v>
+      </c>
+      <c r="I53" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J53" s="34">
+        <v>0</v>
+      </c>
+      <c r="K53" s="34" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="M54" s="24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="18">
+        <v>151264212</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="18">
+        <v>10</v>
+      </c>
+      <c r="D55" s="51">
+        <v>10710</v>
+      </c>
+      <c r="E55" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="F55" s="18">
+        <v>704681</v>
+      </c>
+      <c r="G55" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="H55" s="19">
+        <v>1</v>
+      </c>
+      <c r="I55" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J55" s="19">
+        <v>0</v>
+      </c>
+      <c r="K55" s="19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="56"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" s="25">
+        <v>4995</v>
+      </c>
+      <c r="E57" s="26">
+        <v>44223</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G57" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I47" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J47" s="34">
+      <c r="H57" s="12">
+        <v>2</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J57" s="12">
         <v>0</v>
       </c>
-      <c r="K47" s="34" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" s="35" customFormat="1">
-      <c r="A48" s="11">
-        <v>151322710</v>
-      </c>
-      <c r="B48" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48" s="31">
-        <v>40</v>
-      </c>
-      <c r="D48" s="32">
-        <v>1908</v>
-      </c>
-      <c r="E48" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="F48" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="G48" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="H48" s="34">
+      <c r="K57" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" s="25">
+        <v>4245</v>
+      </c>
+      <c r="E59" s="26">
+        <v>44223</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H59" s="12">
+        <v>2</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J59" s="12">
+        <v>0</v>
+      </c>
+      <c r="K59" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="20">
+        <v>151113088</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="1">
+        <v>10</v>
+      </c>
+      <c r="D61" s="25">
+        <v>1896</v>
+      </c>
+      <c r="E61" s="26">
+        <v>44487</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" s="12">
+        <v>5</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J61" s="12">
+        <v>0</v>
+      </c>
+      <c r="K61" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+    </row>
+    <row r="63" spans="1:13" s="35" customFormat="1">
+      <c r="A63" s="30">
+        <v>151280693</v>
+      </c>
+      <c r="B63" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="53">
         <v>30</v>
       </c>
-      <c r="I48" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J48" s="34">
-        <v>30</v>
-      </c>
-      <c r="K48" s="34" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" s="35" customFormat="1">
-      <c r="A49" s="11"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="31"/>
-      <c r="J49" s="34"/>
-      <c r="K49" s="34"/>
-    </row>
-    <row r="50" spans="1:13" s="35" customFormat="1">
-      <c r="A50" s="6">
-        <v>151288592</v>
-      </c>
-      <c r="B50" s="2" t="s">
+      <c r="D63" s="53">
+        <v>45000</v>
+      </c>
+      <c r="E63" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="F63" s="53">
+        <v>719031</v>
+      </c>
+      <c r="G63" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" s="54">
+        <v>20</v>
+      </c>
+      <c r="I63" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J63" s="54">
+        <v>14</v>
+      </c>
+      <c r="K63" s="54" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" s="35" customFormat="1">
+      <c r="A64" s="6">
+        <v>151308917</v>
+      </c>
+      <c r="B64" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C50" s="2">
-        <v>10</v>
-      </c>
-      <c r="D50" s="3">
-        <v>8463</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F50" s="6">
-        <v>687349</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H50" s="5">
-        <v>10</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J50" s="5">
-        <v>0</v>
-      </c>
-      <c r="K50" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" s="35" customFormat="1">
-      <c r="A51" s="30"/>
-      <c r="B51" s="31"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="56"/>
-      <c r="H51" s="34"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="34"/>
-      <c r="K51" s="34"/>
-    </row>
-    <row r="52" spans="1:13" s="35" customFormat="1">
-      <c r="A52" s="6">
-        <v>151242082</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C52" s="2">
-        <v>10</v>
-      </c>
-      <c r="D52" s="3">
-        <v>1600</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F52" s="6">
-        <v>691660</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H52" s="5">
+      <c r="C64" s="7">
+        <v>10</v>
+      </c>
+      <c r="D64" s="7">
+        <v>45000</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F64" s="7">
+        <v>719031</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" s="60">
         <v>1</v>
       </c>
-      <c r="I52" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J52" s="5">
-        <v>0</v>
-      </c>
-      <c r="K52" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="12"/>
-    </row>
-    <row r="54" spans="1:13" s="46" customFormat="1">
-      <c r="A54" s="11">
-        <v>151314792</v>
-      </c>
-      <c r="B54" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C54" s="31">
-        <v>10</v>
-      </c>
-      <c r="D54" s="32">
-        <v>565</v>
-      </c>
-      <c r="E54" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="F54" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="G54" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="H54" s="34">
-        <v>100</v>
-      </c>
-      <c r="I54" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J54" s="34">
-        <v>0</v>
-      </c>
-      <c r="K54" s="34" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
-      <c r="M55" s="24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
-      <c r="A56" s="18">
-        <v>151264212</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C56" s="18">
-        <v>10</v>
-      </c>
-      <c r="D56" s="51">
-        <v>10710</v>
-      </c>
-      <c r="E56" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="F56" s="18">
-        <v>704681</v>
-      </c>
-      <c r="G56" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="H56" s="19">
+      <c r="I64" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J64" s="60">
         <v>1</v>
       </c>
-      <c r="I56" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="J56" s="19">
-        <v>0</v>
-      </c>
-      <c r="K56" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="56"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
-    </row>
-    <row r="58" spans="1:13">
-      <c r="A58" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D58" s="25">
-        <v>4995</v>
-      </c>
-      <c r="E58" s="26">
-        <v>44223</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H58" s="12">
-        <v>2</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J58" s="12">
-        <v>0</v>
-      </c>
-      <c r="K58" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="12"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="12"/>
-    </row>
-    <row r="60" spans="1:13">
-      <c r="A60" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D60" s="25">
-        <v>4245</v>
-      </c>
-      <c r="E60" s="26">
-        <v>44223</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H60" s="12">
-        <v>2</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J60" s="12">
-        <v>0</v>
-      </c>
-      <c r="K60" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="12"/>
-    </row>
-    <row r="62" spans="1:13">
-      <c r="A62" s="20">
-        <v>151113088</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C62" s="1">
-        <v>10</v>
-      </c>
-      <c r="D62" s="25">
-        <v>1896</v>
-      </c>
-      <c r="E62" s="26">
-        <v>44487</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H62" s="12">
-        <v>5</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J62" s="12">
-        <v>0</v>
-      </c>
-      <c r="K62" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="12"/>
-      <c r="K63" s="12"/>
-    </row>
-    <row r="64" spans="1:13" s="35" customFormat="1">
-      <c r="A64" s="30">
-        <v>151280693</v>
-      </c>
-      <c r="B64" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="C64" s="53">
-        <v>30</v>
-      </c>
-      <c r="D64" s="53">
-        <v>45000</v>
-      </c>
-      <c r="E64" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="F64" s="53">
-        <v>719031</v>
-      </c>
-      <c r="G64" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="H64" s="54">
-        <v>20</v>
-      </c>
-      <c r="I64" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="J64" s="54">
-        <v>14</v>
-      </c>
-      <c r="K64" s="54" t="s">
-        <v>89</v>
+      <c r="K64" s="60" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="65" spans="1:11" s="35" customFormat="1">
       <c r="A65" s="6">
-        <v>151308917</v>
+        <v>151283046</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>16</v>
@@ -3686,7 +3686,7 @@
         <v>45000</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F65" s="7">
         <v>719031</v>
@@ -3695,282 +3695,247 @@
         <v>46</v>
       </c>
       <c r="H65" s="60">
+        <v>2</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J65" s="60">
+        <v>2</v>
+      </c>
+      <c r="K65" s="60" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="38"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="44"/>
+      <c r="I66" s="43"/>
+      <c r="J66" s="44"/>
+      <c r="K66" s="44"/>
+    </row>
+    <row r="67" spans="1:11" s="35" customFormat="1">
+      <c r="A67" s="30">
+        <v>151315311</v>
+      </c>
+      <c r="B67" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="31">
+        <v>30</v>
+      </c>
+      <c r="D67" s="58">
+        <v>9999</v>
+      </c>
+      <c r="E67" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="F67" s="30">
+        <v>719381</v>
+      </c>
+      <c r="G67" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="H67" s="31">
+        <v>10</v>
+      </c>
+      <c r="I67" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J67" s="31">
+        <v>0</v>
+      </c>
+      <c r="K67" s="30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="11"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="11"/>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="22">
+        <v>151308917</v>
+      </c>
+      <c r="B69" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="57">
+        <v>20</v>
+      </c>
+      <c r="D69" s="7">
+        <v>6800</v>
+      </c>
+      <c r="E69" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="F69" s="7">
+        <v>720138</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H69" s="57">
         <v>1</v>
       </c>
-      <c r="I65" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J65" s="60">
-        <v>1</v>
-      </c>
-      <c r="K65" s="60" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" s="35" customFormat="1">
-      <c r="A66" s="6">
-        <v>151283046</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C66" s="7">
-        <v>10</v>
-      </c>
-      <c r="D66" s="7">
-        <v>45000</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F66" s="7">
-        <v>719031</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H66" s="60">
-        <v>2</v>
-      </c>
-      <c r="I66" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J66" s="60">
-        <v>2</v>
-      </c>
-      <c r="K66" s="60" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="38"/>
-      <c r="B67" s="43"/>
-      <c r="C67" s="43"/>
-      <c r="D67" s="43"/>
-      <c r="E67" s="43"/>
-      <c r="F67" s="43"/>
-      <c r="G67" s="43"/>
-      <c r="H67" s="44"/>
-      <c r="I67" s="43"/>
-      <c r="J67" s="44"/>
-      <c r="K67" s="44"/>
-    </row>
-    <row r="68" spans="1:11" s="35" customFormat="1">
-      <c r="A68" s="30">
+      <c r="I69" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="J69" s="57">
+        <v>0</v>
+      </c>
+      <c r="K69" s="57" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="1"/>
+      <c r="B70" s="39"/>
+      <c r="C70" s="39"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="39"/>
+      <c r="G70" s="39"/>
+      <c r="H70" s="39"/>
+      <c r="I70" s="39"/>
+      <c r="J70" s="39"/>
+      <c r="K70" s="39"/>
+    </row>
+    <row r="71" spans="1:11" s="35" customFormat="1">
+      <c r="A71" s="11">
+        <v>151322392</v>
+      </c>
+      <c r="B71" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="31">
+        <v>10</v>
+      </c>
+      <c r="D71" s="31">
+        <v>2490</v>
+      </c>
+      <c r="E71" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="F71" s="30">
+        <v>724214</v>
+      </c>
+      <c r="G71" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="H71" s="31">
+        <v>10</v>
+      </c>
+      <c r="I71" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J71" s="31">
+        <v>0</v>
+      </c>
+      <c r="K71" s="31" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="1">
+        <v>16063532</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="1">
+        <v>10</v>
+      </c>
+      <c r="D73" s="1">
+        <v>2900</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F73" s="1">
+        <v>725828</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H73" s="1">
+        <v>10</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J73" s="1">
+        <v>0</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" s="35" customFormat="1">
+      <c r="A75" s="30">
         <v>151315311</v>
       </c>
-      <c r="B68" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C68" s="31">
-        <v>30</v>
-      </c>
-      <c r="D68" s="58">
-        <v>9999</v>
-      </c>
-      <c r="E68" s="30" t="s">
+      <c r="B75" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="31">
+        <v>10</v>
+      </c>
+      <c r="D75" s="31">
+        <v>100</v>
+      </c>
+      <c r="E75" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="F68" s="30">
-        <v>719381</v>
-      </c>
-      <c r="G68" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="H68" s="31">
-        <v>10</v>
-      </c>
-      <c r="I68" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J68" s="31">
-        <v>10</v>
-      </c>
-      <c r="K68" s="30" t="s">
+      <c r="F75" s="31">
+        <v>728488</v>
+      </c>
+      <c r="G75" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H75" s="31">
+        <v>10</v>
+      </c>
+      <c r="I75" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="J75" s="31">
+        <v>0</v>
+      </c>
+      <c r="K75" s="31" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
-      <c r="A69" s="11"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="11"/>
-    </row>
-    <row r="70" spans="1:11">
-      <c r="A70" s="22">
-        <v>151308917</v>
-      </c>
-      <c r="B70" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="C70" s="57">
-        <v>20</v>
-      </c>
-      <c r="D70" s="7">
-        <v>6800</v>
-      </c>
-      <c r="E70" s="57" t="s">
-        <v>92</v>
-      </c>
-      <c r="F70" s="7">
-        <v>720138</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H70" s="57">
-        <v>1</v>
-      </c>
-      <c r="I70" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="J70" s="57">
-        <v>0</v>
-      </c>
-      <c r="K70" s="57" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
-      <c r="A71" s="1"/>
-      <c r="B71" s="39"/>
-      <c r="C71" s="39"/>
-      <c r="D71" s="39"/>
-      <c r="E71" s="39"/>
-      <c r="F71" s="39"/>
-      <c r="G71" s="39"/>
-      <c r="H71" s="39"/>
-      <c r="I71" s="39"/>
-      <c r="J71" s="39"/>
-      <c r="K71" s="39"/>
-    </row>
-    <row r="72" spans="1:11" s="35" customFormat="1">
-      <c r="A72" s="11">
-        <v>151322392</v>
-      </c>
-      <c r="B72" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C72" s="31">
-        <v>10</v>
-      </c>
-      <c r="D72" s="31">
-        <v>2490</v>
-      </c>
-      <c r="E72" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="F72" s="30">
-        <v>724214</v>
-      </c>
-      <c r="G72" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="H72" s="31">
-        <v>10</v>
-      </c>
-      <c r="I72" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J72" s="31">
-        <v>0</v>
-      </c>
-      <c r="K72" s="31" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-    </row>
-    <row r="74" spans="1:11">
-      <c r="A74" s="1">
-        <v>16063532</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C74" s="1">
-        <v>10</v>
-      </c>
-      <c r="D74" s="1">
-        <v>2900</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F74" s="1">
-        <v>725828</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H74" s="1">
-        <v>10</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J74" s="1">
-        <v>0</v>
-      </c>
-      <c r="K74" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" s="35" customFormat="1">
-      <c r="A76" s="30">
-        <v>151315311</v>
-      </c>
-      <c r="B76" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C76" s="31">
-        <v>10</v>
-      </c>
-      <c r="D76" s="31">
-        <v>100</v>
-      </c>
-      <c r="E76" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="F76" s="31">
-        <v>728488</v>
-      </c>
-      <c r="G76" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H76" s="31">
-        <v>10</v>
-      </c>
-      <c r="I76" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="J76" s="31">
-        <v>0</v>
-      </c>
-      <c r="K76" s="31" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
-      <c r="F79" s="17"/>
+    <row r="78" spans="1:11">
+      <c r="F78" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Updated PO.xlsx
+++ b/Updated PO.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="113">
   <si>
     <t>Purchasing Document</t>
   </si>
@@ -314,9 +314,6 @@
     <t>13.03.2023</t>
   </si>
   <si>
-    <t>CPU_DELL_MT0.5 &amp; MT1.0</t>
-  </si>
-  <si>
     <t>17.05.2023</t>
   </si>
   <si>
@@ -339,9 +336,6 @@
   </si>
   <si>
     <t>29.03.2023</t>
-  </si>
-  <si>
-    <t>13.05.2023</t>
   </si>
   <si>
     <t>26.04.2023</t>
@@ -452,7 +446,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -499,11 +493,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -677,6 +684,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -983,10 +1002,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M78"/>
+  <dimension ref="A1:M79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2277,7 +2296,7 @@
         <v>2400</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F8" s="31">
         <v>615181</v>
@@ -2295,7 +2314,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="31" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2343,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="35" customFormat="1">
@@ -2360,7 +2379,7 @@
         <v>4831</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F11" s="31">
         <v>615698</v>
@@ -2378,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="31" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2426,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2476,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2506,7 +2525,7 @@
         <v>600</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F17" s="31" t="s">
         <v>24</v>
@@ -2524,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="34" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2554,7 +2573,7 @@
         <v>5614</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F19" s="31">
         <v>616026</v>
@@ -2569,10 +2588,10 @@
         <v>12</v>
       </c>
       <c r="J19" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="34" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="35" customFormat="1">
@@ -2602,7 +2621,7 @@
         <v>6521</v>
       </c>
       <c r="E21" s="33" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F21" s="31" t="s">
         <v>26</v>
@@ -2617,10 +2636,10 @@
         <v>12</v>
       </c>
       <c r="J21" s="34">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="K21" s="34" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L21" s="55"/>
     </row>
@@ -2651,7 +2670,7 @@
         <v>4048</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F23" s="31">
         <v>630059</v>
@@ -2669,7 +2688,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="31" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2699,7 +2718,7 @@
         <v>5738</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F25" s="30">
         <v>632215</v>
@@ -2714,10 +2733,10 @@
         <v>12</v>
       </c>
       <c r="J25" s="31">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K25" s="30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="12" customHeight="1">
@@ -2861,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2909,7 +2928,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -3101,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="13.5" customHeight="1">
@@ -3197,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -3229,7 +3248,7 @@
         <v>1908</v>
       </c>
       <c r="E47" s="33" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F47" s="31" t="s">
         <v>34</v>
@@ -3247,7 +3266,7 @@
         <v>30</v>
       </c>
       <c r="K47" s="34" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48" spans="1:11" s="35" customFormat="1">
@@ -3373,7 +3392,7 @@
         <v>565</v>
       </c>
       <c r="E53" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F53" s="31" t="s">
         <v>36</v>
@@ -3391,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="K53" s="34" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -3558,123 +3577,123 @@
       <c r="A61" s="20">
         <v>151113088</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C61" s="1">
-        <v>10</v>
-      </c>
-      <c r="D61" s="25">
+      <c r="B61" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="61">
+        <v>10</v>
+      </c>
+      <c r="D61" s="62">
         <v>1896</v>
       </c>
-      <c r="E61" s="26">
+      <c r="E61" s="63">
         <v>44487</v>
       </c>
-      <c r="F61" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G61" s="1" t="s">
+      <c r="F61" s="61">
+        <v>716663</v>
+      </c>
+      <c r="G61" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="H61" s="12">
+      <c r="H61" s="64">
         <v>5</v>
       </c>
-      <c r="I61" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J61" s="12">
+      <c r="I61" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="J61" s="64">
         <v>0</v>
       </c>
-      <c r="K61" s="12" t="s">
+      <c r="K61" s="64" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="12"/>
-    </row>
-    <row r="63" spans="1:13" s="35" customFormat="1">
-      <c r="A63" s="30">
+      <c r="A62" s="11">
+        <v>151326492</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" s="1">
+        <v>10</v>
+      </c>
+      <c r="D62" s="25">
+        <v>1896</v>
+      </c>
+      <c r="E62" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="F62" s="1">
+        <v>716663</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" s="12">
+        <v>3</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J62" s="12">
+        <v>3</v>
+      </c>
+      <c r="K62" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+    </row>
+    <row r="64" spans="1:13" s="35" customFormat="1">
+      <c r="A64" s="30">
         <v>151280693</v>
       </c>
-      <c r="B63" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="C63" s="53">
+      <c r="B64" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="53">
         <v>30</v>
       </c>
-      <c r="D63" s="53">
+      <c r="D64" s="53">
         <v>45000</v>
       </c>
-      <c r="E63" s="53" t="s">
+      <c r="E64" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="F63" s="53">
+      <c r="F64" s="53">
         <v>719031</v>
       </c>
-      <c r="G63" s="53" t="s">
+      <c r="G64" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="H63" s="54">
+      <c r="H64" s="54">
         <v>20</v>
       </c>
-      <c r="I63" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="J63" s="54">
+      <c r="I64" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J64" s="54">
         <v>14</v>
       </c>
-      <c r="K63" s="54" t="s">
+      <c r="K64" s="54" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" s="35" customFormat="1">
-      <c r="A64" s="6">
-        <v>151308917</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C64" s="7">
-        <v>10</v>
-      </c>
-      <c r="D64" s="7">
-        <v>45000</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F64" s="7">
-        <v>719031</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H64" s="60">
-        <v>1</v>
-      </c>
-      <c r="I64" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J64" s="60">
-        <v>1</v>
-      </c>
-      <c r="K64" s="60" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="65" spans="1:11" s="35" customFormat="1">
       <c r="A65" s="6">
-        <v>151283046</v>
+        <v>151308917</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>16</v>
@@ -3686,7 +3705,7 @@
         <v>45000</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F65" s="7">
         <v>719031</v>
@@ -3695,247 +3714,282 @@
         <v>46</v>
       </c>
       <c r="H65" s="60">
+        <v>1</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J65" s="60">
+        <v>1</v>
+      </c>
+      <c r="K65" s="60" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" s="35" customFormat="1">
+      <c r="A66" s="6">
+        <v>151283046</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="7">
+        <v>10</v>
+      </c>
+      <c r="D66" s="7">
+        <v>45000</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F66" s="7">
+        <v>719031</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" s="60">
         <v>2</v>
       </c>
-      <c r="I65" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J65" s="60">
+      <c r="I66" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J66" s="60">
         <v>2</v>
       </c>
-      <c r="K65" s="60" t="s">
+      <c r="K66" s="60" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="38"/>
-      <c r="B66" s="43"/>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="44"/>
-      <c r="I66" s="43"/>
-      <c r="J66" s="44"/>
-      <c r="K66" s="44"/>
-    </row>
-    <row r="67" spans="1:11" s="35" customFormat="1">
-      <c r="A67" s="30">
+    <row r="67" spans="1:11">
+      <c r="A67" s="38"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="43"/>
+      <c r="G67" s="43"/>
+      <c r="H67" s="44"/>
+      <c r="I67" s="43"/>
+      <c r="J67" s="44"/>
+      <c r="K67" s="44"/>
+    </row>
+    <row r="68" spans="1:11" s="35" customFormat="1">
+      <c r="A68" s="30">
         <v>151315311</v>
       </c>
-      <c r="B67" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C67" s="31">
+      <c r="B68" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" s="31">
         <v>30</v>
       </c>
-      <c r="D67" s="58">
+      <c r="D68" s="58">
         <v>9999</v>
       </c>
-      <c r="E67" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="F67" s="30">
+      <c r="E68" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="F68" s="30">
         <v>719381</v>
       </c>
-      <c r="G67" s="30" t="s">
+      <c r="G68" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="H67" s="31">
-        <v>10</v>
-      </c>
-      <c r="I67" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J67" s="31">
+      <c r="H68" s="31">
+        <v>10</v>
+      </c>
+      <c r="I68" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J68" s="31">
         <v>0</v>
       </c>
-      <c r="K67" s="30" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
-      <c r="A68" s="11"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="11"/>
+      <c r="K68" s="30" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="22">
+      <c r="A69" s="11"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="11"/>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="22">
         <v>151308917</v>
       </c>
-      <c r="B69" s="57" t="s">
+      <c r="B70" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="C69" s="57">
+      <c r="C70" s="57">
         <v>20</v>
       </c>
-      <c r="D69" s="7">
+      <c r="D70" s="7">
         <v>6800</v>
       </c>
-      <c r="E69" s="57" t="s">
+      <c r="E70" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="F69" s="7">
+      <c r="F70" s="7">
         <v>720138</v>
       </c>
-      <c r="G69" s="7" t="s">
+      <c r="G70" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H69" s="57">
+      <c r="H70" s="57">
         <v>1</v>
       </c>
-      <c r="I69" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="J69" s="57">
+      <c r="I70" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="J70" s="57">
         <v>0</v>
       </c>
-      <c r="K69" s="57" t="s">
+      <c r="K70" s="57" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="1"/>
+      <c r="B71" s="39"/>
+      <c r="C71" s="39"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="39"/>
+      <c r="F71" s="39"/>
+      <c r="G71" s="39"/>
+      <c r="H71" s="39"/>
+      <c r="I71" s="39"/>
+      <c r="J71" s="39"/>
+      <c r="K71" s="39"/>
+    </row>
+    <row r="72" spans="1:11" s="35" customFormat="1">
+      <c r="A72" s="11">
+        <v>151322392</v>
+      </c>
+      <c r="B72" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="31">
+        <v>10</v>
+      </c>
+      <c r="D72" s="31">
+        <v>2490</v>
+      </c>
+      <c r="E72" s="31" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="70" spans="1:11">
-      <c r="A70" s="1"/>
-      <c r="B70" s="39"/>
-      <c r="C70" s="39"/>
-      <c r="D70" s="39"/>
-      <c r="E70" s="39"/>
-      <c r="F70" s="39"/>
-      <c r="G70" s="39"/>
-      <c r="H70" s="39"/>
-      <c r="I70" s="39"/>
-      <c r="J70" s="39"/>
-      <c r="K70" s="39"/>
-    </row>
-    <row r="71" spans="1:11" s="35" customFormat="1">
-      <c r="A71" s="11">
-        <v>151322392</v>
-      </c>
-      <c r="B71" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C71" s="31">
-        <v>10</v>
-      </c>
-      <c r="D71" s="31">
-        <v>2490</v>
-      </c>
-      <c r="E71" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="F71" s="30">
+      <c r="F72" s="30">
         <v>724214</v>
       </c>
-      <c r="G71" s="30" t="s">
+      <c r="G72" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="H71" s="31">
-        <v>10</v>
-      </c>
-      <c r="I71" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J71" s="31">
+      <c r="H72" s="31">
+        <v>10</v>
+      </c>
+      <c r="I72" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J72" s="31">
         <v>0</v>
       </c>
-      <c r="K71" s="31" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
+      <c r="K72" s="31" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="1">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="1">
         <v>16063532</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C73" s="1">
-        <v>10</v>
-      </c>
-      <c r="D73" s="1">
+      <c r="B74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" s="1">
+        <v>10</v>
+      </c>
+      <c r="D74" s="1">
         <v>2900</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E74" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F73" s="1">
+      <c r="F74" s="1">
         <v>725828</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="G74" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H73" s="1">
-        <v>10</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J73" s="1">
+      <c r="H74" s="1">
+        <v>10</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J74" s="1">
         <v>0</v>
       </c>
-      <c r="K73" s="1" t="s">
+      <c r="K74" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="35" customFormat="1">
-      <c r="A75" s="30">
+    <row r="76" spans="1:11" s="35" customFormat="1">
+      <c r="A76" s="30">
         <v>151315311</v>
       </c>
-      <c r="B75" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C75" s="31">
-        <v>10</v>
-      </c>
-      <c r="D75" s="31">
+      <c r="B76" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" s="31">
+        <v>10</v>
+      </c>
+      <c r="D76" s="31">
         <v>100</v>
       </c>
-      <c r="E75" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="F75" s="31">
+      <c r="E76" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="F76" s="31">
         <v>728488</v>
       </c>
-      <c r="G75" s="30" t="s">
+      <c r="G76" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="H75" s="31">
-        <v>10</v>
-      </c>
-      <c r="I75" s="31" t="s">
+      <c r="H76" s="31">
+        <v>10</v>
+      </c>
+      <c r="I76" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="J75" s="31">
+      <c r="J76" s="31">
         <v>0</v>
       </c>
-      <c r="K75" s="31" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
-      <c r="F78" s="17"/>
+      <c r="K76" s="31" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="F79" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3945,10 +3999,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M82"/>
+  <dimension ref="A1:M78"/>
   <sheetViews>
     <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -5239,7 +5293,7 @@
         <v>2400</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F8" s="31">
         <v>615181</v>
@@ -5254,10 +5308,10 @@
         <v>12</v>
       </c>
       <c r="J8" s="31">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="K8" s="31" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -5305,7 +5359,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="35" customFormat="1">
@@ -5322,7 +5376,7 @@
         <v>4831</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F11" s="31">
         <v>615698</v>
@@ -5340,7 +5394,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="31" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -5388,7 +5442,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -5438,7 +5492,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -5468,7 +5522,7 @@
         <v>600</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F17" s="31" t="s">
         <v>24</v>
@@ -5486,7 +5540,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="34" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -5516,7 +5570,7 @@
         <v>5614</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F19" s="31">
         <v>616026</v>
@@ -5531,10 +5585,10 @@
         <v>12</v>
       </c>
       <c r="J19" s="31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="34" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="35" customFormat="1">
@@ -5551,20 +5605,20 @@
       <c r="K20" s="34"/>
     </row>
     <row r="21" spans="1:12" s="35" customFormat="1">
-      <c r="A21" s="30">
-        <v>151315311</v>
+      <c r="A21" s="11">
+        <v>151322710</v>
       </c>
       <c r="B21" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="31">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D21" s="34">
         <v>6521</v>
       </c>
       <c r="E21" s="33" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F21" s="31" t="s">
         <v>26</v>
@@ -5573,858 +5627,838 @@
         <v>69</v>
       </c>
       <c r="H21" s="34">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I21" s="31" t="s">
         <v>12</v>
       </c>
       <c r="J21" s="34">
+        <v>20</v>
+      </c>
+      <c r="K21" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="L21" s="55"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="11"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+    </row>
+    <row r="23" spans="1:12" s="35" customFormat="1">
+      <c r="A23" s="30">
+        <v>151315311</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="31">
+        <v>90</v>
+      </c>
+      <c r="D23" s="31">
+        <v>4048</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="31">
+        <v>630059</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="31">
+        <v>20</v>
+      </c>
+      <c r="I23" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="31">
         <v>0</v>
       </c>
-      <c r="K21" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="L21" s="55"/>
-    </row>
-    <row r="22" spans="1:12" s="35" customFormat="1">
-      <c r="A22" s="11">
+      <c r="K23" s="31" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="11"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:12" s="35" customFormat="1">
+      <c r="A25" s="30">
+        <v>151322391</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="31">
+        <v>10</v>
+      </c>
+      <c r="D25" s="58">
+        <v>5738</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" s="30">
+        <v>632215</v>
+      </c>
+      <c r="G25" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" s="31">
+        <v>15</v>
+      </c>
+      <c r="I25" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" s="31">
+        <v>15</v>
+      </c>
+      <c r="K25" s="30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="12" customHeight="1">
+      <c r="A26" s="11"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="11"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="11">
+        <v>151110116</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="1">
+        <v>60</v>
+      </c>
+      <c r="D27" s="13">
+        <v>3450</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="13">
+        <v>634355</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" s="13">
+        <v>10</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" s="13">
+        <v>10</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="12"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="2">
+        <v>151008992</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="2">
+        <v>20</v>
+      </c>
+      <c r="D29" s="10">
+        <v>4726</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="2">
+        <v>635655</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="2">
+        <v>10</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:12" s="35" customFormat="1">
+      <c r="A31" s="30">
+        <v>151302474</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="31">
+        <v>40</v>
+      </c>
+      <c r="D31" s="59">
+        <v>2818</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="F31" s="30">
+        <v>635656</v>
+      </c>
+      <c r="G31" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="H31" s="31">
+        <v>15</v>
+      </c>
+      <c r="I31" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="J31" s="31">
+        <v>0</v>
+      </c>
+      <c r="K31" s="31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="1:11" s="35" customFormat="1">
+      <c r="A33" s="30">
+        <v>151302474</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="31">
+        <v>50</v>
+      </c>
+      <c r="D33" s="58">
+        <v>3555</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="F33" s="30">
+        <v>646872</v>
+      </c>
+      <c r="G33" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="31">
+        <v>10</v>
+      </c>
+      <c r="I33" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33" s="31">
+        <v>0</v>
+      </c>
+      <c r="K33" s="30" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="11"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="11"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="11">
+        <v>151110116</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="1">
+        <v>40</v>
+      </c>
+      <c r="D35" s="25">
+        <v>112</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35" s="12">
+        <v>50</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J35" s="12">
+        <v>0</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="22">
+        <v>151197029</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="2">
+        <v>60</v>
+      </c>
+      <c r="D37" s="3">
+        <v>3510</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F37" s="2">
+        <v>663091</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H37" s="5">
+        <v>2</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37" s="5">
+        <v>0</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="6">
+        <v>151090350</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="2">
+        <v>10</v>
+      </c>
+      <c r="D39" s="3">
+        <v>5130</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39" s="2">
+        <v>663092</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H39" s="5">
+        <v>2</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J39" s="5">
+        <v>0</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+    </row>
+    <row r="41" spans="1:11" s="35" customFormat="1">
+      <c r="A41" s="6">
+        <v>151308917</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="2">
+        <v>60</v>
+      </c>
+      <c r="D41" s="3">
+        <v>6615</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F41" s="2">
+        <v>663093</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H41" s="5">
+        <v>2</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J41" s="5">
+        <v>0</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="6">
+        <v>151282825</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="2">
+        <v>40</v>
+      </c>
+      <c r="D43" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F43" s="2">
+        <v>668330</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H43" s="5">
+        <v>3</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J43" s="5">
+        <v>0</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="35" customFormat="1">
+      <c r="A44" s="36"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="50"/>
+      <c r="K44" s="50"/>
+    </row>
+    <row r="45" spans="1:11" s="35" customFormat="1">
+      <c r="A45" s="11">
+        <v>151306604</v>
+      </c>
+      <c r="B45" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="31">
+        <v>10</v>
+      </c>
+      <c r="D45" s="32">
+        <v>9703</v>
+      </c>
+      <c r="E45" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="F45" s="30">
+        <v>681149</v>
+      </c>
+      <c r="G45" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="H45" s="34">
+        <v>1</v>
+      </c>
+      <c r="I45" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J45" s="34">
+        <v>0</v>
+      </c>
+      <c r="K45" s="33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="42"/>
+    </row>
+    <row r="47" spans="1:11" s="35" customFormat="1">
+      <c r="A47" s="11">
         <v>151322710</v>
       </c>
-      <c r="B22" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="31">
-        <v>50</v>
-      </c>
-      <c r="D22" s="34">
-        <v>6521</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="F22" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="H22" s="34">
-        <v>20</v>
-      </c>
-      <c r="I22" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J22" s="34">
-        <v>20</v>
-      </c>
-      <c r="K22" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="L22" s="55"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="11"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-    </row>
-    <row r="24" spans="1:12" s="35" customFormat="1">
-      <c r="A24" s="30">
-        <v>151315311</v>
-      </c>
-      <c r="B24" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="31">
-        <v>90</v>
-      </c>
-      <c r="D24" s="31">
-        <v>4048</v>
-      </c>
-      <c r="E24" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="F24" s="31">
-        <v>630059</v>
-      </c>
-      <c r="G24" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="H24" s="31">
-        <v>20</v>
-      </c>
-      <c r="I24" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" s="31">
+      <c r="B47" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="31">
+        <v>40</v>
+      </c>
+      <c r="D47" s="32">
+        <v>1908</v>
+      </c>
+      <c r="E47" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="F47" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G47" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H47" s="34">
+        <v>30</v>
+      </c>
+      <c r="I47" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J47" s="34">
+        <v>30</v>
+      </c>
+      <c r="K47" s="34" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="35" customFormat="1">
+      <c r="A48" s="11"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="34"/>
+    </row>
+    <row r="49" spans="1:13" s="35" customFormat="1">
+      <c r="A49" s="6">
+        <v>151288592</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="2">
+        <v>10</v>
+      </c>
+      <c r="D49" s="3">
+        <v>8463</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F49" s="6">
+        <v>687349</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H49" s="5">
+        <v>10</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J49" s="5">
         <v>0</v>
       </c>
-      <c r="K24" s="31" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="11"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="1:12" s="35" customFormat="1">
-      <c r="A26" s="30">
-        <v>151322391</v>
-      </c>
-      <c r="B26" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="31">
-        <v>10</v>
-      </c>
-      <c r="D26" s="58">
-        <v>5738</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="F26" s="30">
-        <v>632215</v>
-      </c>
-      <c r="G26" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="H26" s="31">
-        <v>15</v>
-      </c>
-      <c r="I26" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J26" s="31">
-        <v>15</v>
-      </c>
-      <c r="K26" s="30" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="12" customHeight="1">
-      <c r="A27" s="11"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="11"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="11">
-        <v>151110116</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="1">
+      <c r="K49" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" s="35" customFormat="1">
+      <c r="A50" s="30"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="34"/>
+      <c r="K50" s="34"/>
+    </row>
+    <row r="51" spans="1:13" s="35" customFormat="1">
+      <c r="A51" s="6">
+        <v>151242082</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="2">
+        <v>10</v>
+      </c>
+      <c r="D51" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F51" s="6">
+        <v>691660</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H51" s="5">
+        <v>1</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J51" s="5">
+        <v>0</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+    </row>
+    <row r="53" spans="1:13" s="46" customFormat="1">
+      <c r="A53" s="11">
+        <v>151314792</v>
+      </c>
+      <c r="B53" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="31">
+        <v>10</v>
+      </c>
+      <c r="D53" s="32">
+        <v>565</v>
+      </c>
+      <c r="E53" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G53" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="H53" s="34">
+        <v>100</v>
+      </c>
+      <c r="I53" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J53" s="34">
+        <v>0</v>
+      </c>
+      <c r="K53" s="34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="M54" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="13">
-        <v>3450</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F28" s="13">
-        <v>634355</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H28" s="13">
-        <v>10</v>
-      </c>
-      <c r="I28" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J28" s="13">
-        <v>10</v>
-      </c>
-      <c r="K28" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="12"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="2">
-        <v>151008992</v>
-      </c>
-      <c r="B30" s="2" t="s">
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="18">
+        <v>151264212</v>
+      </c>
+      <c r="B55" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="2">
-        <v>20</v>
-      </c>
-      <c r="D30" s="10">
-        <v>4726</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F30" s="2">
-        <v>635655</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H30" s="2">
-        <v>10</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J30" s="2">
+      <c r="C55" s="18">
+        <v>10</v>
+      </c>
+      <c r="D55" s="51">
+        <v>10710</v>
+      </c>
+      <c r="E55" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="F55" s="18">
+        <v>704681</v>
+      </c>
+      <c r="G55" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="H55" s="19">
+        <v>1</v>
+      </c>
+      <c r="I55" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J55" s="19">
         <v>0</v>
       </c>
-      <c r="K30" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-    </row>
-    <row r="32" spans="1:12" s="35" customFormat="1">
-      <c r="A32" s="30">
-        <v>151302474</v>
-      </c>
-      <c r="B32" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="31">
-        <v>40</v>
-      </c>
-      <c r="D32" s="59">
-        <v>2818</v>
-      </c>
-      <c r="E32" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="F32" s="30">
-        <v>635656</v>
-      </c>
-      <c r="G32" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="H32" s="31">
-        <v>15</v>
-      </c>
-      <c r="I32" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="J32" s="31">
-        <v>0</v>
-      </c>
-      <c r="K32" s="31" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-    </row>
-    <row r="34" spans="1:11" s="35" customFormat="1">
-      <c r="A34" s="30">
-        <v>151302474</v>
-      </c>
-      <c r="B34" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="31">
-        <v>50</v>
-      </c>
-      <c r="D34" s="58">
-        <v>3555</v>
-      </c>
-      <c r="E34" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="F34" s="30">
-        <v>646872</v>
-      </c>
-      <c r="G34" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="H34" s="31">
-        <v>10</v>
-      </c>
-      <c r="I34" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J34" s="31">
-        <v>0</v>
-      </c>
-      <c r="K34" s="30" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="11"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="11"/>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="11">
-        <v>151110116</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="1">
-        <v>40</v>
-      </c>
-      <c r="D36" s="25">
-        <v>112</v>
-      </c>
-      <c r="E36" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H36" s="12">
-        <v>50</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J36" s="12">
-        <v>0</v>
-      </c>
-      <c r="K36" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="22">
-        <v>151197029</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="2">
-        <v>60</v>
-      </c>
-      <c r="D38" s="3">
-        <v>3510</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F38" s="2">
-        <v>663091</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H38" s="5">
-        <v>2</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J38" s="5">
-        <v>0</v>
-      </c>
-      <c r="K38" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="6">
-        <v>151090350</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" s="2">
-        <v>10</v>
-      </c>
-      <c r="D40" s="3">
-        <v>5130</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F40" s="2">
-        <v>663092</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H40" s="5">
-        <v>2</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J40" s="5">
-        <v>0</v>
-      </c>
-      <c r="K40" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-    </row>
-    <row r="42" spans="1:11" s="35" customFormat="1">
-      <c r="A42" s="6">
-        <v>151308917</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" s="2">
-        <v>60</v>
-      </c>
-      <c r="D42" s="3">
-        <v>6615</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F42" s="2">
-        <v>663093</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H42" s="5">
-        <v>2</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J42" s="5">
-        <v>0</v>
-      </c>
-      <c r="K42" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-    </row>
-    <row r="44" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A44" s="6">
-        <v>151283046</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" s="2">
-        <v>10</v>
-      </c>
-      <c r="D44" s="3">
-        <v>34000</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F44" s="2">
-        <v>667226</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="H44" s="5">
-        <v>2</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J44" s="5">
-        <v>2</v>
-      </c>
-      <c r="K44" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="6">
-        <v>151282825</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C46" s="2">
-        <v>40</v>
-      </c>
-      <c r="D46" s="3">
-        <v>6000</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F46" s="2">
-        <v>668330</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H46" s="5">
-        <v>3</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J46" s="5">
-        <v>0</v>
-      </c>
-      <c r="K46" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" s="35" customFormat="1">
-      <c r="A47" s="36"/>
-      <c r="B47" s="47"/>
-      <c r="C47" s="47"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="47"/>
-      <c r="H47" s="50"/>
-      <c r="I47" s="47"/>
-      <c r="J47" s="50"/>
-      <c r="K47" s="50"/>
-    </row>
-    <row r="48" spans="1:11" s="35" customFormat="1">
-      <c r="A48" s="11">
-        <v>151306604</v>
-      </c>
-      <c r="B48" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48" s="31">
-        <v>10</v>
-      </c>
-      <c r="D48" s="32">
-        <v>9703</v>
-      </c>
-      <c r="E48" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="F48" s="30">
-        <v>681149</v>
-      </c>
-      <c r="G48" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="H48" s="34">
-        <v>1</v>
-      </c>
-      <c r="I48" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J48" s="34">
-        <v>0</v>
-      </c>
-      <c r="K48" s="33" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
-      <c r="A49" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="42"/>
-      <c r="I49" s="39"/>
-      <c r="J49" s="42"/>
-      <c r="K49" s="42"/>
-    </row>
-    <row r="50" spans="1:13" s="35" customFormat="1">
-      <c r="A50" s="11">
-        <v>151314791</v>
-      </c>
-      <c r="B50" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" s="31">
-        <v>10</v>
-      </c>
-      <c r="D50" s="32">
-        <v>1908</v>
-      </c>
-      <c r="E50" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="F50" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="G50" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="H50" s="34">
-        <v>40</v>
-      </c>
-      <c r="I50" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J50" s="34">
-        <v>0</v>
-      </c>
-      <c r="K50" s="34" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" s="35" customFormat="1">
-      <c r="A51" s="11">
-        <v>151322710</v>
-      </c>
-      <c r="B51" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" s="31">
-        <v>40</v>
-      </c>
-      <c r="D51" s="32">
-        <v>1908</v>
-      </c>
-      <c r="E51" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="F51" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="G51" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="H51" s="34">
-        <v>30</v>
-      </c>
-      <c r="I51" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J51" s="34">
-        <v>30</v>
-      </c>
-      <c r="K51" s="34" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" s="35" customFormat="1">
-      <c r="A52" s="11"/>
-      <c r="B52" s="31"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="34"/>
-      <c r="I52" s="31"/>
-      <c r="J52" s="34"/>
-      <c r="K52" s="34"/>
-    </row>
-    <row r="53" spans="1:13" s="35" customFormat="1">
-      <c r="A53" s="6">
-        <v>151288592</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C53" s="2">
-        <v>10</v>
-      </c>
-      <c r="D53" s="3">
-        <v>8463</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F53" s="6">
-        <v>687349</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H53" s="5">
-        <v>10</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J53" s="5">
-        <v>0</v>
-      </c>
-      <c r="K53" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" s="35" customFormat="1">
-      <c r="A54" s="30"/>
-      <c r="B54" s="31"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="56"/>
-      <c r="H54" s="34"/>
-      <c r="I54" s="31"/>
-      <c r="J54" s="34"/>
-      <c r="K54" s="34"/>
-    </row>
-    <row r="55" spans="1:13" s="35" customFormat="1">
-      <c r="A55" s="6">
-        <v>151242082</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C55" s="2">
-        <v>10</v>
-      </c>
-      <c r="D55" s="3">
-        <v>1600</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F55" s="6">
-        <v>691660</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H55" s="5">
-        <v>1</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J55" s="5">
-        <v>0</v>
-      </c>
-      <c r="K55" s="5" t="s">
-        <v>79</v>
+      <c r="K55" s="19" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -6434,45 +6468,45 @@
       <c r="D56" s="25"/>
       <c r="E56" s="26"/>
       <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
+      <c r="G56" s="56"/>
       <c r="H56" s="12"/>
       <c r="I56" s="1"/>
       <c r="J56" s="12"/>
       <c r="K56" s="12"/>
     </row>
-    <row r="57" spans="1:13" s="46" customFormat="1">
-      <c r="A57" s="11">
-        <v>151314792</v>
-      </c>
-      <c r="B57" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57" s="31">
-        <v>10</v>
-      </c>
-      <c r="D57" s="32">
-        <v>565</v>
-      </c>
-      <c r="E57" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="F57" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="G57" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="H57" s="34">
-        <v>100</v>
-      </c>
-      <c r="I57" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J57" s="34">
+    <row r="57" spans="1:13">
+      <c r="A57" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" s="25">
+        <v>4995</v>
+      </c>
+      <c r="E57" s="26">
+        <v>44223</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H57" s="12">
+        <v>2</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J57" s="12">
         <v>0</v>
       </c>
-      <c r="K57" s="34" t="s">
-        <v>105</v>
+      <c r="K57" s="12" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -6487,43 +6521,40 @@
       <c r="I58" s="1"/>
       <c r="J58" s="12"/>
       <c r="K58" s="12"/>
-      <c r="M58" s="24" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59" s="18">
-        <v>151264212</v>
-      </c>
-      <c r="B59" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C59" s="18">
-        <v>10</v>
-      </c>
-      <c r="D59" s="51">
-        <v>10710</v>
-      </c>
-      <c r="E59" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="F59" s="18">
-        <v>704681</v>
-      </c>
-      <c r="G59" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="H59" s="19">
-        <v>1</v>
-      </c>
-      <c r="I59" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="J59" s="19">
+      <c r="A59" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" s="25">
+        <v>4245</v>
+      </c>
+      <c r="E59" s="26">
+        <v>44223</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H59" s="12">
+        <v>2</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J59" s="12">
         <v>0</v>
       </c>
-      <c r="K59" s="19" t="s">
-        <v>82</v>
+      <c r="K59" s="12" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -6533,36 +6564,36 @@
       <c r="D60" s="25"/>
       <c r="E60" s="26"/>
       <c r="F60" s="1"/>
-      <c r="G60" s="56"/>
+      <c r="G60" s="1"/>
       <c r="H60" s="12"/>
       <c r="I60" s="1"/>
       <c r="J60" s="12"/>
       <c r="K60" s="12"/>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="1" t="s">
-        <v>38</v>
+      <c r="A61" s="20">
+        <v>151113088</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>28</v>
+      <c r="C61" s="1">
+        <v>10</v>
       </c>
       <c r="D61" s="25">
-        <v>4995</v>
+        <v>1896</v>
       </c>
       <c r="E61" s="26">
-        <v>44223</v>
+        <v>44487</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H61" s="12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>12</v>
@@ -6571,7 +6602,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="12" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -6587,241 +6618,241 @@
       <c r="J62" s="12"/>
       <c r="K62" s="12"/>
     </row>
-    <row r="63" spans="1:13">
-      <c r="A63" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D63" s="25">
-        <v>4245</v>
-      </c>
-      <c r="E63" s="26">
-        <v>44223</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H63" s="12">
+    <row r="63" spans="1:13" s="35" customFormat="1">
+      <c r="A63" s="30">
+        <v>151280693</v>
+      </c>
+      <c r="B63" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="53">
+        <v>30</v>
+      </c>
+      <c r="D63" s="53">
+        <v>45000</v>
+      </c>
+      <c r="E63" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="F63" s="53">
+        <v>719031</v>
+      </c>
+      <c r="G63" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" s="54">
+        <v>20</v>
+      </c>
+      <c r="I63" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J63" s="54">
+        <v>14</v>
+      </c>
+      <c r="K63" s="54" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" s="35" customFormat="1">
+      <c r="A64" s="6">
+        <v>151308917</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" s="7">
+        <v>10</v>
+      </c>
+      <c r="D64" s="7">
+        <v>45000</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F64" s="7">
+        <v>719031</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" s="60">
+        <v>1</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J64" s="60">
+        <v>1</v>
+      </c>
+      <c r="K64" s="60" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" s="35" customFormat="1">
+      <c r="A65" s="6">
+        <v>151283046</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="7">
+        <v>10</v>
+      </c>
+      <c r="D65" s="7">
+        <v>45000</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F65" s="7">
+        <v>719031</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" s="60">
         <v>2</v>
       </c>
-      <c r="I63" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J63" s="12">
-        <v>0</v>
-      </c>
-      <c r="K63" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="25"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="12"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="12"/>
-    </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="20">
-        <v>151113088</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C65" s="1">
-        <v>10</v>
-      </c>
-      <c r="D65" s="25">
-        <v>1896</v>
-      </c>
-      <c r="E65" s="26">
-        <v>44487</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H65" s="12">
-        <v>5</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J65" s="12">
-        <v>0</v>
-      </c>
-      <c r="K65" s="12" t="s">
-        <v>64</v>
+      <c r="I65" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J65" s="60">
+        <v>2</v>
+      </c>
+      <c r="K65" s="60" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="25"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="12"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="12"/>
-      <c r="K66" s="12"/>
+      <c r="A66" s="38"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="44"/>
+      <c r="I66" s="43"/>
+      <c r="J66" s="44"/>
+      <c r="K66" s="44"/>
     </row>
     <row r="67" spans="1:11" s="35" customFormat="1">
       <c r="A67" s="30">
-        <v>151280693</v>
-      </c>
-      <c r="B67" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="C67" s="53">
+        <v>151315311</v>
+      </c>
+      <c r="B67" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="31">
         <v>30</v>
       </c>
-      <c r="D67" s="53">
-        <v>45000</v>
-      </c>
-      <c r="E67" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="F67" s="53">
-        <v>719031</v>
-      </c>
-      <c r="G67" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="H67" s="54">
+      <c r="D67" s="58">
+        <v>9999</v>
+      </c>
+      <c r="E67" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="F67" s="30">
+        <v>719381</v>
+      </c>
+      <c r="G67" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="H67" s="31">
+        <v>10</v>
+      </c>
+      <c r="I67" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J67" s="31">
+        <v>0</v>
+      </c>
+      <c r="K67" s="30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="11"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="11"/>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="22">
+        <v>151308917</v>
+      </c>
+      <c r="B69" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="57">
         <v>20</v>
       </c>
-      <c r="I67" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="J67" s="54">
-        <v>14</v>
-      </c>
-      <c r="K67" s="54" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" s="35" customFormat="1">
-      <c r="A68" s="6">
-        <v>151308917</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C68" s="7">
-        <v>10</v>
-      </c>
-      <c r="D68" s="7">
-        <v>45000</v>
-      </c>
-      <c r="E68" s="7" t="s">
+      <c r="D69" s="7">
+        <v>6800</v>
+      </c>
+      <c r="E69" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="F68" s="7">
-        <v>719031</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H68" s="60">
+      <c r="F69" s="7">
+        <v>720138</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H69" s="57">
         <v>1</v>
       </c>
-      <c r="I68" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J68" s="60">
-        <v>1</v>
-      </c>
-      <c r="K68" s="60" t="s">
+      <c r="I69" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="J69" s="57">
+        <v>0</v>
+      </c>
+      <c r="K69" s="57" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="69" spans="1:11" s="35" customFormat="1">
-      <c r="A69" s="6">
-        <v>151283046</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C69" s="7">
-        <v>10</v>
-      </c>
-      <c r="D69" s="7">
-        <v>45000</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F69" s="7">
-        <v>719031</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H69" s="60">
-        <v>2</v>
-      </c>
-      <c r="I69" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J69" s="60">
-        <v>2</v>
-      </c>
-      <c r="K69" s="60" t="s">
-        <v>91</v>
-      </c>
-    </row>
     <row r="70" spans="1:11">
-      <c r="A70" s="38"/>
-      <c r="B70" s="43"/>
-      <c r="C70" s="43"/>
-      <c r="D70" s="43"/>
-      <c r="E70" s="43"/>
-      <c r="F70" s="43"/>
-      <c r="G70" s="43"/>
-      <c r="H70" s="44"/>
-      <c r="I70" s="43"/>
-      <c r="J70" s="44"/>
-      <c r="K70" s="44"/>
+      <c r="A70" s="1"/>
+      <c r="B70" s="39"/>
+      <c r="C70" s="39"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="39"/>
+      <c r="G70" s="39"/>
+      <c r="H70" s="39"/>
+      <c r="I70" s="39"/>
+      <c r="J70" s="39"/>
+      <c r="K70" s="39"/>
     </row>
     <row r="71" spans="1:11" s="35" customFormat="1">
-      <c r="A71" s="30">
-        <v>151315311</v>
+      <c r="A71" s="11">
+        <v>151322392</v>
       </c>
       <c r="B71" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C71" s="31">
-        <v>30</v>
-      </c>
-      <c r="D71" s="58">
-        <v>9999</v>
-      </c>
-      <c r="E71" s="30" t="s">
-        <v>106</v>
+        <v>10</v>
+      </c>
+      <c r="D71" s="31">
+        <v>2490</v>
+      </c>
+      <c r="E71" s="31" t="s">
+        <v>100</v>
       </c>
       <c r="F71" s="30">
-        <v>719381</v>
+        <v>724214</v>
       </c>
       <c r="G71" s="30" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="H71" s="31">
         <v>10</v>
@@ -6830,193 +6861,97 @@
         <v>12</v>
       </c>
       <c r="J71" s="31">
-        <v>10</v>
-      </c>
-      <c r="K71" s="30" t="s">
-        <v>107</v>
+        <v>0</v>
+      </c>
+      <c r="K71" s="31" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="11"/>
+      <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
-      <c r="K72" s="11"/>
+      <c r="K72" s="1"/>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="22">
-        <v>151308917</v>
-      </c>
-      <c r="B73" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="C73" s="57">
-        <v>20</v>
-      </c>
-      <c r="D73" s="7">
-        <v>6800</v>
-      </c>
-      <c r="E73" s="57" t="s">
-        <v>92</v>
-      </c>
-      <c r="F73" s="7">
-        <v>720138</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H73" s="57">
-        <v>1</v>
-      </c>
-      <c r="I73" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="J73" s="57">
+      <c r="A73" s="1">
+        <v>16063532</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="1">
+        <v>10</v>
+      </c>
+      <c r="D73" s="1">
+        <v>2900</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F73" s="1">
+        <v>725828</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H73" s="1">
+        <v>10</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J73" s="1">
         <v>0</v>
       </c>
-      <c r="K73" s="57" t="s">
+      <c r="K73" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" s="35" customFormat="1">
+      <c r="A75" s="30">
+        <v>151315311</v>
+      </c>
+      <c r="B75" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="31">
+        <v>10</v>
+      </c>
+      <c r="D75" s="31">
         <v>100</v>
       </c>
-    </row>
-    <row r="74" spans="1:11">
-      <c r="A74" s="1"/>
-      <c r="B74" s="39"/>
-      <c r="C74" s="39"/>
-      <c r="D74" s="39"/>
-      <c r="E74" s="39"/>
-      <c r="F74" s="39"/>
-      <c r="G74" s="39"/>
-      <c r="H74" s="39"/>
-      <c r="I74" s="39"/>
-      <c r="J74" s="39"/>
-      <c r="K74" s="39"/>
-    </row>
-    <row r="75" spans="1:11" s="35" customFormat="1">
-      <c r="A75" s="11">
-        <v>151322392</v>
-      </c>
-      <c r="B75" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C75" s="31">
-        <v>10</v>
-      </c>
-      <c r="D75" s="31">
-        <v>2490</v>
-      </c>
       <c r="E75" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="F75" s="30">
-        <v>724214</v>
+        <v>104</v>
+      </c>
+      <c r="F75" s="31">
+        <v>728488</v>
       </c>
       <c r="G75" s="30" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H75" s="31">
         <v>10</v>
       </c>
       <c r="I75" s="31" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="J75" s="31">
         <v>0</v>
       </c>
       <c r="K75" s="31" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-    </row>
-    <row r="77" spans="1:11">
-      <c r="A77" s="1">
-        <v>16063532</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C77" s="1">
-        <v>10</v>
-      </c>
-      <c r="D77" s="1">
-        <v>2900</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F77" s="1">
-        <v>725828</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H77" s="1">
-        <v>10</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J77" s="1">
-        <v>0</v>
-      </c>
-      <c r="K77" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" s="35" customFormat="1">
-      <c r="A79" s="30">
-        <v>151315311</v>
-      </c>
-      <c r="B79" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C79" s="31">
-        <v>10</v>
-      </c>
-      <c r="D79" s="31">
-        <v>100</v>
-      </c>
-      <c r="E79" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="F79" s="31">
-        <v>728488</v>
-      </c>
-      <c r="G79" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H79" s="31">
-        <v>10</v>
-      </c>
-      <c r="I79" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="J79" s="31">
-        <v>0</v>
-      </c>
-      <c r="K79" s="31" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="82" spans="6:6">
-      <c r="F82" s="17"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="F78" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Updated PO.xlsx
+++ b/Updated PO.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="115">
   <si>
     <t>Purchasing Document</t>
   </si>
@@ -161,9 +161,6 @@
     <t>BEARING F. HEAD PULLEY</t>
   </si>
   <si>
-    <t>716663</t>
-  </si>
-  <si>
     <t>BELLOW F. water hopper MT 1.0 IBC</t>
   </si>
   <si>
@@ -366,6 +363,15 @@
   </si>
   <si>
     <t>01.06.2023</t>
+  </si>
+  <si>
+    <t>26.05.2023</t>
+  </si>
+  <si>
+    <t>02.05.2023</t>
+  </si>
+  <si>
+    <t>31.07.2023</t>
   </si>
 </sst>
 </file>
@@ -510,7 +516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -696,6 +702,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1002,10 +1011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M79"/>
+  <dimension ref="A1:M82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2169,7 +2178,7 @@
         <v>36394</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F3" s="13">
         <v>614961</v>
@@ -2187,7 +2196,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2200,7 +2209,7 @@
         <v>36394</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F4" s="1">
         <v>614961</v>
@@ -2218,7 +2227,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2248,7 +2257,7 @@
         <v>16500</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>14</v>
@@ -2266,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2296,7 +2305,7 @@
         <v>2400</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F8" s="31">
         <v>615181</v>
@@ -2314,7 +2323,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2344,13 +2353,13 @@
         <v>4831</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F10" s="2">
         <v>615698</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H10" s="2">
         <v>20</v>
@@ -2362,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="35" customFormat="1">
@@ -2379,13 +2388,13 @@
         <v>4831</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F11" s="31">
         <v>615698</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H11" s="31">
         <v>10</v>
@@ -2397,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2427,7 +2436,7 @@
         <v>4700</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>21</v>
@@ -2445,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2456,7 +2465,7 @@
       <c r="E14" s="26"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="1"/>
@@ -2477,7 +2486,7 @@
         <v>3700</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F15" s="13">
         <v>615840</v>
@@ -2495,7 +2504,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2525,7 +2534,7 @@
         <v>600</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F17" s="31" t="s">
         <v>24</v>
@@ -2543,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2573,161 +2582,183 @@
         <v>5614</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F19" s="31">
         <v>616026</v>
       </c>
       <c r="G19" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" s="31">
+        <v>10</v>
+      </c>
+      <c r="I19" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="31">
+        <v>0</v>
+      </c>
+      <c r="K19" s="34" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="35" customFormat="1">
+      <c r="A20" s="6">
+        <v>151326603</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="2">
+        <v>10</v>
+      </c>
+      <c r="D20" s="2">
+        <v>5614</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="2">
+        <v>616026</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" s="2">
+        <v>15</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="35" customFormat="1">
+      <c r="A21" s="30">
+        <v>151328170</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="31">
+        <v>10</v>
+      </c>
+      <c r="D21" s="31">
+        <v>5614</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" s="31">
+        <v>616026</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" s="31">
+        <v>20</v>
+      </c>
+      <c r="I21" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="31">
+        <v>0</v>
+      </c>
+      <c r="K21" s="34" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="35" customFormat="1">
+      <c r="A22" s="11"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="34"/>
+    </row>
+    <row r="23" spans="1:12" s="35" customFormat="1">
+      <c r="A23" s="11">
+        <v>151322710</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="31">
+        <v>50</v>
+      </c>
+      <c r="D23" s="34">
+        <v>6521</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="H19" s="31">
-        <v>10</v>
-      </c>
-      <c r="I19" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" s="31">
-        <v>1</v>
-      </c>
-      <c r="K19" s="34" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="35" customFormat="1">
-      <c r="A20" s="11"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="34"/>
-    </row>
-    <row r="21" spans="1:12" s="35" customFormat="1">
-      <c r="A21" s="11">
-        <v>151322710</v>
-      </c>
-      <c r="B21" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="31">
-        <v>50</v>
-      </c>
-      <c r="D21" s="34">
-        <v>6521</v>
-      </c>
-      <c r="E21" s="33" t="s">
+      <c r="H23" s="34">
+        <v>20</v>
+      </c>
+      <c r="I23" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="34">
+        <v>0</v>
+      </c>
+      <c r="K23" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F21" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="H21" s="34">
-        <v>20</v>
-      </c>
-      <c r="I21" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="34">
-        <v>3</v>
-      </c>
-      <c r="K21" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="L21" s="55"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="11"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-    </row>
-    <row r="23" spans="1:12" s="35" customFormat="1">
-      <c r="A23" s="30">
-        <v>151315311</v>
-      </c>
-      <c r="B23" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="31">
-        <v>90</v>
-      </c>
-      <c r="D23" s="31">
-        <v>4048</v>
-      </c>
-      <c r="E23" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="F23" s="31">
-        <v>630059</v>
-      </c>
-      <c r="G23" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="H23" s="31">
-        <v>20</v>
-      </c>
-      <c r="I23" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" s="31">
-        <v>0</v>
-      </c>
-      <c r="K23" s="31" t="s">
-        <v>106</v>
-      </c>
+      <c r="L23" s="55"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="11"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="26"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="H24" s="12"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
     </row>
     <row r="25" spans="1:12" s="35" customFormat="1">
       <c r="A25" s="30">
-        <v>151322391</v>
+        <v>151315311</v>
       </c>
       <c r="B25" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="31">
-        <v>10</v>
-      </c>
-      <c r="D25" s="58">
-        <v>5738</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="F25" s="30">
-        <v>632215</v>
-      </c>
-      <c r="G25" s="30" t="s">
-        <v>71</v>
+        <v>90</v>
+      </c>
+      <c r="D25" s="31">
+        <v>4048</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" s="31">
+        <v>630059</v>
+      </c>
+      <c r="G25" s="31" t="s">
+        <v>69</v>
       </c>
       <c r="H25" s="31">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I25" s="31" t="s">
         <v>12</v>
@@ -2735,912 +2766,912 @@
       <c r="J25" s="31">
         <v>0</v>
       </c>
-      <c r="K25" s="30" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="12" customHeight="1">
+      <c r="K25" s="31" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="11"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="11"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="11">
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" s="35" customFormat="1">
+      <c r="A27" s="30">
+        <v>151322391</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="31">
+        <v>10</v>
+      </c>
+      <c r="D27" s="58">
+        <v>5738</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="F27" s="30">
+        <v>632215</v>
+      </c>
+      <c r="G27" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="H27" s="31">
+        <v>15</v>
+      </c>
+      <c r="I27" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" s="31">
+        <v>0</v>
+      </c>
+      <c r="K27" s="30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="35" customFormat="1">
+      <c r="A28" s="6">
+        <v>151326603</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="2">
+        <v>30</v>
+      </c>
+      <c r="D28" s="65">
+        <v>5738</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" s="6">
+        <v>632215</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H28" s="2">
+        <v>5</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="12" customHeight="1">
+      <c r="A29" s="11"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="11"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="11">
         <v>151110116</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="1">
+      <c r="B30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="1">
         <v>60</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D30" s="13">
         <v>3450</v>
       </c>
-      <c r="E27" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" s="13">
+      <c r="E30" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" s="13">
         <v>634355</v>
       </c>
-      <c r="G27" s="13" t="s">
+      <c r="G30" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H27" s="13">
-        <v>10</v>
-      </c>
-      <c r="I27" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J27" s="13">
-        <v>10</v>
-      </c>
-      <c r="K27" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="12"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="2">
+      <c r="H30" s="13">
+        <v>10</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J30" s="13">
+        <v>10</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="12"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="2">
         <v>151008992</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C32" s="2">
         <v>20</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D32" s="10">
         <v>4726</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F32" s="2">
         <v>635655</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H29" s="2">
-        <v>10</v>
-      </c>
-      <c r="I29" s="2" t="s">
+      <c r="H32" s="2">
+        <v>10</v>
+      </c>
+      <c r="I32" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J32" s="2">
         <v>0</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="K32" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-    </row>
-    <row r="31" spans="1:12" s="35" customFormat="1">
-      <c r="A31" s="30">
+    <row r="33" spans="1:11">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="1:11" s="35" customFormat="1">
+      <c r="A34" s="30">
         <v>151302474</v>
       </c>
-      <c r="B31" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="31">
+      <c r="B34" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="31">
         <v>40</v>
       </c>
-      <c r="D31" s="59">
+      <c r="D34" s="59">
         <v>2818</v>
       </c>
-      <c r="E31" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="F31" s="30">
+      <c r="E34" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="F34" s="30">
         <v>635656</v>
       </c>
-      <c r="G31" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="H31" s="31">
+      <c r="G34" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="H34" s="31">
         <v>15</v>
       </c>
-      <c r="I31" s="31" t="s">
+      <c r="I34" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="J31" s="31">
+      <c r="J34" s="31">
         <v>0</v>
       </c>
-      <c r="K31" s="31" t="s">
+      <c r="K34" s="31" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:11" s="35" customFormat="1">
+      <c r="A36" s="30">
+        <v>151302474</v>
+      </c>
+      <c r="B36" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="31">
+        <v>50</v>
+      </c>
+      <c r="D36" s="58">
+        <v>3555</v>
+      </c>
+      <c r="E36" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="F36" s="30">
+        <v>646872</v>
+      </c>
+      <c r="G36" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="H36" s="31">
+        <v>10</v>
+      </c>
+      <c r="I36" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J36" s="31">
+        <v>0</v>
+      </c>
+      <c r="K36" s="30" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="11"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="11"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="11">
+        <v>151110116</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="1">
+        <v>40</v>
+      </c>
+      <c r="D38" s="25">
+        <v>112</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H38" s="12">
+        <v>50</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" s="12">
+        <v>0</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="22">
+        <v>151197029</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="2">
+        <v>60</v>
+      </c>
+      <c r="D40" s="3">
+        <v>3510</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F40" s="2">
+        <v>663091</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H40" s="5">
+        <v>2</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J40" s="5">
+        <v>0</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="6">
+        <v>151090350</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="2">
+        <v>10</v>
+      </c>
+      <c r="D42" s="3">
+        <v>5130</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F42" s="2">
+        <v>663092</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H42" s="5">
+        <v>2</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J42" s="5">
+        <v>0</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+    </row>
+    <row r="44" spans="1:11" s="35" customFormat="1">
+      <c r="A44" s="6">
+        <v>151308917</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="2">
+        <v>60</v>
+      </c>
+      <c r="D44" s="3">
+        <v>6615</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F44" s="2">
+        <v>663093</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H44" s="5">
+        <v>2</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J44" s="5">
+        <v>0</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="6">
+        <v>151326603</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="2">
+        <v>20</v>
+      </c>
+      <c r="D46" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F46" s="2">
+        <v>668330</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H46" s="5">
+        <v>3</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J46" s="5">
+        <v>3</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="35" customFormat="1">
+      <c r="A47" s="36"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="50"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="50"/>
+      <c r="K47" s="50"/>
+    </row>
+    <row r="48" spans="1:11" s="35" customFormat="1">
+      <c r="A48" s="11">
+        <v>151306604</v>
+      </c>
+      <c r="B48" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="31">
+        <v>10</v>
+      </c>
+      <c r="D48" s="32">
+        <v>9703</v>
+      </c>
+      <c r="E48" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="F48" s="30">
+        <v>681149</v>
+      </c>
+      <c r="G48" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="H48" s="34">
+        <v>1</v>
+      </c>
+      <c r="I48" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J48" s="34">
+        <v>0</v>
+      </c>
+      <c r="K48" s="33" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-    </row>
-    <row r="33" spans="1:11" s="35" customFormat="1">
-      <c r="A33" s="30">
-        <v>151302474</v>
-      </c>
-      <c r="B33" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" s="31">
-        <v>50</v>
-      </c>
-      <c r="D33" s="58">
-        <v>3555</v>
-      </c>
-      <c r="E33" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="F33" s="30">
-        <v>646872</v>
-      </c>
-      <c r="G33" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="H33" s="31">
-        <v>10</v>
-      </c>
-      <c r="I33" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J33" s="31">
+    <row r="49" spans="1:13">
+      <c r="A49" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" s="39"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="42"/>
+      <c r="K49" s="42"/>
+    </row>
+    <row r="50" spans="1:13" s="35" customFormat="1">
+      <c r="A50" s="11">
+        <v>151322710</v>
+      </c>
+      <c r="B50" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="31">
+        <v>40</v>
+      </c>
+      <c r="D50" s="32">
+        <v>1908</v>
+      </c>
+      <c r="E50" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F50" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G50" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H50" s="34">
+        <v>30</v>
+      </c>
+      <c r="I50" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J50" s="34">
+        <v>30</v>
+      </c>
+      <c r="K50" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" s="35" customFormat="1">
+      <c r="A51" s="11"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="34"/>
+      <c r="K51" s="34"/>
+    </row>
+    <row r="52" spans="1:13" s="35" customFormat="1">
+      <c r="A52" s="6">
+        <v>151288592</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="2">
+        <v>10</v>
+      </c>
+      <c r="D52" s="3">
+        <v>8463</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F52" s="6">
+        <v>687349</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H52" s="5">
+        <v>10</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J52" s="5">
         <v>0</v>
       </c>
-      <c r="K33" s="30" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="11"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="11"/>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="11">
-        <v>151110116</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="1">
+      <c r="K52" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" s="35" customFormat="1">
+      <c r="A53" s="30"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="56"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="34"/>
+      <c r="K53" s="34"/>
+    </row>
+    <row r="54" spans="1:13" s="35" customFormat="1">
+      <c r="A54" s="6">
+        <v>151242082</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="2">
+        <v>10</v>
+      </c>
+      <c r="D54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F54" s="6">
+        <v>691660</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H54" s="5">
+        <v>1</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J54" s="5">
+        <v>0</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+    </row>
+    <row r="56" spans="1:13" s="46" customFormat="1">
+      <c r="A56" s="11">
+        <v>151314792</v>
+      </c>
+      <c r="B56" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="31">
+        <v>10</v>
+      </c>
+      <c r="D56" s="32">
+        <v>565</v>
+      </c>
+      <c r="E56" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="F56" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G56" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="H56" s="34">
+        <v>100</v>
+      </c>
+      <c r="I56" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J56" s="34">
+        <v>0</v>
+      </c>
+      <c r="K56" s="34" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="M57" s="24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="18">
+        <v>151264212</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" s="18">
+        <v>10</v>
+      </c>
+      <c r="D58" s="51">
+        <v>10710</v>
+      </c>
+      <c r="E58" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="F58" s="18">
+        <v>704681</v>
+      </c>
+      <c r="G58" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="H58" s="19">
+        <v>1</v>
+      </c>
+      <c r="I58" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J58" s="19">
+        <v>0</v>
+      </c>
+      <c r="K58" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="56"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D60" s="25">
+        <v>4995</v>
+      </c>
+      <c r="E60" s="26">
+        <v>44223</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="25">
-        <v>112</v>
-      </c>
-      <c r="E35" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H35" s="12">
-        <v>50</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J35" s="12">
+      <c r="H60" s="12">
+        <v>2</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J60" s="12">
         <v>0</v>
       </c>
-      <c r="K35" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="22">
-        <v>151197029</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="2">
-        <v>60</v>
-      </c>
-      <c r="D37" s="3">
-        <v>3510</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F37" s="2">
-        <v>663091</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H37" s="5">
+      <c r="K60" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="25">
+        <v>4245</v>
+      </c>
+      <c r="E62" s="26">
+        <v>44223</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H62" s="12">
         <v>2</v>
       </c>
-      <c r="I37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J37" s="5">
+      <c r="I62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J62" s="12">
         <v>0</v>
       </c>
-      <c r="K37" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="6">
-        <v>151090350</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" s="2">
-        <v>10</v>
-      </c>
-      <c r="D39" s="3">
-        <v>5130</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F39" s="2">
-        <v>663092</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H39" s="5">
-        <v>2</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J39" s="5">
-        <v>0</v>
-      </c>
-      <c r="K39" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-    </row>
-    <row r="41" spans="1:11" s="35" customFormat="1">
-      <c r="A41" s="6">
-        <v>151308917</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" s="2">
-        <v>60</v>
-      </c>
-      <c r="D41" s="3">
-        <v>6615</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F41" s="2">
-        <v>663093</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H41" s="5">
-        <v>2</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J41" s="5">
-        <v>0</v>
-      </c>
-      <c r="K41" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="6">
-        <v>151282825</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C43" s="2">
-        <v>40</v>
-      </c>
-      <c r="D43" s="3">
-        <v>6000</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F43" s="2">
-        <v>668330</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H43" s="5">
-        <v>3</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J43" s="5">
-        <v>0</v>
-      </c>
-      <c r="K43" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" s="35" customFormat="1">
-      <c r="A44" s="36"/>
-      <c r="B44" s="47"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="47"/>
-      <c r="H44" s="50"/>
-      <c r="I44" s="47"/>
-      <c r="J44" s="50"/>
-      <c r="K44" s="50"/>
-    </row>
-    <row r="45" spans="1:11" s="35" customFormat="1">
-      <c r="A45" s="11">
-        <v>151306604</v>
-      </c>
-      <c r="B45" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" s="31">
-        <v>10</v>
-      </c>
-      <c r="D45" s="32">
-        <v>9703</v>
-      </c>
-      <c r="E45" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="F45" s="30">
-        <v>681149</v>
-      </c>
-      <c r="G45" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="H45" s="34">
-        <v>1</v>
-      </c>
-      <c r="I45" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J45" s="34">
-        <v>0</v>
-      </c>
-      <c r="K45" s="33" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="42"/>
-    </row>
-    <row r="47" spans="1:11" s="35" customFormat="1">
-      <c r="A47" s="11">
-        <v>151322710</v>
-      </c>
-      <c r="B47" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" s="31">
-        <v>40</v>
-      </c>
-      <c r="D47" s="32">
-        <v>1908</v>
-      </c>
-      <c r="E47" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="F47" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="G47" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="H47" s="34">
-        <v>30</v>
-      </c>
-      <c r="I47" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J47" s="34">
-        <v>30</v>
-      </c>
-      <c r="K47" s="34" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" s="35" customFormat="1">
-      <c r="A48" s="11"/>
-      <c r="B48" s="31"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="31"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="34"/>
-    </row>
-    <row r="49" spans="1:13" s="35" customFormat="1">
-      <c r="A49" s="6">
-        <v>151288592</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C49" s="2">
-        <v>10</v>
-      </c>
-      <c r="D49" s="3">
-        <v>8463</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F49" s="6">
-        <v>687349</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H49" s="5">
-        <v>10</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J49" s="5">
-        <v>0</v>
-      </c>
-      <c r="K49" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" s="35" customFormat="1">
-      <c r="A50" s="30"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="56"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="31"/>
-      <c r="J50" s="34"/>
-      <c r="K50" s="34"/>
-    </row>
-    <row r="51" spans="1:13" s="35" customFormat="1">
-      <c r="A51" s="6">
-        <v>151242082</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C51" s="2">
-        <v>10</v>
-      </c>
-      <c r="D51" s="3">
-        <v>1600</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F51" s="6">
-        <v>691660</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H51" s="5">
-        <v>1</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J51" s="5">
-        <v>0</v>
-      </c>
-      <c r="K51" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-    </row>
-    <row r="53" spans="1:13" s="46" customFormat="1">
-      <c r="A53" s="11">
-        <v>151314792</v>
-      </c>
-      <c r="B53" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C53" s="31">
-        <v>10</v>
-      </c>
-      <c r="D53" s="32">
-        <v>565</v>
-      </c>
-      <c r="E53" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="F53" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="G53" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="H53" s="34">
-        <v>100</v>
-      </c>
-      <c r="I53" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J53" s="34">
-        <v>0</v>
-      </c>
-      <c r="K53" s="34" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
-      <c r="M54" s="24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
-      <c r="A55" s="18">
-        <v>151264212</v>
-      </c>
-      <c r="B55" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C55" s="18">
-        <v>10</v>
-      </c>
-      <c r="D55" s="51">
-        <v>10710</v>
-      </c>
-      <c r="E55" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="F55" s="18">
-        <v>704681</v>
-      </c>
-      <c r="G55" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="H55" s="19">
-        <v>1</v>
-      </c>
-      <c r="I55" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="J55" s="19">
-        <v>0</v>
-      </c>
-      <c r="K55" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="56"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
-    </row>
-    <row r="57" spans="1:13">
-      <c r="A57" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D57" s="25">
-        <v>4995</v>
-      </c>
-      <c r="E57" s="26">
-        <v>44223</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H57" s="12">
-        <v>2</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J57" s="12">
-        <v>0</v>
-      </c>
-      <c r="K57" s="12" t="s">
+      <c r="K62" s="12" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
-    </row>
-    <row r="59" spans="1:13">
-      <c r="A59" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D59" s="25">
-        <v>4245</v>
-      </c>
-      <c r="E59" s="26">
-        <v>44223</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H59" s="12">
-        <v>2</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J59" s="12">
-        <v>0</v>
-      </c>
-      <c r="K59" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
-    </row>
-    <row r="61" spans="1:13">
-      <c r="A61" s="20">
-        <v>151113088</v>
-      </c>
-      <c r="B61" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="C61" s="61">
-        <v>10</v>
-      </c>
-      <c r="D61" s="62">
-        <v>1896</v>
-      </c>
-      <c r="E61" s="63">
-        <v>44487</v>
-      </c>
-      <c r="F61" s="61">
-        <v>716663</v>
-      </c>
-      <c r="G61" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="H61" s="64">
-        <v>5</v>
-      </c>
-      <c r="I61" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="J61" s="64">
-        <v>0</v>
-      </c>
-      <c r="K61" s="64" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
-      <c r="A62" s="11">
-        <v>151326492</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C62" s="1">
-        <v>10</v>
-      </c>
-      <c r="D62" s="25">
-        <v>1896</v>
-      </c>
-      <c r="E62" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="F62" s="1">
-        <v>716663</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H62" s="12">
-        <v>3</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J62" s="12">
-        <v>3</v>
-      </c>
-      <c r="K62" s="12" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -3656,340 +3687,423 @@
       <c r="J63" s="12"/>
       <c r="K63" s="12"/>
     </row>
-    <row r="64" spans="1:13" s="35" customFormat="1">
-      <c r="A64" s="30">
+    <row r="64" spans="1:13">
+      <c r="A64" s="20">
+        <v>151113088</v>
+      </c>
+      <c r="B64" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="61">
+        <v>10</v>
+      </c>
+      <c r="D64" s="62">
+        <v>1896</v>
+      </c>
+      <c r="E64" s="63">
+        <v>44487</v>
+      </c>
+      <c r="F64" s="61">
+        <v>716663</v>
+      </c>
+      <c r="G64" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="H64" s="64">
+        <v>5</v>
+      </c>
+      <c r="I64" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="J64" s="64">
+        <v>0</v>
+      </c>
+      <c r="K64" s="64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="11">
+        <v>151326492</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="1">
+        <v>10</v>
+      </c>
+      <c r="D65" s="25">
+        <v>1896</v>
+      </c>
+      <c r="E65" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F65" s="1">
+        <v>716663</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H65" s="12">
+        <v>3</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J65" s="12">
+        <v>3</v>
+      </c>
+      <c r="K65" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+    </row>
+    <row r="67" spans="1:11" s="35" customFormat="1">
+      <c r="A67" s="30">
         <v>151280693</v>
       </c>
-      <c r="B64" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="C64" s="53">
+      <c r="B67" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="53">
         <v>30</v>
       </c>
-      <c r="D64" s="53">
+      <c r="D67" s="53">
         <v>45000</v>
       </c>
-      <c r="E64" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="F64" s="53">
+      <c r="E67" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="F67" s="53">
         <v>719031</v>
       </c>
-      <c r="G64" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="H64" s="54">
+      <c r="G67" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" s="54">
         <v>20</v>
       </c>
-      <c r="I64" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="J64" s="54">
+      <c r="I67" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J67" s="54">
         <v>14</v>
       </c>
-      <c r="K64" s="54" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" s="35" customFormat="1">
-      <c r="A65" s="6">
+      <c r="K67" s="54" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" s="35" customFormat="1">
+      <c r="A68" s="6">
         <v>151308917</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B68" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C65" s="7">
-        <v>10</v>
-      </c>
-      <c r="D65" s="7">
+      <c r="C68" s="7">
+        <v>10</v>
+      </c>
+      <c r="D68" s="7">
         <v>45000</v>
       </c>
-      <c r="E65" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F65" s="7">
+      <c r="E68" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F68" s="7">
         <v>719031</v>
       </c>
-      <c r="G65" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H65" s="60">
+      <c r="G68" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" s="60">
         <v>1</v>
       </c>
-      <c r="I65" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J65" s="60">
+      <c r="I68" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J68" s="60">
         <v>1</v>
       </c>
-      <c r="K65" s="60" t="s">
+      <c r="K68" s="60" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" s="35" customFormat="1">
+      <c r="A69" s="6">
+        <v>151283046</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="7">
+        <v>10</v>
+      </c>
+      <c r="D69" s="7">
+        <v>45000</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F69" s="7">
+        <v>719031</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" s="60">
+        <v>2</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J69" s="60">
+        <v>2</v>
+      </c>
+      <c r="K69" s="60" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="38"/>
+      <c r="B70" s="43"/>
+      <c r="C70" s="43"/>
+      <c r="D70" s="43"/>
+      <c r="E70" s="43"/>
+      <c r="F70" s="43"/>
+      <c r="G70" s="43"/>
+      <c r="H70" s="44"/>
+      <c r="I70" s="43"/>
+      <c r="J70" s="44"/>
+      <c r="K70" s="44"/>
+    </row>
+    <row r="71" spans="1:11" s="35" customFormat="1">
+      <c r="A71" s="30">
+        <v>151315311</v>
+      </c>
+      <c r="B71" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="31">
+        <v>30</v>
+      </c>
+      <c r="D71" s="58">
+        <v>9999</v>
+      </c>
+      <c r="E71" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="F71" s="30">
+        <v>719381</v>
+      </c>
+      <c r="G71" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="H71" s="31">
+        <v>10</v>
+      </c>
+      <c r="I71" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J71" s="31">
+        <v>0</v>
+      </c>
+      <c r="K71" s="30" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="11"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="11"/>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="22">
+        <v>151308917</v>
+      </c>
+      <c r="B73" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C73" s="57">
+        <v>20</v>
+      </c>
+      <c r="D73" s="7">
+        <v>6800</v>
+      </c>
+      <c r="E73" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="F73" s="7">
+        <v>720138</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H73" s="57">
+        <v>1</v>
+      </c>
+      <c r="I73" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="J73" s="57">
+        <v>0</v>
+      </c>
+      <c r="K73" s="57" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="1:11" s="35" customFormat="1">
-      <c r="A66" s="6">
-        <v>151283046</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C66" s="7">
-        <v>10</v>
-      </c>
-      <c r="D66" s="7">
-        <v>45000</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F66" s="7">
-        <v>719031</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H66" s="60">
-        <v>2</v>
-      </c>
-      <c r="I66" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J66" s="60">
-        <v>2</v>
-      </c>
-      <c r="K66" s="60" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="38"/>
-      <c r="B67" s="43"/>
-      <c r="C67" s="43"/>
-      <c r="D67" s="43"/>
-      <c r="E67" s="43"/>
-      <c r="F67" s="43"/>
-      <c r="G67" s="43"/>
-      <c r="H67" s="44"/>
-      <c r="I67" s="43"/>
-      <c r="J67" s="44"/>
-      <c r="K67" s="44"/>
-    </row>
-    <row r="68" spans="1:11" s="35" customFormat="1">
-      <c r="A68" s="30">
+    <row r="74" spans="1:11">
+      <c r="A74" s="1"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="39"/>
+      <c r="F74" s="39"/>
+      <c r="G74" s="39"/>
+      <c r="H74" s="39"/>
+      <c r="I74" s="39"/>
+      <c r="J74" s="39"/>
+      <c r="K74" s="39"/>
+    </row>
+    <row r="75" spans="1:11" s="35" customFormat="1">
+      <c r="A75" s="11">
+        <v>151322392</v>
+      </c>
+      <c r="B75" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="31">
+        <v>10</v>
+      </c>
+      <c r="D75" s="31">
+        <v>2490</v>
+      </c>
+      <c r="E75" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="F75" s="30">
+        <v>724214</v>
+      </c>
+      <c r="G75" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="H75" s="31">
+        <v>10</v>
+      </c>
+      <c r="I75" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J75" s="31">
+        <v>0</v>
+      </c>
+      <c r="K75" s="31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="1">
+        <v>16063532</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="1">
+        <v>10</v>
+      </c>
+      <c r="D77" s="1">
+        <v>2900</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F77" s="1">
+        <v>725828</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H77" s="1">
+        <v>10</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J77" s="1">
+        <v>0</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" s="35" customFormat="1">
+      <c r="A79" s="30">
         <v>151315311</v>
       </c>
-      <c r="B68" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C68" s="31">
-        <v>30</v>
-      </c>
-      <c r="D68" s="58">
-        <v>9999</v>
-      </c>
-      <c r="E68" s="30" t="s">
+      <c r="B79" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" s="31">
+        <v>10</v>
+      </c>
+      <c r="D79" s="31">
+        <v>100</v>
+      </c>
+      <c r="E79" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="F79" s="31">
+        <v>728488</v>
+      </c>
+      <c r="G79" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="H79" s="31">
+        <v>10</v>
+      </c>
+      <c r="I79" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="J79" s="31">
+        <v>0</v>
+      </c>
+      <c r="K79" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="F68" s="30">
-        <v>719381</v>
-      </c>
-      <c r="G68" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="H68" s="31">
-        <v>10</v>
-      </c>
-      <c r="I68" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J68" s="31">
-        <v>0</v>
-      </c>
-      <c r="K68" s="30" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
-      <c r="A69" s="11"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="11"/>
-    </row>
-    <row r="70" spans="1:11">
-      <c r="A70" s="22">
-        <v>151308917</v>
-      </c>
-      <c r="B70" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="C70" s="57">
-        <v>20</v>
-      </c>
-      <c r="D70" s="7">
-        <v>6800</v>
-      </c>
-      <c r="E70" s="57" t="s">
-        <v>92</v>
-      </c>
-      <c r="F70" s="7">
-        <v>720138</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H70" s="57">
-        <v>1</v>
-      </c>
-      <c r="I70" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="J70" s="57">
-        <v>0</v>
-      </c>
-      <c r="K70" s="57" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
-      <c r="A71" s="1"/>
-      <c r="B71" s="39"/>
-      <c r="C71" s="39"/>
-      <c r="D71" s="39"/>
-      <c r="E71" s="39"/>
-      <c r="F71" s="39"/>
-      <c r="G71" s="39"/>
-      <c r="H71" s="39"/>
-      <c r="I71" s="39"/>
-      <c r="J71" s="39"/>
-      <c r="K71" s="39"/>
-    </row>
-    <row r="72" spans="1:11" s="35" customFormat="1">
-      <c r="A72" s="11">
-        <v>151322392</v>
-      </c>
-      <c r="B72" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C72" s="31">
-        <v>10</v>
-      </c>
-      <c r="D72" s="31">
-        <v>2490</v>
-      </c>
-      <c r="E72" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="F72" s="30">
-        <v>724214</v>
-      </c>
-      <c r="G72" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="H72" s="31">
-        <v>10</v>
-      </c>
-      <c r="I72" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J72" s="31">
-        <v>0</v>
-      </c>
-      <c r="K72" s="31" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-    </row>
-    <row r="74" spans="1:11">
-      <c r="A74" s="1">
-        <v>16063532</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C74" s="1">
-        <v>10</v>
-      </c>
-      <c r="D74" s="1">
-        <v>2900</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F74" s="1">
-        <v>725828</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H74" s="1">
-        <v>10</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J74" s="1">
-        <v>0</v>
-      </c>
-      <c r="K74" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" s="35" customFormat="1">
-      <c r="A76" s="30">
-        <v>151315311</v>
-      </c>
-      <c r="B76" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C76" s="31">
-        <v>10</v>
-      </c>
-      <c r="D76" s="31">
-        <v>100</v>
-      </c>
-      <c r="E76" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="F76" s="31">
-        <v>728488</v>
-      </c>
-      <c r="G76" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H76" s="31">
-        <v>10</v>
-      </c>
-      <c r="I76" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="J76" s="31">
-        <v>0</v>
-      </c>
-      <c r="K76" s="31" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
-      <c r="F79" s="17"/>
+    </row>
+    <row r="82" spans="6:6">
+      <c r="F82" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3999,10 +4113,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M78"/>
+  <dimension ref="A1:M83"/>
   <sheetViews>
     <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -5166,7 +5280,7 @@
         <v>36394</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F3" s="13">
         <v>614961</v>
@@ -5184,7 +5298,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -5197,7 +5311,7 @@
         <v>36394</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F4" s="1">
         <v>614961</v>
@@ -5215,7 +5329,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -5245,7 +5359,7 @@
         <v>16500</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>14</v>
@@ -5263,7 +5377,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -5293,7 +5407,7 @@
         <v>2400</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F8" s="31">
         <v>615181</v>
@@ -5311,7 +5425,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -5341,13 +5455,13 @@
         <v>4831</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F10" s="2">
         <v>615698</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H10" s="2">
         <v>20</v>
@@ -5359,7 +5473,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="35" customFormat="1">
@@ -5376,13 +5490,13 @@
         <v>4831</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F11" s="31">
         <v>615698</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H11" s="31">
         <v>10</v>
@@ -5394,7 +5508,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -5424,7 +5538,7 @@
         <v>4700</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>21</v>
@@ -5442,7 +5556,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -5453,7 +5567,7 @@
       <c r="E14" s="26"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="1"/>
@@ -5474,7 +5588,7 @@
         <v>3700</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F15" s="13">
         <v>615840</v>
@@ -5492,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -5522,7 +5636,7 @@
         <v>600</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F17" s="31" t="s">
         <v>24</v>
@@ -5540,7 +5654,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -5570,895 +5684,936 @@
         <v>5614</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F19" s="31">
         <v>616026</v>
       </c>
       <c r="G19" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" s="31">
+        <v>10</v>
+      </c>
+      <c r="I19" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="31">
+        <v>1</v>
+      </c>
+      <c r="K19" s="34" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="35" customFormat="1">
+      <c r="A20" s="6">
+        <v>151326603</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="2">
+        <v>10</v>
+      </c>
+      <c r="D20" s="2">
+        <v>5614</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="2">
+        <v>616026</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" s="2">
+        <v>15</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="2">
+        <v>15</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="35" customFormat="1">
+      <c r="A21" s="30">
+        <v>151328170</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="31">
+        <v>10</v>
+      </c>
+      <c r="D21" s="31">
+        <v>5614</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" s="31">
+        <v>616026</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" s="31">
+        <v>20</v>
+      </c>
+      <c r="I21" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="31">
+        <v>20</v>
+      </c>
+      <c r="K21" s="34" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="35" customFormat="1">
+      <c r="A22" s="11"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="34"/>
+    </row>
+    <row r="23" spans="1:12" s="35" customFormat="1">
+      <c r="A23" s="11">
+        <v>151322710</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="31">
+        <v>50</v>
+      </c>
+      <c r="D23" s="34">
+        <v>6521</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="H19" s="31">
-        <v>10</v>
-      </c>
-      <c r="I19" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" s="31">
-        <v>0</v>
-      </c>
-      <c r="K19" s="34" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="35" customFormat="1">
-      <c r="A20" s="11"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="34"/>
-    </row>
-    <row r="21" spans="1:12" s="35" customFormat="1">
-      <c r="A21" s="11">
-        <v>151322710</v>
-      </c>
-      <c r="B21" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="31">
-        <v>50</v>
-      </c>
-      <c r="D21" s="34">
-        <v>6521</v>
-      </c>
-      <c r="E21" s="33" t="s">
+      <c r="H23" s="34">
+        <v>20</v>
+      </c>
+      <c r="I23" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="34">
+        <v>3</v>
+      </c>
+      <c r="K23" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F21" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="H21" s="34">
-        <v>20</v>
-      </c>
-      <c r="I21" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="34">
-        <v>20</v>
-      </c>
-      <c r="K21" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="L21" s="55"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="11"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-    </row>
-    <row r="23" spans="1:12" s="35" customFormat="1">
-      <c r="A23" s="30">
-        <v>151315311</v>
-      </c>
-      <c r="B23" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="31">
-        <v>90</v>
-      </c>
-      <c r="D23" s="31">
-        <v>4048</v>
-      </c>
-      <c r="E23" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="F23" s="31">
-        <v>630059</v>
-      </c>
-      <c r="G23" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="H23" s="31">
-        <v>20</v>
-      </c>
-      <c r="I23" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" s="31">
-        <v>0</v>
-      </c>
-      <c r="K23" s="31" t="s">
-        <v>106</v>
-      </c>
+      <c r="L23" s="55"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="11"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="26"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="H24" s="12"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
     </row>
     <row r="25" spans="1:12" s="35" customFormat="1">
       <c r="A25" s="30">
-        <v>151322391</v>
+        <v>151315311</v>
       </c>
       <c r="B25" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="31">
-        <v>10</v>
-      </c>
-      <c r="D25" s="58">
-        <v>5738</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="F25" s="30">
-        <v>632215</v>
-      </c>
-      <c r="G25" s="30" t="s">
-        <v>71</v>
+        <v>90</v>
+      </c>
+      <c r="D25" s="31">
+        <v>4048</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" s="31">
+        <v>630059</v>
+      </c>
+      <c r="G25" s="31" t="s">
+        <v>69</v>
       </c>
       <c r="H25" s="31">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I25" s="31" t="s">
         <v>12</v>
       </c>
       <c r="J25" s="31">
-        <v>15</v>
-      </c>
-      <c r="K25" s="30" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="12" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="31" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="11"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="11"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="11">
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" s="35" customFormat="1">
+      <c r="A27" s="30">
+        <v>151322391</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="31">
+        <v>10</v>
+      </c>
+      <c r="D27" s="58">
+        <v>5738</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="F27" s="30">
+        <v>632215</v>
+      </c>
+      <c r="G27" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="H27" s="31">
+        <v>15</v>
+      </c>
+      <c r="I27" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" s="31">
+        <v>0</v>
+      </c>
+      <c r="K27" s="30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="35" customFormat="1">
+      <c r="A28" s="6">
+        <v>151326603</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="2">
+        <v>30</v>
+      </c>
+      <c r="D28" s="65">
+        <v>5738</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" s="6">
+        <v>632215</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H28" s="2">
+        <v>5</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" s="2">
+        <v>5</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="12" customHeight="1">
+      <c r="A29" s="11"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="11"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="11">
         <v>151110116</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="1">
+      <c r="B30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="1">
         <v>60</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D30" s="13">
         <v>3450</v>
       </c>
-      <c r="E27" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" s="13">
+      <c r="E30" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" s="13">
         <v>634355</v>
       </c>
-      <c r="G27" s="13" t="s">
+      <c r="G30" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H27" s="13">
-        <v>10</v>
-      </c>
-      <c r="I27" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J27" s="13">
-        <v>10</v>
-      </c>
-      <c r="K27" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="12"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="2">
+      <c r="H30" s="13">
+        <v>10</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J30" s="13">
+        <v>10</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="12"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="2">
         <v>151008992</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C32" s="2">
         <v>20</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D32" s="10">
         <v>4726</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F32" s="2">
         <v>635655</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H29" s="2">
-        <v>10</v>
-      </c>
-      <c r="I29" s="2" t="s">
+      <c r="H32" s="2">
+        <v>10</v>
+      </c>
+      <c r="I32" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J32" s="2">
         <v>0</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="K32" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-    </row>
-    <row r="31" spans="1:12" s="35" customFormat="1">
-      <c r="A31" s="30">
+    <row r="33" spans="1:11">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="1:11" s="35" customFormat="1">
+      <c r="A34" s="30">
         <v>151302474</v>
       </c>
-      <c r="B31" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="31">
+      <c r="B34" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="31">
         <v>40</v>
       </c>
-      <c r="D31" s="59">
+      <c r="D34" s="59">
         <v>2818</v>
       </c>
-      <c r="E31" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="F31" s="30">
+      <c r="E34" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="F34" s="30">
         <v>635656</v>
       </c>
-      <c r="G31" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="H31" s="31">
+      <c r="G34" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="H34" s="31">
         <v>15</v>
       </c>
-      <c r="I31" s="31" t="s">
+      <c r="I34" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="J31" s="31">
+      <c r="J34" s="31">
         <v>0</v>
       </c>
-      <c r="K31" s="31" t="s">
+      <c r="K34" s="31" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:11" s="35" customFormat="1">
+      <c r="A36" s="30">
+        <v>151302474</v>
+      </c>
+      <c r="B36" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="31">
+        <v>50</v>
+      </c>
+      <c r="D36" s="58">
+        <v>3555</v>
+      </c>
+      <c r="E36" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="F36" s="30">
+        <v>646872</v>
+      </c>
+      <c r="G36" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="H36" s="31">
+        <v>10</v>
+      </c>
+      <c r="I36" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J36" s="31">
+        <v>0</v>
+      </c>
+      <c r="K36" s="30" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="11"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="11"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="11">
+        <v>151110116</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="1">
+        <v>40</v>
+      </c>
+      <c r="D38" s="25">
+        <v>112</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H38" s="12">
+        <v>50</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" s="12">
+        <v>0</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="22">
+        <v>151197029</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="2">
+        <v>60</v>
+      </c>
+      <c r="D40" s="3">
+        <v>3510</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F40" s="2">
+        <v>663091</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H40" s="5">
+        <v>2</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J40" s="5">
+        <v>0</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="6">
+        <v>151090350</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="2">
+        <v>10</v>
+      </c>
+      <c r="D42" s="3">
+        <v>5130</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F42" s="2">
+        <v>663092</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H42" s="5">
+        <v>2</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J42" s="5">
+        <v>0</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+    </row>
+    <row r="44" spans="1:11" s="35" customFormat="1">
+      <c r="A44" s="6">
+        <v>151308917</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="2">
+        <v>60</v>
+      </c>
+      <c r="D44" s="3">
+        <v>6615</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F44" s="2">
+        <v>663093</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H44" s="5">
+        <v>2</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J44" s="5">
+        <v>0</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="6">
+        <v>151282825</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="2">
+        <v>40</v>
+      </c>
+      <c r="D46" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F46" s="2">
+        <v>668330</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H46" s="5">
+        <v>3</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J46" s="5">
+        <v>0</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="6">
+        <v>151326603</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="2">
+        <v>20</v>
+      </c>
+      <c r="D47" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F47" s="2">
+        <v>668330</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H47" s="5">
+        <v>3</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J47" s="5">
+        <v>3</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="35" customFormat="1">
+      <c r="A48" s="36"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="50"/>
+      <c r="I48" s="47"/>
+      <c r="J48" s="50"/>
+      <c r="K48" s="50"/>
+    </row>
+    <row r="49" spans="1:13" s="35" customFormat="1">
+      <c r="A49" s="11">
+        <v>151306604</v>
+      </c>
+      <c r="B49" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="31">
+        <v>10</v>
+      </c>
+      <c r="D49" s="32">
+        <v>9703</v>
+      </c>
+      <c r="E49" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="F49" s="30">
+        <v>681149</v>
+      </c>
+      <c r="G49" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="H49" s="34">
+        <v>1</v>
+      </c>
+      <c r="I49" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J49" s="34">
+        <v>0</v>
+      </c>
+      <c r="K49" s="33" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-    </row>
-    <row r="33" spans="1:11" s="35" customFormat="1">
-      <c r="A33" s="30">
-        <v>151302474</v>
-      </c>
-      <c r="B33" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" s="31">
-        <v>50</v>
-      </c>
-      <c r="D33" s="58">
-        <v>3555</v>
-      </c>
-      <c r="E33" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="F33" s="30">
-        <v>646872</v>
-      </c>
-      <c r="G33" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="H33" s="31">
-        <v>10</v>
-      </c>
-      <c r="I33" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J33" s="31">
+    <row r="50" spans="1:13">
+      <c r="A50" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" s="39"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="42"/>
+      <c r="K50" s="42"/>
+    </row>
+    <row r="51" spans="1:13" s="35" customFormat="1">
+      <c r="A51" s="11">
+        <v>151322710</v>
+      </c>
+      <c r="B51" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="31">
+        <v>40</v>
+      </c>
+      <c r="D51" s="32">
+        <v>1908</v>
+      </c>
+      <c r="E51" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F51" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G51" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H51" s="34">
+        <v>30</v>
+      </c>
+      <c r="I51" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J51" s="34">
+        <v>30</v>
+      </c>
+      <c r="K51" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" s="35" customFormat="1">
+      <c r="A52" s="11"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="34"/>
+      <c r="K52" s="34"/>
+    </row>
+    <row r="53" spans="1:13" s="35" customFormat="1">
+      <c r="A53" s="6">
+        <v>151288592</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" s="2">
+        <v>10</v>
+      </c>
+      <c r="D53" s="3">
+        <v>8463</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F53" s="6">
+        <v>687349</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H53" s="5">
+        <v>10</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J53" s="5">
         <v>0</v>
       </c>
-      <c r="K33" s="30" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="11"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="11"/>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="11">
-        <v>151110116</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="1">
-        <v>40</v>
-      </c>
-      <c r="D35" s="25">
-        <v>112</v>
-      </c>
-      <c r="E35" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H35" s="12">
-        <v>50</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J35" s="12">
+      <c r="K53" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" s="35" customFormat="1">
+      <c r="A54" s="30"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="56"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="34"/>
+      <c r="K54" s="34"/>
+    </row>
+    <row r="55" spans="1:13" s="35" customFormat="1">
+      <c r="A55" s="6">
+        <v>151242082</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="2">
+        <v>10</v>
+      </c>
+      <c r="D55" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F55" s="6">
+        <v>691660</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H55" s="5">
+        <v>1</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J55" s="5">
         <v>0</v>
       </c>
-      <c r="K35" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="22">
-        <v>151197029</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="2">
-        <v>60</v>
-      </c>
-      <c r="D37" s="3">
-        <v>3510</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F37" s="2">
-        <v>663091</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H37" s="5">
-        <v>2</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J37" s="5">
-        <v>0</v>
-      </c>
-      <c r="K37" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="6">
-        <v>151090350</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" s="2">
-        <v>10</v>
-      </c>
-      <c r="D39" s="3">
-        <v>5130</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F39" s="2">
-        <v>663092</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H39" s="5">
-        <v>2</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J39" s="5">
-        <v>0</v>
-      </c>
-      <c r="K39" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-    </row>
-    <row r="41" spans="1:11" s="35" customFormat="1">
-      <c r="A41" s="6">
-        <v>151308917</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" s="2">
-        <v>60</v>
-      </c>
-      <c r="D41" s="3">
-        <v>6615</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F41" s="2">
-        <v>663093</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H41" s="5">
-        <v>2</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J41" s="5">
-        <v>0</v>
-      </c>
-      <c r="K41" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="6">
-        <v>151282825</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C43" s="2">
-        <v>40</v>
-      </c>
-      <c r="D43" s="3">
-        <v>6000</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F43" s="2">
-        <v>668330</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H43" s="5">
-        <v>3</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J43" s="5">
-        <v>0</v>
-      </c>
-      <c r="K43" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" s="35" customFormat="1">
-      <c r="A44" s="36"/>
-      <c r="B44" s="47"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="47"/>
-      <c r="H44" s="50"/>
-      <c r="I44" s="47"/>
-      <c r="J44" s="50"/>
-      <c r="K44" s="50"/>
-    </row>
-    <row r="45" spans="1:11" s="35" customFormat="1">
-      <c r="A45" s="11">
-        <v>151306604</v>
-      </c>
-      <c r="B45" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" s="31">
-        <v>10</v>
-      </c>
-      <c r="D45" s="32">
-        <v>9703</v>
-      </c>
-      <c r="E45" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="F45" s="30">
-        <v>681149</v>
-      </c>
-      <c r="G45" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="H45" s="34">
-        <v>1</v>
-      </c>
-      <c r="I45" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J45" s="34">
-        <v>0</v>
-      </c>
-      <c r="K45" s="33" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="42"/>
-    </row>
-    <row r="47" spans="1:11" s="35" customFormat="1">
-      <c r="A47" s="11">
-        <v>151322710</v>
-      </c>
-      <c r="B47" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" s="31">
-        <v>40</v>
-      </c>
-      <c r="D47" s="32">
-        <v>1908</v>
-      </c>
-      <c r="E47" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="F47" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="G47" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="H47" s="34">
-        <v>30</v>
-      </c>
-      <c r="I47" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J47" s="34">
-        <v>30</v>
-      </c>
-      <c r="K47" s="34" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" s="35" customFormat="1">
-      <c r="A48" s="11"/>
-      <c r="B48" s="31"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="31"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="34"/>
-    </row>
-    <row r="49" spans="1:13" s="35" customFormat="1">
-      <c r="A49" s="6">
-        <v>151288592</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C49" s="2">
-        <v>10</v>
-      </c>
-      <c r="D49" s="3">
-        <v>8463</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F49" s="6">
-        <v>687349</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H49" s="5">
-        <v>10</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J49" s="5">
-        <v>0</v>
-      </c>
-      <c r="K49" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" s="35" customFormat="1">
-      <c r="A50" s="30"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="56"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="31"/>
-      <c r="J50" s="34"/>
-      <c r="K50" s="34"/>
-    </row>
-    <row r="51" spans="1:13" s="35" customFormat="1">
-      <c r="A51" s="6">
-        <v>151242082</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C51" s="2">
-        <v>10</v>
-      </c>
-      <c r="D51" s="3">
-        <v>1600</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F51" s="6">
-        <v>691660</v>
-      </c>
-      <c r="G51" s="2" t="s">
+      <c r="K55" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="H51" s="5">
-        <v>1</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J51" s="5">
-        <v>0</v>
-      </c>
-      <c r="K51" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-    </row>
-    <row r="53" spans="1:13" s="46" customFormat="1">
-      <c r="A53" s="11">
-        <v>151314792</v>
-      </c>
-      <c r="B53" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C53" s="31">
-        <v>10</v>
-      </c>
-      <c r="D53" s="32">
-        <v>565</v>
-      </c>
-      <c r="E53" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="F53" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="G53" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="H53" s="34">
-        <v>100</v>
-      </c>
-      <c r="I53" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J53" s="34">
-        <v>0</v>
-      </c>
-      <c r="K53" s="34" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
-      <c r="M54" s="24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
-      <c r="A55" s="18">
-        <v>151264212</v>
-      </c>
-      <c r="B55" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C55" s="18">
-        <v>10</v>
-      </c>
-      <c r="D55" s="51">
-        <v>10710</v>
-      </c>
-      <c r="E55" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="F55" s="18">
-        <v>704681</v>
-      </c>
-      <c r="G55" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="H55" s="19">
-        <v>1</v>
-      </c>
-      <c r="I55" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="J55" s="19">
-        <v>0</v>
-      </c>
-      <c r="K55" s="19" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -6468,45 +6623,45 @@
       <c r="D56" s="25"/>
       <c r="E56" s="26"/>
       <c r="F56" s="1"/>
-      <c r="G56" s="56"/>
+      <c r="G56" s="1"/>
       <c r="H56" s="12"/>
       <c r="I56" s="1"/>
       <c r="J56" s="12"/>
       <c r="K56" s="12"/>
     </row>
-    <row r="57" spans="1:13">
-      <c r="A57" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D57" s="25">
-        <v>4995</v>
-      </c>
-      <c r="E57" s="26">
-        <v>44223</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H57" s="12">
-        <v>2</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J57" s="12">
+    <row r="57" spans="1:13" s="46" customFormat="1">
+      <c r="A57" s="11">
+        <v>151314792</v>
+      </c>
+      <c r="B57" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="31">
+        <v>10</v>
+      </c>
+      <c r="D57" s="32">
+        <v>565</v>
+      </c>
+      <c r="E57" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="F57" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G57" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="H57" s="34">
+        <v>100</v>
+      </c>
+      <c r="I57" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J57" s="34">
         <v>0</v>
       </c>
-      <c r="K57" s="12" t="s">
-        <v>41</v>
+      <c r="K57" s="34" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -6521,40 +6676,43 @@
       <c r="I58" s="1"/>
       <c r="J58" s="12"/>
       <c r="K58" s="12"/>
+      <c r="M58" s="24" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D59" s="25">
-        <v>4245</v>
-      </c>
-      <c r="E59" s="26">
-        <v>44223</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H59" s="12">
-        <v>2</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J59" s="12">
+      <c r="A59" s="18">
+        <v>151264212</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="18">
+        <v>10</v>
+      </c>
+      <c r="D59" s="51">
+        <v>10710</v>
+      </c>
+      <c r="E59" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="F59" s="18">
+        <v>704681</v>
+      </c>
+      <c r="G59" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="H59" s="19">
+        <v>1</v>
+      </c>
+      <c r="I59" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J59" s="19">
         <v>0</v>
       </c>
-      <c r="K59" s="12" t="s">
-        <v>41</v>
+      <c r="K59" s="19" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -6564,36 +6722,36 @@
       <c r="D60" s="25"/>
       <c r="E60" s="26"/>
       <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
+      <c r="G60" s="56"/>
       <c r="H60" s="12"/>
       <c r="I60" s="1"/>
       <c r="J60" s="12"/>
       <c r="K60" s="12"/>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="20">
-        <v>151113088</v>
+      <c r="A61" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C61" s="1">
-        <v>10</v>
+      <c r="C61" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D61" s="25">
-        <v>1896</v>
+        <v>4995</v>
       </c>
       <c r="E61" s="26">
-        <v>44487</v>
+        <v>44223</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H61" s="12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>12</v>
@@ -6602,7 +6760,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="12" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -6618,340 +6776,471 @@
       <c r="J62" s="12"/>
       <c r="K62" s="12"/>
     </row>
-    <row r="63" spans="1:13" s="35" customFormat="1">
-      <c r="A63" s="30">
+    <row r="63" spans="1:13">
+      <c r="A63" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="25">
+        <v>4245</v>
+      </c>
+      <c r="E63" s="26">
+        <v>44223</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H63" s="12">
+        <v>2</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J63" s="12">
+        <v>0</v>
+      </c>
+      <c r="K63" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="20">
+        <v>151113088</v>
+      </c>
+      <c r="B65" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="61">
+        <v>10</v>
+      </c>
+      <c r="D65" s="62">
+        <v>1896</v>
+      </c>
+      <c r="E65" s="63">
+        <v>44487</v>
+      </c>
+      <c r="F65" s="61">
+        <v>716663</v>
+      </c>
+      <c r="G65" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="H65" s="64">
+        <v>5</v>
+      </c>
+      <c r="I65" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="J65" s="64">
+        <v>0</v>
+      </c>
+      <c r="K65" s="64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="11">
+        <v>151326492</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="1">
+        <v>10</v>
+      </c>
+      <c r="D66" s="25">
+        <v>1896</v>
+      </c>
+      <c r="E66" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F66" s="1">
+        <v>716663</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H66" s="12">
+        <v>3</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J66" s="12">
+        <v>3</v>
+      </c>
+      <c r="K66" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
+    </row>
+    <row r="68" spans="1:11" s="35" customFormat="1">
+      <c r="A68" s="30">
         <v>151280693</v>
       </c>
-      <c r="B63" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="C63" s="53">
+      <c r="B68" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" s="53">
         <v>30</v>
       </c>
-      <c r="D63" s="53">
+      <c r="D68" s="53">
         <v>45000</v>
       </c>
-      <c r="E63" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="F63" s="53">
+      <c r="E68" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="F68" s="53">
         <v>719031</v>
       </c>
-      <c r="G63" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="H63" s="54">
+      <c r="G68" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" s="54">
         <v>20</v>
       </c>
-      <c r="I63" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="J63" s="54">
+      <c r="I68" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J68" s="54">
         <v>14</v>
       </c>
-      <c r="K63" s="54" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" s="35" customFormat="1">
-      <c r="A64" s="6">
+      <c r="K68" s="54" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" s="35" customFormat="1">
+      <c r="A69" s="6">
         <v>151308917</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B69" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C64" s="7">
-        <v>10</v>
-      </c>
-      <c r="D64" s="7">
+      <c r="C69" s="7">
+        <v>10</v>
+      </c>
+      <c r="D69" s="7">
         <v>45000</v>
       </c>
-      <c r="E64" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F64" s="7">
+      <c r="E69" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F69" s="7">
         <v>719031</v>
       </c>
-      <c r="G64" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H64" s="60">
+      <c r="G69" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" s="60">
         <v>1</v>
       </c>
-      <c r="I64" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J64" s="60">
+      <c r="I69" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J69" s="60">
         <v>1</v>
       </c>
-      <c r="K64" s="60" t="s">
+      <c r="K69" s="60" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" s="35" customFormat="1">
+      <c r="A70" s="6">
+        <v>151283046</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" s="7">
+        <v>10</v>
+      </c>
+      <c r="D70" s="7">
+        <v>45000</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F70" s="7">
+        <v>719031</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" s="60">
+        <v>2</v>
+      </c>
+      <c r="I70" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J70" s="60">
+        <v>2</v>
+      </c>
+      <c r="K70" s="60" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="38"/>
+      <c r="B71" s="43"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="43"/>
+      <c r="F71" s="43"/>
+      <c r="G71" s="43"/>
+      <c r="H71" s="44"/>
+      <c r="I71" s="43"/>
+      <c r="J71" s="44"/>
+      <c r="K71" s="44"/>
+    </row>
+    <row r="72" spans="1:11" s="35" customFormat="1">
+      <c r="A72" s="30">
+        <v>151315311</v>
+      </c>
+      <c r="B72" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="31">
+        <v>30</v>
+      </c>
+      <c r="D72" s="58">
+        <v>9999</v>
+      </c>
+      <c r="E72" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="F72" s="30">
+        <v>719381</v>
+      </c>
+      <c r="G72" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="H72" s="31">
+        <v>10</v>
+      </c>
+      <c r="I72" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J72" s="31">
+        <v>0</v>
+      </c>
+      <c r="K72" s="30" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="11"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="11"/>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="22">
+        <v>151308917</v>
+      </c>
+      <c r="B74" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" s="57">
+        <v>20</v>
+      </c>
+      <c r="D74" s="7">
+        <v>6800</v>
+      </c>
+      <c r="E74" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="F74" s="7">
+        <v>720138</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H74" s="57">
+        <v>1</v>
+      </c>
+      <c r="I74" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="J74" s="57">
+        <v>0</v>
+      </c>
+      <c r="K74" s="57" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="65" spans="1:11" s="35" customFormat="1">
-      <c r="A65" s="6">
-        <v>151283046</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C65" s="7">
-        <v>10</v>
-      </c>
-      <c r="D65" s="7">
-        <v>45000</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F65" s="7">
-        <v>719031</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H65" s="60">
-        <v>2</v>
-      </c>
-      <c r="I65" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J65" s="60">
-        <v>2</v>
-      </c>
-      <c r="K65" s="60" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="38"/>
-      <c r="B66" s="43"/>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="44"/>
-      <c r="I66" s="43"/>
-      <c r="J66" s="44"/>
-      <c r="K66" s="44"/>
-    </row>
-    <row r="67" spans="1:11" s="35" customFormat="1">
-      <c r="A67" s="30">
+    <row r="75" spans="1:11">
+      <c r="A75" s="1"/>
+      <c r="B75" s="39"/>
+      <c r="C75" s="39"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="39"/>
+      <c r="F75" s="39"/>
+      <c r="G75" s="39"/>
+      <c r="H75" s="39"/>
+      <c r="I75" s="39"/>
+      <c r="J75" s="39"/>
+      <c r="K75" s="39"/>
+    </row>
+    <row r="76" spans="1:11" s="35" customFormat="1">
+      <c r="A76" s="11">
+        <v>151322392</v>
+      </c>
+      <c r="B76" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" s="31">
+        <v>10</v>
+      </c>
+      <c r="D76" s="31">
+        <v>2490</v>
+      </c>
+      <c r="E76" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="F76" s="30">
+        <v>724214</v>
+      </c>
+      <c r="G76" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="H76" s="31">
+        <v>10</v>
+      </c>
+      <c r="I76" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J76" s="31">
+        <v>0</v>
+      </c>
+      <c r="K76" s="31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="1">
+        <v>16063532</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" s="1">
+        <v>10</v>
+      </c>
+      <c r="D78" s="1">
+        <v>2900</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F78" s="1">
+        <v>725828</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H78" s="1">
+        <v>10</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J78" s="1">
+        <v>0</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" s="35" customFormat="1">
+      <c r="A80" s="30">
         <v>151315311</v>
       </c>
-      <c r="B67" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C67" s="31">
-        <v>30</v>
-      </c>
-      <c r="D67" s="58">
-        <v>9999</v>
-      </c>
-      <c r="E67" s="30" t="s">
+      <c r="B80" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" s="31">
+        <v>10</v>
+      </c>
+      <c r="D80" s="31">
+        <v>100</v>
+      </c>
+      <c r="E80" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="F80" s="31">
+        <v>728488</v>
+      </c>
+      <c r="G80" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="H80" s="31">
+        <v>10</v>
+      </c>
+      <c r="I80" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="J80" s="31">
+        <v>0</v>
+      </c>
+      <c r="K80" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="F67" s="30">
-        <v>719381</v>
-      </c>
-      <c r="G67" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="H67" s="31">
-        <v>10</v>
-      </c>
-      <c r="I67" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J67" s="31">
-        <v>0</v>
-      </c>
-      <c r="K67" s="30" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
-      <c r="A68" s="11"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="11"/>
-    </row>
-    <row r="69" spans="1:11">
-      <c r="A69" s="22">
-        <v>151308917</v>
-      </c>
-      <c r="B69" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="C69" s="57">
-        <v>20</v>
-      </c>
-      <c r="D69" s="7">
-        <v>6800</v>
-      </c>
-      <c r="E69" s="57" t="s">
-        <v>92</v>
-      </c>
-      <c r="F69" s="7">
-        <v>720138</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H69" s="57">
-        <v>1</v>
-      </c>
-      <c r="I69" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="J69" s="57">
-        <v>0</v>
-      </c>
-      <c r="K69" s="57" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
-      <c r="A70" s="1"/>
-      <c r="B70" s="39"/>
-      <c r="C70" s="39"/>
-      <c r="D70" s="39"/>
-      <c r="E70" s="39"/>
-      <c r="F70" s="39"/>
-      <c r="G70" s="39"/>
-      <c r="H70" s="39"/>
-      <c r="I70" s="39"/>
-      <c r="J70" s="39"/>
-      <c r="K70" s="39"/>
-    </row>
-    <row r="71" spans="1:11" s="35" customFormat="1">
-      <c r="A71" s="11">
-        <v>151322392</v>
-      </c>
-      <c r="B71" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C71" s="31">
-        <v>10</v>
-      </c>
-      <c r="D71" s="31">
-        <v>2490</v>
-      </c>
-      <c r="E71" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="F71" s="30">
-        <v>724214</v>
-      </c>
-      <c r="G71" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="H71" s="31">
-        <v>10</v>
-      </c>
-      <c r="I71" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J71" s="31">
-        <v>0</v>
-      </c>
-      <c r="K71" s="31" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-    </row>
-    <row r="73" spans="1:11">
-      <c r="A73" s="1">
-        <v>16063532</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C73" s="1">
-        <v>10</v>
-      </c>
-      <c r="D73" s="1">
-        <v>2900</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F73" s="1">
-        <v>725828</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H73" s="1">
-        <v>10</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J73" s="1">
-        <v>0</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" s="35" customFormat="1">
-      <c r="A75" s="30">
-        <v>151315311</v>
-      </c>
-      <c r="B75" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C75" s="31">
-        <v>10</v>
-      </c>
-      <c r="D75" s="31">
-        <v>100</v>
-      </c>
-      <c r="E75" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="F75" s="31">
-        <v>728488</v>
-      </c>
-      <c r="G75" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H75" s="31">
-        <v>10</v>
-      </c>
-      <c r="I75" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="J75" s="31">
-        <v>0</v>
-      </c>
-      <c r="K75" s="31" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
-      <c r="F78" s="17"/>
+    </row>
+    <row r="83" spans="6:6">
+      <c r="F83" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Updated PO.xlsx
+++ b/Updated PO.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="115">
   <si>
     <t>Purchasing Document</t>
   </si>
@@ -1014,7 +1014,7 @@
   <dimension ref="A1:M82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3273,13 +3273,13 @@
         <v>33</v>
       </c>
       <c r="H46" s="5">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J46" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K46" s="5" t="s">
         <v>102</v>
@@ -3377,7 +3377,7 @@
         <v>12</v>
       </c>
       <c r="J50" s="34">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K50" s="34" t="s">
         <v>111</v>
@@ -3723,37 +3723,37 @@
       </c>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="11">
+      <c r="A65" s="6">
         <v>151326492</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C65" s="1">
-        <v>10</v>
-      </c>
-      <c r="D65" s="25">
+      <c r="C65" s="2">
+        <v>10</v>
+      </c>
+      <c r="D65" s="3">
         <v>1896</v>
       </c>
-      <c r="E65" s="26" t="s">
+      <c r="E65" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F65" s="1">
+      <c r="F65" s="2">
         <v>716663</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="G65" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H65" s="12">
+      <c r="H65" s="5">
         <v>3</v>
       </c>
-      <c r="I65" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J65" s="12">
+      <c r="I65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J65" s="5">
         <v>3</v>
       </c>
-      <c r="K65" s="12" t="s">
+      <c r="K65" s="5" t="s">
         <v>94</v>
       </c>
     </row>
@@ -4113,10 +4113,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M83"/>
+  <dimension ref="A1:M82"/>
   <sheetViews>
     <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -5699,7 +5699,7 @@
         <v>12</v>
       </c>
       <c r="J19" s="31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="34" t="s">
         <v>107</v>
@@ -5734,7 +5734,7 @@
         <v>12</v>
       </c>
       <c r="J20" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>112</v>
@@ -5769,7 +5769,7 @@
         <v>12</v>
       </c>
       <c r="J21" s="31">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K21" s="34" t="s">
         <v>114</v>
@@ -5817,7 +5817,7 @@
         <v>12</v>
       </c>
       <c r="J23" s="34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K23" s="34" t="s">
         <v>111</v>
@@ -5949,7 +5949,7 @@
         <v>12</v>
       </c>
       <c r="J28" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K28" s="6" t="s">
         <v>112</v>
@@ -6354,19 +6354,19 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="6">
-        <v>151282825</v>
+        <v>151326603</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C46" s="2">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D46" s="3">
         <v>6000</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="F46" s="2">
         <v>668330</v>
@@ -6375,576 +6375,576 @@
         <v>33</v>
       </c>
       <c r="H46" s="5">
+        <v>9</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J46" s="5">
+        <v>7</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="35" customFormat="1">
+      <c r="A47" s="36"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="50"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="50"/>
+      <c r="K47" s="50"/>
+    </row>
+    <row r="48" spans="1:11" s="35" customFormat="1">
+      <c r="A48" s="11">
+        <v>151306604</v>
+      </c>
+      <c r="B48" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="31">
+        <v>10</v>
+      </c>
+      <c r="D48" s="32">
+        <v>9703</v>
+      </c>
+      <c r="E48" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="F48" s="30">
+        <v>681149</v>
+      </c>
+      <c r="G48" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="H48" s="34">
+        <v>1</v>
+      </c>
+      <c r="I48" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J48" s="34">
+        <v>0</v>
+      </c>
+      <c r="K48" s="33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" s="39"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="42"/>
+      <c r="K49" s="42"/>
+    </row>
+    <row r="50" spans="1:13" s="35" customFormat="1">
+      <c r="A50" s="11">
+        <v>151322710</v>
+      </c>
+      <c r="B50" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="31">
+        <v>40</v>
+      </c>
+      <c r="D50" s="32">
+        <v>1908</v>
+      </c>
+      <c r="E50" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F50" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G50" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H50" s="34">
+        <v>30</v>
+      </c>
+      <c r="I50" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J50" s="34">
+        <v>0</v>
+      </c>
+      <c r="K50" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" s="35" customFormat="1">
+      <c r="A51" s="11"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="34"/>
+      <c r="K51" s="34"/>
+    </row>
+    <row r="52" spans="1:13" s="35" customFormat="1">
+      <c r="A52" s="6">
+        <v>151288592</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="2">
+        <v>10</v>
+      </c>
+      <c r="D52" s="3">
+        <v>8463</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F52" s="6">
+        <v>687349</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H52" s="5">
+        <v>10</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J52" s="5">
+        <v>0</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" s="35" customFormat="1">
+      <c r="A53" s="30"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="56"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="34"/>
+      <c r="K53" s="34"/>
+    </row>
+    <row r="54" spans="1:13" s="35" customFormat="1">
+      <c r="A54" s="6">
+        <v>151242082</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="2">
+        <v>10</v>
+      </c>
+      <c r="D54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F54" s="6">
+        <v>691660</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H54" s="5">
+        <v>1</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J54" s="5">
+        <v>0</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+    </row>
+    <row r="56" spans="1:13" s="46" customFormat="1">
+      <c r="A56" s="11">
+        <v>151314792</v>
+      </c>
+      <c r="B56" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="31">
+        <v>10</v>
+      </c>
+      <c r="D56" s="32">
+        <v>565</v>
+      </c>
+      <c r="E56" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="F56" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G56" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="H56" s="34">
+        <v>100</v>
+      </c>
+      <c r="I56" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J56" s="34">
+        <v>0</v>
+      </c>
+      <c r="K56" s="34" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="M57" s="24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="18">
+        <v>151264212</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" s="18">
+        <v>10</v>
+      </c>
+      <c r="D58" s="51">
+        <v>10710</v>
+      </c>
+      <c r="E58" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="F58" s="18">
+        <v>704681</v>
+      </c>
+      <c r="G58" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="H58" s="19">
+        <v>1</v>
+      </c>
+      <c r="I58" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J58" s="19">
+        <v>0</v>
+      </c>
+      <c r="K58" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="56"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D60" s="25">
+        <v>4995</v>
+      </c>
+      <c r="E60" s="26">
+        <v>44223</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H60" s="12">
+        <v>2</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J60" s="12">
+        <v>0</v>
+      </c>
+      <c r="K60" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="25">
+        <v>4245</v>
+      </c>
+      <c r="E62" s="26">
+        <v>44223</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H62" s="12">
+        <v>2</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J62" s="12">
+        <v>0</v>
+      </c>
+      <c r="K62" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="20">
+        <v>151113088</v>
+      </c>
+      <c r="B64" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="61">
+        <v>10</v>
+      </c>
+      <c r="D64" s="62">
+        <v>1896</v>
+      </c>
+      <c r="E64" s="63">
+        <v>44487</v>
+      </c>
+      <c r="F64" s="61">
+        <v>716663</v>
+      </c>
+      <c r="G64" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="H64" s="64">
+        <v>5</v>
+      </c>
+      <c r="I64" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="J64" s="64">
+        <v>0</v>
+      </c>
+      <c r="K64" s="64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="6">
+        <v>151326492</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="2">
+        <v>10</v>
+      </c>
+      <c r="D65" s="3">
+        <v>1896</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F65" s="2">
+        <v>716663</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H65" s="5">
         <v>3</v>
       </c>
-      <c r="I46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J46" s="5">
-        <v>0</v>
-      </c>
-      <c r="K46" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="6">
-        <v>151326603</v>
-      </c>
-      <c r="B47" s="2" t="s">
+      <c r="I65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J65" s="5">
+        <v>3</v>
+      </c>
+      <c r="K65" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+    </row>
+    <row r="67" spans="1:11" s="35" customFormat="1">
+      <c r="A67" s="30">
+        <v>151280693</v>
+      </c>
+      <c r="B67" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="53">
+        <v>30</v>
+      </c>
+      <c r="D67" s="53">
+        <v>45000</v>
+      </c>
+      <c r="E67" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="F67" s="53">
+        <v>719031</v>
+      </c>
+      <c r="G67" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" s="54">
+        <v>20</v>
+      </c>
+      <c r="I67" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J67" s="54">
+        <v>14</v>
+      </c>
+      <c r="K67" s="54" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" s="35" customFormat="1">
+      <c r="A68" s="6">
+        <v>151308917</v>
+      </c>
+      <c r="B68" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="2">
-        <v>20</v>
-      </c>
-      <c r="D47" s="3">
-        <v>6000</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F47" s="2">
-        <v>668330</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H47" s="5">
-        <v>3</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J47" s="5">
-        <v>3</v>
-      </c>
-      <c r="K47" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" s="35" customFormat="1">
-      <c r="A48" s="36"/>
-      <c r="B48" s="47"/>
-      <c r="C48" s="47"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="50"/>
-      <c r="I48" s="47"/>
-      <c r="J48" s="50"/>
-      <c r="K48" s="50"/>
-    </row>
-    <row r="49" spans="1:13" s="35" customFormat="1">
-      <c r="A49" s="11">
-        <v>151306604</v>
-      </c>
-      <c r="B49" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" s="31">
-        <v>10</v>
-      </c>
-      <c r="D49" s="32">
-        <v>9703</v>
-      </c>
-      <c r="E49" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="F49" s="30">
-        <v>681149</v>
-      </c>
-      <c r="G49" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="H49" s="34">
+      <c r="C68" s="7">
+        <v>10</v>
+      </c>
+      <c r="D68" s="7">
+        <v>45000</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F68" s="7">
+        <v>719031</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" s="60">
         <v>1</v>
       </c>
-      <c r="I49" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J49" s="34">
-        <v>0</v>
-      </c>
-      <c r="K49" s="33" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
-      <c r="A50" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B50" s="39"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="41"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="42"/>
-      <c r="I50" s="39"/>
-      <c r="J50" s="42"/>
-      <c r="K50" s="42"/>
-    </row>
-    <row r="51" spans="1:13" s="35" customFormat="1">
-      <c r="A51" s="11">
-        <v>151322710</v>
-      </c>
-      <c r="B51" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" s="31">
-        <v>40</v>
-      </c>
-      <c r="D51" s="32">
-        <v>1908</v>
-      </c>
-      <c r="E51" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="F51" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="G51" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="H51" s="34">
-        <v>30</v>
-      </c>
-      <c r="I51" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J51" s="34">
-        <v>30</v>
-      </c>
-      <c r="K51" s="34" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" s="35" customFormat="1">
-      <c r="A52" s="11"/>
-      <c r="B52" s="31"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="34"/>
-      <c r="I52" s="31"/>
-      <c r="J52" s="34"/>
-      <c r="K52" s="34"/>
-    </row>
-    <row r="53" spans="1:13" s="35" customFormat="1">
-      <c r="A53" s="6">
-        <v>151288592</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C53" s="2">
-        <v>10</v>
-      </c>
-      <c r="D53" s="3">
-        <v>8463</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F53" s="6">
-        <v>687349</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="H53" s="5">
-        <v>10</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J53" s="5">
-        <v>0</v>
-      </c>
-      <c r="K53" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" s="35" customFormat="1">
-      <c r="A54" s="30"/>
-      <c r="B54" s="31"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="56"/>
-      <c r="H54" s="34"/>
-      <c r="I54" s="31"/>
-      <c r="J54" s="34"/>
-      <c r="K54" s="34"/>
-    </row>
-    <row r="55" spans="1:13" s="35" customFormat="1">
-      <c r="A55" s="6">
-        <v>151242082</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C55" s="2">
-        <v>10</v>
-      </c>
-      <c r="D55" s="3">
-        <v>1600</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F55" s="6">
-        <v>691660</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H55" s="5">
+      <c r="I68" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J68" s="60">
         <v>1</v>
       </c>
-      <c r="I55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J55" s="5">
-        <v>0</v>
-      </c>
-      <c r="K55" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
-    </row>
-    <row r="57" spans="1:13" s="46" customFormat="1">
-      <c r="A57" s="11">
-        <v>151314792</v>
-      </c>
-      <c r="B57" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57" s="31">
-        <v>10</v>
-      </c>
-      <c r="D57" s="32">
-        <v>565</v>
-      </c>
-      <c r="E57" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="F57" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="G57" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="H57" s="34">
-        <v>100</v>
-      </c>
-      <c r="I57" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J57" s="34">
-        <v>0</v>
-      </c>
-      <c r="K57" s="34" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
-      <c r="M58" s="24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
-      <c r="A59" s="18">
-        <v>151264212</v>
-      </c>
-      <c r="B59" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C59" s="18">
-        <v>10</v>
-      </c>
-      <c r="D59" s="51">
-        <v>10710</v>
-      </c>
-      <c r="E59" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="F59" s="18">
-        <v>704681</v>
-      </c>
-      <c r="G59" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="H59" s="19">
-        <v>1</v>
-      </c>
-      <c r="I59" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="J59" s="19">
-        <v>0</v>
-      </c>
-      <c r="K59" s="19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="56"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
-    </row>
-    <row r="61" spans="1:13">
-      <c r="A61" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D61" s="25">
-        <v>4995</v>
-      </c>
-      <c r="E61" s="26">
-        <v>44223</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H61" s="12">
-        <v>2</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J61" s="12">
-        <v>0</v>
-      </c>
-      <c r="K61" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="12"/>
-    </row>
-    <row r="63" spans="1:13">
-      <c r="A63" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D63" s="25">
-        <v>4245</v>
-      </c>
-      <c r="E63" s="26">
-        <v>44223</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H63" s="12">
-        <v>2</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J63" s="12">
-        <v>0</v>
-      </c>
-      <c r="K63" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="25"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="12"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="12"/>
-    </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="20">
-        <v>151113088</v>
-      </c>
-      <c r="B65" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="C65" s="61">
-        <v>10</v>
-      </c>
-      <c r="D65" s="62">
-        <v>1896</v>
-      </c>
-      <c r="E65" s="63">
-        <v>44487</v>
-      </c>
-      <c r="F65" s="61">
-        <v>716663</v>
-      </c>
-      <c r="G65" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="H65" s="64">
-        <v>5</v>
-      </c>
-      <c r="I65" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="J65" s="64">
-        <v>0</v>
-      </c>
-      <c r="K65" s="64" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="11">
-        <v>151326492</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C66" s="1">
-        <v>10</v>
-      </c>
-      <c r="D66" s="25">
-        <v>1896</v>
-      </c>
-      <c r="E66" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="F66" s="1">
-        <v>716663</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H66" s="12">
-        <v>3</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J66" s="12">
-        <v>3</v>
-      </c>
-      <c r="K66" s="12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="25"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="12"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="12"/>
-      <c r="K67" s="12"/>
-    </row>
-    <row r="68" spans="1:11" s="35" customFormat="1">
-      <c r="A68" s="30">
-        <v>151280693</v>
-      </c>
-      <c r="B68" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="C68" s="53">
-        <v>30</v>
-      </c>
-      <c r="D68" s="53">
-        <v>45000</v>
-      </c>
-      <c r="E68" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="F68" s="53">
-        <v>719031</v>
-      </c>
-      <c r="G68" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="H68" s="54">
-        <v>20</v>
-      </c>
-      <c r="I68" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="J68" s="54">
-        <v>14</v>
-      </c>
-      <c r="K68" s="54" t="s">
-        <v>88</v>
+      <c r="K68" s="60" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="69" spans="1:11" s="35" customFormat="1">
       <c r="A69" s="6">
-        <v>151308917</v>
+        <v>151283046</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>16</v>
@@ -6956,7 +6956,7 @@
         <v>45000</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F69" s="7">
         <v>719031</v>
@@ -6965,282 +6965,247 @@
         <v>45</v>
       </c>
       <c r="H69" s="60">
+        <v>2</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J69" s="60">
+        <v>2</v>
+      </c>
+      <c r="K69" s="60" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="38"/>
+      <c r="B70" s="43"/>
+      <c r="C70" s="43"/>
+      <c r="D70" s="43"/>
+      <c r="E70" s="43"/>
+      <c r="F70" s="43"/>
+      <c r="G70" s="43"/>
+      <c r="H70" s="44"/>
+      <c r="I70" s="43"/>
+      <c r="J70" s="44"/>
+      <c r="K70" s="44"/>
+    </row>
+    <row r="71" spans="1:11" s="35" customFormat="1">
+      <c r="A71" s="30">
+        <v>151315311</v>
+      </c>
+      <c r="B71" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="31">
+        <v>30</v>
+      </c>
+      <c r="D71" s="58">
+        <v>9999</v>
+      </c>
+      <c r="E71" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="F71" s="30">
+        <v>719381</v>
+      </c>
+      <c r="G71" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="H71" s="31">
+        <v>10</v>
+      </c>
+      <c r="I71" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J71" s="31">
+        <v>0</v>
+      </c>
+      <c r="K71" s="30" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="11"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="11"/>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="22">
+        <v>151308917</v>
+      </c>
+      <c r="B73" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C73" s="57">
+        <v>20</v>
+      </c>
+      <c r="D73" s="7">
+        <v>6800</v>
+      </c>
+      <c r="E73" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="F73" s="7">
+        <v>720138</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H73" s="57">
         <v>1</v>
       </c>
-      <c r="I69" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J69" s="60">
-        <v>1</v>
-      </c>
-      <c r="K69" s="60" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" s="35" customFormat="1">
-      <c r="A70" s="6">
-        <v>151283046</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C70" s="7">
-        <v>10</v>
-      </c>
-      <c r="D70" s="7">
-        <v>45000</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F70" s="7">
-        <v>719031</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H70" s="60">
-        <v>2</v>
-      </c>
-      <c r="I70" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J70" s="60">
-        <v>2</v>
-      </c>
-      <c r="K70" s="60" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
-      <c r="A71" s="38"/>
-      <c r="B71" s="43"/>
-      <c r="C71" s="43"/>
-      <c r="D71" s="43"/>
-      <c r="E71" s="43"/>
-      <c r="F71" s="43"/>
-      <c r="G71" s="43"/>
-      <c r="H71" s="44"/>
-      <c r="I71" s="43"/>
-      <c r="J71" s="44"/>
-      <c r="K71" s="44"/>
-    </row>
-    <row r="72" spans="1:11" s="35" customFormat="1">
-      <c r="A72" s="30">
+      <c r="I73" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="J73" s="57">
+        <v>0</v>
+      </c>
+      <c r="K73" s="57" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="1"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="39"/>
+      <c r="F74" s="39"/>
+      <c r="G74" s="39"/>
+      <c r="H74" s="39"/>
+      <c r="I74" s="39"/>
+      <c r="J74" s="39"/>
+      <c r="K74" s="39"/>
+    </row>
+    <row r="75" spans="1:11" s="35" customFormat="1">
+      <c r="A75" s="11">
+        <v>151322392</v>
+      </c>
+      <c r="B75" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="31">
+        <v>10</v>
+      </c>
+      <c r="D75" s="31">
+        <v>2490</v>
+      </c>
+      <c r="E75" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="F75" s="30">
+        <v>724214</v>
+      </c>
+      <c r="G75" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="H75" s="31">
+        <v>10</v>
+      </c>
+      <c r="I75" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J75" s="31">
+        <v>0</v>
+      </c>
+      <c r="K75" s="31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="1">
+        <v>16063532</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="1">
+        <v>10</v>
+      </c>
+      <c r="D77" s="1">
+        <v>2900</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F77" s="1">
+        <v>725828</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H77" s="1">
+        <v>10</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J77" s="1">
+        <v>0</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" s="35" customFormat="1">
+      <c r="A79" s="30">
         <v>151315311</v>
       </c>
-      <c r="B72" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C72" s="31">
-        <v>30</v>
-      </c>
-      <c r="D72" s="58">
-        <v>9999</v>
-      </c>
-      <c r="E72" s="30" t="s">
+      <c r="B79" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" s="31">
+        <v>10</v>
+      </c>
+      <c r="D79" s="31">
+        <v>100</v>
+      </c>
+      <c r="E79" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="F72" s="30">
-        <v>719381</v>
-      </c>
-      <c r="G72" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="H72" s="31">
-        <v>10</v>
-      </c>
-      <c r="I72" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J72" s="31">
+      <c r="F79" s="31">
+        <v>728488</v>
+      </c>
+      <c r="G79" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="H79" s="31">
+        <v>10</v>
+      </c>
+      <c r="I79" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="J79" s="31">
         <v>0</v>
       </c>
-      <c r="K72" s="30" t="s">
+      <c r="K79" s="31" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
-      <c r="A73" s="11"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="11"/>
-    </row>
-    <row r="74" spans="1:11">
-      <c r="A74" s="22">
-        <v>151308917</v>
-      </c>
-      <c r="B74" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="C74" s="57">
-        <v>20</v>
-      </c>
-      <c r="D74" s="7">
-        <v>6800</v>
-      </c>
-      <c r="E74" s="57" t="s">
-        <v>91</v>
-      </c>
-      <c r="F74" s="7">
-        <v>720138</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H74" s="57">
-        <v>1</v>
-      </c>
-      <c r="I74" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="J74" s="57">
-        <v>0</v>
-      </c>
-      <c r="K74" s="57" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
-      <c r="A75" s="1"/>
-      <c r="B75" s="39"/>
-      <c r="C75" s="39"/>
-      <c r="D75" s="39"/>
-      <c r="E75" s="39"/>
-      <c r="F75" s="39"/>
-      <c r="G75" s="39"/>
-      <c r="H75" s="39"/>
-      <c r="I75" s="39"/>
-      <c r="J75" s="39"/>
-      <c r="K75" s="39"/>
-    </row>
-    <row r="76" spans="1:11" s="35" customFormat="1">
-      <c r="A76" s="11">
-        <v>151322392</v>
-      </c>
-      <c r="B76" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C76" s="31">
-        <v>10</v>
-      </c>
-      <c r="D76" s="31">
-        <v>2490</v>
-      </c>
-      <c r="E76" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="F76" s="30">
-        <v>724214</v>
-      </c>
-      <c r="G76" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="H76" s="31">
-        <v>10</v>
-      </c>
-      <c r="I76" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J76" s="31">
-        <v>0</v>
-      </c>
-      <c r="K76" s="31" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-    </row>
-    <row r="78" spans="1:11">
-      <c r="A78" s="1">
-        <v>16063532</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C78" s="1">
-        <v>10</v>
-      </c>
-      <c r="D78" s="1">
-        <v>2900</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F78" s="1">
-        <v>725828</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H78" s="1">
-        <v>10</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J78" s="1">
-        <v>0</v>
-      </c>
-      <c r="K78" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" s="35" customFormat="1">
-      <c r="A80" s="30">
-        <v>151315311</v>
-      </c>
-      <c r="B80" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C80" s="31">
-        <v>10</v>
-      </c>
-      <c r="D80" s="31">
-        <v>100</v>
-      </c>
-      <c r="E80" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="F80" s="31">
-        <v>728488</v>
-      </c>
-      <c r="G80" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="H80" s="31">
-        <v>10</v>
-      </c>
-      <c r="I80" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="J80" s="31">
-        <v>0</v>
-      </c>
-      <c r="K80" s="31" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="83" spans="6:6">
-      <c r="F83" s="17"/>
+    <row r="82" spans="6:6">
+      <c r="F82" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Updated PO.xlsx
+++ b/Updated PO.xlsx
@@ -1013,8 +1013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>

--- a/Updated PO.xlsx
+++ b/Updated PO.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="118">
   <si>
     <t>Purchasing Document</t>
   </si>
@@ -353,9 +353,6 @@
     <t>11.07.2023</t>
   </si>
   <si>
-    <t>29.05.2023</t>
-  </si>
-  <si>
     <t>12.05.2023</t>
   </si>
   <si>
@@ -372,13 +369,25 @@
   </si>
   <si>
     <t>31.07.2023</t>
+  </si>
+  <si>
+    <t>05.05.2023</t>
+  </si>
+  <si>
+    <t>05.06.2023</t>
+  </si>
+  <si>
+    <t>02.06.2023</t>
+  </si>
+  <si>
+    <t>09.05.2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -424,6 +433,11 @@
     <font>
       <sz val="10"/>
       <name val="Arial  "/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
     </font>
   </fonts>
   <fills count="5">
@@ -516,7 +530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -707,6 +721,7 @@
     <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1013,8 +1028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="G82" sqref="G82"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2326,53 +2341,53 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="21"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" s="35" customFormat="1">
-      <c r="A10" s="6">
-        <v>151308917</v>
-      </c>
-      <c r="B10" s="2" t="s">
+    <row r="9" spans="1:11" s="35" customFormat="1">
+      <c r="A9" s="6">
+        <v>151330034</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="2">
-        <v>30</v>
-      </c>
-      <c r="D10" s="2">
-        <v>4831</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F10" s="2">
-        <v>615698</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H10" s="2">
-        <v>20</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>99</v>
-      </c>
+      <c r="C9" s="2">
+        <v>40</v>
+      </c>
+      <c r="D9" s="10">
+        <v>2400</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="2">
+        <v>615181</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="2">
+        <v>10</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="2">
+        <v>10</v>
+      </c>
+      <c r="K9" s="2">
+        <v>308.20229999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="21"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" s="35" customFormat="1">
       <c r="A11" s="30">
@@ -2569,627 +2584,605 @@
       <c r="K18" s="12"/>
     </row>
     <row r="19" spans="1:12" s="35" customFormat="1">
-      <c r="A19" s="11">
-        <v>151320915</v>
-      </c>
-      <c r="B19" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="31">
-        <v>10</v>
-      </c>
-      <c r="D19" s="31">
+      <c r="A19" s="6">
+        <v>151330034</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="2">
+        <v>30</v>
+      </c>
+      <c r="D19" s="2">
         <v>5614</v>
       </c>
-      <c r="E19" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="F19" s="31">
+      <c r="E19" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" s="2">
         <v>616026</v>
       </c>
-      <c r="G19" s="31" t="s">
+      <c r="G19" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H19" s="31">
-        <v>10</v>
-      </c>
-      <c r="I19" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" s="31">
+      <c r="H19" s="2">
+        <v>10</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="2">
+        <v>10</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="35" customFormat="1">
+      <c r="A20" s="11"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="34"/>
+    </row>
+    <row r="21" spans="1:12" s="35" customFormat="1">
+      <c r="A21" s="11">
+        <v>151322710</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="31">
+        <v>50</v>
+      </c>
+      <c r="D21" s="34">
+        <v>6521</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21" s="34">
+        <v>20</v>
+      </c>
+      <c r="I21" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="34">
         <v>0</v>
       </c>
-      <c r="K19" s="34" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="35" customFormat="1">
-      <c r="A20" s="6">
-        <v>151326603</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="K21" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="L21" s="55"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="11"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+    </row>
+    <row r="23" spans="1:12" s="35" customFormat="1">
+      <c r="A23" s="6">
+        <v>151330034</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="2">
-        <v>10</v>
-      </c>
-      <c r="D20" s="2">
-        <v>5614</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F20" s="2">
-        <v>616026</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H20" s="2">
+      <c r="C23" s="2">
+        <v>10</v>
+      </c>
+      <c r="D23" s="2">
+        <v>4048</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F23" s="2">
+        <v>630059</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" s="2">
         <v>15</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="2">
-        <v>0</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="35" customFormat="1">
-      <c r="A21" s="30">
-        <v>151328170</v>
-      </c>
-      <c r="B21" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="31">
-        <v>10</v>
-      </c>
-      <c r="D21" s="31">
-        <v>5614</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="F21" s="31">
-        <v>616026</v>
-      </c>
-      <c r="G21" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="H21" s="31">
-        <v>20</v>
-      </c>
-      <c r="I21" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="31">
-        <v>0</v>
-      </c>
-      <c r="K21" s="34" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="35" customFormat="1">
-      <c r="A22" s="11"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="34"/>
-    </row>
-    <row r="23" spans="1:12" s="35" customFormat="1">
-      <c r="A23" s="11">
-        <v>151322710</v>
-      </c>
-      <c r="B23" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="31">
-        <v>50</v>
-      </c>
-      <c r="D23" s="34">
-        <v>6521</v>
-      </c>
-      <c r="E23" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="F23" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="H23" s="34">
-        <v>20</v>
-      </c>
-      <c r="I23" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" s="34">
-        <v>0</v>
-      </c>
-      <c r="K23" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="L23" s="55"/>
+      <c r="I23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="2">
+        <v>15</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="11"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="26"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="12"/>
+      <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:12" s="35" customFormat="1">
-      <c r="A25" s="30">
-        <v>151315311</v>
-      </c>
-      <c r="B25" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="31">
-        <v>90</v>
-      </c>
-      <c r="D25" s="31">
-        <v>4048</v>
-      </c>
-      <c r="E25" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="F25" s="31">
-        <v>630059</v>
-      </c>
-      <c r="G25" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="H25" s="31">
-        <v>20</v>
-      </c>
-      <c r="I25" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J25" s="31">
-        <v>0</v>
-      </c>
-      <c r="K25" s="31" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="A25" s="6">
+        <v>151330034</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="2">
+        <v>50</v>
+      </c>
+      <c r="D25" s="65">
+        <v>5738</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F25" s="6">
+        <v>632215</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" s="2">
+        <v>5</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" s="2">
+        <v>5</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="12" customHeight="1">
       <c r="A26" s="11"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="1:12" s="35" customFormat="1">
-      <c r="A27" s="30">
-        <v>151322391</v>
-      </c>
-      <c r="B27" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="31">
-        <v>10</v>
-      </c>
-      <c r="D27" s="58">
-        <v>5738</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="F27" s="30">
-        <v>632215</v>
-      </c>
-      <c r="G27" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="H27" s="31">
+      <c r="D26" s="16"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="11"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="11">
+        <v>151110116</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="1">
+        <v>60</v>
+      </c>
+      <c r="D27" s="13">
+        <v>3450</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="13">
+        <v>634355</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" s="13">
+        <v>10</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" s="13">
+        <v>10</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="12"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="2">
+        <v>151008992</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="2">
+        <v>20</v>
+      </c>
+      <c r="D29" s="10">
+        <v>4726</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="2">
+        <v>635655</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="2">
+        <v>10</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:12" s="35" customFormat="1">
+      <c r="A31" s="30">
+        <v>151302474</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="31">
+        <v>40</v>
+      </c>
+      <c r="D31" s="59">
+        <v>2818</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="F31" s="30">
+        <v>635656</v>
+      </c>
+      <c r="G31" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="H31" s="31">
         <v>15</v>
       </c>
-      <c r="I27" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J27" s="31">
+      <c r="I31" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="J31" s="31">
         <v>0</v>
       </c>
-      <c r="K27" s="30" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="35" customFormat="1">
-      <c r="A28" s="6">
-        <v>151326603</v>
-      </c>
-      <c r="B28" s="2" t="s">
+      <c r="K31" s="31" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="1:11" s="35" customFormat="1">
+      <c r="A33" s="30">
+        <v>151302474</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="31">
+        <v>50</v>
+      </c>
+      <c r="D33" s="58">
+        <v>3555</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="F33" s="30">
+        <v>646872</v>
+      </c>
+      <c r="G33" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="H33" s="31">
+        <v>10</v>
+      </c>
+      <c r="I33" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33" s="31">
+        <v>0</v>
+      </c>
+      <c r="K33" s="30" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="11"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="11"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="11">
+        <v>151110116</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="1">
+        <v>40</v>
+      </c>
+      <c r="D35" s="25">
+        <v>112</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35" s="12">
+        <v>50</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J35" s="12">
+        <v>0</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="22">
+        <v>151197029</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="2">
-        <v>30</v>
-      </c>
-      <c r="D28" s="65">
-        <v>5738</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="F28" s="6">
-        <v>632215</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H28" s="2">
-        <v>5</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J28" s="2">
+      <c r="C37" s="2">
+        <v>60</v>
+      </c>
+      <c r="D37" s="3">
+        <v>3510</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F37" s="2">
+        <v>663091</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H37" s="5">
+        <v>2</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37" s="5">
         <v>0</v>
       </c>
-      <c r="K28" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="12" customHeight="1">
-      <c r="A29" s="11"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="11"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="11">
-        <v>151110116</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="1">
+      <c r="K37" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="6">
+        <v>151090350</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="2">
+        <v>10</v>
+      </c>
+      <c r="D39" s="3">
+        <v>5130</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F39" s="2">
+        <v>663092</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H39" s="5">
+        <v>2</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J39" s="5">
+        <v>0</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+    </row>
+    <row r="41" spans="1:11" s="35" customFormat="1">
+      <c r="A41" s="6">
+        <v>151308917</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="2">
         <v>60</v>
       </c>
-      <c r="D30" s="13">
-        <v>3450</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F30" s="13">
-        <v>634355</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H30" s="13">
-        <v>10</v>
-      </c>
-      <c r="I30" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J30" s="13">
-        <v>10</v>
-      </c>
-      <c r="K30" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="12"/>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="2">
-        <v>151008992</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="2">
-        <v>20</v>
-      </c>
-      <c r="D32" s="10">
-        <v>4726</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" s="2">
-        <v>635655</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H32" s="2">
-        <v>10</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J32" s="2">
+      <c r="D41" s="3">
+        <v>6615</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F41" s="2">
+        <v>663093</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H41" s="5">
+        <v>2</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J41" s="5">
         <v>0</v>
       </c>
-      <c r="K32" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-    </row>
-    <row r="34" spans="1:11" s="35" customFormat="1">
-      <c r="A34" s="30">
-        <v>151302474</v>
-      </c>
-      <c r="B34" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="31">
-        <v>40</v>
-      </c>
-      <c r="D34" s="59">
-        <v>2818</v>
-      </c>
-      <c r="E34" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="F34" s="30">
-        <v>635656</v>
-      </c>
-      <c r="G34" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="H34" s="31">
-        <v>15</v>
-      </c>
-      <c r="I34" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="J34" s="31">
-        <v>0</v>
-      </c>
-      <c r="K34" s="31" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-    </row>
-    <row r="36" spans="1:11" s="35" customFormat="1">
-      <c r="A36" s="30">
-        <v>151302474</v>
-      </c>
-      <c r="B36" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="31">
-        <v>50</v>
-      </c>
-      <c r="D36" s="58">
-        <v>3555</v>
-      </c>
-      <c r="E36" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="F36" s="30">
-        <v>646872</v>
-      </c>
-      <c r="G36" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="H36" s="31">
-        <v>10</v>
-      </c>
-      <c r="I36" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J36" s="31">
-        <v>0</v>
-      </c>
-      <c r="K36" s="30" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="11"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="11"/>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="11">
-        <v>151110116</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" s="1">
-        <v>40</v>
-      </c>
-      <c r="D38" s="25">
-        <v>112</v>
-      </c>
-      <c r="E38" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H38" s="12">
-        <v>50</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J38" s="12">
-        <v>0</v>
-      </c>
-      <c r="K38" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="22">
-        <v>151197029</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" s="2">
-        <v>60</v>
-      </c>
-      <c r="D40" s="3">
-        <v>3510</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F40" s="2">
-        <v>663091</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H40" s="5">
-        <v>2</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J40" s="5">
-        <v>0</v>
-      </c>
-      <c r="K40" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="K41" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="35" customFormat="1">
       <c r="A42" s="6">
-        <v>151090350</v>
+        <v>151330034</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C42" s="2">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="D42" s="3">
-        <v>5130</v>
+        <v>6615</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="F42" s="2">
-        <v>663092</v>
+        <v>663093</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H42" s="5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J42" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="13.5" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -3202,126 +3195,128 @@
       <c r="J43" s="12"/>
       <c r="K43" s="12"/>
     </row>
-    <row r="44" spans="1:11" s="35" customFormat="1">
+    <row r="44" spans="1:11">
       <c r="A44" s="6">
-        <v>151308917</v>
+        <v>151326603</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C44" s="2">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D44" s="3">
-        <v>6615</v>
+        <v>6000</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="F44" s="2">
-        <v>663093</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>51</v>
+        <v>668330</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="H44" s="5">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J44" s="5">
+        <v>7</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="35" customFormat="1">
+      <c r="A45" s="36"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="50"/>
+      <c r="K45" s="50"/>
+    </row>
+    <row r="46" spans="1:11" s="35" customFormat="1">
+      <c r="A46" s="11">
+        <v>151306604</v>
+      </c>
+      <c r="B46" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="31">
+        <v>10</v>
+      </c>
+      <c r="D46" s="32">
+        <v>9703</v>
+      </c>
+      <c r="E46" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="F46" s="30">
+        <v>681149</v>
+      </c>
+      <c r="G46" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="H46" s="34">
+        <v>1</v>
+      </c>
+      <c r="I46" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J46" s="34">
         <v>0</v>
       </c>
-      <c r="K44" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="6">
-        <v>151326603</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C46" s="2">
-        <v>20</v>
-      </c>
-      <c r="D46" s="3">
-        <v>6000</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F46" s="2">
-        <v>668330</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H46" s="5">
-        <v>9</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J46" s="5">
-        <v>7</v>
-      </c>
-      <c r="K46" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" s="35" customFormat="1">
-      <c r="A47" s="36"/>
-      <c r="B47" s="47"/>
-      <c r="C47" s="47"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="47"/>
-      <c r="H47" s="50"/>
-      <c r="I47" s="47"/>
-      <c r="J47" s="50"/>
-      <c r="K47" s="50"/>
+      <c r="K46" s="33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="42"/>
     </row>
     <row r="48" spans="1:11" s="35" customFormat="1">
       <c r="A48" s="11">
-        <v>151306604</v>
+        <v>151322710</v>
       </c>
       <c r="B48" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C48" s="31">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D48" s="32">
-        <v>9703</v>
+        <v>1908</v>
       </c>
       <c r="E48" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="F48" s="30">
-        <v>681149</v>
-      </c>
-      <c r="G48" s="30" t="s">
-        <v>75</v>
+        <v>109</v>
+      </c>
+      <c r="F48" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G48" s="31" t="s">
+        <v>35</v>
       </c>
       <c r="H48" s="34">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="I48" s="31" t="s">
         <v>12</v>
@@ -3329,172 +3324,192 @@
       <c r="J48" s="34">
         <v>0</v>
       </c>
-      <c r="K48" s="33" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
-      <c r="A49" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="42"/>
-      <c r="I49" s="39"/>
-      <c r="J49" s="42"/>
-      <c r="K49" s="42"/>
+      <c r="K48" s="34" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" s="35" customFormat="1">
+      <c r="A49" s="11"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="34"/>
+      <c r="K49" s="34"/>
     </row>
     <row r="50" spans="1:13" s="35" customFormat="1">
-      <c r="A50" s="11">
-        <v>151322710</v>
-      </c>
-      <c r="B50" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" s="31">
-        <v>40</v>
-      </c>
-      <c r="D50" s="32">
-        <v>1908</v>
-      </c>
-      <c r="E50" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="F50" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="G50" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="H50" s="34">
-        <v>30</v>
-      </c>
-      <c r="I50" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J50" s="34">
+      <c r="A50" s="6">
+        <v>151288592</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="2">
+        <v>10</v>
+      </c>
+      <c r="D50" s="3">
+        <v>8463</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F50" s="6">
+        <v>687349</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H50" s="5">
+        <v>10</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J50" s="5">
         <v>0</v>
       </c>
-      <c r="K50" s="34" t="s">
-        <v>111</v>
+      <c r="K50" s="5" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:13" s="35" customFormat="1">
-      <c r="A51" s="11"/>
-      <c r="B51" s="31"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="34"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="34"/>
-      <c r="K51" s="34"/>
+      <c r="A51" s="22">
+        <v>151330034</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="2">
+        <v>20</v>
+      </c>
+      <c r="D51" s="3">
+        <v>8463</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F51" s="6">
+        <v>687349</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H51" s="5">
+        <v>25</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J51" s="5">
+        <v>25</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="52" spans="1:13" s="35" customFormat="1">
-      <c r="A52" s="6">
-        <v>151288592</v>
-      </c>
-      <c r="B52" s="2" t="s">
+      <c r="A52" s="30"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="56"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="34"/>
+      <c r="K52" s="34"/>
+    </row>
+    <row r="53" spans="1:13" s="35" customFormat="1">
+      <c r="A53" s="6">
+        <v>151242082</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="2">
-        <v>10</v>
-      </c>
-      <c r="D52" s="3">
-        <v>8463</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F52" s="6">
-        <v>687349</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="H52" s="5">
-        <v>10</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J52" s="5">
+      <c r="C53" s="2">
+        <v>10</v>
+      </c>
+      <c r="D53" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F53" s="6">
+        <v>691660</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H53" s="5">
+        <v>1</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J53" s="5">
         <v>0</v>
       </c>
-      <c r="K52" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" s="35" customFormat="1">
-      <c r="A53" s="30"/>
-      <c r="B53" s="31"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="56"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="31"/>
-      <c r="J53" s="34"/>
-      <c r="K53" s="34"/>
-    </row>
-    <row r="54" spans="1:13" s="35" customFormat="1">
-      <c r="A54" s="6">
-        <v>151242082</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C54" s="2">
-        <v>10</v>
-      </c>
-      <c r="D54" s="3">
-        <v>1600</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F54" s="6">
-        <v>691660</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H54" s="5">
-        <v>1</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J54" s="5">
+      <c r="K53" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+    </row>
+    <row r="55" spans="1:13" s="46" customFormat="1">
+      <c r="A55" s="11">
+        <v>151314792</v>
+      </c>
+      <c r="B55" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="31">
+        <v>10</v>
+      </c>
+      <c r="D55" s="32">
+        <v>565</v>
+      </c>
+      <c r="E55" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="F55" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G55" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="H55" s="34">
+        <v>100</v>
+      </c>
+      <c r="I55" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J55" s="34">
         <v>0</v>
       </c>
-      <c r="K54" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
+      <c r="K55" s="34" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="56" spans="1:13" s="46" customFormat="1">
       <c r="A56" s="11">
-        <v>151314792</v>
+        <v>151330961</v>
       </c>
       <c r="B56" s="31" t="s">
         <v>10</v>
@@ -3506,7 +3521,7 @@
         <v>565</v>
       </c>
       <c r="E56" s="33" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="F56" s="31" t="s">
         <v>36</v>
@@ -3515,16 +3530,16 @@
         <v>37</v>
       </c>
       <c r="H56" s="34">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I56" s="31" t="s">
         <v>12</v>
       </c>
       <c r="J56" s="34">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K56" s="34" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -4016,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="K75" s="31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -4113,10 +4128,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M82"/>
+  <dimension ref="A1:M86"/>
   <sheetViews>
     <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -5428,487 +5443,509 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="21"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" s="35" customFormat="1">
-      <c r="A10" s="6">
+    <row r="9" spans="1:11" s="35" customFormat="1">
+      <c r="A9" s="6">
+        <v>151330034</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2">
+        <v>40</v>
+      </c>
+      <c r="D9" s="10">
+        <v>2400</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="2">
+        <v>615181</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="2">
+        <v>10</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="2">
+        <v>10</v>
+      </c>
+      <c r="K9" s="2">
+        <v>308.20229999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="21"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" s="35" customFormat="1">
+      <c r="A11" s="6">
         <v>151308917</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C11" s="2">
         <v>30</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D11" s="2">
         <v>4831</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F11" s="2">
         <v>615698</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H11" s="2">
         <v>20</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="2">
+      <c r="I11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="2">
         <v>0</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="35" customFormat="1">
-      <c r="A11" s="30">
+    <row r="12" spans="1:11" s="35" customFormat="1">
+      <c r="A12" s="30">
         <v>151315311</v>
       </c>
-      <c r="B11" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="31">
+      <c r="B12" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="31">
         <v>130</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D12" s="31">
         <v>4831</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E12" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F12" s="31">
         <v>615698</v>
       </c>
-      <c r="G11" s="31" t="s">
+      <c r="G12" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="H11" s="31">
-        <v>10</v>
-      </c>
-      <c r="I11" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="31">
+      <c r="H12" s="31">
+        <v>10</v>
+      </c>
+      <c r="I12" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="31">
         <v>0</v>
       </c>
-      <c r="K11" s="31" t="s">
+      <c r="K12" s="31" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="11"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-    </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="11">
+      <c r="A13" s="11"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="11">
         <v>151296157</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1">
         <v>20</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D14" s="25">
         <v>4700</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="E14" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H14" s="12">
         <v>2</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="12">
+      <c r="I14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="12">
         <v>0</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="K14" s="12" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1" t="s">
+    <row r="15" spans="1:11">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="11">
+      <c r="H15" s="12"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="11">
         <v>151296157</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="1">
-        <v>10</v>
-      </c>
-      <c r="D15" s="13">
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1">
+        <v>10</v>
+      </c>
+      <c r="D16" s="13">
         <v>3700</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E16" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F16" s="13">
         <v>615840</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H16" s="13">
         <v>2</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="13">
+      <c r="I16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="13">
         <v>0</v>
       </c>
-      <c r="K15" s="13" t="s">
+      <c r="K16" s="13" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="15"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-    </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="30">
+      <c r="A17" s="15"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="30">
         <v>151315311</v>
       </c>
-      <c r="B17" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="31">
+      <c r="B18" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="31">
         <v>120</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D18" s="32">
         <v>600</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="E18" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="F17" s="31" t="s">
+      <c r="F18" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="31" t="s">
+      <c r="G18" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="34">
+      <c r="H18" s="34">
         <v>20</v>
       </c>
-      <c r="I17" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" s="34">
+      <c r="I18" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="34">
         <v>0</v>
       </c>
-      <c r="K17" s="34" t="s">
+      <c r="K18" s="34" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-    </row>
-    <row r="19" spans="1:12" s="35" customFormat="1">
-      <c r="A19" s="11">
+    <row r="19" spans="1:12">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+    </row>
+    <row r="20" spans="1:12" s="35" customFormat="1">
+      <c r="A20" s="11">
         <v>151320915</v>
       </c>
-      <c r="B19" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="31">
-        <v>10</v>
-      </c>
-      <c r="D19" s="31">
+      <c r="B20" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="31">
+        <v>10</v>
+      </c>
+      <c r="D20" s="31">
         <v>5614</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="E20" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="F19" s="31">
+      <c r="F20" s="31">
         <v>616026</v>
       </c>
-      <c r="G19" s="31" t="s">
+      <c r="G20" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="H19" s="31">
-        <v>10</v>
-      </c>
-      <c r="I19" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" s="31">
+      <c r="H20" s="31">
+        <v>10</v>
+      </c>
+      <c r="I20" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="31">
         <v>0</v>
       </c>
-      <c r="K19" s="34" t="s">
+      <c r="K20" s="34" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="35" customFormat="1">
-      <c r="A20" s="6">
+    <row r="21" spans="1:12" s="35" customFormat="1">
+      <c r="A21" s="6">
         <v>151326603</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="2">
-        <v>10</v>
-      </c>
-      <c r="D20" s="2">
+      <c r="C21" s="2">
+        <v>10</v>
+      </c>
+      <c r="D21" s="2">
         <v>5614</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F21" s="2">
         <v>616026</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H21" s="2">
         <v>15</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="2">
+      <c r="I21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="2">
         <v>0</v>
       </c>
-      <c r="K20" s="5" t="s">
+      <c r="K21" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="35" customFormat="1">
+      <c r="A22" s="30">
+        <v>151328170</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="31">
+        <v>10</v>
+      </c>
+      <c r="D22" s="31">
+        <v>5614</v>
+      </c>
+      <c r="E22" s="33" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" s="35" customFormat="1">
-      <c r="A21" s="30">
-        <v>151328170</v>
-      </c>
-      <c r="B21" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="31">
-        <v>10</v>
-      </c>
-      <c r="D21" s="31">
+      <c r="F22" s="31">
+        <v>616026</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" s="31">
+        <v>20</v>
+      </c>
+      <c r="I22" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="31">
+        <v>0</v>
+      </c>
+      <c r="K22" s="34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="35" customFormat="1">
+      <c r="A23" s="6">
+        <v>151330034</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="2">
+        <v>30</v>
+      </c>
+      <c r="D23" s="2">
         <v>5614</v>
       </c>
-      <c r="E21" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="F21" s="31">
+      <c r="E23" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F23" s="2">
         <v>616026</v>
       </c>
-      <c r="G21" s="31" t="s">
+      <c r="G23" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H21" s="31">
+      <c r="H23" s="2">
+        <v>10</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="2">
+        <v>10</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="35" customFormat="1">
+      <c r="A24" s="11"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="34"/>
+    </row>
+    <row r="25" spans="1:12" s="35" customFormat="1">
+      <c r="A25" s="11">
+        <v>151322710</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="31">
+        <v>50</v>
+      </c>
+      <c r="D25" s="34">
+        <v>6521</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="H25" s="34">
         <v>20</v>
       </c>
-      <c r="I21" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="31">
+      <c r="I25" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" s="34">
         <v>0</v>
       </c>
-      <c r="K21" s="34" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="35" customFormat="1">
-      <c r="A22" s="11"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="34"/>
-    </row>
-    <row r="23" spans="1:12" s="35" customFormat="1">
-      <c r="A23" s="11">
-        <v>151322710</v>
-      </c>
-      <c r="B23" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="31">
-        <v>50</v>
-      </c>
-      <c r="D23" s="34">
-        <v>6521</v>
-      </c>
-      <c r="E23" s="33" t="s">
+      <c r="K25" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="F23" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="H23" s="34">
-        <v>20</v>
-      </c>
-      <c r="I23" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" s="34">
-        <v>0</v>
-      </c>
-      <c r="K23" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="L23" s="55"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="11"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-    </row>
-    <row r="25" spans="1:12" s="35" customFormat="1">
-      <c r="A25" s="30">
-        <v>151315311</v>
-      </c>
-      <c r="B25" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="31">
-        <v>90</v>
-      </c>
-      <c r="D25" s="31">
-        <v>4048</v>
-      </c>
-      <c r="E25" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="F25" s="31">
-        <v>630059</v>
-      </c>
-      <c r="G25" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="H25" s="31">
-        <v>20</v>
-      </c>
-      <c r="I25" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J25" s="31">
-        <v>0</v>
-      </c>
-      <c r="K25" s="31" t="s">
-        <v>105</v>
-      </c>
+      <c r="L25" s="55"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="11"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="26"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="H26" s="12"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
     </row>
     <row r="27" spans="1:12" s="35" customFormat="1">
       <c r="A27" s="30">
-        <v>151322391</v>
+        <v>151315311</v>
       </c>
       <c r="B27" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C27" s="31">
-        <v>10</v>
-      </c>
-      <c r="D27" s="58">
-        <v>5738</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="F27" s="30">
-        <v>632215</v>
-      </c>
-      <c r="G27" s="30" t="s">
-        <v>70</v>
+        <v>90</v>
+      </c>
+      <c r="D27" s="31">
+        <v>4048</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="F27" s="31">
+        <v>630059</v>
+      </c>
+      <c r="G27" s="31" t="s">
+        <v>69</v>
       </c>
       <c r="H27" s="31">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I27" s="31" t="s">
         <v>12</v>
@@ -5916,196 +5953,196 @@
       <c r="J27" s="31">
         <v>0</v>
       </c>
-      <c r="K27" s="30" t="s">
-        <v>108</v>
+      <c r="K27" s="31" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="35" customFormat="1">
       <c r="A28" s="6">
-        <v>151326603</v>
+        <v>151330034</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C28" s="2">
-        <v>30</v>
-      </c>
-      <c r="D28" s="65">
-        <v>5738</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="F28" s="6">
-        <v>632215</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>70</v>
+        <v>10</v>
+      </c>
+      <c r="D28" s="2">
+        <v>4048</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" s="2">
+        <v>630059</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="H28" s="2">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J28" s="2">
-        <v>0</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="12" customHeight="1">
+        <v>15</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="11"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="11"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="11">
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:12" s="35" customFormat="1">
+      <c r="A30" s="6">
+        <v>151330034</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="2">
+        <v>50</v>
+      </c>
+      <c r="D30" s="65">
+        <v>5738</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F30" s="6">
+        <v>632215</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H30" s="2">
+        <v>5</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J30" s="2">
+        <v>5</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="12" customHeight="1">
+      <c r="A31" s="11"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="11"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="11">
         <v>151110116</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="1">
+      <c r="B32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="1">
         <v>60</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D32" s="13">
         <v>3450</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E32" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F32" s="13">
         <v>634355</v>
       </c>
-      <c r="G30" s="13" t="s">
+      <c r="G32" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H30" s="13">
-        <v>10</v>
-      </c>
-      <c r="I30" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J30" s="13">
-        <v>10</v>
-      </c>
-      <c r="K30" s="13" t="s">
+      <c r="H32" s="13">
+        <v>10</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32" s="13">
+        <v>10</v>
+      </c>
+      <c r="K32" s="13" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="12"/>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="2">
+    <row r="33" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="12"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="2">
         <v>151008992</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C34" s="2">
         <v>20</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D34" s="10">
         <v>4726</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F34" s="2">
         <v>635655</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H32" s="2">
-        <v>10</v>
-      </c>
-      <c r="I32" s="2" t="s">
+      <c r="H34" s="2">
+        <v>10</v>
+      </c>
+      <c r="I34" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J34" s="2">
         <v>0</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="K34" s="2" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-    </row>
-    <row r="34" spans="1:11" s="35" customFormat="1">
-      <c r="A34" s="30">
-        <v>151302474</v>
-      </c>
-      <c r="B34" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="31">
-        <v>40</v>
-      </c>
-      <c r="D34" s="59">
-        <v>2818</v>
-      </c>
-      <c r="E34" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="F34" s="30">
-        <v>635656</v>
-      </c>
-      <c r="G34" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="H34" s="31">
-        <v>15</v>
-      </c>
-      <c r="I34" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="J34" s="31">
-        <v>0</v>
-      </c>
-      <c r="K34" s="31" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
+      <c r="C35" s="45"/>
       <c r="D35" s="27"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="11"/>
+      <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -6120,127 +6157,127 @@
         <v>10</v>
       </c>
       <c r="C36" s="31">
-        <v>50</v>
-      </c>
-      <c r="D36" s="58">
-        <v>3555</v>
-      </c>
-      <c r="E36" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="59">
+        <v>2818</v>
+      </c>
+      <c r="E36" s="31" t="s">
         <v>89</v>
       </c>
       <c r="F36" s="30">
-        <v>646872</v>
-      </c>
-      <c r="G36" s="30" t="s">
-        <v>71</v>
+        <v>635656</v>
+      </c>
+      <c r="G36" s="31" t="s">
+        <v>60</v>
       </c>
       <c r="H36" s="31">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I36" s="31" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="J36" s="31">
         <v>0</v>
       </c>
-      <c r="K36" s="30" t="s">
+      <c r="K36" s="31" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="11"/>
+      <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="11"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="1"/>
       <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
+      <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
-      <c r="K37" s="11"/>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="11">
-        <v>151110116</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" s="1">
-        <v>40</v>
-      </c>
-      <c r="D38" s="25">
-        <v>112</v>
-      </c>
-      <c r="E38" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H38" s="12">
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="1:11" s="35" customFormat="1">
+      <c r="A38" s="30">
+        <v>151302474</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="31">
         <v>50</v>
       </c>
-      <c r="I38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J38" s="12">
+      <c r="D38" s="58">
+        <v>3555</v>
+      </c>
+      <c r="E38" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="F38" s="30">
+        <v>646872</v>
+      </c>
+      <c r="G38" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="H38" s="31">
+        <v>10</v>
+      </c>
+      <c r="I38" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" s="31">
         <v>0</v>
       </c>
-      <c r="K38" s="12" t="s">
-        <v>64</v>
+      <c r="K38" s="30" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="1"/>
+      <c r="A39" s="11"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="12"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="11"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="22">
-        <v>151197029</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" s="2">
-        <v>60</v>
-      </c>
-      <c r="D40" s="3">
-        <v>3510</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F40" s="2">
-        <v>663091</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H40" s="5">
-        <v>2</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J40" s="5">
+      <c r="A40" s="11">
+        <v>151110116</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="1">
+        <v>40</v>
+      </c>
+      <c r="D40" s="25">
+        <v>112</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H40" s="12">
+        <v>50</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J40" s="12">
         <v>0</v>
       </c>
-      <c r="K40" s="5" t="s">
-        <v>74</v>
+      <c r="K40" s="12" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -6257,26 +6294,26 @@
       <c r="K41" s="12"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="6">
-        <v>151090350</v>
+      <c r="A42" s="22">
+        <v>151197029</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C42" s="2">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="D42" s="3">
-        <v>5130</v>
+        <v>3510</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="F42" s="2">
-        <v>663092</v>
+        <v>663091</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H42" s="5">
         <v>2</v>
@@ -6288,7 +6325,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -6304,27 +6341,27 @@
       <c r="J43" s="12"/>
       <c r="K43" s="12"/>
     </row>
-    <row r="44" spans="1:11" s="35" customFormat="1">
+    <row r="44" spans="1:11">
       <c r="A44" s="6">
-        <v>151308917</v>
+        <v>151090350</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C44" s="2">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="D44" s="3">
-        <v>6615</v>
+        <v>5130</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="F44" s="2">
-        <v>663093</v>
+        <v>663092</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H44" s="5">
         <v>2</v>
@@ -6336,10 +6373,10 @@
         <v>0</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="13.5" customHeight="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -6352,332 +6389,351 @@
       <c r="J45" s="12"/>
       <c r="K45" s="12"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" s="35" customFormat="1">
       <c r="A46" s="6">
-        <v>151326603</v>
+        <v>151308917</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C46" s="2">
+        <v>60</v>
+      </c>
+      <c r="D46" s="3">
+        <v>6615</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F46" s="2">
+        <v>663093</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H46" s="5">
+        <v>2</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J46" s="5">
+        <v>0</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="35" customFormat="1">
+      <c r="A47" s="6">
+        <v>151330034</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="2">
+        <v>60</v>
+      </c>
+      <c r="D47" s="3">
+        <v>6615</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F47" s="2">
+        <v>663093</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H47" s="5">
+        <v>10</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J47" s="5">
+        <v>10</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="6">
+        <v>151326603</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="2">
         <v>20</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D49" s="3">
         <v>6000</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E49" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F49" s="2">
         <v>668330</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="G49" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H46" s="5">
+      <c r="H49" s="5">
         <v>9</v>
       </c>
-      <c r="I46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J46" s="5">
+      <c r="I49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J49" s="5">
         <v>7</v>
       </c>
-      <c r="K46" s="5" t="s">
+      <c r="K49" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="35" customFormat="1">
-      <c r="A47" s="36"/>
-      <c r="B47" s="47"/>
-      <c r="C47" s="47"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="47"/>
-      <c r="H47" s="50"/>
-      <c r="I47" s="47"/>
-      <c r="J47" s="50"/>
-      <c r="K47" s="50"/>
-    </row>
-    <row r="48" spans="1:11" s="35" customFormat="1">
-      <c r="A48" s="11">
+    <row r="50" spans="1:13" s="35" customFormat="1">
+      <c r="A50" s="36"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="47"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="47"/>
+      <c r="H50" s="50"/>
+      <c r="I50" s="47"/>
+      <c r="J50" s="50"/>
+      <c r="K50" s="50"/>
+    </row>
+    <row r="51" spans="1:13" s="35" customFormat="1">
+      <c r="A51" s="11">
         <v>151306604</v>
       </c>
-      <c r="B48" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48" s="31">
-        <v>10</v>
-      </c>
-      <c r="D48" s="32">
+      <c r="B51" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="31">
+        <v>10</v>
+      </c>
+      <c r="D51" s="32">
         <v>9703</v>
       </c>
-      <c r="E48" s="33" t="s">
+      <c r="E51" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="F48" s="30">
+      <c r="F51" s="30">
         <v>681149</v>
       </c>
-      <c r="G48" s="30" t="s">
+      <c r="G51" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="H48" s="34">
+      <c r="H51" s="34">
         <v>1</v>
       </c>
-      <c r="I48" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J48" s="34">
+      <c r="I51" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J51" s="34">
         <v>0</v>
       </c>
-      <c r="K48" s="33" t="s">
+      <c r="K51" s="33" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
-      <c r="A49" s="38" t="s">
+    <row r="52" spans="1:13">
+      <c r="A52" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="42"/>
-      <c r="I49" s="39"/>
-      <c r="J49" s="42"/>
-      <c r="K49" s="42"/>
-    </row>
-    <row r="50" spans="1:13" s="35" customFormat="1">
-      <c r="A50" s="11">
+      <c r="B52" s="39"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="42"/>
+      <c r="K52" s="42"/>
+    </row>
+    <row r="53" spans="1:13" s="35" customFormat="1">
+      <c r="A53" s="11">
         <v>151322710</v>
       </c>
-      <c r="B50" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" s="31">
+      <c r="B53" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="31">
         <v>40</v>
       </c>
-      <c r="D50" s="32">
+      <c r="D53" s="32">
         <v>1908</v>
       </c>
-      <c r="E50" s="33" t="s">
+      <c r="E53" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="F53" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G53" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H53" s="34">
+        <v>30</v>
+      </c>
+      <c r="I53" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J53" s="34">
+        <v>0</v>
+      </c>
+      <c r="K53" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="F50" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="G50" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="H50" s="34">
-        <v>30</v>
-      </c>
-      <c r="I50" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J50" s="34">
+    </row>
+    <row r="54" spans="1:13" s="35" customFormat="1">
+      <c r="A54" s="11"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="34"/>
+      <c r="K54" s="34"/>
+    </row>
+    <row r="55" spans="1:13" s="35" customFormat="1">
+      <c r="A55" s="6">
+        <v>151288592</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="2">
+        <v>10</v>
+      </c>
+      <c r="D55" s="3">
+        <v>8463</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F55" s="6">
+        <v>687349</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H55" s="5">
+        <v>10</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J55" s="5">
         <v>0</v>
       </c>
-      <c r="K50" s="34" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" s="35" customFormat="1">
-      <c r="A51" s="11"/>
-      <c r="B51" s="31"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="34"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="34"/>
-      <c r="K51" s="34"/>
-    </row>
-    <row r="52" spans="1:13" s="35" customFormat="1">
-      <c r="A52" s="6">
-        <v>151288592</v>
-      </c>
-      <c r="B52" s="2" t="s">
+      <c r="K55" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" s="35" customFormat="1" ht="15">
+      <c r="A56" s="66">
+        <v>151330034</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="2">
-        <v>10</v>
-      </c>
-      <c r="D52" s="3">
+      <c r="C56" s="2">
+        <v>20</v>
+      </c>
+      <c r="D56" s="3">
         <v>8463</v>
       </c>
-      <c r="E52" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F52" s="6">
+      <c r="E56" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F56" s="6">
         <v>687349</v>
       </c>
-      <c r="G52" s="6" t="s">
+      <c r="G56" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H52" s="5">
-        <v>10</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J52" s="5">
+      <c r="H56" s="5">
+        <v>10</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J56" s="5">
+        <v>10</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" s="35" customFormat="1">
+      <c r="A57" s="30"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="56"/>
+      <c r="H57" s="34"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="34"/>
+      <c r="K57" s="34"/>
+    </row>
+    <row r="58" spans="1:13" s="35" customFormat="1">
+      <c r="A58" s="6">
+        <v>151242082</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" s="2">
+        <v>10</v>
+      </c>
+      <c r="D58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F58" s="6">
+        <v>691660</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H58" s="5">
+        <v>1</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J58" s="5">
         <v>0</v>
       </c>
-      <c r="K52" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" s="35" customFormat="1">
-      <c r="A53" s="30"/>
-      <c r="B53" s="31"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="56"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="31"/>
-      <c r="J53" s="34"/>
-      <c r="K53" s="34"/>
-    </row>
-    <row r="54" spans="1:13" s="35" customFormat="1">
-      <c r="A54" s="6">
-        <v>151242082</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C54" s="2">
-        <v>10</v>
-      </c>
-      <c r="D54" s="3">
-        <v>1600</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F54" s="6">
-        <v>691660</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H54" s="5">
-        <v>1</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J54" s="5">
-        <v>0</v>
-      </c>
-      <c r="K54" s="5" t="s">
+      <c r="K58" s="5" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
-    </row>
-    <row r="56" spans="1:13" s="46" customFormat="1">
-      <c r="A56" s="11">
-        <v>151314792</v>
-      </c>
-      <c r="B56" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C56" s="31">
-        <v>10</v>
-      </c>
-      <c r="D56" s="32">
-        <v>565</v>
-      </c>
-      <c r="E56" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="F56" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="G56" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="H56" s="34">
-        <v>100</v>
-      </c>
-      <c r="I56" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J56" s="34">
-        <v>0</v>
-      </c>
-      <c r="K56" s="34" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
-      <c r="M57" s="24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
-      <c r="A58" s="18">
-        <v>151264212</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C58" s="18">
-        <v>10</v>
-      </c>
-      <c r="D58" s="51">
-        <v>10710</v>
-      </c>
-      <c r="E58" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="F58" s="18">
-        <v>704681</v>
-      </c>
-      <c r="G58" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="H58" s="19">
-        <v>1</v>
-      </c>
-      <c r="I58" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="J58" s="19">
-        <v>0</v>
-      </c>
-      <c r="K58" s="19" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -6687,45 +6743,45 @@
       <c r="D59" s="25"/>
       <c r="E59" s="26"/>
       <c r="F59" s="1"/>
-      <c r="G59" s="56"/>
+      <c r="G59" s="1"/>
       <c r="H59" s="12"/>
       <c r="I59" s="1"/>
       <c r="J59" s="12"/>
       <c r="K59" s="12"/>
     </row>
-    <row r="60" spans="1:13">
-      <c r="A60" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D60" s="25">
-        <v>4995</v>
-      </c>
-      <c r="E60" s="26">
-        <v>44223</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H60" s="12">
-        <v>2</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J60" s="12">
+    <row r="60" spans="1:13" s="46" customFormat="1">
+      <c r="A60" s="11">
+        <v>151314792</v>
+      </c>
+      <c r="B60" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="31">
+        <v>10</v>
+      </c>
+      <c r="D60" s="32">
+        <v>565</v>
+      </c>
+      <c r="E60" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="F60" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G60" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="H60" s="34">
+        <v>100</v>
+      </c>
+      <c r="I60" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J60" s="34">
         <v>0</v>
       </c>
-      <c r="K60" s="12" t="s">
-        <v>41</v>
+      <c r="K60" s="34" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -6740,40 +6796,43 @@
       <c r="I61" s="1"/>
       <c r="J61" s="12"/>
       <c r="K61" s="12"/>
+      <c r="M61" s="24" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D62" s="25">
-        <v>4245</v>
-      </c>
-      <c r="E62" s="26">
-        <v>44223</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H62" s="12">
-        <v>2</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J62" s="12">
+      <c r="A62" s="18">
+        <v>151264212</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" s="18">
+        <v>10</v>
+      </c>
+      <c r="D62" s="51">
+        <v>10710</v>
+      </c>
+      <c r="E62" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="F62" s="18">
+        <v>704681</v>
+      </c>
+      <c r="G62" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="H62" s="19">
+        <v>1</v>
+      </c>
+      <c r="I62" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J62" s="19">
         <v>0</v>
       </c>
-      <c r="K62" s="12" t="s">
-        <v>41</v>
+      <c r="K62" s="19" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -6783,330 +6842,330 @@
       <c r="D63" s="25"/>
       <c r="E63" s="26"/>
       <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
+      <c r="G63" s="56"/>
       <c r="H63" s="12"/>
       <c r="I63" s="1"/>
       <c r="J63" s="12"/>
       <c r="K63" s="12"/>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="20">
+      <c r="A64" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D64" s="25">
+        <v>4995</v>
+      </c>
+      <c r="E64" s="26">
+        <v>44223</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H64" s="12">
+        <v>2</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J64" s="12">
+        <v>0</v>
+      </c>
+      <c r="K64" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12"/>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" s="25">
+        <v>4245</v>
+      </c>
+      <c r="E66" s="26">
+        <v>44223</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H66" s="12">
+        <v>2</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J66" s="12">
+        <v>0</v>
+      </c>
+      <c r="K66" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="20">
         <v>151113088</v>
       </c>
-      <c r="B64" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="C64" s="61">
-        <v>10</v>
-      </c>
-      <c r="D64" s="62">
+      <c r="B68" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" s="61">
+        <v>10</v>
+      </c>
+      <c r="D68" s="62">
         <v>1896</v>
       </c>
-      <c r="E64" s="63">
+      <c r="E68" s="63">
         <v>44487</v>
       </c>
-      <c r="F64" s="61">
+      <c r="F68" s="61">
         <v>716663</v>
       </c>
-      <c r="G64" s="61" t="s">
+      <c r="G68" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="H64" s="64">
+      <c r="H68" s="64">
         <v>5</v>
       </c>
-      <c r="I64" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="J64" s="64">
+      <c r="I68" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="J68" s="64">
         <v>0</v>
       </c>
-      <c r="K64" s="64" t="s">
+      <c r="K68" s="64" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="6">
+    <row r="69" spans="1:11">
+      <c r="A69" s="6">
         <v>151326492</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B69" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C65" s="2">
-        <v>10</v>
-      </c>
-      <c r="D65" s="3">
+      <c r="C69" s="2">
+        <v>10</v>
+      </c>
+      <c r="D69" s="3">
         <v>1896</v>
       </c>
-      <c r="E65" s="4" t="s">
+      <c r="E69" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F65" s="2">
+      <c r="F69" s="2">
         <v>716663</v>
       </c>
-      <c r="G65" s="2" t="s">
+      <c r="G69" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H65" s="5">
+      <c r="H69" s="5">
         <v>3</v>
       </c>
-      <c r="I65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J65" s="5">
+      <c r="I69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J69" s="5">
         <v>3</v>
       </c>
-      <c r="K65" s="5" t="s">
+      <c r="K69" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="25"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="12"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="12"/>
-      <c r="K66" s="12"/>
-    </row>
-    <row r="67" spans="1:11" s="35" customFormat="1">
-      <c r="A67" s="30">
-        <v>151280693</v>
-      </c>
-      <c r="B67" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="C67" s="53">
-        <v>30</v>
-      </c>
-      <c r="D67" s="53">
-        <v>45000</v>
-      </c>
-      <c r="E67" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="F67" s="53">
-        <v>719031</v>
-      </c>
-      <c r="G67" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="H67" s="54">
-        <v>20</v>
-      </c>
-      <c r="I67" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="J67" s="54">
-        <v>14</v>
-      </c>
-      <c r="K67" s="54" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" s="35" customFormat="1">
-      <c r="A68" s="6">
-        <v>151308917</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C68" s="7">
-        <v>10</v>
-      </c>
-      <c r="D68" s="7">
-        <v>45000</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F68" s="7">
-        <v>719031</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H68" s="60">
-        <v>1</v>
-      </c>
-      <c r="I68" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J68" s="60">
-        <v>1</v>
-      </c>
-      <c r="K68" s="60" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" s="35" customFormat="1">
-      <c r="A69" s="6">
-        <v>151283046</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C69" s="7">
-        <v>10</v>
-      </c>
-      <c r="D69" s="7">
-        <v>45000</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F69" s="7">
-        <v>719031</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H69" s="60">
-        <v>2</v>
-      </c>
-      <c r="I69" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J69" s="60">
-        <v>2</v>
-      </c>
-      <c r="K69" s="60" t="s">
-        <v>90</v>
-      </c>
-    </row>
     <row r="70" spans="1:11">
-      <c r="A70" s="38"/>
-      <c r="B70" s="43"/>
-      <c r="C70" s="43"/>
-      <c r="D70" s="43"/>
-      <c r="E70" s="43"/>
-      <c r="F70" s="43"/>
-      <c r="G70" s="43"/>
-      <c r="H70" s="44"/>
-      <c r="I70" s="43"/>
-      <c r="J70" s="44"/>
-      <c r="K70" s="44"/>
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12"/>
     </row>
     <row r="71" spans="1:11" s="35" customFormat="1">
       <c r="A71" s="30">
+        <v>151280693</v>
+      </c>
+      <c r="B71" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="53">
+        <v>30</v>
+      </c>
+      <c r="D71" s="53">
+        <v>45000</v>
+      </c>
+      <c r="E71" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="F71" s="53">
+        <v>719031</v>
+      </c>
+      <c r="G71" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" s="54">
+        <v>20</v>
+      </c>
+      <c r="I71" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J71" s="54">
+        <v>14</v>
+      </c>
+      <c r="K71" s="54" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" s="35" customFormat="1">
+      <c r="A72" s="6">
+        <v>151308917</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" s="7">
+        <v>10</v>
+      </c>
+      <c r="D72" s="7">
+        <v>45000</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F72" s="7">
+        <v>719031</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" s="60">
+        <v>1</v>
+      </c>
+      <c r="I72" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J72" s="60">
+        <v>1</v>
+      </c>
+      <c r="K72" s="60" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" s="35" customFormat="1">
+      <c r="A73" s="6">
+        <v>151283046</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C73" s="7">
+        <v>10</v>
+      </c>
+      <c r="D73" s="7">
+        <v>45000</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F73" s="7">
+        <v>719031</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" s="60">
+        <v>2</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J73" s="60">
+        <v>2</v>
+      </c>
+      <c r="K73" s="60" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="38"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="43"/>
+      <c r="D74" s="43"/>
+      <c r="E74" s="43"/>
+      <c r="F74" s="43"/>
+      <c r="G74" s="43"/>
+      <c r="H74" s="44"/>
+      <c r="I74" s="43"/>
+      <c r="J74" s="44"/>
+      <c r="K74" s="44"/>
+    </row>
+    <row r="75" spans="1:11" s="35" customFormat="1">
+      <c r="A75" s="30">
         <v>151315311</v>
       </c>
-      <c r="B71" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C71" s="31">
+      <c r="B75" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="31">
         <v>30</v>
       </c>
-      <c r="D71" s="58">
+      <c r="D75" s="58">
         <v>9999</v>
       </c>
-      <c r="E71" s="30" t="s">
+      <c r="E75" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="F71" s="30">
+      <c r="F75" s="30">
         <v>719381</v>
       </c>
-      <c r="G71" s="30" t="s">
+      <c r="G75" s="30" t="s">
         <v>49</v>
-      </c>
-      <c r="H71" s="31">
-        <v>10</v>
-      </c>
-      <c r="I71" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J71" s="31">
-        <v>0</v>
-      </c>
-      <c r="K71" s="30" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
-      <c r="A72" s="11"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="11"/>
-    </row>
-    <row r="73" spans="1:11">
-      <c r="A73" s="22">
-        <v>151308917</v>
-      </c>
-      <c r="B73" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="C73" s="57">
-        <v>20</v>
-      </c>
-      <c r="D73" s="7">
-        <v>6800</v>
-      </c>
-      <c r="E73" s="57" t="s">
-        <v>91</v>
-      </c>
-      <c r="F73" s="7">
-        <v>720138</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H73" s="57">
-        <v>1</v>
-      </c>
-      <c r="I73" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="J73" s="57">
-        <v>0</v>
-      </c>
-      <c r="K73" s="57" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
-      <c r="A74" s="1"/>
-      <c r="B74" s="39"/>
-      <c r="C74" s="39"/>
-      <c r="D74" s="39"/>
-      <c r="E74" s="39"/>
-      <c r="F74" s="39"/>
-      <c r="G74" s="39"/>
-      <c r="H74" s="39"/>
-      <c r="I74" s="39"/>
-      <c r="J74" s="39"/>
-      <c r="K74" s="39"/>
-    </row>
-    <row r="75" spans="1:11" s="35" customFormat="1">
-      <c r="A75" s="11">
-        <v>151322392</v>
-      </c>
-      <c r="B75" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C75" s="31">
-        <v>10</v>
-      </c>
-      <c r="D75" s="31">
-        <v>2490</v>
-      </c>
-      <c r="E75" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="F75" s="30">
-        <v>724214</v>
-      </c>
-      <c r="G75" s="30" t="s">
-        <v>58</v>
       </c>
       <c r="H75" s="31">
         <v>10</v>
@@ -7117,61 +7176,74 @@
       <c r="J75" s="31">
         <v>0</v>
       </c>
-      <c r="K75" s="31" t="s">
-        <v>109</v>
+      <c r="K75" s="30" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="1"/>
+      <c r="A76" s="11"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
+      <c r="K76" s="11"/>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="1">
-        <v>16063532</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C77" s="1">
-        <v>10</v>
-      </c>
-      <c r="D77" s="1">
-        <v>2900</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F77" s="1">
-        <v>725828</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H77" s="1">
-        <v>10</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J77" s="1">
+      <c r="A77" s="22">
+        <v>151308917</v>
+      </c>
+      <c r="B77" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="57">
+        <v>20</v>
+      </c>
+      <c r="D77" s="7">
+        <v>6800</v>
+      </c>
+      <c r="E77" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="F77" s="7">
+        <v>720138</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H77" s="57">
+        <v>1</v>
+      </c>
+      <c r="I77" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="J77" s="57">
         <v>0</v>
       </c>
-      <c r="K77" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="K77" s="57" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="1"/>
+      <c r="B78" s="39"/>
+      <c r="C78" s="39"/>
+      <c r="D78" s="39"/>
+      <c r="E78" s="39"/>
+      <c r="F78" s="39"/>
+      <c r="G78" s="39"/>
+      <c r="H78" s="39"/>
+      <c r="I78" s="39"/>
+      <c r="J78" s="39"/>
+      <c r="K78" s="39"/>
     </row>
     <row r="79" spans="1:11" s="35" customFormat="1">
-      <c r="A79" s="30">
-        <v>151315311</v>
+      <c r="A79" s="11">
+        <v>151322392</v>
       </c>
       <c r="B79" s="31" t="s">
         <v>10</v>
@@ -7180,32 +7252,115 @@
         <v>10</v>
       </c>
       <c r="D79" s="31">
-        <v>100</v>
+        <v>2490</v>
       </c>
       <c r="E79" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="F79" s="31">
-        <v>728488</v>
+        <v>99</v>
+      </c>
+      <c r="F79" s="30">
+        <v>724214</v>
       </c>
       <c r="G79" s="30" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H79" s="31">
         <v>10</v>
       </c>
       <c r="I79" s="31" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="J79" s="31">
         <v>0</v>
       </c>
       <c r="K79" s="31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="1">
+        <v>16063532</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" s="1">
+        <v>10</v>
+      </c>
+      <c r="D81" s="1">
+        <v>2900</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F81" s="1">
+        <v>725828</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H81" s="1">
+        <v>10</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J81" s="1">
+        <v>0</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" s="35" customFormat="1">
+      <c r="A83" s="30">
+        <v>151315311</v>
+      </c>
+      <c r="B83" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" s="31">
+        <v>10</v>
+      </c>
+      <c r="D83" s="31">
+        <v>100</v>
+      </c>
+      <c r="E83" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="F83" s="31">
+        <v>728488</v>
+      </c>
+      <c r="G83" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="H83" s="31">
+        <v>10</v>
+      </c>
+      <c r="I83" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="J83" s="31">
+        <v>0</v>
+      </c>
+      <c r="K83" s="31" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="82" spans="6:6">
-      <c r="F82" s="17"/>
+    <row r="86" spans="1:11">
+      <c r="F86" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Updated PO.xlsx
+++ b/Updated PO.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="110">
   <si>
     <t>Purchasing Document</t>
   </si>
@@ -305,21 +305,12 @@
     <t>16.03.2023</t>
   </si>
   <si>
-    <t>31.01.2023</t>
-  </si>
-  <si>
-    <t>13.03.2023</t>
-  </si>
-  <si>
     <t>17.05.2023</t>
   </si>
   <si>
     <t>20.03.2023</t>
   </si>
   <si>
-    <t>10.05.2023</t>
-  </si>
-  <si>
     <t>14.06.2023</t>
   </si>
   <si>
@@ -329,12 +320,6 @@
     <t>15.04.2023</t>
   </si>
   <si>
-    <t>13.04.2023</t>
-  </si>
-  <si>
-    <t>29.03.2023</t>
-  </si>
-  <si>
     <t>26.04.2023</t>
   </si>
   <si>
@@ -347,12 +332,6 @@
     <t>15.05.2023</t>
   </si>
   <si>
-    <t>12.04.2023</t>
-  </si>
-  <si>
-    <t>11.07.2023</t>
-  </si>
-  <si>
     <t>12.05.2023</t>
   </si>
   <si>
@@ -362,15 +341,6 @@
     <t>01.06.2023</t>
   </si>
   <si>
-    <t>26.05.2023</t>
-  </si>
-  <si>
-    <t>02.05.2023</t>
-  </si>
-  <si>
-    <t>31.07.2023</t>
-  </si>
-  <si>
     <t>05.05.2023</t>
   </si>
   <si>
@@ -381,13 +351,19 @@
   </si>
   <si>
     <t>09.05.2023</t>
+  </si>
+  <si>
+    <t>11.05.2023</t>
+  </si>
+  <si>
+    <t>10.06.2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,11 +409,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial  "/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica"/>
     </font>
   </fonts>
   <fills count="5">
@@ -530,7 +501,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -721,7 +692,6 @@
     <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1026,10 +996,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M82"/>
+  <dimension ref="A1:M78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2307,966 +2277,946 @@
       <c r="K7" s="42"/>
     </row>
     <row r="8" spans="1:11" s="35" customFormat="1">
-      <c r="A8" s="30">
+      <c r="A8" s="6">
+        <v>151330034</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2">
+        <v>40</v>
+      </c>
+      <c r="D8" s="10">
+        <v>2400</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="2">
+        <v>615181</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="2">
+        <v>10</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>308.20229999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="21"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" s="35" customFormat="1">
+      <c r="A10" s="30">
         <v>151315311</v>
       </c>
-      <c r="B8" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="31">
-        <v>140</v>
-      </c>
-      <c r="D8" s="59">
-        <v>2400</v>
-      </c>
-      <c r="E8" s="31" t="s">
+      <c r="B10" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="31">
+        <v>130</v>
+      </c>
+      <c r="D10" s="31">
+        <v>4831</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="31">
+        <v>615698</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="31">
+        <v>10</v>
+      </c>
+      <c r="I10" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="31">
+        <v>0</v>
+      </c>
+      <c r="K10" s="31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="11"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="11">
+        <v>151296157</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
+        <v>20</v>
+      </c>
+      <c r="D12" s="25">
+        <v>4700</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="12">
+        <v>2</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="11">
+        <v>151296157</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1">
+        <v>10</v>
+      </c>
+      <c r="D14" s="13">
+        <v>3700</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="13">
+        <v>615840</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="13">
+        <v>2</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="13">
+        <v>0</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="15"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="30">
+        <v>151315311</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="31">
+        <v>120</v>
+      </c>
+      <c r="D16" s="32">
+        <v>600</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="34">
+        <v>20</v>
+      </c>
+      <c r="I16" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="34">
+        <v>0</v>
+      </c>
+      <c r="K16" s="34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+    </row>
+    <row r="18" spans="1:12" s="35" customFormat="1">
+      <c r="A18" s="6">
+        <v>151330034</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2">
+        <v>30</v>
+      </c>
+      <c r="D18" s="2">
+        <v>5614</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" s="2">
+        <v>616026</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" s="2">
+        <v>10</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="2">
+        <v>2</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="35" customFormat="1">
+      <c r="A19" s="11"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="34"/>
+    </row>
+    <row r="20" spans="1:12" s="35" customFormat="1">
+      <c r="A20" s="11">
+        <v>151322710</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="31">
+        <v>50</v>
+      </c>
+      <c r="D20" s="34">
+        <v>6521</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" s="34">
+        <v>20</v>
+      </c>
+      <c r="I20" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="34">
+        <v>0</v>
+      </c>
+      <c r="K20" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="F8" s="31">
-        <v>615181</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="31">
+      <c r="L20" s="55"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="11"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+    </row>
+    <row r="22" spans="1:12" s="35" customFormat="1">
+      <c r="A22" s="6">
+        <v>151330034</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="2">
+        <v>10</v>
+      </c>
+      <c r="D22" s="2">
+        <v>4048</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="2">
+        <v>630059</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" s="2">
         <v>15</v>
       </c>
-      <c r="I8" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="31">
-        <v>1</v>
-      </c>
-      <c r="K8" s="31" t="s">
+      <c r="I22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="2">
+        <v>8</v>
+      </c>
+      <c r="K22" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="35" customFormat="1">
-      <c r="A9" s="6">
+    <row r="23" spans="1:12">
+      <c r="A23" s="11"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" s="35" customFormat="1">
+      <c r="A24" s="6">
         <v>151330034</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C24" s="2">
+        <v>50</v>
+      </c>
+      <c r="D24" s="65">
+        <v>5738</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F24" s="6">
+        <v>632215</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" s="2">
+        <v>5</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="12" customHeight="1">
+      <c r="A25" s="11"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="11"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="11">
+        <v>151110116</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="1">
+        <v>60</v>
+      </c>
+      <c r="D26" s="13">
+        <v>3450</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="13">
+        <v>634355</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" s="13">
+        <v>10</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" s="13">
+        <v>10</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="12"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="2">
+        <v>151008992</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="2">
+        <v>20</v>
+      </c>
+      <c r="D28" s="10">
+        <v>4726</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="2">
+        <v>635655</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" s="2">
+        <v>10</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:12" s="35" customFormat="1">
+      <c r="A30" s="30">
+        <v>151302474</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="31">
         <v>40</v>
       </c>
-      <c r="D9" s="10">
-        <v>2400</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F9" s="2">
-        <v>615181</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="2">
-        <v>10</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="2">
-        <v>10</v>
-      </c>
-      <c r="K9" s="2">
-        <v>308.20229999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="21"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" s="35" customFormat="1">
-      <c r="A11" s="30">
-        <v>151315311</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="31">
-        <v>130</v>
-      </c>
-      <c r="D11" s="31">
-        <v>4831</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="F11" s="31">
-        <v>615698</v>
-      </c>
-      <c r="G11" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" s="31">
-        <v>10</v>
-      </c>
-      <c r="I11" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="31">
+      <c r="D30" s="59">
+        <v>2818</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30" s="30">
+        <v>635656</v>
+      </c>
+      <c r="G30" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="H30" s="31">
+        <v>15</v>
+      </c>
+      <c r="I30" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30" s="31">
         <v>0</v>
       </c>
-      <c r="K11" s="31" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="11"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="11">
-        <v>151296157</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="1">
-        <v>20</v>
-      </c>
-      <c r="D13" s="25">
-        <v>4700</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="12">
+      <c r="K30" s="31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:12" s="35" customFormat="1">
+      <c r="A32" s="30">
+        <v>151302474</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="31">
+        <v>50</v>
+      </c>
+      <c r="D32" s="58">
+        <v>3555</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32" s="30">
+        <v>646872</v>
+      </c>
+      <c r="G32" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="H32" s="31">
+        <v>10</v>
+      </c>
+      <c r="I32" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32" s="31">
+        <v>0</v>
+      </c>
+      <c r="K32" s="30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="11"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="11"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="11">
+        <v>151110116</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="1">
+        <v>40</v>
+      </c>
+      <c r="D34" s="25">
+        <v>112</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H34" s="12">
+        <v>50</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34" s="12">
+        <v>0</v>
+      </c>
+      <c r="K34" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="22">
+        <v>151197029</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="2">
+        <v>60</v>
+      </c>
+      <c r="D36" s="3">
+        <v>3510</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F36" s="2">
+        <v>663091</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H36" s="5">
         <v>2</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="12">
+      <c r="I36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J36" s="5">
         <v>0</v>
       </c>
-      <c r="K13" s="12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="11">
-        <v>151296157</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="1">
-        <v>10</v>
-      </c>
-      <c r="D15" s="13">
-        <v>3700</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F15" s="13">
-        <v>615840</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="13">
+      <c r="K36" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="6">
+        <v>151090350</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="2">
+        <v>10</v>
+      </c>
+      <c r="D38" s="3">
+        <v>5130</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F38" s="2">
+        <v>663092</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H38" s="5">
         <v>2</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="13">
+      <c r="I38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" s="5">
         <v>0</v>
       </c>
-      <c r="K15" s="13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="15"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="30">
-        <v>151315311</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="31">
-        <v>120</v>
-      </c>
-      <c r="D17" s="32">
-        <v>600</v>
-      </c>
-      <c r="E17" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="F17" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="34">
-        <v>20</v>
-      </c>
-      <c r="I17" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" s="34">
-        <v>0</v>
-      </c>
-      <c r="K17" s="34" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-    </row>
-    <row r="19" spans="1:12" s="35" customFormat="1">
-      <c r="A19" s="6">
+      <c r="K38" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+    </row>
+    <row r="40" spans="1:11" s="35" customFormat="1">
+      <c r="A40" s="6">
         <v>151330034</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="2">
-        <v>30</v>
-      </c>
-      <c r="D19" s="2">
-        <v>5614</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F19" s="2">
-        <v>616026</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H19" s="2">
-        <v>10</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" s="2">
-        <v>10</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="35" customFormat="1">
-      <c r="A20" s="11"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="34"/>
-    </row>
-    <row r="21" spans="1:12" s="35" customFormat="1">
-      <c r="A21" s="11">
-        <v>151322710</v>
-      </c>
-      <c r="B21" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="31">
-        <v>50</v>
-      </c>
-      <c r="D21" s="34">
-        <v>6521</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="F21" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="H21" s="34">
-        <v>20</v>
-      </c>
-      <c r="I21" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="34">
-        <v>0</v>
-      </c>
-      <c r="K21" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="L21" s="55"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="11"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-    </row>
-    <row r="23" spans="1:12" s="35" customFormat="1">
-      <c r="A23" s="6">
-        <v>151330034</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="2">
-        <v>10</v>
-      </c>
-      <c r="D23" s="2">
-        <v>4048</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F23" s="2">
-        <v>630059</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H23" s="2">
-        <v>15</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" s="2">
-        <v>15</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="11"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="1:12" s="35" customFormat="1">
-      <c r="A25" s="6">
-        <v>151330034</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="2">
-        <v>50</v>
-      </c>
-      <c r="D25" s="65">
-        <v>5738</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="F25" s="6">
-        <v>632215</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H25" s="2">
-        <v>5</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J25" s="2">
-        <v>5</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="12" customHeight="1">
-      <c r="A26" s="11"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="11"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="11">
-        <v>151110116</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="1">
+      <c r="C40" s="2">
         <v>60</v>
       </c>
-      <c r="D27" s="13">
-        <v>3450</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="13">
-        <v>634355</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H27" s="13">
-        <v>10</v>
-      </c>
-      <c r="I27" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J27" s="13">
-        <v>10</v>
-      </c>
-      <c r="K27" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="12"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="2">
-        <v>151008992</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="2">
-        <v>20</v>
-      </c>
-      <c r="D29" s="10">
-        <v>4726</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" s="2">
-        <v>635655</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H29" s="2">
-        <v>10</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J29" s="2">
-        <v>0</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-    </row>
-    <row r="31" spans="1:12" s="35" customFormat="1">
-      <c r="A31" s="30">
-        <v>151302474</v>
-      </c>
-      <c r="B31" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="31">
-        <v>40</v>
-      </c>
-      <c r="D31" s="59">
-        <v>2818</v>
-      </c>
-      <c r="E31" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="F31" s="30">
-        <v>635656</v>
-      </c>
-      <c r="G31" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="H31" s="31">
-        <v>15</v>
-      </c>
-      <c r="I31" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="J31" s="31">
-        <v>0</v>
-      </c>
-      <c r="K31" s="31" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-    </row>
-    <row r="33" spans="1:11" s="35" customFormat="1">
-      <c r="A33" s="30">
-        <v>151302474</v>
-      </c>
-      <c r="B33" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" s="31">
-        <v>50</v>
-      </c>
-      <c r="D33" s="58">
-        <v>3555</v>
-      </c>
-      <c r="E33" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="F33" s="30">
-        <v>646872</v>
-      </c>
-      <c r="G33" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="H33" s="31">
-        <v>10</v>
-      </c>
-      <c r="I33" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J33" s="31">
-        <v>0</v>
-      </c>
-      <c r="K33" s="30" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="11"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="11"/>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="11">
-        <v>151110116</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="1">
-        <v>40</v>
-      </c>
-      <c r="D35" s="25">
-        <v>112</v>
-      </c>
-      <c r="E35" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H35" s="12">
-        <v>50</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J35" s="12">
-        <v>0</v>
-      </c>
-      <c r="K35" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="22">
-        <v>151197029</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="2">
-        <v>60</v>
-      </c>
-      <c r="D37" s="3">
-        <v>3510</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F37" s="2">
-        <v>663091</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H37" s="5">
-        <v>2</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J37" s="5">
-        <v>0</v>
-      </c>
-      <c r="K37" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="6">
-        <v>151090350</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" s="2">
-        <v>10</v>
-      </c>
-      <c r="D39" s="3">
-        <v>5130</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F39" s="2">
-        <v>663092</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H39" s="5">
-        <v>2</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J39" s="5">
-        <v>0</v>
-      </c>
-      <c r="K39" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-    </row>
-    <row r="41" spans="1:11" s="35" customFormat="1">
-      <c r="A41" s="6">
-        <v>151308917</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" s="2">
-        <v>60</v>
-      </c>
-      <c r="D41" s="3">
+      <c r="D40" s="3">
         <v>6615</v>
       </c>
-      <c r="E41" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F41" s="2">
+      <c r="E40" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F40" s="2">
         <v>663093</v>
       </c>
-      <c r="G41" s="7" t="s">
+      <c r="G40" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H41" s="5">
-        <v>2</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J41" s="5">
-        <v>0</v>
-      </c>
-      <c r="K41" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" s="35" customFormat="1">
+      <c r="H40" s="5">
+        <v>10</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J40" s="5">
+        <v>10</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="6">
-        <v>151330034</v>
+        <v>151326603</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C42" s="2">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D42" s="3">
-        <v>6615</v>
+        <v>6000</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="F42" s="2">
-        <v>663093</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>51</v>
+        <v>668330</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="H42" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J42" s="5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="6">
-        <v>151326603</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" s="2">
-        <v>20</v>
-      </c>
-      <c r="D44" s="3">
-        <v>6000</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F44" s="2">
-        <v>668330</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H44" s="5">
-        <v>9</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J44" s="5">
-        <v>7</v>
-      </c>
-      <c r="K44" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" s="35" customFormat="1">
-      <c r="A45" s="36"/>
-      <c r="B45" s="47"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="47"/>
-      <c r="H45" s="50"/>
-      <c r="I45" s="47"/>
-      <c r="J45" s="50"/>
-      <c r="K45" s="50"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="35" customFormat="1">
+      <c r="A43" s="36"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="50"/>
+    </row>
+    <row r="44" spans="1:11" s="35" customFormat="1">
+      <c r="A44" s="11">
+        <v>151332240</v>
+      </c>
+      <c r="B44" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="31">
+        <v>10</v>
+      </c>
+      <c r="D44" s="32">
+        <v>9703</v>
+      </c>
+      <c r="E44" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="F44" s="30">
+        <v>681149</v>
+      </c>
+      <c r="G44" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="H44" s="34">
+        <v>4</v>
+      </c>
+      <c r="I44" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J44" s="34">
+        <v>0</v>
+      </c>
+      <c r="K44" s="33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="39"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="42"/>
     </row>
     <row r="46" spans="1:11" s="35" customFormat="1">
       <c r="A46" s="11">
-        <v>151306604</v>
+        <v>151322710</v>
       </c>
       <c r="B46" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C46" s="31">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D46" s="32">
-        <v>9703</v>
+        <v>1908</v>
       </c>
       <c r="E46" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="F46" s="30">
-        <v>681149</v>
-      </c>
-      <c r="G46" s="30" t="s">
-        <v>75</v>
+        <v>102</v>
+      </c>
+      <c r="F46" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G46" s="31" t="s">
+        <v>35</v>
       </c>
       <c r="H46" s="34">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="I46" s="31" t="s">
         <v>12</v>
@@ -3274,68 +3224,66 @@
       <c r="J46" s="34">
         <v>0</v>
       </c>
-      <c r="K46" s="33" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B47" s="39"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="42"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="42"/>
-      <c r="K47" s="42"/>
+      <c r="K46" s="34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="35" customFormat="1">
+      <c r="A47" s="11"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="34"/>
+      <c r="K47" s="34"/>
     </row>
     <row r="48" spans="1:11" s="35" customFormat="1">
-      <c r="A48" s="11">
-        <v>151322710</v>
-      </c>
-      <c r="B48" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48" s="31">
-        <v>40</v>
-      </c>
-      <c r="D48" s="32">
-        <v>1908</v>
-      </c>
-      <c r="E48" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="F48" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="G48" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="H48" s="34">
-        <v>30</v>
-      </c>
-      <c r="I48" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J48" s="34">
+      <c r="A48" s="22">
+        <v>151330034</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="2">
+        <v>20</v>
+      </c>
+      <c r="D48" s="3">
+        <v>8463</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F48" s="6">
+        <v>687349</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H48" s="5">
+        <v>25</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J48" s="5">
         <v>0</v>
       </c>
-      <c r="K48" s="34" t="s">
-        <v>110</v>
+      <c r="K48" s="5" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:13" s="35" customFormat="1">
-      <c r="A49" s="11"/>
+      <c r="A49" s="30"/>
       <c r="B49" s="31"/>
       <c r="C49" s="31"/>
       <c r="D49" s="32"/>
       <c r="E49" s="33"/>
       <c r="F49" s="31"/>
-      <c r="G49" s="31"/>
+      <c r="G49" s="56"/>
       <c r="H49" s="34"/>
       <c r="I49" s="31"/>
       <c r="J49" s="34"/>
@@ -3343,7 +3291,7 @@
     </row>
     <row r="50" spans="1:13" s="35" customFormat="1">
       <c r="A50" s="6">
-        <v>151288592</v>
+        <v>151242082</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>16</v>
@@ -3352,19 +3300,19 @@
         <v>10</v>
       </c>
       <c r="D50" s="3">
-        <v>8463</v>
+        <v>1600</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F50" s="6">
-        <v>687349</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>79</v>
+        <v>691660</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="H50" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>12</v>
@@ -3373,173 +3321,154 @@
         <v>0</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" s="35" customFormat="1">
-      <c r="A51" s="22">
-        <v>151330034</v>
-      </c>
-      <c r="B51" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+    </row>
+    <row r="52" spans="1:13" s="46" customFormat="1">
+      <c r="A52" s="11">
+        <v>151330961</v>
+      </c>
+      <c r="B52" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="31">
+        <v>10</v>
+      </c>
+      <c r="D52" s="32">
+        <v>565</v>
+      </c>
+      <c r="E52" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="F52" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G52" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="H52" s="34">
+        <v>200</v>
+      </c>
+      <c r="I52" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J52" s="34">
+        <v>70</v>
+      </c>
+      <c r="K52" s="34" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="M53" s="24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="18">
+        <v>151264212</v>
+      </c>
+      <c r="B54" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C51" s="2">
-        <v>20</v>
-      </c>
-      <c r="D51" s="3">
-        <v>8463</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F51" s="6">
-        <v>687349</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="H51" s="5">
-        <v>25</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J51" s="5">
-        <v>25</v>
-      </c>
-      <c r="K51" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" s="35" customFormat="1">
-      <c r="A52" s="30"/>
-      <c r="B52" s="31"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="56"/>
-      <c r="H52" s="34"/>
-      <c r="I52" s="31"/>
-      <c r="J52" s="34"/>
-      <c r="K52" s="34"/>
-    </row>
-    <row r="53" spans="1:13" s="35" customFormat="1">
-      <c r="A53" s="6">
-        <v>151242082</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C53" s="2">
-        <v>10</v>
-      </c>
-      <c r="D53" s="3">
-        <v>1600</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F53" s="6">
-        <v>691660</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H53" s="5">
+      <c r="C54" s="18">
+        <v>10</v>
+      </c>
+      <c r="D54" s="51">
+        <v>10710</v>
+      </c>
+      <c r="E54" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="F54" s="18">
+        <v>704681</v>
+      </c>
+      <c r="G54" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="H54" s="19">
         <v>1</v>
       </c>
-      <c r="I53" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J53" s="5">
+      <c r="I54" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J54" s="19">
         <v>0</v>
       </c>
-      <c r="K53" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
-    </row>
-    <row r="55" spans="1:13" s="46" customFormat="1">
-      <c r="A55" s="11">
-        <v>151314792</v>
-      </c>
-      <c r="B55" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C55" s="31">
-        <v>10</v>
-      </c>
-      <c r="D55" s="32">
-        <v>565</v>
-      </c>
-      <c r="E55" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="F55" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="G55" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="H55" s="34">
-        <v>100</v>
-      </c>
-      <c r="I55" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J55" s="34">
+      <c r="K54" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="56"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" s="25">
+        <v>4995</v>
+      </c>
+      <c r="E56" s="26">
+        <v>44223</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H56" s="12">
+        <v>2</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J56" s="12">
         <v>0</v>
       </c>
-      <c r="K55" s="34" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" s="46" customFormat="1">
-      <c r="A56" s="11">
-        <v>151330961</v>
-      </c>
-      <c r="B56" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C56" s="31">
-        <v>10</v>
-      </c>
-      <c r="D56" s="32">
-        <v>565</v>
-      </c>
-      <c r="E56" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="F56" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="G56" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="H56" s="34">
-        <v>200</v>
-      </c>
-      <c r="I56" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J56" s="34">
-        <v>200</v>
-      </c>
-      <c r="K56" s="34" t="s">
-        <v>115</v>
+      <c r="K56" s="12" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -3554,43 +3483,40 @@
       <c r="I57" s="1"/>
       <c r="J57" s="12"/>
       <c r="K57" s="12"/>
-      <c r="M57" s="24" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="18">
-        <v>151264212</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C58" s="18">
-        <v>10</v>
-      </c>
-      <c r="D58" s="51">
-        <v>10710</v>
-      </c>
-      <c r="E58" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="F58" s="18">
-        <v>704681</v>
-      </c>
-      <c r="G58" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="H58" s="19">
-        <v>1</v>
-      </c>
-      <c r="I58" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="J58" s="19">
+      <c r="A58" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="25">
+        <v>4245</v>
+      </c>
+      <c r="E58" s="26">
+        <v>44223</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H58" s="12">
+        <v>2</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J58" s="12">
         <v>0</v>
       </c>
-      <c r="K58" s="19" t="s">
-        <v>81</v>
+      <c r="K58" s="12" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -3600,330 +3526,330 @@
       <c r="D59" s="25"/>
       <c r="E59" s="26"/>
       <c r="F59" s="1"/>
-      <c r="G59" s="56"/>
+      <c r="G59" s="1"/>
       <c r="H59" s="12"/>
       <c r="I59" s="1"/>
       <c r="J59" s="12"/>
       <c r="K59" s="12"/>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D60" s="25">
-        <v>4995</v>
-      </c>
-      <c r="E60" s="26">
-        <v>44223</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H60" s="12">
+      <c r="A60" s="20">
+        <v>151113088</v>
+      </c>
+      <c r="B60" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="61">
+        <v>10</v>
+      </c>
+      <c r="D60" s="62">
+        <v>1896</v>
+      </c>
+      <c r="E60" s="63">
+        <v>44487</v>
+      </c>
+      <c r="F60" s="61">
+        <v>716663</v>
+      </c>
+      <c r="G60" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="H60" s="64">
+        <v>5</v>
+      </c>
+      <c r="I60" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="J60" s="64">
+        <v>0</v>
+      </c>
+      <c r="K60" s="64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="6">
+        <v>151326492</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="2">
+        <v>10</v>
+      </c>
+      <c r="D61" s="3">
+        <v>1896</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F61" s="2">
+        <v>716663</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H61" s="5">
+        <v>3</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J61" s="5">
+        <v>3</v>
+      </c>
+      <c r="K61" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+    </row>
+    <row r="63" spans="1:13" s="35" customFormat="1">
+      <c r="A63" s="30">
+        <v>151280693</v>
+      </c>
+      <c r="B63" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="53">
+        <v>30</v>
+      </c>
+      <c r="D63" s="53">
+        <v>45000</v>
+      </c>
+      <c r="E63" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="F63" s="53">
+        <v>719031</v>
+      </c>
+      <c r="G63" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" s="54">
+        <v>20</v>
+      </c>
+      <c r="I63" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J63" s="54">
+        <v>14</v>
+      </c>
+      <c r="K63" s="54" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" s="35" customFormat="1">
+      <c r="A64" s="6">
+        <v>151308917</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" s="7">
+        <v>10</v>
+      </c>
+      <c r="D64" s="7">
+        <v>45000</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F64" s="7">
+        <v>719031</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" s="60">
+        <v>1</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J64" s="60">
+        <v>1</v>
+      </c>
+      <c r="K64" s="60" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" s="35" customFormat="1">
+      <c r="A65" s="6">
+        <v>151283046</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="7">
+        <v>10</v>
+      </c>
+      <c r="D65" s="7">
+        <v>45000</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F65" s="7">
+        <v>719031</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" s="60">
         <v>2</v>
       </c>
-      <c r="I60" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J60" s="12">
+      <c r="I65" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J65" s="60">
+        <v>2</v>
+      </c>
+      <c r="K65" s="60" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="38"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="44"/>
+      <c r="I66" s="43"/>
+      <c r="J66" s="44"/>
+      <c r="K66" s="44"/>
+    </row>
+    <row r="67" spans="1:11" s="35" customFormat="1">
+      <c r="A67" s="17">
+        <v>151332508</v>
+      </c>
+      <c r="B67" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="31">
+        <v>10</v>
+      </c>
+      <c r="D67" s="58">
+        <v>9999</v>
+      </c>
+      <c r="E67" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="F67" s="30">
+        <v>719381</v>
+      </c>
+      <c r="G67" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="H67" s="31">
+        <v>10</v>
+      </c>
+      <c r="I67" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J67" s="31">
+        <v>10</v>
+      </c>
+      <c r="K67" s="30" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="11"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="11"/>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="22">
+        <v>151308917</v>
+      </c>
+      <c r="B69" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="57">
+        <v>20</v>
+      </c>
+      <c r="D69" s="7">
+        <v>6800</v>
+      </c>
+      <c r="E69" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="F69" s="7">
+        <v>720138</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H69" s="57">
+        <v>1</v>
+      </c>
+      <c r="I69" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="J69" s="57">
         <v>0</v>
       </c>
-      <c r="K60" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="12"/>
-    </row>
-    <row r="62" spans="1:13">
-      <c r="A62" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D62" s="25">
-        <v>4245</v>
-      </c>
-      <c r="E62" s="26">
-        <v>44223</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H62" s="12">
-        <v>2</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J62" s="12">
-        <v>0</v>
-      </c>
-      <c r="K62" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="12"/>
-      <c r="K63" s="12"/>
-    </row>
-    <row r="64" spans="1:13">
-      <c r="A64" s="20">
-        <v>151113088</v>
-      </c>
-      <c r="B64" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="C64" s="61">
-        <v>10</v>
-      </c>
-      <c r="D64" s="62">
-        <v>1896</v>
-      </c>
-      <c r="E64" s="63">
-        <v>44487</v>
-      </c>
-      <c r="F64" s="61">
-        <v>716663</v>
-      </c>
-      <c r="G64" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="H64" s="64">
-        <v>5</v>
-      </c>
-      <c r="I64" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="J64" s="64">
-        <v>0</v>
-      </c>
-      <c r="K64" s="64" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="6">
-        <v>151326492</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C65" s="2">
-        <v>10</v>
-      </c>
-      <c r="D65" s="3">
-        <v>1896</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F65" s="2">
-        <v>716663</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H65" s="5">
-        <v>3</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J65" s="5">
-        <v>3</v>
-      </c>
-      <c r="K65" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="25"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="12"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="12"/>
-      <c r="K66" s="12"/>
-    </row>
-    <row r="67" spans="1:11" s="35" customFormat="1">
-      <c r="A67" s="30">
-        <v>151280693</v>
-      </c>
-      <c r="B67" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="C67" s="53">
-        <v>30</v>
-      </c>
-      <c r="D67" s="53">
-        <v>45000</v>
-      </c>
-      <c r="E67" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="F67" s="53">
-        <v>719031</v>
-      </c>
-      <c r="G67" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="H67" s="54">
-        <v>20</v>
-      </c>
-      <c r="I67" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="J67" s="54">
-        <v>14</v>
-      </c>
-      <c r="K67" s="54" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" s="35" customFormat="1">
-      <c r="A68" s="6">
-        <v>151308917</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C68" s="7">
-        <v>10</v>
-      </c>
-      <c r="D68" s="7">
-        <v>45000</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F68" s="7">
-        <v>719031</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H68" s="60">
-        <v>1</v>
-      </c>
-      <c r="I68" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J68" s="60">
-        <v>1</v>
-      </c>
-      <c r="K68" s="60" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" s="35" customFormat="1">
-      <c r="A69" s="6">
-        <v>151283046</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C69" s="7">
-        <v>10</v>
-      </c>
-      <c r="D69" s="7">
-        <v>45000</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F69" s="7">
-        <v>719031</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H69" s="60">
-        <v>2</v>
-      </c>
-      <c r="I69" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J69" s="60">
-        <v>2</v>
-      </c>
-      <c r="K69" s="60" t="s">
-        <v>90</v>
+      <c r="K69" s="57" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="70" spans="1:11">
-      <c r="A70" s="38"/>
-      <c r="B70" s="43"/>
-      <c r="C70" s="43"/>
-      <c r="D70" s="43"/>
-      <c r="E70" s="43"/>
-      <c r="F70" s="43"/>
-      <c r="G70" s="43"/>
-      <c r="H70" s="44"/>
-      <c r="I70" s="43"/>
-      <c r="J70" s="44"/>
-      <c r="K70" s="44"/>
+      <c r="A70" s="1"/>
+      <c r="B70" s="39"/>
+      <c r="C70" s="39"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="39"/>
+      <c r="G70" s="39"/>
+      <c r="H70" s="39"/>
+      <c r="I70" s="39"/>
+      <c r="J70" s="39"/>
+      <c r="K70" s="39"/>
     </row>
     <row r="71" spans="1:11" s="35" customFormat="1">
-      <c r="A71" s="30">
-        <v>151315311</v>
+      <c r="A71" s="11">
+        <v>151322392</v>
       </c>
       <c r="B71" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C71" s="31">
-        <v>30</v>
-      </c>
-      <c r="D71" s="58">
-        <v>9999</v>
-      </c>
-      <c r="E71" s="30" t="s">
-        <v>103</v>
+        <v>10</v>
+      </c>
+      <c r="D71" s="31">
+        <v>2490</v>
+      </c>
+      <c r="E71" s="31" t="s">
+        <v>96</v>
       </c>
       <c r="F71" s="30">
-        <v>719381</v>
+        <v>724214</v>
       </c>
       <c r="G71" s="30" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="H71" s="31">
         <v>10</v>
@@ -3934,191 +3860,95 @@
       <c r="J71" s="31">
         <v>0</v>
       </c>
-      <c r="K71" s="30" t="s">
-        <v>104</v>
+      <c r="K71" s="31" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="11"/>
+      <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
-      <c r="K72" s="11"/>
+      <c r="K72" s="1"/>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="22">
-        <v>151308917</v>
-      </c>
-      <c r="B73" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="C73" s="57">
-        <v>20</v>
-      </c>
-      <c r="D73" s="7">
-        <v>6800</v>
-      </c>
-      <c r="E73" s="57" t="s">
-        <v>91</v>
-      </c>
-      <c r="F73" s="7">
-        <v>720138</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H73" s="57">
-        <v>1</v>
-      </c>
-      <c r="I73" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="J73" s="57">
+      <c r="A73" s="1">
+        <v>16063532</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="1">
+        <v>10</v>
+      </c>
+      <c r="D73" s="1">
+        <v>2900</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F73" s="1">
+        <v>725828</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H73" s="1">
+        <v>10</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J73" s="1">
         <v>0</v>
       </c>
-      <c r="K73" s="57" t="s">
+      <c r="K73" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" s="35" customFormat="1">
+      <c r="A75" s="30">
+        <v>151315311</v>
+      </c>
+      <c r="B75" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="31">
+        <v>10</v>
+      </c>
+      <c r="D75" s="31">
+        <v>100</v>
+      </c>
+      <c r="E75" s="31" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="74" spans="1:11">
-      <c r="A74" s="1"/>
-      <c r="B74" s="39"/>
-      <c r="C74" s="39"/>
-      <c r="D74" s="39"/>
-      <c r="E74" s="39"/>
-      <c r="F74" s="39"/>
-      <c r="G74" s="39"/>
-      <c r="H74" s="39"/>
-      <c r="I74" s="39"/>
-      <c r="J74" s="39"/>
-      <c r="K74" s="39"/>
-    </row>
-    <row r="75" spans="1:11" s="35" customFormat="1">
-      <c r="A75" s="11">
-        <v>151322392</v>
-      </c>
-      <c r="B75" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C75" s="31">
-        <v>10</v>
-      </c>
-      <c r="D75" s="31">
-        <v>2490</v>
-      </c>
-      <c r="E75" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="F75" s="30">
-        <v>724214</v>
+      <c r="F75" s="31">
+        <v>728488</v>
       </c>
       <c r="G75" s="30" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H75" s="31">
         <v>10</v>
       </c>
       <c r="I75" s="31" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="J75" s="31">
         <v>0</v>
       </c>
       <c r="K75" s="31" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-    </row>
-    <row r="77" spans="1:11">
-      <c r="A77" s="1">
-        <v>16063532</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C77" s="1">
-        <v>10</v>
-      </c>
-      <c r="D77" s="1">
-        <v>2900</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F77" s="1">
-        <v>725828</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H77" s="1">
-        <v>10</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J77" s="1">
-        <v>0</v>
-      </c>
-      <c r="K77" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" s="35" customFormat="1">
-      <c r="A79" s="30">
-        <v>151315311</v>
-      </c>
-      <c r="B79" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C79" s="31">
-        <v>10</v>
-      </c>
-      <c r="D79" s="31">
-        <v>100</v>
-      </c>
-      <c r="E79" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="F79" s="31">
-        <v>728488</v>
-      </c>
-      <c r="G79" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="H79" s="31">
-        <v>10</v>
-      </c>
-      <c r="I79" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="J79" s="31">
-        <v>0</v>
-      </c>
-      <c r="K79" s="31" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="82" spans="6:6">
-      <c r="F82" s="17"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="F78" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4128,10 +3958,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M86"/>
+  <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -5409,170 +5239,150 @@
       <c r="K7" s="42"/>
     </row>
     <row r="8" spans="1:11" s="35" customFormat="1">
-      <c r="A8" s="30">
+      <c r="A8" s="6">
+        <v>151330034</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2">
+        <v>40</v>
+      </c>
+      <c r="D8" s="10">
+        <v>2400</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="2">
+        <v>615181</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="2">
+        <v>10</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>308.20229999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="21"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" s="35" customFormat="1">
+      <c r="A10" s="30">
         <v>151315311</v>
       </c>
-      <c r="B8" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="31">
-        <v>140</v>
-      </c>
-      <c r="D8" s="59">
-        <v>2400</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="F8" s="31">
-        <v>615181</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="31">
-        <v>15</v>
-      </c>
-      <c r="I8" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="31">
-        <v>1</v>
-      </c>
-      <c r="K8" s="31" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="35" customFormat="1">
-      <c r="A9" s="6">
-        <v>151330034</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="2">
-        <v>40</v>
-      </c>
-      <c r="D9" s="10">
-        <v>2400</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F9" s="2">
-        <v>615181</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="2">
-        <v>10</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="2">
-        <v>10</v>
-      </c>
-      <c r="K9" s="2">
-        <v>308.20229999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="21"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" s="35" customFormat="1">
-      <c r="A11" s="6">
-        <v>151308917</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="2">
-        <v>30</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="B10" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="31">
+        <v>130</v>
+      </c>
+      <c r="D10" s="31">
         <v>4831</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F11" s="2">
+      <c r="E10" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="31">
         <v>615698</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G10" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H10" s="31">
+        <v>10</v>
+      </c>
+      <c r="I10" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="31">
+        <v>0</v>
+      </c>
+      <c r="K10" s="31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="11"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="11">
+        <v>151296157</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
         <v>20</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="2">
+      <c r="D12" s="25">
+        <v>4700</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="12">
+        <v>2</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="12">
         <v>0</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="35" customFormat="1">
-      <c r="A12" s="30">
-        <v>151315311</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="31">
-        <v>130</v>
-      </c>
-      <c r="D12" s="31">
-        <v>4831</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="F12" s="31">
-        <v>615698</v>
-      </c>
-      <c r="G12" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" s="31">
-        <v>10</v>
-      </c>
-      <c r="I12" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" s="31">
-        <v>0</v>
-      </c>
-      <c r="K12" s="31" t="s">
-        <v>105</v>
+      <c r="K12" s="12" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="11"/>
+      <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="12"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="11">
@@ -5582,421 +5392,375 @@
         <v>10</v>
       </c>
       <c r="C14" s="1">
-        <v>20</v>
-      </c>
-      <c r="D14" s="25">
-        <v>4700</v>
-      </c>
-      <c r="E14" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="13">
+        <v>3700</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="12">
+      <c r="F14" s="13">
+        <v>615840</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="13">
         <v>2</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="12">
+      <c r="I14" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="13">
         <v>0</v>
       </c>
-      <c r="K14" s="12" t="s">
-        <v>94</v>
+      <c r="K14" s="13" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="1"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="11">
-        <v>151296157</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="1">
-        <v>10</v>
-      </c>
-      <c r="D16" s="13">
-        <v>3700</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F16" s="13">
-        <v>615840</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="13">
-        <v>2</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" s="13">
+      <c r="A16" s="30">
+        <v>151315311</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="31">
+        <v>120</v>
+      </c>
+      <c r="D16" s="32">
+        <v>600</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="34">
+        <v>20</v>
+      </c>
+      <c r="I16" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="34">
         <v>0</v>
       </c>
-      <c r="K16" s="13" t="s">
-        <v>94</v>
+      <c r="K16" s="34" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="15"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="1"/>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
     </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="30">
-        <v>151315311</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="31">
-        <v>120</v>
-      </c>
-      <c r="D18" s="32">
-        <v>600</v>
-      </c>
-      <c r="E18" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="F18" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="34">
-        <v>20</v>
-      </c>
-      <c r="I18" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" s="34">
-        <v>0</v>
-      </c>
-      <c r="K18" s="34" t="s">
+    <row r="18" spans="1:12" s="35" customFormat="1">
+      <c r="A18" s="6">
+        <v>151330034</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2">
+        <v>30</v>
+      </c>
+      <c r="D18" s="2">
+        <v>5614</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" s="2">
+        <v>616026</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" s="2">
+        <v>10</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="2">
+        <v>2</v>
+      </c>
+      <c r="K18" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
+    <row r="19" spans="1:12" s="35" customFormat="1">
+      <c r="A19" s="11"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="34"/>
     </row>
     <row r="20" spans="1:12" s="35" customFormat="1">
       <c r="A20" s="11">
-        <v>151320915</v>
+        <v>151322710</v>
       </c>
       <c r="B20" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="31">
-        <v>10</v>
-      </c>
-      <c r="D20" s="31">
-        <v>5614</v>
+        <v>50</v>
+      </c>
+      <c r="D20" s="34">
+        <v>6521</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="F20" s="31">
-        <v>616026</v>
+        <v>102</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>26</v>
       </c>
       <c r="G20" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="H20" s="31">
-        <v>10</v>
+        <v>68</v>
+      </c>
+      <c r="H20" s="34">
+        <v>20</v>
       </c>
       <c r="I20" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="J20" s="31">
+      <c r="J20" s="34">
         <v>0</v>
       </c>
       <c r="K20" s="34" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="35" customFormat="1">
-      <c r="A21" s="6">
-        <v>151326603</v>
-      </c>
-      <c r="B21" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L20" s="55"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="11"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+    </row>
+    <row r="22" spans="1:12" s="35" customFormat="1">
+      <c r="A22" s="6">
+        <v>151330034</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="2">
-        <v>10</v>
-      </c>
-      <c r="D21" s="2">
-        <v>5614</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F21" s="2">
-        <v>616026</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H21" s="2">
+      <c r="C22" s="2">
+        <v>10</v>
+      </c>
+      <c r="D22" s="2">
+        <v>4048</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="2">
+        <v>630059</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" s="2">
         <v>15</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="2">
+      <c r="I22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="2">
+        <v>8</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="11"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" s="35" customFormat="1">
+      <c r="A24" s="6">
+        <v>151330034</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="2">
+        <v>50</v>
+      </c>
+      <c r="D24" s="65">
+        <v>5738</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F24" s="6">
+        <v>632215</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" s="2">
+        <v>5</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="2">
         <v>0</v>
       </c>
-      <c r="K21" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="35" customFormat="1">
-      <c r="A22" s="30">
-        <v>151328170</v>
-      </c>
-      <c r="B22" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="31">
-        <v>10</v>
-      </c>
-      <c r="D22" s="31">
-        <v>5614</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="F22" s="31">
-        <v>616026</v>
-      </c>
-      <c r="G22" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="H22" s="31">
-        <v>20</v>
-      </c>
-      <c r="I22" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J22" s="31">
-        <v>0</v>
-      </c>
-      <c r="K22" s="34" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" s="35" customFormat="1">
-      <c r="A23" s="6">
-        <v>151330034</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="2">
-        <v>30</v>
-      </c>
-      <c r="D23" s="2">
-        <v>5614</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F23" s="2">
-        <v>616026</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H23" s="2">
-        <v>10</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" s="2">
-        <v>10</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" s="35" customFormat="1">
-      <c r="A24" s="11"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="34"/>
-    </row>
-    <row r="25" spans="1:12" s="35" customFormat="1">
-      <c r="A25" s="11">
-        <v>151322710</v>
-      </c>
-      <c r="B25" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="31">
-        <v>50</v>
-      </c>
-      <c r="D25" s="34">
-        <v>6521</v>
-      </c>
-      <c r="E25" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="F25" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="H25" s="34">
-        <v>20</v>
-      </c>
-      <c r="I25" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J25" s="34">
-        <v>0</v>
-      </c>
-      <c r="K25" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="L25" s="55"/>
+      <c r="K24" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="12" customHeight="1">
+      <c r="A25" s="11"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="11"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="11"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-    </row>
-    <row r="27" spans="1:12" s="35" customFormat="1">
-      <c r="A27" s="30">
-        <v>151315311</v>
-      </c>
-      <c r="B27" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="31">
-        <v>90</v>
-      </c>
-      <c r="D27" s="31">
-        <v>4048</v>
-      </c>
-      <c r="E27" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="F27" s="31">
-        <v>630059</v>
-      </c>
-      <c r="G27" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="H27" s="31">
-        <v>20</v>
-      </c>
-      <c r="I27" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J27" s="31">
-        <v>0</v>
-      </c>
-      <c r="K27" s="31" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="35" customFormat="1">
-      <c r="A28" s="6">
-        <v>151330034</v>
+      <c r="A26" s="11">
+        <v>151110116</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="1">
+        <v>60</v>
+      </c>
+      <c r="D26" s="13">
+        <v>3450</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="13">
+        <v>634355</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" s="13">
+        <v>10</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" s="13">
+        <v>10</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="12"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="2">
+        <v>151008992</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C28" s="2">
-        <v>10</v>
-      </c>
-      <c r="D28" s="2">
-        <v>4048</v>
+        <v>20</v>
+      </c>
+      <c r="D28" s="10">
+        <v>4726</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="F28" s="2">
-        <v>630059</v>
+        <v>635655</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="H28" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="J28" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>115</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="11"/>
+      <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="27"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -6006,281 +5770,281 @@
       <c r="K29" s="1"/>
     </row>
     <row r="30" spans="1:12" s="35" customFormat="1">
-      <c r="A30" s="6">
-        <v>151330034</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="2">
-        <v>50</v>
-      </c>
-      <c r="D30" s="65">
-        <v>5738</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="F30" s="6">
-        <v>632215</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H30" s="2">
-        <v>5</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J30" s="2">
-        <v>5</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="12" customHeight="1">
-      <c r="A31" s="11"/>
+      <c r="A30" s="30">
+        <v>151302474</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="31">
+        <v>40</v>
+      </c>
+      <c r="D30" s="59">
+        <v>2818</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30" s="30">
+        <v>635656</v>
+      </c>
+      <c r="G30" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="H30" s="31">
+        <v>15</v>
+      </c>
+      <c r="I30" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30" s="31">
+        <v>0</v>
+      </c>
+      <c r="K30" s="31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="11"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="1"/>
       <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="11"/>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="11">
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:12" s="35" customFormat="1">
+      <c r="A32" s="30">
+        <v>151302474</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="31">
+        <v>50</v>
+      </c>
+      <c r="D32" s="58">
+        <v>3555</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32" s="30">
+        <v>646872</v>
+      </c>
+      <c r="G32" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="H32" s="31">
+        <v>10</v>
+      </c>
+      <c r="I32" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32" s="31">
+        <v>0</v>
+      </c>
+      <c r="K32" s="30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="11"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="11"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="11">
         <v>151110116</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="1">
-        <v>60</v>
-      </c>
-      <c r="D32" s="13">
-        <v>3450</v>
-      </c>
-      <c r="E32" s="14" t="s">
+      <c r="B34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="1">
+        <v>40</v>
+      </c>
+      <c r="D34" s="25">
+        <v>112</v>
+      </c>
+      <c r="E34" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="F32" s="13">
-        <v>634355</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H32" s="13">
-        <v>10</v>
-      </c>
-      <c r="I32" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J32" s="13">
-        <v>10</v>
-      </c>
-      <c r="K32" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="12"/>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="2">
-        <v>151008992</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="2">
-        <v>20</v>
-      </c>
-      <c r="D34" s="10">
-        <v>4726</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F34" s="2">
-        <v>635655</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H34" s="2">
-        <v>10</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J34" s="2">
+      <c r="F34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H34" s="12">
+        <v>50</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34" s="12">
         <v>0</v>
       </c>
-      <c r="K34" s="2" t="s">
-        <v>20</v>
+      <c r="K34" s="12" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="26"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
+      <c r="H35" s="12"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-    </row>
-    <row r="36" spans="1:11" s="35" customFormat="1">
-      <c r="A36" s="30">
-        <v>151302474</v>
-      </c>
-      <c r="B36" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="31">
-        <v>40</v>
-      </c>
-      <c r="D36" s="59">
-        <v>2818</v>
-      </c>
-      <c r="E36" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="F36" s="30">
-        <v>635656</v>
-      </c>
-      <c r="G36" s="31" t="s">
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="22">
+        <v>151197029</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="2">
         <v>60</v>
       </c>
-      <c r="H36" s="31">
-        <v>15</v>
-      </c>
-      <c r="I36" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="J36" s="31">
+      <c r="D36" s="3">
+        <v>3510</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F36" s="2">
+        <v>663091</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H36" s="5">
+        <v>2</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J36" s="5">
         <v>0</v>
       </c>
-      <c r="K36" s="31" t="s">
-        <v>95</v>
+      <c r="K36" s="5" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="11"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
+      <c r="H37" s="12"/>
       <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="1:11" s="35" customFormat="1">
-      <c r="A38" s="30">
-        <v>151302474</v>
-      </c>
-      <c r="B38" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" s="31">
-        <v>50</v>
-      </c>
-      <c r="D38" s="58">
-        <v>3555</v>
-      </c>
-      <c r="E38" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="F38" s="30">
-        <v>646872</v>
-      </c>
-      <c r="G38" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="H38" s="31">
-        <v>10</v>
-      </c>
-      <c r="I38" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J38" s="31">
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="6">
+        <v>151090350</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="2">
+        <v>10</v>
+      </c>
+      <c r="D38" s="3">
+        <v>5130</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F38" s="2">
+        <v>663092</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H38" s="5">
+        <v>2</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" s="5">
         <v>0</v>
       </c>
-      <c r="K38" s="30" t="s">
-        <v>95</v>
+      <c r="K38" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="11"/>
+      <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="1"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="12"/>
       <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="11"/>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="11">
-        <v>151110116</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" s="1">
-        <v>40</v>
-      </c>
-      <c r="D40" s="25">
-        <v>112</v>
-      </c>
-      <c r="E40" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H40" s="12">
-        <v>50</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J40" s="12">
-        <v>0</v>
-      </c>
-      <c r="K40" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+    </row>
+    <row r="40" spans="1:11" s="35" customFormat="1">
+      <c r="A40" s="6">
+        <v>151330034</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="2">
+        <v>60</v>
+      </c>
+      <c r="D40" s="3">
+        <v>6615</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F40" s="2">
+        <v>663093</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H40" s="5">
+        <v>10</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J40" s="5">
+        <v>10</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="13.5" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -6294,446 +6058,427 @@
       <c r="K41" s="12"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="22">
-        <v>151197029</v>
+      <c r="A42" s="6">
+        <v>151326603</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C42" s="2">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D42" s="3">
-        <v>3510</v>
+        <v>6000</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="F42" s="2">
-        <v>663091</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>53</v>
+        <v>668330</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="H42" s="5">
+        <v>9</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J42" s="5">
+        <v>7</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="35" customFormat="1">
+      <c r="A43" s="36"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="50"/>
+    </row>
+    <row r="44" spans="1:11" s="35" customFormat="1">
+      <c r="A44" s="11">
+        <v>151332240</v>
+      </c>
+      <c r="B44" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="31">
+        <v>10</v>
+      </c>
+      <c r="D44" s="32">
+        <v>9703</v>
+      </c>
+      <c r="E44" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="F44" s="30">
+        <v>681149</v>
+      </c>
+      <c r="G44" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="H44" s="34">
+        <v>4</v>
+      </c>
+      <c r="I44" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J44" s="34">
+        <v>0</v>
+      </c>
+      <c r="K44" s="33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="39"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="42"/>
+    </row>
+    <row r="46" spans="1:11" s="35" customFormat="1">
+      <c r="A46" s="11">
+        <v>151322710</v>
+      </c>
+      <c r="B46" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="31">
+        <v>40</v>
+      </c>
+      <c r="D46" s="32">
+        <v>1908</v>
+      </c>
+      <c r="E46" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="F46" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G46" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H46" s="34">
+        <v>30</v>
+      </c>
+      <c r="I46" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J46" s="34">
+        <v>0</v>
+      </c>
+      <c r="K46" s="34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="35" customFormat="1">
+      <c r="A47" s="11"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="34"/>
+      <c r="K47" s="34"/>
+    </row>
+    <row r="48" spans="1:11" s="35" customFormat="1">
+      <c r="A48" s="22">
+        <v>151330034</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="2">
+        <v>20</v>
+      </c>
+      <c r="D48" s="3">
+        <v>8463</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F48" s="6">
+        <v>687349</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H48" s="5">
+        <v>25</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J48" s="5">
+        <v>0</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" s="35" customFormat="1">
+      <c r="A49" s="30"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="56"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="34"/>
+      <c r="K49" s="34"/>
+    </row>
+    <row r="50" spans="1:13" s="35" customFormat="1">
+      <c r="A50" s="6">
+        <v>151242082</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="2">
+        <v>10</v>
+      </c>
+      <c r="D50" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F50" s="6">
+        <v>691660</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H50" s="5">
+        <v>1</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J50" s="5">
+        <v>0</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+    </row>
+    <row r="52" spans="1:13" s="46" customFormat="1">
+      <c r="A52" s="11">
+        <v>151330961</v>
+      </c>
+      <c r="B52" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="31">
+        <v>10</v>
+      </c>
+      <c r="D52" s="32">
+        <v>565</v>
+      </c>
+      <c r="E52" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="F52" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G52" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="H52" s="34">
+        <v>200</v>
+      </c>
+      <c r="I52" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J52" s="34">
+        <v>70</v>
+      </c>
+      <c r="K52" s="34" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="M53" s="24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="18">
+        <v>151264212</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="18">
+        <v>10</v>
+      </c>
+      <c r="D54" s="51">
+        <v>10710</v>
+      </c>
+      <c r="E54" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="F54" s="18">
+        <v>704681</v>
+      </c>
+      <c r="G54" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="H54" s="19">
+        <v>1</v>
+      </c>
+      <c r="I54" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J54" s="19">
+        <v>0</v>
+      </c>
+      <c r="K54" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="56"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" s="25">
+        <v>4995</v>
+      </c>
+      <c r="E56" s="26">
+        <v>44223</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H56" s="12">
         <v>2</v>
       </c>
-      <c r="I42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J42" s="5">
+      <c r="I56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J56" s="12">
         <v>0</v>
       </c>
-      <c r="K42" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="6">
-        <v>151090350</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" s="2">
-        <v>10</v>
-      </c>
-      <c r="D44" s="3">
-        <v>5130</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F44" s="2">
-        <v>663092</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H44" s="5">
+      <c r="K56" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="25">
+        <v>4245</v>
+      </c>
+      <c r="E58" s="26">
+        <v>44223</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H58" s="12">
         <v>2</v>
       </c>
-      <c r="I44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J44" s="5">
+      <c r="I58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J58" s="12">
         <v>0</v>
       </c>
-      <c r="K44" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-    </row>
-    <row r="46" spans="1:11" s="35" customFormat="1">
-      <c r="A46" s="6">
-        <v>151308917</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C46" s="2">
-        <v>60</v>
-      </c>
-      <c r="D46" s="3">
-        <v>6615</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F46" s="2">
-        <v>663093</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H46" s="5">
-        <v>2</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J46" s="5">
-        <v>0</v>
-      </c>
-      <c r="K46" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" s="35" customFormat="1">
-      <c r="A47" s="6">
-        <v>151330034</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47" s="2">
-        <v>60</v>
-      </c>
-      <c r="D47" s="3">
-        <v>6615</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F47" s="2">
-        <v>663093</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H47" s="5">
-        <v>10</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J47" s="5">
-        <v>10</v>
-      </c>
-      <c r="K47" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-    </row>
-    <row r="49" spans="1:13">
-      <c r="A49" s="6">
-        <v>151326603</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C49" s="2">
-        <v>20</v>
-      </c>
-      <c r="D49" s="3">
-        <v>6000</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F49" s="2">
-        <v>668330</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H49" s="5">
-        <v>9</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J49" s="5">
-        <v>7</v>
-      </c>
-      <c r="K49" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" s="35" customFormat="1">
-      <c r="A50" s="36"/>
-      <c r="B50" s="47"/>
-      <c r="C50" s="47"/>
-      <c r="D50" s="48"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="47"/>
-      <c r="H50" s="50"/>
-      <c r="I50" s="47"/>
-      <c r="J50" s="50"/>
-      <c r="K50" s="50"/>
-    </row>
-    <row r="51" spans="1:13" s="35" customFormat="1">
-      <c r="A51" s="11">
-        <v>151306604</v>
-      </c>
-      <c r="B51" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" s="31">
-        <v>10</v>
-      </c>
-      <c r="D51" s="32">
-        <v>9703</v>
-      </c>
-      <c r="E51" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="F51" s="30">
-        <v>681149</v>
-      </c>
-      <c r="G51" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="H51" s="34">
-        <v>1</v>
-      </c>
-      <c r="I51" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J51" s="34">
-        <v>0</v>
-      </c>
-      <c r="K51" s="33" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="A52" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B52" s="39"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="41"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="42"/>
-      <c r="I52" s="39"/>
-      <c r="J52" s="42"/>
-      <c r="K52" s="42"/>
-    </row>
-    <row r="53" spans="1:13" s="35" customFormat="1">
-      <c r="A53" s="11">
-        <v>151322710</v>
-      </c>
-      <c r="B53" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C53" s="31">
-        <v>40</v>
-      </c>
-      <c r="D53" s="32">
-        <v>1908</v>
-      </c>
-      <c r="E53" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="F53" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="G53" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="H53" s="34">
-        <v>30</v>
-      </c>
-      <c r="I53" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J53" s="34">
-        <v>0</v>
-      </c>
-      <c r="K53" s="34" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" s="35" customFormat="1">
-      <c r="A54" s="11"/>
-      <c r="B54" s="31"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="34"/>
-      <c r="I54" s="31"/>
-      <c r="J54" s="34"/>
-      <c r="K54" s="34"/>
-    </row>
-    <row r="55" spans="1:13" s="35" customFormat="1">
-      <c r="A55" s="6">
-        <v>151288592</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C55" s="2">
-        <v>10</v>
-      </c>
-      <c r="D55" s="3">
-        <v>8463</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F55" s="6">
-        <v>687349</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="H55" s="5">
-        <v>10</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J55" s="5">
-        <v>0</v>
-      </c>
-      <c r="K55" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" s="35" customFormat="1" ht="15">
-      <c r="A56" s="66">
-        <v>151330034</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C56" s="2">
-        <v>20</v>
-      </c>
-      <c r="D56" s="3">
-        <v>8463</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F56" s="6">
-        <v>687349</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="H56" s="5">
-        <v>10</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J56" s="5">
-        <v>10</v>
-      </c>
-      <c r="K56" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" s="35" customFormat="1">
-      <c r="A57" s="30"/>
-      <c r="B57" s="31"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="32"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="56"/>
-      <c r="H57" s="34"/>
-      <c r="I57" s="31"/>
-      <c r="J57" s="34"/>
-      <c r="K57" s="34"/>
-    </row>
-    <row r="58" spans="1:13" s="35" customFormat="1">
-      <c r="A58" s="6">
-        <v>151242082</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C58" s="2">
-        <v>10</v>
-      </c>
-      <c r="D58" s="3">
-        <v>1600</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F58" s="6">
-        <v>691660</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H58" s="5">
-        <v>1</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J58" s="5">
-        <v>0</v>
-      </c>
-      <c r="K58" s="5" t="s">
-        <v>78</v>
+      <c r="K58" s="12" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -6749,401 +6494,385 @@
       <c r="J59" s="12"/>
       <c r="K59" s="12"/>
     </row>
-    <row r="60" spans="1:13" s="46" customFormat="1">
-      <c r="A60" s="11">
-        <v>151314792</v>
-      </c>
-      <c r="B60" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C60" s="31">
-        <v>10</v>
-      </c>
-      <c r="D60" s="32">
-        <v>565</v>
-      </c>
-      <c r="E60" s="33" t="s">
+    <row r="60" spans="1:13">
+      <c r="A60" s="20">
+        <v>151113088</v>
+      </c>
+      <c r="B60" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="61">
+        <v>10</v>
+      </c>
+      <c r="D60" s="62">
+        <v>1896</v>
+      </c>
+      <c r="E60" s="63">
+        <v>44487</v>
+      </c>
+      <c r="F60" s="61">
+        <v>716663</v>
+      </c>
+      <c r="G60" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="H60" s="64">
+        <v>5</v>
+      </c>
+      <c r="I60" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="J60" s="64">
+        <v>0</v>
+      </c>
+      <c r="K60" s="64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="6">
+        <v>151326492</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="2">
+        <v>10</v>
+      </c>
+      <c r="D61" s="3">
+        <v>1896</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F61" s="2">
+        <v>716663</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H61" s="5">
+        <v>3</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J61" s="5">
+        <v>3</v>
+      </c>
+      <c r="K61" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+    </row>
+    <row r="63" spans="1:13" s="35" customFormat="1">
+      <c r="A63" s="30">
+        <v>151280693</v>
+      </c>
+      <c r="B63" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="53">
+        <v>30</v>
+      </c>
+      <c r="D63" s="53">
+        <v>45000</v>
+      </c>
+      <c r="E63" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="F63" s="53">
+        <v>719031</v>
+      </c>
+      <c r="G63" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" s="54">
+        <v>20</v>
+      </c>
+      <c r="I63" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J63" s="54">
+        <v>14</v>
+      </c>
+      <c r="K63" s="54" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" s="35" customFormat="1">
+      <c r="A64" s="6">
+        <v>151308917</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" s="7">
+        <v>10</v>
+      </c>
+      <c r="D64" s="7">
+        <v>45000</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F64" s="7">
+        <v>719031</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" s="60">
+        <v>1</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J64" s="60">
+        <v>1</v>
+      </c>
+      <c r="K64" s="60" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" s="35" customFormat="1">
+      <c r="A65" s="6">
+        <v>151283046</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="7">
+        <v>10</v>
+      </c>
+      <c r="D65" s="7">
+        <v>45000</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F65" s="7">
+        <v>719031</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" s="60">
+        <v>2</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J65" s="60">
+        <v>2</v>
+      </c>
+      <c r="K65" s="60" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="38"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="44"/>
+      <c r="I66" s="43"/>
+      <c r="J66" s="44"/>
+      <c r="K66" s="44"/>
+    </row>
+    <row r="67" spans="1:11" s="35" customFormat="1">
+      <c r="A67" s="17">
+        <v>151332508</v>
+      </c>
+      <c r="B67" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="31">
+        <v>10</v>
+      </c>
+      <c r="D67" s="58">
+        <v>9999</v>
+      </c>
+      <c r="E67" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="F60" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="G60" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="H60" s="34">
-        <v>100</v>
-      </c>
-      <c r="I60" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J60" s="34">
+      <c r="F67" s="30">
+        <v>719381</v>
+      </c>
+      <c r="G67" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="H67" s="31">
+        <v>10</v>
+      </c>
+      <c r="I67" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J67" s="31">
+        <v>10</v>
+      </c>
+      <c r="K67" s="30" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="11"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="11"/>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="22">
+        <v>151308917</v>
+      </c>
+      <c r="B69" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="57">
+        <v>20</v>
+      </c>
+      <c r="D69" s="7">
+        <v>6800</v>
+      </c>
+      <c r="E69" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="F69" s="7">
+        <v>720138</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H69" s="57">
+        <v>1</v>
+      </c>
+      <c r="I69" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="J69" s="57">
         <v>0</v>
       </c>
-      <c r="K60" s="34" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="12"/>
-      <c r="M61" s="24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
-      <c r="A62" s="18">
-        <v>151264212</v>
-      </c>
-      <c r="B62" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C62" s="18">
-        <v>10</v>
-      </c>
-      <c r="D62" s="51">
-        <v>10710</v>
-      </c>
-      <c r="E62" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="F62" s="18">
-        <v>704681</v>
-      </c>
-      <c r="G62" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="H62" s="19">
-        <v>1</v>
-      </c>
-      <c r="I62" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="J62" s="19">
-        <v>0</v>
-      </c>
-      <c r="K62" s="19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="56"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="12"/>
-      <c r="K63" s="12"/>
-    </row>
-    <row r="64" spans="1:13">
-      <c r="A64" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D64" s="25">
-        <v>4995</v>
-      </c>
-      <c r="E64" s="26">
-        <v>44223</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H64" s="12">
-        <v>2</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J64" s="12">
-        <v>0</v>
-      </c>
-      <c r="K64" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="12"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="12"/>
-      <c r="K65" s="12"/>
-    </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D66" s="25">
-        <v>4245</v>
-      </c>
-      <c r="E66" s="26">
-        <v>44223</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H66" s="12">
-        <v>2</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J66" s="12">
-        <v>0</v>
-      </c>
-      <c r="K66" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="25"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="12"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="12"/>
-      <c r="K67" s="12"/>
-    </row>
-    <row r="68" spans="1:11">
-      <c r="A68" s="20">
-        <v>151113088</v>
-      </c>
-      <c r="B68" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="C68" s="61">
-        <v>10</v>
-      </c>
-      <c r="D68" s="62">
-        <v>1896</v>
-      </c>
-      <c r="E68" s="63">
-        <v>44487</v>
-      </c>
-      <c r="F68" s="61">
-        <v>716663</v>
-      </c>
-      <c r="G68" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="H68" s="64">
-        <v>5</v>
-      </c>
-      <c r="I68" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="J68" s="64">
-        <v>0</v>
-      </c>
-      <c r="K68" s="64" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
-      <c r="A69" s="6">
-        <v>151326492</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C69" s="2">
-        <v>10</v>
-      </c>
-      <c r="D69" s="3">
-        <v>1896</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F69" s="2">
-        <v>716663</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H69" s="5">
-        <v>3</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J69" s="5">
-        <v>3</v>
-      </c>
-      <c r="K69" s="5" t="s">
-        <v>94</v>
+      <c r="K69" s="57" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="25"/>
-      <c r="E70" s="26"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="12"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="12"/>
+      <c r="B70" s="39"/>
+      <c r="C70" s="39"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="39"/>
+      <c r="G70" s="39"/>
+      <c r="H70" s="39"/>
+      <c r="I70" s="39"/>
+      <c r="J70" s="39"/>
+      <c r="K70" s="39"/>
     </row>
     <row r="71" spans="1:11" s="35" customFormat="1">
-      <c r="A71" s="30">
-        <v>151280693</v>
-      </c>
-      <c r="B71" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="C71" s="53">
-        <v>30</v>
-      </c>
-      <c r="D71" s="53">
-        <v>45000</v>
-      </c>
-      <c r="E71" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="F71" s="53">
-        <v>719031</v>
-      </c>
-      <c r="G71" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="H71" s="54">
-        <v>20</v>
-      </c>
-      <c r="I71" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="J71" s="54">
-        <v>14</v>
-      </c>
-      <c r="K71" s="54" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" s="35" customFormat="1">
-      <c r="A72" s="6">
-        <v>151308917</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C72" s="7">
-        <v>10</v>
-      </c>
-      <c r="D72" s="7">
-        <v>45000</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F72" s="7">
-        <v>719031</v>
-      </c>
-      <c r="G72" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H72" s="60">
-        <v>1</v>
-      </c>
-      <c r="I72" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J72" s="60">
-        <v>1</v>
-      </c>
-      <c r="K72" s="60" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" s="35" customFormat="1">
-      <c r="A73" s="6">
-        <v>151283046</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C73" s="7">
-        <v>10</v>
-      </c>
-      <c r="D73" s="7">
-        <v>45000</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F73" s="7">
-        <v>719031</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H73" s="60">
-        <v>2</v>
-      </c>
-      <c r="I73" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J73" s="60">
-        <v>2</v>
-      </c>
-      <c r="K73" s="60" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
-      <c r="A74" s="38"/>
-      <c r="B74" s="43"/>
-      <c r="C74" s="43"/>
-      <c r="D74" s="43"/>
-      <c r="E74" s="43"/>
-      <c r="F74" s="43"/>
-      <c r="G74" s="43"/>
-      <c r="H74" s="44"/>
-      <c r="I74" s="43"/>
-      <c r="J74" s="44"/>
-      <c r="K74" s="44"/>
+      <c r="A71" s="11">
+        <v>151322392</v>
+      </c>
+      <c r="B71" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="31">
+        <v>10</v>
+      </c>
+      <c r="D71" s="31">
+        <v>2490</v>
+      </c>
+      <c r="E71" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="F71" s="30">
+        <v>724214</v>
+      </c>
+      <c r="G71" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="H71" s="31">
+        <v>10</v>
+      </c>
+      <c r="I71" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J71" s="31">
+        <v>0</v>
+      </c>
+      <c r="K71" s="31" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="1">
+        <v>16063532</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="1">
+        <v>10</v>
+      </c>
+      <c r="D73" s="1">
+        <v>2900</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F73" s="1">
+        <v>725828</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H73" s="1">
+        <v>10</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J73" s="1">
+        <v>0</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="75" spans="1:11" s="35" customFormat="1">
       <c r="A75" s="30">
@@ -7153,214 +6882,35 @@
         <v>10</v>
       </c>
       <c r="C75" s="31">
-        <v>30</v>
-      </c>
-      <c r="D75" s="58">
-        <v>9999</v>
-      </c>
-      <c r="E75" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="F75" s="30">
-        <v>719381</v>
+        <v>10</v>
+      </c>
+      <c r="D75" s="31">
+        <v>100</v>
+      </c>
+      <c r="E75" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F75" s="31">
+        <v>728488</v>
       </c>
       <c r="G75" s="30" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="H75" s="31">
         <v>10</v>
       </c>
       <c r="I75" s="31" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="J75" s="31">
         <v>0</v>
       </c>
-      <c r="K75" s="30" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
-      <c r="A76" s="11"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="16"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="11"/>
-      <c r="G76" s="11"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="11"/>
-    </row>
-    <row r="77" spans="1:11">
-      <c r="A77" s="22">
-        <v>151308917</v>
-      </c>
-      <c r="B77" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="C77" s="57">
-        <v>20</v>
-      </c>
-      <c r="D77" s="7">
-        <v>6800</v>
-      </c>
-      <c r="E77" s="57" t="s">
-        <v>91</v>
-      </c>
-      <c r="F77" s="7">
-        <v>720138</v>
-      </c>
-      <c r="G77" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H77" s="57">
-        <v>1</v>
-      </c>
-      <c r="I77" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="J77" s="57">
-        <v>0</v>
-      </c>
-      <c r="K77" s="57" t="s">
-        <v>98</v>
+      <c r="K75" s="31" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="1"/>
-      <c r="B78" s="39"/>
-      <c r="C78" s="39"/>
-      <c r="D78" s="39"/>
-      <c r="E78" s="39"/>
-      <c r="F78" s="39"/>
-      <c r="G78" s="39"/>
-      <c r="H78" s="39"/>
-      <c r="I78" s="39"/>
-      <c r="J78" s="39"/>
-      <c r="K78" s="39"/>
-    </row>
-    <row r="79" spans="1:11" s="35" customFormat="1">
-      <c r="A79" s="11">
-        <v>151322392</v>
-      </c>
-      <c r="B79" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C79" s="31">
-        <v>10</v>
-      </c>
-      <c r="D79" s="31">
-        <v>2490</v>
-      </c>
-      <c r="E79" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="F79" s="30">
-        <v>724214</v>
-      </c>
-      <c r="G79" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="H79" s="31">
-        <v>10</v>
-      </c>
-      <c r="I79" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J79" s="31">
-        <v>0</v>
-      </c>
-      <c r="K79" s="31" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-    </row>
-    <row r="81" spans="1:11">
-      <c r="A81" s="1">
-        <v>16063532</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C81" s="1">
-        <v>10</v>
-      </c>
-      <c r="D81" s="1">
-        <v>2900</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F81" s="1">
-        <v>725828</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H81" s="1">
-        <v>10</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J81" s="1">
-        <v>0</v>
-      </c>
-      <c r="K81" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" s="35" customFormat="1">
-      <c r="A83" s="30">
-        <v>151315311</v>
-      </c>
-      <c r="B83" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C83" s="31">
-        <v>10</v>
-      </c>
-      <c r="D83" s="31">
-        <v>100</v>
-      </c>
-      <c r="E83" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="F83" s="31">
-        <v>728488</v>
-      </c>
-      <c r="G83" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="H83" s="31">
-        <v>10</v>
-      </c>
-      <c r="I83" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="J83" s="31">
-        <v>0</v>
-      </c>
-      <c r="K83" s="31" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
-      <c r="F86" s="17"/>
+      <c r="F78" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Updated PO.xlsx
+++ b/Updated PO.xlsx
@@ -968,7 +968,7 @@
   <dimension ref="A1:M77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -2234,16 +2234,16 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
     </row>
     <row r="8" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
@@ -2979,7 +2979,7 @@
       <c r="K37" s="12"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="20">
+      <c r="A38" s="6">
         <v>151197029</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -3191,17 +3191,17 @@
       <c r="K45" s="32"/>
     </row>
     <row r="46" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="55"/>
-      <c r="B46" s="55"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="55"/>
-      <c r="E46" s="55"/>
-      <c r="F46" s="55"/>
-      <c r="G46" s="55"/>
-      <c r="H46" s="55"/>
-      <c r="I46" s="57"/>
-      <c r="J46" s="41"/>
-      <c r="K46" s="41"/>
+      <c r="A46" s="15"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="32"/>
     </row>
     <row r="47" spans="1:11" s="33" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="11">
@@ -3239,19 +3239,19 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="34" t="s">
+      <c r="A48" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B48" s="35"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="58"/>
-      <c r="H48" s="38"/>
-      <c r="I48" s="35"/>
-      <c r="J48" s="38"/>
-      <c r="K48" s="38"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
     </row>
     <row r="49" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="28">
@@ -3300,7 +3300,7 @@
       <c r="K50" s="32"/>
     </row>
     <row r="51" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="20">
+      <c r="A51" s="6">
         <v>151330034</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -3744,20 +3744,20 @@
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" s="34"/>
-      <c r="B68" s="39"/>
-      <c r="C68" s="39"/>
-      <c r="D68" s="39"/>
-      <c r="E68" s="39"/>
-      <c r="F68" s="39"/>
-      <c r="G68" s="39"/>
-      <c r="H68" s="40"/>
-      <c r="I68" s="39"/>
-      <c r="J68" s="40"/>
-      <c r="K68" s="40"/>
+      <c r="A68" s="11"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="18"/>
+      <c r="J68" s="19"/>
+      <c r="K68" s="19"/>
     </row>
     <row r="69" spans="1:11" s="33" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="17">
+      <c r="A69" s="11">
         <v>151332508</v>
       </c>
       <c r="B69" s="29" t="s">
@@ -3805,19 +3805,19 @@
       <c r="K70" s="11"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="20">
+      <c r="A71" s="6">
         <v>151308917</v>
       </c>
-      <c r="B71" s="47" t="s">
+      <c r="B71" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C71" s="47">
+      <c r="C71" s="7">
         <v>20</v>
       </c>
       <c r="D71" s="7">
         <v>6800</v>
       </c>
-      <c r="E71" s="47" t="s">
+      <c r="E71" s="7" t="s">
         <v>90</v>
       </c>
       <c r="F71" s="7">
@@ -3826,31 +3826,31 @@
       <c r="G71" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H71" s="47">
+      <c r="H71" s="7">
         <v>1</v>
       </c>
-      <c r="I71" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="J71" s="47">
+      <c r="I71" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J71" s="7">
         <v>0</v>
       </c>
-      <c r="K71" s="47" t="s">
+      <c r="K71" s="7" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
-      <c r="B72" s="35"/>
-      <c r="C72" s="35"/>
-      <c r="D72" s="35"/>
-      <c r="E72" s="35"/>
-      <c r="F72" s="35"/>
-      <c r="G72" s="35"/>
-      <c r="H72" s="35"/>
-      <c r="I72" s="35"/>
-      <c r="J72" s="35"/>
-      <c r="K72" s="35"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
     </row>
     <row r="73" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="11">
@@ -3934,6 +3934,19 @@
       <c r="K75" s="1" t="s">
         <v>56</v>
       </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
     </row>
     <row r="77" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="28">

--- a/Updated PO.xlsx
+++ b/Updated PO.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="107">
   <si>
     <t>Purchasing Document</t>
   </si>
@@ -342,6 +342,12 @@
   </si>
   <si>
     <t>10.06.2023</t>
+  </si>
+  <si>
+    <t>30.06.2023</t>
+  </si>
+  <si>
+    <t>29.08.2023</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -572,6 +578,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -878,10 +887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M75"/>
+  <dimension ref="A1:M79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="J56" sqref="J56"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -2160,19 +2169,19 @@
     </row>
     <row r="8" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
-        <v>151330034</v>
+        <v>151338133</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D8" s="10">
         <v>2400</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>99</v>
+      <c r="E8" s="4">
+        <v>45077</v>
       </c>
       <c r="F8" s="2">
         <v>615181</v>
@@ -2181,16 +2190,16 @@
         <v>17</v>
       </c>
       <c r="H8" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J8" s="2">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
-        <v>308.20229999999998</v>
+        <v>15</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -2398,19 +2407,19 @@
     </row>
     <row r="18" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
-        <v>151330034</v>
+        <v>151338133</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D18" s="2">
         <v>5614</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>99</v>
+      <c r="E18" s="4">
+        <v>45077</v>
       </c>
       <c r="F18" s="2">
         <v>616026</v>
@@ -2419,16 +2428,16 @@
         <v>66</v>
       </c>
       <c r="H18" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J18" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -2478,310 +2487,333 @@
       <c r="K20" s="30"/>
       <c r="L20" s="34"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-    </row>
-    <row r="22" spans="1:12" s="31" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="26">
+    <row r="21" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>151338133</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="2">
+        <v>70</v>
+      </c>
+      <c r="D21" s="5">
+        <v>6521</v>
+      </c>
+      <c r="E21" s="4">
+        <v>45077</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" s="5">
+        <v>20</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="5">
+        <v>20</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="L21" s="34"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+    </row>
+    <row r="23" spans="1:12" s="31" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="26">
         <v>151302474</v>
       </c>
-      <c r="B22" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="27">
+      <c r="B23" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="27">
         <v>30</v>
       </c>
-      <c r="D22" s="27">
+      <c r="D23" s="27">
         <v>4048</v>
       </c>
-      <c r="E22" s="29">
+      <c r="E23" s="29">
         <v>44987</v>
       </c>
-      <c r="F22" s="27">
+      <c r="F23" s="27">
         <v>630059</v>
       </c>
-      <c r="G22" s="27" t="s">
+      <c r="G23" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="27">
-        <v>10</v>
-      </c>
-      <c r="I22" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="J22" s="27">
+      <c r="H23" s="27">
+        <v>10</v>
+      </c>
+      <c r="I23" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="27">
         <v>4</v>
       </c>
-      <c r="K22" s="27"/>
-    </row>
-    <row r="23" spans="1:12" s="31" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
+      <c r="K23" s="27"/>
+    </row>
+    <row r="24" spans="1:12" s="31" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
         <v>151330034</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="2">
-        <v>10</v>
-      </c>
-      <c r="D23" s="2">
+      <c r="C24" s="2">
+        <v>10</v>
+      </c>
+      <c r="D24" s="2">
         <v>4048</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F24" s="2">
         <v>630059</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H24" s="2">
         <v>15</v>
       </c>
-      <c r="I23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" s="2">
+      <c r="I24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="2">
         <v>1</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="K24" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="31" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="26">
+    <row r="25" spans="1:12" s="31" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="26">
         <v>151335926</v>
       </c>
-      <c r="B24" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="27">
+      <c r="B25" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="27">
         <v>80</v>
       </c>
-      <c r="D24" s="27">
+      <c r="D25" s="27">
         <v>4048</v>
       </c>
-      <c r="E24" s="39">
+      <c r="E25" s="39">
         <v>45070</v>
       </c>
-      <c r="F24" s="27">
+      <c r="F25" s="27">
         <v>630059</v>
       </c>
-      <c r="G24" s="27" t="s">
+      <c r="G25" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="H24" s="27">
+      <c r="H25" s="27">
         <v>50</v>
       </c>
-      <c r="I24" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" s="27">
+      <c r="I25" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" s="27">
         <v>50</v>
       </c>
-      <c r="K24" s="27"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K25" s="27"/>
+    </row>
+    <row r="26" spans="1:12" s="31" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
-        <v>151330034</v>
+        <v>151338133</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C26" s="2">
-        <v>50</v>
-      </c>
-      <c r="D26" s="38">
+        <v>10</v>
+      </c>
+      <c r="D26" s="2">
+        <v>4048</v>
+      </c>
+      <c r="E26" s="43">
+        <v>45077</v>
+      </c>
+      <c r="F26" s="2">
+        <v>630059</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H26" s="2">
+        <v>20</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" s="2">
+        <v>20</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
+        <v>151338133</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="2">
+        <v>60</v>
+      </c>
+      <c r="D28" s="38">
         <v>5738</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F26" s="6">
+      <c r="E28" s="43">
+        <v>45077</v>
+      </c>
+      <c r="F28" s="6">
         <v>632215</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G28" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="H26" s="2">
-        <v>5</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J26" s="2">
+      <c r="H28" s="2">
+        <v>15</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" s="2">
+        <v>15</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="11"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="11"/>
+    </row>
+    <row r="30" spans="1:12" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="11">
+        <v>151110116</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="1">
+        <v>60</v>
+      </c>
+      <c r="D30" s="13">
+        <v>3450</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" s="13">
+        <v>634355</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" s="13">
+        <v>10</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J30" s="13">
+        <v>10</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="12"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>151008992</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="2">
+        <v>20</v>
+      </c>
+      <c r="D32" s="10">
+        <v>4726</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="2">
+        <v>635655</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" s="2">
+        <v>10</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J32" s="2">
         <v>0</v>
       </c>
-      <c r="K26" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="11"/>
-    </row>
-    <row r="28" spans="1:12" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="11">
-        <v>151110116</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="1">
-        <v>60</v>
-      </c>
-      <c r="D28" s="13">
-        <v>3450</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F28" s="13">
-        <v>634355</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H28" s="13">
-        <v>10</v>
-      </c>
-      <c r="I28" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J28" s="13">
-        <v>10</v>
-      </c>
-      <c r="K28" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="12"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
-        <v>151008992</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="2">
+      <c r="K32" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D30" s="10">
-        <v>4726</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F30" s="2">
-        <v>635655</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H30" s="2">
-        <v>10</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J30" s="2">
-        <v>0</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-    </row>
-    <row r="32" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="26">
-        <v>151302474</v>
-      </c>
-      <c r="B32" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="27">
-        <v>40</v>
-      </c>
-      <c r="D32" s="36">
-        <v>2818</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="F32" s="26">
-        <v>635656</v>
-      </c>
-      <c r="G32" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="H32" s="27">
-        <v>15</v>
-      </c>
-      <c r="I32" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="J32" s="27">
-        <v>0</v>
-      </c>
-      <c r="K32" s="27" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -2790,7 +2822,7 @@
       <c r="C33" s="1"/>
       <c r="D33" s="23"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="11"/>
+      <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -2799,405 +2831,427 @@
     </row>
     <row r="34" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="26">
+        <v>151302474</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="27">
+        <v>40</v>
+      </c>
+      <c r="D34" s="36">
+        <v>2818</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="F34" s="26">
+        <v>635656</v>
+      </c>
+      <c r="G34" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="H34" s="27">
+        <v>15</v>
+      </c>
+      <c r="I34" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="J34" s="27">
+        <v>0</v>
+      </c>
+      <c r="K34" s="27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="26">
         <v>151335926</v>
       </c>
-      <c r="B34" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="27">
+      <c r="B36" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="27">
         <v>70</v>
       </c>
-      <c r="D34" s="35">
+      <c r="D36" s="35">
         <v>3555</v>
       </c>
-      <c r="E34" s="39">
+      <c r="E36" s="39">
         <v>45070</v>
       </c>
-      <c r="F34" s="26">
+      <c r="F36" s="26">
         <v>646872</v>
       </c>
-      <c r="G34" s="26" t="s">
+      <c r="G36" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="H34" s="27">
-        <v>10</v>
-      </c>
-      <c r="I34" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="J34" s="27">
-        <v>10</v>
-      </c>
-      <c r="K34" s="26"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="11"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="11">
+      <c r="H36" s="27">
+        <v>10</v>
+      </c>
+      <c r="I36" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J36" s="27">
+        <v>10</v>
+      </c>
+      <c r="K36" s="26"/>
+    </row>
+    <row r="37" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="6">
+        <v>151338133</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="2">
+        <v>40</v>
+      </c>
+      <c r="D37" s="38">
+        <v>3555</v>
+      </c>
+      <c r="E37" s="43">
+        <v>45077</v>
+      </c>
+      <c r="F37" s="6">
+        <v>646872</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H37" s="2">
+        <v>10</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37" s="2">
+        <v>10</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="11"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="11">
         <v>151110116</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="1">
+      <c r="B39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="1">
         <v>40</v>
       </c>
-      <c r="D36" s="21">
+      <c r="D39" s="21">
         <v>112</v>
       </c>
-      <c r="E36" s="22" t="s">
+      <c r="E39" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H36" s="12">
+      <c r="H39" s="12">
         <v>50</v>
       </c>
-      <c r="I36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J36" s="12">
+      <c r="I39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J39" s="12">
         <v>0</v>
       </c>
-      <c r="K36" s="12" t="s">
+      <c r="K39" s="12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="6">
-        <v>151197029</v>
-      </c>
-      <c r="B38" s="2" t="s">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="6">
+        <v>151338133</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C41" s="2">
+        <v>90</v>
+      </c>
+      <c r="D41" s="3">
+        <v>3510</v>
+      </c>
+      <c r="E41" s="4">
+        <v>45077</v>
+      </c>
+      <c r="F41" s="2">
+        <v>663091</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H41" s="5">
+        <v>10</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J41" s="5">
+        <v>10</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="6">
+        <v>151338133</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="2">
+        <v>80</v>
+      </c>
+      <c r="D43" s="3">
+        <v>5130</v>
+      </c>
+      <c r="E43" s="4">
+        <v>45077</v>
+      </c>
+      <c r="F43" s="2">
+        <v>663092</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H43" s="5">
+        <v>10</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J43" s="5">
+        <v>10</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+    </row>
+    <row r="45" spans="1:11" s="31" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="6">
+        <v>151330034</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="2">
         <v>60</v>
       </c>
-      <c r="D38" s="3">
-        <v>3510</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F38" s="2">
-        <v>663091</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H38" s="5">
-        <v>2</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J38" s="5">
+      <c r="D45" s="3">
+        <v>6615</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F45" s="2">
+        <v>663093</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H45" s="5">
+        <v>10</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J45" s="5">
         <v>0</v>
       </c>
-      <c r="K38" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="6">
-        <v>151090350</v>
-      </c>
-      <c r="B40" s="2" t="s">
+      <c r="K45" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="6">
+        <v>151326603</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="2">
-        <v>10</v>
-      </c>
-      <c r="D40" s="3">
-        <v>5130</v>
-      </c>
-      <c r="E40" s="4" t="s">
+      <c r="C47" s="2">
+        <v>20</v>
+      </c>
+      <c r="D47" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F47" s="2">
+        <v>668330</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H47" s="5">
+        <v>9</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J47" s="5">
+        <v>0</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="26">
+        <v>151335926</v>
+      </c>
+      <c r="B48" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="27">
+        <v>50</v>
+      </c>
+      <c r="D48" s="28">
+        <v>6000</v>
+      </c>
+      <c r="E48" s="39">
+        <v>45070</v>
+      </c>
+      <c r="F48" s="27">
+        <v>668330</v>
+      </c>
+      <c r="G48" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="H48" s="30">
         <v>57</v>
       </c>
-      <c r="F40" s="2">
-        <v>663092</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H40" s="5">
-        <v>2</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J40" s="5">
+      <c r="I48" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J48" s="30">
         <v>0</v>
       </c>
-      <c r="K40" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-    </row>
-    <row r="42" spans="1:11" s="31" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="6">
-        <v>151330034</v>
-      </c>
-      <c r="B42" s="2" t="s">
+      <c r="K48" s="30"/>
+    </row>
+    <row r="49" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="6">
+        <v>151338133</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="2">
-        <v>60</v>
-      </c>
-      <c r="D42" s="3">
-        <v>6615</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F42" s="2">
-        <v>663093</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H42" s="5">
-        <v>10</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J42" s="5">
-        <v>0</v>
-      </c>
-      <c r="K42" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="6">
-        <v>151326603</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" s="2">
-        <v>20</v>
-      </c>
-      <c r="D44" s="3">
+      <c r="C49" s="2">
+        <v>30</v>
+      </c>
+      <c r="D49" s="3">
         <v>6000</v>
       </c>
-      <c r="E44" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F44" s="2">
+      <c r="E49" s="43">
+        <v>45077</v>
+      </c>
+      <c r="F49" s="2">
         <v>668330</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="G49" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H44" s="5">
-        <v>9</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J44" s="5">
-        <v>0</v>
-      </c>
-      <c r="K44" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="26">
-        <v>151335926</v>
-      </c>
-      <c r="B45" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" s="27">
-        <v>50</v>
-      </c>
-      <c r="D45" s="28">
-        <v>6000</v>
-      </c>
-      <c r="E45" s="39">
-        <v>45070</v>
-      </c>
-      <c r="F45" s="27">
-        <v>668330</v>
-      </c>
-      <c r="G45" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="H45" s="30">
-        <v>57</v>
-      </c>
-      <c r="I45" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="J45" s="30">
-        <v>0</v>
-      </c>
-      <c r="K45" s="30"/>
-    </row>
-    <row r="46" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="15"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="41"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30"/>
-    </row>
-    <row r="47" spans="1:11" s="31" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="11">
-        <v>151332240</v>
-      </c>
-      <c r="B47" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" s="27">
-        <v>10</v>
-      </c>
-      <c r="D47" s="28">
-        <v>9703</v>
-      </c>
-      <c r="E47" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="F47" s="26">
-        <v>681149</v>
-      </c>
-      <c r="G47" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H47" s="30">
-        <v>4</v>
-      </c>
-      <c r="I47" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="J47" s="30">
-        <v>0</v>
-      </c>
-      <c r="K47" s="29" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="42"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-    </row>
-    <row r="49" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="26">
-        <v>151335926</v>
-      </c>
-      <c r="B49" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" s="27">
-        <v>40</v>
-      </c>
-      <c r="D49" s="28">
-        <v>1908</v>
-      </c>
-      <c r="E49" s="29">
-        <v>45070</v>
-      </c>
-      <c r="F49" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="G49" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="H49" s="30">
-        <v>50</v>
-      </c>
-      <c r="I49" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="J49" s="30">
-        <v>50</v>
-      </c>
-      <c r="K49" s="30"/>
+      <c r="H49" s="5">
+        <v>15</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J49" s="5">
+        <v>15</v>
+      </c>
+      <c r="K49" s="4">
+        <v>45077</v>
+      </c>
     </row>
     <row r="50" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="15"/>
@@ -3212,186 +3266,183 @@
       <c r="J50" s="30"/>
       <c r="K50" s="30"/>
     </row>
-    <row r="51" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="6">
+    <row r="51" spans="1:13" s="31" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="11">
+        <v>151332240</v>
+      </c>
+      <c r="B51" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="27">
+        <v>10</v>
+      </c>
+      <c r="D51" s="28">
+        <v>9703</v>
+      </c>
+      <c r="E51" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="F51" s="26">
+        <v>681149</v>
+      </c>
+      <c r="G51" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H51" s="30">
+        <v>4</v>
+      </c>
+      <c r="I51" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J51" s="30">
+        <v>0</v>
+      </c>
+      <c r="K51" s="29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+    </row>
+    <row r="53" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="26">
+        <v>151335926</v>
+      </c>
+      <c r="B53" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="27">
+        <v>40</v>
+      </c>
+      <c r="D53" s="28">
+        <v>1908</v>
+      </c>
+      <c r="E53" s="29">
+        <v>45070</v>
+      </c>
+      <c r="F53" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G53" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="H53" s="30">
+        <v>50</v>
+      </c>
+      <c r="I53" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J53" s="30">
+        <v>50</v>
+      </c>
+      <c r="K53" s="30"/>
+    </row>
+    <row r="54" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="15"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="41"/>
+      <c r="J54" s="30"/>
+      <c r="K54" s="30"/>
+    </row>
+    <row r="55" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="6">
         <v>151330034</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B55" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C55" s="2">
         <v>20</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D55" s="3">
         <v>8463</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="E55" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F55" s="6">
         <v>687349</v>
       </c>
-      <c r="G51" s="6" t="s">
+      <c r="G55" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="H51" s="5">
+      <c r="H55" s="5">
         <v>25</v>
       </c>
-      <c r="I51" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J51" s="5">
+      <c r="I55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J55" s="5">
         <v>0</v>
       </c>
-      <c r="K51" s="5" t="s">
+      <c r="K55" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="26"/>
-      <c r="B52" s="27"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="30"/>
-      <c r="K52" s="30"/>
-    </row>
-    <row r="53" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="6">
+    <row r="56" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="26"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="30"/>
+    </row>
+    <row r="57" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="6">
         <v>151242082</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B57" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C53" s="2">
-        <v>10</v>
-      </c>
-      <c r="D53" s="3">
+      <c r="C57" s="2">
+        <v>10</v>
+      </c>
+      <c r="D57" s="3">
         <v>1600</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E57" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F53" s="6">
+      <c r="F57" s="6">
         <v>691660</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="G57" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H53" s="5">
+      <c r="H57" s="5">
         <v>1</v>
       </c>
-      <c r="I53" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J53" s="5">
+      <c r="I57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J57" s="5">
         <v>0</v>
       </c>
-      <c r="K53" s="5" t="s">
+      <c r="K57" s="5" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
-    </row>
-    <row r="55" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="11">
-        <v>151330961</v>
-      </c>
-      <c r="B55" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C55" s="27">
-        <v>10</v>
-      </c>
-      <c r="D55" s="28">
-        <v>565</v>
-      </c>
-      <c r="E55" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="F55" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G55" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="H55" s="30">
-        <v>200</v>
-      </c>
-      <c r="I55" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="J55" s="30">
-        <v>0</v>
-      </c>
-      <c r="K55" s="30" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
-      <c r="M56" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A57" s="17">
-        <v>151264212</v>
-      </c>
-      <c r="B57" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C57" s="17">
-        <v>10</v>
-      </c>
-      <c r="D57" s="32">
-        <v>10710</v>
-      </c>
-      <c r="E57" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="F57" s="17">
-        <v>704681</v>
-      </c>
-      <c r="G57" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="H57" s="18">
-        <v>1</v>
-      </c>
-      <c r="I57" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="J57" s="18">
-        <v>0</v>
-      </c>
-      <c r="K57" s="18" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
@@ -3401,45 +3452,45 @@
       <c r="D58" s="21"/>
       <c r="E58" s="22"/>
       <c r="F58" s="1"/>
-      <c r="G58" s="42"/>
+      <c r="G58" s="1"/>
       <c r="H58" s="12"/>
       <c r="I58" s="1"/>
       <c r="J58" s="12"/>
       <c r="K58" s="12"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D59" s="21">
-        <v>4995</v>
-      </c>
-      <c r="E59" s="22">
-        <v>44223</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H59" s="12">
-        <v>2</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J59" s="12">
+    <row r="59" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="11">
+        <v>151330961</v>
+      </c>
+      <c r="B59" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="27">
+        <v>10</v>
+      </c>
+      <c r="D59" s="28">
+        <v>565</v>
+      </c>
+      <c r="E59" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="F59" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G59" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="H59" s="30">
+        <v>200</v>
+      </c>
+      <c r="I59" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J59" s="30">
         <v>0</v>
       </c>
-      <c r="K59" s="12" t="s">
-        <v>41</v>
+      <c r="K59" s="30" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
@@ -3454,40 +3505,43 @@
       <c r="I60" s="1"/>
       <c r="J60" s="12"/>
       <c r="K60" s="12"/>
+      <c r="M60" s="20" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D61" s="21">
-        <v>4245</v>
-      </c>
-      <c r="E61" s="22">
-        <v>44223</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H61" s="12">
-        <v>2</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J61" s="12">
+      <c r="A61" s="17">
+        <v>151264212</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="17">
+        <v>10</v>
+      </c>
+      <c r="D61" s="32">
+        <v>10710</v>
+      </c>
+      <c r="E61" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="F61" s="17">
+        <v>704681</v>
+      </c>
+      <c r="G61" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="H61" s="18">
+        <v>1</v>
+      </c>
+      <c r="I61" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J61" s="18">
         <v>0</v>
       </c>
-      <c r="K61" s="12" t="s">
-        <v>41</v>
+      <c r="K61" s="18" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
@@ -3497,45 +3551,45 @@
       <c r="D62" s="21"/>
       <c r="E62" s="22"/>
       <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
+      <c r="G62" s="42"/>
       <c r="H62" s="12"/>
       <c r="I62" s="1"/>
       <c r="J62" s="12"/>
       <c r="K62" s="12"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A63" s="6">
-        <v>151326492</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C63" s="2">
-        <v>10</v>
-      </c>
-      <c r="D63" s="3">
-        <v>1896</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F63" s="2">
-        <v>716663</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H63" s="5">
-        <v>3</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J63" s="5">
+      <c r="A63" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D63" s="21">
+        <v>4995</v>
+      </c>
+      <c r="E63" s="22">
+        <v>44223</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H63" s="12">
+        <v>2</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J63" s="12">
         <v>0</v>
       </c>
-      <c r="K63" s="5" t="s">
-        <v>89</v>
+      <c r="K63" s="12" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
@@ -3551,153 +3605,153 @@
       <c r="J64" s="12"/>
       <c r="K64" s="12"/>
     </row>
-    <row r="65" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="6">
-        <v>151283046</v>
-      </c>
-      <c r="B65" s="7" t="s">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" s="21">
+        <v>4245</v>
+      </c>
+      <c r="E65" s="22">
+        <v>44223</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H65" s="12">
+        <v>2</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J65" s="12">
+        <v>0</v>
+      </c>
+      <c r="K65" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="6">
+        <v>151326492</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C65" s="7">
-        <v>10</v>
-      </c>
-      <c r="D65" s="7">
-        <v>45000</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F65" s="7">
-        <v>719031</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H65" s="37">
-        <v>2</v>
-      </c>
-      <c r="I65" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J65" s="37">
+      <c r="C67" s="2">
+        <v>10</v>
+      </c>
+      <c r="D67" s="3">
+        <v>1896</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F67" s="2">
+        <v>716663</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H67" s="5">
+        <v>3</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J67" s="5">
         <v>0</v>
       </c>
-      <c r="K65" s="37" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="11"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="17"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="17"/>
-      <c r="J66" s="18"/>
-      <c r="K66" s="18"/>
-    </row>
-    <row r="67" spans="1:11" s="31" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="11">
-        <v>151332508</v>
-      </c>
-      <c r="B67" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C67" s="27">
-        <v>10</v>
-      </c>
-      <c r="D67" s="35">
-        <v>9999</v>
-      </c>
-      <c r="E67" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="F67" s="26">
-        <v>719381</v>
-      </c>
-      <c r="G67" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="H67" s="27">
-        <v>10</v>
-      </c>
-      <c r="I67" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="J67" s="27">
-        <v>0</v>
-      </c>
-      <c r="K67" s="26" t="s">
-        <v>98</v>
+      <c r="K67" s="5" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" s="11"/>
+      <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="1"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="12"/>
       <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="11"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+    </row>
+    <row r="69" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
-        <v>151308917</v>
+        <v>151283046</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C69" s="7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D69" s="7">
-        <v>6800</v>
+        <v>45000</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F69" s="7">
-        <v>720138</v>
+        <v>719031</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H69" s="7">
-        <v>1</v>
+        <v>45</v>
+      </c>
+      <c r="H69" s="37">
+        <v>2</v>
       </c>
       <c r="I69" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J69" s="7">
+      <c r="J69" s="37">
         <v>0</v>
       </c>
-      <c r="K69" s="7" t="s">
-        <v>92</v>
+      <c r="K69" s="37" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-    </row>
-    <row r="71" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="11"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="17"/>
+      <c r="J70" s="18"/>
+      <c r="K70" s="18"/>
+    </row>
+    <row r="71" spans="1:11" s="31" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="11">
-        <v>151322392</v>
+        <v>151332508</v>
       </c>
       <c r="B71" s="27" t="s">
         <v>10</v>
@@ -3705,17 +3759,17 @@
       <c r="C71" s="27">
         <v>10</v>
       </c>
-      <c r="D71" s="27">
-        <v>2490</v>
-      </c>
-      <c r="E71" s="27" t="s">
-        <v>93</v>
+      <c r="D71" s="35">
+        <v>9999</v>
+      </c>
+      <c r="E71" s="26" t="s">
+        <v>97</v>
       </c>
       <c r="F71" s="26">
-        <v>724214</v>
+        <v>719381</v>
       </c>
       <c r="G71" s="26" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="H71" s="27">
         <v>10</v>
@@ -3726,56 +3780,56 @@
       <c r="J71" s="27">
         <v>0</v>
       </c>
-      <c r="K71" s="27" t="s">
-        <v>97</v>
+      <c r="K71" s="26" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="1"/>
+      <c r="A72" s="11"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
+      <c r="K72" s="11"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73" s="1">
-        <v>16063532</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C73" s="1">
-        <v>10</v>
-      </c>
-      <c r="D73" s="1">
-        <v>2900</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F73" s="1">
-        <v>725828</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H73" s="1">
-        <v>10</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J73" s="1">
+      <c r="A73" s="6">
+        <v>151308917</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C73" s="7">
+        <v>20</v>
+      </c>
+      <c r="D73" s="7">
+        <v>6800</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F73" s="7">
+        <v>720138</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H73" s="7">
+        <v>1</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J73" s="7">
         <v>0</v>
       </c>
-      <c r="K73" s="1" t="s">
-        <v>56</v>
+      <c r="K73" s="7" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
@@ -3792,8 +3846,8 @@
       <c r="K74" s="1"/>
     </row>
     <row r="75" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="26">
-        <v>151315311</v>
+      <c r="A75" s="11">
+        <v>151322392</v>
       </c>
       <c r="B75" s="27" t="s">
         <v>10</v>
@@ -3802,27 +3856,123 @@
         <v>10</v>
       </c>
       <c r="D75" s="27">
-        <v>100</v>
+        <v>2490</v>
       </c>
       <c r="E75" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="F75" s="27">
-        <v>728488</v>
+        <v>93</v>
+      </c>
+      <c r="F75" s="26">
+        <v>724214</v>
       </c>
       <c r="G75" s="26" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H75" s="27">
         <v>10</v>
       </c>
       <c r="I75" s="27" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="J75" s="27">
         <v>0</v>
       </c>
       <c r="K75" s="27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>16063532</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="1">
+        <v>10</v>
+      </c>
+      <c r="D77" s="1">
+        <v>2900</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F77" s="1">
+        <v>725828</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H77" s="1">
+        <v>10</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J77" s="1">
+        <v>0</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+    </row>
+    <row r="79" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="26">
+        <v>151315311</v>
+      </c>
+      <c r="B79" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" s="27">
+        <v>10</v>
+      </c>
+      <c r="D79" s="27">
+        <v>100</v>
+      </c>
+      <c r="E79" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="F79" s="27">
+        <v>728488</v>
+      </c>
+      <c r="G79" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="H79" s="27">
+        <v>10</v>
+      </c>
+      <c r="I79" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="J79" s="27">
+        <v>0</v>
+      </c>
+      <c r="K79" s="27" t="s">
         <v>96</v>
       </c>
     </row>

--- a/Updated PO.xlsx
+++ b/Updated PO.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="107">
   <si>
     <t>Purchasing Document</t>
   </si>
@@ -887,10 +887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M79"/>
+  <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -901,1083 +901,1083 @@
     <col min="4" max="4" width="14.44140625" style="20" customWidth="1"/>
     <col min="5" max="5" width="15.77734375" style="20" customWidth="1"/>
     <col min="6" max="6" width="12.21875" style="20" customWidth="1"/>
-    <col min="7" max="7" width="53.44140625" style="20" customWidth="1"/>
+    <col min="7" max="7" width="45.5546875" style="20" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" style="20" customWidth="1"/>
     <col min="9" max="9" width="12.44140625" style="20" customWidth="1"/>
-    <col min="10" max="10" width="24.109375" style="20" customWidth="1"/>
+    <col min="10" max="10" width="17.21875" style="20" customWidth="1"/>
     <col min="11" max="11" width="14.33203125" style="20" customWidth="1"/>
-    <col min="12" max="246" width="8.88671875" style="20"/>
-    <col min="247" max="247" width="20.5546875" style="20" customWidth="1"/>
-    <col min="248" max="248" width="13.109375" style="20" customWidth="1"/>
-    <col min="249" max="249" width="8.88671875" style="20"/>
-    <col min="250" max="250" width="14.5546875" style="20" customWidth="1"/>
-    <col min="251" max="251" width="14.44140625" style="20" customWidth="1"/>
-    <col min="252" max="252" width="8.88671875" style="20" customWidth="1"/>
-    <col min="253" max="253" width="19.109375" style="20" customWidth="1"/>
-    <col min="254" max="254" width="12.33203125" style="20" customWidth="1"/>
-    <col min="255" max="255" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="256" max="256" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="10.33203125" style="20" customWidth="1"/>
-    <col min="258" max="258" width="8" style="20" customWidth="1"/>
-    <col min="259" max="260" width="14.33203125" style="20" customWidth="1"/>
-    <col min="261" max="261" width="6.5546875" style="20" customWidth="1"/>
-    <col min="262" max="262" width="10.109375" style="20" customWidth="1"/>
-    <col min="263" max="263" width="7.5546875" style="20" customWidth="1"/>
-    <col min="264" max="502" width="8.88671875" style="20"/>
-    <col min="503" max="503" width="20.5546875" style="20" customWidth="1"/>
-    <col min="504" max="504" width="13.109375" style="20" customWidth="1"/>
-    <col min="505" max="505" width="8.88671875" style="20"/>
-    <col min="506" max="506" width="14.5546875" style="20" customWidth="1"/>
-    <col min="507" max="507" width="14.44140625" style="20" customWidth="1"/>
-    <col min="508" max="508" width="8.88671875" style="20" customWidth="1"/>
-    <col min="509" max="509" width="19.109375" style="20" customWidth="1"/>
-    <col min="510" max="510" width="12.33203125" style="20" customWidth="1"/>
-    <col min="511" max="511" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="512" max="512" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="513" max="513" width="10.33203125" style="20" customWidth="1"/>
-    <col min="514" max="514" width="8" style="20" customWidth="1"/>
-    <col min="515" max="516" width="14.33203125" style="20" customWidth="1"/>
-    <col min="517" max="517" width="6.5546875" style="20" customWidth="1"/>
-    <col min="518" max="518" width="10.109375" style="20" customWidth="1"/>
-    <col min="519" max="519" width="7.5546875" style="20" customWidth="1"/>
-    <col min="520" max="758" width="8.88671875" style="20"/>
-    <col min="759" max="759" width="20.5546875" style="20" customWidth="1"/>
-    <col min="760" max="760" width="13.109375" style="20" customWidth="1"/>
-    <col min="761" max="761" width="8.88671875" style="20"/>
-    <col min="762" max="762" width="14.5546875" style="20" customWidth="1"/>
-    <col min="763" max="763" width="14.44140625" style="20" customWidth="1"/>
-    <col min="764" max="764" width="8.88671875" style="20" customWidth="1"/>
-    <col min="765" max="765" width="19.109375" style="20" customWidth="1"/>
-    <col min="766" max="766" width="12.33203125" style="20" customWidth="1"/>
-    <col min="767" max="767" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="768" max="768" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="769" max="769" width="10.33203125" style="20" customWidth="1"/>
-    <col min="770" max="770" width="8" style="20" customWidth="1"/>
-    <col min="771" max="772" width="14.33203125" style="20" customWidth="1"/>
-    <col min="773" max="773" width="6.5546875" style="20" customWidth="1"/>
-    <col min="774" max="774" width="10.109375" style="20" customWidth="1"/>
-    <col min="775" max="775" width="7.5546875" style="20" customWidth="1"/>
-    <col min="776" max="1014" width="8.88671875" style="20"/>
-    <col min="1015" max="1015" width="20.5546875" style="20" customWidth="1"/>
-    <col min="1016" max="1016" width="13.109375" style="20" customWidth="1"/>
-    <col min="1017" max="1017" width="8.88671875" style="20"/>
-    <col min="1018" max="1018" width="14.5546875" style="20" customWidth="1"/>
-    <col min="1019" max="1019" width="14.44140625" style="20" customWidth="1"/>
-    <col min="1020" max="1020" width="8.88671875" style="20" customWidth="1"/>
-    <col min="1021" max="1021" width="19.109375" style="20" customWidth="1"/>
-    <col min="1022" max="1022" width="12.33203125" style="20" customWidth="1"/>
-    <col min="1023" max="1023" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="1024" max="1024" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="1025" max="1025" width="10.33203125" style="20" customWidth="1"/>
-    <col min="1026" max="1026" width="8" style="20" customWidth="1"/>
-    <col min="1027" max="1028" width="14.33203125" style="20" customWidth="1"/>
-    <col min="1029" max="1029" width="6.5546875" style="20" customWidth="1"/>
-    <col min="1030" max="1030" width="10.109375" style="20" customWidth="1"/>
-    <col min="1031" max="1031" width="7.5546875" style="20" customWidth="1"/>
-    <col min="1032" max="1270" width="8.88671875" style="20"/>
-    <col min="1271" max="1271" width="20.5546875" style="20" customWidth="1"/>
-    <col min="1272" max="1272" width="13.109375" style="20" customWidth="1"/>
-    <col min="1273" max="1273" width="8.88671875" style="20"/>
-    <col min="1274" max="1274" width="14.5546875" style="20" customWidth="1"/>
-    <col min="1275" max="1275" width="14.44140625" style="20" customWidth="1"/>
-    <col min="1276" max="1276" width="8.88671875" style="20" customWidth="1"/>
-    <col min="1277" max="1277" width="19.109375" style="20" customWidth="1"/>
-    <col min="1278" max="1278" width="12.33203125" style="20" customWidth="1"/>
-    <col min="1279" max="1279" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="1280" max="1280" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="1281" max="1281" width="10.33203125" style="20" customWidth="1"/>
-    <col min="1282" max="1282" width="8" style="20" customWidth="1"/>
-    <col min="1283" max="1284" width="14.33203125" style="20" customWidth="1"/>
-    <col min="1285" max="1285" width="6.5546875" style="20" customWidth="1"/>
-    <col min="1286" max="1286" width="10.109375" style="20" customWidth="1"/>
-    <col min="1287" max="1287" width="7.5546875" style="20" customWidth="1"/>
-    <col min="1288" max="1526" width="8.88671875" style="20"/>
-    <col min="1527" max="1527" width="20.5546875" style="20" customWidth="1"/>
-    <col min="1528" max="1528" width="13.109375" style="20" customWidth="1"/>
-    <col min="1529" max="1529" width="8.88671875" style="20"/>
-    <col min="1530" max="1530" width="14.5546875" style="20" customWidth="1"/>
-    <col min="1531" max="1531" width="14.44140625" style="20" customWidth="1"/>
-    <col min="1532" max="1532" width="8.88671875" style="20" customWidth="1"/>
-    <col min="1533" max="1533" width="19.109375" style="20" customWidth="1"/>
-    <col min="1534" max="1534" width="12.33203125" style="20" customWidth="1"/>
-    <col min="1535" max="1535" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="1536" max="1536" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="1537" max="1537" width="10.33203125" style="20" customWidth="1"/>
-    <col min="1538" max="1538" width="8" style="20" customWidth="1"/>
-    <col min="1539" max="1540" width="14.33203125" style="20" customWidth="1"/>
-    <col min="1541" max="1541" width="6.5546875" style="20" customWidth="1"/>
-    <col min="1542" max="1542" width="10.109375" style="20" customWidth="1"/>
-    <col min="1543" max="1543" width="7.5546875" style="20" customWidth="1"/>
-    <col min="1544" max="1782" width="8.88671875" style="20"/>
-    <col min="1783" max="1783" width="20.5546875" style="20" customWidth="1"/>
-    <col min="1784" max="1784" width="13.109375" style="20" customWidth="1"/>
-    <col min="1785" max="1785" width="8.88671875" style="20"/>
-    <col min="1786" max="1786" width="14.5546875" style="20" customWidth="1"/>
-    <col min="1787" max="1787" width="14.44140625" style="20" customWidth="1"/>
-    <col min="1788" max="1788" width="8.88671875" style="20" customWidth="1"/>
-    <col min="1789" max="1789" width="19.109375" style="20" customWidth="1"/>
-    <col min="1790" max="1790" width="12.33203125" style="20" customWidth="1"/>
-    <col min="1791" max="1791" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="1792" max="1792" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="1793" max="1793" width="10.33203125" style="20" customWidth="1"/>
-    <col min="1794" max="1794" width="8" style="20" customWidth="1"/>
-    <col min="1795" max="1796" width="14.33203125" style="20" customWidth="1"/>
-    <col min="1797" max="1797" width="6.5546875" style="20" customWidth="1"/>
-    <col min="1798" max="1798" width="10.109375" style="20" customWidth="1"/>
-    <col min="1799" max="1799" width="7.5546875" style="20" customWidth="1"/>
-    <col min="1800" max="2038" width="8.88671875" style="20"/>
-    <col min="2039" max="2039" width="20.5546875" style="20" customWidth="1"/>
-    <col min="2040" max="2040" width="13.109375" style="20" customWidth="1"/>
-    <col min="2041" max="2041" width="8.88671875" style="20"/>
-    <col min="2042" max="2042" width="14.5546875" style="20" customWidth="1"/>
-    <col min="2043" max="2043" width="14.44140625" style="20" customWidth="1"/>
-    <col min="2044" max="2044" width="8.88671875" style="20" customWidth="1"/>
-    <col min="2045" max="2045" width="19.109375" style="20" customWidth="1"/>
-    <col min="2046" max="2046" width="12.33203125" style="20" customWidth="1"/>
-    <col min="2047" max="2047" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="2048" max="2048" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="2049" max="2049" width="10.33203125" style="20" customWidth="1"/>
-    <col min="2050" max="2050" width="8" style="20" customWidth="1"/>
-    <col min="2051" max="2052" width="14.33203125" style="20" customWidth="1"/>
-    <col min="2053" max="2053" width="6.5546875" style="20" customWidth="1"/>
-    <col min="2054" max="2054" width="10.109375" style="20" customWidth="1"/>
-    <col min="2055" max="2055" width="7.5546875" style="20" customWidth="1"/>
-    <col min="2056" max="2294" width="8.88671875" style="20"/>
-    <col min="2295" max="2295" width="20.5546875" style="20" customWidth="1"/>
-    <col min="2296" max="2296" width="13.109375" style="20" customWidth="1"/>
-    <col min="2297" max="2297" width="8.88671875" style="20"/>
-    <col min="2298" max="2298" width="14.5546875" style="20" customWidth="1"/>
-    <col min="2299" max="2299" width="14.44140625" style="20" customWidth="1"/>
-    <col min="2300" max="2300" width="8.88671875" style="20" customWidth="1"/>
-    <col min="2301" max="2301" width="19.109375" style="20" customWidth="1"/>
-    <col min="2302" max="2302" width="12.33203125" style="20" customWidth="1"/>
-    <col min="2303" max="2303" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="2304" max="2304" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="2305" max="2305" width="10.33203125" style="20" customWidth="1"/>
-    <col min="2306" max="2306" width="8" style="20" customWidth="1"/>
-    <col min="2307" max="2308" width="14.33203125" style="20" customWidth="1"/>
-    <col min="2309" max="2309" width="6.5546875" style="20" customWidth="1"/>
-    <col min="2310" max="2310" width="10.109375" style="20" customWidth="1"/>
-    <col min="2311" max="2311" width="7.5546875" style="20" customWidth="1"/>
-    <col min="2312" max="2550" width="8.88671875" style="20"/>
-    <col min="2551" max="2551" width="20.5546875" style="20" customWidth="1"/>
-    <col min="2552" max="2552" width="13.109375" style="20" customWidth="1"/>
-    <col min="2553" max="2553" width="8.88671875" style="20"/>
-    <col min="2554" max="2554" width="14.5546875" style="20" customWidth="1"/>
-    <col min="2555" max="2555" width="14.44140625" style="20" customWidth="1"/>
-    <col min="2556" max="2556" width="8.88671875" style="20" customWidth="1"/>
-    <col min="2557" max="2557" width="19.109375" style="20" customWidth="1"/>
-    <col min="2558" max="2558" width="12.33203125" style="20" customWidth="1"/>
-    <col min="2559" max="2559" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="2560" max="2560" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="2561" max="2561" width="10.33203125" style="20" customWidth="1"/>
-    <col min="2562" max="2562" width="8" style="20" customWidth="1"/>
-    <col min="2563" max="2564" width="14.33203125" style="20" customWidth="1"/>
-    <col min="2565" max="2565" width="6.5546875" style="20" customWidth="1"/>
-    <col min="2566" max="2566" width="10.109375" style="20" customWidth="1"/>
-    <col min="2567" max="2567" width="7.5546875" style="20" customWidth="1"/>
-    <col min="2568" max="2806" width="8.88671875" style="20"/>
-    <col min="2807" max="2807" width="20.5546875" style="20" customWidth="1"/>
-    <col min="2808" max="2808" width="13.109375" style="20" customWidth="1"/>
-    <col min="2809" max="2809" width="8.88671875" style="20"/>
-    <col min="2810" max="2810" width="14.5546875" style="20" customWidth="1"/>
-    <col min="2811" max="2811" width="14.44140625" style="20" customWidth="1"/>
-    <col min="2812" max="2812" width="8.88671875" style="20" customWidth="1"/>
-    <col min="2813" max="2813" width="19.109375" style="20" customWidth="1"/>
-    <col min="2814" max="2814" width="12.33203125" style="20" customWidth="1"/>
-    <col min="2815" max="2815" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="2816" max="2816" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="2817" max="2817" width="10.33203125" style="20" customWidth="1"/>
-    <col min="2818" max="2818" width="8" style="20" customWidth="1"/>
-    <col min="2819" max="2820" width="14.33203125" style="20" customWidth="1"/>
-    <col min="2821" max="2821" width="6.5546875" style="20" customWidth="1"/>
-    <col min="2822" max="2822" width="10.109375" style="20" customWidth="1"/>
-    <col min="2823" max="2823" width="7.5546875" style="20" customWidth="1"/>
-    <col min="2824" max="3062" width="8.88671875" style="20"/>
-    <col min="3063" max="3063" width="20.5546875" style="20" customWidth="1"/>
-    <col min="3064" max="3064" width="13.109375" style="20" customWidth="1"/>
-    <col min="3065" max="3065" width="8.88671875" style="20"/>
-    <col min="3066" max="3066" width="14.5546875" style="20" customWidth="1"/>
-    <col min="3067" max="3067" width="14.44140625" style="20" customWidth="1"/>
-    <col min="3068" max="3068" width="8.88671875" style="20" customWidth="1"/>
-    <col min="3069" max="3069" width="19.109375" style="20" customWidth="1"/>
-    <col min="3070" max="3070" width="12.33203125" style="20" customWidth="1"/>
-    <col min="3071" max="3071" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="3072" max="3072" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="3073" max="3073" width="10.33203125" style="20" customWidth="1"/>
-    <col min="3074" max="3074" width="8" style="20" customWidth="1"/>
-    <col min="3075" max="3076" width="14.33203125" style="20" customWidth="1"/>
-    <col min="3077" max="3077" width="6.5546875" style="20" customWidth="1"/>
-    <col min="3078" max="3078" width="10.109375" style="20" customWidth="1"/>
-    <col min="3079" max="3079" width="7.5546875" style="20" customWidth="1"/>
-    <col min="3080" max="3318" width="8.88671875" style="20"/>
-    <col min="3319" max="3319" width="20.5546875" style="20" customWidth="1"/>
-    <col min="3320" max="3320" width="13.109375" style="20" customWidth="1"/>
-    <col min="3321" max="3321" width="8.88671875" style="20"/>
-    <col min="3322" max="3322" width="14.5546875" style="20" customWidth="1"/>
-    <col min="3323" max="3323" width="14.44140625" style="20" customWidth="1"/>
-    <col min="3324" max="3324" width="8.88671875" style="20" customWidth="1"/>
-    <col min="3325" max="3325" width="19.109375" style="20" customWidth="1"/>
-    <col min="3326" max="3326" width="12.33203125" style="20" customWidth="1"/>
-    <col min="3327" max="3327" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="3328" max="3328" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="3329" max="3329" width="10.33203125" style="20" customWidth="1"/>
-    <col min="3330" max="3330" width="8" style="20" customWidth="1"/>
-    <col min="3331" max="3332" width="14.33203125" style="20" customWidth="1"/>
-    <col min="3333" max="3333" width="6.5546875" style="20" customWidth="1"/>
-    <col min="3334" max="3334" width="10.109375" style="20" customWidth="1"/>
-    <col min="3335" max="3335" width="7.5546875" style="20" customWidth="1"/>
-    <col min="3336" max="3574" width="8.88671875" style="20"/>
-    <col min="3575" max="3575" width="20.5546875" style="20" customWidth="1"/>
-    <col min="3576" max="3576" width="13.109375" style="20" customWidth="1"/>
-    <col min="3577" max="3577" width="8.88671875" style="20"/>
-    <col min="3578" max="3578" width="14.5546875" style="20" customWidth="1"/>
-    <col min="3579" max="3579" width="14.44140625" style="20" customWidth="1"/>
-    <col min="3580" max="3580" width="8.88671875" style="20" customWidth="1"/>
-    <col min="3581" max="3581" width="19.109375" style="20" customWidth="1"/>
-    <col min="3582" max="3582" width="12.33203125" style="20" customWidth="1"/>
-    <col min="3583" max="3583" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="3584" max="3584" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="3585" max="3585" width="10.33203125" style="20" customWidth="1"/>
-    <col min="3586" max="3586" width="8" style="20" customWidth="1"/>
-    <col min="3587" max="3588" width="14.33203125" style="20" customWidth="1"/>
-    <col min="3589" max="3589" width="6.5546875" style="20" customWidth="1"/>
-    <col min="3590" max="3590" width="10.109375" style="20" customWidth="1"/>
-    <col min="3591" max="3591" width="7.5546875" style="20" customWidth="1"/>
-    <col min="3592" max="3830" width="8.88671875" style="20"/>
-    <col min="3831" max="3831" width="20.5546875" style="20" customWidth="1"/>
-    <col min="3832" max="3832" width="13.109375" style="20" customWidth="1"/>
-    <col min="3833" max="3833" width="8.88671875" style="20"/>
-    <col min="3834" max="3834" width="14.5546875" style="20" customWidth="1"/>
-    <col min="3835" max="3835" width="14.44140625" style="20" customWidth="1"/>
-    <col min="3836" max="3836" width="8.88671875" style="20" customWidth="1"/>
-    <col min="3837" max="3837" width="19.109375" style="20" customWidth="1"/>
-    <col min="3838" max="3838" width="12.33203125" style="20" customWidth="1"/>
-    <col min="3839" max="3839" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="3840" max="3840" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="3841" max="3841" width="10.33203125" style="20" customWidth="1"/>
-    <col min="3842" max="3842" width="8" style="20" customWidth="1"/>
-    <col min="3843" max="3844" width="14.33203125" style="20" customWidth="1"/>
-    <col min="3845" max="3845" width="6.5546875" style="20" customWidth="1"/>
-    <col min="3846" max="3846" width="10.109375" style="20" customWidth="1"/>
-    <col min="3847" max="3847" width="7.5546875" style="20" customWidth="1"/>
-    <col min="3848" max="4086" width="8.88671875" style="20"/>
-    <col min="4087" max="4087" width="20.5546875" style="20" customWidth="1"/>
-    <col min="4088" max="4088" width="13.109375" style="20" customWidth="1"/>
-    <col min="4089" max="4089" width="8.88671875" style="20"/>
-    <col min="4090" max="4090" width="14.5546875" style="20" customWidth="1"/>
-    <col min="4091" max="4091" width="14.44140625" style="20" customWidth="1"/>
-    <col min="4092" max="4092" width="8.88671875" style="20" customWidth="1"/>
-    <col min="4093" max="4093" width="19.109375" style="20" customWidth="1"/>
-    <col min="4094" max="4094" width="12.33203125" style="20" customWidth="1"/>
-    <col min="4095" max="4095" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="4096" max="4096" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="4097" max="4097" width="10.33203125" style="20" customWidth="1"/>
-    <col min="4098" max="4098" width="8" style="20" customWidth="1"/>
-    <col min="4099" max="4100" width="14.33203125" style="20" customWidth="1"/>
-    <col min="4101" max="4101" width="6.5546875" style="20" customWidth="1"/>
-    <col min="4102" max="4102" width="10.109375" style="20" customWidth="1"/>
-    <col min="4103" max="4103" width="7.5546875" style="20" customWidth="1"/>
-    <col min="4104" max="4342" width="8.88671875" style="20"/>
-    <col min="4343" max="4343" width="20.5546875" style="20" customWidth="1"/>
-    <col min="4344" max="4344" width="13.109375" style="20" customWidth="1"/>
-    <col min="4345" max="4345" width="8.88671875" style="20"/>
-    <col min="4346" max="4346" width="14.5546875" style="20" customWidth="1"/>
-    <col min="4347" max="4347" width="14.44140625" style="20" customWidth="1"/>
-    <col min="4348" max="4348" width="8.88671875" style="20" customWidth="1"/>
-    <col min="4349" max="4349" width="19.109375" style="20" customWidth="1"/>
-    <col min="4350" max="4350" width="12.33203125" style="20" customWidth="1"/>
-    <col min="4351" max="4351" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="4352" max="4352" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="4353" max="4353" width="10.33203125" style="20" customWidth="1"/>
-    <col min="4354" max="4354" width="8" style="20" customWidth="1"/>
-    <col min="4355" max="4356" width="14.33203125" style="20" customWidth="1"/>
-    <col min="4357" max="4357" width="6.5546875" style="20" customWidth="1"/>
-    <col min="4358" max="4358" width="10.109375" style="20" customWidth="1"/>
-    <col min="4359" max="4359" width="7.5546875" style="20" customWidth="1"/>
-    <col min="4360" max="4598" width="8.88671875" style="20"/>
-    <col min="4599" max="4599" width="20.5546875" style="20" customWidth="1"/>
-    <col min="4600" max="4600" width="13.109375" style="20" customWidth="1"/>
-    <col min="4601" max="4601" width="8.88671875" style="20"/>
-    <col min="4602" max="4602" width="14.5546875" style="20" customWidth="1"/>
-    <col min="4603" max="4603" width="14.44140625" style="20" customWidth="1"/>
-    <col min="4604" max="4604" width="8.88671875" style="20" customWidth="1"/>
-    <col min="4605" max="4605" width="19.109375" style="20" customWidth="1"/>
-    <col min="4606" max="4606" width="12.33203125" style="20" customWidth="1"/>
-    <col min="4607" max="4607" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="4608" max="4608" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="4609" max="4609" width="10.33203125" style="20" customWidth="1"/>
-    <col min="4610" max="4610" width="8" style="20" customWidth="1"/>
-    <col min="4611" max="4612" width="14.33203125" style="20" customWidth="1"/>
-    <col min="4613" max="4613" width="6.5546875" style="20" customWidth="1"/>
-    <col min="4614" max="4614" width="10.109375" style="20" customWidth="1"/>
-    <col min="4615" max="4615" width="7.5546875" style="20" customWidth="1"/>
-    <col min="4616" max="4854" width="8.88671875" style="20"/>
-    <col min="4855" max="4855" width="20.5546875" style="20" customWidth="1"/>
-    <col min="4856" max="4856" width="13.109375" style="20" customWidth="1"/>
-    <col min="4857" max="4857" width="8.88671875" style="20"/>
-    <col min="4858" max="4858" width="14.5546875" style="20" customWidth="1"/>
-    <col min="4859" max="4859" width="14.44140625" style="20" customWidth="1"/>
-    <col min="4860" max="4860" width="8.88671875" style="20" customWidth="1"/>
-    <col min="4861" max="4861" width="19.109375" style="20" customWidth="1"/>
-    <col min="4862" max="4862" width="12.33203125" style="20" customWidth="1"/>
-    <col min="4863" max="4863" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="4864" max="4864" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="4865" max="4865" width="10.33203125" style="20" customWidth="1"/>
-    <col min="4866" max="4866" width="8" style="20" customWidth="1"/>
-    <col min="4867" max="4868" width="14.33203125" style="20" customWidth="1"/>
-    <col min="4869" max="4869" width="6.5546875" style="20" customWidth="1"/>
-    <col min="4870" max="4870" width="10.109375" style="20" customWidth="1"/>
-    <col min="4871" max="4871" width="7.5546875" style="20" customWidth="1"/>
-    <col min="4872" max="5110" width="8.88671875" style="20"/>
-    <col min="5111" max="5111" width="20.5546875" style="20" customWidth="1"/>
-    <col min="5112" max="5112" width="13.109375" style="20" customWidth="1"/>
-    <col min="5113" max="5113" width="8.88671875" style="20"/>
-    <col min="5114" max="5114" width="14.5546875" style="20" customWidth="1"/>
-    <col min="5115" max="5115" width="14.44140625" style="20" customWidth="1"/>
-    <col min="5116" max="5116" width="8.88671875" style="20" customWidth="1"/>
-    <col min="5117" max="5117" width="19.109375" style="20" customWidth="1"/>
-    <col min="5118" max="5118" width="12.33203125" style="20" customWidth="1"/>
-    <col min="5119" max="5119" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="5120" max="5120" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5121" max="5121" width="10.33203125" style="20" customWidth="1"/>
-    <col min="5122" max="5122" width="8" style="20" customWidth="1"/>
-    <col min="5123" max="5124" width="14.33203125" style="20" customWidth="1"/>
-    <col min="5125" max="5125" width="6.5546875" style="20" customWidth="1"/>
-    <col min="5126" max="5126" width="10.109375" style="20" customWidth="1"/>
-    <col min="5127" max="5127" width="7.5546875" style="20" customWidth="1"/>
-    <col min="5128" max="5366" width="8.88671875" style="20"/>
-    <col min="5367" max="5367" width="20.5546875" style="20" customWidth="1"/>
-    <col min="5368" max="5368" width="13.109375" style="20" customWidth="1"/>
-    <col min="5369" max="5369" width="8.88671875" style="20"/>
-    <col min="5370" max="5370" width="14.5546875" style="20" customWidth="1"/>
-    <col min="5371" max="5371" width="14.44140625" style="20" customWidth="1"/>
-    <col min="5372" max="5372" width="8.88671875" style="20" customWidth="1"/>
-    <col min="5373" max="5373" width="19.109375" style="20" customWidth="1"/>
-    <col min="5374" max="5374" width="12.33203125" style="20" customWidth="1"/>
-    <col min="5375" max="5375" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="5376" max="5376" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5377" max="5377" width="10.33203125" style="20" customWidth="1"/>
-    <col min="5378" max="5378" width="8" style="20" customWidth="1"/>
-    <col min="5379" max="5380" width="14.33203125" style="20" customWidth="1"/>
-    <col min="5381" max="5381" width="6.5546875" style="20" customWidth="1"/>
-    <col min="5382" max="5382" width="10.109375" style="20" customWidth="1"/>
-    <col min="5383" max="5383" width="7.5546875" style="20" customWidth="1"/>
-    <col min="5384" max="5622" width="8.88671875" style="20"/>
-    <col min="5623" max="5623" width="20.5546875" style="20" customWidth="1"/>
-    <col min="5624" max="5624" width="13.109375" style="20" customWidth="1"/>
-    <col min="5625" max="5625" width="8.88671875" style="20"/>
-    <col min="5626" max="5626" width="14.5546875" style="20" customWidth="1"/>
-    <col min="5627" max="5627" width="14.44140625" style="20" customWidth="1"/>
-    <col min="5628" max="5628" width="8.88671875" style="20" customWidth="1"/>
-    <col min="5629" max="5629" width="19.109375" style="20" customWidth="1"/>
-    <col min="5630" max="5630" width="12.33203125" style="20" customWidth="1"/>
-    <col min="5631" max="5631" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="5632" max="5632" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5633" max="5633" width="10.33203125" style="20" customWidth="1"/>
-    <col min="5634" max="5634" width="8" style="20" customWidth="1"/>
-    <col min="5635" max="5636" width="14.33203125" style="20" customWidth="1"/>
-    <col min="5637" max="5637" width="6.5546875" style="20" customWidth="1"/>
-    <col min="5638" max="5638" width="10.109375" style="20" customWidth="1"/>
-    <col min="5639" max="5639" width="7.5546875" style="20" customWidth="1"/>
-    <col min="5640" max="5878" width="8.88671875" style="20"/>
-    <col min="5879" max="5879" width="20.5546875" style="20" customWidth="1"/>
-    <col min="5880" max="5880" width="13.109375" style="20" customWidth="1"/>
-    <col min="5881" max="5881" width="8.88671875" style="20"/>
-    <col min="5882" max="5882" width="14.5546875" style="20" customWidth="1"/>
-    <col min="5883" max="5883" width="14.44140625" style="20" customWidth="1"/>
-    <col min="5884" max="5884" width="8.88671875" style="20" customWidth="1"/>
-    <col min="5885" max="5885" width="19.109375" style="20" customWidth="1"/>
-    <col min="5886" max="5886" width="12.33203125" style="20" customWidth="1"/>
-    <col min="5887" max="5887" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="5888" max="5888" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5889" max="5889" width="10.33203125" style="20" customWidth="1"/>
-    <col min="5890" max="5890" width="8" style="20" customWidth="1"/>
-    <col min="5891" max="5892" width="14.33203125" style="20" customWidth="1"/>
-    <col min="5893" max="5893" width="6.5546875" style="20" customWidth="1"/>
-    <col min="5894" max="5894" width="10.109375" style="20" customWidth="1"/>
-    <col min="5895" max="5895" width="7.5546875" style="20" customWidth="1"/>
-    <col min="5896" max="6134" width="8.88671875" style="20"/>
-    <col min="6135" max="6135" width="20.5546875" style="20" customWidth="1"/>
-    <col min="6136" max="6136" width="13.109375" style="20" customWidth="1"/>
-    <col min="6137" max="6137" width="8.88671875" style="20"/>
-    <col min="6138" max="6138" width="14.5546875" style="20" customWidth="1"/>
-    <col min="6139" max="6139" width="14.44140625" style="20" customWidth="1"/>
-    <col min="6140" max="6140" width="8.88671875" style="20" customWidth="1"/>
-    <col min="6141" max="6141" width="19.109375" style="20" customWidth="1"/>
-    <col min="6142" max="6142" width="12.33203125" style="20" customWidth="1"/>
-    <col min="6143" max="6143" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="6144" max="6144" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="6145" max="6145" width="10.33203125" style="20" customWidth="1"/>
-    <col min="6146" max="6146" width="8" style="20" customWidth="1"/>
-    <col min="6147" max="6148" width="14.33203125" style="20" customWidth="1"/>
-    <col min="6149" max="6149" width="6.5546875" style="20" customWidth="1"/>
-    <col min="6150" max="6150" width="10.109375" style="20" customWidth="1"/>
-    <col min="6151" max="6151" width="7.5546875" style="20" customWidth="1"/>
-    <col min="6152" max="6390" width="8.88671875" style="20"/>
-    <col min="6391" max="6391" width="20.5546875" style="20" customWidth="1"/>
-    <col min="6392" max="6392" width="13.109375" style="20" customWidth="1"/>
-    <col min="6393" max="6393" width="8.88671875" style="20"/>
-    <col min="6394" max="6394" width="14.5546875" style="20" customWidth="1"/>
-    <col min="6395" max="6395" width="14.44140625" style="20" customWidth="1"/>
-    <col min="6396" max="6396" width="8.88671875" style="20" customWidth="1"/>
-    <col min="6397" max="6397" width="19.109375" style="20" customWidth="1"/>
-    <col min="6398" max="6398" width="12.33203125" style="20" customWidth="1"/>
-    <col min="6399" max="6399" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="6400" max="6400" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="6401" max="6401" width="10.33203125" style="20" customWidth="1"/>
-    <col min="6402" max="6402" width="8" style="20" customWidth="1"/>
-    <col min="6403" max="6404" width="14.33203125" style="20" customWidth="1"/>
-    <col min="6405" max="6405" width="6.5546875" style="20" customWidth="1"/>
-    <col min="6406" max="6406" width="10.109375" style="20" customWidth="1"/>
-    <col min="6407" max="6407" width="7.5546875" style="20" customWidth="1"/>
-    <col min="6408" max="6646" width="8.88671875" style="20"/>
-    <col min="6647" max="6647" width="20.5546875" style="20" customWidth="1"/>
-    <col min="6648" max="6648" width="13.109375" style="20" customWidth="1"/>
-    <col min="6649" max="6649" width="8.88671875" style="20"/>
-    <col min="6650" max="6650" width="14.5546875" style="20" customWidth="1"/>
-    <col min="6651" max="6651" width="14.44140625" style="20" customWidth="1"/>
-    <col min="6652" max="6652" width="8.88671875" style="20" customWidth="1"/>
-    <col min="6653" max="6653" width="19.109375" style="20" customWidth="1"/>
-    <col min="6654" max="6654" width="12.33203125" style="20" customWidth="1"/>
-    <col min="6655" max="6655" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="6656" max="6656" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="6657" max="6657" width="10.33203125" style="20" customWidth="1"/>
-    <col min="6658" max="6658" width="8" style="20" customWidth="1"/>
-    <col min="6659" max="6660" width="14.33203125" style="20" customWidth="1"/>
-    <col min="6661" max="6661" width="6.5546875" style="20" customWidth="1"/>
-    <col min="6662" max="6662" width="10.109375" style="20" customWidth="1"/>
-    <col min="6663" max="6663" width="7.5546875" style="20" customWidth="1"/>
-    <col min="6664" max="6902" width="8.88671875" style="20"/>
-    <col min="6903" max="6903" width="20.5546875" style="20" customWidth="1"/>
-    <col min="6904" max="6904" width="13.109375" style="20" customWidth="1"/>
-    <col min="6905" max="6905" width="8.88671875" style="20"/>
-    <col min="6906" max="6906" width="14.5546875" style="20" customWidth="1"/>
-    <col min="6907" max="6907" width="14.44140625" style="20" customWidth="1"/>
-    <col min="6908" max="6908" width="8.88671875" style="20" customWidth="1"/>
-    <col min="6909" max="6909" width="19.109375" style="20" customWidth="1"/>
-    <col min="6910" max="6910" width="12.33203125" style="20" customWidth="1"/>
-    <col min="6911" max="6911" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="6912" max="6912" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="6913" max="6913" width="10.33203125" style="20" customWidth="1"/>
-    <col min="6914" max="6914" width="8" style="20" customWidth="1"/>
-    <col min="6915" max="6916" width="14.33203125" style="20" customWidth="1"/>
-    <col min="6917" max="6917" width="6.5546875" style="20" customWidth="1"/>
-    <col min="6918" max="6918" width="10.109375" style="20" customWidth="1"/>
-    <col min="6919" max="6919" width="7.5546875" style="20" customWidth="1"/>
-    <col min="6920" max="7158" width="8.88671875" style="20"/>
-    <col min="7159" max="7159" width="20.5546875" style="20" customWidth="1"/>
-    <col min="7160" max="7160" width="13.109375" style="20" customWidth="1"/>
-    <col min="7161" max="7161" width="8.88671875" style="20"/>
-    <col min="7162" max="7162" width="14.5546875" style="20" customWidth="1"/>
-    <col min="7163" max="7163" width="14.44140625" style="20" customWidth="1"/>
-    <col min="7164" max="7164" width="8.88671875" style="20" customWidth="1"/>
-    <col min="7165" max="7165" width="19.109375" style="20" customWidth="1"/>
-    <col min="7166" max="7166" width="12.33203125" style="20" customWidth="1"/>
-    <col min="7167" max="7167" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="7168" max="7168" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="7169" max="7169" width="10.33203125" style="20" customWidth="1"/>
-    <col min="7170" max="7170" width="8" style="20" customWidth="1"/>
-    <col min="7171" max="7172" width="14.33203125" style="20" customWidth="1"/>
-    <col min="7173" max="7173" width="6.5546875" style="20" customWidth="1"/>
-    <col min="7174" max="7174" width="10.109375" style="20" customWidth="1"/>
-    <col min="7175" max="7175" width="7.5546875" style="20" customWidth="1"/>
-    <col min="7176" max="7414" width="8.88671875" style="20"/>
-    <col min="7415" max="7415" width="20.5546875" style="20" customWidth="1"/>
-    <col min="7416" max="7416" width="13.109375" style="20" customWidth="1"/>
-    <col min="7417" max="7417" width="8.88671875" style="20"/>
-    <col min="7418" max="7418" width="14.5546875" style="20" customWidth="1"/>
-    <col min="7419" max="7419" width="14.44140625" style="20" customWidth="1"/>
-    <col min="7420" max="7420" width="8.88671875" style="20" customWidth="1"/>
-    <col min="7421" max="7421" width="19.109375" style="20" customWidth="1"/>
-    <col min="7422" max="7422" width="12.33203125" style="20" customWidth="1"/>
-    <col min="7423" max="7423" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="7424" max="7424" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="7425" max="7425" width="10.33203125" style="20" customWidth="1"/>
-    <col min="7426" max="7426" width="8" style="20" customWidth="1"/>
-    <col min="7427" max="7428" width="14.33203125" style="20" customWidth="1"/>
-    <col min="7429" max="7429" width="6.5546875" style="20" customWidth="1"/>
-    <col min="7430" max="7430" width="10.109375" style="20" customWidth="1"/>
-    <col min="7431" max="7431" width="7.5546875" style="20" customWidth="1"/>
-    <col min="7432" max="7670" width="8.88671875" style="20"/>
-    <col min="7671" max="7671" width="20.5546875" style="20" customWidth="1"/>
-    <col min="7672" max="7672" width="13.109375" style="20" customWidth="1"/>
-    <col min="7673" max="7673" width="8.88671875" style="20"/>
-    <col min="7674" max="7674" width="14.5546875" style="20" customWidth="1"/>
-    <col min="7675" max="7675" width="14.44140625" style="20" customWidth="1"/>
-    <col min="7676" max="7676" width="8.88671875" style="20" customWidth="1"/>
-    <col min="7677" max="7677" width="19.109375" style="20" customWidth="1"/>
-    <col min="7678" max="7678" width="12.33203125" style="20" customWidth="1"/>
-    <col min="7679" max="7679" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="7680" max="7680" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="7681" max="7681" width="10.33203125" style="20" customWidth="1"/>
-    <col min="7682" max="7682" width="8" style="20" customWidth="1"/>
-    <col min="7683" max="7684" width="14.33203125" style="20" customWidth="1"/>
-    <col min="7685" max="7685" width="6.5546875" style="20" customWidth="1"/>
-    <col min="7686" max="7686" width="10.109375" style="20" customWidth="1"/>
-    <col min="7687" max="7687" width="7.5546875" style="20" customWidth="1"/>
-    <col min="7688" max="7926" width="8.88671875" style="20"/>
-    <col min="7927" max="7927" width="20.5546875" style="20" customWidth="1"/>
-    <col min="7928" max="7928" width="13.109375" style="20" customWidth="1"/>
-    <col min="7929" max="7929" width="8.88671875" style="20"/>
-    <col min="7930" max="7930" width="14.5546875" style="20" customWidth="1"/>
-    <col min="7931" max="7931" width="14.44140625" style="20" customWidth="1"/>
-    <col min="7932" max="7932" width="8.88671875" style="20" customWidth="1"/>
-    <col min="7933" max="7933" width="19.109375" style="20" customWidth="1"/>
-    <col min="7934" max="7934" width="12.33203125" style="20" customWidth="1"/>
-    <col min="7935" max="7935" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="7936" max="7936" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="7937" max="7937" width="10.33203125" style="20" customWidth="1"/>
-    <col min="7938" max="7938" width="8" style="20" customWidth="1"/>
-    <col min="7939" max="7940" width="14.33203125" style="20" customWidth="1"/>
-    <col min="7941" max="7941" width="6.5546875" style="20" customWidth="1"/>
-    <col min="7942" max="7942" width="10.109375" style="20" customWidth="1"/>
-    <col min="7943" max="7943" width="7.5546875" style="20" customWidth="1"/>
-    <col min="7944" max="8182" width="8.88671875" style="20"/>
-    <col min="8183" max="8183" width="20.5546875" style="20" customWidth="1"/>
-    <col min="8184" max="8184" width="13.109375" style="20" customWidth="1"/>
-    <col min="8185" max="8185" width="8.88671875" style="20"/>
-    <col min="8186" max="8186" width="14.5546875" style="20" customWidth="1"/>
-    <col min="8187" max="8187" width="14.44140625" style="20" customWidth="1"/>
-    <col min="8188" max="8188" width="8.88671875" style="20" customWidth="1"/>
-    <col min="8189" max="8189" width="19.109375" style="20" customWidth="1"/>
-    <col min="8190" max="8190" width="12.33203125" style="20" customWidth="1"/>
-    <col min="8191" max="8191" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="8192" max="8192" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="8193" max="8193" width="10.33203125" style="20" customWidth="1"/>
-    <col min="8194" max="8194" width="8" style="20" customWidth="1"/>
-    <col min="8195" max="8196" width="14.33203125" style="20" customWidth="1"/>
-    <col min="8197" max="8197" width="6.5546875" style="20" customWidth="1"/>
-    <col min="8198" max="8198" width="10.109375" style="20" customWidth="1"/>
-    <col min="8199" max="8199" width="7.5546875" style="20" customWidth="1"/>
-    <col min="8200" max="8438" width="8.88671875" style="20"/>
-    <col min="8439" max="8439" width="20.5546875" style="20" customWidth="1"/>
-    <col min="8440" max="8440" width="13.109375" style="20" customWidth="1"/>
-    <col min="8441" max="8441" width="8.88671875" style="20"/>
-    <col min="8442" max="8442" width="14.5546875" style="20" customWidth="1"/>
-    <col min="8443" max="8443" width="14.44140625" style="20" customWidth="1"/>
-    <col min="8444" max="8444" width="8.88671875" style="20" customWidth="1"/>
-    <col min="8445" max="8445" width="19.109375" style="20" customWidth="1"/>
-    <col min="8446" max="8446" width="12.33203125" style="20" customWidth="1"/>
-    <col min="8447" max="8447" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="8448" max="8448" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="8449" max="8449" width="10.33203125" style="20" customWidth="1"/>
-    <col min="8450" max="8450" width="8" style="20" customWidth="1"/>
-    <col min="8451" max="8452" width="14.33203125" style="20" customWidth="1"/>
-    <col min="8453" max="8453" width="6.5546875" style="20" customWidth="1"/>
-    <col min="8454" max="8454" width="10.109375" style="20" customWidth="1"/>
-    <col min="8455" max="8455" width="7.5546875" style="20" customWidth="1"/>
-    <col min="8456" max="8694" width="8.88671875" style="20"/>
-    <col min="8695" max="8695" width="20.5546875" style="20" customWidth="1"/>
-    <col min="8696" max="8696" width="13.109375" style="20" customWidth="1"/>
-    <col min="8697" max="8697" width="8.88671875" style="20"/>
-    <col min="8698" max="8698" width="14.5546875" style="20" customWidth="1"/>
-    <col min="8699" max="8699" width="14.44140625" style="20" customWidth="1"/>
-    <col min="8700" max="8700" width="8.88671875" style="20" customWidth="1"/>
-    <col min="8701" max="8701" width="19.109375" style="20" customWidth="1"/>
-    <col min="8702" max="8702" width="12.33203125" style="20" customWidth="1"/>
-    <col min="8703" max="8703" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="8704" max="8704" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="8705" max="8705" width="10.33203125" style="20" customWidth="1"/>
-    <col min="8706" max="8706" width="8" style="20" customWidth="1"/>
-    <col min="8707" max="8708" width="14.33203125" style="20" customWidth="1"/>
-    <col min="8709" max="8709" width="6.5546875" style="20" customWidth="1"/>
-    <col min="8710" max="8710" width="10.109375" style="20" customWidth="1"/>
-    <col min="8711" max="8711" width="7.5546875" style="20" customWidth="1"/>
-    <col min="8712" max="8950" width="8.88671875" style="20"/>
-    <col min="8951" max="8951" width="20.5546875" style="20" customWidth="1"/>
-    <col min="8952" max="8952" width="13.109375" style="20" customWidth="1"/>
-    <col min="8953" max="8953" width="8.88671875" style="20"/>
-    <col min="8954" max="8954" width="14.5546875" style="20" customWidth="1"/>
-    <col min="8955" max="8955" width="14.44140625" style="20" customWidth="1"/>
-    <col min="8956" max="8956" width="8.88671875" style="20" customWidth="1"/>
-    <col min="8957" max="8957" width="19.109375" style="20" customWidth="1"/>
-    <col min="8958" max="8958" width="12.33203125" style="20" customWidth="1"/>
-    <col min="8959" max="8959" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="8960" max="8960" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="8961" max="8961" width="10.33203125" style="20" customWidth="1"/>
-    <col min="8962" max="8962" width="8" style="20" customWidth="1"/>
-    <col min="8963" max="8964" width="14.33203125" style="20" customWidth="1"/>
-    <col min="8965" max="8965" width="6.5546875" style="20" customWidth="1"/>
-    <col min="8966" max="8966" width="10.109375" style="20" customWidth="1"/>
-    <col min="8967" max="8967" width="7.5546875" style="20" customWidth="1"/>
-    <col min="8968" max="9206" width="8.88671875" style="20"/>
-    <col min="9207" max="9207" width="20.5546875" style="20" customWidth="1"/>
-    <col min="9208" max="9208" width="13.109375" style="20" customWidth="1"/>
-    <col min="9209" max="9209" width="8.88671875" style="20"/>
-    <col min="9210" max="9210" width="14.5546875" style="20" customWidth="1"/>
-    <col min="9211" max="9211" width="14.44140625" style="20" customWidth="1"/>
-    <col min="9212" max="9212" width="8.88671875" style="20" customWidth="1"/>
-    <col min="9213" max="9213" width="19.109375" style="20" customWidth="1"/>
-    <col min="9214" max="9214" width="12.33203125" style="20" customWidth="1"/>
-    <col min="9215" max="9215" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="9216" max="9216" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="9217" max="9217" width="10.33203125" style="20" customWidth="1"/>
-    <col min="9218" max="9218" width="8" style="20" customWidth="1"/>
-    <col min="9219" max="9220" width="14.33203125" style="20" customWidth="1"/>
-    <col min="9221" max="9221" width="6.5546875" style="20" customWidth="1"/>
-    <col min="9222" max="9222" width="10.109375" style="20" customWidth="1"/>
-    <col min="9223" max="9223" width="7.5546875" style="20" customWidth="1"/>
-    <col min="9224" max="9462" width="8.88671875" style="20"/>
-    <col min="9463" max="9463" width="20.5546875" style="20" customWidth="1"/>
-    <col min="9464" max="9464" width="13.109375" style="20" customWidth="1"/>
-    <col min="9465" max="9465" width="8.88671875" style="20"/>
-    <col min="9466" max="9466" width="14.5546875" style="20" customWidth="1"/>
-    <col min="9467" max="9467" width="14.44140625" style="20" customWidth="1"/>
-    <col min="9468" max="9468" width="8.88671875" style="20" customWidth="1"/>
-    <col min="9469" max="9469" width="19.109375" style="20" customWidth="1"/>
-    <col min="9470" max="9470" width="12.33203125" style="20" customWidth="1"/>
-    <col min="9471" max="9471" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="9472" max="9472" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="9473" max="9473" width="10.33203125" style="20" customWidth="1"/>
-    <col min="9474" max="9474" width="8" style="20" customWidth="1"/>
-    <col min="9475" max="9476" width="14.33203125" style="20" customWidth="1"/>
-    <col min="9477" max="9477" width="6.5546875" style="20" customWidth="1"/>
-    <col min="9478" max="9478" width="10.109375" style="20" customWidth="1"/>
-    <col min="9479" max="9479" width="7.5546875" style="20" customWidth="1"/>
-    <col min="9480" max="9718" width="8.88671875" style="20"/>
-    <col min="9719" max="9719" width="20.5546875" style="20" customWidth="1"/>
-    <col min="9720" max="9720" width="13.109375" style="20" customWidth="1"/>
-    <col min="9721" max="9721" width="8.88671875" style="20"/>
-    <col min="9722" max="9722" width="14.5546875" style="20" customWidth="1"/>
-    <col min="9723" max="9723" width="14.44140625" style="20" customWidth="1"/>
-    <col min="9724" max="9724" width="8.88671875" style="20" customWidth="1"/>
-    <col min="9725" max="9725" width="19.109375" style="20" customWidth="1"/>
-    <col min="9726" max="9726" width="12.33203125" style="20" customWidth="1"/>
-    <col min="9727" max="9727" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="9728" max="9728" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="9729" max="9729" width="10.33203125" style="20" customWidth="1"/>
-    <col min="9730" max="9730" width="8" style="20" customWidth="1"/>
-    <col min="9731" max="9732" width="14.33203125" style="20" customWidth="1"/>
-    <col min="9733" max="9733" width="6.5546875" style="20" customWidth="1"/>
-    <col min="9734" max="9734" width="10.109375" style="20" customWidth="1"/>
-    <col min="9735" max="9735" width="7.5546875" style="20" customWidth="1"/>
-    <col min="9736" max="9974" width="8.88671875" style="20"/>
-    <col min="9975" max="9975" width="20.5546875" style="20" customWidth="1"/>
-    <col min="9976" max="9976" width="13.109375" style="20" customWidth="1"/>
-    <col min="9977" max="9977" width="8.88671875" style="20"/>
-    <col min="9978" max="9978" width="14.5546875" style="20" customWidth="1"/>
-    <col min="9979" max="9979" width="14.44140625" style="20" customWidth="1"/>
-    <col min="9980" max="9980" width="8.88671875" style="20" customWidth="1"/>
-    <col min="9981" max="9981" width="19.109375" style="20" customWidth="1"/>
-    <col min="9982" max="9982" width="12.33203125" style="20" customWidth="1"/>
-    <col min="9983" max="9983" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="9984" max="9984" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="9985" max="9985" width="10.33203125" style="20" customWidth="1"/>
-    <col min="9986" max="9986" width="8" style="20" customWidth="1"/>
-    <col min="9987" max="9988" width="14.33203125" style="20" customWidth="1"/>
-    <col min="9989" max="9989" width="6.5546875" style="20" customWidth="1"/>
-    <col min="9990" max="9990" width="10.109375" style="20" customWidth="1"/>
-    <col min="9991" max="9991" width="7.5546875" style="20" customWidth="1"/>
-    <col min="9992" max="10230" width="8.88671875" style="20"/>
-    <col min="10231" max="10231" width="20.5546875" style="20" customWidth="1"/>
-    <col min="10232" max="10232" width="13.109375" style="20" customWidth="1"/>
-    <col min="10233" max="10233" width="8.88671875" style="20"/>
-    <col min="10234" max="10234" width="14.5546875" style="20" customWidth="1"/>
-    <col min="10235" max="10235" width="14.44140625" style="20" customWidth="1"/>
-    <col min="10236" max="10236" width="8.88671875" style="20" customWidth="1"/>
-    <col min="10237" max="10237" width="19.109375" style="20" customWidth="1"/>
-    <col min="10238" max="10238" width="12.33203125" style="20" customWidth="1"/>
-    <col min="10239" max="10239" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="10240" max="10240" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="10241" max="10241" width="10.33203125" style="20" customWidth="1"/>
-    <col min="10242" max="10242" width="8" style="20" customWidth="1"/>
-    <col min="10243" max="10244" width="14.33203125" style="20" customWidth="1"/>
-    <col min="10245" max="10245" width="6.5546875" style="20" customWidth="1"/>
-    <col min="10246" max="10246" width="10.109375" style="20" customWidth="1"/>
-    <col min="10247" max="10247" width="7.5546875" style="20" customWidth="1"/>
-    <col min="10248" max="10486" width="8.88671875" style="20"/>
-    <col min="10487" max="10487" width="20.5546875" style="20" customWidth="1"/>
-    <col min="10488" max="10488" width="13.109375" style="20" customWidth="1"/>
-    <col min="10489" max="10489" width="8.88671875" style="20"/>
-    <col min="10490" max="10490" width="14.5546875" style="20" customWidth="1"/>
-    <col min="10491" max="10491" width="14.44140625" style="20" customWidth="1"/>
-    <col min="10492" max="10492" width="8.88671875" style="20" customWidth="1"/>
-    <col min="10493" max="10493" width="19.109375" style="20" customWidth="1"/>
-    <col min="10494" max="10494" width="12.33203125" style="20" customWidth="1"/>
-    <col min="10495" max="10495" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="10496" max="10496" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="10497" max="10497" width="10.33203125" style="20" customWidth="1"/>
-    <col min="10498" max="10498" width="8" style="20" customWidth="1"/>
-    <col min="10499" max="10500" width="14.33203125" style="20" customWidth="1"/>
-    <col min="10501" max="10501" width="6.5546875" style="20" customWidth="1"/>
-    <col min="10502" max="10502" width="10.109375" style="20" customWidth="1"/>
-    <col min="10503" max="10503" width="7.5546875" style="20" customWidth="1"/>
-    <col min="10504" max="10742" width="8.88671875" style="20"/>
-    <col min="10743" max="10743" width="20.5546875" style="20" customWidth="1"/>
-    <col min="10744" max="10744" width="13.109375" style="20" customWidth="1"/>
-    <col min="10745" max="10745" width="8.88671875" style="20"/>
-    <col min="10746" max="10746" width="14.5546875" style="20" customWidth="1"/>
-    <col min="10747" max="10747" width="14.44140625" style="20" customWidth="1"/>
-    <col min="10748" max="10748" width="8.88671875" style="20" customWidth="1"/>
-    <col min="10749" max="10749" width="19.109375" style="20" customWidth="1"/>
-    <col min="10750" max="10750" width="12.33203125" style="20" customWidth="1"/>
-    <col min="10751" max="10751" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="10752" max="10752" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="10753" max="10753" width="10.33203125" style="20" customWidth="1"/>
-    <col min="10754" max="10754" width="8" style="20" customWidth="1"/>
-    <col min="10755" max="10756" width="14.33203125" style="20" customWidth="1"/>
-    <col min="10757" max="10757" width="6.5546875" style="20" customWidth="1"/>
-    <col min="10758" max="10758" width="10.109375" style="20" customWidth="1"/>
-    <col min="10759" max="10759" width="7.5546875" style="20" customWidth="1"/>
-    <col min="10760" max="10998" width="8.88671875" style="20"/>
-    <col min="10999" max="10999" width="20.5546875" style="20" customWidth="1"/>
-    <col min="11000" max="11000" width="13.109375" style="20" customWidth="1"/>
-    <col min="11001" max="11001" width="8.88671875" style="20"/>
-    <col min="11002" max="11002" width="14.5546875" style="20" customWidth="1"/>
-    <col min="11003" max="11003" width="14.44140625" style="20" customWidth="1"/>
-    <col min="11004" max="11004" width="8.88671875" style="20" customWidth="1"/>
-    <col min="11005" max="11005" width="19.109375" style="20" customWidth="1"/>
-    <col min="11006" max="11006" width="12.33203125" style="20" customWidth="1"/>
-    <col min="11007" max="11007" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="11008" max="11008" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="11009" max="11009" width="10.33203125" style="20" customWidth="1"/>
-    <col min="11010" max="11010" width="8" style="20" customWidth="1"/>
-    <col min="11011" max="11012" width="14.33203125" style="20" customWidth="1"/>
-    <col min="11013" max="11013" width="6.5546875" style="20" customWidth="1"/>
-    <col min="11014" max="11014" width="10.109375" style="20" customWidth="1"/>
-    <col min="11015" max="11015" width="7.5546875" style="20" customWidth="1"/>
-    <col min="11016" max="11254" width="8.88671875" style="20"/>
-    <col min="11255" max="11255" width="20.5546875" style="20" customWidth="1"/>
-    <col min="11256" max="11256" width="13.109375" style="20" customWidth="1"/>
-    <col min="11257" max="11257" width="8.88671875" style="20"/>
-    <col min="11258" max="11258" width="14.5546875" style="20" customWidth="1"/>
-    <col min="11259" max="11259" width="14.44140625" style="20" customWidth="1"/>
-    <col min="11260" max="11260" width="8.88671875" style="20" customWidth="1"/>
-    <col min="11261" max="11261" width="19.109375" style="20" customWidth="1"/>
-    <col min="11262" max="11262" width="12.33203125" style="20" customWidth="1"/>
-    <col min="11263" max="11263" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="11264" max="11264" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="11265" max="11265" width="10.33203125" style="20" customWidth="1"/>
-    <col min="11266" max="11266" width="8" style="20" customWidth="1"/>
-    <col min="11267" max="11268" width="14.33203125" style="20" customWidth="1"/>
-    <col min="11269" max="11269" width="6.5546875" style="20" customWidth="1"/>
-    <col min="11270" max="11270" width="10.109375" style="20" customWidth="1"/>
-    <col min="11271" max="11271" width="7.5546875" style="20" customWidth="1"/>
-    <col min="11272" max="11510" width="8.88671875" style="20"/>
-    <col min="11511" max="11511" width="20.5546875" style="20" customWidth="1"/>
-    <col min="11512" max="11512" width="13.109375" style="20" customWidth="1"/>
-    <col min="11513" max="11513" width="8.88671875" style="20"/>
-    <col min="11514" max="11514" width="14.5546875" style="20" customWidth="1"/>
-    <col min="11515" max="11515" width="14.44140625" style="20" customWidth="1"/>
-    <col min="11516" max="11516" width="8.88671875" style="20" customWidth="1"/>
-    <col min="11517" max="11517" width="19.109375" style="20" customWidth="1"/>
-    <col min="11518" max="11518" width="12.33203125" style="20" customWidth="1"/>
-    <col min="11519" max="11519" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="11520" max="11520" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="11521" max="11521" width="10.33203125" style="20" customWidth="1"/>
-    <col min="11522" max="11522" width="8" style="20" customWidth="1"/>
-    <col min="11523" max="11524" width="14.33203125" style="20" customWidth="1"/>
-    <col min="11525" max="11525" width="6.5546875" style="20" customWidth="1"/>
-    <col min="11526" max="11526" width="10.109375" style="20" customWidth="1"/>
-    <col min="11527" max="11527" width="7.5546875" style="20" customWidth="1"/>
-    <col min="11528" max="11766" width="8.88671875" style="20"/>
-    <col min="11767" max="11767" width="20.5546875" style="20" customWidth="1"/>
-    <col min="11768" max="11768" width="13.109375" style="20" customWidth="1"/>
-    <col min="11769" max="11769" width="8.88671875" style="20"/>
-    <col min="11770" max="11770" width="14.5546875" style="20" customWidth="1"/>
-    <col min="11771" max="11771" width="14.44140625" style="20" customWidth="1"/>
-    <col min="11772" max="11772" width="8.88671875" style="20" customWidth="1"/>
-    <col min="11773" max="11773" width="19.109375" style="20" customWidth="1"/>
-    <col min="11774" max="11774" width="12.33203125" style="20" customWidth="1"/>
-    <col min="11775" max="11775" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="11776" max="11776" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="11777" max="11777" width="10.33203125" style="20" customWidth="1"/>
-    <col min="11778" max="11778" width="8" style="20" customWidth="1"/>
-    <col min="11779" max="11780" width="14.33203125" style="20" customWidth="1"/>
-    <col min="11781" max="11781" width="6.5546875" style="20" customWidth="1"/>
-    <col min="11782" max="11782" width="10.109375" style="20" customWidth="1"/>
-    <col min="11783" max="11783" width="7.5546875" style="20" customWidth="1"/>
-    <col min="11784" max="12022" width="8.88671875" style="20"/>
-    <col min="12023" max="12023" width="20.5546875" style="20" customWidth="1"/>
-    <col min="12024" max="12024" width="13.109375" style="20" customWidth="1"/>
-    <col min="12025" max="12025" width="8.88671875" style="20"/>
-    <col min="12026" max="12026" width="14.5546875" style="20" customWidth="1"/>
-    <col min="12027" max="12027" width="14.44140625" style="20" customWidth="1"/>
-    <col min="12028" max="12028" width="8.88671875" style="20" customWidth="1"/>
-    <col min="12029" max="12029" width="19.109375" style="20" customWidth="1"/>
-    <col min="12030" max="12030" width="12.33203125" style="20" customWidth="1"/>
-    <col min="12031" max="12031" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="12032" max="12032" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="12033" max="12033" width="10.33203125" style="20" customWidth="1"/>
-    <col min="12034" max="12034" width="8" style="20" customWidth="1"/>
-    <col min="12035" max="12036" width="14.33203125" style="20" customWidth="1"/>
-    <col min="12037" max="12037" width="6.5546875" style="20" customWidth="1"/>
-    <col min="12038" max="12038" width="10.109375" style="20" customWidth="1"/>
-    <col min="12039" max="12039" width="7.5546875" style="20" customWidth="1"/>
-    <col min="12040" max="12278" width="8.88671875" style="20"/>
-    <col min="12279" max="12279" width="20.5546875" style="20" customWidth="1"/>
-    <col min="12280" max="12280" width="13.109375" style="20" customWidth="1"/>
-    <col min="12281" max="12281" width="8.88671875" style="20"/>
-    <col min="12282" max="12282" width="14.5546875" style="20" customWidth="1"/>
-    <col min="12283" max="12283" width="14.44140625" style="20" customWidth="1"/>
-    <col min="12284" max="12284" width="8.88671875" style="20" customWidth="1"/>
-    <col min="12285" max="12285" width="19.109375" style="20" customWidth="1"/>
-    <col min="12286" max="12286" width="12.33203125" style="20" customWidth="1"/>
-    <col min="12287" max="12287" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="12288" max="12288" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="12289" max="12289" width="10.33203125" style="20" customWidth="1"/>
-    <col min="12290" max="12290" width="8" style="20" customWidth="1"/>
-    <col min="12291" max="12292" width="14.33203125" style="20" customWidth="1"/>
-    <col min="12293" max="12293" width="6.5546875" style="20" customWidth="1"/>
-    <col min="12294" max="12294" width="10.109375" style="20" customWidth="1"/>
-    <col min="12295" max="12295" width="7.5546875" style="20" customWidth="1"/>
-    <col min="12296" max="12534" width="8.88671875" style="20"/>
-    <col min="12535" max="12535" width="20.5546875" style="20" customWidth="1"/>
-    <col min="12536" max="12536" width="13.109375" style="20" customWidth="1"/>
-    <col min="12537" max="12537" width="8.88671875" style="20"/>
-    <col min="12538" max="12538" width="14.5546875" style="20" customWidth="1"/>
-    <col min="12539" max="12539" width="14.44140625" style="20" customWidth="1"/>
-    <col min="12540" max="12540" width="8.88671875" style="20" customWidth="1"/>
-    <col min="12541" max="12541" width="19.109375" style="20" customWidth="1"/>
-    <col min="12542" max="12542" width="12.33203125" style="20" customWidth="1"/>
-    <col min="12543" max="12543" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="12544" max="12544" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="12545" max="12545" width="10.33203125" style="20" customWidth="1"/>
-    <col min="12546" max="12546" width="8" style="20" customWidth="1"/>
-    <col min="12547" max="12548" width="14.33203125" style="20" customWidth="1"/>
-    <col min="12549" max="12549" width="6.5546875" style="20" customWidth="1"/>
-    <col min="12550" max="12550" width="10.109375" style="20" customWidth="1"/>
-    <col min="12551" max="12551" width="7.5546875" style="20" customWidth="1"/>
-    <col min="12552" max="12790" width="8.88671875" style="20"/>
-    <col min="12791" max="12791" width="20.5546875" style="20" customWidth="1"/>
-    <col min="12792" max="12792" width="13.109375" style="20" customWidth="1"/>
-    <col min="12793" max="12793" width="8.88671875" style="20"/>
-    <col min="12794" max="12794" width="14.5546875" style="20" customWidth="1"/>
-    <col min="12795" max="12795" width="14.44140625" style="20" customWidth="1"/>
-    <col min="12796" max="12796" width="8.88671875" style="20" customWidth="1"/>
-    <col min="12797" max="12797" width="19.109375" style="20" customWidth="1"/>
-    <col min="12798" max="12798" width="12.33203125" style="20" customWidth="1"/>
-    <col min="12799" max="12799" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="12800" max="12800" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="12801" max="12801" width="10.33203125" style="20" customWidth="1"/>
-    <col min="12802" max="12802" width="8" style="20" customWidth="1"/>
-    <col min="12803" max="12804" width="14.33203125" style="20" customWidth="1"/>
-    <col min="12805" max="12805" width="6.5546875" style="20" customWidth="1"/>
-    <col min="12806" max="12806" width="10.109375" style="20" customWidth="1"/>
-    <col min="12807" max="12807" width="7.5546875" style="20" customWidth="1"/>
-    <col min="12808" max="13046" width="8.88671875" style="20"/>
-    <col min="13047" max="13047" width="20.5546875" style="20" customWidth="1"/>
-    <col min="13048" max="13048" width="13.109375" style="20" customWidth="1"/>
-    <col min="13049" max="13049" width="8.88671875" style="20"/>
-    <col min="13050" max="13050" width="14.5546875" style="20" customWidth="1"/>
-    <col min="13051" max="13051" width="14.44140625" style="20" customWidth="1"/>
-    <col min="13052" max="13052" width="8.88671875" style="20" customWidth="1"/>
-    <col min="13053" max="13053" width="19.109375" style="20" customWidth="1"/>
-    <col min="13054" max="13054" width="12.33203125" style="20" customWidth="1"/>
-    <col min="13055" max="13055" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="13056" max="13056" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="13057" max="13057" width="10.33203125" style="20" customWidth="1"/>
-    <col min="13058" max="13058" width="8" style="20" customWidth="1"/>
-    <col min="13059" max="13060" width="14.33203125" style="20" customWidth="1"/>
-    <col min="13061" max="13061" width="6.5546875" style="20" customWidth="1"/>
-    <col min="13062" max="13062" width="10.109375" style="20" customWidth="1"/>
-    <col min="13063" max="13063" width="7.5546875" style="20" customWidth="1"/>
-    <col min="13064" max="13302" width="8.88671875" style="20"/>
-    <col min="13303" max="13303" width="20.5546875" style="20" customWidth="1"/>
-    <col min="13304" max="13304" width="13.109375" style="20" customWidth="1"/>
-    <col min="13305" max="13305" width="8.88671875" style="20"/>
-    <col min="13306" max="13306" width="14.5546875" style="20" customWidth="1"/>
-    <col min="13307" max="13307" width="14.44140625" style="20" customWidth="1"/>
-    <col min="13308" max="13308" width="8.88671875" style="20" customWidth="1"/>
-    <col min="13309" max="13309" width="19.109375" style="20" customWidth="1"/>
-    <col min="13310" max="13310" width="12.33203125" style="20" customWidth="1"/>
-    <col min="13311" max="13311" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="13312" max="13312" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="13313" max="13313" width="10.33203125" style="20" customWidth="1"/>
-    <col min="13314" max="13314" width="8" style="20" customWidth="1"/>
-    <col min="13315" max="13316" width="14.33203125" style="20" customWidth="1"/>
-    <col min="13317" max="13317" width="6.5546875" style="20" customWidth="1"/>
-    <col min="13318" max="13318" width="10.109375" style="20" customWidth="1"/>
-    <col min="13319" max="13319" width="7.5546875" style="20" customWidth="1"/>
-    <col min="13320" max="13558" width="8.88671875" style="20"/>
-    <col min="13559" max="13559" width="20.5546875" style="20" customWidth="1"/>
-    <col min="13560" max="13560" width="13.109375" style="20" customWidth="1"/>
-    <col min="13561" max="13561" width="8.88671875" style="20"/>
-    <col min="13562" max="13562" width="14.5546875" style="20" customWidth="1"/>
-    <col min="13563" max="13563" width="14.44140625" style="20" customWidth="1"/>
-    <col min="13564" max="13564" width="8.88671875" style="20" customWidth="1"/>
-    <col min="13565" max="13565" width="19.109375" style="20" customWidth="1"/>
-    <col min="13566" max="13566" width="12.33203125" style="20" customWidth="1"/>
-    <col min="13567" max="13567" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="13568" max="13568" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="13569" max="13569" width="10.33203125" style="20" customWidth="1"/>
-    <col min="13570" max="13570" width="8" style="20" customWidth="1"/>
-    <col min="13571" max="13572" width="14.33203125" style="20" customWidth="1"/>
-    <col min="13573" max="13573" width="6.5546875" style="20" customWidth="1"/>
-    <col min="13574" max="13574" width="10.109375" style="20" customWidth="1"/>
-    <col min="13575" max="13575" width="7.5546875" style="20" customWidth="1"/>
-    <col min="13576" max="13814" width="8.88671875" style="20"/>
-    <col min="13815" max="13815" width="20.5546875" style="20" customWidth="1"/>
-    <col min="13816" max="13816" width="13.109375" style="20" customWidth="1"/>
-    <col min="13817" max="13817" width="8.88671875" style="20"/>
-    <col min="13818" max="13818" width="14.5546875" style="20" customWidth="1"/>
-    <col min="13819" max="13819" width="14.44140625" style="20" customWidth="1"/>
-    <col min="13820" max="13820" width="8.88671875" style="20" customWidth="1"/>
-    <col min="13821" max="13821" width="19.109375" style="20" customWidth="1"/>
-    <col min="13822" max="13822" width="12.33203125" style="20" customWidth="1"/>
-    <col min="13823" max="13823" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="13824" max="13824" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="13825" max="13825" width="10.33203125" style="20" customWidth="1"/>
-    <col min="13826" max="13826" width="8" style="20" customWidth="1"/>
-    <col min="13827" max="13828" width="14.33203125" style="20" customWidth="1"/>
-    <col min="13829" max="13829" width="6.5546875" style="20" customWidth="1"/>
-    <col min="13830" max="13830" width="10.109375" style="20" customWidth="1"/>
-    <col min="13831" max="13831" width="7.5546875" style="20" customWidth="1"/>
-    <col min="13832" max="14070" width="8.88671875" style="20"/>
-    <col min="14071" max="14071" width="20.5546875" style="20" customWidth="1"/>
-    <col min="14072" max="14072" width="13.109375" style="20" customWidth="1"/>
-    <col min="14073" max="14073" width="8.88671875" style="20"/>
-    <col min="14074" max="14074" width="14.5546875" style="20" customWidth="1"/>
-    <col min="14075" max="14075" width="14.44140625" style="20" customWidth="1"/>
-    <col min="14076" max="14076" width="8.88671875" style="20" customWidth="1"/>
-    <col min="14077" max="14077" width="19.109375" style="20" customWidth="1"/>
-    <col min="14078" max="14078" width="12.33203125" style="20" customWidth="1"/>
-    <col min="14079" max="14079" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="14080" max="14080" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="14081" max="14081" width="10.33203125" style="20" customWidth="1"/>
-    <col min="14082" max="14082" width="8" style="20" customWidth="1"/>
-    <col min="14083" max="14084" width="14.33203125" style="20" customWidth="1"/>
-    <col min="14085" max="14085" width="6.5546875" style="20" customWidth="1"/>
-    <col min="14086" max="14086" width="10.109375" style="20" customWidth="1"/>
-    <col min="14087" max="14087" width="7.5546875" style="20" customWidth="1"/>
-    <col min="14088" max="14326" width="8.88671875" style="20"/>
-    <col min="14327" max="14327" width="20.5546875" style="20" customWidth="1"/>
-    <col min="14328" max="14328" width="13.109375" style="20" customWidth="1"/>
-    <col min="14329" max="14329" width="8.88671875" style="20"/>
-    <col min="14330" max="14330" width="14.5546875" style="20" customWidth="1"/>
-    <col min="14331" max="14331" width="14.44140625" style="20" customWidth="1"/>
-    <col min="14332" max="14332" width="8.88671875" style="20" customWidth="1"/>
-    <col min="14333" max="14333" width="19.109375" style="20" customWidth="1"/>
-    <col min="14334" max="14334" width="12.33203125" style="20" customWidth="1"/>
-    <col min="14335" max="14335" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="14336" max="14336" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="14337" max="14337" width="10.33203125" style="20" customWidth="1"/>
-    <col min="14338" max="14338" width="8" style="20" customWidth="1"/>
-    <col min="14339" max="14340" width="14.33203125" style="20" customWidth="1"/>
-    <col min="14341" max="14341" width="6.5546875" style="20" customWidth="1"/>
-    <col min="14342" max="14342" width="10.109375" style="20" customWidth="1"/>
-    <col min="14343" max="14343" width="7.5546875" style="20" customWidth="1"/>
-    <col min="14344" max="14582" width="8.88671875" style="20"/>
-    <col min="14583" max="14583" width="20.5546875" style="20" customWidth="1"/>
-    <col min="14584" max="14584" width="13.109375" style="20" customWidth="1"/>
-    <col min="14585" max="14585" width="8.88671875" style="20"/>
-    <col min="14586" max="14586" width="14.5546875" style="20" customWidth="1"/>
-    <col min="14587" max="14587" width="14.44140625" style="20" customWidth="1"/>
-    <col min="14588" max="14588" width="8.88671875" style="20" customWidth="1"/>
-    <col min="14589" max="14589" width="19.109375" style="20" customWidth="1"/>
-    <col min="14590" max="14590" width="12.33203125" style="20" customWidth="1"/>
-    <col min="14591" max="14591" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="14592" max="14592" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="14593" max="14593" width="10.33203125" style="20" customWidth="1"/>
-    <col min="14594" max="14594" width="8" style="20" customWidth="1"/>
-    <col min="14595" max="14596" width="14.33203125" style="20" customWidth="1"/>
-    <col min="14597" max="14597" width="6.5546875" style="20" customWidth="1"/>
-    <col min="14598" max="14598" width="10.109375" style="20" customWidth="1"/>
-    <col min="14599" max="14599" width="7.5546875" style="20" customWidth="1"/>
-    <col min="14600" max="14838" width="8.88671875" style="20"/>
-    <col min="14839" max="14839" width="20.5546875" style="20" customWidth="1"/>
-    <col min="14840" max="14840" width="13.109375" style="20" customWidth="1"/>
-    <col min="14841" max="14841" width="8.88671875" style="20"/>
-    <col min="14842" max="14842" width="14.5546875" style="20" customWidth="1"/>
-    <col min="14843" max="14843" width="14.44140625" style="20" customWidth="1"/>
-    <col min="14844" max="14844" width="8.88671875" style="20" customWidth="1"/>
-    <col min="14845" max="14845" width="19.109375" style="20" customWidth="1"/>
-    <col min="14846" max="14846" width="12.33203125" style="20" customWidth="1"/>
-    <col min="14847" max="14847" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="14848" max="14848" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="14849" max="14849" width="10.33203125" style="20" customWidth="1"/>
-    <col min="14850" max="14850" width="8" style="20" customWidth="1"/>
-    <col min="14851" max="14852" width="14.33203125" style="20" customWidth="1"/>
-    <col min="14853" max="14853" width="6.5546875" style="20" customWidth="1"/>
-    <col min="14854" max="14854" width="10.109375" style="20" customWidth="1"/>
-    <col min="14855" max="14855" width="7.5546875" style="20" customWidth="1"/>
-    <col min="14856" max="15094" width="8.88671875" style="20"/>
-    <col min="15095" max="15095" width="20.5546875" style="20" customWidth="1"/>
-    <col min="15096" max="15096" width="13.109375" style="20" customWidth="1"/>
-    <col min="15097" max="15097" width="8.88671875" style="20"/>
-    <col min="15098" max="15098" width="14.5546875" style="20" customWidth="1"/>
-    <col min="15099" max="15099" width="14.44140625" style="20" customWidth="1"/>
-    <col min="15100" max="15100" width="8.88671875" style="20" customWidth="1"/>
-    <col min="15101" max="15101" width="19.109375" style="20" customWidth="1"/>
-    <col min="15102" max="15102" width="12.33203125" style="20" customWidth="1"/>
-    <col min="15103" max="15103" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="15104" max="15104" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="15105" max="15105" width="10.33203125" style="20" customWidth="1"/>
-    <col min="15106" max="15106" width="8" style="20" customWidth="1"/>
-    <col min="15107" max="15108" width="14.33203125" style="20" customWidth="1"/>
-    <col min="15109" max="15109" width="6.5546875" style="20" customWidth="1"/>
-    <col min="15110" max="15110" width="10.109375" style="20" customWidth="1"/>
-    <col min="15111" max="15111" width="7.5546875" style="20" customWidth="1"/>
-    <col min="15112" max="15350" width="8.88671875" style="20"/>
-    <col min="15351" max="15351" width="20.5546875" style="20" customWidth="1"/>
-    <col min="15352" max="15352" width="13.109375" style="20" customWidth="1"/>
-    <col min="15353" max="15353" width="8.88671875" style="20"/>
-    <col min="15354" max="15354" width="14.5546875" style="20" customWidth="1"/>
-    <col min="15355" max="15355" width="14.44140625" style="20" customWidth="1"/>
-    <col min="15356" max="15356" width="8.88671875" style="20" customWidth="1"/>
-    <col min="15357" max="15357" width="19.109375" style="20" customWidth="1"/>
-    <col min="15358" max="15358" width="12.33203125" style="20" customWidth="1"/>
-    <col min="15359" max="15359" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="15360" max="15360" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="15361" max="15361" width="10.33203125" style="20" customWidth="1"/>
-    <col min="15362" max="15362" width="8" style="20" customWidth="1"/>
-    <col min="15363" max="15364" width="14.33203125" style="20" customWidth="1"/>
-    <col min="15365" max="15365" width="6.5546875" style="20" customWidth="1"/>
-    <col min="15366" max="15366" width="10.109375" style="20" customWidth="1"/>
-    <col min="15367" max="15367" width="7.5546875" style="20" customWidth="1"/>
-    <col min="15368" max="15606" width="8.88671875" style="20"/>
-    <col min="15607" max="15607" width="20.5546875" style="20" customWidth="1"/>
-    <col min="15608" max="15608" width="13.109375" style="20" customWidth="1"/>
-    <col min="15609" max="15609" width="8.88671875" style="20"/>
-    <col min="15610" max="15610" width="14.5546875" style="20" customWidth="1"/>
-    <col min="15611" max="15611" width="14.44140625" style="20" customWidth="1"/>
-    <col min="15612" max="15612" width="8.88671875" style="20" customWidth="1"/>
-    <col min="15613" max="15613" width="19.109375" style="20" customWidth="1"/>
-    <col min="15614" max="15614" width="12.33203125" style="20" customWidth="1"/>
-    <col min="15615" max="15615" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="15616" max="15616" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="15617" max="15617" width="10.33203125" style="20" customWidth="1"/>
-    <col min="15618" max="15618" width="8" style="20" customWidth="1"/>
-    <col min="15619" max="15620" width="14.33203125" style="20" customWidth="1"/>
-    <col min="15621" max="15621" width="6.5546875" style="20" customWidth="1"/>
-    <col min="15622" max="15622" width="10.109375" style="20" customWidth="1"/>
-    <col min="15623" max="15623" width="7.5546875" style="20" customWidth="1"/>
-    <col min="15624" max="15862" width="8.88671875" style="20"/>
-    <col min="15863" max="15863" width="20.5546875" style="20" customWidth="1"/>
-    <col min="15864" max="15864" width="13.109375" style="20" customWidth="1"/>
-    <col min="15865" max="15865" width="8.88671875" style="20"/>
-    <col min="15866" max="15866" width="14.5546875" style="20" customWidth="1"/>
-    <col min="15867" max="15867" width="14.44140625" style="20" customWidth="1"/>
-    <col min="15868" max="15868" width="8.88671875" style="20" customWidth="1"/>
-    <col min="15869" max="15869" width="19.109375" style="20" customWidth="1"/>
-    <col min="15870" max="15870" width="12.33203125" style="20" customWidth="1"/>
-    <col min="15871" max="15871" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="15872" max="15872" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="15873" max="15873" width="10.33203125" style="20" customWidth="1"/>
-    <col min="15874" max="15874" width="8" style="20" customWidth="1"/>
-    <col min="15875" max="15876" width="14.33203125" style="20" customWidth="1"/>
-    <col min="15877" max="15877" width="6.5546875" style="20" customWidth="1"/>
-    <col min="15878" max="15878" width="10.109375" style="20" customWidth="1"/>
-    <col min="15879" max="15879" width="7.5546875" style="20" customWidth="1"/>
-    <col min="15880" max="16118" width="8.88671875" style="20"/>
-    <col min="16119" max="16119" width="20.5546875" style="20" customWidth="1"/>
-    <col min="16120" max="16120" width="13.109375" style="20" customWidth="1"/>
-    <col min="16121" max="16121" width="8.88671875" style="20"/>
-    <col min="16122" max="16122" width="14.5546875" style="20" customWidth="1"/>
-    <col min="16123" max="16123" width="14.44140625" style="20" customWidth="1"/>
-    <col min="16124" max="16124" width="8.88671875" style="20" customWidth="1"/>
-    <col min="16125" max="16125" width="19.109375" style="20" customWidth="1"/>
-    <col min="16126" max="16126" width="12.33203125" style="20" customWidth="1"/>
-    <col min="16127" max="16127" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="16128" max="16128" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="16129" max="16129" width="10.33203125" style="20" customWidth="1"/>
-    <col min="16130" max="16130" width="8" style="20" customWidth="1"/>
-    <col min="16131" max="16132" width="14.33203125" style="20" customWidth="1"/>
-    <col min="16133" max="16133" width="6.5546875" style="20" customWidth="1"/>
-    <col min="16134" max="16134" width="10.109375" style="20" customWidth="1"/>
-    <col min="16135" max="16135" width="7.5546875" style="20" customWidth="1"/>
-    <col min="16136" max="16384" width="8.88671875" style="20"/>
+    <col min="12" max="245" width="8.88671875" style="20"/>
+    <col min="246" max="246" width="20.5546875" style="20" customWidth="1"/>
+    <col min="247" max="247" width="13.109375" style="20" customWidth="1"/>
+    <col min="248" max="248" width="8.88671875" style="20"/>
+    <col min="249" max="249" width="14.5546875" style="20" customWidth="1"/>
+    <col min="250" max="250" width="14.44140625" style="20" customWidth="1"/>
+    <col min="251" max="251" width="8.88671875" style="20" customWidth="1"/>
+    <col min="252" max="252" width="19.109375" style="20" customWidth="1"/>
+    <col min="253" max="253" width="12.33203125" style="20" customWidth="1"/>
+    <col min="254" max="254" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="255" max="255" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="256" max="256" width="10.33203125" style="20" customWidth="1"/>
+    <col min="257" max="257" width="8" style="20" customWidth="1"/>
+    <col min="258" max="259" width="14.33203125" style="20" customWidth="1"/>
+    <col min="260" max="260" width="6.5546875" style="20" customWidth="1"/>
+    <col min="261" max="261" width="10.109375" style="20" customWidth="1"/>
+    <col min="262" max="262" width="7.5546875" style="20" customWidth="1"/>
+    <col min="263" max="501" width="8.88671875" style="20"/>
+    <col min="502" max="502" width="20.5546875" style="20" customWidth="1"/>
+    <col min="503" max="503" width="13.109375" style="20" customWidth="1"/>
+    <col min="504" max="504" width="8.88671875" style="20"/>
+    <col min="505" max="505" width="14.5546875" style="20" customWidth="1"/>
+    <col min="506" max="506" width="14.44140625" style="20" customWidth="1"/>
+    <col min="507" max="507" width="8.88671875" style="20" customWidth="1"/>
+    <col min="508" max="508" width="19.109375" style="20" customWidth="1"/>
+    <col min="509" max="509" width="12.33203125" style="20" customWidth="1"/>
+    <col min="510" max="510" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="511" max="511" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="512" max="512" width="10.33203125" style="20" customWidth="1"/>
+    <col min="513" max="513" width="8" style="20" customWidth="1"/>
+    <col min="514" max="515" width="14.33203125" style="20" customWidth="1"/>
+    <col min="516" max="516" width="6.5546875" style="20" customWidth="1"/>
+    <col min="517" max="517" width="10.109375" style="20" customWidth="1"/>
+    <col min="518" max="518" width="7.5546875" style="20" customWidth="1"/>
+    <col min="519" max="757" width="8.88671875" style="20"/>
+    <col min="758" max="758" width="20.5546875" style="20" customWidth="1"/>
+    <col min="759" max="759" width="13.109375" style="20" customWidth="1"/>
+    <col min="760" max="760" width="8.88671875" style="20"/>
+    <col min="761" max="761" width="14.5546875" style="20" customWidth="1"/>
+    <col min="762" max="762" width="14.44140625" style="20" customWidth="1"/>
+    <col min="763" max="763" width="8.88671875" style="20" customWidth="1"/>
+    <col min="764" max="764" width="19.109375" style="20" customWidth="1"/>
+    <col min="765" max="765" width="12.33203125" style="20" customWidth="1"/>
+    <col min="766" max="766" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="767" max="767" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="768" max="768" width="10.33203125" style="20" customWidth="1"/>
+    <col min="769" max="769" width="8" style="20" customWidth="1"/>
+    <col min="770" max="771" width="14.33203125" style="20" customWidth="1"/>
+    <col min="772" max="772" width="6.5546875" style="20" customWidth="1"/>
+    <col min="773" max="773" width="10.109375" style="20" customWidth="1"/>
+    <col min="774" max="774" width="7.5546875" style="20" customWidth="1"/>
+    <col min="775" max="1013" width="8.88671875" style="20"/>
+    <col min="1014" max="1014" width="20.5546875" style="20" customWidth="1"/>
+    <col min="1015" max="1015" width="13.109375" style="20" customWidth="1"/>
+    <col min="1016" max="1016" width="8.88671875" style="20"/>
+    <col min="1017" max="1017" width="14.5546875" style="20" customWidth="1"/>
+    <col min="1018" max="1018" width="14.44140625" style="20" customWidth="1"/>
+    <col min="1019" max="1019" width="8.88671875" style="20" customWidth="1"/>
+    <col min="1020" max="1020" width="19.109375" style="20" customWidth="1"/>
+    <col min="1021" max="1021" width="12.33203125" style="20" customWidth="1"/>
+    <col min="1022" max="1022" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="1023" max="1023" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="1024" max="1024" width="10.33203125" style="20" customWidth="1"/>
+    <col min="1025" max="1025" width="8" style="20" customWidth="1"/>
+    <col min="1026" max="1027" width="14.33203125" style="20" customWidth="1"/>
+    <col min="1028" max="1028" width="6.5546875" style="20" customWidth="1"/>
+    <col min="1029" max="1029" width="10.109375" style="20" customWidth="1"/>
+    <col min="1030" max="1030" width="7.5546875" style="20" customWidth="1"/>
+    <col min="1031" max="1269" width="8.88671875" style="20"/>
+    <col min="1270" max="1270" width="20.5546875" style="20" customWidth="1"/>
+    <col min="1271" max="1271" width="13.109375" style="20" customWidth="1"/>
+    <col min="1272" max="1272" width="8.88671875" style="20"/>
+    <col min="1273" max="1273" width="14.5546875" style="20" customWidth="1"/>
+    <col min="1274" max="1274" width="14.44140625" style="20" customWidth="1"/>
+    <col min="1275" max="1275" width="8.88671875" style="20" customWidth="1"/>
+    <col min="1276" max="1276" width="19.109375" style="20" customWidth="1"/>
+    <col min="1277" max="1277" width="12.33203125" style="20" customWidth="1"/>
+    <col min="1278" max="1278" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="1279" max="1279" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="1280" max="1280" width="10.33203125" style="20" customWidth="1"/>
+    <col min="1281" max="1281" width="8" style="20" customWidth="1"/>
+    <col min="1282" max="1283" width="14.33203125" style="20" customWidth="1"/>
+    <col min="1284" max="1284" width="6.5546875" style="20" customWidth="1"/>
+    <col min="1285" max="1285" width="10.109375" style="20" customWidth="1"/>
+    <col min="1286" max="1286" width="7.5546875" style="20" customWidth="1"/>
+    <col min="1287" max="1525" width="8.88671875" style="20"/>
+    <col min="1526" max="1526" width="20.5546875" style="20" customWidth="1"/>
+    <col min="1527" max="1527" width="13.109375" style="20" customWidth="1"/>
+    <col min="1528" max="1528" width="8.88671875" style="20"/>
+    <col min="1529" max="1529" width="14.5546875" style="20" customWidth="1"/>
+    <col min="1530" max="1530" width="14.44140625" style="20" customWidth="1"/>
+    <col min="1531" max="1531" width="8.88671875" style="20" customWidth="1"/>
+    <col min="1532" max="1532" width="19.109375" style="20" customWidth="1"/>
+    <col min="1533" max="1533" width="12.33203125" style="20" customWidth="1"/>
+    <col min="1534" max="1534" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="1535" max="1535" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="1536" max="1536" width="10.33203125" style="20" customWidth="1"/>
+    <col min="1537" max="1537" width="8" style="20" customWidth="1"/>
+    <col min="1538" max="1539" width="14.33203125" style="20" customWidth="1"/>
+    <col min="1540" max="1540" width="6.5546875" style="20" customWidth="1"/>
+    <col min="1541" max="1541" width="10.109375" style="20" customWidth="1"/>
+    <col min="1542" max="1542" width="7.5546875" style="20" customWidth="1"/>
+    <col min="1543" max="1781" width="8.88671875" style="20"/>
+    <col min="1782" max="1782" width="20.5546875" style="20" customWidth="1"/>
+    <col min="1783" max="1783" width="13.109375" style="20" customWidth="1"/>
+    <col min="1784" max="1784" width="8.88671875" style="20"/>
+    <col min="1785" max="1785" width="14.5546875" style="20" customWidth="1"/>
+    <col min="1786" max="1786" width="14.44140625" style="20" customWidth="1"/>
+    <col min="1787" max="1787" width="8.88671875" style="20" customWidth="1"/>
+    <col min="1788" max="1788" width="19.109375" style="20" customWidth="1"/>
+    <col min="1789" max="1789" width="12.33203125" style="20" customWidth="1"/>
+    <col min="1790" max="1790" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="1791" max="1791" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="1792" max="1792" width="10.33203125" style="20" customWidth="1"/>
+    <col min="1793" max="1793" width="8" style="20" customWidth="1"/>
+    <col min="1794" max="1795" width="14.33203125" style="20" customWidth="1"/>
+    <col min="1796" max="1796" width="6.5546875" style="20" customWidth="1"/>
+    <col min="1797" max="1797" width="10.109375" style="20" customWidth="1"/>
+    <col min="1798" max="1798" width="7.5546875" style="20" customWidth="1"/>
+    <col min="1799" max="2037" width="8.88671875" style="20"/>
+    <col min="2038" max="2038" width="20.5546875" style="20" customWidth="1"/>
+    <col min="2039" max="2039" width="13.109375" style="20" customWidth="1"/>
+    <col min="2040" max="2040" width="8.88671875" style="20"/>
+    <col min="2041" max="2041" width="14.5546875" style="20" customWidth="1"/>
+    <col min="2042" max="2042" width="14.44140625" style="20" customWidth="1"/>
+    <col min="2043" max="2043" width="8.88671875" style="20" customWidth="1"/>
+    <col min="2044" max="2044" width="19.109375" style="20" customWidth="1"/>
+    <col min="2045" max="2045" width="12.33203125" style="20" customWidth="1"/>
+    <col min="2046" max="2046" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="2047" max="2047" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2048" max="2048" width="10.33203125" style="20" customWidth="1"/>
+    <col min="2049" max="2049" width="8" style="20" customWidth="1"/>
+    <col min="2050" max="2051" width="14.33203125" style="20" customWidth="1"/>
+    <col min="2052" max="2052" width="6.5546875" style="20" customWidth="1"/>
+    <col min="2053" max="2053" width="10.109375" style="20" customWidth="1"/>
+    <col min="2054" max="2054" width="7.5546875" style="20" customWidth="1"/>
+    <col min="2055" max="2293" width="8.88671875" style="20"/>
+    <col min="2294" max="2294" width="20.5546875" style="20" customWidth="1"/>
+    <col min="2295" max="2295" width="13.109375" style="20" customWidth="1"/>
+    <col min="2296" max="2296" width="8.88671875" style="20"/>
+    <col min="2297" max="2297" width="14.5546875" style="20" customWidth="1"/>
+    <col min="2298" max="2298" width="14.44140625" style="20" customWidth="1"/>
+    <col min="2299" max="2299" width="8.88671875" style="20" customWidth="1"/>
+    <col min="2300" max="2300" width="19.109375" style="20" customWidth="1"/>
+    <col min="2301" max="2301" width="12.33203125" style="20" customWidth="1"/>
+    <col min="2302" max="2302" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="2303" max="2303" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2304" max="2304" width="10.33203125" style="20" customWidth="1"/>
+    <col min="2305" max="2305" width="8" style="20" customWidth="1"/>
+    <col min="2306" max="2307" width="14.33203125" style="20" customWidth="1"/>
+    <col min="2308" max="2308" width="6.5546875" style="20" customWidth="1"/>
+    <col min="2309" max="2309" width="10.109375" style="20" customWidth="1"/>
+    <col min="2310" max="2310" width="7.5546875" style="20" customWidth="1"/>
+    <col min="2311" max="2549" width="8.88671875" style="20"/>
+    <col min="2550" max="2550" width="20.5546875" style="20" customWidth="1"/>
+    <col min="2551" max="2551" width="13.109375" style="20" customWidth="1"/>
+    <col min="2552" max="2552" width="8.88671875" style="20"/>
+    <col min="2553" max="2553" width="14.5546875" style="20" customWidth="1"/>
+    <col min="2554" max="2554" width="14.44140625" style="20" customWidth="1"/>
+    <col min="2555" max="2555" width="8.88671875" style="20" customWidth="1"/>
+    <col min="2556" max="2556" width="19.109375" style="20" customWidth="1"/>
+    <col min="2557" max="2557" width="12.33203125" style="20" customWidth="1"/>
+    <col min="2558" max="2558" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="2559" max="2559" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2560" max="2560" width="10.33203125" style="20" customWidth="1"/>
+    <col min="2561" max="2561" width="8" style="20" customWidth="1"/>
+    <col min="2562" max="2563" width="14.33203125" style="20" customWidth="1"/>
+    <col min="2564" max="2564" width="6.5546875" style="20" customWidth="1"/>
+    <col min="2565" max="2565" width="10.109375" style="20" customWidth="1"/>
+    <col min="2566" max="2566" width="7.5546875" style="20" customWidth="1"/>
+    <col min="2567" max="2805" width="8.88671875" style="20"/>
+    <col min="2806" max="2806" width="20.5546875" style="20" customWidth="1"/>
+    <col min="2807" max="2807" width="13.109375" style="20" customWidth="1"/>
+    <col min="2808" max="2808" width="8.88671875" style="20"/>
+    <col min="2809" max="2809" width="14.5546875" style="20" customWidth="1"/>
+    <col min="2810" max="2810" width="14.44140625" style="20" customWidth="1"/>
+    <col min="2811" max="2811" width="8.88671875" style="20" customWidth="1"/>
+    <col min="2812" max="2812" width="19.109375" style="20" customWidth="1"/>
+    <col min="2813" max="2813" width="12.33203125" style="20" customWidth="1"/>
+    <col min="2814" max="2814" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="2815" max="2815" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2816" max="2816" width="10.33203125" style="20" customWidth="1"/>
+    <col min="2817" max="2817" width="8" style="20" customWidth="1"/>
+    <col min="2818" max="2819" width="14.33203125" style="20" customWidth="1"/>
+    <col min="2820" max="2820" width="6.5546875" style="20" customWidth="1"/>
+    <col min="2821" max="2821" width="10.109375" style="20" customWidth="1"/>
+    <col min="2822" max="2822" width="7.5546875" style="20" customWidth="1"/>
+    <col min="2823" max="3061" width="8.88671875" style="20"/>
+    <col min="3062" max="3062" width="20.5546875" style="20" customWidth="1"/>
+    <col min="3063" max="3063" width="13.109375" style="20" customWidth="1"/>
+    <col min="3064" max="3064" width="8.88671875" style="20"/>
+    <col min="3065" max="3065" width="14.5546875" style="20" customWidth="1"/>
+    <col min="3066" max="3066" width="14.44140625" style="20" customWidth="1"/>
+    <col min="3067" max="3067" width="8.88671875" style="20" customWidth="1"/>
+    <col min="3068" max="3068" width="19.109375" style="20" customWidth="1"/>
+    <col min="3069" max="3069" width="12.33203125" style="20" customWidth="1"/>
+    <col min="3070" max="3070" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="3071" max="3071" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3072" max="3072" width="10.33203125" style="20" customWidth="1"/>
+    <col min="3073" max="3073" width="8" style="20" customWidth="1"/>
+    <col min="3074" max="3075" width="14.33203125" style="20" customWidth="1"/>
+    <col min="3076" max="3076" width="6.5546875" style="20" customWidth="1"/>
+    <col min="3077" max="3077" width="10.109375" style="20" customWidth="1"/>
+    <col min="3078" max="3078" width="7.5546875" style="20" customWidth="1"/>
+    <col min="3079" max="3317" width="8.88671875" style="20"/>
+    <col min="3318" max="3318" width="20.5546875" style="20" customWidth="1"/>
+    <col min="3319" max="3319" width="13.109375" style="20" customWidth="1"/>
+    <col min="3320" max="3320" width="8.88671875" style="20"/>
+    <col min="3321" max="3321" width="14.5546875" style="20" customWidth="1"/>
+    <col min="3322" max="3322" width="14.44140625" style="20" customWidth="1"/>
+    <col min="3323" max="3323" width="8.88671875" style="20" customWidth="1"/>
+    <col min="3324" max="3324" width="19.109375" style="20" customWidth="1"/>
+    <col min="3325" max="3325" width="12.33203125" style="20" customWidth="1"/>
+    <col min="3326" max="3326" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="3327" max="3327" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3328" max="3328" width="10.33203125" style="20" customWidth="1"/>
+    <col min="3329" max="3329" width="8" style="20" customWidth="1"/>
+    <col min="3330" max="3331" width="14.33203125" style="20" customWidth="1"/>
+    <col min="3332" max="3332" width="6.5546875" style="20" customWidth="1"/>
+    <col min="3333" max="3333" width="10.109375" style="20" customWidth="1"/>
+    <col min="3334" max="3334" width="7.5546875" style="20" customWidth="1"/>
+    <col min="3335" max="3573" width="8.88671875" style="20"/>
+    <col min="3574" max="3574" width="20.5546875" style="20" customWidth="1"/>
+    <col min="3575" max="3575" width="13.109375" style="20" customWidth="1"/>
+    <col min="3576" max="3576" width="8.88671875" style="20"/>
+    <col min="3577" max="3577" width="14.5546875" style="20" customWidth="1"/>
+    <col min="3578" max="3578" width="14.44140625" style="20" customWidth="1"/>
+    <col min="3579" max="3579" width="8.88671875" style="20" customWidth="1"/>
+    <col min="3580" max="3580" width="19.109375" style="20" customWidth="1"/>
+    <col min="3581" max="3581" width="12.33203125" style="20" customWidth="1"/>
+    <col min="3582" max="3582" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="3583" max="3583" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3584" max="3584" width="10.33203125" style="20" customWidth="1"/>
+    <col min="3585" max="3585" width="8" style="20" customWidth="1"/>
+    <col min="3586" max="3587" width="14.33203125" style="20" customWidth="1"/>
+    <col min="3588" max="3588" width="6.5546875" style="20" customWidth="1"/>
+    <col min="3589" max="3589" width="10.109375" style="20" customWidth="1"/>
+    <col min="3590" max="3590" width="7.5546875" style="20" customWidth="1"/>
+    <col min="3591" max="3829" width="8.88671875" style="20"/>
+    <col min="3830" max="3830" width="20.5546875" style="20" customWidth="1"/>
+    <col min="3831" max="3831" width="13.109375" style="20" customWidth="1"/>
+    <col min="3832" max="3832" width="8.88671875" style="20"/>
+    <col min="3833" max="3833" width="14.5546875" style="20" customWidth="1"/>
+    <col min="3834" max="3834" width="14.44140625" style="20" customWidth="1"/>
+    <col min="3835" max="3835" width="8.88671875" style="20" customWidth="1"/>
+    <col min="3836" max="3836" width="19.109375" style="20" customWidth="1"/>
+    <col min="3837" max="3837" width="12.33203125" style="20" customWidth="1"/>
+    <col min="3838" max="3838" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="3839" max="3839" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3840" max="3840" width="10.33203125" style="20" customWidth="1"/>
+    <col min="3841" max="3841" width="8" style="20" customWidth="1"/>
+    <col min="3842" max="3843" width="14.33203125" style="20" customWidth="1"/>
+    <col min="3844" max="3844" width="6.5546875" style="20" customWidth="1"/>
+    <col min="3845" max="3845" width="10.109375" style="20" customWidth="1"/>
+    <col min="3846" max="3846" width="7.5546875" style="20" customWidth="1"/>
+    <col min="3847" max="4085" width="8.88671875" style="20"/>
+    <col min="4086" max="4086" width="20.5546875" style="20" customWidth="1"/>
+    <col min="4087" max="4087" width="13.109375" style="20" customWidth="1"/>
+    <col min="4088" max="4088" width="8.88671875" style="20"/>
+    <col min="4089" max="4089" width="14.5546875" style="20" customWidth="1"/>
+    <col min="4090" max="4090" width="14.44140625" style="20" customWidth="1"/>
+    <col min="4091" max="4091" width="8.88671875" style="20" customWidth="1"/>
+    <col min="4092" max="4092" width="19.109375" style="20" customWidth="1"/>
+    <col min="4093" max="4093" width="12.33203125" style="20" customWidth="1"/>
+    <col min="4094" max="4094" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="4095" max="4095" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4096" max="4096" width="10.33203125" style="20" customWidth="1"/>
+    <col min="4097" max="4097" width="8" style="20" customWidth="1"/>
+    <col min="4098" max="4099" width="14.33203125" style="20" customWidth="1"/>
+    <col min="4100" max="4100" width="6.5546875" style="20" customWidth="1"/>
+    <col min="4101" max="4101" width="10.109375" style="20" customWidth="1"/>
+    <col min="4102" max="4102" width="7.5546875" style="20" customWidth="1"/>
+    <col min="4103" max="4341" width="8.88671875" style="20"/>
+    <col min="4342" max="4342" width="20.5546875" style="20" customWidth="1"/>
+    <col min="4343" max="4343" width="13.109375" style="20" customWidth="1"/>
+    <col min="4344" max="4344" width="8.88671875" style="20"/>
+    <col min="4345" max="4345" width="14.5546875" style="20" customWidth="1"/>
+    <col min="4346" max="4346" width="14.44140625" style="20" customWidth="1"/>
+    <col min="4347" max="4347" width="8.88671875" style="20" customWidth="1"/>
+    <col min="4348" max="4348" width="19.109375" style="20" customWidth="1"/>
+    <col min="4349" max="4349" width="12.33203125" style="20" customWidth="1"/>
+    <col min="4350" max="4350" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="4351" max="4351" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4352" max="4352" width="10.33203125" style="20" customWidth="1"/>
+    <col min="4353" max="4353" width="8" style="20" customWidth="1"/>
+    <col min="4354" max="4355" width="14.33203125" style="20" customWidth="1"/>
+    <col min="4356" max="4356" width="6.5546875" style="20" customWidth="1"/>
+    <col min="4357" max="4357" width="10.109375" style="20" customWidth="1"/>
+    <col min="4358" max="4358" width="7.5546875" style="20" customWidth="1"/>
+    <col min="4359" max="4597" width="8.88671875" style="20"/>
+    <col min="4598" max="4598" width="20.5546875" style="20" customWidth="1"/>
+    <col min="4599" max="4599" width="13.109375" style="20" customWidth="1"/>
+    <col min="4600" max="4600" width="8.88671875" style="20"/>
+    <col min="4601" max="4601" width="14.5546875" style="20" customWidth="1"/>
+    <col min="4602" max="4602" width="14.44140625" style="20" customWidth="1"/>
+    <col min="4603" max="4603" width="8.88671875" style="20" customWidth="1"/>
+    <col min="4604" max="4604" width="19.109375" style="20" customWidth="1"/>
+    <col min="4605" max="4605" width="12.33203125" style="20" customWidth="1"/>
+    <col min="4606" max="4606" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="4607" max="4607" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4608" max="4608" width="10.33203125" style="20" customWidth="1"/>
+    <col min="4609" max="4609" width="8" style="20" customWidth="1"/>
+    <col min="4610" max="4611" width="14.33203125" style="20" customWidth="1"/>
+    <col min="4612" max="4612" width="6.5546875" style="20" customWidth="1"/>
+    <col min="4613" max="4613" width="10.109375" style="20" customWidth="1"/>
+    <col min="4614" max="4614" width="7.5546875" style="20" customWidth="1"/>
+    <col min="4615" max="4853" width="8.88671875" style="20"/>
+    <col min="4854" max="4854" width="20.5546875" style="20" customWidth="1"/>
+    <col min="4855" max="4855" width="13.109375" style="20" customWidth="1"/>
+    <col min="4856" max="4856" width="8.88671875" style="20"/>
+    <col min="4857" max="4857" width="14.5546875" style="20" customWidth="1"/>
+    <col min="4858" max="4858" width="14.44140625" style="20" customWidth="1"/>
+    <col min="4859" max="4859" width="8.88671875" style="20" customWidth="1"/>
+    <col min="4860" max="4860" width="19.109375" style="20" customWidth="1"/>
+    <col min="4861" max="4861" width="12.33203125" style="20" customWidth="1"/>
+    <col min="4862" max="4862" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="4863" max="4863" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4864" max="4864" width="10.33203125" style="20" customWidth="1"/>
+    <col min="4865" max="4865" width="8" style="20" customWidth="1"/>
+    <col min="4866" max="4867" width="14.33203125" style="20" customWidth="1"/>
+    <col min="4868" max="4868" width="6.5546875" style="20" customWidth="1"/>
+    <col min="4869" max="4869" width="10.109375" style="20" customWidth="1"/>
+    <col min="4870" max="4870" width="7.5546875" style="20" customWidth="1"/>
+    <col min="4871" max="5109" width="8.88671875" style="20"/>
+    <col min="5110" max="5110" width="20.5546875" style="20" customWidth="1"/>
+    <col min="5111" max="5111" width="13.109375" style="20" customWidth="1"/>
+    <col min="5112" max="5112" width="8.88671875" style="20"/>
+    <col min="5113" max="5113" width="14.5546875" style="20" customWidth="1"/>
+    <col min="5114" max="5114" width="14.44140625" style="20" customWidth="1"/>
+    <col min="5115" max="5115" width="8.88671875" style="20" customWidth="1"/>
+    <col min="5116" max="5116" width="19.109375" style="20" customWidth="1"/>
+    <col min="5117" max="5117" width="12.33203125" style="20" customWidth="1"/>
+    <col min="5118" max="5118" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="5119" max="5119" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="5120" max="5120" width="10.33203125" style="20" customWidth="1"/>
+    <col min="5121" max="5121" width="8" style="20" customWidth="1"/>
+    <col min="5122" max="5123" width="14.33203125" style="20" customWidth="1"/>
+    <col min="5124" max="5124" width="6.5546875" style="20" customWidth="1"/>
+    <col min="5125" max="5125" width="10.109375" style="20" customWidth="1"/>
+    <col min="5126" max="5126" width="7.5546875" style="20" customWidth="1"/>
+    <col min="5127" max="5365" width="8.88671875" style="20"/>
+    <col min="5366" max="5366" width="20.5546875" style="20" customWidth="1"/>
+    <col min="5367" max="5367" width="13.109375" style="20" customWidth="1"/>
+    <col min="5368" max="5368" width="8.88671875" style="20"/>
+    <col min="5369" max="5369" width="14.5546875" style="20" customWidth="1"/>
+    <col min="5370" max="5370" width="14.44140625" style="20" customWidth="1"/>
+    <col min="5371" max="5371" width="8.88671875" style="20" customWidth="1"/>
+    <col min="5372" max="5372" width="19.109375" style="20" customWidth="1"/>
+    <col min="5373" max="5373" width="12.33203125" style="20" customWidth="1"/>
+    <col min="5374" max="5374" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="5375" max="5375" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="5376" max="5376" width="10.33203125" style="20" customWidth="1"/>
+    <col min="5377" max="5377" width="8" style="20" customWidth="1"/>
+    <col min="5378" max="5379" width="14.33203125" style="20" customWidth="1"/>
+    <col min="5380" max="5380" width="6.5546875" style="20" customWidth="1"/>
+    <col min="5381" max="5381" width="10.109375" style="20" customWidth="1"/>
+    <col min="5382" max="5382" width="7.5546875" style="20" customWidth="1"/>
+    <col min="5383" max="5621" width="8.88671875" style="20"/>
+    <col min="5622" max="5622" width="20.5546875" style="20" customWidth="1"/>
+    <col min="5623" max="5623" width="13.109375" style="20" customWidth="1"/>
+    <col min="5624" max="5624" width="8.88671875" style="20"/>
+    <col min="5625" max="5625" width="14.5546875" style="20" customWidth="1"/>
+    <col min="5626" max="5626" width="14.44140625" style="20" customWidth="1"/>
+    <col min="5627" max="5627" width="8.88671875" style="20" customWidth="1"/>
+    <col min="5628" max="5628" width="19.109375" style="20" customWidth="1"/>
+    <col min="5629" max="5629" width="12.33203125" style="20" customWidth="1"/>
+    <col min="5630" max="5630" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="5631" max="5631" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="5632" max="5632" width="10.33203125" style="20" customWidth="1"/>
+    <col min="5633" max="5633" width="8" style="20" customWidth="1"/>
+    <col min="5634" max="5635" width="14.33203125" style="20" customWidth="1"/>
+    <col min="5636" max="5636" width="6.5546875" style="20" customWidth="1"/>
+    <col min="5637" max="5637" width="10.109375" style="20" customWidth="1"/>
+    <col min="5638" max="5638" width="7.5546875" style="20" customWidth="1"/>
+    <col min="5639" max="5877" width="8.88671875" style="20"/>
+    <col min="5878" max="5878" width="20.5546875" style="20" customWidth="1"/>
+    <col min="5879" max="5879" width="13.109375" style="20" customWidth="1"/>
+    <col min="5880" max="5880" width="8.88671875" style="20"/>
+    <col min="5881" max="5881" width="14.5546875" style="20" customWidth="1"/>
+    <col min="5882" max="5882" width="14.44140625" style="20" customWidth="1"/>
+    <col min="5883" max="5883" width="8.88671875" style="20" customWidth="1"/>
+    <col min="5884" max="5884" width="19.109375" style="20" customWidth="1"/>
+    <col min="5885" max="5885" width="12.33203125" style="20" customWidth="1"/>
+    <col min="5886" max="5886" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="5887" max="5887" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="5888" max="5888" width="10.33203125" style="20" customWidth="1"/>
+    <col min="5889" max="5889" width="8" style="20" customWidth="1"/>
+    <col min="5890" max="5891" width="14.33203125" style="20" customWidth="1"/>
+    <col min="5892" max="5892" width="6.5546875" style="20" customWidth="1"/>
+    <col min="5893" max="5893" width="10.109375" style="20" customWidth="1"/>
+    <col min="5894" max="5894" width="7.5546875" style="20" customWidth="1"/>
+    <col min="5895" max="6133" width="8.88671875" style="20"/>
+    <col min="6134" max="6134" width="20.5546875" style="20" customWidth="1"/>
+    <col min="6135" max="6135" width="13.109375" style="20" customWidth="1"/>
+    <col min="6136" max="6136" width="8.88671875" style="20"/>
+    <col min="6137" max="6137" width="14.5546875" style="20" customWidth="1"/>
+    <col min="6138" max="6138" width="14.44140625" style="20" customWidth="1"/>
+    <col min="6139" max="6139" width="8.88671875" style="20" customWidth="1"/>
+    <col min="6140" max="6140" width="19.109375" style="20" customWidth="1"/>
+    <col min="6141" max="6141" width="12.33203125" style="20" customWidth="1"/>
+    <col min="6142" max="6142" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="6143" max="6143" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="6144" max="6144" width="10.33203125" style="20" customWidth="1"/>
+    <col min="6145" max="6145" width="8" style="20" customWidth="1"/>
+    <col min="6146" max="6147" width="14.33203125" style="20" customWidth="1"/>
+    <col min="6148" max="6148" width="6.5546875" style="20" customWidth="1"/>
+    <col min="6149" max="6149" width="10.109375" style="20" customWidth="1"/>
+    <col min="6150" max="6150" width="7.5546875" style="20" customWidth="1"/>
+    <col min="6151" max="6389" width="8.88671875" style="20"/>
+    <col min="6390" max="6390" width="20.5546875" style="20" customWidth="1"/>
+    <col min="6391" max="6391" width="13.109375" style="20" customWidth="1"/>
+    <col min="6392" max="6392" width="8.88671875" style="20"/>
+    <col min="6393" max="6393" width="14.5546875" style="20" customWidth="1"/>
+    <col min="6394" max="6394" width="14.44140625" style="20" customWidth="1"/>
+    <col min="6395" max="6395" width="8.88671875" style="20" customWidth="1"/>
+    <col min="6396" max="6396" width="19.109375" style="20" customWidth="1"/>
+    <col min="6397" max="6397" width="12.33203125" style="20" customWidth="1"/>
+    <col min="6398" max="6398" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="6399" max="6399" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="6400" max="6400" width="10.33203125" style="20" customWidth="1"/>
+    <col min="6401" max="6401" width="8" style="20" customWidth="1"/>
+    <col min="6402" max="6403" width="14.33203125" style="20" customWidth="1"/>
+    <col min="6404" max="6404" width="6.5546875" style="20" customWidth="1"/>
+    <col min="6405" max="6405" width="10.109375" style="20" customWidth="1"/>
+    <col min="6406" max="6406" width="7.5546875" style="20" customWidth="1"/>
+    <col min="6407" max="6645" width="8.88671875" style="20"/>
+    <col min="6646" max="6646" width="20.5546875" style="20" customWidth="1"/>
+    <col min="6647" max="6647" width="13.109375" style="20" customWidth="1"/>
+    <col min="6648" max="6648" width="8.88671875" style="20"/>
+    <col min="6649" max="6649" width="14.5546875" style="20" customWidth="1"/>
+    <col min="6650" max="6650" width="14.44140625" style="20" customWidth="1"/>
+    <col min="6651" max="6651" width="8.88671875" style="20" customWidth="1"/>
+    <col min="6652" max="6652" width="19.109375" style="20" customWidth="1"/>
+    <col min="6653" max="6653" width="12.33203125" style="20" customWidth="1"/>
+    <col min="6654" max="6654" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="6655" max="6655" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="6656" max="6656" width="10.33203125" style="20" customWidth="1"/>
+    <col min="6657" max="6657" width="8" style="20" customWidth="1"/>
+    <col min="6658" max="6659" width="14.33203125" style="20" customWidth="1"/>
+    <col min="6660" max="6660" width="6.5546875" style="20" customWidth="1"/>
+    <col min="6661" max="6661" width="10.109375" style="20" customWidth="1"/>
+    <col min="6662" max="6662" width="7.5546875" style="20" customWidth="1"/>
+    <col min="6663" max="6901" width="8.88671875" style="20"/>
+    <col min="6902" max="6902" width="20.5546875" style="20" customWidth="1"/>
+    <col min="6903" max="6903" width="13.109375" style="20" customWidth="1"/>
+    <col min="6904" max="6904" width="8.88671875" style="20"/>
+    <col min="6905" max="6905" width="14.5546875" style="20" customWidth="1"/>
+    <col min="6906" max="6906" width="14.44140625" style="20" customWidth="1"/>
+    <col min="6907" max="6907" width="8.88671875" style="20" customWidth="1"/>
+    <col min="6908" max="6908" width="19.109375" style="20" customWidth="1"/>
+    <col min="6909" max="6909" width="12.33203125" style="20" customWidth="1"/>
+    <col min="6910" max="6910" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="6911" max="6911" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="6912" max="6912" width="10.33203125" style="20" customWidth="1"/>
+    <col min="6913" max="6913" width="8" style="20" customWidth="1"/>
+    <col min="6914" max="6915" width="14.33203125" style="20" customWidth="1"/>
+    <col min="6916" max="6916" width="6.5546875" style="20" customWidth="1"/>
+    <col min="6917" max="6917" width="10.109375" style="20" customWidth="1"/>
+    <col min="6918" max="6918" width="7.5546875" style="20" customWidth="1"/>
+    <col min="6919" max="7157" width="8.88671875" style="20"/>
+    <col min="7158" max="7158" width="20.5546875" style="20" customWidth="1"/>
+    <col min="7159" max="7159" width="13.109375" style="20" customWidth="1"/>
+    <col min="7160" max="7160" width="8.88671875" style="20"/>
+    <col min="7161" max="7161" width="14.5546875" style="20" customWidth="1"/>
+    <col min="7162" max="7162" width="14.44140625" style="20" customWidth="1"/>
+    <col min="7163" max="7163" width="8.88671875" style="20" customWidth="1"/>
+    <col min="7164" max="7164" width="19.109375" style="20" customWidth="1"/>
+    <col min="7165" max="7165" width="12.33203125" style="20" customWidth="1"/>
+    <col min="7166" max="7166" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="7167" max="7167" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7168" max="7168" width="10.33203125" style="20" customWidth="1"/>
+    <col min="7169" max="7169" width="8" style="20" customWidth="1"/>
+    <col min="7170" max="7171" width="14.33203125" style="20" customWidth="1"/>
+    <col min="7172" max="7172" width="6.5546875" style="20" customWidth="1"/>
+    <col min="7173" max="7173" width="10.109375" style="20" customWidth="1"/>
+    <col min="7174" max="7174" width="7.5546875" style="20" customWidth="1"/>
+    <col min="7175" max="7413" width="8.88671875" style="20"/>
+    <col min="7414" max="7414" width="20.5546875" style="20" customWidth="1"/>
+    <col min="7415" max="7415" width="13.109375" style="20" customWidth="1"/>
+    <col min="7416" max="7416" width="8.88671875" style="20"/>
+    <col min="7417" max="7417" width="14.5546875" style="20" customWidth="1"/>
+    <col min="7418" max="7418" width="14.44140625" style="20" customWidth="1"/>
+    <col min="7419" max="7419" width="8.88671875" style="20" customWidth="1"/>
+    <col min="7420" max="7420" width="19.109375" style="20" customWidth="1"/>
+    <col min="7421" max="7421" width="12.33203125" style="20" customWidth="1"/>
+    <col min="7422" max="7422" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="7423" max="7423" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7424" max="7424" width="10.33203125" style="20" customWidth="1"/>
+    <col min="7425" max="7425" width="8" style="20" customWidth="1"/>
+    <col min="7426" max="7427" width="14.33203125" style="20" customWidth="1"/>
+    <col min="7428" max="7428" width="6.5546875" style="20" customWidth="1"/>
+    <col min="7429" max="7429" width="10.109375" style="20" customWidth="1"/>
+    <col min="7430" max="7430" width="7.5546875" style="20" customWidth="1"/>
+    <col min="7431" max="7669" width="8.88671875" style="20"/>
+    <col min="7670" max="7670" width="20.5546875" style="20" customWidth="1"/>
+    <col min="7671" max="7671" width="13.109375" style="20" customWidth="1"/>
+    <col min="7672" max="7672" width="8.88671875" style="20"/>
+    <col min="7673" max="7673" width="14.5546875" style="20" customWidth="1"/>
+    <col min="7674" max="7674" width="14.44140625" style="20" customWidth="1"/>
+    <col min="7675" max="7675" width="8.88671875" style="20" customWidth="1"/>
+    <col min="7676" max="7676" width="19.109375" style="20" customWidth="1"/>
+    <col min="7677" max="7677" width="12.33203125" style="20" customWidth="1"/>
+    <col min="7678" max="7678" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="7679" max="7679" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7680" max="7680" width="10.33203125" style="20" customWidth="1"/>
+    <col min="7681" max="7681" width="8" style="20" customWidth="1"/>
+    <col min="7682" max="7683" width="14.33203125" style="20" customWidth="1"/>
+    <col min="7684" max="7684" width="6.5546875" style="20" customWidth="1"/>
+    <col min="7685" max="7685" width="10.109375" style="20" customWidth="1"/>
+    <col min="7686" max="7686" width="7.5546875" style="20" customWidth="1"/>
+    <col min="7687" max="7925" width="8.88671875" style="20"/>
+    <col min="7926" max="7926" width="20.5546875" style="20" customWidth="1"/>
+    <col min="7927" max="7927" width="13.109375" style="20" customWidth="1"/>
+    <col min="7928" max="7928" width="8.88671875" style="20"/>
+    <col min="7929" max="7929" width="14.5546875" style="20" customWidth="1"/>
+    <col min="7930" max="7930" width="14.44140625" style="20" customWidth="1"/>
+    <col min="7931" max="7931" width="8.88671875" style="20" customWidth="1"/>
+    <col min="7932" max="7932" width="19.109375" style="20" customWidth="1"/>
+    <col min="7933" max="7933" width="12.33203125" style="20" customWidth="1"/>
+    <col min="7934" max="7934" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="7935" max="7935" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7936" max="7936" width="10.33203125" style="20" customWidth="1"/>
+    <col min="7937" max="7937" width="8" style="20" customWidth="1"/>
+    <col min="7938" max="7939" width="14.33203125" style="20" customWidth="1"/>
+    <col min="7940" max="7940" width="6.5546875" style="20" customWidth="1"/>
+    <col min="7941" max="7941" width="10.109375" style="20" customWidth="1"/>
+    <col min="7942" max="7942" width="7.5546875" style="20" customWidth="1"/>
+    <col min="7943" max="8181" width="8.88671875" style="20"/>
+    <col min="8182" max="8182" width="20.5546875" style="20" customWidth="1"/>
+    <col min="8183" max="8183" width="13.109375" style="20" customWidth="1"/>
+    <col min="8184" max="8184" width="8.88671875" style="20"/>
+    <col min="8185" max="8185" width="14.5546875" style="20" customWidth="1"/>
+    <col min="8186" max="8186" width="14.44140625" style="20" customWidth="1"/>
+    <col min="8187" max="8187" width="8.88671875" style="20" customWidth="1"/>
+    <col min="8188" max="8188" width="19.109375" style="20" customWidth="1"/>
+    <col min="8189" max="8189" width="12.33203125" style="20" customWidth="1"/>
+    <col min="8190" max="8190" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="8191" max="8191" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="8192" max="8192" width="10.33203125" style="20" customWidth="1"/>
+    <col min="8193" max="8193" width="8" style="20" customWidth="1"/>
+    <col min="8194" max="8195" width="14.33203125" style="20" customWidth="1"/>
+    <col min="8196" max="8196" width="6.5546875" style="20" customWidth="1"/>
+    <col min="8197" max="8197" width="10.109375" style="20" customWidth="1"/>
+    <col min="8198" max="8198" width="7.5546875" style="20" customWidth="1"/>
+    <col min="8199" max="8437" width="8.88671875" style="20"/>
+    <col min="8438" max="8438" width="20.5546875" style="20" customWidth="1"/>
+    <col min="8439" max="8439" width="13.109375" style="20" customWidth="1"/>
+    <col min="8440" max="8440" width="8.88671875" style="20"/>
+    <col min="8441" max="8441" width="14.5546875" style="20" customWidth="1"/>
+    <col min="8442" max="8442" width="14.44140625" style="20" customWidth="1"/>
+    <col min="8443" max="8443" width="8.88671875" style="20" customWidth="1"/>
+    <col min="8444" max="8444" width="19.109375" style="20" customWidth="1"/>
+    <col min="8445" max="8445" width="12.33203125" style="20" customWidth="1"/>
+    <col min="8446" max="8446" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="8447" max="8447" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="8448" max="8448" width="10.33203125" style="20" customWidth="1"/>
+    <col min="8449" max="8449" width="8" style="20" customWidth="1"/>
+    <col min="8450" max="8451" width="14.33203125" style="20" customWidth="1"/>
+    <col min="8452" max="8452" width="6.5546875" style="20" customWidth="1"/>
+    <col min="8453" max="8453" width="10.109375" style="20" customWidth="1"/>
+    <col min="8454" max="8454" width="7.5546875" style="20" customWidth="1"/>
+    <col min="8455" max="8693" width="8.88671875" style="20"/>
+    <col min="8694" max="8694" width="20.5546875" style="20" customWidth="1"/>
+    <col min="8695" max="8695" width="13.109375" style="20" customWidth="1"/>
+    <col min="8696" max="8696" width="8.88671875" style="20"/>
+    <col min="8697" max="8697" width="14.5546875" style="20" customWidth="1"/>
+    <col min="8698" max="8698" width="14.44140625" style="20" customWidth="1"/>
+    <col min="8699" max="8699" width="8.88671875" style="20" customWidth="1"/>
+    <col min="8700" max="8700" width="19.109375" style="20" customWidth="1"/>
+    <col min="8701" max="8701" width="12.33203125" style="20" customWidth="1"/>
+    <col min="8702" max="8702" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="8703" max="8703" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="8704" max="8704" width="10.33203125" style="20" customWidth="1"/>
+    <col min="8705" max="8705" width="8" style="20" customWidth="1"/>
+    <col min="8706" max="8707" width="14.33203125" style="20" customWidth="1"/>
+    <col min="8708" max="8708" width="6.5546875" style="20" customWidth="1"/>
+    <col min="8709" max="8709" width="10.109375" style="20" customWidth="1"/>
+    <col min="8710" max="8710" width="7.5546875" style="20" customWidth="1"/>
+    <col min="8711" max="8949" width="8.88671875" style="20"/>
+    <col min="8950" max="8950" width="20.5546875" style="20" customWidth="1"/>
+    <col min="8951" max="8951" width="13.109375" style="20" customWidth="1"/>
+    <col min="8952" max="8952" width="8.88671875" style="20"/>
+    <col min="8953" max="8953" width="14.5546875" style="20" customWidth="1"/>
+    <col min="8954" max="8954" width="14.44140625" style="20" customWidth="1"/>
+    <col min="8955" max="8955" width="8.88671875" style="20" customWidth="1"/>
+    <col min="8956" max="8956" width="19.109375" style="20" customWidth="1"/>
+    <col min="8957" max="8957" width="12.33203125" style="20" customWidth="1"/>
+    <col min="8958" max="8958" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="8959" max="8959" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="8960" max="8960" width="10.33203125" style="20" customWidth="1"/>
+    <col min="8961" max="8961" width="8" style="20" customWidth="1"/>
+    <col min="8962" max="8963" width="14.33203125" style="20" customWidth="1"/>
+    <col min="8964" max="8964" width="6.5546875" style="20" customWidth="1"/>
+    <col min="8965" max="8965" width="10.109375" style="20" customWidth="1"/>
+    <col min="8966" max="8966" width="7.5546875" style="20" customWidth="1"/>
+    <col min="8967" max="9205" width="8.88671875" style="20"/>
+    <col min="9206" max="9206" width="20.5546875" style="20" customWidth="1"/>
+    <col min="9207" max="9207" width="13.109375" style="20" customWidth="1"/>
+    <col min="9208" max="9208" width="8.88671875" style="20"/>
+    <col min="9209" max="9209" width="14.5546875" style="20" customWidth="1"/>
+    <col min="9210" max="9210" width="14.44140625" style="20" customWidth="1"/>
+    <col min="9211" max="9211" width="8.88671875" style="20" customWidth="1"/>
+    <col min="9212" max="9212" width="19.109375" style="20" customWidth="1"/>
+    <col min="9213" max="9213" width="12.33203125" style="20" customWidth="1"/>
+    <col min="9214" max="9214" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="9215" max="9215" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="9216" max="9216" width="10.33203125" style="20" customWidth="1"/>
+    <col min="9217" max="9217" width="8" style="20" customWidth="1"/>
+    <col min="9218" max="9219" width="14.33203125" style="20" customWidth="1"/>
+    <col min="9220" max="9220" width="6.5546875" style="20" customWidth="1"/>
+    <col min="9221" max="9221" width="10.109375" style="20" customWidth="1"/>
+    <col min="9222" max="9222" width="7.5546875" style="20" customWidth="1"/>
+    <col min="9223" max="9461" width="8.88671875" style="20"/>
+    <col min="9462" max="9462" width="20.5546875" style="20" customWidth="1"/>
+    <col min="9463" max="9463" width="13.109375" style="20" customWidth="1"/>
+    <col min="9464" max="9464" width="8.88671875" style="20"/>
+    <col min="9465" max="9465" width="14.5546875" style="20" customWidth="1"/>
+    <col min="9466" max="9466" width="14.44140625" style="20" customWidth="1"/>
+    <col min="9467" max="9467" width="8.88671875" style="20" customWidth="1"/>
+    <col min="9468" max="9468" width="19.109375" style="20" customWidth="1"/>
+    <col min="9469" max="9469" width="12.33203125" style="20" customWidth="1"/>
+    <col min="9470" max="9470" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="9471" max="9471" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="9472" max="9472" width="10.33203125" style="20" customWidth="1"/>
+    <col min="9473" max="9473" width="8" style="20" customWidth="1"/>
+    <col min="9474" max="9475" width="14.33203125" style="20" customWidth="1"/>
+    <col min="9476" max="9476" width="6.5546875" style="20" customWidth="1"/>
+    <col min="9477" max="9477" width="10.109375" style="20" customWidth="1"/>
+    <col min="9478" max="9478" width="7.5546875" style="20" customWidth="1"/>
+    <col min="9479" max="9717" width="8.88671875" style="20"/>
+    <col min="9718" max="9718" width="20.5546875" style="20" customWidth="1"/>
+    <col min="9719" max="9719" width="13.109375" style="20" customWidth="1"/>
+    <col min="9720" max="9720" width="8.88671875" style="20"/>
+    <col min="9721" max="9721" width="14.5546875" style="20" customWidth="1"/>
+    <col min="9722" max="9722" width="14.44140625" style="20" customWidth="1"/>
+    <col min="9723" max="9723" width="8.88671875" style="20" customWidth="1"/>
+    <col min="9724" max="9724" width="19.109375" style="20" customWidth="1"/>
+    <col min="9725" max="9725" width="12.33203125" style="20" customWidth="1"/>
+    <col min="9726" max="9726" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="9727" max="9727" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="9728" max="9728" width="10.33203125" style="20" customWidth="1"/>
+    <col min="9729" max="9729" width="8" style="20" customWidth="1"/>
+    <col min="9730" max="9731" width="14.33203125" style="20" customWidth="1"/>
+    <col min="9732" max="9732" width="6.5546875" style="20" customWidth="1"/>
+    <col min="9733" max="9733" width="10.109375" style="20" customWidth="1"/>
+    <col min="9734" max="9734" width="7.5546875" style="20" customWidth="1"/>
+    <col min="9735" max="9973" width="8.88671875" style="20"/>
+    <col min="9974" max="9974" width="20.5546875" style="20" customWidth="1"/>
+    <col min="9975" max="9975" width="13.109375" style="20" customWidth="1"/>
+    <col min="9976" max="9976" width="8.88671875" style="20"/>
+    <col min="9977" max="9977" width="14.5546875" style="20" customWidth="1"/>
+    <col min="9978" max="9978" width="14.44140625" style="20" customWidth="1"/>
+    <col min="9979" max="9979" width="8.88671875" style="20" customWidth="1"/>
+    <col min="9980" max="9980" width="19.109375" style="20" customWidth="1"/>
+    <col min="9981" max="9981" width="12.33203125" style="20" customWidth="1"/>
+    <col min="9982" max="9982" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="9983" max="9983" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="9984" max="9984" width="10.33203125" style="20" customWidth="1"/>
+    <col min="9985" max="9985" width="8" style="20" customWidth="1"/>
+    <col min="9986" max="9987" width="14.33203125" style="20" customWidth="1"/>
+    <col min="9988" max="9988" width="6.5546875" style="20" customWidth="1"/>
+    <col min="9989" max="9989" width="10.109375" style="20" customWidth="1"/>
+    <col min="9990" max="9990" width="7.5546875" style="20" customWidth="1"/>
+    <col min="9991" max="10229" width="8.88671875" style="20"/>
+    <col min="10230" max="10230" width="20.5546875" style="20" customWidth="1"/>
+    <col min="10231" max="10231" width="13.109375" style="20" customWidth="1"/>
+    <col min="10232" max="10232" width="8.88671875" style="20"/>
+    <col min="10233" max="10233" width="14.5546875" style="20" customWidth="1"/>
+    <col min="10234" max="10234" width="14.44140625" style="20" customWidth="1"/>
+    <col min="10235" max="10235" width="8.88671875" style="20" customWidth="1"/>
+    <col min="10236" max="10236" width="19.109375" style="20" customWidth="1"/>
+    <col min="10237" max="10237" width="12.33203125" style="20" customWidth="1"/>
+    <col min="10238" max="10238" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="10239" max="10239" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="10240" max="10240" width="10.33203125" style="20" customWidth="1"/>
+    <col min="10241" max="10241" width="8" style="20" customWidth="1"/>
+    <col min="10242" max="10243" width="14.33203125" style="20" customWidth="1"/>
+    <col min="10244" max="10244" width="6.5546875" style="20" customWidth="1"/>
+    <col min="10245" max="10245" width="10.109375" style="20" customWidth="1"/>
+    <col min="10246" max="10246" width="7.5546875" style="20" customWidth="1"/>
+    <col min="10247" max="10485" width="8.88671875" style="20"/>
+    <col min="10486" max="10486" width="20.5546875" style="20" customWidth="1"/>
+    <col min="10487" max="10487" width="13.109375" style="20" customWidth="1"/>
+    <col min="10488" max="10488" width="8.88671875" style="20"/>
+    <col min="10489" max="10489" width="14.5546875" style="20" customWidth="1"/>
+    <col min="10490" max="10490" width="14.44140625" style="20" customWidth="1"/>
+    <col min="10491" max="10491" width="8.88671875" style="20" customWidth="1"/>
+    <col min="10492" max="10492" width="19.109375" style="20" customWidth="1"/>
+    <col min="10493" max="10493" width="12.33203125" style="20" customWidth="1"/>
+    <col min="10494" max="10494" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="10495" max="10495" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="10496" max="10496" width="10.33203125" style="20" customWidth="1"/>
+    <col min="10497" max="10497" width="8" style="20" customWidth="1"/>
+    <col min="10498" max="10499" width="14.33203125" style="20" customWidth="1"/>
+    <col min="10500" max="10500" width="6.5546875" style="20" customWidth="1"/>
+    <col min="10501" max="10501" width="10.109375" style="20" customWidth="1"/>
+    <col min="10502" max="10502" width="7.5546875" style="20" customWidth="1"/>
+    <col min="10503" max="10741" width="8.88671875" style="20"/>
+    <col min="10742" max="10742" width="20.5546875" style="20" customWidth="1"/>
+    <col min="10743" max="10743" width="13.109375" style="20" customWidth="1"/>
+    <col min="10744" max="10744" width="8.88671875" style="20"/>
+    <col min="10745" max="10745" width="14.5546875" style="20" customWidth="1"/>
+    <col min="10746" max="10746" width="14.44140625" style="20" customWidth="1"/>
+    <col min="10747" max="10747" width="8.88671875" style="20" customWidth="1"/>
+    <col min="10748" max="10748" width="19.109375" style="20" customWidth="1"/>
+    <col min="10749" max="10749" width="12.33203125" style="20" customWidth="1"/>
+    <col min="10750" max="10750" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="10751" max="10751" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="10752" max="10752" width="10.33203125" style="20" customWidth="1"/>
+    <col min="10753" max="10753" width="8" style="20" customWidth="1"/>
+    <col min="10754" max="10755" width="14.33203125" style="20" customWidth="1"/>
+    <col min="10756" max="10756" width="6.5546875" style="20" customWidth="1"/>
+    <col min="10757" max="10757" width="10.109375" style="20" customWidth="1"/>
+    <col min="10758" max="10758" width="7.5546875" style="20" customWidth="1"/>
+    <col min="10759" max="10997" width="8.88671875" style="20"/>
+    <col min="10998" max="10998" width="20.5546875" style="20" customWidth="1"/>
+    <col min="10999" max="10999" width="13.109375" style="20" customWidth="1"/>
+    <col min="11000" max="11000" width="8.88671875" style="20"/>
+    <col min="11001" max="11001" width="14.5546875" style="20" customWidth="1"/>
+    <col min="11002" max="11002" width="14.44140625" style="20" customWidth="1"/>
+    <col min="11003" max="11003" width="8.88671875" style="20" customWidth="1"/>
+    <col min="11004" max="11004" width="19.109375" style="20" customWidth="1"/>
+    <col min="11005" max="11005" width="12.33203125" style="20" customWidth="1"/>
+    <col min="11006" max="11006" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="11007" max="11007" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="11008" max="11008" width="10.33203125" style="20" customWidth="1"/>
+    <col min="11009" max="11009" width="8" style="20" customWidth="1"/>
+    <col min="11010" max="11011" width="14.33203125" style="20" customWidth="1"/>
+    <col min="11012" max="11012" width="6.5546875" style="20" customWidth="1"/>
+    <col min="11013" max="11013" width="10.109375" style="20" customWidth="1"/>
+    <col min="11014" max="11014" width="7.5546875" style="20" customWidth="1"/>
+    <col min="11015" max="11253" width="8.88671875" style="20"/>
+    <col min="11254" max="11254" width="20.5546875" style="20" customWidth="1"/>
+    <col min="11255" max="11255" width="13.109375" style="20" customWidth="1"/>
+    <col min="11256" max="11256" width="8.88671875" style="20"/>
+    <col min="11257" max="11257" width="14.5546875" style="20" customWidth="1"/>
+    <col min="11258" max="11258" width="14.44140625" style="20" customWidth="1"/>
+    <col min="11259" max="11259" width="8.88671875" style="20" customWidth="1"/>
+    <col min="11260" max="11260" width="19.109375" style="20" customWidth="1"/>
+    <col min="11261" max="11261" width="12.33203125" style="20" customWidth="1"/>
+    <col min="11262" max="11262" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="11263" max="11263" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="11264" max="11264" width="10.33203125" style="20" customWidth="1"/>
+    <col min="11265" max="11265" width="8" style="20" customWidth="1"/>
+    <col min="11266" max="11267" width="14.33203125" style="20" customWidth="1"/>
+    <col min="11268" max="11268" width="6.5546875" style="20" customWidth="1"/>
+    <col min="11269" max="11269" width="10.109375" style="20" customWidth="1"/>
+    <col min="11270" max="11270" width="7.5546875" style="20" customWidth="1"/>
+    <col min="11271" max="11509" width="8.88671875" style="20"/>
+    <col min="11510" max="11510" width="20.5546875" style="20" customWidth="1"/>
+    <col min="11511" max="11511" width="13.109375" style="20" customWidth="1"/>
+    <col min="11512" max="11512" width="8.88671875" style="20"/>
+    <col min="11513" max="11513" width="14.5546875" style="20" customWidth="1"/>
+    <col min="11514" max="11514" width="14.44140625" style="20" customWidth="1"/>
+    <col min="11515" max="11515" width="8.88671875" style="20" customWidth="1"/>
+    <col min="11516" max="11516" width="19.109375" style="20" customWidth="1"/>
+    <col min="11517" max="11517" width="12.33203125" style="20" customWidth="1"/>
+    <col min="11518" max="11518" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="11519" max="11519" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="11520" max="11520" width="10.33203125" style="20" customWidth="1"/>
+    <col min="11521" max="11521" width="8" style="20" customWidth="1"/>
+    <col min="11522" max="11523" width="14.33203125" style="20" customWidth="1"/>
+    <col min="11524" max="11524" width="6.5546875" style="20" customWidth="1"/>
+    <col min="11525" max="11525" width="10.109375" style="20" customWidth="1"/>
+    <col min="11526" max="11526" width="7.5546875" style="20" customWidth="1"/>
+    <col min="11527" max="11765" width="8.88671875" style="20"/>
+    <col min="11766" max="11766" width="20.5546875" style="20" customWidth="1"/>
+    <col min="11767" max="11767" width="13.109375" style="20" customWidth="1"/>
+    <col min="11768" max="11768" width="8.88671875" style="20"/>
+    <col min="11769" max="11769" width="14.5546875" style="20" customWidth="1"/>
+    <col min="11770" max="11770" width="14.44140625" style="20" customWidth="1"/>
+    <col min="11771" max="11771" width="8.88671875" style="20" customWidth="1"/>
+    <col min="11772" max="11772" width="19.109375" style="20" customWidth="1"/>
+    <col min="11773" max="11773" width="12.33203125" style="20" customWidth="1"/>
+    <col min="11774" max="11774" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="11775" max="11775" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="11776" max="11776" width="10.33203125" style="20" customWidth="1"/>
+    <col min="11777" max="11777" width="8" style="20" customWidth="1"/>
+    <col min="11778" max="11779" width="14.33203125" style="20" customWidth="1"/>
+    <col min="11780" max="11780" width="6.5546875" style="20" customWidth="1"/>
+    <col min="11781" max="11781" width="10.109375" style="20" customWidth="1"/>
+    <col min="11782" max="11782" width="7.5546875" style="20" customWidth="1"/>
+    <col min="11783" max="12021" width="8.88671875" style="20"/>
+    <col min="12022" max="12022" width="20.5546875" style="20" customWidth="1"/>
+    <col min="12023" max="12023" width="13.109375" style="20" customWidth="1"/>
+    <col min="12024" max="12024" width="8.88671875" style="20"/>
+    <col min="12025" max="12025" width="14.5546875" style="20" customWidth="1"/>
+    <col min="12026" max="12026" width="14.44140625" style="20" customWidth="1"/>
+    <col min="12027" max="12027" width="8.88671875" style="20" customWidth="1"/>
+    <col min="12028" max="12028" width="19.109375" style="20" customWidth="1"/>
+    <col min="12029" max="12029" width="12.33203125" style="20" customWidth="1"/>
+    <col min="12030" max="12030" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="12031" max="12031" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="12032" max="12032" width="10.33203125" style="20" customWidth="1"/>
+    <col min="12033" max="12033" width="8" style="20" customWidth="1"/>
+    <col min="12034" max="12035" width="14.33203125" style="20" customWidth="1"/>
+    <col min="12036" max="12036" width="6.5546875" style="20" customWidth="1"/>
+    <col min="12037" max="12037" width="10.109375" style="20" customWidth="1"/>
+    <col min="12038" max="12038" width="7.5546875" style="20" customWidth="1"/>
+    <col min="12039" max="12277" width="8.88671875" style="20"/>
+    <col min="12278" max="12278" width="20.5546875" style="20" customWidth="1"/>
+    <col min="12279" max="12279" width="13.109375" style="20" customWidth="1"/>
+    <col min="12280" max="12280" width="8.88671875" style="20"/>
+    <col min="12281" max="12281" width="14.5546875" style="20" customWidth="1"/>
+    <col min="12282" max="12282" width="14.44140625" style="20" customWidth="1"/>
+    <col min="12283" max="12283" width="8.88671875" style="20" customWidth="1"/>
+    <col min="12284" max="12284" width="19.109375" style="20" customWidth="1"/>
+    <col min="12285" max="12285" width="12.33203125" style="20" customWidth="1"/>
+    <col min="12286" max="12286" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="12287" max="12287" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="12288" max="12288" width="10.33203125" style="20" customWidth="1"/>
+    <col min="12289" max="12289" width="8" style="20" customWidth="1"/>
+    <col min="12290" max="12291" width="14.33203125" style="20" customWidth="1"/>
+    <col min="12292" max="12292" width="6.5546875" style="20" customWidth="1"/>
+    <col min="12293" max="12293" width="10.109375" style="20" customWidth="1"/>
+    <col min="12294" max="12294" width="7.5546875" style="20" customWidth="1"/>
+    <col min="12295" max="12533" width="8.88671875" style="20"/>
+    <col min="12534" max="12534" width="20.5546875" style="20" customWidth="1"/>
+    <col min="12535" max="12535" width="13.109375" style="20" customWidth="1"/>
+    <col min="12536" max="12536" width="8.88671875" style="20"/>
+    <col min="12537" max="12537" width="14.5546875" style="20" customWidth="1"/>
+    <col min="12538" max="12538" width="14.44140625" style="20" customWidth="1"/>
+    <col min="12539" max="12539" width="8.88671875" style="20" customWidth="1"/>
+    <col min="12540" max="12540" width="19.109375" style="20" customWidth="1"/>
+    <col min="12541" max="12541" width="12.33203125" style="20" customWidth="1"/>
+    <col min="12542" max="12542" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="12543" max="12543" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="12544" max="12544" width="10.33203125" style="20" customWidth="1"/>
+    <col min="12545" max="12545" width="8" style="20" customWidth="1"/>
+    <col min="12546" max="12547" width="14.33203125" style="20" customWidth="1"/>
+    <col min="12548" max="12548" width="6.5546875" style="20" customWidth="1"/>
+    <col min="12549" max="12549" width="10.109375" style="20" customWidth="1"/>
+    <col min="12550" max="12550" width="7.5546875" style="20" customWidth="1"/>
+    <col min="12551" max="12789" width="8.88671875" style="20"/>
+    <col min="12790" max="12790" width="20.5546875" style="20" customWidth="1"/>
+    <col min="12791" max="12791" width="13.109375" style="20" customWidth="1"/>
+    <col min="12792" max="12792" width="8.88671875" style="20"/>
+    <col min="12793" max="12793" width="14.5546875" style="20" customWidth="1"/>
+    <col min="12794" max="12794" width="14.44140625" style="20" customWidth="1"/>
+    <col min="12795" max="12795" width="8.88671875" style="20" customWidth="1"/>
+    <col min="12796" max="12796" width="19.109375" style="20" customWidth="1"/>
+    <col min="12797" max="12797" width="12.33203125" style="20" customWidth="1"/>
+    <col min="12798" max="12798" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="12799" max="12799" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="12800" max="12800" width="10.33203125" style="20" customWidth="1"/>
+    <col min="12801" max="12801" width="8" style="20" customWidth="1"/>
+    <col min="12802" max="12803" width="14.33203125" style="20" customWidth="1"/>
+    <col min="12804" max="12804" width="6.5546875" style="20" customWidth="1"/>
+    <col min="12805" max="12805" width="10.109375" style="20" customWidth="1"/>
+    <col min="12806" max="12806" width="7.5546875" style="20" customWidth="1"/>
+    <col min="12807" max="13045" width="8.88671875" style="20"/>
+    <col min="13046" max="13046" width="20.5546875" style="20" customWidth="1"/>
+    <col min="13047" max="13047" width="13.109375" style="20" customWidth="1"/>
+    <col min="13048" max="13048" width="8.88671875" style="20"/>
+    <col min="13049" max="13049" width="14.5546875" style="20" customWidth="1"/>
+    <col min="13050" max="13050" width="14.44140625" style="20" customWidth="1"/>
+    <col min="13051" max="13051" width="8.88671875" style="20" customWidth="1"/>
+    <col min="13052" max="13052" width="19.109375" style="20" customWidth="1"/>
+    <col min="13053" max="13053" width="12.33203125" style="20" customWidth="1"/>
+    <col min="13054" max="13054" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="13055" max="13055" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="13056" max="13056" width="10.33203125" style="20" customWidth="1"/>
+    <col min="13057" max="13057" width="8" style="20" customWidth="1"/>
+    <col min="13058" max="13059" width="14.33203125" style="20" customWidth="1"/>
+    <col min="13060" max="13060" width="6.5546875" style="20" customWidth="1"/>
+    <col min="13061" max="13061" width="10.109375" style="20" customWidth="1"/>
+    <col min="13062" max="13062" width="7.5546875" style="20" customWidth="1"/>
+    <col min="13063" max="13301" width="8.88671875" style="20"/>
+    <col min="13302" max="13302" width="20.5546875" style="20" customWidth="1"/>
+    <col min="13303" max="13303" width="13.109375" style="20" customWidth="1"/>
+    <col min="13304" max="13304" width="8.88671875" style="20"/>
+    <col min="13305" max="13305" width="14.5546875" style="20" customWidth="1"/>
+    <col min="13306" max="13306" width="14.44140625" style="20" customWidth="1"/>
+    <col min="13307" max="13307" width="8.88671875" style="20" customWidth="1"/>
+    <col min="13308" max="13308" width="19.109375" style="20" customWidth="1"/>
+    <col min="13309" max="13309" width="12.33203125" style="20" customWidth="1"/>
+    <col min="13310" max="13310" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="13311" max="13311" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="13312" max="13312" width="10.33203125" style="20" customWidth="1"/>
+    <col min="13313" max="13313" width="8" style="20" customWidth="1"/>
+    <col min="13314" max="13315" width="14.33203125" style="20" customWidth="1"/>
+    <col min="13316" max="13316" width="6.5546875" style="20" customWidth="1"/>
+    <col min="13317" max="13317" width="10.109375" style="20" customWidth="1"/>
+    <col min="13318" max="13318" width="7.5546875" style="20" customWidth="1"/>
+    <col min="13319" max="13557" width="8.88671875" style="20"/>
+    <col min="13558" max="13558" width="20.5546875" style="20" customWidth="1"/>
+    <col min="13559" max="13559" width="13.109375" style="20" customWidth="1"/>
+    <col min="13560" max="13560" width="8.88671875" style="20"/>
+    <col min="13561" max="13561" width="14.5546875" style="20" customWidth="1"/>
+    <col min="13562" max="13562" width="14.44140625" style="20" customWidth="1"/>
+    <col min="13563" max="13563" width="8.88671875" style="20" customWidth="1"/>
+    <col min="13564" max="13564" width="19.109375" style="20" customWidth="1"/>
+    <col min="13565" max="13565" width="12.33203125" style="20" customWidth="1"/>
+    <col min="13566" max="13566" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="13567" max="13567" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="13568" max="13568" width="10.33203125" style="20" customWidth="1"/>
+    <col min="13569" max="13569" width="8" style="20" customWidth="1"/>
+    <col min="13570" max="13571" width="14.33203125" style="20" customWidth="1"/>
+    <col min="13572" max="13572" width="6.5546875" style="20" customWidth="1"/>
+    <col min="13573" max="13573" width="10.109375" style="20" customWidth="1"/>
+    <col min="13574" max="13574" width="7.5546875" style="20" customWidth="1"/>
+    <col min="13575" max="13813" width="8.88671875" style="20"/>
+    <col min="13814" max="13814" width="20.5546875" style="20" customWidth="1"/>
+    <col min="13815" max="13815" width="13.109375" style="20" customWidth="1"/>
+    <col min="13816" max="13816" width="8.88671875" style="20"/>
+    <col min="13817" max="13817" width="14.5546875" style="20" customWidth="1"/>
+    <col min="13818" max="13818" width="14.44140625" style="20" customWidth="1"/>
+    <col min="13819" max="13819" width="8.88671875" style="20" customWidth="1"/>
+    <col min="13820" max="13820" width="19.109375" style="20" customWidth="1"/>
+    <col min="13821" max="13821" width="12.33203125" style="20" customWidth="1"/>
+    <col min="13822" max="13822" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="13823" max="13823" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="13824" max="13824" width="10.33203125" style="20" customWidth="1"/>
+    <col min="13825" max="13825" width="8" style="20" customWidth="1"/>
+    <col min="13826" max="13827" width="14.33203125" style="20" customWidth="1"/>
+    <col min="13828" max="13828" width="6.5546875" style="20" customWidth="1"/>
+    <col min="13829" max="13829" width="10.109375" style="20" customWidth="1"/>
+    <col min="13830" max="13830" width="7.5546875" style="20" customWidth="1"/>
+    <col min="13831" max="14069" width="8.88671875" style="20"/>
+    <col min="14070" max="14070" width="20.5546875" style="20" customWidth="1"/>
+    <col min="14071" max="14071" width="13.109375" style="20" customWidth="1"/>
+    <col min="14072" max="14072" width="8.88671875" style="20"/>
+    <col min="14073" max="14073" width="14.5546875" style="20" customWidth="1"/>
+    <col min="14074" max="14074" width="14.44140625" style="20" customWidth="1"/>
+    <col min="14075" max="14075" width="8.88671875" style="20" customWidth="1"/>
+    <col min="14076" max="14076" width="19.109375" style="20" customWidth="1"/>
+    <col min="14077" max="14077" width="12.33203125" style="20" customWidth="1"/>
+    <col min="14078" max="14078" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="14079" max="14079" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="14080" max="14080" width="10.33203125" style="20" customWidth="1"/>
+    <col min="14081" max="14081" width="8" style="20" customWidth="1"/>
+    <col min="14082" max="14083" width="14.33203125" style="20" customWidth="1"/>
+    <col min="14084" max="14084" width="6.5546875" style="20" customWidth="1"/>
+    <col min="14085" max="14085" width="10.109375" style="20" customWidth="1"/>
+    <col min="14086" max="14086" width="7.5546875" style="20" customWidth="1"/>
+    <col min="14087" max="14325" width="8.88671875" style="20"/>
+    <col min="14326" max="14326" width="20.5546875" style="20" customWidth="1"/>
+    <col min="14327" max="14327" width="13.109375" style="20" customWidth="1"/>
+    <col min="14328" max="14328" width="8.88671875" style="20"/>
+    <col min="14329" max="14329" width="14.5546875" style="20" customWidth="1"/>
+    <col min="14330" max="14330" width="14.44140625" style="20" customWidth="1"/>
+    <col min="14331" max="14331" width="8.88671875" style="20" customWidth="1"/>
+    <col min="14332" max="14332" width="19.109375" style="20" customWidth="1"/>
+    <col min="14333" max="14333" width="12.33203125" style="20" customWidth="1"/>
+    <col min="14334" max="14334" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="14335" max="14335" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="14336" max="14336" width="10.33203125" style="20" customWidth="1"/>
+    <col min="14337" max="14337" width="8" style="20" customWidth="1"/>
+    <col min="14338" max="14339" width="14.33203125" style="20" customWidth="1"/>
+    <col min="14340" max="14340" width="6.5546875" style="20" customWidth="1"/>
+    <col min="14341" max="14341" width="10.109375" style="20" customWidth="1"/>
+    <col min="14342" max="14342" width="7.5546875" style="20" customWidth="1"/>
+    <col min="14343" max="14581" width="8.88671875" style="20"/>
+    <col min="14582" max="14582" width="20.5546875" style="20" customWidth="1"/>
+    <col min="14583" max="14583" width="13.109375" style="20" customWidth="1"/>
+    <col min="14584" max="14584" width="8.88671875" style="20"/>
+    <col min="14585" max="14585" width="14.5546875" style="20" customWidth="1"/>
+    <col min="14586" max="14586" width="14.44140625" style="20" customWidth="1"/>
+    <col min="14587" max="14587" width="8.88671875" style="20" customWidth="1"/>
+    <col min="14588" max="14588" width="19.109375" style="20" customWidth="1"/>
+    <col min="14589" max="14589" width="12.33203125" style="20" customWidth="1"/>
+    <col min="14590" max="14590" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="14591" max="14591" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="14592" max="14592" width="10.33203125" style="20" customWidth="1"/>
+    <col min="14593" max="14593" width="8" style="20" customWidth="1"/>
+    <col min="14594" max="14595" width="14.33203125" style="20" customWidth="1"/>
+    <col min="14596" max="14596" width="6.5546875" style="20" customWidth="1"/>
+    <col min="14597" max="14597" width="10.109375" style="20" customWidth="1"/>
+    <col min="14598" max="14598" width="7.5546875" style="20" customWidth="1"/>
+    <col min="14599" max="14837" width="8.88671875" style="20"/>
+    <col min="14838" max="14838" width="20.5546875" style="20" customWidth="1"/>
+    <col min="14839" max="14839" width="13.109375" style="20" customWidth="1"/>
+    <col min="14840" max="14840" width="8.88671875" style="20"/>
+    <col min="14841" max="14841" width="14.5546875" style="20" customWidth="1"/>
+    <col min="14842" max="14842" width="14.44140625" style="20" customWidth="1"/>
+    <col min="14843" max="14843" width="8.88671875" style="20" customWidth="1"/>
+    <col min="14844" max="14844" width="19.109375" style="20" customWidth="1"/>
+    <col min="14845" max="14845" width="12.33203125" style="20" customWidth="1"/>
+    <col min="14846" max="14846" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="14847" max="14847" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="14848" max="14848" width="10.33203125" style="20" customWidth="1"/>
+    <col min="14849" max="14849" width="8" style="20" customWidth="1"/>
+    <col min="14850" max="14851" width="14.33203125" style="20" customWidth="1"/>
+    <col min="14852" max="14852" width="6.5546875" style="20" customWidth="1"/>
+    <col min="14853" max="14853" width="10.109375" style="20" customWidth="1"/>
+    <col min="14854" max="14854" width="7.5546875" style="20" customWidth="1"/>
+    <col min="14855" max="15093" width="8.88671875" style="20"/>
+    <col min="15094" max="15094" width="20.5546875" style="20" customWidth="1"/>
+    <col min="15095" max="15095" width="13.109375" style="20" customWidth="1"/>
+    <col min="15096" max="15096" width="8.88671875" style="20"/>
+    <col min="15097" max="15097" width="14.5546875" style="20" customWidth="1"/>
+    <col min="15098" max="15098" width="14.44140625" style="20" customWidth="1"/>
+    <col min="15099" max="15099" width="8.88671875" style="20" customWidth="1"/>
+    <col min="15100" max="15100" width="19.109375" style="20" customWidth="1"/>
+    <col min="15101" max="15101" width="12.33203125" style="20" customWidth="1"/>
+    <col min="15102" max="15102" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="15103" max="15103" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="15104" max="15104" width="10.33203125" style="20" customWidth="1"/>
+    <col min="15105" max="15105" width="8" style="20" customWidth="1"/>
+    <col min="15106" max="15107" width="14.33203125" style="20" customWidth="1"/>
+    <col min="15108" max="15108" width="6.5546875" style="20" customWidth="1"/>
+    <col min="15109" max="15109" width="10.109375" style="20" customWidth="1"/>
+    <col min="15110" max="15110" width="7.5546875" style="20" customWidth="1"/>
+    <col min="15111" max="15349" width="8.88671875" style="20"/>
+    <col min="15350" max="15350" width="20.5546875" style="20" customWidth="1"/>
+    <col min="15351" max="15351" width="13.109375" style="20" customWidth="1"/>
+    <col min="15352" max="15352" width="8.88671875" style="20"/>
+    <col min="15353" max="15353" width="14.5546875" style="20" customWidth="1"/>
+    <col min="15354" max="15354" width="14.44140625" style="20" customWidth="1"/>
+    <col min="15355" max="15355" width="8.88671875" style="20" customWidth="1"/>
+    <col min="15356" max="15356" width="19.109375" style="20" customWidth="1"/>
+    <col min="15357" max="15357" width="12.33203125" style="20" customWidth="1"/>
+    <col min="15358" max="15358" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="15359" max="15359" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="15360" max="15360" width="10.33203125" style="20" customWidth="1"/>
+    <col min="15361" max="15361" width="8" style="20" customWidth="1"/>
+    <col min="15362" max="15363" width="14.33203125" style="20" customWidth="1"/>
+    <col min="15364" max="15364" width="6.5546875" style="20" customWidth="1"/>
+    <col min="15365" max="15365" width="10.109375" style="20" customWidth="1"/>
+    <col min="15366" max="15366" width="7.5546875" style="20" customWidth="1"/>
+    <col min="15367" max="15605" width="8.88671875" style="20"/>
+    <col min="15606" max="15606" width="20.5546875" style="20" customWidth="1"/>
+    <col min="15607" max="15607" width="13.109375" style="20" customWidth="1"/>
+    <col min="15608" max="15608" width="8.88671875" style="20"/>
+    <col min="15609" max="15609" width="14.5546875" style="20" customWidth="1"/>
+    <col min="15610" max="15610" width="14.44140625" style="20" customWidth="1"/>
+    <col min="15611" max="15611" width="8.88671875" style="20" customWidth="1"/>
+    <col min="15612" max="15612" width="19.109375" style="20" customWidth="1"/>
+    <col min="15613" max="15613" width="12.33203125" style="20" customWidth="1"/>
+    <col min="15614" max="15614" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="15615" max="15615" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="15616" max="15616" width="10.33203125" style="20" customWidth="1"/>
+    <col min="15617" max="15617" width="8" style="20" customWidth="1"/>
+    <col min="15618" max="15619" width="14.33203125" style="20" customWidth="1"/>
+    <col min="15620" max="15620" width="6.5546875" style="20" customWidth="1"/>
+    <col min="15621" max="15621" width="10.109375" style="20" customWidth="1"/>
+    <col min="15622" max="15622" width="7.5546875" style="20" customWidth="1"/>
+    <col min="15623" max="15861" width="8.88671875" style="20"/>
+    <col min="15862" max="15862" width="20.5546875" style="20" customWidth="1"/>
+    <col min="15863" max="15863" width="13.109375" style="20" customWidth="1"/>
+    <col min="15864" max="15864" width="8.88671875" style="20"/>
+    <col min="15865" max="15865" width="14.5546875" style="20" customWidth="1"/>
+    <col min="15866" max="15866" width="14.44140625" style="20" customWidth="1"/>
+    <col min="15867" max="15867" width="8.88671875" style="20" customWidth="1"/>
+    <col min="15868" max="15868" width="19.109375" style="20" customWidth="1"/>
+    <col min="15869" max="15869" width="12.33203125" style="20" customWidth="1"/>
+    <col min="15870" max="15870" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="15871" max="15871" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="15872" max="15872" width="10.33203125" style="20" customWidth="1"/>
+    <col min="15873" max="15873" width="8" style="20" customWidth="1"/>
+    <col min="15874" max="15875" width="14.33203125" style="20" customWidth="1"/>
+    <col min="15876" max="15876" width="6.5546875" style="20" customWidth="1"/>
+    <col min="15877" max="15877" width="10.109375" style="20" customWidth="1"/>
+    <col min="15878" max="15878" width="7.5546875" style="20" customWidth="1"/>
+    <col min="15879" max="16117" width="8.88671875" style="20"/>
+    <col min="16118" max="16118" width="20.5546875" style="20" customWidth="1"/>
+    <col min="16119" max="16119" width="13.109375" style="20" customWidth="1"/>
+    <col min="16120" max="16120" width="8.88671875" style="20"/>
+    <col min="16121" max="16121" width="14.5546875" style="20" customWidth="1"/>
+    <col min="16122" max="16122" width="14.44140625" style="20" customWidth="1"/>
+    <col min="16123" max="16123" width="8.88671875" style="20" customWidth="1"/>
+    <col min="16124" max="16124" width="19.109375" style="20" customWidth="1"/>
+    <col min="16125" max="16125" width="12.33203125" style="20" customWidth="1"/>
+    <col min="16126" max="16126" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="16127" max="16127" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="16128" max="16128" width="10.33203125" style="20" customWidth="1"/>
+    <col min="16129" max="16129" width="8" style="20" customWidth="1"/>
+    <col min="16130" max="16131" width="14.33203125" style="20" customWidth="1"/>
+    <col min="16132" max="16132" width="6.5546875" style="20" customWidth="1"/>
+    <col min="16133" max="16133" width="10.109375" style="20" customWidth="1"/>
+    <col min="16134" max="16134" width="7.5546875" style="20" customWidth="1"/>
+    <col min="16135" max="16384" width="8.88671875" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="19" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
@@ -2196,7 +2196,7 @@
         <v>12</v>
       </c>
       <c r="J8" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>106</v>
@@ -2244,7 +2244,7 @@
         <v>12</v>
       </c>
       <c r="J10" s="27">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K10" s="27"/>
     </row>
@@ -2392,7 +2392,7 @@
       </c>
       <c r="K16" s="30"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2405,7 +2405,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
     </row>
-    <row r="18" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>151338133</v>
       </c>
@@ -2434,13 +2434,13 @@
         <v>12</v>
       </c>
       <c r="J18" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K18" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="B19" s="27"/>
       <c r="C19" s="27"/>
@@ -2453,7 +2453,7 @@
       <c r="J19" s="27"/>
       <c r="K19" s="30"/>
     </row>
-    <row r="20" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="26">
         <v>151335926</v>
       </c>
@@ -2482,12 +2482,12 @@
         <v>12</v>
       </c>
       <c r="J20" s="30">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="K20" s="30"/>
       <c r="L20" s="34"/>
     </row>
-    <row r="21" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>151338133</v>
       </c>
@@ -2521,9 +2521,8 @@
       <c r="K21" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="L21" s="34"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
       <c r="C22" s="40"/>
@@ -2535,22 +2534,23 @@
       <c r="I22" s="41"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
-    </row>
-    <row r="23" spans="1:12" s="31" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M22" s="31"/>
+    </row>
+    <row r="23" spans="1:13" s="31" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="26">
-        <v>151302474</v>
+        <v>151335926</v>
       </c>
       <c r="B23" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C23" s="27">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="D23" s="27">
         <v>4048</v>
       </c>
-      <c r="E23" s="29">
-        <v>44987</v>
+      <c r="E23" s="39">
+        <v>45070</v>
       </c>
       <c r="F23" s="27">
         <v>630059</v>
@@ -2559,19 +2559,19 @@
         <v>68</v>
       </c>
       <c r="H23" s="27">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="I23" s="27" t="s">
         <v>12</v>
       </c>
       <c r="J23" s="27">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="K23" s="27"/>
     </row>
-    <row r="24" spans="1:12" s="31" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" s="31" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
-        <v>151330034</v>
+        <v>151338133</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>16</v>
@@ -2582,8 +2582,8 @@
       <c r="D24" s="2">
         <v>4048</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>99</v>
+      <c r="E24" s="43">
+        <v>45077</v>
       </c>
       <c r="F24" s="2">
         <v>630059</v>
@@ -2592,52 +2592,33 @@
         <v>68</v>
       </c>
       <c r="H24" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J24" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" s="31" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="26">
-        <v>151335926</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="27">
-        <v>80</v>
-      </c>
-      <c r="D25" s="27">
-        <v>4048</v>
-      </c>
-      <c r="E25" s="39">
-        <v>45070</v>
-      </c>
-      <c r="F25" s="27">
-        <v>630059</v>
-      </c>
-      <c r="G25" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="H25" s="27">
-        <v>50</v>
-      </c>
-      <c r="I25" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="J25" s="27">
-        <v>50</v>
-      </c>
-      <c r="K25" s="27"/>
-    </row>
-    <row r="26" spans="1:12" s="31" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="M25" s="31"/>
+    </row>
+    <row r="26" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>151338133</v>
       </c>
@@ -2645,355 +2626,361 @@
         <v>16</v>
       </c>
       <c r="C26" s="2">
-        <v>10</v>
-      </c>
-      <c r="D26" s="2">
-        <v>4048</v>
+        <v>60</v>
+      </c>
+      <c r="D26" s="38">
+        <v>5738</v>
       </c>
       <c r="E26" s="43">
         <v>45077</v>
       </c>
-      <c r="F26" s="2">
-        <v>630059</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>68</v>
+      <c r="F26" s="6">
+        <v>632215</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="H26" s="2">
+        <v>15</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" s="2">
+        <v>15</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="11"/>
+      <c r="M27" s="31"/>
+    </row>
+    <row r="28" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="11">
+        <v>151110116</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="1">
+        <v>60</v>
+      </c>
+      <c r="D28" s="13">
+        <v>3450</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="13">
+        <v>634355</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" s="13">
+        <v>10</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" s="13">
+        <v>10</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="M28" s="31"/>
+    </row>
+    <row r="29" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="12"/>
+      <c r="M29" s="31"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>151008992</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="2">
         <v>20</v>
       </c>
-      <c r="I26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J26" s="2">
+      <c r="D30" s="10">
+        <v>4726</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="2">
+        <v>635655</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="2">
+        <v>10</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K26" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-    </row>
-    <row r="28" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6">
-        <v>151338133</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="2">
+      <c r="M30" s="31"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="M31" s="31"/>
+    </row>
+    <row r="32" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="26">
+        <v>151302474</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="27">
+        <v>40</v>
+      </c>
+      <c r="D32" s="36">
+        <v>2818</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="F32" s="26">
+        <v>635656</v>
+      </c>
+      <c r="G32" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="38">
-        <v>5738</v>
-      </c>
-      <c r="E28" s="43">
-        <v>45077</v>
-      </c>
-      <c r="F28" s="6">
-        <v>632215</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H28" s="2">
+      <c r="H32" s="27">
         <v>15</v>
       </c>
-      <c r="I28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J28" s="2">
-        <v>15</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="11"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="11"/>
-    </row>
-    <row r="30" spans="1:12" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="11">
-        <v>151110116</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="1">
-        <v>60</v>
-      </c>
-      <c r="D30" s="13">
-        <v>3450</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F30" s="13">
-        <v>634355</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H30" s="13">
-        <v>10</v>
-      </c>
-      <c r="I30" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J30" s="13">
-        <v>10</v>
-      </c>
-      <c r="K30" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="12"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
-        <v>151008992</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="2">
-        <v>20</v>
-      </c>
-      <c r="D32" s="10">
-        <v>4726</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" s="2">
-        <v>635655</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H32" s="2">
-        <v>10</v>
-      </c>
-      <c r="I32" s="2" t="s">
+      <c r="I32" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J32" s="27">
         <v>0</v>
       </c>
-      <c r="K32" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K32" s="27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="23"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+      <c r="F33" s="11"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
-    </row>
-    <row r="34" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M33" s="31"/>
+    </row>
+    <row r="34" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="26">
-        <v>151302474</v>
+        <v>151335926</v>
       </c>
       <c r="B34" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="27">
-        <v>40</v>
-      </c>
-      <c r="D34" s="36">
-        <v>2818</v>
-      </c>
-      <c r="E34" s="27" t="s">
-        <v>86</v>
+        <v>70</v>
+      </c>
+      <c r="D34" s="35">
+        <v>3555</v>
+      </c>
+      <c r="E34" s="39">
+        <v>45070</v>
       </c>
       <c r="F34" s="26">
-        <v>635656</v>
-      </c>
-      <c r="G34" s="27" t="s">
-        <v>60</v>
+        <v>646872</v>
+      </c>
+      <c r="G34" s="26" t="s">
+        <v>70</v>
       </c>
       <c r="H34" s="27">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I34" s="27" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="J34" s="27">
         <v>0</v>
       </c>
-      <c r="K34" s="27" t="s">
+      <c r="K34" s="26"/>
+    </row>
+    <row r="35" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="6">
+        <v>151338133</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="2">
+        <v>40</v>
+      </c>
+      <c r="D35" s="38">
+        <v>3555</v>
+      </c>
+      <c r="E35" s="43">
+        <v>45077</v>
+      </c>
+      <c r="F35" s="6">
+        <v>646872</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H35" s="2">
+        <v>10</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J35" s="2">
+        <v>10</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="11"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="11">
+        <v>151110116</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="1">
+        <v>40</v>
+      </c>
+      <c r="D37" s="21">
+        <v>112</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H37" s="12">
+        <v>50</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37" s="12">
+        <v>0</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="6">
+        <v>151338133</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="2">
         <v>90</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-    </row>
-    <row r="36" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="26">
-        <v>151335926</v>
-      </c>
-      <c r="B36" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="27">
-        <v>70</v>
-      </c>
-      <c r="D36" s="35">
-        <v>3555</v>
-      </c>
-      <c r="E36" s="39">
-        <v>45070</v>
-      </c>
-      <c r="F36" s="26">
-        <v>646872</v>
-      </c>
-      <c r="G36" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="H36" s="27">
-        <v>10</v>
-      </c>
-      <c r="I36" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="J36" s="27">
-        <v>10</v>
-      </c>
-      <c r="K36" s="26"/>
-    </row>
-    <row r="37" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="6">
-        <v>151338133</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="2">
-        <v>40</v>
-      </c>
-      <c r="D37" s="38">
-        <v>3555</v>
-      </c>
-      <c r="E37" s="43">
+      <c r="D39" s="3">
+        <v>3510</v>
+      </c>
+      <c r="E39" s="4">
         <v>45077</v>
       </c>
-      <c r="F37" s="6">
-        <v>646872</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H37" s="2">
-        <v>10</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J37" s="2">
-        <v>10</v>
-      </c>
-      <c r="K37" s="6" t="s">
+      <c r="F39" s="2">
+        <v>663091</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H39" s="5">
+        <v>10</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J39" s="5">
+        <v>10</v>
+      </c>
+      <c r="K39" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="11"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="11">
-        <v>151110116</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" s="1">
-        <v>40</v>
-      </c>
-      <c r="D39" s="21">
-        <v>112</v>
-      </c>
-      <c r="E39" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H39" s="12">
-        <v>50</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J39" s="12">
-        <v>0</v>
-      </c>
-      <c r="K39" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -3006,7 +2993,7 @@
       <c r="J40" s="12"/>
       <c r="K40" s="12"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>151338133</v>
       </c>
@@ -3014,19 +3001,19 @@
         <v>16</v>
       </c>
       <c r="C41" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D41" s="3">
-        <v>3510</v>
+        <v>5130</v>
       </c>
       <c r="E41" s="4">
         <v>45077</v>
       </c>
       <c r="F41" s="2">
-        <v>663091</v>
+        <v>663092</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H41" s="5">
         <v>10</v>
@@ -3041,7 +3028,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -3054,27 +3041,27 @@
       <c r="J42" s="12"/>
       <c r="K42" s="12"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" s="31" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
-        <v>151338133</v>
+        <v>151330034</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C43" s="2">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D43" s="3">
-        <v>5130</v>
-      </c>
-      <c r="E43" s="4">
-        <v>45077</v>
+        <v>6615</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="F43" s="2">
-        <v>663092</v>
+        <v>663093</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H43" s="5">
         <v>10</v>
@@ -3083,13 +3070,13 @@
         <v>12</v>
       </c>
       <c r="J43" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -3102,158 +3089,138 @@
       <c r="J44" s="12"/>
       <c r="K44" s="12"/>
     </row>
-    <row r="45" spans="1:11" s="31" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
-        <v>151330034</v>
+        <v>151338133</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C45" s="2">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D45" s="3">
-        <v>6615</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>99</v>
+        <v>6000</v>
+      </c>
+      <c r="E45" s="43">
+        <v>45077</v>
       </c>
       <c r="F45" s="2">
-        <v>663093</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>51</v>
+        <v>668330</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="H45" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J45" s="5">
+        <v>15</v>
+      </c>
+      <c r="K45" s="4">
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="15"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="30"/>
+      <c r="K46" s="30"/>
+    </row>
+    <row r="47" spans="1:13" s="31" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="11">
+        <v>151332240</v>
+      </c>
+      <c r="B47" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="27">
+        <v>10</v>
+      </c>
+      <c r="D47" s="28">
+        <v>9703</v>
+      </c>
+      <c r="E47" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="F47" s="26">
+        <v>681149</v>
+      </c>
+      <c r="G47" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H47" s="30">
+        <v>4</v>
+      </c>
+      <c r="I47" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J47" s="30">
         <v>0</v>
       </c>
-      <c r="K45" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="6">
-        <v>151326603</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47" s="2">
-        <v>20</v>
-      </c>
-      <c r="D47" s="3">
-        <v>6000</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F47" s="2">
-        <v>668330</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H47" s="5">
-        <v>9</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J47" s="5">
+      <c r="K47" s="29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+    </row>
+    <row r="49" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="26">
+        <v>151335926</v>
+      </c>
+      <c r="B49" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="27">
+        <v>40</v>
+      </c>
+      <c r="D49" s="28">
+        <v>1908</v>
+      </c>
+      <c r="E49" s="29">
+        <v>45070</v>
+      </c>
+      <c r="F49" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G49" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="H49" s="30">
+        <v>50</v>
+      </c>
+      <c r="I49" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J49" s="30">
         <v>0</v>
       </c>
-      <c r="K47" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="26">
-        <v>151335926</v>
-      </c>
-      <c r="B48" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48" s="27">
-        <v>50</v>
-      </c>
-      <c r="D48" s="28">
-        <v>6000</v>
-      </c>
-      <c r="E48" s="39">
-        <v>45070</v>
-      </c>
-      <c r="F48" s="27">
-        <v>668330</v>
-      </c>
-      <c r="G48" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="H48" s="30">
-        <v>57</v>
-      </c>
-      <c r="I48" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="J48" s="30">
-        <v>0</v>
-      </c>
-      <c r="K48" s="30"/>
-    </row>
-    <row r="49" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="6">
-        <v>151338133</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C49" s="2">
-        <v>30</v>
-      </c>
-      <c r="D49" s="3">
-        <v>6000</v>
-      </c>
-      <c r="E49" s="43">
-        <v>45077</v>
-      </c>
-      <c r="F49" s="2">
-        <v>668330</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H49" s="5">
-        <v>15</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J49" s="5">
-        <v>15</v>
-      </c>
-      <c r="K49" s="4">
-        <v>45077</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K49" s="30"/>
+    </row>
+    <row r="50" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="15"/>
       <c r="B50" s="15"/>
       <c r="C50" s="40"/>
@@ -3266,234 +3233,234 @@
       <c r="J50" s="30"/>
       <c r="K50" s="30"/>
     </row>
-    <row r="51" spans="1:13" s="31" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="11">
-        <v>151332240</v>
-      </c>
-      <c r="B51" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" s="27">
-        <v>10</v>
-      </c>
-      <c r="D51" s="28">
-        <v>9703</v>
-      </c>
-      <c r="E51" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="F51" s="26">
-        <v>681149</v>
-      </c>
-      <c r="G51" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H51" s="30">
-        <v>4</v>
-      </c>
-      <c r="I51" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="J51" s="30">
+    <row r="51" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="6">
+        <v>151330034</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="2">
+        <v>20</v>
+      </c>
+      <c r="D51" s="3">
+        <v>8463</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F51" s="6">
+        <v>687349</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H51" s="5">
+        <v>25</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J51" s="5">
         <v>0</v>
       </c>
-      <c r="K51" s="29" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A52" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="1"/>
+      <c r="K51" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="26"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="27"/>
       <c r="G52" s="42"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-    </row>
-    <row r="53" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="26">
-        <v>151335926</v>
-      </c>
-      <c r="B53" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C53" s="27">
-        <v>40</v>
-      </c>
-      <c r="D53" s="28">
-        <v>1908</v>
-      </c>
-      <c r="E53" s="29">
-        <v>45070</v>
-      </c>
-      <c r="F53" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="G53" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="H53" s="30">
-        <v>50</v>
-      </c>
-      <c r="I53" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="J53" s="30">
-        <v>50</v>
-      </c>
-      <c r="K53" s="30"/>
-    </row>
-    <row r="54" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="15"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="40"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="41"/>
-      <c r="J54" s="30"/>
-      <c r="K54" s="30"/>
-    </row>
-    <row r="55" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="6">
-        <v>151330034</v>
-      </c>
-      <c r="B55" s="2" t="s">
+      <c r="H52" s="30"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="30"/>
+      <c r="K52" s="30"/>
+    </row>
+    <row r="53" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="6">
+        <v>151242082</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C55" s="2">
-        <v>20</v>
-      </c>
-      <c r="D55" s="3">
-        <v>8463</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F55" s="6">
-        <v>687349</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="H55" s="5">
-        <v>25</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J55" s="5">
+      <c r="C53" s="2">
+        <v>10</v>
+      </c>
+      <c r="D53" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F53" s="6">
+        <v>691660</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H53" s="5">
+        <v>1</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J53" s="5">
         <v>0</v>
       </c>
-      <c r="K55" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="26"/>
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="42"/>
-      <c r="H56" s="30"/>
-      <c r="I56" s="27"/>
-      <c r="J56" s="30"/>
-      <c r="K56" s="30"/>
-    </row>
-    <row r="57" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="6">
-        <v>151242082</v>
-      </c>
-      <c r="B57" s="2" t="s">
+      <c r="K53" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+    </row>
+    <row r="55" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="11">
+        <v>151330961</v>
+      </c>
+      <c r="B55" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="27">
+        <v>10</v>
+      </c>
+      <c r="D55" s="28">
+        <v>565</v>
+      </c>
+      <c r="E55" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="F55" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G55" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="H55" s="30">
+        <v>200</v>
+      </c>
+      <c r="I55" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J55" s="30">
+        <v>0</v>
+      </c>
+      <c r="K55" s="30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="17">
+        <v>151264212</v>
+      </c>
+      <c r="B57" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="2">
-        <v>10</v>
-      </c>
-      <c r="D57" s="3">
-        <v>1600</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F57" s="6">
-        <v>691660</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H57" s="5">
+      <c r="C57" s="17">
+        <v>10</v>
+      </c>
+      <c r="D57" s="32">
+        <v>10710</v>
+      </c>
+      <c r="E57" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="F57" s="17">
+        <v>704681</v>
+      </c>
+      <c r="G57" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="H57" s="18">
         <v>1</v>
       </c>
-      <c r="I57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J57" s="5">
+      <c r="I57" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J57" s="18">
         <v>0</v>
       </c>
-      <c r="K57" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K57" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="21"/>
       <c r="E58" s="22"/>
       <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
+      <c r="G58" s="42"/>
       <c r="H58" s="12"/>
       <c r="I58" s="1"/>
       <c r="J58" s="12"/>
       <c r="K58" s="12"/>
     </row>
-    <row r="59" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="11">
-        <v>151330961</v>
-      </c>
-      <c r="B59" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C59" s="27">
-        <v>10</v>
-      </c>
-      <c r="D59" s="28">
-        <v>565</v>
-      </c>
-      <c r="E59" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="F59" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G59" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="H59" s="30">
-        <v>200</v>
-      </c>
-      <c r="I59" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="J59" s="30">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D59" s="21">
+        <v>4995</v>
+      </c>
+      <c r="E59" s="22">
+        <v>44223</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H59" s="12">
+        <v>2</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J59" s="12">
         <v>0</v>
       </c>
-      <c r="K59" s="30" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K59" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -3505,94 +3472,91 @@
       <c r="I60" s="1"/>
       <c r="J60" s="12"/>
       <c r="K60" s="12"/>
-      <c r="M60" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A61" s="17">
-        <v>151264212</v>
-      </c>
-      <c r="B61" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C61" s="17">
-        <v>10</v>
-      </c>
-      <c r="D61" s="32">
-        <v>10710</v>
-      </c>
-      <c r="E61" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="F61" s="17">
-        <v>704681</v>
-      </c>
-      <c r="G61" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="H61" s="18">
-        <v>1</v>
-      </c>
-      <c r="I61" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="J61" s="18">
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" s="21">
+        <v>4245</v>
+      </c>
+      <c r="E61" s="22">
+        <v>44223</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H61" s="12">
+        <v>2</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J61" s="12">
         <v>0</v>
       </c>
-      <c r="K61" s="18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K61" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="21"/>
       <c r="E62" s="22"/>
       <c r="F62" s="1"/>
-      <c r="G62" s="42"/>
+      <c r="G62" s="1"/>
       <c r="H62" s="12"/>
       <c r="I62" s="1"/>
       <c r="J62" s="12"/>
       <c r="K62" s="12"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D63" s="21">
-        <v>4995</v>
-      </c>
-      <c r="E63" s="22">
-        <v>44223</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H63" s="12">
-        <v>2</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J63" s="12">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="6">
+        <v>151326492</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" s="2">
+        <v>10</v>
+      </c>
+      <c r="D63" s="3">
+        <v>1896</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F63" s="2">
+        <v>716663</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H63" s="5">
+        <v>3</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J63" s="5">
         <v>0</v>
       </c>
-      <c r="K63" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K63" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -3605,153 +3569,153 @@
       <c r="J64" s="12"/>
       <c r="K64" s="12"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D65" s="21">
-        <v>4245</v>
-      </c>
-      <c r="E65" s="22">
-        <v>44223</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H65" s="12">
+    <row r="65" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="6">
+        <v>151283046</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="7">
+        <v>10</v>
+      </c>
+      <c r="D65" s="7">
+        <v>45000</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F65" s="7">
+        <v>719031</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" s="37">
         <v>2</v>
       </c>
-      <c r="I65" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J65" s="12">
+      <c r="I65" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J65" s="37">
         <v>0</v>
       </c>
-      <c r="K65" s="12" t="s">
-        <v>41</v>
+      <c r="K65" s="37" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="12"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="12"/>
-      <c r="K66" s="12"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" s="6">
-        <v>151326492</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C67" s="2">
-        <v>10</v>
-      </c>
-      <c r="D67" s="3">
-        <v>1896</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F67" s="2">
-        <v>716663</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H67" s="5">
-        <v>3</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J67" s="5">
+      <c r="A66" s="11"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="17"/>
+      <c r="J66" s="18"/>
+      <c r="K66" s="18"/>
+    </row>
+    <row r="67" spans="1:11" s="31" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="11">
+        <v>151332508</v>
+      </c>
+      <c r="B67" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="27">
+        <v>10</v>
+      </c>
+      <c r="D67" s="35">
+        <v>9999</v>
+      </c>
+      <c r="E67" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="F67" s="26">
+        <v>719381</v>
+      </c>
+      <c r="G67" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="H67" s="27">
+        <v>10</v>
+      </c>
+      <c r="I67" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J67" s="27">
         <v>0</v>
       </c>
-      <c r="K67" s="5" t="s">
-        <v>89</v>
+      <c r="K67" s="26" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" s="1"/>
+      <c r="A68" s="11"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="12"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="12"/>
-    </row>
-    <row r="69" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J68" s="1"/>
+      <c r="K68" s="11"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
-        <v>151283046</v>
+        <v>151308917</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C69" s="7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D69" s="7">
-        <v>45000</v>
+        <v>6800</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F69" s="7">
-        <v>719031</v>
+        <v>720138</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H69" s="37">
-        <v>2</v>
+        <v>50</v>
+      </c>
+      <c r="H69" s="7">
+        <v>1</v>
       </c>
       <c r="I69" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J69" s="37">
+      <c r="J69" s="7">
         <v>0</v>
       </c>
-      <c r="K69" s="37" t="s">
-        <v>87</v>
+      <c r="K69" s="7" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="11"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="17"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="17"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="18"/>
-      <c r="I70" s="17"/>
-      <c r="J70" s="18"/>
-      <c r="K70" s="18"/>
-    </row>
-    <row r="71" spans="1:11" s="31" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+    </row>
+    <row r="71" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="11">
-        <v>151332508</v>
+        <v>151322392</v>
       </c>
       <c r="B71" s="27" t="s">
         <v>10</v>
@@ -3759,17 +3723,17 @@
       <c r="C71" s="27">
         <v>10</v>
       </c>
-      <c r="D71" s="35">
-        <v>9999</v>
-      </c>
-      <c r="E71" s="26" t="s">
-        <v>97</v>
+      <c r="D71" s="27">
+        <v>2490</v>
+      </c>
+      <c r="E71" s="27" t="s">
+        <v>93</v>
       </c>
       <c r="F71" s="26">
-        <v>719381</v>
+        <v>724214</v>
       </c>
       <c r="G71" s="26" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="H71" s="27">
         <v>10</v>
@@ -3780,56 +3744,56 @@
       <c r="J71" s="27">
         <v>0</v>
       </c>
-      <c r="K71" s="26" t="s">
-        <v>98</v>
+      <c r="K71" s="27" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="11"/>
+      <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
-      <c r="K72" s="11"/>
+      <c r="K72" s="1"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73" s="6">
-        <v>151308917</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C73" s="7">
-        <v>20</v>
-      </c>
-      <c r="D73" s="7">
-        <v>6800</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F73" s="7">
-        <v>720138</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H73" s="7">
-        <v>1</v>
-      </c>
-      <c r="I73" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J73" s="7">
+      <c r="A73" s="1">
+        <v>16063532</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="1">
+        <v>10</v>
+      </c>
+      <c r="D73" s="1">
+        <v>2900</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F73" s="1">
+        <v>725828</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H73" s="1">
+        <v>10</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J73" s="1">
         <v>0</v>
       </c>
-      <c r="K73" s="7" t="s">
-        <v>92</v>
+      <c r="K73" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
@@ -3846,8 +3810,8 @@
       <c r="K74" s="1"/>
     </row>
     <row r="75" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="11">
-        <v>151322392</v>
+      <c r="A75" s="26">
+        <v>151315311</v>
       </c>
       <c r="B75" s="27" t="s">
         <v>10</v>
@@ -3856,123 +3820,27 @@
         <v>10</v>
       </c>
       <c r="D75" s="27">
-        <v>2490</v>
+        <v>100</v>
       </c>
       <c r="E75" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="F75" s="26">
-        <v>724214</v>
+        <v>95</v>
+      </c>
+      <c r="F75" s="27">
+        <v>728488</v>
       </c>
       <c r="G75" s="26" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H75" s="27">
         <v>10</v>
       </c>
       <c r="I75" s="27" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="J75" s="27">
         <v>0</v>
       </c>
       <c r="K75" s="27" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="1">
-        <v>16063532</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C77" s="1">
-        <v>10</v>
-      </c>
-      <c r="D77" s="1">
-        <v>2900</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F77" s="1">
-        <v>725828</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H77" s="1">
-        <v>10</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J77" s="1">
-        <v>0</v>
-      </c>
-      <c r="K77" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-    </row>
-    <row r="79" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="26">
-        <v>151315311</v>
-      </c>
-      <c r="B79" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C79" s="27">
-        <v>10</v>
-      </c>
-      <c r="D79" s="27">
-        <v>100</v>
-      </c>
-      <c r="E79" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="F79" s="27">
-        <v>728488</v>
-      </c>
-      <c r="G79" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="H79" s="27">
-        <v>10</v>
-      </c>
-      <c r="I79" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="J79" s="27">
-        <v>0</v>
-      </c>
-      <c r="K79" s="27" t="s">
         <v>96</v>
       </c>
     </row>

--- a/Updated PO.xlsx
+++ b/Updated PO.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="104">
   <si>
     <t>Purchasing Document</t>
   </si>
@@ -200,9 +200,6 @@
     <t>10.09.2021</t>
   </si>
   <si>
-    <t>23.08.2021</t>
-  </si>
-  <si>
     <t>PC UPS</t>
   </si>
   <si>
@@ -243,12 +240,6 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <t>04.06.2022</t>
-  </si>
-  <si>
-    <t>04.07.2022</t>
   </si>
   <si>
     <t>Computer Screen 19", HDMI Cable, 4GB RAM</t>
@@ -889,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -2133,7 +2124,7 @@
         <v>16500</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>14</v>
@@ -2151,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -2199,7 +2190,7 @@
         <v>14</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -2235,7 +2226,7 @@
         <v>615698</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H10" s="27">
         <v>10</v>
@@ -2275,7 +2266,7 @@
         <v>4700</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>21</v>
@@ -2293,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -2304,7 +2295,7 @@
       <c r="E13" s="22"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="1"/>
@@ -2325,7 +2316,7 @@
         <v>3700</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F14" s="13">
         <v>615840</v>
@@ -2343,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -2425,7 +2416,7 @@
         <v>616026</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H18" s="2">
         <v>20</v>
@@ -2434,10 +2425,10 @@
         <v>12</v>
       </c>
       <c r="J18" s="2">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -2473,7 +2464,7 @@
         <v>26</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H20" s="30">
         <v>30</v>
@@ -2482,7 +2473,7 @@
         <v>12</v>
       </c>
       <c r="J20" s="30">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K20" s="30"/>
       <c r="L20" s="34"/>
@@ -2507,7 +2498,7 @@
         <v>26</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H21" s="5">
         <v>20</v>
@@ -2519,7 +2510,7 @@
         <v>20</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -2556,7 +2547,7 @@
         <v>630059</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H23" s="27">
         <v>50</v>
@@ -2565,7 +2556,7 @@
         <v>12</v>
       </c>
       <c r="J23" s="27">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="K23" s="27"/>
     </row>
@@ -2589,7 +2580,7 @@
         <v>630059</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H24" s="2">
         <v>20</v>
@@ -2601,7 +2592,7 @@
         <v>20</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -2638,7 +2629,7 @@
         <v>632215</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H26" s="2">
         <v>15</v>
@@ -2650,7 +2641,7 @@
         <v>15</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -2681,7 +2672,7 @@
         <v>3450</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F28" s="13">
         <v>634355</v>
@@ -2699,7 +2690,7 @@
         <v>10</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M28" s="31"/>
     </row>
@@ -2781,13 +2772,13 @@
         <v>2818</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F32" s="26">
         <v>635656</v>
       </c>
       <c r="G32" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H32" s="27">
         <v>15</v>
@@ -2799,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="27" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
@@ -2836,7 +2827,7 @@
         <v>646872</v>
       </c>
       <c r="G34" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H34" s="27">
         <v>10</v>
@@ -2869,7 +2860,7 @@
         <v>646872</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H35" s="2">
         <v>10</v>
@@ -2881,7 +2872,7 @@
         <v>10</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
@@ -2911,7 +2902,7 @@
         <v>112</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>31</v>
@@ -2929,7 +2920,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
@@ -2977,7 +2968,7 @@
         <v>10</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
@@ -3022,10 +3013,10 @@
         <v>12</v>
       </c>
       <c r="J41" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
@@ -3055,7 +3046,7 @@
         <v>6615</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F43" s="2">
         <v>663093</v>
@@ -3073,7 +3064,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3151,13 +3142,13 @@
         <v>9703</v>
       </c>
       <c r="E47" s="29" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F47" s="26">
         <v>681149</v>
       </c>
       <c r="G47" s="26" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H47" s="30">
         <v>4</v>
@@ -3169,12 +3160,12 @@
         <v>0</v>
       </c>
       <c r="K47" s="29" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -3247,13 +3238,13 @@
         <v>8463</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F51" s="6">
         <v>687349</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H51" s="5">
         <v>25</v>
@@ -3265,7 +3256,7 @@
         <v>0</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -3295,13 +3286,13 @@
         <v>1600</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F53" s="6">
         <v>691660</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H53" s="5">
         <v>1</v>
@@ -3313,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="K53" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
@@ -3343,7 +3334,7 @@
         <v>565</v>
       </c>
       <c r="E55" s="29" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F55" s="27" t="s">
         <v>36</v>
@@ -3361,7 +3352,7 @@
         <v>0</v>
       </c>
       <c r="K55" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -3391,13 +3382,13 @@
         <v>10710</v>
       </c>
       <c r="E57" s="33" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F57" s="17">
         <v>704681</v>
       </c>
       <c r="G57" s="17" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H57" s="18">
         <v>1</v>
@@ -3409,7 +3400,7 @@
         <v>0</v>
       </c>
       <c r="K57" s="18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -3535,7 +3526,7 @@
         <v>1896</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F63" s="2">
         <v>716663</v>
@@ -3553,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="K63" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
@@ -3583,7 +3574,7 @@
         <v>45000</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F65" s="7">
         <v>719031</v>
@@ -3601,7 +3592,7 @@
         <v>0</v>
       </c>
       <c r="K65" s="37" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
@@ -3631,7 +3622,7 @@
         <v>9999</v>
       </c>
       <c r="E67" s="26" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F67" s="26">
         <v>719381</v>
@@ -3649,7 +3640,7 @@
         <v>0</v>
       </c>
       <c r="K67" s="26" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
@@ -3679,7 +3670,7 @@
         <v>6800</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F69" s="7">
         <v>720138</v>
@@ -3697,7 +3688,7 @@
         <v>0</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
@@ -3727,13 +3718,13 @@
         <v>2490</v>
       </c>
       <c r="E71" s="27" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F71" s="26">
         <v>724214</v>
       </c>
       <c r="G71" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H71" s="27">
         <v>10</v>
@@ -3745,7 +3736,7 @@
         <v>0</v>
       </c>
       <c r="K71" s="27" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
@@ -3823,13 +3814,13 @@
         <v>100</v>
       </c>
       <c r="E75" s="27" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F75" s="27">
         <v>728488</v>
       </c>
       <c r="G75" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H75" s="27">
         <v>10</v>
@@ -3841,7 +3832,7 @@
         <v>0</v>
       </c>
       <c r="K75" s="27" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3855,7 +3846,7 @@
   <dimension ref="A1:M75"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A40" sqref="A1:XFD1048576"/>
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -3866,1083 +3857,1083 @@
     <col min="4" max="4" width="14.44140625" style="20" customWidth="1"/>
     <col min="5" max="5" width="15.77734375" style="20" customWidth="1"/>
     <col min="6" max="6" width="12.21875" style="20" customWidth="1"/>
-    <col min="7" max="7" width="53.44140625" style="20" customWidth="1"/>
+    <col min="7" max="7" width="45.5546875" style="20" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" style="20" customWidth="1"/>
     <col min="9" max="9" width="12.44140625" style="20" customWidth="1"/>
-    <col min="10" max="10" width="24.109375" style="20" customWidth="1"/>
+    <col min="10" max="10" width="17.21875" style="20" customWidth="1"/>
     <col min="11" max="11" width="14.33203125" style="20" customWidth="1"/>
-    <col min="12" max="246" width="8.88671875" style="20"/>
-    <col min="247" max="247" width="20.5546875" style="20" customWidth="1"/>
-    <col min="248" max="248" width="13.109375" style="20" customWidth="1"/>
-    <col min="249" max="249" width="8.88671875" style="20"/>
-    <col min="250" max="250" width="14.5546875" style="20" customWidth="1"/>
-    <col min="251" max="251" width="14.44140625" style="20" customWidth="1"/>
-    <col min="252" max="252" width="8.88671875" style="20" customWidth="1"/>
-    <col min="253" max="253" width="19.109375" style="20" customWidth="1"/>
-    <col min="254" max="254" width="12.33203125" style="20" customWidth="1"/>
-    <col min="255" max="255" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="256" max="256" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="10.33203125" style="20" customWidth="1"/>
-    <col min="258" max="258" width="8" style="20" customWidth="1"/>
-    <col min="259" max="260" width="14.33203125" style="20" customWidth="1"/>
-    <col min="261" max="261" width="6.5546875" style="20" customWidth="1"/>
-    <col min="262" max="262" width="10.109375" style="20" customWidth="1"/>
-    <col min="263" max="263" width="7.5546875" style="20" customWidth="1"/>
-    <col min="264" max="502" width="8.88671875" style="20"/>
-    <col min="503" max="503" width="20.5546875" style="20" customWidth="1"/>
-    <col min="504" max="504" width="13.109375" style="20" customWidth="1"/>
-    <col min="505" max="505" width="8.88671875" style="20"/>
-    <col min="506" max="506" width="14.5546875" style="20" customWidth="1"/>
-    <col min="507" max="507" width="14.44140625" style="20" customWidth="1"/>
-    <col min="508" max="508" width="8.88671875" style="20" customWidth="1"/>
-    <col min="509" max="509" width="19.109375" style="20" customWidth="1"/>
-    <col min="510" max="510" width="12.33203125" style="20" customWidth="1"/>
-    <col min="511" max="511" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="512" max="512" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="513" max="513" width="10.33203125" style="20" customWidth="1"/>
-    <col min="514" max="514" width="8" style="20" customWidth="1"/>
-    <col min="515" max="516" width="14.33203125" style="20" customWidth="1"/>
-    <col min="517" max="517" width="6.5546875" style="20" customWidth="1"/>
-    <col min="518" max="518" width="10.109375" style="20" customWidth="1"/>
-    <col min="519" max="519" width="7.5546875" style="20" customWidth="1"/>
-    <col min="520" max="758" width="8.88671875" style="20"/>
-    <col min="759" max="759" width="20.5546875" style="20" customWidth="1"/>
-    <col min="760" max="760" width="13.109375" style="20" customWidth="1"/>
-    <col min="761" max="761" width="8.88671875" style="20"/>
-    <col min="762" max="762" width="14.5546875" style="20" customWidth="1"/>
-    <col min="763" max="763" width="14.44140625" style="20" customWidth="1"/>
-    <col min="764" max="764" width="8.88671875" style="20" customWidth="1"/>
-    <col min="765" max="765" width="19.109375" style="20" customWidth="1"/>
-    <col min="766" max="766" width="12.33203125" style="20" customWidth="1"/>
-    <col min="767" max="767" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="768" max="768" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="769" max="769" width="10.33203125" style="20" customWidth="1"/>
-    <col min="770" max="770" width="8" style="20" customWidth="1"/>
-    <col min="771" max="772" width="14.33203125" style="20" customWidth="1"/>
-    <col min="773" max="773" width="6.5546875" style="20" customWidth="1"/>
-    <col min="774" max="774" width="10.109375" style="20" customWidth="1"/>
-    <col min="775" max="775" width="7.5546875" style="20" customWidth="1"/>
-    <col min="776" max="1014" width="8.88671875" style="20"/>
-    <col min="1015" max="1015" width="20.5546875" style="20" customWidth="1"/>
-    <col min="1016" max="1016" width="13.109375" style="20" customWidth="1"/>
-    <col min="1017" max="1017" width="8.88671875" style="20"/>
-    <col min="1018" max="1018" width="14.5546875" style="20" customWidth="1"/>
-    <col min="1019" max="1019" width="14.44140625" style="20" customWidth="1"/>
-    <col min="1020" max="1020" width="8.88671875" style="20" customWidth="1"/>
-    <col min="1021" max="1021" width="19.109375" style="20" customWidth="1"/>
-    <col min="1022" max="1022" width="12.33203125" style="20" customWidth="1"/>
-    <col min="1023" max="1023" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="1024" max="1024" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="1025" max="1025" width="10.33203125" style="20" customWidth="1"/>
-    <col min="1026" max="1026" width="8" style="20" customWidth="1"/>
-    <col min="1027" max="1028" width="14.33203125" style="20" customWidth="1"/>
-    <col min="1029" max="1029" width="6.5546875" style="20" customWidth="1"/>
-    <col min="1030" max="1030" width="10.109375" style="20" customWidth="1"/>
-    <col min="1031" max="1031" width="7.5546875" style="20" customWidth="1"/>
-    <col min="1032" max="1270" width="8.88671875" style="20"/>
-    <col min="1271" max="1271" width="20.5546875" style="20" customWidth="1"/>
-    <col min="1272" max="1272" width="13.109375" style="20" customWidth="1"/>
-    <col min="1273" max="1273" width="8.88671875" style="20"/>
-    <col min="1274" max="1274" width="14.5546875" style="20" customWidth="1"/>
-    <col min="1275" max="1275" width="14.44140625" style="20" customWidth="1"/>
-    <col min="1276" max="1276" width="8.88671875" style="20" customWidth="1"/>
-    <col min="1277" max="1277" width="19.109375" style="20" customWidth="1"/>
-    <col min="1278" max="1278" width="12.33203125" style="20" customWidth="1"/>
-    <col min="1279" max="1279" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="1280" max="1280" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="1281" max="1281" width="10.33203125" style="20" customWidth="1"/>
-    <col min="1282" max="1282" width="8" style="20" customWidth="1"/>
-    <col min="1283" max="1284" width="14.33203125" style="20" customWidth="1"/>
-    <col min="1285" max="1285" width="6.5546875" style="20" customWidth="1"/>
-    <col min="1286" max="1286" width="10.109375" style="20" customWidth="1"/>
-    <col min="1287" max="1287" width="7.5546875" style="20" customWidth="1"/>
-    <col min="1288" max="1526" width="8.88671875" style="20"/>
-    <col min="1527" max="1527" width="20.5546875" style="20" customWidth="1"/>
-    <col min="1528" max="1528" width="13.109375" style="20" customWidth="1"/>
-    <col min="1529" max="1529" width="8.88671875" style="20"/>
-    <col min="1530" max="1530" width="14.5546875" style="20" customWidth="1"/>
-    <col min="1531" max="1531" width="14.44140625" style="20" customWidth="1"/>
-    <col min="1532" max="1532" width="8.88671875" style="20" customWidth="1"/>
-    <col min="1533" max="1533" width="19.109375" style="20" customWidth="1"/>
-    <col min="1534" max="1534" width="12.33203125" style="20" customWidth="1"/>
-    <col min="1535" max="1535" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="1536" max="1536" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="1537" max="1537" width="10.33203125" style="20" customWidth="1"/>
-    <col min="1538" max="1538" width="8" style="20" customWidth="1"/>
-    <col min="1539" max="1540" width="14.33203125" style="20" customWidth="1"/>
-    <col min="1541" max="1541" width="6.5546875" style="20" customWidth="1"/>
-    <col min="1542" max="1542" width="10.109375" style="20" customWidth="1"/>
-    <col min="1543" max="1543" width="7.5546875" style="20" customWidth="1"/>
-    <col min="1544" max="1782" width="8.88671875" style="20"/>
-    <col min="1783" max="1783" width="20.5546875" style="20" customWidth="1"/>
-    <col min="1784" max="1784" width="13.109375" style="20" customWidth="1"/>
-    <col min="1785" max="1785" width="8.88671875" style="20"/>
-    <col min="1786" max="1786" width="14.5546875" style="20" customWidth="1"/>
-    <col min="1787" max="1787" width="14.44140625" style="20" customWidth="1"/>
-    <col min="1788" max="1788" width="8.88671875" style="20" customWidth="1"/>
-    <col min="1789" max="1789" width="19.109375" style="20" customWidth="1"/>
-    <col min="1790" max="1790" width="12.33203125" style="20" customWidth="1"/>
-    <col min="1791" max="1791" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="1792" max="1792" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="1793" max="1793" width="10.33203125" style="20" customWidth="1"/>
-    <col min="1794" max="1794" width="8" style="20" customWidth="1"/>
-    <col min="1795" max="1796" width="14.33203125" style="20" customWidth="1"/>
-    <col min="1797" max="1797" width="6.5546875" style="20" customWidth="1"/>
-    <col min="1798" max="1798" width="10.109375" style="20" customWidth="1"/>
-    <col min="1799" max="1799" width="7.5546875" style="20" customWidth="1"/>
-    <col min="1800" max="2038" width="8.88671875" style="20"/>
-    <col min="2039" max="2039" width="20.5546875" style="20" customWidth="1"/>
-    <col min="2040" max="2040" width="13.109375" style="20" customWidth="1"/>
-    <col min="2041" max="2041" width="8.88671875" style="20"/>
-    <col min="2042" max="2042" width="14.5546875" style="20" customWidth="1"/>
-    <col min="2043" max="2043" width="14.44140625" style="20" customWidth="1"/>
-    <col min="2044" max="2044" width="8.88671875" style="20" customWidth="1"/>
-    <col min="2045" max="2045" width="19.109375" style="20" customWidth="1"/>
-    <col min="2046" max="2046" width="12.33203125" style="20" customWidth="1"/>
-    <col min="2047" max="2047" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="2048" max="2048" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="2049" max="2049" width="10.33203125" style="20" customWidth="1"/>
-    <col min="2050" max="2050" width="8" style="20" customWidth="1"/>
-    <col min="2051" max="2052" width="14.33203125" style="20" customWidth="1"/>
-    <col min="2053" max="2053" width="6.5546875" style="20" customWidth="1"/>
-    <col min="2054" max="2054" width="10.109375" style="20" customWidth="1"/>
-    <col min="2055" max="2055" width="7.5546875" style="20" customWidth="1"/>
-    <col min="2056" max="2294" width="8.88671875" style="20"/>
-    <col min="2295" max="2295" width="20.5546875" style="20" customWidth="1"/>
-    <col min="2296" max="2296" width="13.109375" style="20" customWidth="1"/>
-    <col min="2297" max="2297" width="8.88671875" style="20"/>
-    <col min="2298" max="2298" width="14.5546875" style="20" customWidth="1"/>
-    <col min="2299" max="2299" width="14.44140625" style="20" customWidth="1"/>
-    <col min="2300" max="2300" width="8.88671875" style="20" customWidth="1"/>
-    <col min="2301" max="2301" width="19.109375" style="20" customWidth="1"/>
-    <col min="2302" max="2302" width="12.33203125" style="20" customWidth="1"/>
-    <col min="2303" max="2303" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="2304" max="2304" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="2305" max="2305" width="10.33203125" style="20" customWidth="1"/>
-    <col min="2306" max="2306" width="8" style="20" customWidth="1"/>
-    <col min="2307" max="2308" width="14.33203125" style="20" customWidth="1"/>
-    <col min="2309" max="2309" width="6.5546875" style="20" customWidth="1"/>
-    <col min="2310" max="2310" width="10.109375" style="20" customWidth="1"/>
-    <col min="2311" max="2311" width="7.5546875" style="20" customWidth="1"/>
-    <col min="2312" max="2550" width="8.88671875" style="20"/>
-    <col min="2551" max="2551" width="20.5546875" style="20" customWidth="1"/>
-    <col min="2552" max="2552" width="13.109375" style="20" customWidth="1"/>
-    <col min="2553" max="2553" width="8.88671875" style="20"/>
-    <col min="2554" max="2554" width="14.5546875" style="20" customWidth="1"/>
-    <col min="2555" max="2555" width="14.44140625" style="20" customWidth="1"/>
-    <col min="2556" max="2556" width="8.88671875" style="20" customWidth="1"/>
-    <col min="2557" max="2557" width="19.109375" style="20" customWidth="1"/>
-    <col min="2558" max="2558" width="12.33203125" style="20" customWidth="1"/>
-    <col min="2559" max="2559" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="2560" max="2560" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="2561" max="2561" width="10.33203125" style="20" customWidth="1"/>
-    <col min="2562" max="2562" width="8" style="20" customWidth="1"/>
-    <col min="2563" max="2564" width="14.33203125" style="20" customWidth="1"/>
-    <col min="2565" max="2565" width="6.5546875" style="20" customWidth="1"/>
-    <col min="2566" max="2566" width="10.109375" style="20" customWidth="1"/>
-    <col min="2567" max="2567" width="7.5546875" style="20" customWidth="1"/>
-    <col min="2568" max="2806" width="8.88671875" style="20"/>
-    <col min="2807" max="2807" width="20.5546875" style="20" customWidth="1"/>
-    <col min="2808" max="2808" width="13.109375" style="20" customWidth="1"/>
-    <col min="2809" max="2809" width="8.88671875" style="20"/>
-    <col min="2810" max="2810" width="14.5546875" style="20" customWidth="1"/>
-    <col min="2811" max="2811" width="14.44140625" style="20" customWidth="1"/>
-    <col min="2812" max="2812" width="8.88671875" style="20" customWidth="1"/>
-    <col min="2813" max="2813" width="19.109375" style="20" customWidth="1"/>
-    <col min="2814" max="2814" width="12.33203125" style="20" customWidth="1"/>
-    <col min="2815" max="2815" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="2816" max="2816" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="2817" max="2817" width="10.33203125" style="20" customWidth="1"/>
-    <col min="2818" max="2818" width="8" style="20" customWidth="1"/>
-    <col min="2819" max="2820" width="14.33203125" style="20" customWidth="1"/>
-    <col min="2821" max="2821" width="6.5546875" style="20" customWidth="1"/>
-    <col min="2822" max="2822" width="10.109375" style="20" customWidth="1"/>
-    <col min="2823" max="2823" width="7.5546875" style="20" customWidth="1"/>
-    <col min="2824" max="3062" width="8.88671875" style="20"/>
-    <col min="3063" max="3063" width="20.5546875" style="20" customWidth="1"/>
-    <col min="3064" max="3064" width="13.109375" style="20" customWidth="1"/>
-    <col min="3065" max="3065" width="8.88671875" style="20"/>
-    <col min="3066" max="3066" width="14.5546875" style="20" customWidth="1"/>
-    <col min="3067" max="3067" width="14.44140625" style="20" customWidth="1"/>
-    <col min="3068" max="3068" width="8.88671875" style="20" customWidth="1"/>
-    <col min="3069" max="3069" width="19.109375" style="20" customWidth="1"/>
-    <col min="3070" max="3070" width="12.33203125" style="20" customWidth="1"/>
-    <col min="3071" max="3071" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="3072" max="3072" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="3073" max="3073" width="10.33203125" style="20" customWidth="1"/>
-    <col min="3074" max="3074" width="8" style="20" customWidth="1"/>
-    <col min="3075" max="3076" width="14.33203125" style="20" customWidth="1"/>
-    <col min="3077" max="3077" width="6.5546875" style="20" customWidth="1"/>
-    <col min="3078" max="3078" width="10.109375" style="20" customWidth="1"/>
-    <col min="3079" max="3079" width="7.5546875" style="20" customWidth="1"/>
-    <col min="3080" max="3318" width="8.88671875" style="20"/>
-    <col min="3319" max="3319" width="20.5546875" style="20" customWidth="1"/>
-    <col min="3320" max="3320" width="13.109375" style="20" customWidth="1"/>
-    <col min="3321" max="3321" width="8.88671875" style="20"/>
-    <col min="3322" max="3322" width="14.5546875" style="20" customWidth="1"/>
-    <col min="3323" max="3323" width="14.44140625" style="20" customWidth="1"/>
-    <col min="3324" max="3324" width="8.88671875" style="20" customWidth="1"/>
-    <col min="3325" max="3325" width="19.109375" style="20" customWidth="1"/>
-    <col min="3326" max="3326" width="12.33203125" style="20" customWidth="1"/>
-    <col min="3327" max="3327" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="3328" max="3328" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="3329" max="3329" width="10.33203125" style="20" customWidth="1"/>
-    <col min="3330" max="3330" width="8" style="20" customWidth="1"/>
-    <col min="3331" max="3332" width="14.33203125" style="20" customWidth="1"/>
-    <col min="3333" max="3333" width="6.5546875" style="20" customWidth="1"/>
-    <col min="3334" max="3334" width="10.109375" style="20" customWidth="1"/>
-    <col min="3335" max="3335" width="7.5546875" style="20" customWidth="1"/>
-    <col min="3336" max="3574" width="8.88671875" style="20"/>
-    <col min="3575" max="3575" width="20.5546875" style="20" customWidth="1"/>
-    <col min="3576" max="3576" width="13.109375" style="20" customWidth="1"/>
-    <col min="3577" max="3577" width="8.88671875" style="20"/>
-    <col min="3578" max="3578" width="14.5546875" style="20" customWidth="1"/>
-    <col min="3579" max="3579" width="14.44140625" style="20" customWidth="1"/>
-    <col min="3580" max="3580" width="8.88671875" style="20" customWidth="1"/>
-    <col min="3581" max="3581" width="19.109375" style="20" customWidth="1"/>
-    <col min="3582" max="3582" width="12.33203125" style="20" customWidth="1"/>
-    <col min="3583" max="3583" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="3584" max="3584" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="3585" max="3585" width="10.33203125" style="20" customWidth="1"/>
-    <col min="3586" max="3586" width="8" style="20" customWidth="1"/>
-    <col min="3587" max="3588" width="14.33203125" style="20" customWidth="1"/>
-    <col min="3589" max="3589" width="6.5546875" style="20" customWidth="1"/>
-    <col min="3590" max="3590" width="10.109375" style="20" customWidth="1"/>
-    <col min="3591" max="3591" width="7.5546875" style="20" customWidth="1"/>
-    <col min="3592" max="3830" width="8.88671875" style="20"/>
-    <col min="3831" max="3831" width="20.5546875" style="20" customWidth="1"/>
-    <col min="3832" max="3832" width="13.109375" style="20" customWidth="1"/>
-    <col min="3833" max="3833" width="8.88671875" style="20"/>
-    <col min="3834" max="3834" width="14.5546875" style="20" customWidth="1"/>
-    <col min="3835" max="3835" width="14.44140625" style="20" customWidth="1"/>
-    <col min="3836" max="3836" width="8.88671875" style="20" customWidth="1"/>
-    <col min="3837" max="3837" width="19.109375" style="20" customWidth="1"/>
-    <col min="3838" max="3838" width="12.33203125" style="20" customWidth="1"/>
-    <col min="3839" max="3839" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="3840" max="3840" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="3841" max="3841" width="10.33203125" style="20" customWidth="1"/>
-    <col min="3842" max="3842" width="8" style="20" customWidth="1"/>
-    <col min="3843" max="3844" width="14.33203125" style="20" customWidth="1"/>
-    <col min="3845" max="3845" width="6.5546875" style="20" customWidth="1"/>
-    <col min="3846" max="3846" width="10.109375" style="20" customWidth="1"/>
-    <col min="3847" max="3847" width="7.5546875" style="20" customWidth="1"/>
-    <col min="3848" max="4086" width="8.88671875" style="20"/>
-    <col min="4087" max="4087" width="20.5546875" style="20" customWidth="1"/>
-    <col min="4088" max="4088" width="13.109375" style="20" customWidth="1"/>
-    <col min="4089" max="4089" width="8.88671875" style="20"/>
-    <col min="4090" max="4090" width="14.5546875" style="20" customWidth="1"/>
-    <col min="4091" max="4091" width="14.44140625" style="20" customWidth="1"/>
-    <col min="4092" max="4092" width="8.88671875" style="20" customWidth="1"/>
-    <col min="4093" max="4093" width="19.109375" style="20" customWidth="1"/>
-    <col min="4094" max="4094" width="12.33203125" style="20" customWidth="1"/>
-    <col min="4095" max="4095" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="4096" max="4096" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="4097" max="4097" width="10.33203125" style="20" customWidth="1"/>
-    <col min="4098" max="4098" width="8" style="20" customWidth="1"/>
-    <col min="4099" max="4100" width="14.33203125" style="20" customWidth="1"/>
-    <col min="4101" max="4101" width="6.5546875" style="20" customWidth="1"/>
-    <col min="4102" max="4102" width="10.109375" style="20" customWidth="1"/>
-    <col min="4103" max="4103" width="7.5546875" style="20" customWidth="1"/>
-    <col min="4104" max="4342" width="8.88671875" style="20"/>
-    <col min="4343" max="4343" width="20.5546875" style="20" customWidth="1"/>
-    <col min="4344" max="4344" width="13.109375" style="20" customWidth="1"/>
-    <col min="4345" max="4345" width="8.88671875" style="20"/>
-    <col min="4346" max="4346" width="14.5546875" style="20" customWidth="1"/>
-    <col min="4347" max="4347" width="14.44140625" style="20" customWidth="1"/>
-    <col min="4348" max="4348" width="8.88671875" style="20" customWidth="1"/>
-    <col min="4349" max="4349" width="19.109375" style="20" customWidth="1"/>
-    <col min="4350" max="4350" width="12.33203125" style="20" customWidth="1"/>
-    <col min="4351" max="4351" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="4352" max="4352" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="4353" max="4353" width="10.33203125" style="20" customWidth="1"/>
-    <col min="4354" max="4354" width="8" style="20" customWidth="1"/>
-    <col min="4355" max="4356" width="14.33203125" style="20" customWidth="1"/>
-    <col min="4357" max="4357" width="6.5546875" style="20" customWidth="1"/>
-    <col min="4358" max="4358" width="10.109375" style="20" customWidth="1"/>
-    <col min="4359" max="4359" width="7.5546875" style="20" customWidth="1"/>
-    <col min="4360" max="4598" width="8.88671875" style="20"/>
-    <col min="4599" max="4599" width="20.5546875" style="20" customWidth="1"/>
-    <col min="4600" max="4600" width="13.109375" style="20" customWidth="1"/>
-    <col min="4601" max="4601" width="8.88671875" style="20"/>
-    <col min="4602" max="4602" width="14.5546875" style="20" customWidth="1"/>
-    <col min="4603" max="4603" width="14.44140625" style="20" customWidth="1"/>
-    <col min="4604" max="4604" width="8.88671875" style="20" customWidth="1"/>
-    <col min="4605" max="4605" width="19.109375" style="20" customWidth="1"/>
-    <col min="4606" max="4606" width="12.33203125" style="20" customWidth="1"/>
-    <col min="4607" max="4607" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="4608" max="4608" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="4609" max="4609" width="10.33203125" style="20" customWidth="1"/>
-    <col min="4610" max="4610" width="8" style="20" customWidth="1"/>
-    <col min="4611" max="4612" width="14.33203125" style="20" customWidth="1"/>
-    <col min="4613" max="4613" width="6.5546875" style="20" customWidth="1"/>
-    <col min="4614" max="4614" width="10.109375" style="20" customWidth="1"/>
-    <col min="4615" max="4615" width="7.5546875" style="20" customWidth="1"/>
-    <col min="4616" max="4854" width="8.88671875" style="20"/>
-    <col min="4855" max="4855" width="20.5546875" style="20" customWidth="1"/>
-    <col min="4856" max="4856" width="13.109375" style="20" customWidth="1"/>
-    <col min="4857" max="4857" width="8.88671875" style="20"/>
-    <col min="4858" max="4858" width="14.5546875" style="20" customWidth="1"/>
-    <col min="4859" max="4859" width="14.44140625" style="20" customWidth="1"/>
-    <col min="4860" max="4860" width="8.88671875" style="20" customWidth="1"/>
-    <col min="4861" max="4861" width="19.109375" style="20" customWidth="1"/>
-    <col min="4862" max="4862" width="12.33203125" style="20" customWidth="1"/>
-    <col min="4863" max="4863" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="4864" max="4864" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="4865" max="4865" width="10.33203125" style="20" customWidth="1"/>
-    <col min="4866" max="4866" width="8" style="20" customWidth="1"/>
-    <col min="4867" max="4868" width="14.33203125" style="20" customWidth="1"/>
-    <col min="4869" max="4869" width="6.5546875" style="20" customWidth="1"/>
-    <col min="4870" max="4870" width="10.109375" style="20" customWidth="1"/>
-    <col min="4871" max="4871" width="7.5546875" style="20" customWidth="1"/>
-    <col min="4872" max="5110" width="8.88671875" style="20"/>
-    <col min="5111" max="5111" width="20.5546875" style="20" customWidth="1"/>
-    <col min="5112" max="5112" width="13.109375" style="20" customWidth="1"/>
-    <col min="5113" max="5113" width="8.88671875" style="20"/>
-    <col min="5114" max="5114" width="14.5546875" style="20" customWidth="1"/>
-    <col min="5115" max="5115" width="14.44140625" style="20" customWidth="1"/>
-    <col min="5116" max="5116" width="8.88671875" style="20" customWidth="1"/>
-    <col min="5117" max="5117" width="19.109375" style="20" customWidth="1"/>
-    <col min="5118" max="5118" width="12.33203125" style="20" customWidth="1"/>
-    <col min="5119" max="5119" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="5120" max="5120" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5121" max="5121" width="10.33203125" style="20" customWidth="1"/>
-    <col min="5122" max="5122" width="8" style="20" customWidth="1"/>
-    <col min="5123" max="5124" width="14.33203125" style="20" customWidth="1"/>
-    <col min="5125" max="5125" width="6.5546875" style="20" customWidth="1"/>
-    <col min="5126" max="5126" width="10.109375" style="20" customWidth="1"/>
-    <col min="5127" max="5127" width="7.5546875" style="20" customWidth="1"/>
-    <col min="5128" max="5366" width="8.88671875" style="20"/>
-    <col min="5367" max="5367" width="20.5546875" style="20" customWidth="1"/>
-    <col min="5368" max="5368" width="13.109375" style="20" customWidth="1"/>
-    <col min="5369" max="5369" width="8.88671875" style="20"/>
-    <col min="5370" max="5370" width="14.5546875" style="20" customWidth="1"/>
-    <col min="5371" max="5371" width="14.44140625" style="20" customWidth="1"/>
-    <col min="5372" max="5372" width="8.88671875" style="20" customWidth="1"/>
-    <col min="5373" max="5373" width="19.109375" style="20" customWidth="1"/>
-    <col min="5374" max="5374" width="12.33203125" style="20" customWidth="1"/>
-    <col min="5375" max="5375" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="5376" max="5376" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5377" max="5377" width="10.33203125" style="20" customWidth="1"/>
-    <col min="5378" max="5378" width="8" style="20" customWidth="1"/>
-    <col min="5379" max="5380" width="14.33203125" style="20" customWidth="1"/>
-    <col min="5381" max="5381" width="6.5546875" style="20" customWidth="1"/>
-    <col min="5382" max="5382" width="10.109375" style="20" customWidth="1"/>
-    <col min="5383" max="5383" width="7.5546875" style="20" customWidth="1"/>
-    <col min="5384" max="5622" width="8.88671875" style="20"/>
-    <col min="5623" max="5623" width="20.5546875" style="20" customWidth="1"/>
-    <col min="5624" max="5624" width="13.109375" style="20" customWidth="1"/>
-    <col min="5625" max="5625" width="8.88671875" style="20"/>
-    <col min="5626" max="5626" width="14.5546875" style="20" customWidth="1"/>
-    <col min="5627" max="5627" width="14.44140625" style="20" customWidth="1"/>
-    <col min="5628" max="5628" width="8.88671875" style="20" customWidth="1"/>
-    <col min="5629" max="5629" width="19.109375" style="20" customWidth="1"/>
-    <col min="5630" max="5630" width="12.33203125" style="20" customWidth="1"/>
-    <col min="5631" max="5631" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="5632" max="5632" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5633" max="5633" width="10.33203125" style="20" customWidth="1"/>
-    <col min="5634" max="5634" width="8" style="20" customWidth="1"/>
-    <col min="5635" max="5636" width="14.33203125" style="20" customWidth="1"/>
-    <col min="5637" max="5637" width="6.5546875" style="20" customWidth="1"/>
-    <col min="5638" max="5638" width="10.109375" style="20" customWidth="1"/>
-    <col min="5639" max="5639" width="7.5546875" style="20" customWidth="1"/>
-    <col min="5640" max="5878" width="8.88671875" style="20"/>
-    <col min="5879" max="5879" width="20.5546875" style="20" customWidth="1"/>
-    <col min="5880" max="5880" width="13.109375" style="20" customWidth="1"/>
-    <col min="5881" max="5881" width="8.88671875" style="20"/>
-    <col min="5882" max="5882" width="14.5546875" style="20" customWidth="1"/>
-    <col min="5883" max="5883" width="14.44140625" style="20" customWidth="1"/>
-    <col min="5884" max="5884" width="8.88671875" style="20" customWidth="1"/>
-    <col min="5885" max="5885" width="19.109375" style="20" customWidth="1"/>
-    <col min="5886" max="5886" width="12.33203125" style="20" customWidth="1"/>
-    <col min="5887" max="5887" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="5888" max="5888" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5889" max="5889" width="10.33203125" style="20" customWidth="1"/>
-    <col min="5890" max="5890" width="8" style="20" customWidth="1"/>
-    <col min="5891" max="5892" width="14.33203125" style="20" customWidth="1"/>
-    <col min="5893" max="5893" width="6.5546875" style="20" customWidth="1"/>
-    <col min="5894" max="5894" width="10.109375" style="20" customWidth="1"/>
-    <col min="5895" max="5895" width="7.5546875" style="20" customWidth="1"/>
-    <col min="5896" max="6134" width="8.88671875" style="20"/>
-    <col min="6135" max="6135" width="20.5546875" style="20" customWidth="1"/>
-    <col min="6136" max="6136" width="13.109375" style="20" customWidth="1"/>
-    <col min="6137" max="6137" width="8.88671875" style="20"/>
-    <col min="6138" max="6138" width="14.5546875" style="20" customWidth="1"/>
-    <col min="6139" max="6139" width="14.44140625" style="20" customWidth="1"/>
-    <col min="6140" max="6140" width="8.88671875" style="20" customWidth="1"/>
-    <col min="6141" max="6141" width="19.109375" style="20" customWidth="1"/>
-    <col min="6142" max="6142" width="12.33203125" style="20" customWidth="1"/>
-    <col min="6143" max="6143" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="6144" max="6144" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="6145" max="6145" width="10.33203125" style="20" customWidth="1"/>
-    <col min="6146" max="6146" width="8" style="20" customWidth="1"/>
-    <col min="6147" max="6148" width="14.33203125" style="20" customWidth="1"/>
-    <col min="6149" max="6149" width="6.5546875" style="20" customWidth="1"/>
-    <col min="6150" max="6150" width="10.109375" style="20" customWidth="1"/>
-    <col min="6151" max="6151" width="7.5546875" style="20" customWidth="1"/>
-    <col min="6152" max="6390" width="8.88671875" style="20"/>
-    <col min="6391" max="6391" width="20.5546875" style="20" customWidth="1"/>
-    <col min="6392" max="6392" width="13.109375" style="20" customWidth="1"/>
-    <col min="6393" max="6393" width="8.88671875" style="20"/>
-    <col min="6394" max="6394" width="14.5546875" style="20" customWidth="1"/>
-    <col min="6395" max="6395" width="14.44140625" style="20" customWidth="1"/>
-    <col min="6396" max="6396" width="8.88671875" style="20" customWidth="1"/>
-    <col min="6397" max="6397" width="19.109375" style="20" customWidth="1"/>
-    <col min="6398" max="6398" width="12.33203125" style="20" customWidth="1"/>
-    <col min="6399" max="6399" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="6400" max="6400" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="6401" max="6401" width="10.33203125" style="20" customWidth="1"/>
-    <col min="6402" max="6402" width="8" style="20" customWidth="1"/>
-    <col min="6403" max="6404" width="14.33203125" style="20" customWidth="1"/>
-    <col min="6405" max="6405" width="6.5546875" style="20" customWidth="1"/>
-    <col min="6406" max="6406" width="10.109375" style="20" customWidth="1"/>
-    <col min="6407" max="6407" width="7.5546875" style="20" customWidth="1"/>
-    <col min="6408" max="6646" width="8.88671875" style="20"/>
-    <col min="6647" max="6647" width="20.5546875" style="20" customWidth="1"/>
-    <col min="6648" max="6648" width="13.109375" style="20" customWidth="1"/>
-    <col min="6649" max="6649" width="8.88671875" style="20"/>
-    <col min="6650" max="6650" width="14.5546875" style="20" customWidth="1"/>
-    <col min="6651" max="6651" width="14.44140625" style="20" customWidth="1"/>
-    <col min="6652" max="6652" width="8.88671875" style="20" customWidth="1"/>
-    <col min="6653" max="6653" width="19.109375" style="20" customWidth="1"/>
-    <col min="6654" max="6654" width="12.33203125" style="20" customWidth="1"/>
-    <col min="6655" max="6655" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="6656" max="6656" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="6657" max="6657" width="10.33203125" style="20" customWidth="1"/>
-    <col min="6658" max="6658" width="8" style="20" customWidth="1"/>
-    <col min="6659" max="6660" width="14.33203125" style="20" customWidth="1"/>
-    <col min="6661" max="6661" width="6.5546875" style="20" customWidth="1"/>
-    <col min="6662" max="6662" width="10.109375" style="20" customWidth="1"/>
-    <col min="6663" max="6663" width="7.5546875" style="20" customWidth="1"/>
-    <col min="6664" max="6902" width="8.88671875" style="20"/>
-    <col min="6903" max="6903" width="20.5546875" style="20" customWidth="1"/>
-    <col min="6904" max="6904" width="13.109375" style="20" customWidth="1"/>
-    <col min="6905" max="6905" width="8.88671875" style="20"/>
-    <col min="6906" max="6906" width="14.5546875" style="20" customWidth="1"/>
-    <col min="6907" max="6907" width="14.44140625" style="20" customWidth="1"/>
-    <col min="6908" max="6908" width="8.88671875" style="20" customWidth="1"/>
-    <col min="6909" max="6909" width="19.109375" style="20" customWidth="1"/>
-    <col min="6910" max="6910" width="12.33203125" style="20" customWidth="1"/>
-    <col min="6911" max="6911" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="6912" max="6912" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="6913" max="6913" width="10.33203125" style="20" customWidth="1"/>
-    <col min="6914" max="6914" width="8" style="20" customWidth="1"/>
-    <col min="6915" max="6916" width="14.33203125" style="20" customWidth="1"/>
-    <col min="6917" max="6917" width="6.5546875" style="20" customWidth="1"/>
-    <col min="6918" max="6918" width="10.109375" style="20" customWidth="1"/>
-    <col min="6919" max="6919" width="7.5546875" style="20" customWidth="1"/>
-    <col min="6920" max="7158" width="8.88671875" style="20"/>
-    <col min="7159" max="7159" width="20.5546875" style="20" customWidth="1"/>
-    <col min="7160" max="7160" width="13.109375" style="20" customWidth="1"/>
-    <col min="7161" max="7161" width="8.88671875" style="20"/>
-    <col min="7162" max="7162" width="14.5546875" style="20" customWidth="1"/>
-    <col min="7163" max="7163" width="14.44140625" style="20" customWidth="1"/>
-    <col min="7164" max="7164" width="8.88671875" style="20" customWidth="1"/>
-    <col min="7165" max="7165" width="19.109375" style="20" customWidth="1"/>
-    <col min="7166" max="7166" width="12.33203125" style="20" customWidth="1"/>
-    <col min="7167" max="7167" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="7168" max="7168" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="7169" max="7169" width="10.33203125" style="20" customWidth="1"/>
-    <col min="7170" max="7170" width="8" style="20" customWidth="1"/>
-    <col min="7171" max="7172" width="14.33203125" style="20" customWidth="1"/>
-    <col min="7173" max="7173" width="6.5546875" style="20" customWidth="1"/>
-    <col min="7174" max="7174" width="10.109375" style="20" customWidth="1"/>
-    <col min="7175" max="7175" width="7.5546875" style="20" customWidth="1"/>
-    <col min="7176" max="7414" width="8.88671875" style="20"/>
-    <col min="7415" max="7415" width="20.5546875" style="20" customWidth="1"/>
-    <col min="7416" max="7416" width="13.109375" style="20" customWidth="1"/>
-    <col min="7417" max="7417" width="8.88671875" style="20"/>
-    <col min="7418" max="7418" width="14.5546875" style="20" customWidth="1"/>
-    <col min="7419" max="7419" width="14.44140625" style="20" customWidth="1"/>
-    <col min="7420" max="7420" width="8.88671875" style="20" customWidth="1"/>
-    <col min="7421" max="7421" width="19.109375" style="20" customWidth="1"/>
-    <col min="7422" max="7422" width="12.33203125" style="20" customWidth="1"/>
-    <col min="7423" max="7423" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="7424" max="7424" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="7425" max="7425" width="10.33203125" style="20" customWidth="1"/>
-    <col min="7426" max="7426" width="8" style="20" customWidth="1"/>
-    <col min="7427" max="7428" width="14.33203125" style="20" customWidth="1"/>
-    <col min="7429" max="7429" width="6.5546875" style="20" customWidth="1"/>
-    <col min="7430" max="7430" width="10.109375" style="20" customWidth="1"/>
-    <col min="7431" max="7431" width="7.5546875" style="20" customWidth="1"/>
-    <col min="7432" max="7670" width="8.88671875" style="20"/>
-    <col min="7671" max="7671" width="20.5546875" style="20" customWidth="1"/>
-    <col min="7672" max="7672" width="13.109375" style="20" customWidth="1"/>
-    <col min="7673" max="7673" width="8.88671875" style="20"/>
-    <col min="7674" max="7674" width="14.5546875" style="20" customWidth="1"/>
-    <col min="7675" max="7675" width="14.44140625" style="20" customWidth="1"/>
-    <col min="7676" max="7676" width="8.88671875" style="20" customWidth="1"/>
-    <col min="7677" max="7677" width="19.109375" style="20" customWidth="1"/>
-    <col min="7678" max="7678" width="12.33203125" style="20" customWidth="1"/>
-    <col min="7679" max="7679" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="7680" max="7680" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="7681" max="7681" width="10.33203125" style="20" customWidth="1"/>
-    <col min="7682" max="7682" width="8" style="20" customWidth="1"/>
-    <col min="7683" max="7684" width="14.33203125" style="20" customWidth="1"/>
-    <col min="7685" max="7685" width="6.5546875" style="20" customWidth="1"/>
-    <col min="7686" max="7686" width="10.109375" style="20" customWidth="1"/>
-    <col min="7687" max="7687" width="7.5546875" style="20" customWidth="1"/>
-    <col min="7688" max="7926" width="8.88671875" style="20"/>
-    <col min="7927" max="7927" width="20.5546875" style="20" customWidth="1"/>
-    <col min="7928" max="7928" width="13.109375" style="20" customWidth="1"/>
-    <col min="7929" max="7929" width="8.88671875" style="20"/>
-    <col min="7930" max="7930" width="14.5546875" style="20" customWidth="1"/>
-    <col min="7931" max="7931" width="14.44140625" style="20" customWidth="1"/>
-    <col min="7932" max="7932" width="8.88671875" style="20" customWidth="1"/>
-    <col min="7933" max="7933" width="19.109375" style="20" customWidth="1"/>
-    <col min="7934" max="7934" width="12.33203125" style="20" customWidth="1"/>
-    <col min="7935" max="7935" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="7936" max="7936" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="7937" max="7937" width="10.33203125" style="20" customWidth="1"/>
-    <col min="7938" max="7938" width="8" style="20" customWidth="1"/>
-    <col min="7939" max="7940" width="14.33203125" style="20" customWidth="1"/>
-    <col min="7941" max="7941" width="6.5546875" style="20" customWidth="1"/>
-    <col min="7942" max="7942" width="10.109375" style="20" customWidth="1"/>
-    <col min="7943" max="7943" width="7.5546875" style="20" customWidth="1"/>
-    <col min="7944" max="8182" width="8.88671875" style="20"/>
-    <col min="8183" max="8183" width="20.5546875" style="20" customWidth="1"/>
-    <col min="8184" max="8184" width="13.109375" style="20" customWidth="1"/>
-    <col min="8185" max="8185" width="8.88671875" style="20"/>
-    <col min="8186" max="8186" width="14.5546875" style="20" customWidth="1"/>
-    <col min="8187" max="8187" width="14.44140625" style="20" customWidth="1"/>
-    <col min="8188" max="8188" width="8.88671875" style="20" customWidth="1"/>
-    <col min="8189" max="8189" width="19.109375" style="20" customWidth="1"/>
-    <col min="8190" max="8190" width="12.33203125" style="20" customWidth="1"/>
-    <col min="8191" max="8191" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="8192" max="8192" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="8193" max="8193" width="10.33203125" style="20" customWidth="1"/>
-    <col min="8194" max="8194" width="8" style="20" customWidth="1"/>
-    <col min="8195" max="8196" width="14.33203125" style="20" customWidth="1"/>
-    <col min="8197" max="8197" width="6.5546875" style="20" customWidth="1"/>
-    <col min="8198" max="8198" width="10.109375" style="20" customWidth="1"/>
-    <col min="8199" max="8199" width="7.5546875" style="20" customWidth="1"/>
-    <col min="8200" max="8438" width="8.88671875" style="20"/>
-    <col min="8439" max="8439" width="20.5546875" style="20" customWidth="1"/>
-    <col min="8440" max="8440" width="13.109375" style="20" customWidth="1"/>
-    <col min="8441" max="8441" width="8.88671875" style="20"/>
-    <col min="8442" max="8442" width="14.5546875" style="20" customWidth="1"/>
-    <col min="8443" max="8443" width="14.44140625" style="20" customWidth="1"/>
-    <col min="8444" max="8444" width="8.88671875" style="20" customWidth="1"/>
-    <col min="8445" max="8445" width="19.109375" style="20" customWidth="1"/>
-    <col min="8446" max="8446" width="12.33203125" style="20" customWidth="1"/>
-    <col min="8447" max="8447" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="8448" max="8448" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="8449" max="8449" width="10.33203125" style="20" customWidth="1"/>
-    <col min="8450" max="8450" width="8" style="20" customWidth="1"/>
-    <col min="8451" max="8452" width="14.33203125" style="20" customWidth="1"/>
-    <col min="8453" max="8453" width="6.5546875" style="20" customWidth="1"/>
-    <col min="8454" max="8454" width="10.109375" style="20" customWidth="1"/>
-    <col min="8455" max="8455" width="7.5546875" style="20" customWidth="1"/>
-    <col min="8456" max="8694" width="8.88671875" style="20"/>
-    <col min="8695" max="8695" width="20.5546875" style="20" customWidth="1"/>
-    <col min="8696" max="8696" width="13.109375" style="20" customWidth="1"/>
-    <col min="8697" max="8697" width="8.88671875" style="20"/>
-    <col min="8698" max="8698" width="14.5546875" style="20" customWidth="1"/>
-    <col min="8699" max="8699" width="14.44140625" style="20" customWidth="1"/>
-    <col min="8700" max="8700" width="8.88671875" style="20" customWidth="1"/>
-    <col min="8701" max="8701" width="19.109375" style="20" customWidth="1"/>
-    <col min="8702" max="8702" width="12.33203125" style="20" customWidth="1"/>
-    <col min="8703" max="8703" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="8704" max="8704" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="8705" max="8705" width="10.33203125" style="20" customWidth="1"/>
-    <col min="8706" max="8706" width="8" style="20" customWidth="1"/>
-    <col min="8707" max="8708" width="14.33203125" style="20" customWidth="1"/>
-    <col min="8709" max="8709" width="6.5546875" style="20" customWidth="1"/>
-    <col min="8710" max="8710" width="10.109375" style="20" customWidth="1"/>
-    <col min="8711" max="8711" width="7.5546875" style="20" customWidth="1"/>
-    <col min="8712" max="8950" width="8.88671875" style="20"/>
-    <col min="8951" max="8951" width="20.5546875" style="20" customWidth="1"/>
-    <col min="8952" max="8952" width="13.109375" style="20" customWidth="1"/>
-    <col min="8953" max="8953" width="8.88671875" style="20"/>
-    <col min="8954" max="8954" width="14.5546875" style="20" customWidth="1"/>
-    <col min="8955" max="8955" width="14.44140625" style="20" customWidth="1"/>
-    <col min="8956" max="8956" width="8.88671875" style="20" customWidth="1"/>
-    <col min="8957" max="8957" width="19.109375" style="20" customWidth="1"/>
-    <col min="8958" max="8958" width="12.33203125" style="20" customWidth="1"/>
-    <col min="8959" max="8959" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="8960" max="8960" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="8961" max="8961" width="10.33203125" style="20" customWidth="1"/>
-    <col min="8962" max="8962" width="8" style="20" customWidth="1"/>
-    <col min="8963" max="8964" width="14.33203125" style="20" customWidth="1"/>
-    <col min="8965" max="8965" width="6.5546875" style="20" customWidth="1"/>
-    <col min="8966" max="8966" width="10.109375" style="20" customWidth="1"/>
-    <col min="8967" max="8967" width="7.5546875" style="20" customWidth="1"/>
-    <col min="8968" max="9206" width="8.88671875" style="20"/>
-    <col min="9207" max="9207" width="20.5546875" style="20" customWidth="1"/>
-    <col min="9208" max="9208" width="13.109375" style="20" customWidth="1"/>
-    <col min="9209" max="9209" width="8.88671875" style="20"/>
-    <col min="9210" max="9210" width="14.5546875" style="20" customWidth="1"/>
-    <col min="9211" max="9211" width="14.44140625" style="20" customWidth="1"/>
-    <col min="9212" max="9212" width="8.88671875" style="20" customWidth="1"/>
-    <col min="9213" max="9213" width="19.109375" style="20" customWidth="1"/>
-    <col min="9214" max="9214" width="12.33203125" style="20" customWidth="1"/>
-    <col min="9215" max="9215" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="9216" max="9216" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="9217" max="9217" width="10.33203125" style="20" customWidth="1"/>
-    <col min="9218" max="9218" width="8" style="20" customWidth="1"/>
-    <col min="9219" max="9220" width="14.33203125" style="20" customWidth="1"/>
-    <col min="9221" max="9221" width="6.5546875" style="20" customWidth="1"/>
-    <col min="9222" max="9222" width="10.109375" style="20" customWidth="1"/>
-    <col min="9223" max="9223" width="7.5546875" style="20" customWidth="1"/>
-    <col min="9224" max="9462" width="8.88671875" style="20"/>
-    <col min="9463" max="9463" width="20.5546875" style="20" customWidth="1"/>
-    <col min="9464" max="9464" width="13.109375" style="20" customWidth="1"/>
-    <col min="9465" max="9465" width="8.88671875" style="20"/>
-    <col min="9466" max="9466" width="14.5546875" style="20" customWidth="1"/>
-    <col min="9467" max="9467" width="14.44140625" style="20" customWidth="1"/>
-    <col min="9468" max="9468" width="8.88671875" style="20" customWidth="1"/>
-    <col min="9469" max="9469" width="19.109375" style="20" customWidth="1"/>
-    <col min="9470" max="9470" width="12.33203125" style="20" customWidth="1"/>
-    <col min="9471" max="9471" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="9472" max="9472" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="9473" max="9473" width="10.33203125" style="20" customWidth="1"/>
-    <col min="9474" max="9474" width="8" style="20" customWidth="1"/>
-    <col min="9475" max="9476" width="14.33203125" style="20" customWidth="1"/>
-    <col min="9477" max="9477" width="6.5546875" style="20" customWidth="1"/>
-    <col min="9478" max="9478" width="10.109375" style="20" customWidth="1"/>
-    <col min="9479" max="9479" width="7.5546875" style="20" customWidth="1"/>
-    <col min="9480" max="9718" width="8.88671875" style="20"/>
-    <col min="9719" max="9719" width="20.5546875" style="20" customWidth="1"/>
-    <col min="9720" max="9720" width="13.109375" style="20" customWidth="1"/>
-    <col min="9721" max="9721" width="8.88671875" style="20"/>
-    <col min="9722" max="9722" width="14.5546875" style="20" customWidth="1"/>
-    <col min="9723" max="9723" width="14.44140625" style="20" customWidth="1"/>
-    <col min="9724" max="9724" width="8.88671875" style="20" customWidth="1"/>
-    <col min="9725" max="9725" width="19.109375" style="20" customWidth="1"/>
-    <col min="9726" max="9726" width="12.33203125" style="20" customWidth="1"/>
-    <col min="9727" max="9727" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="9728" max="9728" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="9729" max="9729" width="10.33203125" style="20" customWidth="1"/>
-    <col min="9730" max="9730" width="8" style="20" customWidth="1"/>
-    <col min="9731" max="9732" width="14.33203125" style="20" customWidth="1"/>
-    <col min="9733" max="9733" width="6.5546875" style="20" customWidth="1"/>
-    <col min="9734" max="9734" width="10.109375" style="20" customWidth="1"/>
-    <col min="9735" max="9735" width="7.5546875" style="20" customWidth="1"/>
-    <col min="9736" max="9974" width="8.88671875" style="20"/>
-    <col min="9975" max="9975" width="20.5546875" style="20" customWidth="1"/>
-    <col min="9976" max="9976" width="13.109375" style="20" customWidth="1"/>
-    <col min="9977" max="9977" width="8.88671875" style="20"/>
-    <col min="9978" max="9978" width="14.5546875" style="20" customWidth="1"/>
-    <col min="9979" max="9979" width="14.44140625" style="20" customWidth="1"/>
-    <col min="9980" max="9980" width="8.88671875" style="20" customWidth="1"/>
-    <col min="9981" max="9981" width="19.109375" style="20" customWidth="1"/>
-    <col min="9982" max="9982" width="12.33203125" style="20" customWidth="1"/>
-    <col min="9983" max="9983" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="9984" max="9984" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="9985" max="9985" width="10.33203125" style="20" customWidth="1"/>
-    <col min="9986" max="9986" width="8" style="20" customWidth="1"/>
-    <col min="9987" max="9988" width="14.33203125" style="20" customWidth="1"/>
-    <col min="9989" max="9989" width="6.5546875" style="20" customWidth="1"/>
-    <col min="9990" max="9990" width="10.109375" style="20" customWidth="1"/>
-    <col min="9991" max="9991" width="7.5546875" style="20" customWidth="1"/>
-    <col min="9992" max="10230" width="8.88671875" style="20"/>
-    <col min="10231" max="10231" width="20.5546875" style="20" customWidth="1"/>
-    <col min="10232" max="10232" width="13.109375" style="20" customWidth="1"/>
-    <col min="10233" max="10233" width="8.88671875" style="20"/>
-    <col min="10234" max="10234" width="14.5546875" style="20" customWidth="1"/>
-    <col min="10235" max="10235" width="14.44140625" style="20" customWidth="1"/>
-    <col min="10236" max="10236" width="8.88671875" style="20" customWidth="1"/>
-    <col min="10237" max="10237" width="19.109375" style="20" customWidth="1"/>
-    <col min="10238" max="10238" width="12.33203125" style="20" customWidth="1"/>
-    <col min="10239" max="10239" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="10240" max="10240" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="10241" max="10241" width="10.33203125" style="20" customWidth="1"/>
-    <col min="10242" max="10242" width="8" style="20" customWidth="1"/>
-    <col min="10243" max="10244" width="14.33203125" style="20" customWidth="1"/>
-    <col min="10245" max="10245" width="6.5546875" style="20" customWidth="1"/>
-    <col min="10246" max="10246" width="10.109375" style="20" customWidth="1"/>
-    <col min="10247" max="10247" width="7.5546875" style="20" customWidth="1"/>
-    <col min="10248" max="10486" width="8.88671875" style="20"/>
-    <col min="10487" max="10487" width="20.5546875" style="20" customWidth="1"/>
-    <col min="10488" max="10488" width="13.109375" style="20" customWidth="1"/>
-    <col min="10489" max="10489" width="8.88671875" style="20"/>
-    <col min="10490" max="10490" width="14.5546875" style="20" customWidth="1"/>
-    <col min="10491" max="10491" width="14.44140625" style="20" customWidth="1"/>
-    <col min="10492" max="10492" width="8.88671875" style="20" customWidth="1"/>
-    <col min="10493" max="10493" width="19.109375" style="20" customWidth="1"/>
-    <col min="10494" max="10494" width="12.33203125" style="20" customWidth="1"/>
-    <col min="10495" max="10495" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="10496" max="10496" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="10497" max="10497" width="10.33203125" style="20" customWidth="1"/>
-    <col min="10498" max="10498" width="8" style="20" customWidth="1"/>
-    <col min="10499" max="10500" width="14.33203125" style="20" customWidth="1"/>
-    <col min="10501" max="10501" width="6.5546875" style="20" customWidth="1"/>
-    <col min="10502" max="10502" width="10.109375" style="20" customWidth="1"/>
-    <col min="10503" max="10503" width="7.5546875" style="20" customWidth="1"/>
-    <col min="10504" max="10742" width="8.88671875" style="20"/>
-    <col min="10743" max="10743" width="20.5546875" style="20" customWidth="1"/>
-    <col min="10744" max="10744" width="13.109375" style="20" customWidth="1"/>
-    <col min="10745" max="10745" width="8.88671875" style="20"/>
-    <col min="10746" max="10746" width="14.5546875" style="20" customWidth="1"/>
-    <col min="10747" max="10747" width="14.44140625" style="20" customWidth="1"/>
-    <col min="10748" max="10748" width="8.88671875" style="20" customWidth="1"/>
-    <col min="10749" max="10749" width="19.109375" style="20" customWidth="1"/>
-    <col min="10750" max="10750" width="12.33203125" style="20" customWidth="1"/>
-    <col min="10751" max="10751" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="10752" max="10752" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="10753" max="10753" width="10.33203125" style="20" customWidth="1"/>
-    <col min="10754" max="10754" width="8" style="20" customWidth="1"/>
-    <col min="10755" max="10756" width="14.33203125" style="20" customWidth="1"/>
-    <col min="10757" max="10757" width="6.5546875" style="20" customWidth="1"/>
-    <col min="10758" max="10758" width="10.109375" style="20" customWidth="1"/>
-    <col min="10759" max="10759" width="7.5546875" style="20" customWidth="1"/>
-    <col min="10760" max="10998" width="8.88671875" style="20"/>
-    <col min="10999" max="10999" width="20.5546875" style="20" customWidth="1"/>
-    <col min="11000" max="11000" width="13.109375" style="20" customWidth="1"/>
-    <col min="11001" max="11001" width="8.88671875" style="20"/>
-    <col min="11002" max="11002" width="14.5546875" style="20" customWidth="1"/>
-    <col min="11003" max="11003" width="14.44140625" style="20" customWidth="1"/>
-    <col min="11004" max="11004" width="8.88671875" style="20" customWidth="1"/>
-    <col min="11005" max="11005" width="19.109375" style="20" customWidth="1"/>
-    <col min="11006" max="11006" width="12.33203125" style="20" customWidth="1"/>
-    <col min="11007" max="11007" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="11008" max="11008" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="11009" max="11009" width="10.33203125" style="20" customWidth="1"/>
-    <col min="11010" max="11010" width="8" style="20" customWidth="1"/>
-    <col min="11011" max="11012" width="14.33203125" style="20" customWidth="1"/>
-    <col min="11013" max="11013" width="6.5546875" style="20" customWidth="1"/>
-    <col min="11014" max="11014" width="10.109375" style="20" customWidth="1"/>
-    <col min="11015" max="11015" width="7.5546875" style="20" customWidth="1"/>
-    <col min="11016" max="11254" width="8.88671875" style="20"/>
-    <col min="11255" max="11255" width="20.5546875" style="20" customWidth="1"/>
-    <col min="11256" max="11256" width="13.109375" style="20" customWidth="1"/>
-    <col min="11257" max="11257" width="8.88671875" style="20"/>
-    <col min="11258" max="11258" width="14.5546875" style="20" customWidth="1"/>
-    <col min="11259" max="11259" width="14.44140625" style="20" customWidth="1"/>
-    <col min="11260" max="11260" width="8.88671875" style="20" customWidth="1"/>
-    <col min="11261" max="11261" width="19.109375" style="20" customWidth="1"/>
-    <col min="11262" max="11262" width="12.33203125" style="20" customWidth="1"/>
-    <col min="11263" max="11263" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="11264" max="11264" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="11265" max="11265" width="10.33203125" style="20" customWidth="1"/>
-    <col min="11266" max="11266" width="8" style="20" customWidth="1"/>
-    <col min="11267" max="11268" width="14.33203125" style="20" customWidth="1"/>
-    <col min="11269" max="11269" width="6.5546875" style="20" customWidth="1"/>
-    <col min="11270" max="11270" width="10.109375" style="20" customWidth="1"/>
-    <col min="11271" max="11271" width="7.5546875" style="20" customWidth="1"/>
-    <col min="11272" max="11510" width="8.88671875" style="20"/>
-    <col min="11511" max="11511" width="20.5546875" style="20" customWidth="1"/>
-    <col min="11512" max="11512" width="13.109375" style="20" customWidth="1"/>
-    <col min="11513" max="11513" width="8.88671875" style="20"/>
-    <col min="11514" max="11514" width="14.5546875" style="20" customWidth="1"/>
-    <col min="11515" max="11515" width="14.44140625" style="20" customWidth="1"/>
-    <col min="11516" max="11516" width="8.88671875" style="20" customWidth="1"/>
-    <col min="11517" max="11517" width="19.109375" style="20" customWidth="1"/>
-    <col min="11518" max="11518" width="12.33203125" style="20" customWidth="1"/>
-    <col min="11519" max="11519" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="11520" max="11520" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="11521" max="11521" width="10.33203125" style="20" customWidth="1"/>
-    <col min="11522" max="11522" width="8" style="20" customWidth="1"/>
-    <col min="11523" max="11524" width="14.33203125" style="20" customWidth="1"/>
-    <col min="11525" max="11525" width="6.5546875" style="20" customWidth="1"/>
-    <col min="11526" max="11526" width="10.109375" style="20" customWidth="1"/>
-    <col min="11527" max="11527" width="7.5546875" style="20" customWidth="1"/>
-    <col min="11528" max="11766" width="8.88671875" style="20"/>
-    <col min="11767" max="11767" width="20.5546875" style="20" customWidth="1"/>
-    <col min="11768" max="11768" width="13.109375" style="20" customWidth="1"/>
-    <col min="11769" max="11769" width="8.88671875" style="20"/>
-    <col min="11770" max="11770" width="14.5546875" style="20" customWidth="1"/>
-    <col min="11771" max="11771" width="14.44140625" style="20" customWidth="1"/>
-    <col min="11772" max="11772" width="8.88671875" style="20" customWidth="1"/>
-    <col min="11773" max="11773" width="19.109375" style="20" customWidth="1"/>
-    <col min="11774" max="11774" width="12.33203125" style="20" customWidth="1"/>
-    <col min="11775" max="11775" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="11776" max="11776" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="11777" max="11777" width="10.33203125" style="20" customWidth="1"/>
-    <col min="11778" max="11778" width="8" style="20" customWidth="1"/>
-    <col min="11779" max="11780" width="14.33203125" style="20" customWidth="1"/>
-    <col min="11781" max="11781" width="6.5546875" style="20" customWidth="1"/>
-    <col min="11782" max="11782" width="10.109375" style="20" customWidth="1"/>
-    <col min="11783" max="11783" width="7.5546875" style="20" customWidth="1"/>
-    <col min="11784" max="12022" width="8.88671875" style="20"/>
-    <col min="12023" max="12023" width="20.5546875" style="20" customWidth="1"/>
-    <col min="12024" max="12024" width="13.109375" style="20" customWidth="1"/>
-    <col min="12025" max="12025" width="8.88671875" style="20"/>
-    <col min="12026" max="12026" width="14.5546875" style="20" customWidth="1"/>
-    <col min="12027" max="12027" width="14.44140625" style="20" customWidth="1"/>
-    <col min="12028" max="12028" width="8.88671875" style="20" customWidth="1"/>
-    <col min="12029" max="12029" width="19.109375" style="20" customWidth="1"/>
-    <col min="12030" max="12030" width="12.33203125" style="20" customWidth="1"/>
-    <col min="12031" max="12031" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="12032" max="12032" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="12033" max="12033" width="10.33203125" style="20" customWidth="1"/>
-    <col min="12034" max="12034" width="8" style="20" customWidth="1"/>
-    <col min="12035" max="12036" width="14.33203125" style="20" customWidth="1"/>
-    <col min="12037" max="12037" width="6.5546875" style="20" customWidth="1"/>
-    <col min="12038" max="12038" width="10.109375" style="20" customWidth="1"/>
-    <col min="12039" max="12039" width="7.5546875" style="20" customWidth="1"/>
-    <col min="12040" max="12278" width="8.88671875" style="20"/>
-    <col min="12279" max="12279" width="20.5546875" style="20" customWidth="1"/>
-    <col min="12280" max="12280" width="13.109375" style="20" customWidth="1"/>
-    <col min="12281" max="12281" width="8.88671875" style="20"/>
-    <col min="12282" max="12282" width="14.5546875" style="20" customWidth="1"/>
-    <col min="12283" max="12283" width="14.44140625" style="20" customWidth="1"/>
-    <col min="12284" max="12284" width="8.88671875" style="20" customWidth="1"/>
-    <col min="12285" max="12285" width="19.109375" style="20" customWidth="1"/>
-    <col min="12286" max="12286" width="12.33203125" style="20" customWidth="1"/>
-    <col min="12287" max="12287" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="12288" max="12288" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="12289" max="12289" width="10.33203125" style="20" customWidth="1"/>
-    <col min="12290" max="12290" width="8" style="20" customWidth="1"/>
-    <col min="12291" max="12292" width="14.33203125" style="20" customWidth="1"/>
-    <col min="12293" max="12293" width="6.5546875" style="20" customWidth="1"/>
-    <col min="12294" max="12294" width="10.109375" style="20" customWidth="1"/>
-    <col min="12295" max="12295" width="7.5546875" style="20" customWidth="1"/>
-    <col min="12296" max="12534" width="8.88671875" style="20"/>
-    <col min="12535" max="12535" width="20.5546875" style="20" customWidth="1"/>
-    <col min="12536" max="12536" width="13.109375" style="20" customWidth="1"/>
-    <col min="12537" max="12537" width="8.88671875" style="20"/>
-    <col min="12538" max="12538" width="14.5546875" style="20" customWidth="1"/>
-    <col min="12539" max="12539" width="14.44140625" style="20" customWidth="1"/>
-    <col min="12540" max="12540" width="8.88671875" style="20" customWidth="1"/>
-    <col min="12541" max="12541" width="19.109375" style="20" customWidth="1"/>
-    <col min="12542" max="12542" width="12.33203125" style="20" customWidth="1"/>
-    <col min="12543" max="12543" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="12544" max="12544" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="12545" max="12545" width="10.33203125" style="20" customWidth="1"/>
-    <col min="12546" max="12546" width="8" style="20" customWidth="1"/>
-    <col min="12547" max="12548" width="14.33203125" style="20" customWidth="1"/>
-    <col min="12549" max="12549" width="6.5546875" style="20" customWidth="1"/>
-    <col min="12550" max="12550" width="10.109375" style="20" customWidth="1"/>
-    <col min="12551" max="12551" width="7.5546875" style="20" customWidth="1"/>
-    <col min="12552" max="12790" width="8.88671875" style="20"/>
-    <col min="12791" max="12791" width="20.5546875" style="20" customWidth="1"/>
-    <col min="12792" max="12792" width="13.109375" style="20" customWidth="1"/>
-    <col min="12793" max="12793" width="8.88671875" style="20"/>
-    <col min="12794" max="12794" width="14.5546875" style="20" customWidth="1"/>
-    <col min="12795" max="12795" width="14.44140625" style="20" customWidth="1"/>
-    <col min="12796" max="12796" width="8.88671875" style="20" customWidth="1"/>
-    <col min="12797" max="12797" width="19.109375" style="20" customWidth="1"/>
-    <col min="12798" max="12798" width="12.33203125" style="20" customWidth="1"/>
-    <col min="12799" max="12799" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="12800" max="12800" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="12801" max="12801" width="10.33203125" style="20" customWidth="1"/>
-    <col min="12802" max="12802" width="8" style="20" customWidth="1"/>
-    <col min="12803" max="12804" width="14.33203125" style="20" customWidth="1"/>
-    <col min="12805" max="12805" width="6.5546875" style="20" customWidth="1"/>
-    <col min="12806" max="12806" width="10.109375" style="20" customWidth="1"/>
-    <col min="12807" max="12807" width="7.5546875" style="20" customWidth="1"/>
-    <col min="12808" max="13046" width="8.88671875" style="20"/>
-    <col min="13047" max="13047" width="20.5546875" style="20" customWidth="1"/>
-    <col min="13048" max="13048" width="13.109375" style="20" customWidth="1"/>
-    <col min="13049" max="13049" width="8.88671875" style="20"/>
-    <col min="13050" max="13050" width="14.5546875" style="20" customWidth="1"/>
-    <col min="13051" max="13051" width="14.44140625" style="20" customWidth="1"/>
-    <col min="13052" max="13052" width="8.88671875" style="20" customWidth="1"/>
-    <col min="13053" max="13053" width="19.109375" style="20" customWidth="1"/>
-    <col min="13054" max="13054" width="12.33203125" style="20" customWidth="1"/>
-    <col min="13055" max="13055" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="13056" max="13056" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="13057" max="13057" width="10.33203125" style="20" customWidth="1"/>
-    <col min="13058" max="13058" width="8" style="20" customWidth="1"/>
-    <col min="13059" max="13060" width="14.33203125" style="20" customWidth="1"/>
-    <col min="13061" max="13061" width="6.5546875" style="20" customWidth="1"/>
-    <col min="13062" max="13062" width="10.109375" style="20" customWidth="1"/>
-    <col min="13063" max="13063" width="7.5546875" style="20" customWidth="1"/>
-    <col min="13064" max="13302" width="8.88671875" style="20"/>
-    <col min="13303" max="13303" width="20.5546875" style="20" customWidth="1"/>
-    <col min="13304" max="13304" width="13.109375" style="20" customWidth="1"/>
-    <col min="13305" max="13305" width="8.88671875" style="20"/>
-    <col min="13306" max="13306" width="14.5546875" style="20" customWidth="1"/>
-    <col min="13307" max="13307" width="14.44140625" style="20" customWidth="1"/>
-    <col min="13308" max="13308" width="8.88671875" style="20" customWidth="1"/>
-    <col min="13309" max="13309" width="19.109375" style="20" customWidth="1"/>
-    <col min="13310" max="13310" width="12.33203125" style="20" customWidth="1"/>
-    <col min="13311" max="13311" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="13312" max="13312" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="13313" max="13313" width="10.33203125" style="20" customWidth="1"/>
-    <col min="13314" max="13314" width="8" style="20" customWidth="1"/>
-    <col min="13315" max="13316" width="14.33203125" style="20" customWidth="1"/>
-    <col min="13317" max="13317" width="6.5546875" style="20" customWidth="1"/>
-    <col min="13318" max="13318" width="10.109375" style="20" customWidth="1"/>
-    <col min="13319" max="13319" width="7.5546875" style="20" customWidth="1"/>
-    <col min="13320" max="13558" width="8.88671875" style="20"/>
-    <col min="13559" max="13559" width="20.5546875" style="20" customWidth="1"/>
-    <col min="13560" max="13560" width="13.109375" style="20" customWidth="1"/>
-    <col min="13561" max="13561" width="8.88671875" style="20"/>
-    <col min="13562" max="13562" width="14.5546875" style="20" customWidth="1"/>
-    <col min="13563" max="13563" width="14.44140625" style="20" customWidth="1"/>
-    <col min="13564" max="13564" width="8.88671875" style="20" customWidth="1"/>
-    <col min="13565" max="13565" width="19.109375" style="20" customWidth="1"/>
-    <col min="13566" max="13566" width="12.33203125" style="20" customWidth="1"/>
-    <col min="13567" max="13567" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="13568" max="13568" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="13569" max="13569" width="10.33203125" style="20" customWidth="1"/>
-    <col min="13570" max="13570" width="8" style="20" customWidth="1"/>
-    <col min="13571" max="13572" width="14.33203125" style="20" customWidth="1"/>
-    <col min="13573" max="13573" width="6.5546875" style="20" customWidth="1"/>
-    <col min="13574" max="13574" width="10.109375" style="20" customWidth="1"/>
-    <col min="13575" max="13575" width="7.5546875" style="20" customWidth="1"/>
-    <col min="13576" max="13814" width="8.88671875" style="20"/>
-    <col min="13815" max="13815" width="20.5546875" style="20" customWidth="1"/>
-    <col min="13816" max="13816" width="13.109375" style="20" customWidth="1"/>
-    <col min="13817" max="13817" width="8.88671875" style="20"/>
-    <col min="13818" max="13818" width="14.5546875" style="20" customWidth="1"/>
-    <col min="13819" max="13819" width="14.44140625" style="20" customWidth="1"/>
-    <col min="13820" max="13820" width="8.88671875" style="20" customWidth="1"/>
-    <col min="13821" max="13821" width="19.109375" style="20" customWidth="1"/>
-    <col min="13822" max="13822" width="12.33203125" style="20" customWidth="1"/>
-    <col min="13823" max="13823" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="13824" max="13824" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="13825" max="13825" width="10.33203125" style="20" customWidth="1"/>
-    <col min="13826" max="13826" width="8" style="20" customWidth="1"/>
-    <col min="13827" max="13828" width="14.33203125" style="20" customWidth="1"/>
-    <col min="13829" max="13829" width="6.5546875" style="20" customWidth="1"/>
-    <col min="13830" max="13830" width="10.109375" style="20" customWidth="1"/>
-    <col min="13831" max="13831" width="7.5546875" style="20" customWidth="1"/>
-    <col min="13832" max="14070" width="8.88671875" style="20"/>
-    <col min="14071" max="14071" width="20.5546875" style="20" customWidth="1"/>
-    <col min="14072" max="14072" width="13.109375" style="20" customWidth="1"/>
-    <col min="14073" max="14073" width="8.88671875" style="20"/>
-    <col min="14074" max="14074" width="14.5546875" style="20" customWidth="1"/>
-    <col min="14075" max="14075" width="14.44140625" style="20" customWidth="1"/>
-    <col min="14076" max="14076" width="8.88671875" style="20" customWidth="1"/>
-    <col min="14077" max="14077" width="19.109375" style="20" customWidth="1"/>
-    <col min="14078" max="14078" width="12.33203125" style="20" customWidth="1"/>
-    <col min="14079" max="14079" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="14080" max="14080" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="14081" max="14081" width="10.33203125" style="20" customWidth="1"/>
-    <col min="14082" max="14082" width="8" style="20" customWidth="1"/>
-    <col min="14083" max="14084" width="14.33203125" style="20" customWidth="1"/>
-    <col min="14085" max="14085" width="6.5546875" style="20" customWidth="1"/>
-    <col min="14086" max="14086" width="10.109375" style="20" customWidth="1"/>
-    <col min="14087" max="14087" width="7.5546875" style="20" customWidth="1"/>
-    <col min="14088" max="14326" width="8.88671875" style="20"/>
-    <col min="14327" max="14327" width="20.5546875" style="20" customWidth="1"/>
-    <col min="14328" max="14328" width="13.109375" style="20" customWidth="1"/>
-    <col min="14329" max="14329" width="8.88671875" style="20"/>
-    <col min="14330" max="14330" width="14.5546875" style="20" customWidth="1"/>
-    <col min="14331" max="14331" width="14.44140625" style="20" customWidth="1"/>
-    <col min="14332" max="14332" width="8.88671875" style="20" customWidth="1"/>
-    <col min="14333" max="14333" width="19.109375" style="20" customWidth="1"/>
-    <col min="14334" max="14334" width="12.33203125" style="20" customWidth="1"/>
-    <col min="14335" max="14335" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="14336" max="14336" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="14337" max="14337" width="10.33203125" style="20" customWidth="1"/>
-    <col min="14338" max="14338" width="8" style="20" customWidth="1"/>
-    <col min="14339" max="14340" width="14.33203125" style="20" customWidth="1"/>
-    <col min="14341" max="14341" width="6.5546875" style="20" customWidth="1"/>
-    <col min="14342" max="14342" width="10.109375" style="20" customWidth="1"/>
-    <col min="14343" max="14343" width="7.5546875" style="20" customWidth="1"/>
-    <col min="14344" max="14582" width="8.88671875" style="20"/>
-    <col min="14583" max="14583" width="20.5546875" style="20" customWidth="1"/>
-    <col min="14584" max="14584" width="13.109375" style="20" customWidth="1"/>
-    <col min="14585" max="14585" width="8.88671875" style="20"/>
-    <col min="14586" max="14586" width="14.5546875" style="20" customWidth="1"/>
-    <col min="14587" max="14587" width="14.44140625" style="20" customWidth="1"/>
-    <col min="14588" max="14588" width="8.88671875" style="20" customWidth="1"/>
-    <col min="14589" max="14589" width="19.109375" style="20" customWidth="1"/>
-    <col min="14590" max="14590" width="12.33203125" style="20" customWidth="1"/>
-    <col min="14591" max="14591" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="14592" max="14592" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="14593" max="14593" width="10.33203125" style="20" customWidth="1"/>
-    <col min="14594" max="14594" width="8" style="20" customWidth="1"/>
-    <col min="14595" max="14596" width="14.33203125" style="20" customWidth="1"/>
-    <col min="14597" max="14597" width="6.5546875" style="20" customWidth="1"/>
-    <col min="14598" max="14598" width="10.109375" style="20" customWidth="1"/>
-    <col min="14599" max="14599" width="7.5546875" style="20" customWidth="1"/>
-    <col min="14600" max="14838" width="8.88671875" style="20"/>
-    <col min="14839" max="14839" width="20.5546875" style="20" customWidth="1"/>
-    <col min="14840" max="14840" width="13.109375" style="20" customWidth="1"/>
-    <col min="14841" max="14841" width="8.88671875" style="20"/>
-    <col min="14842" max="14842" width="14.5546875" style="20" customWidth="1"/>
-    <col min="14843" max="14843" width="14.44140625" style="20" customWidth="1"/>
-    <col min="14844" max="14844" width="8.88671875" style="20" customWidth="1"/>
-    <col min="14845" max="14845" width="19.109375" style="20" customWidth="1"/>
-    <col min="14846" max="14846" width="12.33203125" style="20" customWidth="1"/>
-    <col min="14847" max="14847" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="14848" max="14848" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="14849" max="14849" width="10.33203125" style="20" customWidth="1"/>
-    <col min="14850" max="14850" width="8" style="20" customWidth="1"/>
-    <col min="14851" max="14852" width="14.33203125" style="20" customWidth="1"/>
-    <col min="14853" max="14853" width="6.5546875" style="20" customWidth="1"/>
-    <col min="14854" max="14854" width="10.109375" style="20" customWidth="1"/>
-    <col min="14855" max="14855" width="7.5546875" style="20" customWidth="1"/>
-    <col min="14856" max="15094" width="8.88671875" style="20"/>
-    <col min="15095" max="15095" width="20.5546875" style="20" customWidth="1"/>
-    <col min="15096" max="15096" width="13.109375" style="20" customWidth="1"/>
-    <col min="15097" max="15097" width="8.88671875" style="20"/>
-    <col min="15098" max="15098" width="14.5546875" style="20" customWidth="1"/>
-    <col min="15099" max="15099" width="14.44140625" style="20" customWidth="1"/>
-    <col min="15100" max="15100" width="8.88671875" style="20" customWidth="1"/>
-    <col min="15101" max="15101" width="19.109375" style="20" customWidth="1"/>
-    <col min="15102" max="15102" width="12.33203125" style="20" customWidth="1"/>
-    <col min="15103" max="15103" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="15104" max="15104" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="15105" max="15105" width="10.33203125" style="20" customWidth="1"/>
-    <col min="15106" max="15106" width="8" style="20" customWidth="1"/>
-    <col min="15107" max="15108" width="14.33203125" style="20" customWidth="1"/>
-    <col min="15109" max="15109" width="6.5546875" style="20" customWidth="1"/>
-    <col min="15110" max="15110" width="10.109375" style="20" customWidth="1"/>
-    <col min="15111" max="15111" width="7.5546875" style="20" customWidth="1"/>
-    <col min="15112" max="15350" width="8.88671875" style="20"/>
-    <col min="15351" max="15351" width="20.5546875" style="20" customWidth="1"/>
-    <col min="15352" max="15352" width="13.109375" style="20" customWidth="1"/>
-    <col min="15353" max="15353" width="8.88671875" style="20"/>
-    <col min="15354" max="15354" width="14.5546875" style="20" customWidth="1"/>
-    <col min="15355" max="15355" width="14.44140625" style="20" customWidth="1"/>
-    <col min="15356" max="15356" width="8.88671875" style="20" customWidth="1"/>
-    <col min="15357" max="15357" width="19.109375" style="20" customWidth="1"/>
-    <col min="15358" max="15358" width="12.33203125" style="20" customWidth="1"/>
-    <col min="15359" max="15359" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="15360" max="15360" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="15361" max="15361" width="10.33203125" style="20" customWidth="1"/>
-    <col min="15362" max="15362" width="8" style="20" customWidth="1"/>
-    <col min="15363" max="15364" width="14.33203125" style="20" customWidth="1"/>
-    <col min="15365" max="15365" width="6.5546875" style="20" customWidth="1"/>
-    <col min="15366" max="15366" width="10.109375" style="20" customWidth="1"/>
-    <col min="15367" max="15367" width="7.5546875" style="20" customWidth="1"/>
-    <col min="15368" max="15606" width="8.88671875" style="20"/>
-    <col min="15607" max="15607" width="20.5546875" style="20" customWidth="1"/>
-    <col min="15608" max="15608" width="13.109375" style="20" customWidth="1"/>
-    <col min="15609" max="15609" width="8.88671875" style="20"/>
-    <col min="15610" max="15610" width="14.5546875" style="20" customWidth="1"/>
-    <col min="15611" max="15611" width="14.44140625" style="20" customWidth="1"/>
-    <col min="15612" max="15612" width="8.88671875" style="20" customWidth="1"/>
-    <col min="15613" max="15613" width="19.109375" style="20" customWidth="1"/>
-    <col min="15614" max="15614" width="12.33203125" style="20" customWidth="1"/>
-    <col min="15615" max="15615" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="15616" max="15616" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="15617" max="15617" width="10.33203125" style="20" customWidth="1"/>
-    <col min="15618" max="15618" width="8" style="20" customWidth="1"/>
-    <col min="15619" max="15620" width="14.33203125" style="20" customWidth="1"/>
-    <col min="15621" max="15621" width="6.5546875" style="20" customWidth="1"/>
-    <col min="15622" max="15622" width="10.109375" style="20" customWidth="1"/>
-    <col min="15623" max="15623" width="7.5546875" style="20" customWidth="1"/>
-    <col min="15624" max="15862" width="8.88671875" style="20"/>
-    <col min="15863" max="15863" width="20.5546875" style="20" customWidth="1"/>
-    <col min="15864" max="15864" width="13.109375" style="20" customWidth="1"/>
-    <col min="15865" max="15865" width="8.88671875" style="20"/>
-    <col min="15866" max="15866" width="14.5546875" style="20" customWidth="1"/>
-    <col min="15867" max="15867" width="14.44140625" style="20" customWidth="1"/>
-    <col min="15868" max="15868" width="8.88671875" style="20" customWidth="1"/>
-    <col min="15869" max="15869" width="19.109375" style="20" customWidth="1"/>
-    <col min="15870" max="15870" width="12.33203125" style="20" customWidth="1"/>
-    <col min="15871" max="15871" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="15872" max="15872" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="15873" max="15873" width="10.33203125" style="20" customWidth="1"/>
-    <col min="15874" max="15874" width="8" style="20" customWidth="1"/>
-    <col min="15875" max="15876" width="14.33203125" style="20" customWidth="1"/>
-    <col min="15877" max="15877" width="6.5546875" style="20" customWidth="1"/>
-    <col min="15878" max="15878" width="10.109375" style="20" customWidth="1"/>
-    <col min="15879" max="15879" width="7.5546875" style="20" customWidth="1"/>
-    <col min="15880" max="16118" width="8.88671875" style="20"/>
-    <col min="16119" max="16119" width="20.5546875" style="20" customWidth="1"/>
-    <col min="16120" max="16120" width="13.109375" style="20" customWidth="1"/>
-    <col min="16121" max="16121" width="8.88671875" style="20"/>
-    <col min="16122" max="16122" width="14.5546875" style="20" customWidth="1"/>
-    <col min="16123" max="16123" width="14.44140625" style="20" customWidth="1"/>
-    <col min="16124" max="16124" width="8.88671875" style="20" customWidth="1"/>
-    <col min="16125" max="16125" width="19.109375" style="20" customWidth="1"/>
-    <col min="16126" max="16126" width="12.33203125" style="20" customWidth="1"/>
-    <col min="16127" max="16127" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="16128" max="16128" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="16129" max="16129" width="10.33203125" style="20" customWidth="1"/>
-    <col min="16130" max="16130" width="8" style="20" customWidth="1"/>
-    <col min="16131" max="16132" width="14.33203125" style="20" customWidth="1"/>
-    <col min="16133" max="16133" width="6.5546875" style="20" customWidth="1"/>
-    <col min="16134" max="16134" width="10.109375" style="20" customWidth="1"/>
-    <col min="16135" max="16135" width="7.5546875" style="20" customWidth="1"/>
-    <col min="16136" max="16384" width="8.88671875" style="20"/>
+    <col min="12" max="245" width="8.88671875" style="20"/>
+    <col min="246" max="246" width="20.5546875" style="20" customWidth="1"/>
+    <col min="247" max="247" width="13.109375" style="20" customWidth="1"/>
+    <col min="248" max="248" width="8.88671875" style="20"/>
+    <col min="249" max="249" width="14.5546875" style="20" customWidth="1"/>
+    <col min="250" max="250" width="14.44140625" style="20" customWidth="1"/>
+    <col min="251" max="251" width="8.88671875" style="20" customWidth="1"/>
+    <col min="252" max="252" width="19.109375" style="20" customWidth="1"/>
+    <col min="253" max="253" width="12.33203125" style="20" customWidth="1"/>
+    <col min="254" max="254" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="255" max="255" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="256" max="256" width="10.33203125" style="20" customWidth="1"/>
+    <col min="257" max="257" width="8" style="20" customWidth="1"/>
+    <col min="258" max="259" width="14.33203125" style="20" customWidth="1"/>
+    <col min="260" max="260" width="6.5546875" style="20" customWidth="1"/>
+    <col min="261" max="261" width="10.109375" style="20" customWidth="1"/>
+    <col min="262" max="262" width="7.5546875" style="20" customWidth="1"/>
+    <col min="263" max="501" width="8.88671875" style="20"/>
+    <col min="502" max="502" width="20.5546875" style="20" customWidth="1"/>
+    <col min="503" max="503" width="13.109375" style="20" customWidth="1"/>
+    <col min="504" max="504" width="8.88671875" style="20"/>
+    <col min="505" max="505" width="14.5546875" style="20" customWidth="1"/>
+    <col min="506" max="506" width="14.44140625" style="20" customWidth="1"/>
+    <col min="507" max="507" width="8.88671875" style="20" customWidth="1"/>
+    <col min="508" max="508" width="19.109375" style="20" customWidth="1"/>
+    <col min="509" max="509" width="12.33203125" style="20" customWidth="1"/>
+    <col min="510" max="510" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="511" max="511" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="512" max="512" width="10.33203125" style="20" customWidth="1"/>
+    <col min="513" max="513" width="8" style="20" customWidth="1"/>
+    <col min="514" max="515" width="14.33203125" style="20" customWidth="1"/>
+    <col min="516" max="516" width="6.5546875" style="20" customWidth="1"/>
+    <col min="517" max="517" width="10.109375" style="20" customWidth="1"/>
+    <col min="518" max="518" width="7.5546875" style="20" customWidth="1"/>
+    <col min="519" max="757" width="8.88671875" style="20"/>
+    <col min="758" max="758" width="20.5546875" style="20" customWidth="1"/>
+    <col min="759" max="759" width="13.109375" style="20" customWidth="1"/>
+    <col min="760" max="760" width="8.88671875" style="20"/>
+    <col min="761" max="761" width="14.5546875" style="20" customWidth="1"/>
+    <col min="762" max="762" width="14.44140625" style="20" customWidth="1"/>
+    <col min="763" max="763" width="8.88671875" style="20" customWidth="1"/>
+    <col min="764" max="764" width="19.109375" style="20" customWidth="1"/>
+    <col min="765" max="765" width="12.33203125" style="20" customWidth="1"/>
+    <col min="766" max="766" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="767" max="767" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="768" max="768" width="10.33203125" style="20" customWidth="1"/>
+    <col min="769" max="769" width="8" style="20" customWidth="1"/>
+    <col min="770" max="771" width="14.33203125" style="20" customWidth="1"/>
+    <col min="772" max="772" width="6.5546875" style="20" customWidth="1"/>
+    <col min="773" max="773" width="10.109375" style="20" customWidth="1"/>
+    <col min="774" max="774" width="7.5546875" style="20" customWidth="1"/>
+    <col min="775" max="1013" width="8.88671875" style="20"/>
+    <col min="1014" max="1014" width="20.5546875" style="20" customWidth="1"/>
+    <col min="1015" max="1015" width="13.109375" style="20" customWidth="1"/>
+    <col min="1016" max="1016" width="8.88671875" style="20"/>
+    <col min="1017" max="1017" width="14.5546875" style="20" customWidth="1"/>
+    <col min="1018" max="1018" width="14.44140625" style="20" customWidth="1"/>
+    <col min="1019" max="1019" width="8.88671875" style="20" customWidth="1"/>
+    <col min="1020" max="1020" width="19.109375" style="20" customWidth="1"/>
+    <col min="1021" max="1021" width="12.33203125" style="20" customWidth="1"/>
+    <col min="1022" max="1022" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="1023" max="1023" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="1024" max="1024" width="10.33203125" style="20" customWidth="1"/>
+    <col min="1025" max="1025" width="8" style="20" customWidth="1"/>
+    <col min="1026" max="1027" width="14.33203125" style="20" customWidth="1"/>
+    <col min="1028" max="1028" width="6.5546875" style="20" customWidth="1"/>
+    <col min="1029" max="1029" width="10.109375" style="20" customWidth="1"/>
+    <col min="1030" max="1030" width="7.5546875" style="20" customWidth="1"/>
+    <col min="1031" max="1269" width="8.88671875" style="20"/>
+    <col min="1270" max="1270" width="20.5546875" style="20" customWidth="1"/>
+    <col min="1271" max="1271" width="13.109375" style="20" customWidth="1"/>
+    <col min="1272" max="1272" width="8.88671875" style="20"/>
+    <col min="1273" max="1273" width="14.5546875" style="20" customWidth="1"/>
+    <col min="1274" max="1274" width="14.44140625" style="20" customWidth="1"/>
+    <col min="1275" max="1275" width="8.88671875" style="20" customWidth="1"/>
+    <col min="1276" max="1276" width="19.109375" style="20" customWidth="1"/>
+    <col min="1277" max="1277" width="12.33203125" style="20" customWidth="1"/>
+    <col min="1278" max="1278" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="1279" max="1279" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="1280" max="1280" width="10.33203125" style="20" customWidth="1"/>
+    <col min="1281" max="1281" width="8" style="20" customWidth="1"/>
+    <col min="1282" max="1283" width="14.33203125" style="20" customWidth="1"/>
+    <col min="1284" max="1284" width="6.5546875" style="20" customWidth="1"/>
+    <col min="1285" max="1285" width="10.109375" style="20" customWidth="1"/>
+    <col min="1286" max="1286" width="7.5546875" style="20" customWidth="1"/>
+    <col min="1287" max="1525" width="8.88671875" style="20"/>
+    <col min="1526" max="1526" width="20.5546875" style="20" customWidth="1"/>
+    <col min="1527" max="1527" width="13.109375" style="20" customWidth="1"/>
+    <col min="1528" max="1528" width="8.88671875" style="20"/>
+    <col min="1529" max="1529" width="14.5546875" style="20" customWidth="1"/>
+    <col min="1530" max="1530" width="14.44140625" style="20" customWidth="1"/>
+    <col min="1531" max="1531" width="8.88671875" style="20" customWidth="1"/>
+    <col min="1532" max="1532" width="19.109375" style="20" customWidth="1"/>
+    <col min="1533" max="1533" width="12.33203125" style="20" customWidth="1"/>
+    <col min="1534" max="1534" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="1535" max="1535" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="1536" max="1536" width="10.33203125" style="20" customWidth="1"/>
+    <col min="1537" max="1537" width="8" style="20" customWidth="1"/>
+    <col min="1538" max="1539" width="14.33203125" style="20" customWidth="1"/>
+    <col min="1540" max="1540" width="6.5546875" style="20" customWidth="1"/>
+    <col min="1541" max="1541" width="10.109375" style="20" customWidth="1"/>
+    <col min="1542" max="1542" width="7.5546875" style="20" customWidth="1"/>
+    <col min="1543" max="1781" width="8.88671875" style="20"/>
+    <col min="1782" max="1782" width="20.5546875" style="20" customWidth="1"/>
+    <col min="1783" max="1783" width="13.109375" style="20" customWidth="1"/>
+    <col min="1784" max="1784" width="8.88671875" style="20"/>
+    <col min="1785" max="1785" width="14.5546875" style="20" customWidth="1"/>
+    <col min="1786" max="1786" width="14.44140625" style="20" customWidth="1"/>
+    <col min="1787" max="1787" width="8.88671875" style="20" customWidth="1"/>
+    <col min="1788" max="1788" width="19.109375" style="20" customWidth="1"/>
+    <col min="1789" max="1789" width="12.33203125" style="20" customWidth="1"/>
+    <col min="1790" max="1790" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="1791" max="1791" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="1792" max="1792" width="10.33203125" style="20" customWidth="1"/>
+    <col min="1793" max="1793" width="8" style="20" customWidth="1"/>
+    <col min="1794" max="1795" width="14.33203125" style="20" customWidth="1"/>
+    <col min="1796" max="1796" width="6.5546875" style="20" customWidth="1"/>
+    <col min="1797" max="1797" width="10.109375" style="20" customWidth="1"/>
+    <col min="1798" max="1798" width="7.5546875" style="20" customWidth="1"/>
+    <col min="1799" max="2037" width="8.88671875" style="20"/>
+    <col min="2038" max="2038" width="20.5546875" style="20" customWidth="1"/>
+    <col min="2039" max="2039" width="13.109375" style="20" customWidth="1"/>
+    <col min="2040" max="2040" width="8.88671875" style="20"/>
+    <col min="2041" max="2041" width="14.5546875" style="20" customWidth="1"/>
+    <col min="2042" max="2042" width="14.44140625" style="20" customWidth="1"/>
+    <col min="2043" max="2043" width="8.88671875" style="20" customWidth="1"/>
+    <col min="2044" max="2044" width="19.109375" style="20" customWidth="1"/>
+    <col min="2045" max="2045" width="12.33203125" style="20" customWidth="1"/>
+    <col min="2046" max="2046" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="2047" max="2047" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2048" max="2048" width="10.33203125" style="20" customWidth="1"/>
+    <col min="2049" max="2049" width="8" style="20" customWidth="1"/>
+    <col min="2050" max="2051" width="14.33203125" style="20" customWidth="1"/>
+    <col min="2052" max="2052" width="6.5546875" style="20" customWidth="1"/>
+    <col min="2053" max="2053" width="10.109375" style="20" customWidth="1"/>
+    <col min="2054" max="2054" width="7.5546875" style="20" customWidth="1"/>
+    <col min="2055" max="2293" width="8.88671875" style="20"/>
+    <col min="2294" max="2294" width="20.5546875" style="20" customWidth="1"/>
+    <col min="2295" max="2295" width="13.109375" style="20" customWidth="1"/>
+    <col min="2296" max="2296" width="8.88671875" style="20"/>
+    <col min="2297" max="2297" width="14.5546875" style="20" customWidth="1"/>
+    <col min="2298" max="2298" width="14.44140625" style="20" customWidth="1"/>
+    <col min="2299" max="2299" width="8.88671875" style="20" customWidth="1"/>
+    <col min="2300" max="2300" width="19.109375" style="20" customWidth="1"/>
+    <col min="2301" max="2301" width="12.33203125" style="20" customWidth="1"/>
+    <col min="2302" max="2302" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="2303" max="2303" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2304" max="2304" width="10.33203125" style="20" customWidth="1"/>
+    <col min="2305" max="2305" width="8" style="20" customWidth="1"/>
+    <col min="2306" max="2307" width="14.33203125" style="20" customWidth="1"/>
+    <col min="2308" max="2308" width="6.5546875" style="20" customWidth="1"/>
+    <col min="2309" max="2309" width="10.109375" style="20" customWidth="1"/>
+    <col min="2310" max="2310" width="7.5546875" style="20" customWidth="1"/>
+    <col min="2311" max="2549" width="8.88671875" style="20"/>
+    <col min="2550" max="2550" width="20.5546875" style="20" customWidth="1"/>
+    <col min="2551" max="2551" width="13.109375" style="20" customWidth="1"/>
+    <col min="2552" max="2552" width="8.88671875" style="20"/>
+    <col min="2553" max="2553" width="14.5546875" style="20" customWidth="1"/>
+    <col min="2554" max="2554" width="14.44140625" style="20" customWidth="1"/>
+    <col min="2555" max="2555" width="8.88671875" style="20" customWidth="1"/>
+    <col min="2556" max="2556" width="19.109375" style="20" customWidth="1"/>
+    <col min="2557" max="2557" width="12.33203125" style="20" customWidth="1"/>
+    <col min="2558" max="2558" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="2559" max="2559" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2560" max="2560" width="10.33203125" style="20" customWidth="1"/>
+    <col min="2561" max="2561" width="8" style="20" customWidth="1"/>
+    <col min="2562" max="2563" width="14.33203125" style="20" customWidth="1"/>
+    <col min="2564" max="2564" width="6.5546875" style="20" customWidth="1"/>
+    <col min="2565" max="2565" width="10.109375" style="20" customWidth="1"/>
+    <col min="2566" max="2566" width="7.5546875" style="20" customWidth="1"/>
+    <col min="2567" max="2805" width="8.88671875" style="20"/>
+    <col min="2806" max="2806" width="20.5546875" style="20" customWidth="1"/>
+    <col min="2807" max="2807" width="13.109375" style="20" customWidth="1"/>
+    <col min="2808" max="2808" width="8.88671875" style="20"/>
+    <col min="2809" max="2809" width="14.5546875" style="20" customWidth="1"/>
+    <col min="2810" max="2810" width="14.44140625" style="20" customWidth="1"/>
+    <col min="2811" max="2811" width="8.88671875" style="20" customWidth="1"/>
+    <col min="2812" max="2812" width="19.109375" style="20" customWidth="1"/>
+    <col min="2813" max="2813" width="12.33203125" style="20" customWidth="1"/>
+    <col min="2814" max="2814" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="2815" max="2815" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2816" max="2816" width="10.33203125" style="20" customWidth="1"/>
+    <col min="2817" max="2817" width="8" style="20" customWidth="1"/>
+    <col min="2818" max="2819" width="14.33203125" style="20" customWidth="1"/>
+    <col min="2820" max="2820" width="6.5546875" style="20" customWidth="1"/>
+    <col min="2821" max="2821" width="10.109375" style="20" customWidth="1"/>
+    <col min="2822" max="2822" width="7.5546875" style="20" customWidth="1"/>
+    <col min="2823" max="3061" width="8.88671875" style="20"/>
+    <col min="3062" max="3062" width="20.5546875" style="20" customWidth="1"/>
+    <col min="3063" max="3063" width="13.109375" style="20" customWidth="1"/>
+    <col min="3064" max="3064" width="8.88671875" style="20"/>
+    <col min="3065" max="3065" width="14.5546875" style="20" customWidth="1"/>
+    <col min="3066" max="3066" width="14.44140625" style="20" customWidth="1"/>
+    <col min="3067" max="3067" width="8.88671875" style="20" customWidth="1"/>
+    <col min="3068" max="3068" width="19.109375" style="20" customWidth="1"/>
+    <col min="3069" max="3069" width="12.33203125" style="20" customWidth="1"/>
+    <col min="3070" max="3070" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="3071" max="3071" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3072" max="3072" width="10.33203125" style="20" customWidth="1"/>
+    <col min="3073" max="3073" width="8" style="20" customWidth="1"/>
+    <col min="3074" max="3075" width="14.33203125" style="20" customWidth="1"/>
+    <col min="3076" max="3076" width="6.5546875" style="20" customWidth="1"/>
+    <col min="3077" max="3077" width="10.109375" style="20" customWidth="1"/>
+    <col min="3078" max="3078" width="7.5546875" style="20" customWidth="1"/>
+    <col min="3079" max="3317" width="8.88671875" style="20"/>
+    <col min="3318" max="3318" width="20.5546875" style="20" customWidth="1"/>
+    <col min="3319" max="3319" width="13.109375" style="20" customWidth="1"/>
+    <col min="3320" max="3320" width="8.88671875" style="20"/>
+    <col min="3321" max="3321" width="14.5546875" style="20" customWidth="1"/>
+    <col min="3322" max="3322" width="14.44140625" style="20" customWidth="1"/>
+    <col min="3323" max="3323" width="8.88671875" style="20" customWidth="1"/>
+    <col min="3324" max="3324" width="19.109375" style="20" customWidth="1"/>
+    <col min="3325" max="3325" width="12.33203125" style="20" customWidth="1"/>
+    <col min="3326" max="3326" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="3327" max="3327" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3328" max="3328" width="10.33203125" style="20" customWidth="1"/>
+    <col min="3329" max="3329" width="8" style="20" customWidth="1"/>
+    <col min="3330" max="3331" width="14.33203125" style="20" customWidth="1"/>
+    <col min="3332" max="3332" width="6.5546875" style="20" customWidth="1"/>
+    <col min="3333" max="3333" width="10.109375" style="20" customWidth="1"/>
+    <col min="3334" max="3334" width="7.5546875" style="20" customWidth="1"/>
+    <col min="3335" max="3573" width="8.88671875" style="20"/>
+    <col min="3574" max="3574" width="20.5546875" style="20" customWidth="1"/>
+    <col min="3575" max="3575" width="13.109375" style="20" customWidth="1"/>
+    <col min="3576" max="3576" width="8.88671875" style="20"/>
+    <col min="3577" max="3577" width="14.5546875" style="20" customWidth="1"/>
+    <col min="3578" max="3578" width="14.44140625" style="20" customWidth="1"/>
+    <col min="3579" max="3579" width="8.88671875" style="20" customWidth="1"/>
+    <col min="3580" max="3580" width="19.109375" style="20" customWidth="1"/>
+    <col min="3581" max="3581" width="12.33203125" style="20" customWidth="1"/>
+    <col min="3582" max="3582" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="3583" max="3583" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3584" max="3584" width="10.33203125" style="20" customWidth="1"/>
+    <col min="3585" max="3585" width="8" style="20" customWidth="1"/>
+    <col min="3586" max="3587" width="14.33203125" style="20" customWidth="1"/>
+    <col min="3588" max="3588" width="6.5546875" style="20" customWidth="1"/>
+    <col min="3589" max="3589" width="10.109375" style="20" customWidth="1"/>
+    <col min="3590" max="3590" width="7.5546875" style="20" customWidth="1"/>
+    <col min="3591" max="3829" width="8.88671875" style="20"/>
+    <col min="3830" max="3830" width="20.5546875" style="20" customWidth="1"/>
+    <col min="3831" max="3831" width="13.109375" style="20" customWidth="1"/>
+    <col min="3832" max="3832" width="8.88671875" style="20"/>
+    <col min="3833" max="3833" width="14.5546875" style="20" customWidth="1"/>
+    <col min="3834" max="3834" width="14.44140625" style="20" customWidth="1"/>
+    <col min="3835" max="3835" width="8.88671875" style="20" customWidth="1"/>
+    <col min="3836" max="3836" width="19.109375" style="20" customWidth="1"/>
+    <col min="3837" max="3837" width="12.33203125" style="20" customWidth="1"/>
+    <col min="3838" max="3838" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="3839" max="3839" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3840" max="3840" width="10.33203125" style="20" customWidth="1"/>
+    <col min="3841" max="3841" width="8" style="20" customWidth="1"/>
+    <col min="3842" max="3843" width="14.33203125" style="20" customWidth="1"/>
+    <col min="3844" max="3844" width="6.5546875" style="20" customWidth="1"/>
+    <col min="3845" max="3845" width="10.109375" style="20" customWidth="1"/>
+    <col min="3846" max="3846" width="7.5546875" style="20" customWidth="1"/>
+    <col min="3847" max="4085" width="8.88671875" style="20"/>
+    <col min="4086" max="4086" width="20.5546875" style="20" customWidth="1"/>
+    <col min="4087" max="4087" width="13.109375" style="20" customWidth="1"/>
+    <col min="4088" max="4088" width="8.88671875" style="20"/>
+    <col min="4089" max="4089" width="14.5546875" style="20" customWidth="1"/>
+    <col min="4090" max="4090" width="14.44140625" style="20" customWidth="1"/>
+    <col min="4091" max="4091" width="8.88671875" style="20" customWidth="1"/>
+    <col min="4092" max="4092" width="19.109375" style="20" customWidth="1"/>
+    <col min="4093" max="4093" width="12.33203125" style="20" customWidth="1"/>
+    <col min="4094" max="4094" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="4095" max="4095" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4096" max="4096" width="10.33203125" style="20" customWidth="1"/>
+    <col min="4097" max="4097" width="8" style="20" customWidth="1"/>
+    <col min="4098" max="4099" width="14.33203125" style="20" customWidth="1"/>
+    <col min="4100" max="4100" width="6.5546875" style="20" customWidth="1"/>
+    <col min="4101" max="4101" width="10.109375" style="20" customWidth="1"/>
+    <col min="4102" max="4102" width="7.5546875" style="20" customWidth="1"/>
+    <col min="4103" max="4341" width="8.88671875" style="20"/>
+    <col min="4342" max="4342" width="20.5546875" style="20" customWidth="1"/>
+    <col min="4343" max="4343" width="13.109375" style="20" customWidth="1"/>
+    <col min="4344" max="4344" width="8.88671875" style="20"/>
+    <col min="4345" max="4345" width="14.5546875" style="20" customWidth="1"/>
+    <col min="4346" max="4346" width="14.44140625" style="20" customWidth="1"/>
+    <col min="4347" max="4347" width="8.88671875" style="20" customWidth="1"/>
+    <col min="4348" max="4348" width="19.109375" style="20" customWidth="1"/>
+    <col min="4349" max="4349" width="12.33203125" style="20" customWidth="1"/>
+    <col min="4350" max="4350" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="4351" max="4351" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4352" max="4352" width="10.33203125" style="20" customWidth="1"/>
+    <col min="4353" max="4353" width="8" style="20" customWidth="1"/>
+    <col min="4354" max="4355" width="14.33203125" style="20" customWidth="1"/>
+    <col min="4356" max="4356" width="6.5546875" style="20" customWidth="1"/>
+    <col min="4357" max="4357" width="10.109375" style="20" customWidth="1"/>
+    <col min="4358" max="4358" width="7.5546875" style="20" customWidth="1"/>
+    <col min="4359" max="4597" width="8.88671875" style="20"/>
+    <col min="4598" max="4598" width="20.5546875" style="20" customWidth="1"/>
+    <col min="4599" max="4599" width="13.109375" style="20" customWidth="1"/>
+    <col min="4600" max="4600" width="8.88671875" style="20"/>
+    <col min="4601" max="4601" width="14.5546875" style="20" customWidth="1"/>
+    <col min="4602" max="4602" width="14.44140625" style="20" customWidth="1"/>
+    <col min="4603" max="4603" width="8.88671875" style="20" customWidth="1"/>
+    <col min="4604" max="4604" width="19.109375" style="20" customWidth="1"/>
+    <col min="4605" max="4605" width="12.33203125" style="20" customWidth="1"/>
+    <col min="4606" max="4606" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="4607" max="4607" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4608" max="4608" width="10.33203125" style="20" customWidth="1"/>
+    <col min="4609" max="4609" width="8" style="20" customWidth="1"/>
+    <col min="4610" max="4611" width="14.33203125" style="20" customWidth="1"/>
+    <col min="4612" max="4612" width="6.5546875" style="20" customWidth="1"/>
+    <col min="4613" max="4613" width="10.109375" style="20" customWidth="1"/>
+    <col min="4614" max="4614" width="7.5546875" style="20" customWidth="1"/>
+    <col min="4615" max="4853" width="8.88671875" style="20"/>
+    <col min="4854" max="4854" width="20.5546875" style="20" customWidth="1"/>
+    <col min="4855" max="4855" width="13.109375" style="20" customWidth="1"/>
+    <col min="4856" max="4856" width="8.88671875" style="20"/>
+    <col min="4857" max="4857" width="14.5546875" style="20" customWidth="1"/>
+    <col min="4858" max="4858" width="14.44140625" style="20" customWidth="1"/>
+    <col min="4859" max="4859" width="8.88671875" style="20" customWidth="1"/>
+    <col min="4860" max="4860" width="19.109375" style="20" customWidth="1"/>
+    <col min="4861" max="4861" width="12.33203125" style="20" customWidth="1"/>
+    <col min="4862" max="4862" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="4863" max="4863" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4864" max="4864" width="10.33203125" style="20" customWidth="1"/>
+    <col min="4865" max="4865" width="8" style="20" customWidth="1"/>
+    <col min="4866" max="4867" width="14.33203125" style="20" customWidth="1"/>
+    <col min="4868" max="4868" width="6.5546875" style="20" customWidth="1"/>
+    <col min="4869" max="4869" width="10.109375" style="20" customWidth="1"/>
+    <col min="4870" max="4870" width="7.5546875" style="20" customWidth="1"/>
+    <col min="4871" max="5109" width="8.88671875" style="20"/>
+    <col min="5110" max="5110" width="20.5546875" style="20" customWidth="1"/>
+    <col min="5111" max="5111" width="13.109375" style="20" customWidth="1"/>
+    <col min="5112" max="5112" width="8.88671875" style="20"/>
+    <col min="5113" max="5113" width="14.5546875" style="20" customWidth="1"/>
+    <col min="5114" max="5114" width="14.44140625" style="20" customWidth="1"/>
+    <col min="5115" max="5115" width="8.88671875" style="20" customWidth="1"/>
+    <col min="5116" max="5116" width="19.109375" style="20" customWidth="1"/>
+    <col min="5117" max="5117" width="12.33203125" style="20" customWidth="1"/>
+    <col min="5118" max="5118" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="5119" max="5119" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="5120" max="5120" width="10.33203125" style="20" customWidth="1"/>
+    <col min="5121" max="5121" width="8" style="20" customWidth="1"/>
+    <col min="5122" max="5123" width="14.33203125" style="20" customWidth="1"/>
+    <col min="5124" max="5124" width="6.5546875" style="20" customWidth="1"/>
+    <col min="5125" max="5125" width="10.109375" style="20" customWidth="1"/>
+    <col min="5126" max="5126" width="7.5546875" style="20" customWidth="1"/>
+    <col min="5127" max="5365" width="8.88671875" style="20"/>
+    <col min="5366" max="5366" width="20.5546875" style="20" customWidth="1"/>
+    <col min="5367" max="5367" width="13.109375" style="20" customWidth="1"/>
+    <col min="5368" max="5368" width="8.88671875" style="20"/>
+    <col min="5369" max="5369" width="14.5546875" style="20" customWidth="1"/>
+    <col min="5370" max="5370" width="14.44140625" style="20" customWidth="1"/>
+    <col min="5371" max="5371" width="8.88671875" style="20" customWidth="1"/>
+    <col min="5372" max="5372" width="19.109375" style="20" customWidth="1"/>
+    <col min="5373" max="5373" width="12.33203125" style="20" customWidth="1"/>
+    <col min="5374" max="5374" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="5375" max="5375" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="5376" max="5376" width="10.33203125" style="20" customWidth="1"/>
+    <col min="5377" max="5377" width="8" style="20" customWidth="1"/>
+    <col min="5378" max="5379" width="14.33203125" style="20" customWidth="1"/>
+    <col min="5380" max="5380" width="6.5546875" style="20" customWidth="1"/>
+    <col min="5381" max="5381" width="10.109375" style="20" customWidth="1"/>
+    <col min="5382" max="5382" width="7.5546875" style="20" customWidth="1"/>
+    <col min="5383" max="5621" width="8.88671875" style="20"/>
+    <col min="5622" max="5622" width="20.5546875" style="20" customWidth="1"/>
+    <col min="5623" max="5623" width="13.109375" style="20" customWidth="1"/>
+    <col min="5624" max="5624" width="8.88671875" style="20"/>
+    <col min="5625" max="5625" width="14.5546875" style="20" customWidth="1"/>
+    <col min="5626" max="5626" width="14.44140625" style="20" customWidth="1"/>
+    <col min="5627" max="5627" width="8.88671875" style="20" customWidth="1"/>
+    <col min="5628" max="5628" width="19.109375" style="20" customWidth="1"/>
+    <col min="5629" max="5629" width="12.33203125" style="20" customWidth="1"/>
+    <col min="5630" max="5630" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="5631" max="5631" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="5632" max="5632" width="10.33203125" style="20" customWidth="1"/>
+    <col min="5633" max="5633" width="8" style="20" customWidth="1"/>
+    <col min="5634" max="5635" width="14.33203125" style="20" customWidth="1"/>
+    <col min="5636" max="5636" width="6.5546875" style="20" customWidth="1"/>
+    <col min="5637" max="5637" width="10.109375" style="20" customWidth="1"/>
+    <col min="5638" max="5638" width="7.5546875" style="20" customWidth="1"/>
+    <col min="5639" max="5877" width="8.88671875" style="20"/>
+    <col min="5878" max="5878" width="20.5546875" style="20" customWidth="1"/>
+    <col min="5879" max="5879" width="13.109375" style="20" customWidth="1"/>
+    <col min="5880" max="5880" width="8.88671875" style="20"/>
+    <col min="5881" max="5881" width="14.5546875" style="20" customWidth="1"/>
+    <col min="5882" max="5882" width="14.44140625" style="20" customWidth="1"/>
+    <col min="5883" max="5883" width="8.88671875" style="20" customWidth="1"/>
+    <col min="5884" max="5884" width="19.109375" style="20" customWidth="1"/>
+    <col min="5885" max="5885" width="12.33203125" style="20" customWidth="1"/>
+    <col min="5886" max="5886" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="5887" max="5887" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="5888" max="5888" width="10.33203125" style="20" customWidth="1"/>
+    <col min="5889" max="5889" width="8" style="20" customWidth="1"/>
+    <col min="5890" max="5891" width="14.33203125" style="20" customWidth="1"/>
+    <col min="5892" max="5892" width="6.5546875" style="20" customWidth="1"/>
+    <col min="5893" max="5893" width="10.109375" style="20" customWidth="1"/>
+    <col min="5894" max="5894" width="7.5546875" style="20" customWidth="1"/>
+    <col min="5895" max="6133" width="8.88671875" style="20"/>
+    <col min="6134" max="6134" width="20.5546875" style="20" customWidth="1"/>
+    <col min="6135" max="6135" width="13.109375" style="20" customWidth="1"/>
+    <col min="6136" max="6136" width="8.88671875" style="20"/>
+    <col min="6137" max="6137" width="14.5546875" style="20" customWidth="1"/>
+    <col min="6138" max="6138" width="14.44140625" style="20" customWidth="1"/>
+    <col min="6139" max="6139" width="8.88671875" style="20" customWidth="1"/>
+    <col min="6140" max="6140" width="19.109375" style="20" customWidth="1"/>
+    <col min="6141" max="6141" width="12.33203125" style="20" customWidth="1"/>
+    <col min="6142" max="6142" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="6143" max="6143" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="6144" max="6144" width="10.33203125" style="20" customWidth="1"/>
+    <col min="6145" max="6145" width="8" style="20" customWidth="1"/>
+    <col min="6146" max="6147" width="14.33203125" style="20" customWidth="1"/>
+    <col min="6148" max="6148" width="6.5546875" style="20" customWidth="1"/>
+    <col min="6149" max="6149" width="10.109375" style="20" customWidth="1"/>
+    <col min="6150" max="6150" width="7.5546875" style="20" customWidth="1"/>
+    <col min="6151" max="6389" width="8.88671875" style="20"/>
+    <col min="6390" max="6390" width="20.5546875" style="20" customWidth="1"/>
+    <col min="6391" max="6391" width="13.109375" style="20" customWidth="1"/>
+    <col min="6392" max="6392" width="8.88671875" style="20"/>
+    <col min="6393" max="6393" width="14.5546875" style="20" customWidth="1"/>
+    <col min="6394" max="6394" width="14.44140625" style="20" customWidth="1"/>
+    <col min="6395" max="6395" width="8.88671875" style="20" customWidth="1"/>
+    <col min="6396" max="6396" width="19.109375" style="20" customWidth="1"/>
+    <col min="6397" max="6397" width="12.33203125" style="20" customWidth="1"/>
+    <col min="6398" max="6398" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="6399" max="6399" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="6400" max="6400" width="10.33203125" style="20" customWidth="1"/>
+    <col min="6401" max="6401" width="8" style="20" customWidth="1"/>
+    <col min="6402" max="6403" width="14.33203125" style="20" customWidth="1"/>
+    <col min="6404" max="6404" width="6.5546875" style="20" customWidth="1"/>
+    <col min="6405" max="6405" width="10.109375" style="20" customWidth="1"/>
+    <col min="6406" max="6406" width="7.5546875" style="20" customWidth="1"/>
+    <col min="6407" max="6645" width="8.88671875" style="20"/>
+    <col min="6646" max="6646" width="20.5546875" style="20" customWidth="1"/>
+    <col min="6647" max="6647" width="13.109375" style="20" customWidth="1"/>
+    <col min="6648" max="6648" width="8.88671875" style="20"/>
+    <col min="6649" max="6649" width="14.5546875" style="20" customWidth="1"/>
+    <col min="6650" max="6650" width="14.44140625" style="20" customWidth="1"/>
+    <col min="6651" max="6651" width="8.88671875" style="20" customWidth="1"/>
+    <col min="6652" max="6652" width="19.109375" style="20" customWidth="1"/>
+    <col min="6653" max="6653" width="12.33203125" style="20" customWidth="1"/>
+    <col min="6654" max="6654" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="6655" max="6655" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="6656" max="6656" width="10.33203125" style="20" customWidth="1"/>
+    <col min="6657" max="6657" width="8" style="20" customWidth="1"/>
+    <col min="6658" max="6659" width="14.33203125" style="20" customWidth="1"/>
+    <col min="6660" max="6660" width="6.5546875" style="20" customWidth="1"/>
+    <col min="6661" max="6661" width="10.109375" style="20" customWidth="1"/>
+    <col min="6662" max="6662" width="7.5546875" style="20" customWidth="1"/>
+    <col min="6663" max="6901" width="8.88671875" style="20"/>
+    <col min="6902" max="6902" width="20.5546875" style="20" customWidth="1"/>
+    <col min="6903" max="6903" width="13.109375" style="20" customWidth="1"/>
+    <col min="6904" max="6904" width="8.88671875" style="20"/>
+    <col min="6905" max="6905" width="14.5546875" style="20" customWidth="1"/>
+    <col min="6906" max="6906" width="14.44140625" style="20" customWidth="1"/>
+    <col min="6907" max="6907" width="8.88671875" style="20" customWidth="1"/>
+    <col min="6908" max="6908" width="19.109375" style="20" customWidth="1"/>
+    <col min="6909" max="6909" width="12.33203125" style="20" customWidth="1"/>
+    <col min="6910" max="6910" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="6911" max="6911" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="6912" max="6912" width="10.33203125" style="20" customWidth="1"/>
+    <col min="6913" max="6913" width="8" style="20" customWidth="1"/>
+    <col min="6914" max="6915" width="14.33203125" style="20" customWidth="1"/>
+    <col min="6916" max="6916" width="6.5546875" style="20" customWidth="1"/>
+    <col min="6917" max="6917" width="10.109375" style="20" customWidth="1"/>
+    <col min="6918" max="6918" width="7.5546875" style="20" customWidth="1"/>
+    <col min="6919" max="7157" width="8.88671875" style="20"/>
+    <col min="7158" max="7158" width="20.5546875" style="20" customWidth="1"/>
+    <col min="7159" max="7159" width="13.109375" style="20" customWidth="1"/>
+    <col min="7160" max="7160" width="8.88671875" style="20"/>
+    <col min="7161" max="7161" width="14.5546875" style="20" customWidth="1"/>
+    <col min="7162" max="7162" width="14.44140625" style="20" customWidth="1"/>
+    <col min="7163" max="7163" width="8.88671875" style="20" customWidth="1"/>
+    <col min="7164" max="7164" width="19.109375" style="20" customWidth="1"/>
+    <col min="7165" max="7165" width="12.33203125" style="20" customWidth="1"/>
+    <col min="7166" max="7166" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="7167" max="7167" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7168" max="7168" width="10.33203125" style="20" customWidth="1"/>
+    <col min="7169" max="7169" width="8" style="20" customWidth="1"/>
+    <col min="7170" max="7171" width="14.33203125" style="20" customWidth="1"/>
+    <col min="7172" max="7172" width="6.5546875" style="20" customWidth="1"/>
+    <col min="7173" max="7173" width="10.109375" style="20" customWidth="1"/>
+    <col min="7174" max="7174" width="7.5546875" style="20" customWidth="1"/>
+    <col min="7175" max="7413" width="8.88671875" style="20"/>
+    <col min="7414" max="7414" width="20.5546875" style="20" customWidth="1"/>
+    <col min="7415" max="7415" width="13.109375" style="20" customWidth="1"/>
+    <col min="7416" max="7416" width="8.88671875" style="20"/>
+    <col min="7417" max="7417" width="14.5546875" style="20" customWidth="1"/>
+    <col min="7418" max="7418" width="14.44140625" style="20" customWidth="1"/>
+    <col min="7419" max="7419" width="8.88671875" style="20" customWidth="1"/>
+    <col min="7420" max="7420" width="19.109375" style="20" customWidth="1"/>
+    <col min="7421" max="7421" width="12.33203125" style="20" customWidth="1"/>
+    <col min="7422" max="7422" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="7423" max="7423" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7424" max="7424" width="10.33203125" style="20" customWidth="1"/>
+    <col min="7425" max="7425" width="8" style="20" customWidth="1"/>
+    <col min="7426" max="7427" width="14.33203125" style="20" customWidth="1"/>
+    <col min="7428" max="7428" width="6.5546875" style="20" customWidth="1"/>
+    <col min="7429" max="7429" width="10.109375" style="20" customWidth="1"/>
+    <col min="7430" max="7430" width="7.5546875" style="20" customWidth="1"/>
+    <col min="7431" max="7669" width="8.88671875" style="20"/>
+    <col min="7670" max="7670" width="20.5546875" style="20" customWidth="1"/>
+    <col min="7671" max="7671" width="13.109375" style="20" customWidth="1"/>
+    <col min="7672" max="7672" width="8.88671875" style="20"/>
+    <col min="7673" max="7673" width="14.5546875" style="20" customWidth="1"/>
+    <col min="7674" max="7674" width="14.44140625" style="20" customWidth="1"/>
+    <col min="7675" max="7675" width="8.88671875" style="20" customWidth="1"/>
+    <col min="7676" max="7676" width="19.109375" style="20" customWidth="1"/>
+    <col min="7677" max="7677" width="12.33203125" style="20" customWidth="1"/>
+    <col min="7678" max="7678" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="7679" max="7679" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7680" max="7680" width="10.33203125" style="20" customWidth="1"/>
+    <col min="7681" max="7681" width="8" style="20" customWidth="1"/>
+    <col min="7682" max="7683" width="14.33203125" style="20" customWidth="1"/>
+    <col min="7684" max="7684" width="6.5546875" style="20" customWidth="1"/>
+    <col min="7685" max="7685" width="10.109375" style="20" customWidth="1"/>
+    <col min="7686" max="7686" width="7.5546875" style="20" customWidth="1"/>
+    <col min="7687" max="7925" width="8.88671875" style="20"/>
+    <col min="7926" max="7926" width="20.5546875" style="20" customWidth="1"/>
+    <col min="7927" max="7927" width="13.109375" style="20" customWidth="1"/>
+    <col min="7928" max="7928" width="8.88671875" style="20"/>
+    <col min="7929" max="7929" width="14.5546875" style="20" customWidth="1"/>
+    <col min="7930" max="7930" width="14.44140625" style="20" customWidth="1"/>
+    <col min="7931" max="7931" width="8.88671875" style="20" customWidth="1"/>
+    <col min="7932" max="7932" width="19.109375" style="20" customWidth="1"/>
+    <col min="7933" max="7933" width="12.33203125" style="20" customWidth="1"/>
+    <col min="7934" max="7934" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="7935" max="7935" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7936" max="7936" width="10.33203125" style="20" customWidth="1"/>
+    <col min="7937" max="7937" width="8" style="20" customWidth="1"/>
+    <col min="7938" max="7939" width="14.33203125" style="20" customWidth="1"/>
+    <col min="7940" max="7940" width="6.5546875" style="20" customWidth="1"/>
+    <col min="7941" max="7941" width="10.109375" style="20" customWidth="1"/>
+    <col min="7942" max="7942" width="7.5546875" style="20" customWidth="1"/>
+    <col min="7943" max="8181" width="8.88671875" style="20"/>
+    <col min="8182" max="8182" width="20.5546875" style="20" customWidth="1"/>
+    <col min="8183" max="8183" width="13.109375" style="20" customWidth="1"/>
+    <col min="8184" max="8184" width="8.88671875" style="20"/>
+    <col min="8185" max="8185" width="14.5546875" style="20" customWidth="1"/>
+    <col min="8186" max="8186" width="14.44140625" style="20" customWidth="1"/>
+    <col min="8187" max="8187" width="8.88671875" style="20" customWidth="1"/>
+    <col min="8188" max="8188" width="19.109375" style="20" customWidth="1"/>
+    <col min="8189" max="8189" width="12.33203125" style="20" customWidth="1"/>
+    <col min="8190" max="8190" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="8191" max="8191" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="8192" max="8192" width="10.33203125" style="20" customWidth="1"/>
+    <col min="8193" max="8193" width="8" style="20" customWidth="1"/>
+    <col min="8194" max="8195" width="14.33203125" style="20" customWidth="1"/>
+    <col min="8196" max="8196" width="6.5546875" style="20" customWidth="1"/>
+    <col min="8197" max="8197" width="10.109375" style="20" customWidth="1"/>
+    <col min="8198" max="8198" width="7.5546875" style="20" customWidth="1"/>
+    <col min="8199" max="8437" width="8.88671875" style="20"/>
+    <col min="8438" max="8438" width="20.5546875" style="20" customWidth="1"/>
+    <col min="8439" max="8439" width="13.109375" style="20" customWidth="1"/>
+    <col min="8440" max="8440" width="8.88671875" style="20"/>
+    <col min="8441" max="8441" width="14.5546875" style="20" customWidth="1"/>
+    <col min="8442" max="8442" width="14.44140625" style="20" customWidth="1"/>
+    <col min="8443" max="8443" width="8.88671875" style="20" customWidth="1"/>
+    <col min="8444" max="8444" width="19.109375" style="20" customWidth="1"/>
+    <col min="8445" max="8445" width="12.33203125" style="20" customWidth="1"/>
+    <col min="8446" max="8446" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="8447" max="8447" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="8448" max="8448" width="10.33203125" style="20" customWidth="1"/>
+    <col min="8449" max="8449" width="8" style="20" customWidth="1"/>
+    <col min="8450" max="8451" width="14.33203125" style="20" customWidth="1"/>
+    <col min="8452" max="8452" width="6.5546875" style="20" customWidth="1"/>
+    <col min="8453" max="8453" width="10.109375" style="20" customWidth="1"/>
+    <col min="8454" max="8454" width="7.5546875" style="20" customWidth="1"/>
+    <col min="8455" max="8693" width="8.88671875" style="20"/>
+    <col min="8694" max="8694" width="20.5546875" style="20" customWidth="1"/>
+    <col min="8695" max="8695" width="13.109375" style="20" customWidth="1"/>
+    <col min="8696" max="8696" width="8.88671875" style="20"/>
+    <col min="8697" max="8697" width="14.5546875" style="20" customWidth="1"/>
+    <col min="8698" max="8698" width="14.44140625" style="20" customWidth="1"/>
+    <col min="8699" max="8699" width="8.88671875" style="20" customWidth="1"/>
+    <col min="8700" max="8700" width="19.109375" style="20" customWidth="1"/>
+    <col min="8701" max="8701" width="12.33203125" style="20" customWidth="1"/>
+    <col min="8702" max="8702" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="8703" max="8703" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="8704" max="8704" width="10.33203125" style="20" customWidth="1"/>
+    <col min="8705" max="8705" width="8" style="20" customWidth="1"/>
+    <col min="8706" max="8707" width="14.33203125" style="20" customWidth="1"/>
+    <col min="8708" max="8708" width="6.5546875" style="20" customWidth="1"/>
+    <col min="8709" max="8709" width="10.109375" style="20" customWidth="1"/>
+    <col min="8710" max="8710" width="7.5546875" style="20" customWidth="1"/>
+    <col min="8711" max="8949" width="8.88671875" style="20"/>
+    <col min="8950" max="8950" width="20.5546875" style="20" customWidth="1"/>
+    <col min="8951" max="8951" width="13.109375" style="20" customWidth="1"/>
+    <col min="8952" max="8952" width="8.88671875" style="20"/>
+    <col min="8953" max="8953" width="14.5546875" style="20" customWidth="1"/>
+    <col min="8954" max="8954" width="14.44140625" style="20" customWidth="1"/>
+    <col min="8955" max="8955" width="8.88671875" style="20" customWidth="1"/>
+    <col min="8956" max="8956" width="19.109375" style="20" customWidth="1"/>
+    <col min="8957" max="8957" width="12.33203125" style="20" customWidth="1"/>
+    <col min="8958" max="8958" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="8959" max="8959" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="8960" max="8960" width="10.33203125" style="20" customWidth="1"/>
+    <col min="8961" max="8961" width="8" style="20" customWidth="1"/>
+    <col min="8962" max="8963" width="14.33203125" style="20" customWidth="1"/>
+    <col min="8964" max="8964" width="6.5546875" style="20" customWidth="1"/>
+    <col min="8965" max="8965" width="10.109375" style="20" customWidth="1"/>
+    <col min="8966" max="8966" width="7.5546875" style="20" customWidth="1"/>
+    <col min="8967" max="9205" width="8.88671875" style="20"/>
+    <col min="9206" max="9206" width="20.5546875" style="20" customWidth="1"/>
+    <col min="9207" max="9207" width="13.109375" style="20" customWidth="1"/>
+    <col min="9208" max="9208" width="8.88671875" style="20"/>
+    <col min="9209" max="9209" width="14.5546875" style="20" customWidth="1"/>
+    <col min="9210" max="9210" width="14.44140625" style="20" customWidth="1"/>
+    <col min="9211" max="9211" width="8.88671875" style="20" customWidth="1"/>
+    <col min="9212" max="9212" width="19.109375" style="20" customWidth="1"/>
+    <col min="9213" max="9213" width="12.33203125" style="20" customWidth="1"/>
+    <col min="9214" max="9214" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="9215" max="9215" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="9216" max="9216" width="10.33203125" style="20" customWidth="1"/>
+    <col min="9217" max="9217" width="8" style="20" customWidth="1"/>
+    <col min="9218" max="9219" width="14.33203125" style="20" customWidth="1"/>
+    <col min="9220" max="9220" width="6.5546875" style="20" customWidth="1"/>
+    <col min="9221" max="9221" width="10.109375" style="20" customWidth="1"/>
+    <col min="9222" max="9222" width="7.5546875" style="20" customWidth="1"/>
+    <col min="9223" max="9461" width="8.88671875" style="20"/>
+    <col min="9462" max="9462" width="20.5546875" style="20" customWidth="1"/>
+    <col min="9463" max="9463" width="13.109375" style="20" customWidth="1"/>
+    <col min="9464" max="9464" width="8.88671875" style="20"/>
+    <col min="9465" max="9465" width="14.5546875" style="20" customWidth="1"/>
+    <col min="9466" max="9466" width="14.44140625" style="20" customWidth="1"/>
+    <col min="9467" max="9467" width="8.88671875" style="20" customWidth="1"/>
+    <col min="9468" max="9468" width="19.109375" style="20" customWidth="1"/>
+    <col min="9469" max="9469" width="12.33203125" style="20" customWidth="1"/>
+    <col min="9470" max="9470" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="9471" max="9471" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="9472" max="9472" width="10.33203125" style="20" customWidth="1"/>
+    <col min="9473" max="9473" width="8" style="20" customWidth="1"/>
+    <col min="9474" max="9475" width="14.33203125" style="20" customWidth="1"/>
+    <col min="9476" max="9476" width="6.5546875" style="20" customWidth="1"/>
+    <col min="9477" max="9477" width="10.109375" style="20" customWidth="1"/>
+    <col min="9478" max="9478" width="7.5546875" style="20" customWidth="1"/>
+    <col min="9479" max="9717" width="8.88671875" style="20"/>
+    <col min="9718" max="9718" width="20.5546875" style="20" customWidth="1"/>
+    <col min="9719" max="9719" width="13.109375" style="20" customWidth="1"/>
+    <col min="9720" max="9720" width="8.88671875" style="20"/>
+    <col min="9721" max="9721" width="14.5546875" style="20" customWidth="1"/>
+    <col min="9722" max="9722" width="14.44140625" style="20" customWidth="1"/>
+    <col min="9723" max="9723" width="8.88671875" style="20" customWidth="1"/>
+    <col min="9724" max="9724" width="19.109375" style="20" customWidth="1"/>
+    <col min="9725" max="9725" width="12.33203125" style="20" customWidth="1"/>
+    <col min="9726" max="9726" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="9727" max="9727" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="9728" max="9728" width="10.33203125" style="20" customWidth="1"/>
+    <col min="9729" max="9729" width="8" style="20" customWidth="1"/>
+    <col min="9730" max="9731" width="14.33203125" style="20" customWidth="1"/>
+    <col min="9732" max="9732" width="6.5546875" style="20" customWidth="1"/>
+    <col min="9733" max="9733" width="10.109375" style="20" customWidth="1"/>
+    <col min="9734" max="9734" width="7.5546875" style="20" customWidth="1"/>
+    <col min="9735" max="9973" width="8.88671875" style="20"/>
+    <col min="9974" max="9974" width="20.5546875" style="20" customWidth="1"/>
+    <col min="9975" max="9975" width="13.109375" style="20" customWidth="1"/>
+    <col min="9976" max="9976" width="8.88671875" style="20"/>
+    <col min="9977" max="9977" width="14.5546875" style="20" customWidth="1"/>
+    <col min="9978" max="9978" width="14.44140625" style="20" customWidth="1"/>
+    <col min="9979" max="9979" width="8.88671875" style="20" customWidth="1"/>
+    <col min="9980" max="9980" width="19.109375" style="20" customWidth="1"/>
+    <col min="9981" max="9981" width="12.33203125" style="20" customWidth="1"/>
+    <col min="9982" max="9982" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="9983" max="9983" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="9984" max="9984" width="10.33203125" style="20" customWidth="1"/>
+    <col min="9985" max="9985" width="8" style="20" customWidth="1"/>
+    <col min="9986" max="9987" width="14.33203125" style="20" customWidth="1"/>
+    <col min="9988" max="9988" width="6.5546875" style="20" customWidth="1"/>
+    <col min="9989" max="9989" width="10.109375" style="20" customWidth="1"/>
+    <col min="9990" max="9990" width="7.5546875" style="20" customWidth="1"/>
+    <col min="9991" max="10229" width="8.88671875" style="20"/>
+    <col min="10230" max="10230" width="20.5546875" style="20" customWidth="1"/>
+    <col min="10231" max="10231" width="13.109375" style="20" customWidth="1"/>
+    <col min="10232" max="10232" width="8.88671875" style="20"/>
+    <col min="10233" max="10233" width="14.5546875" style="20" customWidth="1"/>
+    <col min="10234" max="10234" width="14.44140625" style="20" customWidth="1"/>
+    <col min="10235" max="10235" width="8.88671875" style="20" customWidth="1"/>
+    <col min="10236" max="10236" width="19.109375" style="20" customWidth="1"/>
+    <col min="10237" max="10237" width="12.33203125" style="20" customWidth="1"/>
+    <col min="10238" max="10238" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="10239" max="10239" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="10240" max="10240" width="10.33203125" style="20" customWidth="1"/>
+    <col min="10241" max="10241" width="8" style="20" customWidth="1"/>
+    <col min="10242" max="10243" width="14.33203125" style="20" customWidth="1"/>
+    <col min="10244" max="10244" width="6.5546875" style="20" customWidth="1"/>
+    <col min="10245" max="10245" width="10.109375" style="20" customWidth="1"/>
+    <col min="10246" max="10246" width="7.5546875" style="20" customWidth="1"/>
+    <col min="10247" max="10485" width="8.88671875" style="20"/>
+    <col min="10486" max="10486" width="20.5546875" style="20" customWidth="1"/>
+    <col min="10487" max="10487" width="13.109375" style="20" customWidth="1"/>
+    <col min="10488" max="10488" width="8.88671875" style="20"/>
+    <col min="10489" max="10489" width="14.5546875" style="20" customWidth="1"/>
+    <col min="10490" max="10490" width="14.44140625" style="20" customWidth="1"/>
+    <col min="10491" max="10491" width="8.88671875" style="20" customWidth="1"/>
+    <col min="10492" max="10492" width="19.109375" style="20" customWidth="1"/>
+    <col min="10493" max="10493" width="12.33203125" style="20" customWidth="1"/>
+    <col min="10494" max="10494" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="10495" max="10495" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="10496" max="10496" width="10.33203125" style="20" customWidth="1"/>
+    <col min="10497" max="10497" width="8" style="20" customWidth="1"/>
+    <col min="10498" max="10499" width="14.33203125" style="20" customWidth="1"/>
+    <col min="10500" max="10500" width="6.5546875" style="20" customWidth="1"/>
+    <col min="10501" max="10501" width="10.109375" style="20" customWidth="1"/>
+    <col min="10502" max="10502" width="7.5546875" style="20" customWidth="1"/>
+    <col min="10503" max="10741" width="8.88671875" style="20"/>
+    <col min="10742" max="10742" width="20.5546875" style="20" customWidth="1"/>
+    <col min="10743" max="10743" width="13.109375" style="20" customWidth="1"/>
+    <col min="10744" max="10744" width="8.88671875" style="20"/>
+    <col min="10745" max="10745" width="14.5546875" style="20" customWidth="1"/>
+    <col min="10746" max="10746" width="14.44140625" style="20" customWidth="1"/>
+    <col min="10747" max="10747" width="8.88671875" style="20" customWidth="1"/>
+    <col min="10748" max="10748" width="19.109375" style="20" customWidth="1"/>
+    <col min="10749" max="10749" width="12.33203125" style="20" customWidth="1"/>
+    <col min="10750" max="10750" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="10751" max="10751" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="10752" max="10752" width="10.33203125" style="20" customWidth="1"/>
+    <col min="10753" max="10753" width="8" style="20" customWidth="1"/>
+    <col min="10754" max="10755" width="14.33203125" style="20" customWidth="1"/>
+    <col min="10756" max="10756" width="6.5546875" style="20" customWidth="1"/>
+    <col min="10757" max="10757" width="10.109375" style="20" customWidth="1"/>
+    <col min="10758" max="10758" width="7.5546875" style="20" customWidth="1"/>
+    <col min="10759" max="10997" width="8.88671875" style="20"/>
+    <col min="10998" max="10998" width="20.5546875" style="20" customWidth="1"/>
+    <col min="10999" max="10999" width="13.109375" style="20" customWidth="1"/>
+    <col min="11000" max="11000" width="8.88671875" style="20"/>
+    <col min="11001" max="11001" width="14.5546875" style="20" customWidth="1"/>
+    <col min="11002" max="11002" width="14.44140625" style="20" customWidth="1"/>
+    <col min="11003" max="11003" width="8.88671875" style="20" customWidth="1"/>
+    <col min="11004" max="11004" width="19.109375" style="20" customWidth="1"/>
+    <col min="11005" max="11005" width="12.33203125" style="20" customWidth="1"/>
+    <col min="11006" max="11006" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="11007" max="11007" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="11008" max="11008" width="10.33203125" style="20" customWidth="1"/>
+    <col min="11009" max="11009" width="8" style="20" customWidth="1"/>
+    <col min="11010" max="11011" width="14.33203125" style="20" customWidth="1"/>
+    <col min="11012" max="11012" width="6.5546875" style="20" customWidth="1"/>
+    <col min="11013" max="11013" width="10.109375" style="20" customWidth="1"/>
+    <col min="11014" max="11014" width="7.5546875" style="20" customWidth="1"/>
+    <col min="11015" max="11253" width="8.88671875" style="20"/>
+    <col min="11254" max="11254" width="20.5546875" style="20" customWidth="1"/>
+    <col min="11255" max="11255" width="13.109375" style="20" customWidth="1"/>
+    <col min="11256" max="11256" width="8.88671875" style="20"/>
+    <col min="11257" max="11257" width="14.5546875" style="20" customWidth="1"/>
+    <col min="11258" max="11258" width="14.44140625" style="20" customWidth="1"/>
+    <col min="11259" max="11259" width="8.88671875" style="20" customWidth="1"/>
+    <col min="11260" max="11260" width="19.109375" style="20" customWidth="1"/>
+    <col min="11261" max="11261" width="12.33203125" style="20" customWidth="1"/>
+    <col min="11262" max="11262" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="11263" max="11263" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="11264" max="11264" width="10.33203125" style="20" customWidth="1"/>
+    <col min="11265" max="11265" width="8" style="20" customWidth="1"/>
+    <col min="11266" max="11267" width="14.33203125" style="20" customWidth="1"/>
+    <col min="11268" max="11268" width="6.5546875" style="20" customWidth="1"/>
+    <col min="11269" max="11269" width="10.109375" style="20" customWidth="1"/>
+    <col min="11270" max="11270" width="7.5546875" style="20" customWidth="1"/>
+    <col min="11271" max="11509" width="8.88671875" style="20"/>
+    <col min="11510" max="11510" width="20.5546875" style="20" customWidth="1"/>
+    <col min="11511" max="11511" width="13.109375" style="20" customWidth="1"/>
+    <col min="11512" max="11512" width="8.88671875" style="20"/>
+    <col min="11513" max="11513" width="14.5546875" style="20" customWidth="1"/>
+    <col min="11514" max="11514" width="14.44140625" style="20" customWidth="1"/>
+    <col min="11515" max="11515" width="8.88671875" style="20" customWidth="1"/>
+    <col min="11516" max="11516" width="19.109375" style="20" customWidth="1"/>
+    <col min="11517" max="11517" width="12.33203125" style="20" customWidth="1"/>
+    <col min="11518" max="11518" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="11519" max="11519" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="11520" max="11520" width="10.33203125" style="20" customWidth="1"/>
+    <col min="11521" max="11521" width="8" style="20" customWidth="1"/>
+    <col min="11522" max="11523" width="14.33203125" style="20" customWidth="1"/>
+    <col min="11524" max="11524" width="6.5546875" style="20" customWidth="1"/>
+    <col min="11525" max="11525" width="10.109375" style="20" customWidth="1"/>
+    <col min="11526" max="11526" width="7.5546875" style="20" customWidth="1"/>
+    <col min="11527" max="11765" width="8.88671875" style="20"/>
+    <col min="11766" max="11766" width="20.5546875" style="20" customWidth="1"/>
+    <col min="11767" max="11767" width="13.109375" style="20" customWidth="1"/>
+    <col min="11768" max="11768" width="8.88671875" style="20"/>
+    <col min="11769" max="11769" width="14.5546875" style="20" customWidth="1"/>
+    <col min="11770" max="11770" width="14.44140625" style="20" customWidth="1"/>
+    <col min="11771" max="11771" width="8.88671875" style="20" customWidth="1"/>
+    <col min="11772" max="11772" width="19.109375" style="20" customWidth="1"/>
+    <col min="11773" max="11773" width="12.33203125" style="20" customWidth="1"/>
+    <col min="11774" max="11774" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="11775" max="11775" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="11776" max="11776" width="10.33203125" style="20" customWidth="1"/>
+    <col min="11777" max="11777" width="8" style="20" customWidth="1"/>
+    <col min="11778" max="11779" width="14.33203125" style="20" customWidth="1"/>
+    <col min="11780" max="11780" width="6.5546875" style="20" customWidth="1"/>
+    <col min="11781" max="11781" width="10.109375" style="20" customWidth="1"/>
+    <col min="11782" max="11782" width="7.5546875" style="20" customWidth="1"/>
+    <col min="11783" max="12021" width="8.88671875" style="20"/>
+    <col min="12022" max="12022" width="20.5546875" style="20" customWidth="1"/>
+    <col min="12023" max="12023" width="13.109375" style="20" customWidth="1"/>
+    <col min="12024" max="12024" width="8.88671875" style="20"/>
+    <col min="12025" max="12025" width="14.5546875" style="20" customWidth="1"/>
+    <col min="12026" max="12026" width="14.44140625" style="20" customWidth="1"/>
+    <col min="12027" max="12027" width="8.88671875" style="20" customWidth="1"/>
+    <col min="12028" max="12028" width="19.109375" style="20" customWidth="1"/>
+    <col min="12029" max="12029" width="12.33203125" style="20" customWidth="1"/>
+    <col min="12030" max="12030" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="12031" max="12031" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="12032" max="12032" width="10.33203125" style="20" customWidth="1"/>
+    <col min="12033" max="12033" width="8" style="20" customWidth="1"/>
+    <col min="12034" max="12035" width="14.33203125" style="20" customWidth="1"/>
+    <col min="12036" max="12036" width="6.5546875" style="20" customWidth="1"/>
+    <col min="12037" max="12037" width="10.109375" style="20" customWidth="1"/>
+    <col min="12038" max="12038" width="7.5546875" style="20" customWidth="1"/>
+    <col min="12039" max="12277" width="8.88671875" style="20"/>
+    <col min="12278" max="12278" width="20.5546875" style="20" customWidth="1"/>
+    <col min="12279" max="12279" width="13.109375" style="20" customWidth="1"/>
+    <col min="12280" max="12280" width="8.88671875" style="20"/>
+    <col min="12281" max="12281" width="14.5546875" style="20" customWidth="1"/>
+    <col min="12282" max="12282" width="14.44140625" style="20" customWidth="1"/>
+    <col min="12283" max="12283" width="8.88671875" style="20" customWidth="1"/>
+    <col min="12284" max="12284" width="19.109375" style="20" customWidth="1"/>
+    <col min="12285" max="12285" width="12.33203125" style="20" customWidth="1"/>
+    <col min="12286" max="12286" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="12287" max="12287" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="12288" max="12288" width="10.33203125" style="20" customWidth="1"/>
+    <col min="12289" max="12289" width="8" style="20" customWidth="1"/>
+    <col min="12290" max="12291" width="14.33203125" style="20" customWidth="1"/>
+    <col min="12292" max="12292" width="6.5546875" style="20" customWidth="1"/>
+    <col min="12293" max="12293" width="10.109375" style="20" customWidth="1"/>
+    <col min="12294" max="12294" width="7.5546875" style="20" customWidth="1"/>
+    <col min="12295" max="12533" width="8.88671875" style="20"/>
+    <col min="12534" max="12534" width="20.5546875" style="20" customWidth="1"/>
+    <col min="12535" max="12535" width="13.109375" style="20" customWidth="1"/>
+    <col min="12536" max="12536" width="8.88671875" style="20"/>
+    <col min="12537" max="12537" width="14.5546875" style="20" customWidth="1"/>
+    <col min="12538" max="12538" width="14.44140625" style="20" customWidth="1"/>
+    <col min="12539" max="12539" width="8.88671875" style="20" customWidth="1"/>
+    <col min="12540" max="12540" width="19.109375" style="20" customWidth="1"/>
+    <col min="12541" max="12541" width="12.33203125" style="20" customWidth="1"/>
+    <col min="12542" max="12542" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="12543" max="12543" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="12544" max="12544" width="10.33203125" style="20" customWidth="1"/>
+    <col min="12545" max="12545" width="8" style="20" customWidth="1"/>
+    <col min="12546" max="12547" width="14.33203125" style="20" customWidth="1"/>
+    <col min="12548" max="12548" width="6.5546875" style="20" customWidth="1"/>
+    <col min="12549" max="12549" width="10.109375" style="20" customWidth="1"/>
+    <col min="12550" max="12550" width="7.5546875" style="20" customWidth="1"/>
+    <col min="12551" max="12789" width="8.88671875" style="20"/>
+    <col min="12790" max="12790" width="20.5546875" style="20" customWidth="1"/>
+    <col min="12791" max="12791" width="13.109375" style="20" customWidth="1"/>
+    <col min="12792" max="12792" width="8.88671875" style="20"/>
+    <col min="12793" max="12793" width="14.5546875" style="20" customWidth="1"/>
+    <col min="12794" max="12794" width="14.44140625" style="20" customWidth="1"/>
+    <col min="12795" max="12795" width="8.88671875" style="20" customWidth="1"/>
+    <col min="12796" max="12796" width="19.109375" style="20" customWidth="1"/>
+    <col min="12797" max="12797" width="12.33203125" style="20" customWidth="1"/>
+    <col min="12798" max="12798" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="12799" max="12799" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="12800" max="12800" width="10.33203125" style="20" customWidth="1"/>
+    <col min="12801" max="12801" width="8" style="20" customWidth="1"/>
+    <col min="12802" max="12803" width="14.33203125" style="20" customWidth="1"/>
+    <col min="12804" max="12804" width="6.5546875" style="20" customWidth="1"/>
+    <col min="12805" max="12805" width="10.109375" style="20" customWidth="1"/>
+    <col min="12806" max="12806" width="7.5546875" style="20" customWidth="1"/>
+    <col min="12807" max="13045" width="8.88671875" style="20"/>
+    <col min="13046" max="13046" width="20.5546875" style="20" customWidth="1"/>
+    <col min="13047" max="13047" width="13.109375" style="20" customWidth="1"/>
+    <col min="13048" max="13048" width="8.88671875" style="20"/>
+    <col min="13049" max="13049" width="14.5546875" style="20" customWidth="1"/>
+    <col min="13050" max="13050" width="14.44140625" style="20" customWidth="1"/>
+    <col min="13051" max="13051" width="8.88671875" style="20" customWidth="1"/>
+    <col min="13052" max="13052" width="19.109375" style="20" customWidth="1"/>
+    <col min="13053" max="13053" width="12.33203125" style="20" customWidth="1"/>
+    <col min="13054" max="13054" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="13055" max="13055" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="13056" max="13056" width="10.33203125" style="20" customWidth="1"/>
+    <col min="13057" max="13057" width="8" style="20" customWidth="1"/>
+    <col min="13058" max="13059" width="14.33203125" style="20" customWidth="1"/>
+    <col min="13060" max="13060" width="6.5546875" style="20" customWidth="1"/>
+    <col min="13061" max="13061" width="10.109375" style="20" customWidth="1"/>
+    <col min="13062" max="13062" width="7.5546875" style="20" customWidth="1"/>
+    <col min="13063" max="13301" width="8.88671875" style="20"/>
+    <col min="13302" max="13302" width="20.5546875" style="20" customWidth="1"/>
+    <col min="13303" max="13303" width="13.109375" style="20" customWidth="1"/>
+    <col min="13304" max="13304" width="8.88671875" style="20"/>
+    <col min="13305" max="13305" width="14.5546875" style="20" customWidth="1"/>
+    <col min="13306" max="13306" width="14.44140625" style="20" customWidth="1"/>
+    <col min="13307" max="13307" width="8.88671875" style="20" customWidth="1"/>
+    <col min="13308" max="13308" width="19.109375" style="20" customWidth="1"/>
+    <col min="13309" max="13309" width="12.33203125" style="20" customWidth="1"/>
+    <col min="13310" max="13310" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="13311" max="13311" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="13312" max="13312" width="10.33203125" style="20" customWidth="1"/>
+    <col min="13313" max="13313" width="8" style="20" customWidth="1"/>
+    <col min="13314" max="13315" width="14.33203125" style="20" customWidth="1"/>
+    <col min="13316" max="13316" width="6.5546875" style="20" customWidth="1"/>
+    <col min="13317" max="13317" width="10.109375" style="20" customWidth="1"/>
+    <col min="13318" max="13318" width="7.5546875" style="20" customWidth="1"/>
+    <col min="13319" max="13557" width="8.88671875" style="20"/>
+    <col min="13558" max="13558" width="20.5546875" style="20" customWidth="1"/>
+    <col min="13559" max="13559" width="13.109375" style="20" customWidth="1"/>
+    <col min="13560" max="13560" width="8.88671875" style="20"/>
+    <col min="13561" max="13561" width="14.5546875" style="20" customWidth="1"/>
+    <col min="13562" max="13562" width="14.44140625" style="20" customWidth="1"/>
+    <col min="13563" max="13563" width="8.88671875" style="20" customWidth="1"/>
+    <col min="13564" max="13564" width="19.109375" style="20" customWidth="1"/>
+    <col min="13565" max="13565" width="12.33203125" style="20" customWidth="1"/>
+    <col min="13566" max="13566" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="13567" max="13567" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="13568" max="13568" width="10.33203125" style="20" customWidth="1"/>
+    <col min="13569" max="13569" width="8" style="20" customWidth="1"/>
+    <col min="13570" max="13571" width="14.33203125" style="20" customWidth="1"/>
+    <col min="13572" max="13572" width="6.5546875" style="20" customWidth="1"/>
+    <col min="13573" max="13573" width="10.109375" style="20" customWidth="1"/>
+    <col min="13574" max="13574" width="7.5546875" style="20" customWidth="1"/>
+    <col min="13575" max="13813" width="8.88671875" style="20"/>
+    <col min="13814" max="13814" width="20.5546875" style="20" customWidth="1"/>
+    <col min="13815" max="13815" width="13.109375" style="20" customWidth="1"/>
+    <col min="13816" max="13816" width="8.88671875" style="20"/>
+    <col min="13817" max="13817" width="14.5546875" style="20" customWidth="1"/>
+    <col min="13818" max="13818" width="14.44140625" style="20" customWidth="1"/>
+    <col min="13819" max="13819" width="8.88671875" style="20" customWidth="1"/>
+    <col min="13820" max="13820" width="19.109375" style="20" customWidth="1"/>
+    <col min="13821" max="13821" width="12.33203125" style="20" customWidth="1"/>
+    <col min="13822" max="13822" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="13823" max="13823" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="13824" max="13824" width="10.33203125" style="20" customWidth="1"/>
+    <col min="13825" max="13825" width="8" style="20" customWidth="1"/>
+    <col min="13826" max="13827" width="14.33203125" style="20" customWidth="1"/>
+    <col min="13828" max="13828" width="6.5546875" style="20" customWidth="1"/>
+    <col min="13829" max="13829" width="10.109375" style="20" customWidth="1"/>
+    <col min="13830" max="13830" width="7.5546875" style="20" customWidth="1"/>
+    <col min="13831" max="14069" width="8.88671875" style="20"/>
+    <col min="14070" max="14070" width="20.5546875" style="20" customWidth="1"/>
+    <col min="14071" max="14071" width="13.109375" style="20" customWidth="1"/>
+    <col min="14072" max="14072" width="8.88671875" style="20"/>
+    <col min="14073" max="14073" width="14.5546875" style="20" customWidth="1"/>
+    <col min="14074" max="14074" width="14.44140625" style="20" customWidth="1"/>
+    <col min="14075" max="14075" width="8.88671875" style="20" customWidth="1"/>
+    <col min="14076" max="14076" width="19.109375" style="20" customWidth="1"/>
+    <col min="14077" max="14077" width="12.33203125" style="20" customWidth="1"/>
+    <col min="14078" max="14078" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="14079" max="14079" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="14080" max="14080" width="10.33203125" style="20" customWidth="1"/>
+    <col min="14081" max="14081" width="8" style="20" customWidth="1"/>
+    <col min="14082" max="14083" width="14.33203125" style="20" customWidth="1"/>
+    <col min="14084" max="14084" width="6.5546875" style="20" customWidth="1"/>
+    <col min="14085" max="14085" width="10.109375" style="20" customWidth="1"/>
+    <col min="14086" max="14086" width="7.5546875" style="20" customWidth="1"/>
+    <col min="14087" max="14325" width="8.88671875" style="20"/>
+    <col min="14326" max="14326" width="20.5546875" style="20" customWidth="1"/>
+    <col min="14327" max="14327" width="13.109375" style="20" customWidth="1"/>
+    <col min="14328" max="14328" width="8.88671875" style="20"/>
+    <col min="14329" max="14329" width="14.5546875" style="20" customWidth="1"/>
+    <col min="14330" max="14330" width="14.44140625" style="20" customWidth="1"/>
+    <col min="14331" max="14331" width="8.88671875" style="20" customWidth="1"/>
+    <col min="14332" max="14332" width="19.109375" style="20" customWidth="1"/>
+    <col min="14333" max="14333" width="12.33203125" style="20" customWidth="1"/>
+    <col min="14334" max="14334" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="14335" max="14335" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="14336" max="14336" width="10.33203125" style="20" customWidth="1"/>
+    <col min="14337" max="14337" width="8" style="20" customWidth="1"/>
+    <col min="14338" max="14339" width="14.33203125" style="20" customWidth="1"/>
+    <col min="14340" max="14340" width="6.5546875" style="20" customWidth="1"/>
+    <col min="14341" max="14341" width="10.109375" style="20" customWidth="1"/>
+    <col min="14342" max="14342" width="7.5546875" style="20" customWidth="1"/>
+    <col min="14343" max="14581" width="8.88671875" style="20"/>
+    <col min="14582" max="14582" width="20.5546875" style="20" customWidth="1"/>
+    <col min="14583" max="14583" width="13.109375" style="20" customWidth="1"/>
+    <col min="14584" max="14584" width="8.88671875" style="20"/>
+    <col min="14585" max="14585" width="14.5546875" style="20" customWidth="1"/>
+    <col min="14586" max="14586" width="14.44140625" style="20" customWidth="1"/>
+    <col min="14587" max="14587" width="8.88671875" style="20" customWidth="1"/>
+    <col min="14588" max="14588" width="19.109375" style="20" customWidth="1"/>
+    <col min="14589" max="14589" width="12.33203125" style="20" customWidth="1"/>
+    <col min="14590" max="14590" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="14591" max="14591" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="14592" max="14592" width="10.33203125" style="20" customWidth="1"/>
+    <col min="14593" max="14593" width="8" style="20" customWidth="1"/>
+    <col min="14594" max="14595" width="14.33203125" style="20" customWidth="1"/>
+    <col min="14596" max="14596" width="6.5546875" style="20" customWidth="1"/>
+    <col min="14597" max="14597" width="10.109375" style="20" customWidth="1"/>
+    <col min="14598" max="14598" width="7.5546875" style="20" customWidth="1"/>
+    <col min="14599" max="14837" width="8.88671875" style="20"/>
+    <col min="14838" max="14838" width="20.5546875" style="20" customWidth="1"/>
+    <col min="14839" max="14839" width="13.109375" style="20" customWidth="1"/>
+    <col min="14840" max="14840" width="8.88671875" style="20"/>
+    <col min="14841" max="14841" width="14.5546875" style="20" customWidth="1"/>
+    <col min="14842" max="14842" width="14.44140625" style="20" customWidth="1"/>
+    <col min="14843" max="14843" width="8.88671875" style="20" customWidth="1"/>
+    <col min="14844" max="14844" width="19.109375" style="20" customWidth="1"/>
+    <col min="14845" max="14845" width="12.33203125" style="20" customWidth="1"/>
+    <col min="14846" max="14846" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="14847" max="14847" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="14848" max="14848" width="10.33203125" style="20" customWidth="1"/>
+    <col min="14849" max="14849" width="8" style="20" customWidth="1"/>
+    <col min="14850" max="14851" width="14.33203125" style="20" customWidth="1"/>
+    <col min="14852" max="14852" width="6.5546875" style="20" customWidth="1"/>
+    <col min="14853" max="14853" width="10.109375" style="20" customWidth="1"/>
+    <col min="14854" max="14854" width="7.5546875" style="20" customWidth="1"/>
+    <col min="14855" max="15093" width="8.88671875" style="20"/>
+    <col min="15094" max="15094" width="20.5546875" style="20" customWidth="1"/>
+    <col min="15095" max="15095" width="13.109375" style="20" customWidth="1"/>
+    <col min="15096" max="15096" width="8.88671875" style="20"/>
+    <col min="15097" max="15097" width="14.5546875" style="20" customWidth="1"/>
+    <col min="15098" max="15098" width="14.44140625" style="20" customWidth="1"/>
+    <col min="15099" max="15099" width="8.88671875" style="20" customWidth="1"/>
+    <col min="15100" max="15100" width="19.109375" style="20" customWidth="1"/>
+    <col min="15101" max="15101" width="12.33203125" style="20" customWidth="1"/>
+    <col min="15102" max="15102" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="15103" max="15103" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="15104" max="15104" width="10.33203125" style="20" customWidth="1"/>
+    <col min="15105" max="15105" width="8" style="20" customWidth="1"/>
+    <col min="15106" max="15107" width="14.33203125" style="20" customWidth="1"/>
+    <col min="15108" max="15108" width="6.5546875" style="20" customWidth="1"/>
+    <col min="15109" max="15109" width="10.109375" style="20" customWidth="1"/>
+    <col min="15110" max="15110" width="7.5546875" style="20" customWidth="1"/>
+    <col min="15111" max="15349" width="8.88671875" style="20"/>
+    <col min="15350" max="15350" width="20.5546875" style="20" customWidth="1"/>
+    <col min="15351" max="15351" width="13.109375" style="20" customWidth="1"/>
+    <col min="15352" max="15352" width="8.88671875" style="20"/>
+    <col min="15353" max="15353" width="14.5546875" style="20" customWidth="1"/>
+    <col min="15354" max="15354" width="14.44140625" style="20" customWidth="1"/>
+    <col min="15355" max="15355" width="8.88671875" style="20" customWidth="1"/>
+    <col min="15356" max="15356" width="19.109375" style="20" customWidth="1"/>
+    <col min="15357" max="15357" width="12.33203125" style="20" customWidth="1"/>
+    <col min="15358" max="15358" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="15359" max="15359" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="15360" max="15360" width="10.33203125" style="20" customWidth="1"/>
+    <col min="15361" max="15361" width="8" style="20" customWidth="1"/>
+    <col min="15362" max="15363" width="14.33203125" style="20" customWidth="1"/>
+    <col min="15364" max="15364" width="6.5546875" style="20" customWidth="1"/>
+    <col min="15365" max="15365" width="10.109375" style="20" customWidth="1"/>
+    <col min="15366" max="15366" width="7.5546875" style="20" customWidth="1"/>
+    <col min="15367" max="15605" width="8.88671875" style="20"/>
+    <col min="15606" max="15606" width="20.5546875" style="20" customWidth="1"/>
+    <col min="15607" max="15607" width="13.109375" style="20" customWidth="1"/>
+    <col min="15608" max="15608" width="8.88671875" style="20"/>
+    <col min="15609" max="15609" width="14.5546875" style="20" customWidth="1"/>
+    <col min="15610" max="15610" width="14.44140625" style="20" customWidth="1"/>
+    <col min="15611" max="15611" width="8.88671875" style="20" customWidth="1"/>
+    <col min="15612" max="15612" width="19.109375" style="20" customWidth="1"/>
+    <col min="15613" max="15613" width="12.33203125" style="20" customWidth="1"/>
+    <col min="15614" max="15614" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="15615" max="15615" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="15616" max="15616" width="10.33203125" style="20" customWidth="1"/>
+    <col min="15617" max="15617" width="8" style="20" customWidth="1"/>
+    <col min="15618" max="15619" width="14.33203125" style="20" customWidth="1"/>
+    <col min="15620" max="15620" width="6.5546875" style="20" customWidth="1"/>
+    <col min="15621" max="15621" width="10.109375" style="20" customWidth="1"/>
+    <col min="15622" max="15622" width="7.5546875" style="20" customWidth="1"/>
+    <col min="15623" max="15861" width="8.88671875" style="20"/>
+    <col min="15862" max="15862" width="20.5546875" style="20" customWidth="1"/>
+    <col min="15863" max="15863" width="13.109375" style="20" customWidth="1"/>
+    <col min="15864" max="15864" width="8.88671875" style="20"/>
+    <col min="15865" max="15865" width="14.5546875" style="20" customWidth="1"/>
+    <col min="15866" max="15866" width="14.44140625" style="20" customWidth="1"/>
+    <col min="15867" max="15867" width="8.88671875" style="20" customWidth="1"/>
+    <col min="15868" max="15868" width="19.109375" style="20" customWidth="1"/>
+    <col min="15869" max="15869" width="12.33203125" style="20" customWidth="1"/>
+    <col min="15870" max="15870" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="15871" max="15871" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="15872" max="15872" width="10.33203125" style="20" customWidth="1"/>
+    <col min="15873" max="15873" width="8" style="20" customWidth="1"/>
+    <col min="15874" max="15875" width="14.33203125" style="20" customWidth="1"/>
+    <col min="15876" max="15876" width="6.5546875" style="20" customWidth="1"/>
+    <col min="15877" max="15877" width="10.109375" style="20" customWidth="1"/>
+    <col min="15878" max="15878" width="7.5546875" style="20" customWidth="1"/>
+    <col min="15879" max="16117" width="8.88671875" style="20"/>
+    <col min="16118" max="16118" width="20.5546875" style="20" customWidth="1"/>
+    <col min="16119" max="16119" width="13.109375" style="20" customWidth="1"/>
+    <col min="16120" max="16120" width="8.88671875" style="20"/>
+    <col min="16121" max="16121" width="14.5546875" style="20" customWidth="1"/>
+    <col min="16122" max="16122" width="14.44140625" style="20" customWidth="1"/>
+    <col min="16123" max="16123" width="8.88671875" style="20" customWidth="1"/>
+    <col min="16124" max="16124" width="19.109375" style="20" customWidth="1"/>
+    <col min="16125" max="16125" width="12.33203125" style="20" customWidth="1"/>
+    <col min="16126" max="16126" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="16127" max="16127" width="42.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="16128" max="16128" width="10.33203125" style="20" customWidth="1"/>
+    <col min="16129" max="16129" width="8" style="20" customWidth="1"/>
+    <col min="16130" max="16131" width="14.33203125" style="20" customWidth="1"/>
+    <col min="16132" max="16132" width="6.5546875" style="20" customWidth="1"/>
+    <col min="16133" max="16133" width="10.109375" style="20" customWidth="1"/>
+    <col min="16134" max="16134" width="7.5546875" style="20" customWidth="1"/>
+    <col min="16135" max="16384" width="8.88671875" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="19" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
@@ -5098,7 +5089,7 @@
         <v>16500</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>14</v>
@@ -5116,7 +5107,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -5134,19 +5125,19 @@
     </row>
     <row r="8" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
-        <v>151330034</v>
+        <v>151338133</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D8" s="10">
         <v>2400</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>99</v>
+      <c r="E8" s="4">
+        <v>45077</v>
       </c>
       <c r="F8" s="2">
         <v>615181</v>
@@ -5155,16 +5146,16 @@
         <v>17</v>
       </c>
       <c r="H8" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J8" s="2">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
-        <v>308.20229999999998</v>
+        <v>14</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -5200,7 +5191,7 @@
         <v>615698</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H10" s="27">
         <v>10</v>
@@ -5209,7 +5200,7 @@
         <v>12</v>
       </c>
       <c r="J10" s="27">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K10" s="27"/>
     </row>
@@ -5240,7 +5231,7 @@
         <v>4700</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>21</v>
@@ -5258,7 +5249,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -5269,7 +5260,7 @@
       <c r="E13" s="22"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="1"/>
@@ -5290,7 +5281,7 @@
         <v>3700</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F14" s="13">
         <v>615840</v>
@@ -5308,7 +5299,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -5353,11 +5344,11 @@
         <v>12</v>
       </c>
       <c r="J16" s="30">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K16" s="30"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -5370,42 +5361,42 @@
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
     </row>
-    <row r="18" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
-        <v>151330034</v>
+        <v>151338133</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D18" s="2">
         <v>5614</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>99</v>
+      <c r="E18" s="4">
+        <v>45077</v>
       </c>
       <c r="F18" s="2">
         <v>616026</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H18" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J18" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="B19" s="27"/>
       <c r="C19" s="27"/>
@@ -5418,7 +5409,7 @@
       <c r="J19" s="27"/>
       <c r="K19" s="30"/>
     </row>
-    <row r="20" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="26">
         <v>151335926</v>
       </c>
@@ -5438,7 +5429,7 @@
         <v>26</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H20" s="30">
         <v>30</v>
@@ -5447,126 +5438,129 @@
         <v>12</v>
       </c>
       <c r="J20" s="30">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="K20" s="30"/>
       <c r="L20" s="34"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-    </row>
-    <row r="22" spans="1:12" s="31" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="26">
-        <v>151302474</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="27">
-        <v>30</v>
-      </c>
-      <c r="D22" s="27">
+    <row r="21" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>151338133</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="2">
+        <v>70</v>
+      </c>
+      <c r="D21" s="5">
+        <v>6521</v>
+      </c>
+      <c r="E21" s="4">
+        <v>45077</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21" s="5">
+        <v>20</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="5">
+        <v>20</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="M22" s="31"/>
+    </row>
+    <row r="23" spans="1:13" s="31" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="26">
+        <v>151335926</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="27">
+        <v>80</v>
+      </c>
+      <c r="D23" s="27">
         <v>4048</v>
       </c>
-      <c r="E22" s="29">
-        <v>44987</v>
-      </c>
-      <c r="F22" s="27">
+      <c r="E23" s="39">
+        <v>45070</v>
+      </c>
+      <c r="F23" s="27">
         <v>630059</v>
       </c>
-      <c r="G22" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="H22" s="27">
-        <v>10</v>
-      </c>
-      <c r="I22" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="J22" s="27">
-        <v>4</v>
-      </c>
-      <c r="K22" s="27"/>
-    </row>
-    <row r="23" spans="1:12" s="31" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
-        <v>151330034</v>
-      </c>
-      <c r="B23" s="2" t="s">
+      <c r="G23" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="H23" s="27">
+        <v>50</v>
+      </c>
+      <c r="I23" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="27">
+        <v>35</v>
+      </c>
+      <c r="K23" s="27"/>
+    </row>
+    <row r="24" spans="1:13" s="31" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>151338133</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="2">
-        <v>10</v>
-      </c>
-      <c r="D23" s="2">
+      <c r="C24" s="2">
+        <v>10</v>
+      </c>
+      <c r="D24" s="2">
         <v>4048</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F23" s="2">
+      <c r="E24" s="43">
+        <v>45077</v>
+      </c>
+      <c r="F24" s="2">
         <v>630059</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H23" s="2">
-        <v>15</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" s="2">
-        <v>1</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" s="31" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="26">
-        <v>151335926</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="27">
-        <v>80</v>
-      </c>
-      <c r="D24" s="27">
-        <v>4048</v>
-      </c>
-      <c r="E24" s="39">
-        <v>45070</v>
-      </c>
-      <c r="F24" s="27">
-        <v>630059</v>
-      </c>
-      <c r="G24" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="H24" s="27">
-        <v>50</v>
-      </c>
-      <c r="I24" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" s="27">
-        <v>50</v>
-      </c>
-      <c r="K24" s="27"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" s="2">
+        <v>20</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="2">
+        <v>20</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="40"/>
@@ -5578,43 +5572,44 @@
       <c r="I25" s="41"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M25" s="31"/>
+    </row>
+    <row r="26" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
-        <v>151330034</v>
+        <v>151338133</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C26" s="2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D26" s="38">
         <v>5738</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>99</v>
+      <c r="E26" s="43">
+        <v>45077</v>
       </c>
       <c r="F26" s="6">
         <v>632215</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H26" s="2">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J26" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -5626,8 +5621,9 @@
       <c r="I27" s="24"/>
       <c r="J27" s="24"/>
       <c r="K27" s="11"/>
-    </row>
-    <row r="28" spans="1:12" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M27" s="31"/>
+    </row>
+    <row r="28" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>151110116</v>
       </c>
@@ -5641,7 +5637,7 @@
         <v>3450</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F28" s="13">
         <v>634355</v>
@@ -5659,10 +5655,11 @@
         <v>10</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="M28" s="31"/>
+    </row>
+    <row r="29" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
       <c r="C29" s="14"/>
@@ -5674,8 +5671,9 @@
       <c r="I29" s="13"/>
       <c r="J29" s="25"/>
       <c r="K29" s="12"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M29" s="31"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>151008992</v>
       </c>
@@ -5709,8 +5707,9 @@
       <c r="K30" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M30" s="31"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -5722,8 +5721,9 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
-    </row>
-    <row r="32" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M31" s="31"/>
+    </row>
+    <row r="32" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="26">
         <v>151302474</v>
       </c>
@@ -5737,13 +5737,13 @@
         <v>2818</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F32" s="26">
         <v>635656</v>
       </c>
       <c r="G32" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H32" s="27">
         <v>15</v>
@@ -5755,10 +5755,10 @@
         <v>0</v>
       </c>
       <c r="K32" s="27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -5770,8 +5770,9 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
-    </row>
-    <row r="34" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M33" s="31"/>
+    </row>
+    <row r="34" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="26">
         <v>151335926</v>
       </c>
@@ -5791,7 +5792,7 @@
         <v>646872</v>
       </c>
       <c r="G34" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H34" s="27">
         <v>10</v>
@@ -5800,284 +5801,286 @@
         <v>12</v>
       </c>
       <c r="J34" s="27">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K34" s="26"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="11"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="11">
+    <row r="35" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="6">
+        <v>151338133</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="2">
+        <v>40</v>
+      </c>
+      <c r="D35" s="38">
+        <v>3555</v>
+      </c>
+      <c r="E35" s="43">
+        <v>45077</v>
+      </c>
+      <c r="F35" s="6">
+        <v>646872</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H35" s="2">
+        <v>10</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J35" s="2">
+        <v>10</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="11"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="11">
         <v>151110116</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="1">
+      <c r="B37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="1">
         <v>40</v>
       </c>
-      <c r="D36" s="21">
+      <c r="D37" s="21">
         <v>112</v>
       </c>
-      <c r="E36" s="22" t="s">
+      <c r="E37" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H37" s="12">
+        <v>50</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37" s="12">
+        <v>0</v>
+      </c>
+      <c r="K37" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H36" s="12">
-        <v>50</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J36" s="12">
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="6">
+        <v>151338133</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="2">
+        <v>90</v>
+      </c>
+      <c r="D39" s="3">
+        <v>3510</v>
+      </c>
+      <c r="E39" s="4">
+        <v>45077</v>
+      </c>
+      <c r="F39" s="2">
+        <v>663091</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H39" s="5">
+        <v>10</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J39" s="5">
+        <v>10</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" s="6">
+        <v>151338133</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="2">
+        <v>80</v>
+      </c>
+      <c r="D41" s="3">
+        <v>5130</v>
+      </c>
+      <c r="E41" s="4">
+        <v>45077</v>
+      </c>
+      <c r="F41" s="2">
+        <v>663092</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H41" s="5">
+        <v>10</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J41" s="5">
+        <v>10</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+    </row>
+    <row r="43" spans="1:13" s="31" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="6">
+        <v>151330034</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="2">
+        <v>60</v>
+      </c>
+      <c r="D43" s="3">
+        <v>6615</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F43" s="2">
+        <v>663093</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H43" s="5">
+        <v>10</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J43" s="5">
         <v>0</v>
       </c>
-      <c r="K36" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="6">
-        <v>151197029</v>
-      </c>
-      <c r="B38" s="2" t="s">
+      <c r="K43" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+    </row>
+    <row r="45" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="6">
+        <v>151338133</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="2">
-        <v>60</v>
-      </c>
-      <c r="D38" s="3">
-        <v>3510</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F38" s="2">
-        <v>663091</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H38" s="5">
-        <v>2</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J38" s="5">
-        <v>0</v>
-      </c>
-      <c r="K38" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="6">
-        <v>151090350</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" s="2">
-        <v>10</v>
-      </c>
-      <c r="D40" s="3">
-        <v>5130</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F40" s="2">
-        <v>663092</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H40" s="5">
-        <v>2</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J40" s="5">
-        <v>0</v>
-      </c>
-      <c r="K40" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-    </row>
-    <row r="42" spans="1:11" s="31" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="6">
-        <v>151330034</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" s="2">
-        <v>60</v>
-      </c>
-      <c r="D42" s="3">
-        <v>6615</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F42" s="2">
-        <v>663093</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H42" s="5">
-        <v>10</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J42" s="5">
-        <v>0</v>
-      </c>
-      <c r="K42" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="6">
-        <v>151326603</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" s="2">
-        <v>20</v>
-      </c>
-      <c r="D44" s="3">
+      <c r="C45" s="2">
+        <v>30</v>
+      </c>
+      <c r="D45" s="3">
         <v>6000</v>
       </c>
-      <c r="E44" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F44" s="2">
+      <c r="E45" s="43">
+        <v>45077</v>
+      </c>
+      <c r="F45" s="2">
         <v>668330</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="G45" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H44" s="5">
-        <v>9</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J44" s="5">
-        <v>7</v>
-      </c>
-      <c r="K44" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="26">
-        <v>151335926</v>
-      </c>
-      <c r="B45" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" s="27">
-        <v>50</v>
-      </c>
-      <c r="D45" s="28">
-        <v>6000</v>
-      </c>
-      <c r="E45" s="39">
-        <v>45070</v>
-      </c>
-      <c r="F45" s="27">
-        <v>668330</v>
-      </c>
-      <c r="G45" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="H45" s="30">
-        <v>57</v>
-      </c>
-      <c r="I45" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="J45" s="30">
-        <v>57</v>
-      </c>
-      <c r="K45" s="30"/>
-    </row>
-    <row r="46" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H45" s="5">
+        <v>15</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J45" s="5">
+        <v>15</v>
+      </c>
+      <c r="K45" s="4">
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="15"/>
       <c r="B46" s="15"/>
       <c r="C46" s="40"/>
@@ -6090,7 +6093,7 @@
       <c r="J46" s="30"/>
       <c r="K46" s="30"/>
     </row>
-    <row r="47" spans="1:11" s="31" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" s="31" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="11">
         <v>151332240</v>
       </c>
@@ -6104,13 +6107,13 @@
         <v>9703</v>
       </c>
       <c r="E47" s="29" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F47" s="26">
         <v>681149</v>
       </c>
       <c r="G47" s="26" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H47" s="30">
         <v>4</v>
@@ -6122,12 +6125,12 @@
         <v>0</v>
       </c>
       <c r="K47" s="29" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -6140,7 +6143,7 @@
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
     </row>
-    <row r="49" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="26">
         <v>151335926</v>
       </c>
@@ -6169,11 +6172,11 @@
         <v>12</v>
       </c>
       <c r="J49" s="30">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K49" s="30"/>
     </row>
-    <row r="50" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="15"/>
       <c r="B50" s="15"/>
       <c r="C50" s="40"/>
@@ -6186,7 +6189,7 @@
       <c r="J50" s="30"/>
       <c r="K50" s="30"/>
     </row>
-    <row r="51" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>151330034</v>
       </c>
@@ -6200,13 +6203,13 @@
         <v>8463</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F51" s="6">
         <v>687349</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H51" s="5">
         <v>25</v>
@@ -6218,10 +6221,10 @@
         <v>0</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="26"/>
       <c r="B52" s="27"/>
       <c r="C52" s="27"/>
@@ -6234,7 +6237,7 @@
       <c r="J52" s="30"/>
       <c r="K52" s="30"/>
     </row>
-    <row r="53" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>151242082</v>
       </c>
@@ -6248,13 +6251,13 @@
         <v>1600</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F53" s="6">
         <v>691660</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H53" s="5">
         <v>1</v>
@@ -6266,10 +6269,10 @@
         <v>0</v>
       </c>
       <c r="K53" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -6282,7 +6285,7 @@
       <c r="J54" s="12"/>
       <c r="K54" s="12"/>
     </row>
-    <row r="55" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="11">
         <v>151330961</v>
       </c>
@@ -6296,7 +6299,7 @@
         <v>565</v>
       </c>
       <c r="E55" s="29" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F55" s="27" t="s">
         <v>36</v>
@@ -6311,13 +6314,13 @@
         <v>12</v>
       </c>
       <c r="J55" s="30">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="K55" s="30" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -6329,11 +6332,8 @@
       <c r="I56" s="1"/>
       <c r="J56" s="12"/>
       <c r="K56" s="12"/>
-      <c r="M56" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="17">
         <v>151264212</v>
       </c>
@@ -6347,13 +6347,13 @@
         <v>10710</v>
       </c>
       <c r="E57" s="33" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F57" s="17">
         <v>704681</v>
       </c>
       <c r="G57" s="17" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H57" s="18">
         <v>1</v>
@@ -6365,10 +6365,10 @@
         <v>0</v>
       </c>
       <c r="K57" s="18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -6381,7 +6381,7 @@
       <c r="J58" s="12"/>
       <c r="K58" s="12"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>38</v>
       </c>
@@ -6416,7 +6416,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -6429,7 +6429,7 @@
       <c r="J60" s="12"/>
       <c r="K60" s="12"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>38</v>
       </c>
@@ -6464,7 +6464,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -6477,7 +6477,7 @@
       <c r="J62" s="12"/>
       <c r="K62" s="12"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>151326492</v>
       </c>
@@ -6491,7 +6491,7 @@
         <v>1896</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F63" s="2">
         <v>716663</v>
@@ -6509,10 +6509,10 @@
         <v>0</v>
       </c>
       <c r="K63" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -6539,7 +6539,7 @@
         <v>45000</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F65" s="7">
         <v>719031</v>
@@ -6557,7 +6557,7 @@
         <v>0</v>
       </c>
       <c r="K65" s="37" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
@@ -6587,7 +6587,7 @@
         <v>9999</v>
       </c>
       <c r="E67" s="26" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F67" s="26">
         <v>719381</v>
@@ -6605,7 +6605,7 @@
         <v>0</v>
       </c>
       <c r="K67" s="26" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
@@ -6635,7 +6635,7 @@
         <v>6800</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F69" s="7">
         <v>720138</v>
@@ -6653,7 +6653,7 @@
         <v>0</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
@@ -6683,13 +6683,13 @@
         <v>2490</v>
       </c>
       <c r="E71" s="27" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F71" s="26">
         <v>724214</v>
       </c>
       <c r="G71" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H71" s="27">
         <v>10</v>
@@ -6701,7 +6701,7 @@
         <v>0</v>
       </c>
       <c r="K71" s="27" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
@@ -6779,13 +6779,13 @@
         <v>100</v>
       </c>
       <c r="E75" s="27" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F75" s="27">
         <v>728488</v>
       </c>
       <c r="G75" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H75" s="27">
         <v>10</v>
@@ -6797,7 +6797,7 @@
         <v>0</v>
       </c>
       <c r="K75" s="27" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/Updated PO.xlsx
+++ b/Updated PO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
+    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -880,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L44" sqref="L44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>

--- a/Updated PO.xlsx
+++ b/Updated PO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="104">
   <si>
     <t>Purchasing Document</t>
   </si>
@@ -284,9 +284,6 @@
     <t>15.02.2023</t>
   </si>
   <si>
-    <t>16.03.2023</t>
-  </si>
-  <si>
     <t>17.05.2023</t>
   </si>
   <si>
@@ -296,15 +293,6 @@
     <t>14.06.2023</t>
   </si>
   <si>
-    <t>06.04.2023</t>
-  </si>
-  <si>
-    <t>15.04.2023</t>
-  </si>
-  <si>
-    <t>26.04.2023</t>
-  </si>
-  <si>
     <t>30.03.2023</t>
   </si>
   <si>
@@ -329,9 +317,6 @@
     <t>09.05.2023</t>
   </si>
   <si>
-    <t>11.05.2023</t>
-  </si>
-  <si>
     <t>10.06.2023</t>
   </si>
   <si>
@@ -339,6 +324,21 @@
   </si>
   <si>
     <t>29.08.2023</t>
+  </si>
+  <si>
+    <t>01.07.2023</t>
+  </si>
+  <si>
+    <t>13.06.2023</t>
+  </si>
+  <si>
+    <t>20.06.2023</t>
+  </si>
+  <si>
+    <t>03.07.2023</t>
+  </si>
+  <si>
+    <t>05.07.2023</t>
   </si>
 </sst>
 </file>
@@ -443,7 +443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -544,9 +544,6 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -559,9 +556,6 @@
     <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -572,6 +566,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -878,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M75"/>
+  <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="J69" sqref="J69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -2187,10 +2184,10 @@
         <v>12</v>
       </c>
       <c r="J8" s="2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -2242,13 +2239,13 @@
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
-      <c r="C11" s="40"/>
+      <c r="C11" s="38"/>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="41"/>
+      <c r="I11" s="39"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
@@ -2284,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -2334,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -2425,10 +2422,10 @@
         <v>12</v>
       </c>
       <c r="J18" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -2445,122 +2442,104 @@
       <c r="K19" s="30"/>
     </row>
     <row r="20" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="26">
-        <v>151335926</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="27">
-        <v>90</v>
-      </c>
-      <c r="D20" s="30">
+      <c r="A20" s="6">
+        <v>151338133</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="2">
+        <v>70</v>
+      </c>
+      <c r="D20" s="5">
         <v>6521</v>
       </c>
-      <c r="E20" s="29">
-        <v>45070</v>
-      </c>
-      <c r="F20" s="27" t="s">
+      <c r="E20" s="4">
+        <v>45077</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="27" t="s">
+      <c r="G20" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H20" s="30">
-        <v>30</v>
-      </c>
-      <c r="I20" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="30">
-        <v>0</v>
-      </c>
-      <c r="K20" s="30"/>
-      <c r="L20" s="34"/>
-    </row>
-    <row r="21" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6">
+      <c r="H20" s="5">
+        <v>20</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="5">
+        <v>12</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="M21" s="31"/>
+    </row>
+    <row r="22" spans="1:13" s="31" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
         <v>151338133</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="2">
-        <v>70</v>
-      </c>
-      <c r="D21" s="5">
-        <v>6521</v>
-      </c>
-      <c r="E21" s="4">
+      <c r="C22" s="2">
+        <v>10</v>
+      </c>
+      <c r="D22" s="2">
+        <v>4048</v>
+      </c>
+      <c r="E22" s="41">
         <v>45077</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H21" s="5">
+      <c r="F22" s="2">
+        <v>630059</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" s="2">
         <v>20</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="5">
-        <v>20</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="M22" s="31"/>
-    </row>
-    <row r="23" spans="1:13" s="31" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="26">
-        <v>151335926</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="27">
-        <v>80</v>
-      </c>
-      <c r="D23" s="27">
-        <v>4048</v>
-      </c>
-      <c r="E23" s="39">
-        <v>45070</v>
-      </c>
-      <c r="F23" s="27">
-        <v>630059</v>
-      </c>
-      <c r="G23" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="H23" s="27">
-        <v>50</v>
-      </c>
-      <c r="I23" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" s="27">
-        <v>0</v>
-      </c>
-      <c r="K23" s="27"/>
-    </row>
-    <row r="24" spans="1:13" s="31" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="2">
+        <v>10</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="M23" s="31"/>
+    </row>
+    <row r="24" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>151338133</v>
       </c>
@@ -2568,181 +2547,181 @@
         <v>16</v>
       </c>
       <c r="C24" s="2">
-        <v>10</v>
-      </c>
-      <c r="D24" s="2">
-        <v>4048</v>
-      </c>
-      <c r="E24" s="43">
+        <v>60</v>
+      </c>
+      <c r="D24" s="37">
+        <v>5738</v>
+      </c>
+      <c r="E24" s="41">
         <v>45077</v>
       </c>
-      <c r="F24" s="2">
-        <v>630059</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>67</v>
+      <c r="F24" s="6">
+        <v>632215</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="H24" s="2">
+        <v>15</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="2">
+        <v>15</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="11"/>
+      <c r="M25" s="31"/>
+    </row>
+    <row r="26" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11">
+        <v>151110116</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="1">
+        <v>60</v>
+      </c>
+      <c r="D26" s="13">
+        <v>3450</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="13">
+        <v>634355</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" s="13">
+        <v>10</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" s="13">
+        <v>10</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="M26" s="31"/>
+    </row>
+    <row r="27" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="12"/>
+      <c r="M27" s="31"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>151008992</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="2">
         <v>20</v>
       </c>
-      <c r="I24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" s="2">
+      <c r="D28" s="10">
+        <v>4726</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="2">
+        <v>635655</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" s="2">
+        <v>10</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K24" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="M25" s="31"/>
-    </row>
-    <row r="26" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6">
-        <v>151338133</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="2">
-        <v>60</v>
-      </c>
-      <c r="D26" s="38">
-        <v>5738</v>
-      </c>
-      <c r="E26" s="43">
-        <v>45077</v>
-      </c>
-      <c r="F26" s="6">
-        <v>632215</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="H26" s="2">
+      <c r="M28" s="31"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="M29" s="31"/>
+    </row>
+    <row r="30" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="26">
+        <v>151302474</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="27">
+        <v>40</v>
+      </c>
+      <c r="D30" s="35">
+        <v>2818</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" s="26">
+        <v>635656</v>
+      </c>
+      <c r="G30" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="H30" s="27">
         <v>15</v>
       </c>
-      <c r="I26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J26" s="2">
-        <v>15</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="11"/>
-      <c r="M27" s="31"/>
-    </row>
-    <row r="28" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="11">
-        <v>151110116</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="1">
-        <v>60</v>
-      </c>
-      <c r="D28" s="13">
-        <v>3450</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="F28" s="13">
-        <v>634355</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H28" s="13">
-        <v>10</v>
-      </c>
-      <c r="I28" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J28" s="13">
-        <v>10</v>
-      </c>
-      <c r="K28" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="M28" s="31"/>
-    </row>
-    <row r="29" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="12"/>
-      <c r="M29" s="31"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
-        <v>151008992</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="2">
-        <v>20</v>
-      </c>
-      <c r="D30" s="10">
-        <v>4726</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F30" s="2">
-        <v>635655</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H30" s="2">
-        <v>10</v>
-      </c>
-      <c r="I30" s="2" t="s">
+      <c r="I30" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J30" s="27">
         <v>0</v>
       </c>
-      <c r="K30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M30" s="31"/>
+      <c r="K30" s="27" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
@@ -2750,7 +2729,7 @@
       <c r="C31" s="1"/>
       <c r="D31" s="23"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="F31" s="11"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -2759,1080 +2738,998 @@
       <c r="M31" s="31"/>
     </row>
     <row r="32" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="26">
-        <v>151302474</v>
-      </c>
-      <c r="B32" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="27">
+      <c r="A32" s="6">
+        <v>151338133</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="2">
         <v>40</v>
       </c>
-      <c r="D32" s="36">
-        <v>2818</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F32" s="26">
-        <v>635656</v>
-      </c>
-      <c r="G32" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="H32" s="27">
+      <c r="D32" s="37">
+        <v>3555</v>
+      </c>
+      <c r="E32" s="41">
+        <v>45077</v>
+      </c>
+      <c r="F32" s="6">
+        <v>646872</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H32" s="2">
+        <v>10</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32" s="2">
+        <v>10</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="11"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="11">
+        <v>151110116</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="1">
+        <v>40</v>
+      </c>
+      <c r="D34" s="21">
+        <v>112</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H34" s="12">
+        <v>50</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34" s="12">
+        <v>0</v>
+      </c>
+      <c r="K34" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="6">
+        <v>151338133</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="2">
+        <v>90</v>
+      </c>
+      <c r="D36" s="3">
+        <v>3510</v>
+      </c>
+      <c r="E36" s="4">
+        <v>45077</v>
+      </c>
+      <c r="F36" s="2">
+        <v>663091</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H36" s="5">
+        <v>10</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J36" s="5">
+        <v>0</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="6">
+        <v>151338133</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="2">
+        <v>80</v>
+      </c>
+      <c r="D38" s="3">
+        <v>5130</v>
+      </c>
+      <c r="E38" s="4">
+        <v>45077</v>
+      </c>
+      <c r="F38" s="2">
+        <v>663092</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H38" s="5">
+        <v>10</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" s="5">
+        <v>0</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+    </row>
+    <row r="40" spans="1:11" s="31" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="6">
+        <v>151330034</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="2">
+        <v>60</v>
+      </c>
+      <c r="D40" s="3">
+        <v>6615</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F40" s="2">
+        <v>663093</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H40" s="5">
+        <v>10</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J40" s="5">
+        <v>0</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+    </row>
+    <row r="42" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="6">
+        <v>151338133</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="2">
+        <v>30</v>
+      </c>
+      <c r="D42" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E42" s="41">
+        <v>45077</v>
+      </c>
+      <c r="F42" s="2">
+        <v>668330</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H42" s="5">
         <v>15</v>
       </c>
-      <c r="I32" s="27" t="s">
+      <c r="I42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J42" s="5">
+        <v>15</v>
+      </c>
+      <c r="K42" s="4">
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="15"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
+    </row>
+    <row r="44" spans="1:11" s="31" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="11">
+        <v>151342468</v>
+      </c>
+      <c r="B44" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="27">
+        <v>10</v>
+      </c>
+      <c r="D44" s="28">
+        <v>9703</v>
+      </c>
+      <c r="E44" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="F44" s="26">
+        <v>681149</v>
+      </c>
+      <c r="G44" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="H44" s="30">
+        <v>1</v>
+      </c>
+      <c r="I44" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J44" s="30">
+        <v>0</v>
+      </c>
+      <c r="K44" s="29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+    </row>
+    <row r="46" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="26">
+        <v>151335926</v>
+      </c>
+      <c r="B46" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="27">
+        <v>40</v>
+      </c>
+      <c r="D46" s="28">
+        <v>1908</v>
+      </c>
+      <c r="E46" s="29">
+        <v>45070</v>
+      </c>
+      <c r="F46" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G46" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="H46" s="30">
+        <v>50</v>
+      </c>
+      <c r="I46" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J46" s="30">
+        <v>0</v>
+      </c>
+      <c r="K46" s="30"/>
+    </row>
+    <row r="47" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="15"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="30"/>
+    </row>
+    <row r="48" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="6">
+        <v>151330034</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="2">
+        <v>20</v>
+      </c>
+      <c r="D48" s="3">
+        <v>8463</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" s="6">
+        <v>687349</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H48" s="5">
+        <v>25</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J48" s="5">
+        <v>0</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="26"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="30"/>
+    </row>
+    <row r="50" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="6">
+        <v>151242082</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="2">
+        <v>10</v>
+      </c>
+      <c r="D50" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F50" s="6">
+        <v>691660</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H50" s="5">
+        <v>1</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J50" s="5">
+        <v>0</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+    </row>
+    <row r="52" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="11">
+        <v>151330961</v>
+      </c>
+      <c r="B52" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="27">
+        <v>10</v>
+      </c>
+      <c r="D52" s="28">
+        <v>565</v>
+      </c>
+      <c r="E52" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="F52" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G52" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="H52" s="30">
+        <v>200</v>
+      </c>
+      <c r="I52" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J52" s="30">
+        <v>0</v>
+      </c>
+      <c r="K52" s="30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="17">
+        <v>151264212</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="17">
+        <v>10</v>
+      </c>
+      <c r="D54" s="32">
+        <v>10710</v>
+      </c>
+      <c r="E54" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="F54" s="17">
+        <v>704681</v>
+      </c>
+      <c r="G54" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H54" s="18">
+        <v>1</v>
+      </c>
+      <c r="I54" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J54" s="18">
+        <v>0</v>
+      </c>
+      <c r="K54" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" s="21">
+        <v>4995</v>
+      </c>
+      <c r="E56" s="22">
+        <v>44223</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H56" s="12">
+        <v>2</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J56" s="12">
+        <v>0</v>
+      </c>
+      <c r="K56" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="21">
+        <v>4245</v>
+      </c>
+      <c r="E58" s="22">
+        <v>44223</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H58" s="12">
+        <v>2</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J58" s="12">
+        <v>0</v>
+      </c>
+      <c r="K58" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+    </row>
+    <row r="60" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="26">
+        <v>151342469</v>
+      </c>
+      <c r="B60" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="27">
+        <v>10</v>
+      </c>
+      <c r="D60" s="28">
+        <v>1896</v>
+      </c>
+      <c r="E60" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="F60" s="27">
+        <v>716663</v>
+      </c>
+      <c r="G60" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="H60" s="30">
+        <v>10</v>
+      </c>
+      <c r="I60" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J60" s="30">
+        <v>10</v>
+      </c>
+      <c r="K60" s="30" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+    </row>
+    <row r="62" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="6">
+        <v>151283046</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" s="7">
+        <v>10</v>
+      </c>
+      <c r="D62" s="7">
+        <v>45000</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F62" s="7">
+        <v>719031</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" s="36">
+        <v>2</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J62" s="36">
+        <v>0</v>
+      </c>
+      <c r="K62" s="36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="11"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="18"/>
+      <c r="K63" s="18"/>
+    </row>
+    <row r="64" spans="1:11" s="31" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="11">
+        <v>151332508</v>
+      </c>
+      <c r="B64" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="27">
+        <v>10</v>
+      </c>
+      <c r="D64" s="34">
+        <v>9999</v>
+      </c>
+      <c r="E64" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="F64" s="26">
+        <v>719381</v>
+      </c>
+      <c r="G64" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="H64" s="27">
+        <v>10</v>
+      </c>
+      <c r="I64" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J64" s="27">
+        <v>0</v>
+      </c>
+      <c r="K64" s="26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="11"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="11"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="6">
+        <v>151341902</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="7">
+        <v>10</v>
+      </c>
+      <c r="D66" s="7">
+        <v>6800</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F66" s="7">
+        <v>720138</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H66" s="7">
+        <v>3</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J66" s="7">
+        <v>0</v>
+      </c>
+      <c r="K66" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+    </row>
+    <row r="68" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="42">
+        <v>151343138</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" s="2">
+        <v>10</v>
+      </c>
+      <c r="D68" s="2">
+        <v>2490</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F68" s="6">
+        <v>724214</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H68" s="2">
+        <v>5</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J68" s="2">
+        <v>2</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>16063532</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" s="1">
+        <v>10</v>
+      </c>
+      <c r="D70" s="1">
+        <v>2900</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F70" s="1">
+        <v>725828</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H70" s="1">
+        <v>10</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J70" s="1">
+        <v>0</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+    </row>
+    <row r="72" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="26">
+        <v>151315311</v>
+      </c>
+      <c r="B72" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="27">
+        <v>10</v>
+      </c>
+      <c r="D72" s="27">
+        <v>100</v>
+      </c>
+      <c r="E72" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="F72" s="27">
+        <v>728488</v>
+      </c>
+      <c r="G72" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="H72" s="27">
+        <v>10</v>
+      </c>
+      <c r="I72" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="J32" s="27">
+      <c r="J72" s="27">
         <v>0</v>
       </c>
-      <c r="K32" s="27" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="M33" s="31"/>
-    </row>
-    <row r="34" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="26">
-        <v>151335926</v>
-      </c>
-      <c r="B34" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="27">
-        <v>70</v>
-      </c>
-      <c r="D34" s="35">
-        <v>3555</v>
-      </c>
-      <c r="E34" s="39">
-        <v>45070</v>
-      </c>
-      <c r="F34" s="26">
-        <v>646872</v>
-      </c>
-      <c r="G34" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="H34" s="27">
-        <v>10</v>
-      </c>
-      <c r="I34" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="J34" s="27">
-        <v>0</v>
-      </c>
-      <c r="K34" s="26"/>
-    </row>
-    <row r="35" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6">
-        <v>151338133</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="2">
-        <v>40</v>
-      </c>
-      <c r="D35" s="38">
-        <v>3555</v>
-      </c>
-      <c r="E35" s="43">
-        <v>45077</v>
-      </c>
-      <c r="F35" s="6">
-        <v>646872</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H35" s="2">
-        <v>10</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J35" s="2">
-        <v>10</v>
-      </c>
-      <c r="K35" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="11"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="11">
-        <v>151110116</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" s="1">
-        <v>40</v>
-      </c>
-      <c r="D37" s="21">
-        <v>112</v>
-      </c>
-      <c r="E37" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H37" s="12">
-        <v>50</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J37" s="12">
-        <v>0</v>
-      </c>
-      <c r="K37" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="6">
-        <v>151338133</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" s="2">
-        <v>90</v>
-      </c>
-      <c r="D39" s="3">
-        <v>3510</v>
-      </c>
-      <c r="E39" s="4">
-        <v>45077</v>
-      </c>
-      <c r="F39" s="2">
-        <v>663091</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H39" s="5">
-        <v>10</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J39" s="5">
-        <v>10</v>
-      </c>
-      <c r="K39" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="6">
-        <v>151338133</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" s="2">
-        <v>80</v>
-      </c>
-      <c r="D41" s="3">
-        <v>5130</v>
-      </c>
-      <c r="E41" s="4">
-        <v>45077</v>
-      </c>
-      <c r="F41" s="2">
-        <v>663092</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H41" s="5">
-        <v>10</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J41" s="5">
-        <v>5</v>
-      </c>
-      <c r="K41" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-    </row>
-    <row r="43" spans="1:13" s="31" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="6">
-        <v>151330034</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C43" s="2">
-        <v>60</v>
-      </c>
-      <c r="D43" s="3">
-        <v>6615</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F43" s="2">
-        <v>663093</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H43" s="5">
-        <v>10</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J43" s="5">
-        <v>0</v>
-      </c>
-      <c r="K43" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-    </row>
-    <row r="45" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="6">
-        <v>151338133</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C45" s="2">
-        <v>30</v>
-      </c>
-      <c r="D45" s="3">
-        <v>6000</v>
-      </c>
-      <c r="E45" s="43">
-        <v>45077</v>
-      </c>
-      <c r="F45" s="2">
-        <v>668330</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H45" s="5">
-        <v>15</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J45" s="5">
-        <v>15</v>
-      </c>
-      <c r="K45" s="4">
-        <v>45077</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="15"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="41"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30"/>
-    </row>
-    <row r="47" spans="1:13" s="31" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="11">
-        <v>151332240</v>
-      </c>
-      <c r="B47" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" s="27">
-        <v>10</v>
-      </c>
-      <c r="D47" s="28">
-        <v>9703</v>
-      </c>
-      <c r="E47" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="F47" s="26">
-        <v>681149</v>
-      </c>
-      <c r="G47" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="H47" s="30">
-        <v>4</v>
-      </c>
-      <c r="I47" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="J47" s="30">
-        <v>0</v>
-      </c>
-      <c r="K47" s="29" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="42"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-    </row>
-    <row r="49" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="26">
-        <v>151335926</v>
-      </c>
-      <c r="B49" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" s="27">
-        <v>40</v>
-      </c>
-      <c r="D49" s="28">
-        <v>1908</v>
-      </c>
-      <c r="E49" s="29">
-        <v>45070</v>
-      </c>
-      <c r="F49" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="G49" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="H49" s="30">
-        <v>50</v>
-      </c>
-      <c r="I49" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="J49" s="30">
-        <v>0</v>
-      </c>
-      <c r="K49" s="30"/>
-    </row>
-    <row r="50" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="15"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="41"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30"/>
-    </row>
-    <row r="51" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="6">
-        <v>151330034</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C51" s="2">
-        <v>20</v>
-      </c>
-      <c r="D51" s="3">
-        <v>8463</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F51" s="6">
-        <v>687349</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H51" s="5">
-        <v>25</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J51" s="5">
-        <v>0</v>
-      </c>
-      <c r="K51" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="26"/>
-      <c r="B52" s="27"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="30"/>
-      <c r="K52" s="30"/>
-    </row>
-    <row r="53" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="6">
-        <v>151242082</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C53" s="2">
-        <v>10</v>
-      </c>
-      <c r="D53" s="3">
-        <v>1600</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F53" s="6">
-        <v>691660</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H53" s="5">
-        <v>1</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J53" s="5">
-        <v>0</v>
-      </c>
-      <c r="K53" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
-    </row>
-    <row r="55" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="11">
-        <v>151330961</v>
-      </c>
-      <c r="B55" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C55" s="27">
-        <v>10</v>
-      </c>
-      <c r="D55" s="28">
-        <v>565</v>
-      </c>
-      <c r="E55" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="F55" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G55" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="H55" s="30">
-        <v>200</v>
-      </c>
-      <c r="I55" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="J55" s="30">
-        <v>0</v>
-      </c>
-      <c r="K55" s="30" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="17">
-        <v>151264212</v>
-      </c>
-      <c r="B57" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C57" s="17">
-        <v>10</v>
-      </c>
-      <c r="D57" s="32">
-        <v>10710</v>
-      </c>
-      <c r="E57" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="F57" s="17">
-        <v>704681</v>
-      </c>
-      <c r="G57" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="H57" s="18">
-        <v>1</v>
-      </c>
-      <c r="I57" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="J57" s="18">
-        <v>0</v>
-      </c>
-      <c r="K57" s="18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="42"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D59" s="21">
-        <v>4995</v>
-      </c>
-      <c r="E59" s="22">
-        <v>44223</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H59" s="12">
-        <v>2</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J59" s="12">
-        <v>0</v>
-      </c>
-      <c r="K59" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D61" s="21">
-        <v>4245</v>
-      </c>
-      <c r="E61" s="22">
-        <v>44223</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H61" s="12">
-        <v>2</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J61" s="12">
-        <v>0</v>
-      </c>
-      <c r="K61" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="12"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="6">
-        <v>151326492</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C63" s="2">
-        <v>10</v>
-      </c>
-      <c r="D63" s="3">
-        <v>1896</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F63" s="2">
-        <v>716663</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H63" s="5">
-        <v>3</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J63" s="5">
-        <v>0</v>
-      </c>
-      <c r="K63" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="12"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="12"/>
-    </row>
-    <row r="65" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="6">
-        <v>151283046</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C65" s="7">
-        <v>10</v>
-      </c>
-      <c r="D65" s="7">
-        <v>45000</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F65" s="7">
-        <v>719031</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H65" s="37">
-        <v>2</v>
-      </c>
-      <c r="I65" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J65" s="37">
-        <v>0</v>
-      </c>
-      <c r="K65" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="11"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="17"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="17"/>
-      <c r="J66" s="18"/>
-      <c r="K66" s="18"/>
-    </row>
-    <row r="67" spans="1:11" s="31" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="11">
-        <v>151332508</v>
-      </c>
-      <c r="B67" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C67" s="27">
-        <v>10</v>
-      </c>
-      <c r="D67" s="35">
-        <v>9999</v>
-      </c>
-      <c r="E67" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="F67" s="26">
-        <v>719381</v>
-      </c>
-      <c r="G67" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="H67" s="27">
-        <v>10</v>
-      </c>
-      <c r="I67" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="J67" s="27">
-        <v>0</v>
-      </c>
-      <c r="K67" s="26" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" s="11"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="11"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="6">
-        <v>151308917</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C69" s="7">
-        <v>20</v>
-      </c>
-      <c r="D69" s="7">
-        <v>6800</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F69" s="7">
-        <v>720138</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H69" s="7">
-        <v>1</v>
-      </c>
-      <c r="I69" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J69" s="7">
-        <v>0</v>
-      </c>
-      <c r="K69" s="7" t="s">
+      <c r="K72" s="27" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-    </row>
-    <row r="71" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="11">
-        <v>151322392</v>
-      </c>
-      <c r="B71" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C71" s="27">
-        <v>10</v>
-      </c>
-      <c r="D71" s="27">
-        <v>2490</v>
-      </c>
-      <c r="E71" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="F71" s="26">
-        <v>724214</v>
-      </c>
-      <c r="G71" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="H71" s="27">
-        <v>10</v>
-      </c>
-      <c r="I71" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="J71" s="27">
-        <v>0</v>
-      </c>
-      <c r="K71" s="27" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73" s="1">
-        <v>16063532</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C73" s="1">
-        <v>10</v>
-      </c>
-      <c r="D73" s="1">
-        <v>2900</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F73" s="1">
-        <v>725828</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H73" s="1">
-        <v>10</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J73" s="1">
-        <v>0</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-    </row>
-    <row r="75" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="26">
-        <v>151315311</v>
-      </c>
-      <c r="B75" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C75" s="27">
-        <v>10</v>
-      </c>
-      <c r="D75" s="27">
-        <v>100</v>
-      </c>
-      <c r="E75" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="F75" s="27">
-        <v>728488</v>
-      </c>
-      <c r="G75" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="H75" s="27">
-        <v>10</v>
-      </c>
-      <c r="I75" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="J75" s="27">
-        <v>0</v>
-      </c>
-      <c r="K75" s="27" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3843,10 +3740,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M75"/>
+  <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -5152,10 +5049,10 @@
         <v>12</v>
       </c>
       <c r="J8" s="2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -5207,13 +5104,13 @@
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
-      <c r="C11" s="40"/>
+      <c r="C11" s="38"/>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="41"/>
+      <c r="I11" s="39"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
@@ -5249,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -5299,7 +5196,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -5390,10 +5287,10 @@
         <v>12</v>
       </c>
       <c r="J18" s="2">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -5410,122 +5307,104 @@
       <c r="K19" s="30"/>
     </row>
     <row r="20" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="26">
-        <v>151335926</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="27">
-        <v>90</v>
-      </c>
-      <c r="D20" s="30">
+      <c r="A20" s="6">
+        <v>151338133</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="2">
+        <v>70</v>
+      </c>
+      <c r="D20" s="5">
         <v>6521</v>
       </c>
-      <c r="E20" s="29">
-        <v>45070</v>
-      </c>
-      <c r="F20" s="27" t="s">
+      <c r="E20" s="4">
+        <v>45077</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="27" t="s">
+      <c r="G20" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H20" s="30">
-        <v>30</v>
-      </c>
-      <c r="I20" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="30">
-        <v>17</v>
-      </c>
-      <c r="K20" s="30"/>
-      <c r="L20" s="34"/>
-    </row>
-    <row r="21" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6">
+      <c r="H20" s="5">
+        <v>20</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="5">
+        <v>12</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="M21" s="31"/>
+    </row>
+    <row r="22" spans="1:13" s="31" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
         <v>151338133</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="2">
-        <v>70</v>
-      </c>
-      <c r="D21" s="5">
-        <v>6521</v>
-      </c>
-      <c r="E21" s="4">
+      <c r="C22" s="2">
+        <v>10</v>
+      </c>
+      <c r="D22" s="2">
+        <v>4048</v>
+      </c>
+      <c r="E22" s="41">
         <v>45077</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H21" s="5">
+      <c r="F22" s="2">
+        <v>630059</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" s="2">
         <v>20</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="5">
-        <v>20</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="M22" s="31"/>
-    </row>
-    <row r="23" spans="1:13" s="31" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="26">
-        <v>151335926</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="27">
-        <v>80</v>
-      </c>
-      <c r="D23" s="27">
-        <v>4048</v>
-      </c>
-      <c r="E23" s="39">
-        <v>45070</v>
-      </c>
-      <c r="F23" s="27">
-        <v>630059</v>
-      </c>
-      <c r="G23" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="H23" s="27">
-        <v>50</v>
-      </c>
-      <c r="I23" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" s="27">
-        <v>35</v>
-      </c>
-      <c r="K23" s="27"/>
-    </row>
-    <row r="24" spans="1:13" s="31" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="2">
+        <v>10</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="M23" s="31"/>
+    </row>
+    <row r="24" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>151338133</v>
       </c>
@@ -5533,181 +5412,181 @@
         <v>16</v>
       </c>
       <c r="C24" s="2">
-        <v>10</v>
-      </c>
-      <c r="D24" s="2">
-        <v>4048</v>
-      </c>
-      <c r="E24" s="43">
+        <v>60</v>
+      </c>
+      <c r="D24" s="37">
+        <v>5738</v>
+      </c>
+      <c r="E24" s="41">
         <v>45077</v>
       </c>
-      <c r="F24" s="2">
-        <v>630059</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>67</v>
+      <c r="F24" s="6">
+        <v>632215</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="H24" s="2">
+        <v>15</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="2">
+        <v>15</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="11"/>
+      <c r="M25" s="31"/>
+    </row>
+    <row r="26" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11">
+        <v>151110116</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="1">
+        <v>60</v>
+      </c>
+      <c r="D26" s="13">
+        <v>3450</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="13">
+        <v>634355</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" s="13">
+        <v>10</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" s="13">
+        <v>10</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="M26" s="31"/>
+    </row>
+    <row r="27" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="12"/>
+      <c r="M27" s="31"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>151008992</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="2">
         <v>20</v>
       </c>
-      <c r="I24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" s="2">
+      <c r="D28" s="10">
+        <v>4726</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="2">
+        <v>635655</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" s="2">
+        <v>10</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K24" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="M25" s="31"/>
-    </row>
-    <row r="26" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6">
-        <v>151338133</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="2">
-        <v>60</v>
-      </c>
-      <c r="D26" s="38">
-        <v>5738</v>
-      </c>
-      <c r="E26" s="43">
-        <v>45077</v>
-      </c>
-      <c r="F26" s="6">
-        <v>632215</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="H26" s="2">
+      <c r="M28" s="31"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="M29" s="31"/>
+    </row>
+    <row r="30" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="26">
+        <v>151302474</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="27">
+        <v>40</v>
+      </c>
+      <c r="D30" s="35">
+        <v>2818</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" s="26">
+        <v>635656</v>
+      </c>
+      <c r="G30" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="H30" s="27">
         <v>15</v>
       </c>
-      <c r="I26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J26" s="2">
-        <v>15</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="11"/>
-      <c r="M27" s="31"/>
-    </row>
-    <row r="28" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="11">
-        <v>151110116</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="1">
-        <v>60</v>
-      </c>
-      <c r="D28" s="13">
-        <v>3450</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="F28" s="13">
-        <v>634355</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H28" s="13">
-        <v>10</v>
-      </c>
-      <c r="I28" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J28" s="13">
-        <v>10</v>
-      </c>
-      <c r="K28" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="M28" s="31"/>
-    </row>
-    <row r="29" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="12"/>
-      <c r="M29" s="31"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
-        <v>151008992</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="2">
-        <v>20</v>
-      </c>
-      <c r="D30" s="10">
-        <v>4726</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F30" s="2">
-        <v>635655</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H30" s="2">
-        <v>10</v>
-      </c>
-      <c r="I30" s="2" t="s">
+      <c r="I30" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J30" s="27">
         <v>0</v>
       </c>
-      <c r="K30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M30" s="31"/>
+      <c r="K30" s="27" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
@@ -5715,7 +5594,7 @@
       <c r="C31" s="1"/>
       <c r="D31" s="23"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="F31" s="11"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -5724,1080 +5603,998 @@
       <c r="M31" s="31"/>
     </row>
     <row r="32" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="26">
-        <v>151302474</v>
-      </c>
-      <c r="B32" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="27">
+      <c r="A32" s="6">
+        <v>151338133</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="2">
         <v>40</v>
       </c>
-      <c r="D32" s="36">
-        <v>2818</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F32" s="26">
-        <v>635656</v>
-      </c>
-      <c r="G32" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="H32" s="27">
+      <c r="D32" s="37">
+        <v>3555</v>
+      </c>
+      <c r="E32" s="41">
+        <v>45077</v>
+      </c>
+      <c r="F32" s="6">
+        <v>646872</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H32" s="2">
+        <v>10</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32" s="2">
+        <v>10</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="11"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="11">
+        <v>151110116</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="1">
+        <v>40</v>
+      </c>
+      <c r="D34" s="21">
+        <v>112</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H34" s="12">
+        <v>50</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34" s="12">
+        <v>0</v>
+      </c>
+      <c r="K34" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="6">
+        <v>151338133</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="2">
+        <v>90</v>
+      </c>
+      <c r="D36" s="3">
+        <v>3510</v>
+      </c>
+      <c r="E36" s="4">
+        <v>45077</v>
+      </c>
+      <c r="F36" s="2">
+        <v>663091</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H36" s="5">
+        <v>10</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J36" s="5">
+        <v>0</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="6">
+        <v>151338133</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="2">
+        <v>80</v>
+      </c>
+      <c r="D38" s="3">
+        <v>5130</v>
+      </c>
+      <c r="E38" s="4">
+        <v>45077</v>
+      </c>
+      <c r="F38" s="2">
+        <v>663092</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H38" s="5">
+        <v>10</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" s="5">
+        <v>0</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+    </row>
+    <row r="40" spans="1:11" s="31" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="6">
+        <v>151330034</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="2">
+        <v>60</v>
+      </c>
+      <c r="D40" s="3">
+        <v>6615</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F40" s="2">
+        <v>663093</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H40" s="5">
+        <v>10</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J40" s="5">
+        <v>0</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+    </row>
+    <row r="42" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="6">
+        <v>151338133</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="2">
+        <v>30</v>
+      </c>
+      <c r="D42" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E42" s="41">
+        <v>45077</v>
+      </c>
+      <c r="F42" s="2">
+        <v>668330</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H42" s="5">
         <v>15</v>
       </c>
-      <c r="I32" s="27" t="s">
+      <c r="I42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J42" s="5">
+        <v>15</v>
+      </c>
+      <c r="K42" s="4">
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="15"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
+    </row>
+    <row r="44" spans="1:11" s="31" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="11">
+        <v>151342468</v>
+      </c>
+      <c r="B44" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="27">
+        <v>10</v>
+      </c>
+      <c r="D44" s="28">
+        <v>9703</v>
+      </c>
+      <c r="E44" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="F44" s="26">
+        <v>681149</v>
+      </c>
+      <c r="G44" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="H44" s="30">
+        <v>1</v>
+      </c>
+      <c r="I44" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J44" s="30">
+        <v>0</v>
+      </c>
+      <c r="K44" s="29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+    </row>
+    <row r="46" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="26">
+        <v>151335926</v>
+      </c>
+      <c r="B46" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="27">
+        <v>40</v>
+      </c>
+      <c r="D46" s="28">
+        <v>1908</v>
+      </c>
+      <c r="E46" s="29">
+        <v>45070</v>
+      </c>
+      <c r="F46" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G46" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="H46" s="30">
+        <v>50</v>
+      </c>
+      <c r="I46" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J46" s="30">
+        <v>0</v>
+      </c>
+      <c r="K46" s="30"/>
+    </row>
+    <row r="47" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="15"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="30"/>
+    </row>
+    <row r="48" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="6">
+        <v>151330034</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="2">
+        <v>20</v>
+      </c>
+      <c r="D48" s="3">
+        <v>8463</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" s="6">
+        <v>687349</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H48" s="5">
+        <v>25</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J48" s="5">
+        <v>0</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="26"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="30"/>
+    </row>
+    <row r="50" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="6">
+        <v>151242082</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="2">
+        <v>10</v>
+      </c>
+      <c r="D50" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F50" s="6">
+        <v>691660</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H50" s="5">
+        <v>1</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J50" s="5">
+        <v>0</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+    </row>
+    <row r="52" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="11">
+        <v>151330961</v>
+      </c>
+      <c r="B52" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="27">
+        <v>10</v>
+      </c>
+      <c r="D52" s="28">
+        <v>565</v>
+      </c>
+      <c r="E52" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="F52" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G52" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="H52" s="30">
+        <v>200</v>
+      </c>
+      <c r="I52" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J52" s="30">
+        <v>0</v>
+      </c>
+      <c r="K52" s="30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="17">
+        <v>151264212</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="17">
+        <v>10</v>
+      </c>
+      <c r="D54" s="32">
+        <v>10710</v>
+      </c>
+      <c r="E54" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="F54" s="17">
+        <v>704681</v>
+      </c>
+      <c r="G54" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H54" s="18">
+        <v>1</v>
+      </c>
+      <c r="I54" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J54" s="18">
+        <v>0</v>
+      </c>
+      <c r="K54" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" s="21">
+        <v>4995</v>
+      </c>
+      <c r="E56" s="22">
+        <v>44223</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H56" s="12">
+        <v>2</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J56" s="12">
+        <v>0</v>
+      </c>
+      <c r="K56" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="21">
+        <v>4245</v>
+      </c>
+      <c r="E58" s="22">
+        <v>44223</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H58" s="12">
+        <v>2</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J58" s="12">
+        <v>0</v>
+      </c>
+      <c r="K58" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+    </row>
+    <row r="60" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="26">
+        <v>151342469</v>
+      </c>
+      <c r="B60" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="27">
+        <v>10</v>
+      </c>
+      <c r="D60" s="28">
+        <v>1896</v>
+      </c>
+      <c r="E60" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="F60" s="27">
+        <v>716663</v>
+      </c>
+      <c r="G60" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="H60" s="30">
+        <v>10</v>
+      </c>
+      <c r="I60" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J60" s="30">
+        <v>10</v>
+      </c>
+      <c r="K60" s="30" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+    </row>
+    <row r="62" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="6">
+        <v>151283046</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" s="7">
+        <v>10</v>
+      </c>
+      <c r="D62" s="7">
+        <v>45000</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F62" s="7">
+        <v>719031</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" s="36">
+        <v>2</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J62" s="36">
+        <v>0</v>
+      </c>
+      <c r="K62" s="36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="11"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="18"/>
+      <c r="K63" s="18"/>
+    </row>
+    <row r="64" spans="1:11" s="31" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="11">
+        <v>151332508</v>
+      </c>
+      <c r="B64" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="27">
+        <v>10</v>
+      </c>
+      <c r="D64" s="34">
+        <v>9999</v>
+      </c>
+      <c r="E64" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="F64" s="26">
+        <v>719381</v>
+      </c>
+      <c r="G64" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="H64" s="27">
+        <v>10</v>
+      </c>
+      <c r="I64" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J64" s="27">
+        <v>0</v>
+      </c>
+      <c r="K64" s="26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="11"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="11"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="6">
+        <v>151341902</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="7">
+        <v>10</v>
+      </c>
+      <c r="D66" s="7">
+        <v>6800</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F66" s="7">
+        <v>720138</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H66" s="7">
+        <v>3</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J66" s="7">
+        <v>0</v>
+      </c>
+      <c r="K66" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+    </row>
+    <row r="68" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="42">
+        <v>151343138</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" s="2">
+        <v>10</v>
+      </c>
+      <c r="D68" s="2">
+        <v>2490</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F68" s="6">
+        <v>724214</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H68" s="2">
+        <v>5</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J68" s="2">
+        <v>5</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>16063532</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" s="1">
+        <v>10</v>
+      </c>
+      <c r="D70" s="1">
+        <v>2900</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F70" s="1">
+        <v>725828</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H70" s="1">
+        <v>10</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J70" s="1">
+        <v>0</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+    </row>
+    <row r="72" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="26">
+        <v>151315311</v>
+      </c>
+      <c r="B72" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="27">
+        <v>10</v>
+      </c>
+      <c r="D72" s="27">
+        <v>100</v>
+      </c>
+      <c r="E72" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="F72" s="27">
+        <v>728488</v>
+      </c>
+      <c r="G72" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="H72" s="27">
+        <v>10</v>
+      </c>
+      <c r="I72" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="J32" s="27">
+      <c r="J72" s="27">
         <v>0</v>
       </c>
-      <c r="K32" s="27" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="M33" s="31"/>
-    </row>
-    <row r="34" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="26">
-        <v>151335926</v>
-      </c>
-      <c r="B34" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="27">
-        <v>70</v>
-      </c>
-      <c r="D34" s="35">
-        <v>3555</v>
-      </c>
-      <c r="E34" s="39">
-        <v>45070</v>
-      </c>
-      <c r="F34" s="26">
-        <v>646872</v>
-      </c>
-      <c r="G34" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="H34" s="27">
-        <v>10</v>
-      </c>
-      <c r="I34" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="J34" s="27">
-        <v>0</v>
-      </c>
-      <c r="K34" s="26"/>
-    </row>
-    <row r="35" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6">
-        <v>151338133</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="2">
-        <v>40</v>
-      </c>
-      <c r="D35" s="38">
-        <v>3555</v>
-      </c>
-      <c r="E35" s="43">
-        <v>45077</v>
-      </c>
-      <c r="F35" s="6">
-        <v>646872</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H35" s="2">
-        <v>10</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J35" s="2">
-        <v>10</v>
-      </c>
-      <c r="K35" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="11"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="11">
-        <v>151110116</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" s="1">
-        <v>40</v>
-      </c>
-      <c r="D37" s="21">
-        <v>112</v>
-      </c>
-      <c r="E37" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H37" s="12">
-        <v>50</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J37" s="12">
-        <v>0</v>
-      </c>
-      <c r="K37" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="6">
-        <v>151338133</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" s="2">
-        <v>90</v>
-      </c>
-      <c r="D39" s="3">
-        <v>3510</v>
-      </c>
-      <c r="E39" s="4">
-        <v>45077</v>
-      </c>
-      <c r="F39" s="2">
-        <v>663091</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H39" s="5">
-        <v>10</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J39" s="5">
-        <v>10</v>
-      </c>
-      <c r="K39" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="6">
-        <v>151338133</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" s="2">
-        <v>80</v>
-      </c>
-      <c r="D41" s="3">
-        <v>5130</v>
-      </c>
-      <c r="E41" s="4">
-        <v>45077</v>
-      </c>
-      <c r="F41" s="2">
-        <v>663092</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H41" s="5">
-        <v>10</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J41" s="5">
-        <v>10</v>
-      </c>
-      <c r="K41" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-    </row>
-    <row r="43" spans="1:13" s="31" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="6">
-        <v>151330034</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C43" s="2">
-        <v>60</v>
-      </c>
-      <c r="D43" s="3">
-        <v>6615</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F43" s="2">
-        <v>663093</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H43" s="5">
-        <v>10</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J43" s="5">
-        <v>0</v>
-      </c>
-      <c r="K43" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-    </row>
-    <row r="45" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="6">
-        <v>151338133</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C45" s="2">
-        <v>30</v>
-      </c>
-      <c r="D45" s="3">
-        <v>6000</v>
-      </c>
-      <c r="E45" s="43">
-        <v>45077</v>
-      </c>
-      <c r="F45" s="2">
-        <v>668330</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H45" s="5">
-        <v>15</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J45" s="5">
-        <v>15</v>
-      </c>
-      <c r="K45" s="4">
-        <v>45077</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="15"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="41"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30"/>
-    </row>
-    <row r="47" spans="1:13" s="31" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="11">
-        <v>151332240</v>
-      </c>
-      <c r="B47" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" s="27">
-        <v>10</v>
-      </c>
-      <c r="D47" s="28">
-        <v>9703</v>
-      </c>
-      <c r="E47" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="F47" s="26">
-        <v>681149</v>
-      </c>
-      <c r="G47" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="H47" s="30">
-        <v>4</v>
-      </c>
-      <c r="I47" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="J47" s="30">
-        <v>0</v>
-      </c>
-      <c r="K47" s="29" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="42"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-    </row>
-    <row r="49" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="26">
-        <v>151335926</v>
-      </c>
-      <c r="B49" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" s="27">
-        <v>40</v>
-      </c>
-      <c r="D49" s="28">
-        <v>1908</v>
-      </c>
-      <c r="E49" s="29">
-        <v>45070</v>
-      </c>
-      <c r="F49" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="G49" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="H49" s="30">
-        <v>50</v>
-      </c>
-      <c r="I49" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="J49" s="30">
-        <v>0</v>
-      </c>
-      <c r="K49" s="30"/>
-    </row>
-    <row r="50" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="15"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="41"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30"/>
-    </row>
-    <row r="51" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="6">
-        <v>151330034</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C51" s="2">
-        <v>20</v>
-      </c>
-      <c r="D51" s="3">
-        <v>8463</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F51" s="6">
-        <v>687349</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H51" s="5">
-        <v>25</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J51" s="5">
-        <v>0</v>
-      </c>
-      <c r="K51" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="26"/>
-      <c r="B52" s="27"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="30"/>
-      <c r="K52" s="30"/>
-    </row>
-    <row r="53" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="6">
-        <v>151242082</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C53" s="2">
-        <v>10</v>
-      </c>
-      <c r="D53" s="3">
-        <v>1600</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F53" s="6">
-        <v>691660</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H53" s="5">
-        <v>1</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J53" s="5">
-        <v>0</v>
-      </c>
-      <c r="K53" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
-    </row>
-    <row r="55" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="11">
-        <v>151330961</v>
-      </c>
-      <c r="B55" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C55" s="27">
-        <v>10</v>
-      </c>
-      <c r="D55" s="28">
-        <v>565</v>
-      </c>
-      <c r="E55" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="F55" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G55" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="H55" s="30">
-        <v>200</v>
-      </c>
-      <c r="I55" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="J55" s="30">
-        <v>0</v>
-      </c>
-      <c r="K55" s="30" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="17">
-        <v>151264212</v>
-      </c>
-      <c r="B57" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C57" s="17">
-        <v>10</v>
-      </c>
-      <c r="D57" s="32">
-        <v>10710</v>
-      </c>
-      <c r="E57" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="F57" s="17">
-        <v>704681</v>
-      </c>
-      <c r="G57" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="H57" s="18">
-        <v>1</v>
-      </c>
-      <c r="I57" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="J57" s="18">
-        <v>0</v>
-      </c>
-      <c r="K57" s="18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="42"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D59" s="21">
-        <v>4995</v>
-      </c>
-      <c r="E59" s="22">
-        <v>44223</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H59" s="12">
-        <v>2</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J59" s="12">
-        <v>0</v>
-      </c>
-      <c r="K59" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D61" s="21">
-        <v>4245</v>
-      </c>
-      <c r="E61" s="22">
-        <v>44223</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H61" s="12">
-        <v>2</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J61" s="12">
-        <v>0</v>
-      </c>
-      <c r="K61" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="12"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="6">
-        <v>151326492</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C63" s="2">
-        <v>10</v>
-      </c>
-      <c r="D63" s="3">
-        <v>1896</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F63" s="2">
-        <v>716663</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H63" s="5">
-        <v>3</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J63" s="5">
-        <v>0</v>
-      </c>
-      <c r="K63" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="12"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="12"/>
-    </row>
-    <row r="65" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="6">
-        <v>151283046</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C65" s="7">
-        <v>10</v>
-      </c>
-      <c r="D65" s="7">
-        <v>45000</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F65" s="7">
-        <v>719031</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H65" s="37">
-        <v>2</v>
-      </c>
-      <c r="I65" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J65" s="37">
-        <v>0</v>
-      </c>
-      <c r="K65" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="11"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="17"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="17"/>
-      <c r="J66" s="18"/>
-      <c r="K66" s="18"/>
-    </row>
-    <row r="67" spans="1:11" s="31" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="11">
-        <v>151332508</v>
-      </c>
-      <c r="B67" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C67" s="27">
-        <v>10</v>
-      </c>
-      <c r="D67" s="35">
-        <v>9999</v>
-      </c>
-      <c r="E67" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="F67" s="26">
-        <v>719381</v>
-      </c>
-      <c r="G67" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="H67" s="27">
-        <v>10</v>
-      </c>
-      <c r="I67" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="J67" s="27">
-        <v>0</v>
-      </c>
-      <c r="K67" s="26" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" s="11"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="11"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="6">
-        <v>151308917</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C69" s="7">
-        <v>20</v>
-      </c>
-      <c r="D69" s="7">
-        <v>6800</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F69" s="7">
-        <v>720138</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H69" s="7">
-        <v>1</v>
-      </c>
-      <c r="I69" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J69" s="7">
-        <v>0</v>
-      </c>
-      <c r="K69" s="7" t="s">
+      <c r="K72" s="27" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-    </row>
-    <row r="71" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="11">
-        <v>151322392</v>
-      </c>
-      <c r="B71" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C71" s="27">
-        <v>10</v>
-      </c>
-      <c r="D71" s="27">
-        <v>2490</v>
-      </c>
-      <c r="E71" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="F71" s="26">
-        <v>724214</v>
-      </c>
-      <c r="G71" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="H71" s="27">
-        <v>10</v>
-      </c>
-      <c r="I71" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="J71" s="27">
-        <v>0</v>
-      </c>
-      <c r="K71" s="27" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73" s="1">
-        <v>16063532</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C73" s="1">
-        <v>10</v>
-      </c>
-      <c r="D73" s="1">
-        <v>2900</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F73" s="1">
-        <v>725828</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H73" s="1">
-        <v>10</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J73" s="1">
-        <v>0</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-    </row>
-    <row r="75" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="26">
-        <v>151315311</v>
-      </c>
-      <c r="B75" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C75" s="27">
-        <v>10</v>
-      </c>
-      <c r="D75" s="27">
-        <v>100</v>
-      </c>
-      <c r="E75" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="F75" s="27">
-        <v>728488</v>
-      </c>
-      <c r="G75" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="H75" s="27">
-        <v>10</v>
-      </c>
-      <c r="I75" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="J75" s="27">
-        <v>0</v>
-      </c>
-      <c r="K75" s="27" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/Updated PO.xlsx
+++ b/Updated PO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -877,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="J69" sqref="J69"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A37" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -2470,7 +2470,7 @@
         <v>12</v>
       </c>
       <c r="J20" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>97</v>
@@ -2519,7 +2519,7 @@
         <v>12</v>
       </c>
       <c r="J22" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>97</v>
@@ -2766,7 +2766,7 @@
         <v>12</v>
       </c>
       <c r="J32" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K32" s="6" t="s">
         <v>97</v>
@@ -3438,7 +3438,7 @@
         <v>12</v>
       </c>
       <c r="J60" s="30">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K60" s="30" t="s">
         <v>102</v>
@@ -3742,8 +3742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -5335,7 +5335,7 @@
         <v>12</v>
       </c>
       <c r="J20" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>97</v>
@@ -5384,7 +5384,7 @@
         <v>12</v>
       </c>
       <c r="J22" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>97</v>
@@ -5631,7 +5631,7 @@
         <v>12</v>
       </c>
       <c r="J32" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K32" s="6" t="s">
         <v>97</v>
@@ -6303,7 +6303,7 @@
         <v>12</v>
       </c>
       <c r="J60" s="30">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K60" s="30" t="s">
         <v>102</v>
@@ -6495,7 +6495,7 @@
         <v>12</v>
       </c>
       <c r="J68" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K68" s="2" t="s">
         <v>103</v>

--- a/Updated PO.xlsx
+++ b/Updated PO.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="104">
   <si>
     <t>Purchasing Document</t>
   </si>
@@ -3742,8 +3742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -5433,7 +5433,7 @@
         <v>12</v>
       </c>
       <c r="J24" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K24" s="6" t="s">
         <v>97</v>
@@ -6024,7 +6024,9 @@
     <row r="49" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="26"/>
       <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
+      <c r="C49" s="27" t="s">
+        <v>58</v>
+      </c>
       <c r="D49" s="28"/>
       <c r="E49" s="29"/>
       <c r="F49" s="27"/>

--- a/Updated PO.xlsx
+++ b/Updated PO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="104">
   <si>
     <t>Purchasing Document</t>
   </si>
@@ -877,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A37" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -2568,7 +2568,7 @@
         <v>12</v>
       </c>
       <c r="J24" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K24" s="6" t="s">
         <v>97</v>
@@ -3742,8 +3742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -6024,9 +6024,7 @@
     <row r="49" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="26"/>
       <c r="B49" s="27"/>
-      <c r="C49" s="27" t="s">
-        <v>58</v>
-      </c>
+      <c r="C49" s="27"/>
       <c r="D49" s="28"/>
       <c r="E49" s="29"/>
       <c r="F49" s="27"/>

--- a/Updated PO.xlsx
+++ b/Updated PO.xlsx
@@ -877,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -3743,7 +3743,7 @@
   <dimension ref="A1:M72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>

--- a/Updated PO.xlsx
+++ b/Updated PO.xlsx
@@ -878,7 +878,7 @@
   <dimension ref="A1:M72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76"/>
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>

--- a/Updated PO.xlsx
+++ b/Updated PO.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="103">
   <si>
     <t>Purchasing Document</t>
   </si>
@@ -272,18 +272,12 @@
     <t>Dot Matrix Printer_LX-310 _MT0.35</t>
   </si>
   <si>
-    <t>18.01.2023</t>
-  </si>
-  <si>
     <t>16.02.2023</t>
   </si>
   <si>
     <t>02.03.2023</t>
   </si>
   <si>
-    <t>15.02.2023</t>
-  </si>
-  <si>
     <t>17.05.2023</t>
   </si>
   <si>
@@ -339,13 +333,16 @@
   </si>
   <si>
     <t>05.07.2023</t>
+  </si>
+  <si>
+    <t>26.07.2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,6 +383,12 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="2" tint="-0.749992370372631"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -443,7 +446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -550,9 +553,6 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -569,6 +569,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -878,7 +887,7 @@
   <dimension ref="A1:M72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86"/>
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -2187,7 +2196,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -2239,13 +2248,13 @@
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
-      <c r="C11" s="38"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="39"/>
+      <c r="I11" s="38"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
@@ -2263,7 +2272,7 @@
         <v>4700</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>21</v>
@@ -2281,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -2313,7 +2322,7 @@
         <v>3700</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F14" s="13">
         <v>615840</v>
@@ -2331,7 +2340,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -2425,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -2473,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
-      <c r="C21" s="38"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
-      <c r="I21" s="39"/>
+      <c r="I21" s="38"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="M21" s="31"/>
@@ -2503,7 +2512,7 @@
       <c r="D22" s="2">
         <v>4048</v>
       </c>
-      <c r="E22" s="41">
+      <c r="E22" s="40">
         <v>45077</v>
       </c>
       <c r="F22" s="2">
@@ -2522,19 +2531,19 @@
         <v>0</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
-      <c r="C23" s="38"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
-      <c r="I23" s="39"/>
+      <c r="I23" s="38"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="M23" s="31"/>
@@ -2549,10 +2558,10 @@
       <c r="C24" s="2">
         <v>60</v>
       </c>
-      <c r="D24" s="37">
+      <c r="D24" s="36">
         <v>5738</v>
       </c>
-      <c r="E24" s="41">
+      <c r="E24" s="40">
         <v>45077</v>
       </c>
       <c r="F24" s="6">
@@ -2571,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -2702,7 +2711,7 @@
         <v>2818</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F30" s="26">
         <v>635656</v>
@@ -2720,7 +2729,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
@@ -2747,10 +2756,10 @@
       <c r="C32" s="2">
         <v>40</v>
       </c>
-      <c r="D32" s="37">
+      <c r="D32" s="36">
         <v>3555</v>
       </c>
-      <c r="E32" s="41">
+      <c r="E32" s="40">
         <v>45077</v>
       </c>
       <c r="F32" s="6">
@@ -2769,19 +2778,19 @@
         <v>0</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
-      <c r="C33" s="38"/>
+      <c r="C33" s="37"/>
       <c r="D33" s="15"/>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
-      <c r="I33" s="39"/>
+      <c r="I33" s="38"/>
       <c r="J33" s="1"/>
       <c r="K33" s="11"/>
     </row>
@@ -2865,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -2913,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -2943,7 +2952,7 @@
         <v>6615</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F40" s="2">
         <v>663093</v>
@@ -2961,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2990,7 +2999,7 @@
       <c r="D42" s="3">
         <v>6000</v>
       </c>
-      <c r="E42" s="41">
+      <c r="E42" s="40">
         <v>45077</v>
       </c>
       <c r="F42" s="2">
@@ -3015,13 +3024,13 @@
     <row r="43" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="15"/>
       <c r="B43" s="15"/>
-      <c r="C43" s="38"/>
+      <c r="C43" s="37"/>
       <c r="D43" s="15"/>
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
       <c r="H43" s="15"/>
-      <c r="I43" s="39"/>
+      <c r="I43" s="38"/>
       <c r="J43" s="30"/>
       <c r="K43" s="30"/>
     </row>
@@ -3039,7 +3048,7 @@
         <v>9703</v>
       </c>
       <c r="E44" s="29" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F44" s="26">
         <v>681149</v>
@@ -3057,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="K44" s="29" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -3069,7 +3078,7 @@
       <c r="D45" s="21"/>
       <c r="E45" s="22"/>
       <c r="F45" s="1"/>
-      <c r="G45" s="40"/>
+      <c r="G45" s="39"/>
       <c r="H45" s="12"/>
       <c r="I45" s="1"/>
       <c r="J45" s="12"/>
@@ -3111,13 +3120,13 @@
     <row r="47" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="15"/>
       <c r="B47" s="15"/>
-      <c r="C47" s="38"/>
+      <c r="C47" s="37"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
       <c r="F47" s="15"/>
       <c r="G47" s="15"/>
       <c r="H47" s="15"/>
-      <c r="I47" s="39"/>
+      <c r="I47" s="38"/>
       <c r="J47" s="30"/>
       <c r="K47" s="30"/>
     </row>
@@ -3135,7 +3144,7 @@
         <v>8463</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F48" s="6">
         <v>687349</v>
@@ -3153,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -3163,7 +3172,7 @@
       <c r="D49" s="28"/>
       <c r="E49" s="29"/>
       <c r="F49" s="27"/>
-      <c r="G49" s="40"/>
+      <c r="G49" s="39"/>
       <c r="H49" s="30"/>
       <c r="I49" s="27"/>
       <c r="J49" s="30"/>
@@ -3231,7 +3240,7 @@
         <v>565</v>
       </c>
       <c r="E52" s="29" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F52" s="27" t="s">
         <v>36</v>
@@ -3249,7 +3258,7 @@
         <v>0</v>
       </c>
       <c r="K52" s="30" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -3307,7 +3316,7 @@
       <c r="D55" s="21"/>
       <c r="E55" s="22"/>
       <c r="F55" s="1"/>
-      <c r="G55" s="40"/>
+      <c r="G55" s="39"/>
       <c r="H55" s="12"/>
       <c r="I55" s="1"/>
       <c r="J55" s="12"/>
@@ -3423,7 +3432,7 @@
         <v>1896</v>
       </c>
       <c r="E60" s="29" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F60" s="27">
         <v>716663</v>
@@ -3441,7 +3450,7 @@
         <v>0</v>
       </c>
       <c r="K60" s="30" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -3458,38 +3467,38 @@
       <c r="K61" s="12"/>
     </row>
     <row r="62" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="6">
-        <v>151283046</v>
-      </c>
-      <c r="B62" s="7" t="s">
+      <c r="A62" s="44">
+        <v>151350196</v>
+      </c>
+      <c r="B62" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="7">
-        <v>10</v>
-      </c>
-      <c r="D62" s="7">
+      <c r="C62" s="42">
+        <v>10</v>
+      </c>
+      <c r="D62" s="42">
         <v>45000</v>
       </c>
-      <c r="E62" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F62" s="7">
+      <c r="E62" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="F62" s="42">
         <v>719031</v>
       </c>
-      <c r="G62" s="7" t="s">
+      <c r="G62" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="H62" s="36">
+      <c r="H62" s="43">
         <v>2</v>
       </c>
-      <c r="I62" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J62" s="36">
-        <v>0</v>
-      </c>
-      <c r="K62" s="36" t="s">
-        <v>84</v>
+      <c r="I62" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="J62" s="43">
+        <v>2</v>
+      </c>
+      <c r="K62" s="43" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
@@ -3519,7 +3528,7 @@
         <v>9999</v>
       </c>
       <c r="E64" s="26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F64" s="26">
         <v>719381</v>
@@ -3537,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="K64" s="26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -3567,7 +3576,7 @@
         <v>6800</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F66" s="7">
         <v>720138</v>
@@ -3585,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
@@ -3602,7 +3611,7 @@
       <c r="K67" s="1"/>
     </row>
     <row r="68" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="42">
+      <c r="A68" s="41">
         <v>151343138</v>
       </c>
       <c r="B68" s="2" t="s">
@@ -3615,7 +3624,7 @@
         <v>2490</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F68" s="6">
         <v>724214</v>
@@ -3633,7 +3642,7 @@
         <v>2</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
@@ -3711,7 +3720,7 @@
         <v>100</v>
       </c>
       <c r="E72" s="27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F72" s="27">
         <v>728488</v>
@@ -3729,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="K72" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3743,7 +3752,7 @@
   <dimension ref="A1:M72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -5052,7 +5061,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -5104,13 +5113,13 @@
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
-      <c r="C11" s="38"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="39"/>
+      <c r="I11" s="38"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
@@ -5128,7 +5137,7 @@
         <v>4700</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>21</v>
@@ -5146,7 +5155,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -5178,7 +5187,7 @@
         <v>3700</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F14" s="13">
         <v>615840</v>
@@ -5196,7 +5205,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -5290,7 +5299,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -5338,19 +5347,19 @@
         <v>0</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
-      <c r="C21" s="38"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
-      <c r="I21" s="39"/>
+      <c r="I21" s="38"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="M21" s="31"/>
@@ -5368,7 +5377,7 @@
       <c r="D22" s="2">
         <v>4048</v>
       </c>
-      <c r="E22" s="41">
+      <c r="E22" s="40">
         <v>45077</v>
       </c>
       <c r="F22" s="2">
@@ -5387,19 +5396,19 @@
         <v>0</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
-      <c r="C23" s="38"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
-      <c r="I23" s="39"/>
+      <c r="I23" s="38"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="M23" s="31"/>
@@ -5414,10 +5423,10 @@
       <c r="C24" s="2">
         <v>60</v>
       </c>
-      <c r="D24" s="37">
+      <c r="D24" s="36">
         <v>5738</v>
       </c>
-      <c r="E24" s="41">
+      <c r="E24" s="40">
         <v>45077</v>
       </c>
       <c r="F24" s="6">
@@ -5436,7 +5445,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -5567,7 +5576,7 @@
         <v>2818</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F30" s="26">
         <v>635656</v>
@@ -5585,7 +5594,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
@@ -5612,10 +5621,10 @@
       <c r="C32" s="2">
         <v>40</v>
       </c>
-      <c r="D32" s="37">
+      <c r="D32" s="36">
         <v>3555</v>
       </c>
-      <c r="E32" s="41">
+      <c r="E32" s="40">
         <v>45077</v>
       </c>
       <c r="F32" s="6">
@@ -5634,19 +5643,19 @@
         <v>0</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
-      <c r="C33" s="38"/>
+      <c r="C33" s="37"/>
       <c r="D33" s="15"/>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
-      <c r="I33" s="39"/>
+      <c r="I33" s="38"/>
       <c r="J33" s="1"/>
       <c r="K33" s="11"/>
     </row>
@@ -5730,7 +5739,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -5778,7 +5787,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -5808,7 +5817,7 @@
         <v>6615</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F40" s="2">
         <v>663093</v>
@@ -5826,7 +5835,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5855,7 +5864,7 @@
       <c r="D42" s="3">
         <v>6000</v>
       </c>
-      <c r="E42" s="41">
+      <c r="E42" s="40">
         <v>45077</v>
       </c>
       <c r="F42" s="2">
@@ -5880,13 +5889,13 @@
     <row r="43" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="15"/>
       <c r="B43" s="15"/>
-      <c r="C43" s="38"/>
+      <c r="C43" s="37"/>
       <c r="D43" s="15"/>
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
       <c r="H43" s="15"/>
-      <c r="I43" s="39"/>
+      <c r="I43" s="38"/>
       <c r="J43" s="30"/>
       <c r="K43" s="30"/>
     </row>
@@ -5904,7 +5913,7 @@
         <v>9703</v>
       </c>
       <c r="E44" s="29" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F44" s="26">
         <v>681149</v>
@@ -5922,7 +5931,7 @@
         <v>0</v>
       </c>
       <c r="K44" s="29" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -5934,7 +5943,7 @@
       <c r="D45" s="21"/>
       <c r="E45" s="22"/>
       <c r="F45" s="1"/>
-      <c r="G45" s="40"/>
+      <c r="G45" s="39"/>
       <c r="H45" s="12"/>
       <c r="I45" s="1"/>
       <c r="J45" s="12"/>
@@ -5976,13 +5985,13 @@
     <row r="47" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="15"/>
       <c r="B47" s="15"/>
-      <c r="C47" s="38"/>
+      <c r="C47" s="37"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
       <c r="F47" s="15"/>
       <c r="G47" s="15"/>
       <c r="H47" s="15"/>
-      <c r="I47" s="39"/>
+      <c r="I47" s="38"/>
       <c r="J47" s="30"/>
       <c r="K47" s="30"/>
     </row>
@@ -6000,7 +6009,7 @@
         <v>8463</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F48" s="6">
         <v>687349</v>
@@ -6018,7 +6027,7 @@
         <v>0</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -6028,7 +6037,7 @@
       <c r="D49" s="28"/>
       <c r="E49" s="29"/>
       <c r="F49" s="27"/>
-      <c r="G49" s="40"/>
+      <c r="G49" s="39"/>
       <c r="H49" s="30"/>
       <c r="I49" s="27"/>
       <c r="J49" s="30"/>
@@ -6096,7 +6105,7 @@
         <v>565</v>
       </c>
       <c r="E52" s="29" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F52" s="27" t="s">
         <v>36</v>
@@ -6114,7 +6123,7 @@
         <v>0</v>
       </c>
       <c r="K52" s="30" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -6172,7 +6181,7 @@
       <c r="D55" s="21"/>
       <c r="E55" s="22"/>
       <c r="F55" s="1"/>
-      <c r="G55" s="40"/>
+      <c r="G55" s="39"/>
       <c r="H55" s="12"/>
       <c r="I55" s="1"/>
       <c r="J55" s="12"/>
@@ -6288,7 +6297,7 @@
         <v>1896</v>
       </c>
       <c r="E60" s="29" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F60" s="27">
         <v>716663</v>
@@ -6306,7 +6315,7 @@
         <v>0</v>
       </c>
       <c r="K60" s="30" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -6323,38 +6332,38 @@
       <c r="K61" s="12"/>
     </row>
     <row r="62" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="6">
-        <v>151283046</v>
-      </c>
-      <c r="B62" s="7" t="s">
+      <c r="A62" s="44">
+        <v>151350196</v>
+      </c>
+      <c r="B62" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="7">
-        <v>10</v>
-      </c>
-      <c r="D62" s="7">
+      <c r="C62" s="42">
+        <v>10</v>
+      </c>
+      <c r="D62" s="42">
         <v>45000</v>
       </c>
-      <c r="E62" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F62" s="7">
+      <c r="E62" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="F62" s="42">
         <v>719031</v>
       </c>
-      <c r="G62" s="7" t="s">
+      <c r="G62" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="H62" s="36">
+      <c r="H62" s="43">
         <v>2</v>
       </c>
-      <c r="I62" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J62" s="36">
-        <v>0</v>
-      </c>
-      <c r="K62" s="36" t="s">
-        <v>84</v>
+      <c r="I62" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="J62" s="43">
+        <v>2</v>
+      </c>
+      <c r="K62" s="43" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
@@ -6384,7 +6393,7 @@
         <v>9999</v>
       </c>
       <c r="E64" s="26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F64" s="26">
         <v>719381</v>
@@ -6402,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="K64" s="26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -6432,7 +6441,7 @@
         <v>6800</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F66" s="7">
         <v>720138</v>
@@ -6450,7 +6459,7 @@
         <v>0</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
@@ -6467,7 +6476,7 @@
       <c r="K67" s="1"/>
     </row>
     <row r="68" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="42">
+      <c r="A68" s="41">
         <v>151343138</v>
       </c>
       <c r="B68" s="2" t="s">
@@ -6480,7 +6489,7 @@
         <v>2490</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F68" s="6">
         <v>724214</v>
@@ -6498,7 +6507,7 @@
         <v>2</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
@@ -6576,7 +6585,7 @@
         <v>100</v>
       </c>
       <c r="E72" s="27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F72" s="27">
         <v>728488</v>
@@ -6594,7 +6603,7 @@
         <v>0</v>
       </c>
       <c r="K72" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/Updated PO.xlsx
+++ b/Updated PO.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="105">
   <si>
     <t>Purchasing Document</t>
   </si>
@@ -336,6 +336,12 @@
   </si>
   <si>
     <t>26.07.2023</t>
+  </si>
+  <si>
+    <t>07.07.2023</t>
+  </si>
+  <si>
+    <t>05.10.2023</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -578,6 +584,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -886,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -2403,38 +2412,38 @@
       <c r="K17" s="12"/>
     </row>
     <row r="18" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
-        <v>151338133</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="2">
-        <v>20</v>
-      </c>
-      <c r="D18" s="2">
+      <c r="A18" s="45">
+        <v>151351014</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="27">
+        <v>10</v>
+      </c>
+      <c r="D18" s="27">
         <v>5614</v>
       </c>
-      <c r="E18" s="4">
-        <v>45077</v>
-      </c>
-      <c r="F18" s="2">
+      <c r="E18" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="27">
         <v>616026</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="H18" s="2">
-        <v>20</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" s="2">
-        <v>0</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>95</v>
+      <c r="H18" s="27">
+        <v>10</v>
+      </c>
+      <c r="I18" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="27">
+        <v>10</v>
+      </c>
+      <c r="K18" s="30" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">

--- a/Updated PO.xlsx
+++ b/Updated PO.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="106">
   <si>
     <t>Purchasing Document</t>
   </si>
@@ -342,6 +342,9 @@
   </si>
   <si>
     <t>05.10.2023</t>
+  </si>
+  <si>
+    <t>25.08.2023</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -587,6 +590,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -896,7 +902,7 @@
   <dimension ref="A1:M72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -2558,38 +2564,38 @@
       <c r="M23" s="31"/>
     </row>
     <row r="24" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6">
-        <v>151338133</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="2">
-        <v>60</v>
-      </c>
-      <c r="D24" s="36">
+      <c r="A24" s="45">
+        <v>151352102</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="27">
+        <v>10</v>
+      </c>
+      <c r="D24" s="34">
         <v>5738</v>
       </c>
-      <c r="E24" s="40">
-        <v>45077</v>
-      </c>
-      <c r="F24" s="6">
+      <c r="E24" s="46">
+        <v>45118</v>
+      </c>
+      <c r="F24" s="26">
         <v>632215</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="H24" s="2">
-        <v>15</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" s="2">
-        <v>0</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>95</v>
+      <c r="H24" s="27">
+        <v>10</v>
+      </c>
+      <c r="I24" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="27">
+        <v>10</v>
+      </c>
+      <c r="K24" s="26" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -5277,38 +5283,38 @@
       <c r="K17" s="12"/>
     </row>
     <row r="18" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
-        <v>151338133</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="2">
-        <v>20</v>
-      </c>
-      <c r="D18" s="2">
+      <c r="A18" s="45">
+        <v>151351014</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="27">
+        <v>10</v>
+      </c>
+      <c r="D18" s="27">
         <v>5614</v>
       </c>
-      <c r="E18" s="4">
-        <v>45077</v>
-      </c>
-      <c r="F18" s="2">
+      <c r="E18" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="27">
         <v>616026</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="H18" s="2">
-        <v>20</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" s="2">
-        <v>0</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>95</v>
+      <c r="H18" s="27">
+        <v>10</v>
+      </c>
+      <c r="I18" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="27">
+        <v>10</v>
+      </c>
+      <c r="K18" s="30" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">

--- a/Updated PO.xlsx
+++ b/Updated PO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
+    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -902,7 +902,7 @@
   <dimension ref="A1:M72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -2446,7 +2446,7 @@
         <v>12</v>
       </c>
       <c r="J18" s="27">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K18" s="30" t="s">
         <v>104</v>
@@ -2592,7 +2592,7 @@
         <v>12</v>
       </c>
       <c r="J24" s="27">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K24" s="26" t="s">
         <v>105</v>
@@ -3767,7 +3767,7 @@
   <dimension ref="A1:M72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -5429,38 +5429,38 @@
       <c r="M23" s="31"/>
     </row>
     <row r="24" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6">
-        <v>151338133</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="2">
-        <v>60</v>
-      </c>
-      <c r="D24" s="36">
+      <c r="A24" s="45">
+        <v>151352102</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="27">
+        <v>10</v>
+      </c>
+      <c r="D24" s="34">
         <v>5738</v>
       </c>
-      <c r="E24" s="40">
-        <v>45077</v>
-      </c>
-      <c r="F24" s="6">
+      <c r="E24" s="46">
+        <v>45118</v>
+      </c>
+      <c r="F24" s="26">
         <v>632215</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="H24" s="2">
-        <v>15</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" s="2">
-        <v>0</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>95</v>
+      <c r="H24" s="27">
+        <v>10</v>
+      </c>
+      <c r="I24" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="27">
+        <v>10</v>
+      </c>
+      <c r="K24" s="26" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">

--- a/Updated PO.xlsx
+++ b/Updated PO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="108">
   <si>
     <t>Purchasing Document</t>
   </si>
@@ -345,6 +345,12 @@
   </si>
   <si>
     <t>25.08.2023</t>
+  </si>
+  <si>
+    <t>14.07.2023</t>
+  </si>
+  <si>
+    <t>03.08.2023</t>
   </si>
 </sst>
 </file>
@@ -899,7 +905,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M72"/>
+  <dimension ref="A1:M73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
@@ -2592,7 +2598,7 @@
         <v>12</v>
       </c>
       <c r="J24" s="27">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K24" s="26" t="s">
         <v>105</v>
@@ -3084,675 +3090,710 @@
         <v>99</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="11" t="s">
+    <row r="45" spans="1:11" s="31" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="41">
+        <v>151353543</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="2">
+        <v>10</v>
+      </c>
+      <c r="D45" s="3">
+        <v>9703</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F45" s="6">
+        <v>681149</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H45" s="5">
+        <v>2</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J45" s="5">
+        <v>0</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-    </row>
-    <row r="46" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="26">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+    </row>
+    <row r="47" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="26">
         <v>151335926</v>
       </c>
-      <c r="B46" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46" s="27">
+      <c r="B47" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="27">
         <v>40</v>
       </c>
-      <c r="D46" s="28">
+      <c r="D47" s="28">
         <v>1908</v>
       </c>
-      <c r="E46" s="29">
+      <c r="E47" s="29">
         <v>45070</v>
       </c>
-      <c r="F46" s="27" t="s">
+      <c r="F47" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="G46" s="27" t="s">
+      <c r="G47" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="H46" s="30">
+      <c r="H47" s="30">
         <v>50</v>
       </c>
-      <c r="I46" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="J46" s="30">
+      <c r="I47" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J47" s="30">
         <v>0</v>
       </c>
-      <c r="K46" s="30"/>
-    </row>
-    <row r="47" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="15"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="38"/>
-      <c r="J47" s="30"/>
       <c r="K47" s="30"/>
     </row>
     <row r="48" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="6">
+      <c r="A48" s="15"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="38"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="30"/>
+    </row>
+    <row r="49" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="6">
         <v>151330034</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C49" s="2">
         <v>20</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D49" s="3">
         <v>8463</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E49" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F49" s="6">
         <v>687349</v>
       </c>
-      <c r="G48" s="6" t="s">
+      <c r="G49" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="H48" s="5">
+      <c r="H49" s="5">
         <v>25</v>
       </c>
-      <c r="I48" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J48" s="5">
+      <c r="I49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J49" s="5">
         <v>0</v>
       </c>
-      <c r="K48" s="5" t="s">
+      <c r="K49" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="26"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="30"/>
-      <c r="K49" s="30"/>
-    </row>
     <row r="50" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="6">
+      <c r="A50" s="26"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="30"/>
+    </row>
+    <row r="51" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="6">
         <v>151242082</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C50" s="2">
-        <v>10</v>
-      </c>
-      <c r="D50" s="3">
+      <c r="C51" s="2">
+        <v>10</v>
+      </c>
+      <c r="D51" s="3">
         <v>1600</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E51" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F51" s="6">
         <v>691660</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="G51" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H50" s="5">
+      <c r="H51" s="5">
         <v>1</v>
       </c>
-      <c r="I50" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J50" s="5">
+      <c r="I51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J51" s="5">
         <v>0</v>
       </c>
-      <c r="K50" s="5" t="s">
+      <c r="K51" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-    </row>
-    <row r="52" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+    </row>
+    <row r="53" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="11">
         <v>151330961</v>
       </c>
-      <c r="B52" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" s="27">
-        <v>10</v>
-      </c>
-      <c r="D52" s="28">
+      <c r="B53" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="27">
+        <v>10</v>
+      </c>
+      <c r="D53" s="28">
         <v>565</v>
       </c>
-      <c r="E52" s="29" t="s">
+      <c r="E53" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="F52" s="27" t="s">
+      <c r="F53" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="G52" s="27" t="s">
+      <c r="G53" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H52" s="30">
+      <c r="H53" s="30">
         <v>200</v>
       </c>
-      <c r="I52" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="J52" s="30">
+      <c r="I53" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J53" s="30">
         <v>0</v>
       </c>
-      <c r="K52" s="30" t="s">
+      <c r="K53" s="30" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="12"/>
-    </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="17">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="17">
         <v>151264212</v>
       </c>
-      <c r="B54" s="17" t="s">
+      <c r="B55" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C54" s="17">
-        <v>10</v>
-      </c>
-      <c r="D54" s="32">
+      <c r="C55" s="17">
+        <v>10</v>
+      </c>
+      <c r="D55" s="32">
         <v>10710</v>
       </c>
-      <c r="E54" s="33" t="s">
+      <c r="E55" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="F54" s="17">
+      <c r="F55" s="17">
         <v>704681</v>
       </c>
-      <c r="G54" s="17" t="s">
+      <c r="G55" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="H54" s="18">
+      <c r="H55" s="18">
         <v>1</v>
       </c>
-      <c r="I54" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="J54" s="18">
+      <c r="I55" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J55" s="18">
         <v>0</v>
       </c>
-      <c r="K54" s="18" t="s">
+      <c r="K55" s="18" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
-    </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C56" s="1" t="s">
+      <c r="B57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D56" s="21">
+      <c r="D57" s="21">
         <v>4995</v>
       </c>
-      <c r="E56" s="22">
+      <c r="E57" s="22">
         <v>44223</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F57" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="G57" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H56" s="12">
+      <c r="H57" s="12">
         <v>2</v>
       </c>
-      <c r="I56" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J56" s="12">
+      <c r="I57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J57" s="12">
         <v>0</v>
       </c>
-      <c r="K56" s="12" t="s">
+      <c r="K57" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
-    </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C58" s="1" t="s">
+      <c r="B59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D58" s="21">
+      <c r="D59" s="21">
         <v>4245</v>
       </c>
-      <c r="E58" s="22">
+      <c r="E59" s="22">
         <v>44223</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="F59" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="G59" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H58" s="12">
+      <c r="H59" s="12">
         <v>2</v>
       </c>
-      <c r="I58" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J58" s="12">
+      <c r="I59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J59" s="12">
         <v>0</v>
       </c>
-      <c r="K58" s="12" t="s">
+      <c r="K59" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="12"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="12"/>
-    </row>
-    <row r="60" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="26">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+    </row>
+    <row r="61" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="26">
         <v>151342469</v>
       </c>
-      <c r="B60" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C60" s="27">
-        <v>10</v>
-      </c>
-      <c r="D60" s="28">
+      <c r="B61" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="27">
+        <v>10</v>
+      </c>
+      <c r="D61" s="28">
         <v>1896</v>
       </c>
-      <c r="E60" s="29" t="s">
+      <c r="E61" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="F60" s="27">
+      <c r="F61" s="27">
         <v>716663</v>
       </c>
-      <c r="G60" s="27" t="s">
+      <c r="G61" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="H60" s="30">
-        <v>10</v>
-      </c>
-      <c r="I60" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="J60" s="30">
+      <c r="H61" s="30">
+        <v>10</v>
+      </c>
+      <c r="I61" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J61" s="30">
         <v>0</v>
       </c>
-      <c r="K60" s="30" t="s">
+      <c r="K61" s="30" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="12"/>
-    </row>
-    <row r="62" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="44">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+    </row>
+    <row r="63" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="44">
         <v>151350196</v>
       </c>
-      <c r="B62" s="42" t="s">
+      <c r="B63" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="42">
-        <v>10</v>
-      </c>
-      <c r="D62" s="42">
+      <c r="C63" s="42">
+        <v>10</v>
+      </c>
+      <c r="D63" s="42">
         <v>45000</v>
       </c>
-      <c r="E62" s="42" t="s">
+      <c r="E63" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="F62" s="42">
+      <c r="F63" s="42">
         <v>719031</v>
       </c>
-      <c r="G62" s="42" t="s">
+      <c r="G63" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="H62" s="43">
+      <c r="H63" s="43">
         <v>2</v>
       </c>
-      <c r="I62" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="J62" s="43">
+      <c r="I63" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="J63" s="43">
         <v>2</v>
       </c>
-      <c r="K62" s="43" t="s">
+      <c r="K63" s="43" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="11"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="18"/>
-      <c r="I63" s="17"/>
-      <c r="J63" s="18"/>
-      <c r="K63" s="18"/>
-    </row>
-    <row r="64" spans="1:11" s="31" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="11"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="18"/>
+      <c r="K64" s="18"/>
+    </row>
+    <row r="65" spans="1:11" s="31" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="11">
         <v>151332508</v>
       </c>
-      <c r="B64" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C64" s="27">
-        <v>10</v>
-      </c>
-      <c r="D64" s="34">
+      <c r="B65" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="27">
+        <v>10</v>
+      </c>
+      <c r="D65" s="34">
         <v>9999</v>
       </c>
-      <c r="E64" s="26" t="s">
+      <c r="E65" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="F64" s="26">
+      <c r="F65" s="26">
         <v>719381</v>
       </c>
-      <c r="G64" s="26" t="s">
+      <c r="G65" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="H64" s="27">
-        <v>10</v>
-      </c>
-      <c r="I64" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="J64" s="27">
+      <c r="H65" s="27">
+        <v>10</v>
+      </c>
+      <c r="I65" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J65" s="27">
         <v>0</v>
       </c>
-      <c r="K64" s="26" t="s">
+      <c r="K65" s="26" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="11"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="11"/>
-    </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="6">
+      <c r="A66" s="11"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="11"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="6">
         <v>151341902</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B67" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C66" s="7">
-        <v>10</v>
-      </c>
-      <c r="D66" s="7">
+      <c r="C67" s="7">
+        <v>10</v>
+      </c>
+      <c r="D67" s="7">
         <v>6800</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="E67" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F66" s="7">
+      <c r="F67" s="7">
         <v>720138</v>
       </c>
-      <c r="G66" s="7" t="s">
+      <c r="G67" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H66" s="7">
+      <c r="H67" s="7">
         <v>3</v>
       </c>
-      <c r="I66" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J66" s="7">
+      <c r="I67" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J67" s="7">
         <v>0</v>
       </c>
-      <c r="K66" s="7" t="s">
+      <c r="K67" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-    </row>
-    <row r="68" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="41">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+    </row>
+    <row r="69" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="41">
         <v>151343138</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B69" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C68" s="2">
-        <v>10</v>
-      </c>
-      <c r="D68" s="2">
+      <c r="C69" s="2">
+        <v>10</v>
+      </c>
+      <c r="D69" s="2">
         <v>2490</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="E69" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F68" s="6">
+      <c r="F69" s="6">
         <v>724214</v>
       </c>
-      <c r="G68" s="6" t="s">
+      <c r="G69" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H68" s="2">
+      <c r="H69" s="2">
         <v>5</v>
       </c>
-      <c r="I68" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J68" s="2">
+      <c r="I69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J69" s="2">
         <v>2</v>
       </c>
-      <c r="K68" s="2" t="s">
+      <c r="K69" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
-    </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="1">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
         <v>16063532</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C70" s="1">
-        <v>10</v>
-      </c>
-      <c r="D70" s="1">
+      <c r="B71" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="1">
+        <v>10</v>
+      </c>
+      <c r="D71" s="1">
         <v>2900</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E71" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F70" s="1">
+      <c r="F71" s="1">
         <v>725828</v>
       </c>
-      <c r="G70" s="1" t="s">
+      <c r="G71" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H70" s="1">
-        <v>10</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J70" s="1">
+      <c r="H71" s="1">
+        <v>10</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J71" s="1">
         <v>0</v>
       </c>
-      <c r="K70" s="1" t="s">
+      <c r="K71" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
-    </row>
-    <row r="72" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="26">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+    </row>
+    <row r="73" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="26">
         <v>151315311</v>
       </c>
-      <c r="B72" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C72" s="27">
-        <v>10</v>
-      </c>
-      <c r="D72" s="27">
+      <c r="B73" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="27">
+        <v>10</v>
+      </c>
+      <c r="D73" s="27">
         <v>100</v>
       </c>
-      <c r="E72" s="27" t="s">
+      <c r="E73" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="F72" s="27">
+      <c r="F73" s="27">
         <v>728488</v>
       </c>
-      <c r="G72" s="26" t="s">
+      <c r="G73" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="H72" s="27">
-        <v>10</v>
-      </c>
-      <c r="I72" s="27" t="s">
+      <c r="H73" s="27">
+        <v>10</v>
+      </c>
+      <c r="I73" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="J72" s="27">
+      <c r="J73" s="27">
         <v>0</v>
       </c>
-      <c r="K72" s="27" t="s">
+      <c r="K73" s="27" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3764,10 +3805,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M72"/>
+  <dimension ref="A1:M73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -5311,7 +5352,7 @@
         <v>12</v>
       </c>
       <c r="J18" s="27">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K18" s="30" t="s">
         <v>104</v>
@@ -5457,7 +5498,7 @@
         <v>12</v>
       </c>
       <c r="J24" s="27">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K24" s="26" t="s">
         <v>105</v>
@@ -5949,675 +5990,710 @@
         <v>99</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="11" t="s">
+    <row r="45" spans="1:11" s="31" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="41">
+        <v>151353543</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="2">
+        <v>10</v>
+      </c>
+      <c r="D45" s="3">
+        <v>9703</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F45" s="6">
+        <v>681149</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H45" s="5">
+        <v>2</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J45" s="5">
+        <v>2</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-    </row>
-    <row r="46" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="26">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+    </row>
+    <row r="47" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="26">
         <v>151335926</v>
       </c>
-      <c r="B46" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46" s="27">
+      <c r="B47" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="27">
         <v>40</v>
       </c>
-      <c r="D46" s="28">
+      <c r="D47" s="28">
         <v>1908</v>
       </c>
-      <c r="E46" s="29">
+      <c r="E47" s="29">
         <v>45070</v>
       </c>
-      <c r="F46" s="27" t="s">
+      <c r="F47" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="G46" s="27" t="s">
+      <c r="G47" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="H46" s="30">
+      <c r="H47" s="30">
         <v>50</v>
       </c>
-      <c r="I46" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="J46" s="30">
+      <c r="I47" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J47" s="30">
         <v>0</v>
       </c>
-      <c r="K46" s="30"/>
-    </row>
-    <row r="47" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="15"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="38"/>
-      <c r="J47" s="30"/>
       <c r="K47" s="30"/>
     </row>
     <row r="48" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="6">
+      <c r="A48" s="15"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="38"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="30"/>
+    </row>
+    <row r="49" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="6">
         <v>151330034</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C49" s="2">
         <v>20</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D49" s="3">
         <v>8463</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E49" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F49" s="6">
         <v>687349</v>
       </c>
-      <c r="G48" s="6" t="s">
+      <c r="G49" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="H48" s="5">
+      <c r="H49" s="5">
         <v>25</v>
       </c>
-      <c r="I48" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J48" s="5">
+      <c r="I49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J49" s="5">
         <v>0</v>
       </c>
-      <c r="K48" s="5" t="s">
+      <c r="K49" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="26"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="30"/>
-      <c r="K49" s="30"/>
-    </row>
     <row r="50" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="6">
+      <c r="A50" s="26"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="30"/>
+    </row>
+    <row r="51" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="6">
         <v>151242082</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C50" s="2">
-        <v>10</v>
-      </c>
-      <c r="D50" s="3">
+      <c r="C51" s="2">
+        <v>10</v>
+      </c>
+      <c r="D51" s="3">
         <v>1600</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E51" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F51" s="6">
         <v>691660</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="G51" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H50" s="5">
+      <c r="H51" s="5">
         <v>1</v>
       </c>
-      <c r="I50" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J50" s="5">
+      <c r="I51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J51" s="5">
         <v>0</v>
       </c>
-      <c r="K50" s="5" t="s">
+      <c r="K51" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-    </row>
-    <row r="52" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+    </row>
+    <row r="53" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="11">
         <v>151330961</v>
       </c>
-      <c r="B52" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" s="27">
-        <v>10</v>
-      </c>
-      <c r="D52" s="28">
+      <c r="B53" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="27">
+        <v>10</v>
+      </c>
+      <c r="D53" s="28">
         <v>565</v>
       </c>
-      <c r="E52" s="29" t="s">
+      <c r="E53" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="F52" s="27" t="s">
+      <c r="F53" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="G52" s="27" t="s">
+      <c r="G53" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H52" s="30">
+      <c r="H53" s="30">
         <v>200</v>
       </c>
-      <c r="I52" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="J52" s="30">
+      <c r="I53" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J53" s="30">
         <v>0</v>
       </c>
-      <c r="K52" s="30" t="s">
+      <c r="K53" s="30" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="12"/>
-    </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="17">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="17">
         <v>151264212</v>
       </c>
-      <c r="B54" s="17" t="s">
+      <c r="B55" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C54" s="17">
-        <v>10</v>
-      </c>
-      <c r="D54" s="32">
+      <c r="C55" s="17">
+        <v>10</v>
+      </c>
+      <c r="D55" s="32">
         <v>10710</v>
       </c>
-      <c r="E54" s="33" t="s">
+      <c r="E55" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="F54" s="17">
+      <c r="F55" s="17">
         <v>704681</v>
       </c>
-      <c r="G54" s="17" t="s">
+      <c r="G55" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="H54" s="18">
+      <c r="H55" s="18">
         <v>1</v>
       </c>
-      <c r="I54" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="J54" s="18">
+      <c r="I55" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J55" s="18">
         <v>0</v>
       </c>
-      <c r="K54" s="18" t="s">
+      <c r="K55" s="18" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
-    </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C56" s="1" t="s">
+      <c r="B57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D56" s="21">
+      <c r="D57" s="21">
         <v>4995</v>
       </c>
-      <c r="E56" s="22">
+      <c r="E57" s="22">
         <v>44223</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F57" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="G57" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H56" s="12">
+      <c r="H57" s="12">
         <v>2</v>
       </c>
-      <c r="I56" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J56" s="12">
+      <c r="I57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J57" s="12">
         <v>0</v>
       </c>
-      <c r="K56" s="12" t="s">
+      <c r="K57" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
-    </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C58" s="1" t="s">
+      <c r="B59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D58" s="21">
+      <c r="D59" s="21">
         <v>4245</v>
       </c>
-      <c r="E58" s="22">
+      <c r="E59" s="22">
         <v>44223</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="F59" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="G59" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H58" s="12">
+      <c r="H59" s="12">
         <v>2</v>
       </c>
-      <c r="I58" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J58" s="12">
+      <c r="I59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J59" s="12">
         <v>0</v>
       </c>
-      <c r="K58" s="12" t="s">
+      <c r="K59" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="12"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="12"/>
-    </row>
-    <row r="60" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="26">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+    </row>
+    <row r="61" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="26">
         <v>151342469</v>
       </c>
-      <c r="B60" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C60" s="27">
-        <v>10</v>
-      </c>
-      <c r="D60" s="28">
+      <c r="B61" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="27">
+        <v>10</v>
+      </c>
+      <c r="D61" s="28">
         <v>1896</v>
       </c>
-      <c r="E60" s="29" t="s">
+      <c r="E61" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="F60" s="27">
+      <c r="F61" s="27">
         <v>716663</v>
       </c>
-      <c r="G60" s="27" t="s">
+      <c r="G61" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="H60" s="30">
-        <v>10</v>
-      </c>
-      <c r="I60" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="J60" s="30">
+      <c r="H61" s="30">
+        <v>10</v>
+      </c>
+      <c r="I61" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J61" s="30">
         <v>0</v>
       </c>
-      <c r="K60" s="30" t="s">
+      <c r="K61" s="30" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="12"/>
-    </row>
-    <row r="62" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="44">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+    </row>
+    <row r="63" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="44">
         <v>151350196</v>
       </c>
-      <c r="B62" s="42" t="s">
+      <c r="B63" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="42">
-        <v>10</v>
-      </c>
-      <c r="D62" s="42">
+      <c r="C63" s="42">
+        <v>10</v>
+      </c>
+      <c r="D63" s="42">
         <v>45000</v>
       </c>
-      <c r="E62" s="42" t="s">
+      <c r="E63" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="F62" s="42">
+      <c r="F63" s="42">
         <v>719031</v>
       </c>
-      <c r="G62" s="42" t="s">
+      <c r="G63" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="H62" s="43">
+      <c r="H63" s="43">
         <v>2</v>
       </c>
-      <c r="I62" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="J62" s="43">
+      <c r="I63" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="J63" s="43">
         <v>2</v>
       </c>
-      <c r="K62" s="43" t="s">
+      <c r="K63" s="43" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="11"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="18"/>
-      <c r="I63" s="17"/>
-      <c r="J63" s="18"/>
-      <c r="K63" s="18"/>
-    </row>
-    <row r="64" spans="1:11" s="31" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="11"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="18"/>
+      <c r="K64" s="18"/>
+    </row>
+    <row r="65" spans="1:11" s="31" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="11">
         <v>151332508</v>
       </c>
-      <c r="B64" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C64" s="27">
-        <v>10</v>
-      </c>
-      <c r="D64" s="34">
+      <c r="B65" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="27">
+        <v>10</v>
+      </c>
+      <c r="D65" s="34">
         <v>9999</v>
       </c>
-      <c r="E64" s="26" t="s">
+      <c r="E65" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="F64" s="26">
+      <c r="F65" s="26">
         <v>719381</v>
       </c>
-      <c r="G64" s="26" t="s">
+      <c r="G65" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="H64" s="27">
-        <v>10</v>
-      </c>
-      <c r="I64" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="J64" s="27">
+      <c r="H65" s="27">
+        <v>10</v>
+      </c>
+      <c r="I65" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J65" s="27">
         <v>0</v>
       </c>
-      <c r="K64" s="26" t="s">
+      <c r="K65" s="26" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="11"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="11"/>
-    </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="6">
+      <c r="A66" s="11"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="11"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="6">
         <v>151341902</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B67" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C66" s="7">
-        <v>10</v>
-      </c>
-      <c r="D66" s="7">
+      <c r="C67" s="7">
+        <v>10</v>
+      </c>
+      <c r="D67" s="7">
         <v>6800</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="E67" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F66" s="7">
+      <c r="F67" s="7">
         <v>720138</v>
       </c>
-      <c r="G66" s="7" t="s">
+      <c r="G67" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H66" s="7">
+      <c r="H67" s="7">
         <v>3</v>
       </c>
-      <c r="I66" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J66" s="7">
+      <c r="I67" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J67" s="7">
         <v>0</v>
       </c>
-      <c r="K66" s="7" t="s">
+      <c r="K67" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-    </row>
-    <row r="68" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="41">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+    </row>
+    <row r="69" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="41">
         <v>151343138</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B69" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C68" s="2">
-        <v>10</v>
-      </c>
-      <c r="D68" s="2">
+      <c r="C69" s="2">
+        <v>10</v>
+      </c>
+      <c r="D69" s="2">
         <v>2490</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="E69" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F68" s="6">
+      <c r="F69" s="6">
         <v>724214</v>
       </c>
-      <c r="G68" s="6" t="s">
+      <c r="G69" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H68" s="2">
+      <c r="H69" s="2">
         <v>5</v>
       </c>
-      <c r="I68" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J68" s="2">
+      <c r="I69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J69" s="2">
         <v>2</v>
       </c>
-      <c r="K68" s="2" t="s">
+      <c r="K69" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
-    </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="1">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
         <v>16063532</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C70" s="1">
-        <v>10</v>
-      </c>
-      <c r="D70" s="1">
+      <c r="B71" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="1">
+        <v>10</v>
+      </c>
+      <c r="D71" s="1">
         <v>2900</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E71" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F70" s="1">
+      <c r="F71" s="1">
         <v>725828</v>
       </c>
-      <c r="G70" s="1" t="s">
+      <c r="G71" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H70" s="1">
-        <v>10</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J70" s="1">
+      <c r="H71" s="1">
+        <v>10</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J71" s="1">
         <v>0</v>
       </c>
-      <c r="K70" s="1" t="s">
+      <c r="K71" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
-    </row>
-    <row r="72" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="26">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+    </row>
+    <row r="73" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="26">
         <v>151315311</v>
       </c>
-      <c r="B72" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C72" s="27">
-        <v>10</v>
-      </c>
-      <c r="D72" s="27">
+      <c r="B73" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="27">
+        <v>10</v>
+      </c>
+      <c r="D73" s="27">
         <v>100</v>
       </c>
-      <c r="E72" s="27" t="s">
+      <c r="E73" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="F72" s="27">
+      <c r="F73" s="27">
         <v>728488</v>
       </c>
-      <c r="G72" s="26" t="s">
+      <c r="G73" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="H72" s="27">
-        <v>10</v>
-      </c>
-      <c r="I72" s="27" t="s">
+      <c r="H73" s="27">
+        <v>10</v>
+      </c>
+      <c r="I73" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="J72" s="27">
+      <c r="J73" s="27">
         <v>0</v>
       </c>
-      <c r="K72" s="27" t="s">
+      <c r="K73" s="27" t="s">
         <v>87</v>
       </c>
     </row>

--- a/Updated PO.xlsx
+++ b/Updated PO.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="108">
   <si>
     <t>Purchasing Document</t>
   </si>
@@ -905,10 +905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M73"/>
+  <dimension ref="A1:M72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -3056,744 +3056,709 @@
       <c r="K43" s="30"/>
     </row>
     <row r="44" spans="1:11" s="31" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="11">
-        <v>151342468</v>
-      </c>
-      <c r="B44" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" s="27">
-        <v>10</v>
-      </c>
-      <c r="D44" s="28">
+      <c r="A44" s="41">
+        <v>151353543</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="2">
+        <v>10</v>
+      </c>
+      <c r="D44" s="3">
         <v>9703</v>
       </c>
-      <c r="E44" s="29" t="s">
+      <c r="E44" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F44" s="6">
+        <v>681149</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H44" s="5">
+        <v>2</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J44" s="5">
+        <v>0</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+    </row>
+    <row r="46" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="26">
+        <v>151335926</v>
+      </c>
+      <c r="B46" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="27">
+        <v>40</v>
+      </c>
+      <c r="D46" s="28">
+        <v>1908</v>
+      </c>
+      <c r="E46" s="29">
+        <v>45070</v>
+      </c>
+      <c r="F46" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G46" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="H46" s="30">
+        <v>50</v>
+      </c>
+      <c r="I46" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J46" s="30">
+        <v>0</v>
+      </c>
+      <c r="K46" s="30"/>
+    </row>
+    <row r="47" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="15"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="30"/>
+    </row>
+    <row r="48" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="6">
+        <v>151330034</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="2">
+        <v>20</v>
+      </c>
+      <c r="D48" s="3">
+        <v>8463</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F48" s="6">
+        <v>687349</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H48" s="5">
+        <v>25</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J48" s="5">
+        <v>0</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="26"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="30"/>
+    </row>
+    <row r="50" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="6">
+        <v>151242082</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="2">
+        <v>10</v>
+      </c>
+      <c r="D50" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F50" s="6">
+        <v>691660</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H50" s="5">
+        <v>1</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J50" s="5">
+        <v>0</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+    </row>
+    <row r="52" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="11">
+        <v>151330961</v>
+      </c>
+      <c r="B52" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="27">
+        <v>10</v>
+      </c>
+      <c r="D52" s="28">
+        <v>565</v>
+      </c>
+      <c r="E52" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="F52" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G52" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="H52" s="30">
+        <v>200</v>
+      </c>
+      <c r="I52" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J52" s="30">
+        <v>0</v>
+      </c>
+      <c r="K52" s="30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="17">
+        <v>151264212</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="17">
+        <v>10</v>
+      </c>
+      <c r="D54" s="32">
+        <v>10710</v>
+      </c>
+      <c r="E54" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="F54" s="17">
+        <v>704681</v>
+      </c>
+      <c r="G54" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H54" s="18">
+        <v>1</v>
+      </c>
+      <c r="I54" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J54" s="18">
+        <v>0</v>
+      </c>
+      <c r="K54" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" s="21">
+        <v>4995</v>
+      </c>
+      <c r="E56" s="22">
+        <v>44223</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H56" s="12">
+        <v>2</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J56" s="12">
+        <v>0</v>
+      </c>
+      <c r="K56" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="21">
+        <v>4245</v>
+      </c>
+      <c r="E58" s="22">
+        <v>44223</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H58" s="12">
+        <v>2</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J58" s="12">
+        <v>0</v>
+      </c>
+      <c r="K58" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+    </row>
+    <row r="60" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="26">
+        <v>151342469</v>
+      </c>
+      <c r="B60" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="27">
+        <v>10</v>
+      </c>
+      <c r="D60" s="28">
+        <v>1896</v>
+      </c>
+      <c r="E60" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="F44" s="26">
-        <v>681149</v>
-      </c>
-      <c r="G44" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="H44" s="30">
-        <v>1</v>
-      </c>
-      <c r="I44" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="J44" s="30">
+      <c r="F60" s="27">
+        <v>716663</v>
+      </c>
+      <c r="G60" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="H60" s="30">
+        <v>10</v>
+      </c>
+      <c r="I60" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J60" s="30">
         <v>0</v>
       </c>
-      <c r="K44" s="29" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" s="31" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="41">
-        <v>151353543</v>
-      </c>
-      <c r="B45" s="2" t="s">
+      <c r="K60" s="30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+    </row>
+    <row r="62" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="44">
+        <v>151350196</v>
+      </c>
+      <c r="B62" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="2">
-        <v>10</v>
-      </c>
-      <c r="D45" s="3">
-        <v>9703</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F45" s="6">
-        <v>681149</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H45" s="5">
+      <c r="C62" s="42">
+        <v>10</v>
+      </c>
+      <c r="D62" s="42">
+        <v>45000</v>
+      </c>
+      <c r="E62" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="F62" s="42">
+        <v>719031</v>
+      </c>
+      <c r="G62" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" s="43">
         <v>2</v>
       </c>
-      <c r="I45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J45" s="5">
+      <c r="I62" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="J62" s="43">
+        <v>2</v>
+      </c>
+      <c r="K62" s="43" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="11"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="18"/>
+      <c r="K63" s="18"/>
+    </row>
+    <row r="64" spans="1:11" s="31" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="11">
+        <v>151332508</v>
+      </c>
+      <c r="B64" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="27">
+        <v>10</v>
+      </c>
+      <c r="D64" s="34">
+        <v>9999</v>
+      </c>
+      <c r="E64" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="F64" s="26">
+        <v>719381</v>
+      </c>
+      <c r="G64" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="H64" s="27">
+        <v>10</v>
+      </c>
+      <c r="I64" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J64" s="27">
         <v>0</v>
       </c>
-      <c r="K45" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-    </row>
-    <row r="47" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="26">
-        <v>151335926</v>
-      </c>
-      <c r="B47" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" s="27">
-        <v>40</v>
-      </c>
-      <c r="D47" s="28">
-        <v>1908</v>
-      </c>
-      <c r="E47" s="29">
-        <v>45070</v>
-      </c>
-      <c r="F47" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="G47" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="H47" s="30">
+      <c r="K64" s="26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="11"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="11"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="6">
+        <v>151341902</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="7">
+        <v>10</v>
+      </c>
+      <c r="D66" s="7">
+        <v>6800</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F66" s="7">
+        <v>720138</v>
+      </c>
+      <c r="G66" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I47" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="J47" s="30">
+      <c r="H66" s="7">
+        <v>3</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J66" s="7">
         <v>0</v>
       </c>
-      <c r="K47" s="30"/>
-    </row>
-    <row r="48" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="15"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="38"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-    </row>
-    <row r="49" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="6">
-        <v>151330034</v>
-      </c>
-      <c r="B49" s="2" t="s">
+      <c r="K66" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+    </row>
+    <row r="68" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="41">
+        <v>151343138</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C49" s="2">
-        <v>20</v>
-      </c>
-      <c r="D49" s="3">
-        <v>8463</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F49" s="6">
-        <v>687349</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H49" s="5">
-        <v>25</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J49" s="5">
+      <c r="C68" s="2">
+        <v>10</v>
+      </c>
+      <c r="D68" s="2">
+        <v>2490</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F68" s="6">
+        <v>724214</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H68" s="2">
+        <v>5</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J68" s="2">
+        <v>2</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>16063532</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" s="1">
+        <v>10</v>
+      </c>
+      <c r="D70" s="1">
+        <v>2900</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F70" s="1">
+        <v>725828</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H70" s="1">
+        <v>10</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J70" s="1">
         <v>0</v>
       </c>
-      <c r="K49" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="26"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30"/>
-    </row>
-    <row r="51" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="6">
-        <v>151242082</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C51" s="2">
-        <v>10</v>
-      </c>
-      <c r="D51" s="3">
-        <v>1600</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F51" s="6">
-        <v>691660</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H51" s="5">
-        <v>1</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J51" s="5">
+      <c r="K70" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+    </row>
+    <row r="72" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="26">
+        <v>151315311</v>
+      </c>
+      <c r="B72" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="27">
+        <v>10</v>
+      </c>
+      <c r="D72" s="27">
+        <v>100</v>
+      </c>
+      <c r="E72" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="F72" s="27">
+        <v>728488</v>
+      </c>
+      <c r="G72" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="H72" s="27">
+        <v>10</v>
+      </c>
+      <c r="I72" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="J72" s="27">
         <v>0</v>
       </c>
-      <c r="K51" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-    </row>
-    <row r="53" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="11">
-        <v>151330961</v>
-      </c>
-      <c r="B53" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C53" s="27">
-        <v>10</v>
-      </c>
-      <c r="D53" s="28">
-        <v>565</v>
-      </c>
-      <c r="E53" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="F53" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G53" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="H53" s="30">
-        <v>200</v>
-      </c>
-      <c r="I53" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="J53" s="30">
-        <v>0</v>
-      </c>
-      <c r="K53" s="30" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="17">
-        <v>151264212</v>
-      </c>
-      <c r="B55" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C55" s="17">
-        <v>10</v>
-      </c>
-      <c r="D55" s="32">
-        <v>10710</v>
-      </c>
-      <c r="E55" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="F55" s="17">
-        <v>704681</v>
-      </c>
-      <c r="G55" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="H55" s="18">
-        <v>1</v>
-      </c>
-      <c r="I55" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="J55" s="18">
-        <v>0</v>
-      </c>
-      <c r="K55" s="18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D57" s="21">
-        <v>4995</v>
-      </c>
-      <c r="E57" s="22">
-        <v>44223</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H57" s="12">
-        <v>2</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J57" s="12">
-        <v>0</v>
-      </c>
-      <c r="K57" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D59" s="21">
-        <v>4245</v>
-      </c>
-      <c r="E59" s="22">
-        <v>44223</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H59" s="12">
-        <v>2</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J59" s="12">
-        <v>0</v>
-      </c>
-      <c r="K59" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
-    </row>
-    <row r="61" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="26">
-        <v>151342469</v>
-      </c>
-      <c r="B61" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C61" s="27">
-        <v>10</v>
-      </c>
-      <c r="D61" s="28">
-        <v>1896</v>
-      </c>
-      <c r="E61" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="F61" s="27">
-        <v>716663</v>
-      </c>
-      <c r="G61" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="H61" s="30">
-        <v>10</v>
-      </c>
-      <c r="I61" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="J61" s="30">
-        <v>0</v>
-      </c>
-      <c r="K61" s="30" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="12"/>
-    </row>
-    <row r="63" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="44">
-        <v>151350196</v>
-      </c>
-      <c r="B63" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="C63" s="42">
-        <v>10</v>
-      </c>
-      <c r="D63" s="42">
-        <v>45000</v>
-      </c>
-      <c r="E63" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="F63" s="42">
-        <v>719031</v>
-      </c>
-      <c r="G63" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="H63" s="43">
-        <v>2</v>
-      </c>
-      <c r="I63" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="J63" s="43">
-        <v>2</v>
-      </c>
-      <c r="K63" s="43" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="11"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="18"/>
-      <c r="I64" s="17"/>
-      <c r="J64" s="18"/>
-      <c r="K64" s="18"/>
-    </row>
-    <row r="65" spans="1:11" s="31" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="11">
-        <v>151332508</v>
-      </c>
-      <c r="B65" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C65" s="27">
-        <v>10</v>
-      </c>
-      <c r="D65" s="34">
-        <v>9999</v>
-      </c>
-      <c r="E65" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="F65" s="26">
-        <v>719381</v>
-      </c>
-      <c r="G65" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="H65" s="27">
-        <v>10</v>
-      </c>
-      <c r="I65" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="J65" s="27">
-        <v>0</v>
-      </c>
-      <c r="K65" s="26" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="11"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="11"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" s="6">
-        <v>151341902</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C67" s="7">
-        <v>10</v>
-      </c>
-      <c r="D67" s="7">
-        <v>6800</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F67" s="7">
-        <v>720138</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H67" s="7">
-        <v>3</v>
-      </c>
-      <c r="I67" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J67" s="7">
-        <v>0</v>
-      </c>
-      <c r="K67" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-    </row>
-    <row r="69" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="41">
-        <v>151343138</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C69" s="2">
-        <v>10</v>
-      </c>
-      <c r="D69" s="2">
-        <v>2490</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F69" s="6">
-        <v>724214</v>
-      </c>
-      <c r="G69" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H69" s="2">
-        <v>5</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J69" s="2">
-        <v>2</v>
-      </c>
-      <c r="K69" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="1">
-        <v>16063532</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C71" s="1">
-        <v>10</v>
-      </c>
-      <c r="D71" s="1">
-        <v>2900</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F71" s="1">
-        <v>725828</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H71" s="1">
-        <v>10</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J71" s="1">
-        <v>0</v>
-      </c>
-      <c r="K71" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-    </row>
-    <row r="73" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="26">
-        <v>151315311</v>
-      </c>
-      <c r="B73" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C73" s="27">
-        <v>10</v>
-      </c>
-      <c r="D73" s="27">
-        <v>100</v>
-      </c>
-      <c r="E73" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="F73" s="27">
-        <v>728488</v>
-      </c>
-      <c r="G73" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="H73" s="27">
-        <v>10</v>
-      </c>
-      <c r="I73" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="J73" s="27">
-        <v>0</v>
-      </c>
-      <c r="K73" s="27" t="s">
+      <c r="K72" s="27" t="s">
         <v>87</v>
       </c>
     </row>

--- a/Updated PO.xlsx
+++ b/Updated PO.xlsx
@@ -908,7 +908,7 @@
   <dimension ref="A1:M72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -3773,7 +3773,7 @@
   <dimension ref="A1:M73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>

--- a/Updated PO.xlsx
+++ b/Updated PO.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="110">
   <si>
     <t>Purchasing Document</t>
   </si>
@@ -351,6 +351,12 @@
   </si>
   <si>
     <t>03.08.2023</t>
+  </si>
+  <si>
+    <t>20.07.2023</t>
+  </si>
+  <si>
+    <t>18.10.2023</t>
   </si>
 </sst>
 </file>
@@ -461,7 +467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -599,6 +605,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -908,7 +926,7 @@
   <dimension ref="A1:M72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -2424,38 +2442,38 @@
       <c r="K17" s="12"/>
     </row>
     <row r="18" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="45">
-        <v>151351014</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="27">
-        <v>10</v>
-      </c>
-      <c r="D18" s="27">
+      <c r="A18" s="47">
+        <v>151355463</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="48">
+        <v>10</v>
+      </c>
+      <c r="D18" s="48">
         <v>5614</v>
       </c>
-      <c r="E18" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="F18" s="27">
+      <c r="E18" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" s="48">
         <v>616026</v>
       </c>
-      <c r="G18" s="27" t="s">
+      <c r="G18" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="H18" s="27">
-        <v>10</v>
-      </c>
-      <c r="I18" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" s="27">
-        <v>0</v>
-      </c>
-      <c r="K18" s="30" t="s">
-        <v>104</v>
+      <c r="H18" s="48">
+        <v>10</v>
+      </c>
+      <c r="I18" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="48">
+        <v>10</v>
+      </c>
+      <c r="K18" s="50" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">

--- a/Updated PO.xlsx
+++ b/Updated PO.xlsx
@@ -888,15 +888,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="13.109375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="10" style="7" customWidth="1"/>
     <col min="4" max="4" width="14.44140625" style="7" customWidth="1"/>
     <col min="5" max="5" width="15.77734375" style="7" customWidth="1"/>
     <col min="6" max="6" width="12.21875" style="7" customWidth="1"/>

--- a/Updated PO.xlsx
+++ b/Updated PO.xlsx
@@ -888,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>

--- a/Updated PO.xlsx
+++ b/Updated PO.xlsx
@@ -888,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="E97" sqref="E97"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3758,14 +3758,14 @@
   <dimension ref="A1:M72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="13.109375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="10" style="7" customWidth="1"/>
     <col min="4" max="4" width="14.44140625" style="7" customWidth="1"/>
     <col min="5" max="5" width="15.77734375" style="7" customWidth="1"/>
     <col min="6" max="6" width="12.21875" style="7" customWidth="1"/>

--- a/Updated PO.xlsx
+++ b/Updated PO.xlsx
@@ -888,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2243,7 +2243,7 @@
         <v>12</v>
       </c>
       <c r="J10" s="19">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K10" s="19" t="s">
         <v>103</v>
@@ -2435,7 +2435,7 @@
         <v>12</v>
       </c>
       <c r="J18" s="30">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K18" s="32" t="s">
         <v>98</v>
@@ -2532,7 +2532,7 @@
         <v>12</v>
       </c>
       <c r="J22" s="19">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K22" s="19" t="s">
         <v>101</v>
@@ -2581,7 +2581,7 @@
         <v>12</v>
       </c>
       <c r="J24" s="19">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K24" s="23" t="s">
         <v>102</v>
@@ -2724,13 +2724,13 @@
         <v>59</v>
       </c>
       <c r="H30" s="19">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I30" s="19" t="s">
         <v>29</v>
       </c>
       <c r="J30" s="19">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K30" s="19" t="s">
         <v>102</v>
@@ -3453,7 +3453,7 @@
         <v>12</v>
       </c>
       <c r="J60" s="28">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K60" s="28" t="s">
         <v>100</v>

--- a/Updated PO.xlsx
+++ b/Updated PO.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="105">
   <si>
     <t>Purchasing Document</t>
   </si>
@@ -339,13 +339,16 @@
   </si>
   <si>
     <t>08.09.2023</t>
+  </si>
+  <si>
+    <t>08.08.2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -387,6 +390,18 @@
       <sz val="10"/>
       <color theme="2" tint="-0.749992370372631"/>
       <name val="Arial  "/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -442,7 +457,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -580,6 +595,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -888,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="J61" sqref="J61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2407,38 +2434,38 @@
       <c r="K17" s="10"/>
     </row>
     <row r="18" spans="1:13" s="18" customFormat="1">
-      <c r="A18" s="29">
-        <v>151355463</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="30">
-        <v>10</v>
-      </c>
-      <c r="D18" s="30">
+      <c r="A18" s="47">
+        <v>151362001</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="48">
+        <v>10</v>
+      </c>
+      <c r="D18" s="48">
         <v>5614</v>
       </c>
-      <c r="E18" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="F18" s="30">
+      <c r="E18" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" s="48">
         <v>616026</v>
       </c>
-      <c r="G18" s="30" t="s">
+      <c r="G18" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="H18" s="30">
-        <v>10</v>
-      </c>
-      <c r="I18" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" s="30">
-        <v>0</v>
-      </c>
-      <c r="K18" s="32" t="s">
-        <v>98</v>
+      <c r="H18" s="48">
+        <v>10</v>
+      </c>
+      <c r="I18" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="48">
+        <v>10</v>
+      </c>
+      <c r="K18" s="50" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="18" customFormat="1">

--- a/Updated PO.xlsx
+++ b/Updated PO.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="104">
   <si>
     <t>Purchasing Document</t>
   </si>
@@ -320,12 +320,6 @@
     <t>03.08.2023</t>
   </si>
   <si>
-    <t>20.07.2023</t>
-  </si>
-  <si>
-    <t>18.10.2023</t>
-  </si>
-  <si>
     <t>25.07.2023</t>
   </si>
   <si>
@@ -342,6 +336,9 @@
   </si>
   <si>
     <t>08.08.2023</t>
+  </si>
+  <si>
+    <t>10.09.2023</t>
   </si>
 </sst>
 </file>
@@ -457,7 +454,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -546,15 +543,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -607,6 +595,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -913,10 +913,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M72"/>
+  <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2207,7 +2207,7 @@
         <v>2400</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F8" s="19">
         <v>615181</v>
@@ -2255,7 +2255,7 @@
         <v>4831</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F10" s="19">
         <v>615698</v>
@@ -2273,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2434,1343 +2434,1378 @@
       <c r="K17" s="10"/>
     </row>
     <row r="18" spans="1:13" s="18" customFormat="1">
-      <c r="A18" s="47">
+      <c r="A18" s="44">
         <v>151362001</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="48">
-        <v>10</v>
-      </c>
-      <c r="D18" s="48">
+      <c r="C18" s="45">
+        <v>10</v>
+      </c>
+      <c r="D18" s="45">
         <v>5614</v>
       </c>
-      <c r="E18" s="49" t="s">
-        <v>104</v>
-      </c>
-      <c r="F18" s="48">
+      <c r="E18" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" s="45">
         <v>616026</v>
       </c>
-      <c r="G18" s="48" t="s">
+      <c r="G18" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="H18" s="48">
-        <v>10</v>
-      </c>
-      <c r="I18" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" s="48">
-        <v>10</v>
-      </c>
-      <c r="K18" s="50" t="s">
+      <c r="H18" s="45">
+        <v>10</v>
+      </c>
+      <c r="I18" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="45">
+        <v>10</v>
+      </c>
+      <c r="K18" s="47" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="18" customFormat="1">
+      <c r="A19" s="48">
+        <v>151362092</v>
+      </c>
+      <c r="B19" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="49">
+        <v>10</v>
+      </c>
+      <c r="D19" s="49">
+        <v>5614</v>
+      </c>
+      <c r="E19" s="50" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" s="18" customFormat="1">
-      <c r="A19" s="16"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="28"/>
+      <c r="F19" s="49">
+        <v>616026</v>
+      </c>
+      <c r="G19" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" s="49">
+        <v>10</v>
+      </c>
+      <c r="I19" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="49">
+        <v>10</v>
+      </c>
+      <c r="K19" s="51" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="20" spans="1:13" s="18" customFormat="1">
-      <c r="A20" s="11">
+      <c r="A20" s="16"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="28"/>
+    </row>
+    <row r="21" spans="1:13" s="18" customFormat="1">
+      <c r="A21" s="11">
         <v>151338133</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B21" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C21" s="12">
         <v>70</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D21" s="15">
         <v>6521</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E21" s="14">
         <v>45077</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F21" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G21" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H21" s="15">
         <v>20</v>
       </c>
-      <c r="I20" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="15">
+      <c r="I21" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="15">
         <v>0</v>
       </c>
-      <c r="K20" s="15" t="s">
+      <c r="K21" s="15" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="M21" s="18"/>
-    </row>
-    <row r="22" spans="1:13" s="18" customFormat="1" ht="13.8" customHeight="1">
-      <c r="A22" s="23">
+    <row r="22" spans="1:13">
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="M22" s="18"/>
+    </row>
+    <row r="23" spans="1:13" s="18" customFormat="1" ht="13.8" customHeight="1">
+      <c r="A23" s="23">
         <v>151357107</v>
       </c>
-      <c r="B22" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="19">
+      <c r="B23" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="19">
         <v>70</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D23" s="19">
         <v>4048</v>
       </c>
-      <c r="E22" s="34" t="s">
+      <c r="E23" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" s="19">
+        <v>630059</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="H23" s="19">
+        <v>10</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="19">
+        <v>0</v>
+      </c>
+      <c r="K23" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="F22" s="19">
-        <v>630059</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="H22" s="19">
-        <v>10</v>
-      </c>
-      <c r="I22" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="J22" s="19">
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="M24" s="18"/>
+    </row>
+    <row r="25" spans="1:13" s="18" customFormat="1">
+      <c r="A25" s="16">
+        <v>151357107</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="19">
+        <v>60</v>
+      </c>
+      <c r="D25" s="32">
+        <v>5738</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" s="23">
+        <v>632215</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="H25" s="19">
+        <v>10</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" s="19">
         <v>0</v>
       </c>
-      <c r="K22" s="19" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="M23" s="18"/>
-    </row>
-    <row r="24" spans="1:13" s="18" customFormat="1">
-      <c r="A24" s="16">
+      <c r="K25" s="23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="12" customHeight="1">
+      <c r="A26" s="16"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="16"/>
+      <c r="M26" s="18"/>
+    </row>
+    <row r="27" spans="1:13" ht="11.4" customHeight="1">
+      <c r="A27" s="16">
+        <v>151110116</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="5">
+        <v>60</v>
+      </c>
+      <c r="D27" s="4">
+        <v>3450</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="4">
+        <v>634355</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" s="4">
+        <v>10</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" s="4">
+        <v>10</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M27" s="18"/>
+    </row>
+    <row r="28" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="10"/>
+      <c r="M28" s="18"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="12">
+        <v>151008992</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="12">
+        <v>20</v>
+      </c>
+      <c r="D29" s="17">
+        <v>4726</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="12">
+        <v>635655</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="12">
+        <v>10</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J29" s="12">
+        <v>0</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M29" s="18"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="M30" s="18"/>
+    </row>
+    <row r="31" spans="1:13" s="18" customFormat="1">
+      <c r="A31" s="16">
         <v>151357107</v>
       </c>
-      <c r="B24" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="19">
+      <c r="B31" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="19">
+        <v>50</v>
+      </c>
+      <c r="D31" s="20">
+        <v>2818</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="F31" s="23">
+        <v>635656</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="H31" s="19">
+        <v>30</v>
+      </c>
+      <c r="I31" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J31" s="19">
+        <v>0</v>
+      </c>
+      <c r="K31" s="19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="M32" s="18"/>
+    </row>
+    <row r="33" spans="1:11" s="18" customFormat="1">
+      <c r="A33" s="11">
+        <v>151338133</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="12">
+        <v>40</v>
+      </c>
+      <c r="D33" s="36">
+        <v>3555</v>
+      </c>
+      <c r="E33" s="30">
+        <v>45077</v>
+      </c>
+      <c r="F33" s="11">
+        <v>646872</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H33" s="12">
+        <v>10</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33" s="12">
+        <v>0</v>
+      </c>
+      <c r="K33" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="16"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="16">
+        <v>151110116</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="5">
+        <v>40</v>
+      </c>
+      <c r="D35" s="8">
+        <v>112</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35" s="10">
+        <v>50</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J35" s="10">
+        <v>0</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="11">
+        <v>151338133</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="12">
+        <v>90</v>
+      </c>
+      <c r="D37" s="13">
+        <v>3510</v>
+      </c>
+      <c r="E37" s="14">
+        <v>45077</v>
+      </c>
+      <c r="F37" s="12">
+        <v>663091</v>
+      </c>
+      <c r="G37" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="H37" s="15">
+        <v>10</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37" s="15">
+        <v>0</v>
+      </c>
+      <c r="K37" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="11">
+        <v>151338133</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="12">
+        <v>80</v>
+      </c>
+      <c r="D39" s="13">
+        <v>5130</v>
+      </c>
+      <c r="E39" s="14">
+        <v>45077</v>
+      </c>
+      <c r="F39" s="12">
+        <v>663092</v>
+      </c>
+      <c r="G39" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="H39" s="15">
+        <v>10</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J39" s="15">
+        <v>0</v>
+      </c>
+      <c r="K39" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+    </row>
+    <row r="41" spans="1:11" s="18" customFormat="1" ht="13.2" customHeight="1">
+      <c r="A41" s="11">
+        <v>151330034</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="12">
         <v>60</v>
       </c>
-      <c r="D24" s="35">
-        <v>5738</v>
-      </c>
-      <c r="E24" s="34" t="s">
+      <c r="D41" s="13">
+        <v>6615</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F41" s="12">
+        <v>663093</v>
+      </c>
+      <c r="G41" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="H41" s="15">
+        <v>10</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J41" s="15">
+        <v>0</v>
+      </c>
+      <c r="K41" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+    </row>
+    <row r="43" spans="1:11" s="18" customFormat="1">
+      <c r="A43" s="11">
+        <v>151338133</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="12">
+        <v>30</v>
+      </c>
+      <c r="D43" s="13">
+        <v>6000</v>
+      </c>
+      <c r="E43" s="30">
+        <v>45077</v>
+      </c>
+      <c r="F43" s="12">
+        <v>668330</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H43" s="15">
+        <v>15</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J43" s="15">
+        <v>15</v>
+      </c>
+      <c r="K43" s="14">
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="18" customFormat="1">
+      <c r="A44" s="24"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="28"/>
+    </row>
+    <row r="45" spans="1:11" s="18" customFormat="1" ht="12.6" customHeight="1">
+      <c r="A45" s="11">
+        <v>151353543</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="12">
+        <v>10</v>
+      </c>
+      <c r="D45" s="13">
+        <v>9703</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F45" s="11">
+        <v>681149</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H45" s="15">
+        <v>2</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J45" s="15">
+        <v>0</v>
+      </c>
+      <c r="K45" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+    </row>
+    <row r="47" spans="1:11" s="18" customFormat="1">
+      <c r="A47" s="16">
+        <v>151357107</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="19">
+        <v>30</v>
+      </c>
+      <c r="D47" s="27">
+        <v>1908</v>
+      </c>
+      <c r="E47" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="F47" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G47" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H47" s="28">
+        <v>20</v>
+      </c>
+      <c r="I47" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J47" s="28">
+        <v>20</v>
+      </c>
+      <c r="K47" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="F24" s="23">
-        <v>632215</v>
-      </c>
-      <c r="G24" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="H24" s="19">
-        <v>10</v>
-      </c>
-      <c r="I24" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" s="19">
+    </row>
+    <row r="48" spans="1:11" s="18" customFormat="1">
+      <c r="A48" s="24"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="28"/>
+    </row>
+    <row r="49" spans="1:11" s="18" customFormat="1">
+      <c r="A49" s="11">
+        <v>151330034</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="12">
+        <v>20</v>
+      </c>
+      <c r="D49" s="13">
+        <v>8463</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F49" s="11">
+        <v>687349</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H49" s="15">
+        <v>25</v>
+      </c>
+      <c r="I49" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J49" s="15">
         <v>0</v>
       </c>
-      <c r="K24" s="23" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="12" customHeight="1">
-      <c r="A25" s="16"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="16"/>
-      <c r="M25" s="18"/>
-    </row>
-    <row r="26" spans="1:13" ht="11.4" customHeight="1">
-      <c r="A26" s="16">
-        <v>151110116</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="5">
+      <c r="K49" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" s="18" customFormat="1">
+      <c r="A50" s="23"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="28"/>
+    </row>
+    <row r="51" spans="1:11" s="18" customFormat="1">
+      <c r="A51" s="11">
+        <v>151242082</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="12">
+        <v>10</v>
+      </c>
+      <c r="D51" s="13">
+        <v>1600</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F51" s="11">
+        <v>691660</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H51" s="15">
+        <v>1</v>
+      </c>
+      <c r="I51" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J51" s="15">
+        <v>0</v>
+      </c>
+      <c r="K51" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+    </row>
+    <row r="53" spans="1:11" s="18" customFormat="1">
+      <c r="A53" s="16">
+        <v>151357107</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="19">
+        <v>20</v>
+      </c>
+      <c r="D53" s="27">
+        <v>565</v>
+      </c>
+      <c r="E53" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="F53" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G53" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H53" s="28">
+        <v>150</v>
+      </c>
+      <c r="I53" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J53" s="28">
+        <v>150</v>
+      </c>
+      <c r="K53" s="28">
+        <v>2208.2022999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="29">
+        <v>151264212</v>
+      </c>
+      <c r="B55" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="29">
+        <v>10</v>
+      </c>
+      <c r="D55" s="39">
+        <v>10710</v>
+      </c>
+      <c r="E55" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="F55" s="29">
+        <v>704681</v>
+      </c>
+      <c r="G55" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="H55" s="41">
+        <v>1</v>
+      </c>
+      <c r="I55" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="J55" s="41">
+        <v>0</v>
+      </c>
+      <c r="K55" s="41" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" s="8">
+        <v>4995</v>
+      </c>
+      <c r="E57" s="9">
+        <v>44223</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H57" s="10">
+        <v>2</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J57" s="10">
+        <v>0</v>
+      </c>
+      <c r="K57" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" s="8">
+        <v>4245</v>
+      </c>
+      <c r="E59" s="9">
+        <v>44223</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H59" s="10">
+        <v>2</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J59" s="10">
+        <v>0</v>
+      </c>
+      <c r="K59" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+    </row>
+    <row r="61" spans="1:11" s="18" customFormat="1">
+      <c r="A61" s="16">
+        <v>151357107</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="19">
+        <v>10</v>
+      </c>
+      <c r="D61" s="27">
+        <v>1896</v>
+      </c>
+      <c r="E61" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="F61" s="19">
+        <v>716663</v>
+      </c>
+      <c r="G61" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H61" s="28">
+        <v>10</v>
+      </c>
+      <c r="I61" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J61" s="28">
+        <v>0</v>
+      </c>
+      <c r="K61" s="28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
+    </row>
+    <row r="63" spans="1:11" s="18" customFormat="1">
+      <c r="A63" s="42">
+        <v>151350196</v>
+      </c>
+      <c r="B63" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" s="42">
+        <v>10</v>
+      </c>
+      <c r="D63" s="42">
+        <v>45000</v>
+      </c>
+      <c r="E63" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="F63" s="42">
+        <v>719031</v>
+      </c>
+      <c r="G63" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" s="43">
+        <v>2</v>
+      </c>
+      <c r="I63" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="J63" s="43">
+        <v>2</v>
+      </c>
+      <c r="K63" s="43" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="16"/>
+      <c r="B64" s="29"/>
+      <c r="C64" s="29"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="29"/>
+      <c r="G64" s="29"/>
+      <c r="H64" s="41"/>
+      <c r="I64" s="29"/>
+      <c r="J64" s="41"/>
+      <c r="K64" s="41"/>
+    </row>
+    <row r="65" spans="1:11" s="18" customFormat="1" ht="12.6" customHeight="1">
+      <c r="A65" s="16">
+        <v>151332508</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="19">
+        <v>10</v>
+      </c>
+      <c r="D65" s="32">
+        <v>9999</v>
+      </c>
+      <c r="E65" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="F65" s="23">
+        <v>719381</v>
+      </c>
+      <c r="G65" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="H65" s="19">
+        <v>10</v>
+      </c>
+      <c r="I65" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J65" s="19">
+        <v>0</v>
+      </c>
+      <c r="K65" s="23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="16"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="16"/>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="11">
+        <v>151341902</v>
+      </c>
+      <c r="B67" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" s="37">
+        <v>10</v>
+      </c>
+      <c r="D67" s="37">
+        <v>6800</v>
+      </c>
+      <c r="E67" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="F67" s="37">
+        <v>720138</v>
+      </c>
+      <c r="G67" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="H67" s="37">
+        <v>3</v>
+      </c>
+      <c r="I67" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="J67" s="37">
+        <v>0</v>
+      </c>
+      <c r="K67" s="37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+    </row>
+    <row r="69" spans="1:11" s="18" customFormat="1">
+      <c r="A69" s="11">
+        <v>151343138</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="12">
+        <v>10</v>
+      </c>
+      <c r="D69" s="12">
+        <v>2490</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F69" s="11">
+        <v>724214</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H69" s="12">
+        <v>5</v>
+      </c>
+      <c r="I69" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J69" s="12">
+        <v>2</v>
+      </c>
+      <c r="K69" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="5">
+        <v>16063532</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="5">
+        <v>10</v>
+      </c>
+      <c r="D71" s="5">
+        <v>2900</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F71" s="5">
+        <v>725828</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H71" s="5">
+        <v>10</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J71" s="5">
+        <v>0</v>
+      </c>
+      <c r="K71" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+    </row>
+    <row r="73" spans="1:11" s="18" customFormat="1">
+      <c r="A73" s="23">
+        <v>151315311</v>
+      </c>
+      <c r="B73" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="19">
+        <v>10</v>
+      </c>
+      <c r="D73" s="19">
+        <v>100</v>
+      </c>
+      <c r="E73" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="F73" s="19">
+        <v>728488</v>
+      </c>
+      <c r="G73" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="4">
-        <v>3450</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F26" s="4">
-        <v>634355</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H26" s="4">
-        <v>10</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J26" s="4">
-        <v>10</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="M26" s="18"/>
-    </row>
-    <row r="27" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="10"/>
-      <c r="M27" s="18"/>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="12">
-        <v>151008992</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="12">
-        <v>20</v>
-      </c>
-      <c r="D28" s="17">
-        <v>4726</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" s="12">
-        <v>635655</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H28" s="12">
-        <v>10</v>
-      </c>
-      <c r="I28" s="12" t="s">
+      <c r="H73" s="19">
+        <v>10</v>
+      </c>
+      <c r="I73" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="J28" s="12">
+      <c r="J73" s="19">
         <v>0</v>
       </c>
-      <c r="K28" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M28" s="18"/>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="M29" s="18"/>
-    </row>
-    <row r="30" spans="1:13" s="18" customFormat="1">
-      <c r="A30" s="16">
-        <v>151357107</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="19">
-        <v>50</v>
-      </c>
-      <c r="D30" s="20">
-        <v>2818</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="F30" s="23">
-        <v>635656</v>
-      </c>
-      <c r="G30" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="H30" s="19">
-        <v>30</v>
-      </c>
-      <c r="I30" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="J30" s="19">
-        <v>0</v>
-      </c>
-      <c r="K30" s="19" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="M31" s="18"/>
-    </row>
-    <row r="32" spans="1:13" s="18" customFormat="1">
-      <c r="A32" s="11">
-        <v>151338133</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="12">
-        <v>40</v>
-      </c>
-      <c r="D32" s="39">
-        <v>3555</v>
-      </c>
-      <c r="E32" s="33">
-        <v>45077</v>
-      </c>
-      <c r="F32" s="11">
-        <v>646872</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H32" s="12">
-        <v>10</v>
-      </c>
-      <c r="I32" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J32" s="12">
-        <v>0</v>
-      </c>
-      <c r="K32" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="24"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="16"/>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="16">
-        <v>151110116</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="5">
-        <v>40</v>
-      </c>
-      <c r="D34" s="8">
-        <v>112</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H34" s="10">
-        <v>50</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J34" s="10">
-        <v>0</v>
-      </c>
-      <c r="K34" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="11">
-        <v>151338133</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" s="12">
-        <v>90</v>
-      </c>
-      <c r="D36" s="13">
-        <v>3510</v>
-      </c>
-      <c r="E36" s="14">
-        <v>45077</v>
-      </c>
-      <c r="F36" s="12">
-        <v>663091</v>
-      </c>
-      <c r="G36" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="H36" s="15">
-        <v>10</v>
-      </c>
-      <c r="I36" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J36" s="15">
-        <v>0</v>
-      </c>
-      <c r="K36" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="11">
-        <v>151338133</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="12">
-        <v>80</v>
-      </c>
-      <c r="D38" s="13">
-        <v>5130</v>
-      </c>
-      <c r="E38" s="14">
-        <v>45077</v>
-      </c>
-      <c r="F38" s="12">
-        <v>663092</v>
-      </c>
-      <c r="G38" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="H38" s="15">
-        <v>10</v>
-      </c>
-      <c r="I38" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J38" s="15">
-        <v>0</v>
-      </c>
-      <c r="K38" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-    </row>
-    <row r="40" spans="1:11" s="18" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A40" s="11">
-        <v>151330034</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" s="12">
-        <v>60</v>
-      </c>
-      <c r="D40" s="13">
-        <v>6615</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F40" s="12">
-        <v>663093</v>
-      </c>
-      <c r="G40" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="H40" s="15">
-        <v>10</v>
-      </c>
-      <c r="I40" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J40" s="15">
-        <v>0</v>
-      </c>
-      <c r="K40" s="15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-    </row>
-    <row r="42" spans="1:11" s="18" customFormat="1">
-      <c r="A42" s="11">
-        <v>151338133</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" s="12">
-        <v>30</v>
-      </c>
-      <c r="D42" s="13">
-        <v>6000</v>
-      </c>
-      <c r="E42" s="33">
-        <v>45077</v>
-      </c>
-      <c r="F42" s="12">
-        <v>668330</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H42" s="15">
-        <v>15</v>
-      </c>
-      <c r="I42" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J42" s="15">
-        <v>15</v>
-      </c>
-      <c r="K42" s="14">
-        <v>45077</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" s="18" customFormat="1">
-      <c r="A43" s="24"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="28"/>
-      <c r="K43" s="28"/>
-    </row>
-    <row r="44" spans="1:11" s="18" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A44" s="11">
-        <v>151353543</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" s="12">
-        <v>10</v>
-      </c>
-      <c r="D44" s="13">
-        <v>9703</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="F44" s="11">
-        <v>681149</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="H44" s="15">
-        <v>2</v>
-      </c>
-      <c r="I44" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J44" s="15">
-        <v>0</v>
-      </c>
-      <c r="K44" s="14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-    </row>
-    <row r="46" spans="1:11" s="18" customFormat="1">
-      <c r="A46" s="16">
-        <v>151357107</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46" s="19">
-        <v>30</v>
-      </c>
-      <c r="D46" s="27">
-        <v>1908</v>
-      </c>
-      <c r="E46" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="F46" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G46" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H46" s="28">
-        <v>20</v>
-      </c>
-      <c r="I46" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="J46" s="28">
-        <v>20</v>
-      </c>
-      <c r="K46" s="28" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" s="18" customFormat="1">
-      <c r="A47" s="24"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="26"/>
-      <c r="J47" s="28"/>
-      <c r="K47" s="28"/>
-    </row>
-    <row r="48" spans="1:11" s="18" customFormat="1">
-      <c r="A48" s="11">
-        <v>151330034</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C48" s="12">
-        <v>20</v>
-      </c>
-      <c r="D48" s="13">
-        <v>8463</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F48" s="11">
-        <v>687349</v>
-      </c>
-      <c r="G48" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="H48" s="15">
-        <v>25</v>
-      </c>
-      <c r="I48" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J48" s="15">
-        <v>0</v>
-      </c>
-      <c r="K48" s="15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" s="18" customFormat="1">
-      <c r="A49" s="23"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="28"/>
-      <c r="K49" s="28"/>
-    </row>
-    <row r="50" spans="1:11" s="18" customFormat="1">
-      <c r="A50" s="11">
-        <v>151242082</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C50" s="12">
-        <v>10</v>
-      </c>
-      <c r="D50" s="13">
-        <v>1600</v>
-      </c>
-      <c r="E50" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="F50" s="11">
-        <v>691660</v>
-      </c>
-      <c r="G50" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="H50" s="15">
-        <v>1</v>
-      </c>
-      <c r="I50" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J50" s="15">
-        <v>0</v>
-      </c>
-      <c r="K50" s="15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-    </row>
-    <row r="52" spans="1:11" s="18" customFormat="1">
-      <c r="A52" s="16">
-        <v>151357107</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" s="19">
-        <v>20</v>
-      </c>
-      <c r="D52" s="27">
-        <v>565</v>
-      </c>
-      <c r="E52" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="F52" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G52" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="H52" s="28">
-        <v>150</v>
-      </c>
-      <c r="I52" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="J52" s="28">
-        <v>150</v>
-      </c>
-      <c r="K52" s="28">
-        <v>2208.2022999999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="29">
-        <v>151264212</v>
-      </c>
-      <c r="B54" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C54" s="29">
-        <v>10</v>
-      </c>
-      <c r="D54" s="42">
-        <v>10710</v>
-      </c>
-      <c r="E54" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="F54" s="29">
-        <v>704681</v>
-      </c>
-      <c r="G54" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="H54" s="44">
-        <v>1</v>
-      </c>
-      <c r="I54" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="J54" s="44">
-        <v>0</v>
-      </c>
-      <c r="K54" s="44" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="41"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="10"/>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D56" s="8">
-        <v>4995</v>
-      </c>
-      <c r="E56" s="9">
-        <v>44223</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H56" s="10">
-        <v>2</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J56" s="10">
-        <v>0</v>
-      </c>
-      <c r="K56" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="10"/>
-      <c r="K57" s="10"/>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D58" s="8">
-        <v>4245</v>
-      </c>
-      <c r="E58" s="9">
-        <v>44223</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H58" s="10">
-        <v>2</v>
-      </c>
-      <c r="I58" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J58" s="10">
-        <v>0</v>
-      </c>
-      <c r="K58" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="10"/>
-      <c r="K59" s="10"/>
-    </row>
-    <row r="60" spans="1:11" s="18" customFormat="1">
-      <c r="A60" s="16">
-        <v>151357107</v>
-      </c>
-      <c r="B60" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C60" s="19">
-        <v>10</v>
-      </c>
-      <c r="D60" s="27">
-        <v>1896</v>
-      </c>
-      <c r="E60" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="F60" s="19">
-        <v>716663</v>
-      </c>
-      <c r="G60" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H60" s="28">
-        <v>10</v>
-      </c>
-      <c r="I60" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="J60" s="28">
-        <v>0</v>
-      </c>
-      <c r="K60" s="28" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="10"/>
-      <c r="K61" s="10"/>
-    </row>
-    <row r="62" spans="1:11" s="18" customFormat="1">
-      <c r="A62" s="45">
-        <v>151350196</v>
-      </c>
-      <c r="B62" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="C62" s="45">
-        <v>10</v>
-      </c>
-      <c r="D62" s="45">
-        <v>45000</v>
-      </c>
-      <c r="E62" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="F62" s="45">
-        <v>719031</v>
-      </c>
-      <c r="G62" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="H62" s="46">
-        <v>2</v>
-      </c>
-      <c r="I62" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="J62" s="46">
-        <v>2</v>
-      </c>
-      <c r="K62" s="46" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="16"/>
-      <c r="B63" s="29"/>
-      <c r="C63" s="29"/>
-      <c r="D63" s="29"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="29"/>
-      <c r="G63" s="29"/>
-      <c r="H63" s="44"/>
-      <c r="I63" s="29"/>
-      <c r="J63" s="44"/>
-      <c r="K63" s="44"/>
-    </row>
-    <row r="64" spans="1:11" s="18" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A64" s="16">
-        <v>151332508</v>
-      </c>
-      <c r="B64" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C64" s="19">
-        <v>10</v>
-      </c>
-      <c r="D64" s="35">
-        <v>9999</v>
-      </c>
-      <c r="E64" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="F64" s="23">
-        <v>719381</v>
-      </c>
-      <c r="G64" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="H64" s="19">
-        <v>10</v>
-      </c>
-      <c r="I64" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="J64" s="19">
-        <v>0</v>
-      </c>
-      <c r="K64" s="23" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="16"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="36"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="16"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="16"/>
-    </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="11">
-        <v>151341902</v>
-      </c>
-      <c r="B66" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="C66" s="40">
-        <v>10</v>
-      </c>
-      <c r="D66" s="40">
-        <v>6800</v>
-      </c>
-      <c r="E66" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="F66" s="40">
-        <v>720138</v>
-      </c>
-      <c r="G66" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="H66" s="40">
-        <v>3</v>
-      </c>
-      <c r="I66" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="J66" s="40">
-        <v>0</v>
-      </c>
-      <c r="K66" s="40" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
-    </row>
-    <row r="68" spans="1:11" s="18" customFormat="1">
-      <c r="A68" s="11">
-        <v>151343138</v>
-      </c>
-      <c r="B68" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C68" s="12">
-        <v>10</v>
-      </c>
-      <c r="D68" s="12">
-        <v>2490</v>
-      </c>
-      <c r="E68" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="F68" s="11">
-        <v>724214</v>
-      </c>
-      <c r="G68" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H68" s="12">
-        <v>5</v>
-      </c>
-      <c r="I68" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J68" s="12">
-        <v>2</v>
-      </c>
-      <c r="K68" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
-      <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
-      <c r="K69" s="5"/>
-    </row>
-    <row r="70" spans="1:11">
-      <c r="A70" s="5">
-        <v>16063532</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C70" s="5">
-        <v>10</v>
-      </c>
-      <c r="D70" s="5">
-        <v>2900</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F70" s="5">
-        <v>725828</v>
-      </c>
-      <c r="G70" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H70" s="5">
-        <v>10</v>
-      </c>
-      <c r="I70" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J70" s="5">
-        <v>0</v>
-      </c>
-      <c r="K70" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
-      <c r="K71" s="5"/>
-    </row>
-    <row r="72" spans="1:11" s="18" customFormat="1">
-      <c r="A72" s="23">
-        <v>151315311</v>
-      </c>
-      <c r="B72" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C72" s="19">
-        <v>10</v>
-      </c>
-      <c r="D72" s="19">
-        <v>100</v>
-      </c>
-      <c r="E72" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="F72" s="19">
-        <v>728488</v>
-      </c>
-      <c r="G72" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="H72" s="19">
-        <v>10</v>
-      </c>
-      <c r="I72" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="J72" s="19">
-        <v>0</v>
-      </c>
-      <c r="K72" s="19" t="s">
+      <c r="K73" s="19" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3782,10 +3817,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M72"/>
+  <dimension ref="A1:M73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -5076,7 +5111,7 @@
         <v>2400</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F8" s="19">
         <v>615181</v>
@@ -5124,7 +5159,7 @@
         <v>4831</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F10" s="19">
         <v>615698</v>
@@ -5139,10 +5174,10 @@
         <v>12</v>
       </c>
       <c r="J10" s="19">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -5303,1343 +5338,1378 @@
       <c r="K17" s="10"/>
     </row>
     <row r="18" spans="1:13" s="18" customFormat="1">
-      <c r="A18" s="29">
-        <v>151355463</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="30">
-        <v>10</v>
-      </c>
-      <c r="D18" s="30">
+      <c r="A18" s="44">
+        <v>151362001</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="45">
+        <v>10</v>
+      </c>
+      <c r="D18" s="45">
         <v>5614</v>
       </c>
-      <c r="E18" s="31" t="s">
+      <c r="E18" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" s="45">
+        <v>616026</v>
+      </c>
+      <c r="G18" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18" s="45">
+        <v>10</v>
+      </c>
+      <c r="I18" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="45">
+        <v>10</v>
+      </c>
+      <c r="K18" s="47" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="18" customFormat="1">
+      <c r="A19" s="48">
+        <v>151362092</v>
+      </c>
+      <c r="B19" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="49">
+        <v>10</v>
+      </c>
+      <c r="D19" s="49">
+        <v>5614</v>
+      </c>
+      <c r="E19" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="49">
+        <v>616026</v>
+      </c>
+      <c r="G19" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" s="49">
+        <v>10</v>
+      </c>
+      <c r="I19" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="49">
+        <v>10</v>
+      </c>
+      <c r="K19" s="51" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="18" customFormat="1">
+      <c r="A20" s="16"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="28"/>
+    </row>
+    <row r="21" spans="1:13" s="18" customFormat="1">
+      <c r="A21" s="11">
+        <v>151338133</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="12">
+        <v>70</v>
+      </c>
+      <c r="D21" s="15">
+        <v>6521</v>
+      </c>
+      <c r="E21" s="14">
+        <v>45077</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21" s="15">
+        <v>20</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="15">
+        <v>0</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="M22" s="18"/>
+    </row>
+    <row r="23" spans="1:13" s="18" customFormat="1" ht="13.8" customHeight="1">
+      <c r="A23" s="23">
+        <v>151357107</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="19">
+        <v>70</v>
+      </c>
+      <c r="D23" s="19">
+        <v>4048</v>
+      </c>
+      <c r="E23" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="F18" s="30">
-        <v>616026</v>
-      </c>
-      <c r="G18" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="H18" s="30">
-        <v>10</v>
-      </c>
-      <c r="I18" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" s="30">
-        <v>10</v>
-      </c>
-      <c r="K18" s="32" t="s">
+      <c r="F23" s="19">
+        <v>630059</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="H23" s="19">
+        <v>10</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="19">
+        <v>0</v>
+      </c>
+      <c r="K23" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="M24" s="18"/>
+    </row>
+    <row r="25" spans="1:13" s="18" customFormat="1">
+      <c r="A25" s="16">
+        <v>151357107</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="19">
+        <v>60</v>
+      </c>
+      <c r="D25" s="32">
+        <v>5738</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" s="23">
+        <v>632215</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="H25" s="19">
+        <v>10</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" s="19">
+        <v>0</v>
+      </c>
+      <c r="K25" s="23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="12" customHeight="1">
+      <c r="A26" s="16"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="16"/>
+      <c r="M26" s="18"/>
+    </row>
+    <row r="27" spans="1:13" ht="11.4" customHeight="1">
+      <c r="A27" s="16">
+        <v>151110116</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="5">
+        <v>60</v>
+      </c>
+      <c r="D27" s="4">
+        <v>3450</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="4">
+        <v>634355</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" s="4">
+        <v>10</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" s="4">
+        <v>10</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M27" s="18"/>
+    </row>
+    <row r="28" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="10"/>
+      <c r="M28" s="18"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="12">
+        <v>151008992</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="12">
+        <v>20</v>
+      </c>
+      <c r="D29" s="17">
+        <v>4726</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="12">
+        <v>635655</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="12">
+        <v>10</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J29" s="12">
+        <v>0</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M29" s="18"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="M30" s="18"/>
+    </row>
+    <row r="31" spans="1:13" s="18" customFormat="1">
+      <c r="A31" s="16">
+        <v>151357107</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="19">
+        <v>50</v>
+      </c>
+      <c r="D31" s="20">
+        <v>2818</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="F31" s="23">
+        <v>635656</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="H31" s="19">
+        <v>30</v>
+      </c>
+      <c r="I31" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J31" s="19">
+        <v>0</v>
+      </c>
+      <c r="K31" s="19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="M32" s="18"/>
+    </row>
+    <row r="33" spans="1:11" s="18" customFormat="1">
+      <c r="A33" s="11">
+        <v>151338133</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="12">
+        <v>40</v>
+      </c>
+      <c r="D33" s="36">
+        <v>3555</v>
+      </c>
+      <c r="E33" s="30">
+        <v>45077</v>
+      </c>
+      <c r="F33" s="11">
+        <v>646872</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H33" s="12">
+        <v>10</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33" s="12">
+        <v>0</v>
+      </c>
+      <c r="K33" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="16"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="16">
+        <v>151110116</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="5">
+        <v>40</v>
+      </c>
+      <c r="D35" s="8">
+        <v>112</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35" s="10">
+        <v>50</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J35" s="10">
+        <v>0</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="11">
+        <v>151338133</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="12">
+        <v>90</v>
+      </c>
+      <c r="D37" s="13">
+        <v>3510</v>
+      </c>
+      <c r="E37" s="14">
+        <v>45077</v>
+      </c>
+      <c r="F37" s="12">
+        <v>663091</v>
+      </c>
+      <c r="G37" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="H37" s="15">
+        <v>10</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37" s="15">
+        <v>0</v>
+      </c>
+      <c r="K37" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="11">
+        <v>151338133</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="12">
+        <v>80</v>
+      </c>
+      <c r="D39" s="13">
+        <v>5130</v>
+      </c>
+      <c r="E39" s="14">
+        <v>45077</v>
+      </c>
+      <c r="F39" s="12">
+        <v>663092</v>
+      </c>
+      <c r="G39" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="H39" s="15">
+        <v>10</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J39" s="15">
+        <v>0</v>
+      </c>
+      <c r="K39" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+    </row>
+    <row r="41" spans="1:11" s="18" customFormat="1" ht="13.2" customHeight="1">
+      <c r="A41" s="11">
+        <v>151330034</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="12">
+        <v>60</v>
+      </c>
+      <c r="D41" s="13">
+        <v>6615</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F41" s="12">
+        <v>663093</v>
+      </c>
+      <c r="G41" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="H41" s="15">
+        <v>10</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J41" s="15">
+        <v>0</v>
+      </c>
+      <c r="K41" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+    </row>
+    <row r="43" spans="1:11" s="18" customFormat="1">
+      <c r="A43" s="11">
+        <v>151338133</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="12">
+        <v>30</v>
+      </c>
+      <c r="D43" s="13">
+        <v>6000</v>
+      </c>
+      <c r="E43" s="30">
+        <v>45077</v>
+      </c>
+      <c r="F43" s="12">
+        <v>668330</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H43" s="15">
+        <v>15</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J43" s="15">
+        <v>15</v>
+      </c>
+      <c r="K43" s="14">
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="18" customFormat="1">
+      <c r="A44" s="24"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="28"/>
+    </row>
+    <row r="45" spans="1:11" s="18" customFormat="1" ht="12.6" customHeight="1">
+      <c r="A45" s="11">
+        <v>151353543</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="12">
+        <v>10</v>
+      </c>
+      <c r="D45" s="13">
+        <v>9703</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F45" s="11">
+        <v>681149</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H45" s="15">
+        <v>2</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J45" s="15">
+        <v>0</v>
+      </c>
+      <c r="K45" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+    </row>
+    <row r="47" spans="1:11" s="18" customFormat="1">
+      <c r="A47" s="16">
+        <v>151357107</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="19">
+        <v>30</v>
+      </c>
+      <c r="D47" s="27">
+        <v>1908</v>
+      </c>
+      <c r="E47" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="F47" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G47" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H47" s="28">
+        <v>20</v>
+      </c>
+      <c r="I47" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J47" s="28">
+        <v>20</v>
+      </c>
+      <c r="K47" s="28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="18" customFormat="1">
+      <c r="A48" s="24"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="28"/>
+    </row>
+    <row r="49" spans="1:11" s="18" customFormat="1">
+      <c r="A49" s="11">
+        <v>151330034</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="12">
+        <v>20</v>
+      </c>
+      <c r="D49" s="13">
+        <v>8463</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F49" s="11">
+        <v>687349</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H49" s="15">
+        <v>25</v>
+      </c>
+      <c r="I49" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J49" s="15">
+        <v>0</v>
+      </c>
+      <c r="K49" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" s="18" customFormat="1">
+      <c r="A50" s="23"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="28"/>
+    </row>
+    <row r="51" spans="1:11" s="18" customFormat="1">
+      <c r="A51" s="11">
+        <v>151242082</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="12">
+        <v>10</v>
+      </c>
+      <c r="D51" s="13">
+        <v>1600</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F51" s="11">
+        <v>691660</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H51" s="15">
+        <v>1</v>
+      </c>
+      <c r="I51" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J51" s="15">
+        <v>0</v>
+      </c>
+      <c r="K51" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+    </row>
+    <row r="53" spans="1:11" s="18" customFormat="1">
+      <c r="A53" s="16">
+        <v>151357107</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="19">
+        <v>20</v>
+      </c>
+      <c r="D53" s="27">
+        <v>565</v>
+      </c>
+      <c r="E53" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="F53" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G53" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H53" s="28">
+        <v>150</v>
+      </c>
+      <c r="I53" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J53" s="28">
+        <v>150</v>
+      </c>
+      <c r="K53" s="28">
+        <v>2208.2022999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="29">
+        <v>151264212</v>
+      </c>
+      <c r="B55" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="29">
+        <v>10</v>
+      </c>
+      <c r="D55" s="39">
+        <v>10710</v>
+      </c>
+      <c r="E55" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="F55" s="29">
+        <v>704681</v>
+      </c>
+      <c r="G55" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="H55" s="41">
+        <v>1</v>
+      </c>
+      <c r="I55" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="J55" s="41">
+        <v>0</v>
+      </c>
+      <c r="K55" s="41" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" s="8">
+        <v>4995</v>
+      </c>
+      <c r="E57" s="9">
+        <v>44223</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H57" s="10">
+        <v>2</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J57" s="10">
+        <v>0</v>
+      </c>
+      <c r="K57" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" s="8">
+        <v>4245</v>
+      </c>
+      <c r="E59" s="9">
+        <v>44223</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H59" s="10">
+        <v>2</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J59" s="10">
+        <v>0</v>
+      </c>
+      <c r="K59" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+    </row>
+    <row r="61" spans="1:11" s="18" customFormat="1">
+      <c r="A61" s="16">
+        <v>151357107</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="19">
+        <v>10</v>
+      </c>
+      <c r="D61" s="27">
+        <v>1896</v>
+      </c>
+      <c r="E61" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="F61" s="19">
+        <v>716663</v>
+      </c>
+      <c r="G61" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H61" s="28">
+        <v>10</v>
+      </c>
+      <c r="I61" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J61" s="28">
+        <v>0</v>
+      </c>
+      <c r="K61" s="28" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="18" customFormat="1">
-      <c r="A19" s="16"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="28"/>
-    </row>
-    <row r="20" spans="1:13" s="18" customFormat="1">
-      <c r="A20" s="11">
-        <v>151338133</v>
-      </c>
-      <c r="B20" s="12" t="s">
+    <row r="62" spans="1:11">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
+    </row>
+    <row r="63" spans="1:11" s="18" customFormat="1">
+      <c r="A63" s="42">
+        <v>151350196</v>
+      </c>
+      <c r="B63" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="12">
-        <v>70</v>
-      </c>
-      <c r="D20" s="15">
-        <v>6521</v>
-      </c>
-      <c r="E20" s="14">
-        <v>45077</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H20" s="15">
-        <v>20</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="15">
+      <c r="C63" s="42">
+        <v>10</v>
+      </c>
+      <c r="D63" s="42">
+        <v>45000</v>
+      </c>
+      <c r="E63" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="F63" s="42">
+        <v>719031</v>
+      </c>
+      <c r="G63" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" s="43">
+        <v>2</v>
+      </c>
+      <c r="I63" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="J63" s="43">
+        <v>2</v>
+      </c>
+      <c r="K63" s="43" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="16"/>
+      <c r="B64" s="29"/>
+      <c r="C64" s="29"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="29"/>
+      <c r="G64" s="29"/>
+      <c r="H64" s="41"/>
+      <c r="I64" s="29"/>
+      <c r="J64" s="41"/>
+      <c r="K64" s="41"/>
+    </row>
+    <row r="65" spans="1:11" s="18" customFormat="1" ht="12.6" customHeight="1">
+      <c r="A65" s="16">
+        <v>151332508</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="19">
+        <v>10</v>
+      </c>
+      <c r="D65" s="32">
+        <v>9999</v>
+      </c>
+      <c r="E65" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="F65" s="23">
+        <v>719381</v>
+      </c>
+      <c r="G65" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="H65" s="19">
+        <v>10</v>
+      </c>
+      <c r="I65" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J65" s="19">
         <v>0</v>
       </c>
-      <c r="K20" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="M21" s="18"/>
-    </row>
-    <row r="22" spans="1:13" s="18" customFormat="1" ht="13.8" customHeight="1">
-      <c r="A22" s="23">
-        <v>151357107</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="19">
-        <v>70</v>
-      </c>
-      <c r="D22" s="19">
-        <v>4048</v>
-      </c>
-      <c r="E22" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="F22" s="19">
-        <v>630059</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="H22" s="19">
-        <v>10</v>
-      </c>
-      <c r="I22" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="J22" s="19">
-        <v>10</v>
-      </c>
-      <c r="K22" s="19" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="M23" s="18"/>
-    </row>
-    <row r="24" spans="1:13" s="18" customFormat="1">
-      <c r="A24" s="16">
-        <v>151357107</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="19">
+      <c r="K65" s="23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="16"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="16"/>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="11">
+        <v>151341902</v>
+      </c>
+      <c r="B67" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" s="37">
+        <v>10</v>
+      </c>
+      <c r="D67" s="37">
+        <v>6800</v>
+      </c>
+      <c r="E67" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="F67" s="37">
+        <v>720138</v>
+      </c>
+      <c r="G67" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="H67" s="37">
+        <v>3</v>
+      </c>
+      <c r="I67" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="J67" s="37">
+        <v>0</v>
+      </c>
+      <c r="K67" s="37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+    </row>
+    <row r="69" spans="1:11" s="18" customFormat="1">
+      <c r="A69" s="11">
+        <v>151343138</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="12">
+        <v>10</v>
+      </c>
+      <c r="D69" s="12">
+        <v>2490</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F69" s="11">
+        <v>724214</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H69" s="12">
+        <v>5</v>
+      </c>
+      <c r="I69" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J69" s="12">
+        <v>2</v>
+      </c>
+      <c r="K69" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="5">
+        <v>16063532</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="5">
+        <v>10</v>
+      </c>
+      <c r="D71" s="5">
+        <v>2900</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F71" s="5">
+        <v>725828</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H71" s="5">
+        <v>10</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J71" s="5">
+        <v>0</v>
+      </c>
+      <c r="K71" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+    </row>
+    <row r="73" spans="1:11" s="18" customFormat="1">
+      <c r="A73" s="23">
+        <v>151315311</v>
+      </c>
+      <c r="B73" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="19">
+        <v>10</v>
+      </c>
+      <c r="D73" s="19">
+        <v>100</v>
+      </c>
+      <c r="E73" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="F73" s="19">
+        <v>728488</v>
+      </c>
+      <c r="G73" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="35">
-        <v>5738</v>
-      </c>
-      <c r="E24" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="F24" s="23">
-        <v>632215</v>
-      </c>
-      <c r="G24" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="H24" s="19">
-        <v>10</v>
-      </c>
-      <c r="I24" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" s="19">
-        <v>10</v>
-      </c>
-      <c r="K24" s="23" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="12" customHeight="1">
-      <c r="A25" s="16"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="16"/>
-      <c r="M25" s="18"/>
-    </row>
-    <row r="26" spans="1:13" ht="11.4" customHeight="1">
-      <c r="A26" s="16">
-        <v>151110116</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="5">
-        <v>60</v>
-      </c>
-      <c r="D26" s="4">
-        <v>3450</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F26" s="4">
-        <v>634355</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H26" s="4">
-        <v>10</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J26" s="4">
-        <v>10</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="M26" s="18"/>
-    </row>
-    <row r="27" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="10"/>
-      <c r="M27" s="18"/>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="12">
-        <v>151008992</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="12">
-        <v>20</v>
-      </c>
-      <c r="D28" s="17">
-        <v>4726</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" s="12">
-        <v>635655</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H28" s="12">
-        <v>10</v>
-      </c>
-      <c r="I28" s="12" t="s">
+      <c r="H73" s="19">
+        <v>10</v>
+      </c>
+      <c r="I73" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="J28" s="12">
+      <c r="J73" s="19">
         <v>0</v>
       </c>
-      <c r="K28" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M28" s="18"/>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="M29" s="18"/>
-    </row>
-    <row r="30" spans="1:13" s="18" customFormat="1">
-      <c r="A30" s="16">
-        <v>151357107</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="19">
-        <v>50</v>
-      </c>
-      <c r="D30" s="20">
-        <v>2818</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="F30" s="23">
-        <v>635656</v>
-      </c>
-      <c r="G30" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="H30" s="19">
-        <v>20</v>
-      </c>
-      <c r="I30" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="J30" s="19">
-        <v>20</v>
-      </c>
-      <c r="K30" s="19" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="M31" s="18"/>
-    </row>
-    <row r="32" spans="1:13" s="18" customFormat="1">
-      <c r="A32" s="11">
-        <v>151338133</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="12">
-        <v>40</v>
-      </c>
-      <c r="D32" s="39">
-        <v>3555</v>
-      </c>
-      <c r="E32" s="33">
-        <v>45077</v>
-      </c>
-      <c r="F32" s="11">
-        <v>646872</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H32" s="12">
-        <v>10</v>
-      </c>
-      <c r="I32" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J32" s="12">
-        <v>0</v>
-      </c>
-      <c r="K32" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="24"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="16"/>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="16">
-        <v>151110116</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="5">
-        <v>40</v>
-      </c>
-      <c r="D34" s="8">
-        <v>112</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H34" s="10">
-        <v>50</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J34" s="10">
-        <v>0</v>
-      </c>
-      <c r="K34" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="11">
-        <v>151338133</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" s="12">
-        <v>90</v>
-      </c>
-      <c r="D36" s="13">
-        <v>3510</v>
-      </c>
-      <c r="E36" s="14">
-        <v>45077</v>
-      </c>
-      <c r="F36" s="12">
-        <v>663091</v>
-      </c>
-      <c r="G36" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="H36" s="15">
-        <v>10</v>
-      </c>
-      <c r="I36" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J36" s="15">
-        <v>0</v>
-      </c>
-      <c r="K36" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="11">
-        <v>151338133</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="12">
-        <v>80</v>
-      </c>
-      <c r="D38" s="13">
-        <v>5130</v>
-      </c>
-      <c r="E38" s="14">
-        <v>45077</v>
-      </c>
-      <c r="F38" s="12">
-        <v>663092</v>
-      </c>
-      <c r="G38" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="H38" s="15">
-        <v>10</v>
-      </c>
-      <c r="I38" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J38" s="15">
-        <v>0</v>
-      </c>
-      <c r="K38" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-    </row>
-    <row r="40" spans="1:11" s="18" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A40" s="11">
-        <v>151330034</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" s="12">
-        <v>60</v>
-      </c>
-      <c r="D40" s="13">
-        <v>6615</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F40" s="12">
-        <v>663093</v>
-      </c>
-      <c r="G40" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="H40" s="15">
-        <v>10</v>
-      </c>
-      <c r="I40" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J40" s="15">
-        <v>0</v>
-      </c>
-      <c r="K40" s="15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-    </row>
-    <row r="42" spans="1:11" s="18" customFormat="1">
-      <c r="A42" s="11">
-        <v>151338133</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" s="12">
-        <v>30</v>
-      </c>
-      <c r="D42" s="13">
-        <v>6000</v>
-      </c>
-      <c r="E42" s="33">
-        <v>45077</v>
-      </c>
-      <c r="F42" s="12">
-        <v>668330</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H42" s="15">
-        <v>15</v>
-      </c>
-      <c r="I42" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J42" s="15">
-        <v>15</v>
-      </c>
-      <c r="K42" s="14">
-        <v>45077</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" s="18" customFormat="1">
-      <c r="A43" s="24"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="28"/>
-      <c r="K43" s="28"/>
-    </row>
-    <row r="44" spans="1:11" s="18" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A44" s="11">
-        <v>151353543</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" s="12">
-        <v>10</v>
-      </c>
-      <c r="D44" s="13">
-        <v>9703</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="F44" s="11">
-        <v>681149</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="H44" s="15">
-        <v>2</v>
-      </c>
-      <c r="I44" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J44" s="15">
-        <v>0</v>
-      </c>
-      <c r="K44" s="14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-    </row>
-    <row r="46" spans="1:11" s="18" customFormat="1">
-      <c r="A46" s="16">
-        <v>151357107</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46" s="19">
-        <v>30</v>
-      </c>
-      <c r="D46" s="27">
-        <v>1908</v>
-      </c>
-      <c r="E46" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="F46" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G46" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H46" s="28">
-        <v>20</v>
-      </c>
-      <c r="I46" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="J46" s="28">
-        <v>20</v>
-      </c>
-      <c r="K46" s="28" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" s="18" customFormat="1">
-      <c r="A47" s="24"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="26"/>
-      <c r="J47" s="28"/>
-      <c r="K47" s="28"/>
-    </row>
-    <row r="48" spans="1:11" s="18" customFormat="1">
-      <c r="A48" s="11">
-        <v>151330034</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C48" s="12">
-        <v>20</v>
-      </c>
-      <c r="D48" s="13">
-        <v>8463</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F48" s="11">
-        <v>687349</v>
-      </c>
-      <c r="G48" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="H48" s="15">
-        <v>25</v>
-      </c>
-      <c r="I48" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J48" s="15">
-        <v>0</v>
-      </c>
-      <c r="K48" s="15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" s="18" customFormat="1">
-      <c r="A49" s="23"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="28"/>
-      <c r="K49" s="28"/>
-    </row>
-    <row r="50" spans="1:11" s="18" customFormat="1">
-      <c r="A50" s="11">
-        <v>151242082</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C50" s="12">
-        <v>10</v>
-      </c>
-      <c r="D50" s="13">
-        <v>1600</v>
-      </c>
-      <c r="E50" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="F50" s="11">
-        <v>691660</v>
-      </c>
-      <c r="G50" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="H50" s="15">
-        <v>1</v>
-      </c>
-      <c r="I50" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J50" s="15">
-        <v>0</v>
-      </c>
-      <c r="K50" s="15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-    </row>
-    <row r="52" spans="1:11" s="18" customFormat="1">
-      <c r="A52" s="16">
-        <v>151357107</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" s="19">
-        <v>20</v>
-      </c>
-      <c r="D52" s="27">
-        <v>565</v>
-      </c>
-      <c r="E52" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="F52" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G52" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="H52" s="28">
-        <v>150</v>
-      </c>
-      <c r="I52" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="J52" s="28">
-        <v>150</v>
-      </c>
-      <c r="K52" s="28">
-        <v>2208.2022999999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="29">
-        <v>151264212</v>
-      </c>
-      <c r="B54" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C54" s="29">
-        <v>10</v>
-      </c>
-      <c r="D54" s="42">
-        <v>10710</v>
-      </c>
-      <c r="E54" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="F54" s="29">
-        <v>704681</v>
-      </c>
-      <c r="G54" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="H54" s="44">
-        <v>1</v>
-      </c>
-      <c r="I54" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="J54" s="44">
-        <v>0</v>
-      </c>
-      <c r="K54" s="44" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="41"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="10"/>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D56" s="8">
-        <v>4995</v>
-      </c>
-      <c r="E56" s="9">
-        <v>44223</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H56" s="10">
-        <v>2</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J56" s="10">
-        <v>0</v>
-      </c>
-      <c r="K56" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="10"/>
-      <c r="K57" s="10"/>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D58" s="8">
-        <v>4245</v>
-      </c>
-      <c r="E58" s="9">
-        <v>44223</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H58" s="10">
-        <v>2</v>
-      </c>
-      <c r="I58" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J58" s="10">
-        <v>0</v>
-      </c>
-      <c r="K58" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="10"/>
-      <c r="K59" s="10"/>
-    </row>
-    <row r="60" spans="1:11" s="18" customFormat="1">
-      <c r="A60" s="16">
-        <v>151357107</v>
-      </c>
-      <c r="B60" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C60" s="19">
-        <v>10</v>
-      </c>
-      <c r="D60" s="27">
-        <v>1896</v>
-      </c>
-      <c r="E60" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="F60" s="19">
-        <v>716663</v>
-      </c>
-      <c r="G60" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H60" s="28">
-        <v>10</v>
-      </c>
-      <c r="I60" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="J60" s="28">
-        <v>10</v>
-      </c>
-      <c r="K60" s="28" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="10"/>
-      <c r="K61" s="10"/>
-    </row>
-    <row r="62" spans="1:11" s="18" customFormat="1">
-      <c r="A62" s="45">
-        <v>151350196</v>
-      </c>
-      <c r="B62" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="C62" s="45">
-        <v>10</v>
-      </c>
-      <c r="D62" s="45">
-        <v>45000</v>
-      </c>
-      <c r="E62" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="F62" s="45">
-        <v>719031</v>
-      </c>
-      <c r="G62" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="H62" s="46">
-        <v>2</v>
-      </c>
-      <c r="I62" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="J62" s="46">
-        <v>2</v>
-      </c>
-      <c r="K62" s="46" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="16"/>
-      <c r="B63" s="29"/>
-      <c r="C63" s="29"/>
-      <c r="D63" s="29"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="29"/>
-      <c r="G63" s="29"/>
-      <c r="H63" s="44"/>
-      <c r="I63" s="29"/>
-      <c r="J63" s="44"/>
-      <c r="K63" s="44"/>
-    </row>
-    <row r="64" spans="1:11" s="18" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A64" s="16">
-        <v>151332508</v>
-      </c>
-      <c r="B64" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C64" s="19">
-        <v>10</v>
-      </c>
-      <c r="D64" s="35">
-        <v>9999</v>
-      </c>
-      <c r="E64" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="F64" s="23">
-        <v>719381</v>
-      </c>
-      <c r="G64" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="H64" s="19">
-        <v>10</v>
-      </c>
-      <c r="I64" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="J64" s="19">
-        <v>0</v>
-      </c>
-      <c r="K64" s="23" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="16"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="36"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="16"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="16"/>
-    </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="11">
-        <v>151341902</v>
-      </c>
-      <c r="B66" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="C66" s="40">
-        <v>10</v>
-      </c>
-      <c r="D66" s="40">
-        <v>6800</v>
-      </c>
-      <c r="E66" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="F66" s="40">
-        <v>720138</v>
-      </c>
-      <c r="G66" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="H66" s="40">
-        <v>3</v>
-      </c>
-      <c r="I66" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="J66" s="40">
-        <v>0</v>
-      </c>
-      <c r="K66" s="40" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
-    </row>
-    <row r="68" spans="1:11" s="18" customFormat="1">
-      <c r="A68" s="11">
-        <v>151343138</v>
-      </c>
-      <c r="B68" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C68" s="12">
-        <v>10</v>
-      </c>
-      <c r="D68" s="12">
-        <v>2490</v>
-      </c>
-      <c r="E68" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="F68" s="11">
-        <v>724214</v>
-      </c>
-      <c r="G68" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H68" s="12">
-        <v>5</v>
-      </c>
-      <c r="I68" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J68" s="12">
-        <v>2</v>
-      </c>
-      <c r="K68" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
-      <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
-      <c r="K69" s="5"/>
-    </row>
-    <row r="70" spans="1:11">
-      <c r="A70" s="5">
-        <v>16063532</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C70" s="5">
-        <v>10</v>
-      </c>
-      <c r="D70" s="5">
-        <v>2900</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F70" s="5">
-        <v>725828</v>
-      </c>
-      <c r="G70" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H70" s="5">
-        <v>10</v>
-      </c>
-      <c r="I70" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J70" s="5">
-        <v>0</v>
-      </c>
-      <c r="K70" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
-      <c r="K71" s="5"/>
-    </row>
-    <row r="72" spans="1:11" s="18" customFormat="1">
-      <c r="A72" s="23">
-        <v>151315311</v>
-      </c>
-      <c r="B72" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C72" s="19">
-        <v>10</v>
-      </c>
-      <c r="D72" s="19">
-        <v>100</v>
-      </c>
-      <c r="E72" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="F72" s="19">
-        <v>728488</v>
-      </c>
-      <c r="G72" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="H72" s="19">
-        <v>10</v>
-      </c>
-      <c r="I72" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="J72" s="19">
-        <v>0</v>
-      </c>
-      <c r="K72" s="19" t="s">
+      <c r="K73" s="19" t="s">
         <v>85</v>
       </c>
     </row>

--- a/Updated PO.xlsx
+++ b/Updated PO.xlsx
@@ -916,7 +916,7 @@
   <dimension ref="A1:M73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+      <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2006,7 +2006,7 @@
     <col min="16135" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="26.4">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="26.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="4">
         <v>151007890</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" s="4">
         <v>151040504</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4" s="5">
         <v>151058491</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -2145,7 +2145,7 @@
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6" s="11">
         <v>151265479</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7" s="16"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -2193,7 +2193,7 @@
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
     </row>
-    <row r="8" spans="1:11" s="18" customFormat="1">
+    <row r="8" spans="1:12" s="18" customFormat="1">
       <c r="A8" s="23">
         <v>151357107</v>
       </c>
@@ -2222,13 +2222,17 @@
         <v>12</v>
       </c>
       <c r="J8" s="19">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="K8" s="19" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8" s="18">
+        <f>J8-16</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="16"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -2241,7 +2245,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:11" s="18" customFormat="1">
+    <row r="10" spans="1:12" s="18" customFormat="1">
       <c r="A10" s="16">
         <v>151357107</v>
       </c>
@@ -2276,7 +2280,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
       <c r="A11" s="24"/>
       <c r="B11" s="24"/>
       <c r="C11" s="25"/>
@@ -2289,7 +2293,7 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12">
       <c r="A12" s="16">
         <v>151296157</v>
       </c>
@@ -2324,7 +2328,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -2339,7 +2343,7 @@
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:12">
       <c r="A14" s="16">
         <v>151296157</v>
       </c>
@@ -2374,7 +2378,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:12">
       <c r="A15" s="24"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -2387,7 +2391,7 @@
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:12">
       <c r="A16" s="23">
         <v>151335926</v>
       </c>
@@ -3179,7 +3183,7 @@
         <v>12</v>
       </c>
       <c r="J47" s="28">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K47" s="28" t="s">
         <v>99</v>
@@ -3323,7 +3327,7 @@
         <v>12</v>
       </c>
       <c r="J53" s="28">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="K53" s="28">
         <v>2208.2022999999999</v>

--- a/Updated PO.xlsx
+++ b/Updated PO.xlsx
@@ -454,7 +454,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -607,6 +607,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -915,8 +918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="J54" sqref="J54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2222,14 +2225,14 @@
         <v>12</v>
       </c>
       <c r="J8" s="19">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K8" s="19" t="s">
         <v>91</v>
       </c>
       <c r="L8" s="18">
         <f>J8-16</f>
-        <v>-2</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2466,14 +2469,14 @@
         <v>12</v>
       </c>
       <c r="J18" s="45">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K18" s="47" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="18" customFormat="1">
-      <c r="A19" s="48">
+      <c r="A19" s="52">
         <v>151362092</v>
       </c>
       <c r="B19" s="49" t="s">
@@ -2501,7 +2504,7 @@
         <v>12</v>
       </c>
       <c r="J19" s="49">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K19" s="51" t="s">
         <v>103</v>
@@ -4914,7 +4917,7 @@
     <col min="16135" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="26.4">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="26.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4947,7 +4950,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="4">
         <v>151007890</v>
       </c>
@@ -4978,7 +4981,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" s="4">
         <v>151040504</v>
       </c>
@@ -5009,7 +5012,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4" s="5">
         <v>151058491</v>
       </c>
@@ -5040,7 +5043,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -5053,7 +5056,7 @@
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6" s="11">
         <v>151265479</v>
       </c>
@@ -5088,7 +5091,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7" s="16"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -5101,7 +5104,7 @@
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
     </row>
-    <row r="8" spans="1:11" s="18" customFormat="1">
+    <row r="8" spans="1:12" s="18" customFormat="1">
       <c r="A8" s="23">
         <v>151357107</v>
       </c>
@@ -5130,13 +5133,17 @@
         <v>12</v>
       </c>
       <c r="J8" s="19">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="K8" s="19" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8" s="18">
+        <f>J8-16</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="16"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -5149,7 +5156,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:11" s="18" customFormat="1">
+    <row r="10" spans="1:12" s="18" customFormat="1">
       <c r="A10" s="16">
         <v>151357107</v>
       </c>
@@ -5184,7 +5191,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
       <c r="A11" s="24"/>
       <c r="B11" s="24"/>
       <c r="C11" s="25"/>
@@ -5197,7 +5204,7 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12">
       <c r="A12" s="16">
         <v>151296157</v>
       </c>
@@ -5232,7 +5239,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -5247,7 +5254,7 @@
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:12">
       <c r="A14" s="16">
         <v>151296157</v>
       </c>
@@ -5282,7 +5289,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:12">
       <c r="A15" s="24"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -5295,7 +5302,7 @@
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:12">
       <c r="A16" s="23">
         <v>151335926</v>
       </c>
@@ -6087,7 +6094,7 @@
         <v>12</v>
       </c>
       <c r="J47" s="28">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K47" s="28" t="s">
         <v>99</v>
@@ -6231,7 +6238,7 @@
         <v>12</v>
       </c>
       <c r="J53" s="28">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="K53" s="28">
         <v>2208.2022999999999</v>

--- a/Updated PO.xlsx
+++ b/Updated PO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="105">
   <si>
     <t>Purchasing Document</t>
   </si>
@@ -332,20 +332,23 @@
     <t>07.09.2023</t>
   </si>
   <si>
-    <t>08.09.2023</t>
-  </si>
-  <si>
     <t>08.08.2023</t>
   </si>
   <si>
     <t>10.09.2023</t>
+  </si>
+  <si>
+    <t>16.08.2023</t>
+  </si>
+  <si>
+    <t>30.09.2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -397,6 +400,11 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -454,7 +462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -597,9 +605,6 @@
     <xf numFmtId="1" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -610,6 +615,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -915,2914 +929,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M73"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
-  <cols>
-    <col min="1" max="1" width="13.109375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="10" style="7" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="45.5546875" style="7" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="17.21875" style="7" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" style="7" customWidth="1"/>
-    <col min="12" max="245" width="8.88671875" style="7"/>
-    <col min="246" max="246" width="20.5546875" style="7" customWidth="1"/>
-    <col min="247" max="247" width="13.109375" style="7" customWidth="1"/>
-    <col min="248" max="248" width="8.88671875" style="7"/>
-    <col min="249" max="249" width="14.5546875" style="7" customWidth="1"/>
-    <col min="250" max="250" width="14.44140625" style="7" customWidth="1"/>
-    <col min="251" max="251" width="8.88671875" style="7" customWidth="1"/>
-    <col min="252" max="252" width="19.109375" style="7" customWidth="1"/>
-    <col min="253" max="253" width="12.33203125" style="7" customWidth="1"/>
-    <col min="254" max="254" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="255" max="255" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="256" max="256" width="10.33203125" style="7" customWidth="1"/>
-    <col min="257" max="257" width="8" style="7" customWidth="1"/>
-    <col min="258" max="259" width="14.33203125" style="7" customWidth="1"/>
-    <col min="260" max="260" width="6.5546875" style="7" customWidth="1"/>
-    <col min="261" max="261" width="10.109375" style="7" customWidth="1"/>
-    <col min="262" max="262" width="7.5546875" style="7" customWidth="1"/>
-    <col min="263" max="501" width="8.88671875" style="7"/>
-    <col min="502" max="502" width="20.5546875" style="7" customWidth="1"/>
-    <col min="503" max="503" width="13.109375" style="7" customWidth="1"/>
-    <col min="504" max="504" width="8.88671875" style="7"/>
-    <col min="505" max="505" width="14.5546875" style="7" customWidth="1"/>
-    <col min="506" max="506" width="14.44140625" style="7" customWidth="1"/>
-    <col min="507" max="507" width="8.88671875" style="7" customWidth="1"/>
-    <col min="508" max="508" width="19.109375" style="7" customWidth="1"/>
-    <col min="509" max="509" width="12.33203125" style="7" customWidth="1"/>
-    <col min="510" max="510" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="511" max="511" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="512" max="512" width="10.33203125" style="7" customWidth="1"/>
-    <col min="513" max="513" width="8" style="7" customWidth="1"/>
-    <col min="514" max="515" width="14.33203125" style="7" customWidth="1"/>
-    <col min="516" max="516" width="6.5546875" style="7" customWidth="1"/>
-    <col min="517" max="517" width="10.109375" style="7" customWidth="1"/>
-    <col min="518" max="518" width="7.5546875" style="7" customWidth="1"/>
-    <col min="519" max="757" width="8.88671875" style="7"/>
-    <col min="758" max="758" width="20.5546875" style="7" customWidth="1"/>
-    <col min="759" max="759" width="13.109375" style="7" customWidth="1"/>
-    <col min="760" max="760" width="8.88671875" style="7"/>
-    <col min="761" max="761" width="14.5546875" style="7" customWidth="1"/>
-    <col min="762" max="762" width="14.44140625" style="7" customWidth="1"/>
-    <col min="763" max="763" width="8.88671875" style="7" customWidth="1"/>
-    <col min="764" max="764" width="19.109375" style="7" customWidth="1"/>
-    <col min="765" max="765" width="12.33203125" style="7" customWidth="1"/>
-    <col min="766" max="766" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="767" max="767" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="768" max="768" width="10.33203125" style="7" customWidth="1"/>
-    <col min="769" max="769" width="8" style="7" customWidth="1"/>
-    <col min="770" max="771" width="14.33203125" style="7" customWidth="1"/>
-    <col min="772" max="772" width="6.5546875" style="7" customWidth="1"/>
-    <col min="773" max="773" width="10.109375" style="7" customWidth="1"/>
-    <col min="774" max="774" width="7.5546875" style="7" customWidth="1"/>
-    <col min="775" max="1013" width="8.88671875" style="7"/>
-    <col min="1014" max="1014" width="20.5546875" style="7" customWidth="1"/>
-    <col min="1015" max="1015" width="13.109375" style="7" customWidth="1"/>
-    <col min="1016" max="1016" width="8.88671875" style="7"/>
-    <col min="1017" max="1017" width="14.5546875" style="7" customWidth="1"/>
-    <col min="1018" max="1018" width="14.44140625" style="7" customWidth="1"/>
-    <col min="1019" max="1019" width="8.88671875" style="7" customWidth="1"/>
-    <col min="1020" max="1020" width="19.109375" style="7" customWidth="1"/>
-    <col min="1021" max="1021" width="12.33203125" style="7" customWidth="1"/>
-    <col min="1022" max="1022" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="1023" max="1023" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="1024" max="1024" width="10.33203125" style="7" customWidth="1"/>
-    <col min="1025" max="1025" width="8" style="7" customWidth="1"/>
-    <col min="1026" max="1027" width="14.33203125" style="7" customWidth="1"/>
-    <col min="1028" max="1028" width="6.5546875" style="7" customWidth="1"/>
-    <col min="1029" max="1029" width="10.109375" style="7" customWidth="1"/>
-    <col min="1030" max="1030" width="7.5546875" style="7" customWidth="1"/>
-    <col min="1031" max="1269" width="8.88671875" style="7"/>
-    <col min="1270" max="1270" width="20.5546875" style="7" customWidth="1"/>
-    <col min="1271" max="1271" width="13.109375" style="7" customWidth="1"/>
-    <col min="1272" max="1272" width="8.88671875" style="7"/>
-    <col min="1273" max="1273" width="14.5546875" style="7" customWidth="1"/>
-    <col min="1274" max="1274" width="14.44140625" style="7" customWidth="1"/>
-    <col min="1275" max="1275" width="8.88671875" style="7" customWidth="1"/>
-    <col min="1276" max="1276" width="19.109375" style="7" customWidth="1"/>
-    <col min="1277" max="1277" width="12.33203125" style="7" customWidth="1"/>
-    <col min="1278" max="1278" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="1279" max="1279" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="1280" max="1280" width="10.33203125" style="7" customWidth="1"/>
-    <col min="1281" max="1281" width="8" style="7" customWidth="1"/>
-    <col min="1282" max="1283" width="14.33203125" style="7" customWidth="1"/>
-    <col min="1284" max="1284" width="6.5546875" style="7" customWidth="1"/>
-    <col min="1285" max="1285" width="10.109375" style="7" customWidth="1"/>
-    <col min="1286" max="1286" width="7.5546875" style="7" customWidth="1"/>
-    <col min="1287" max="1525" width="8.88671875" style="7"/>
-    <col min="1526" max="1526" width="20.5546875" style="7" customWidth="1"/>
-    <col min="1527" max="1527" width="13.109375" style="7" customWidth="1"/>
-    <col min="1528" max="1528" width="8.88671875" style="7"/>
-    <col min="1529" max="1529" width="14.5546875" style="7" customWidth="1"/>
-    <col min="1530" max="1530" width="14.44140625" style="7" customWidth="1"/>
-    <col min="1531" max="1531" width="8.88671875" style="7" customWidth="1"/>
-    <col min="1532" max="1532" width="19.109375" style="7" customWidth="1"/>
-    <col min="1533" max="1533" width="12.33203125" style="7" customWidth="1"/>
-    <col min="1534" max="1534" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="1535" max="1535" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="1536" max="1536" width="10.33203125" style="7" customWidth="1"/>
-    <col min="1537" max="1537" width="8" style="7" customWidth="1"/>
-    <col min="1538" max="1539" width="14.33203125" style="7" customWidth="1"/>
-    <col min="1540" max="1540" width="6.5546875" style="7" customWidth="1"/>
-    <col min="1541" max="1541" width="10.109375" style="7" customWidth="1"/>
-    <col min="1542" max="1542" width="7.5546875" style="7" customWidth="1"/>
-    <col min="1543" max="1781" width="8.88671875" style="7"/>
-    <col min="1782" max="1782" width="20.5546875" style="7" customWidth="1"/>
-    <col min="1783" max="1783" width="13.109375" style="7" customWidth="1"/>
-    <col min="1784" max="1784" width="8.88671875" style="7"/>
-    <col min="1785" max="1785" width="14.5546875" style="7" customWidth="1"/>
-    <col min="1786" max="1786" width="14.44140625" style="7" customWidth="1"/>
-    <col min="1787" max="1787" width="8.88671875" style="7" customWidth="1"/>
-    <col min="1788" max="1788" width="19.109375" style="7" customWidth="1"/>
-    <col min="1789" max="1789" width="12.33203125" style="7" customWidth="1"/>
-    <col min="1790" max="1790" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="1791" max="1791" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="1792" max="1792" width="10.33203125" style="7" customWidth="1"/>
-    <col min="1793" max="1793" width="8" style="7" customWidth="1"/>
-    <col min="1794" max="1795" width="14.33203125" style="7" customWidth="1"/>
-    <col min="1796" max="1796" width="6.5546875" style="7" customWidth="1"/>
-    <col min="1797" max="1797" width="10.109375" style="7" customWidth="1"/>
-    <col min="1798" max="1798" width="7.5546875" style="7" customWidth="1"/>
-    <col min="1799" max="2037" width="8.88671875" style="7"/>
-    <col min="2038" max="2038" width="20.5546875" style="7" customWidth="1"/>
-    <col min="2039" max="2039" width="13.109375" style="7" customWidth="1"/>
-    <col min="2040" max="2040" width="8.88671875" style="7"/>
-    <col min="2041" max="2041" width="14.5546875" style="7" customWidth="1"/>
-    <col min="2042" max="2042" width="14.44140625" style="7" customWidth="1"/>
-    <col min="2043" max="2043" width="8.88671875" style="7" customWidth="1"/>
-    <col min="2044" max="2044" width="19.109375" style="7" customWidth="1"/>
-    <col min="2045" max="2045" width="12.33203125" style="7" customWidth="1"/>
-    <col min="2046" max="2046" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2047" max="2047" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2048" max="2048" width="10.33203125" style="7" customWidth="1"/>
-    <col min="2049" max="2049" width="8" style="7" customWidth="1"/>
-    <col min="2050" max="2051" width="14.33203125" style="7" customWidth="1"/>
-    <col min="2052" max="2052" width="6.5546875" style="7" customWidth="1"/>
-    <col min="2053" max="2053" width="10.109375" style="7" customWidth="1"/>
-    <col min="2054" max="2054" width="7.5546875" style="7" customWidth="1"/>
-    <col min="2055" max="2293" width="8.88671875" style="7"/>
-    <col min="2294" max="2294" width="20.5546875" style="7" customWidth="1"/>
-    <col min="2295" max="2295" width="13.109375" style="7" customWidth="1"/>
-    <col min="2296" max="2296" width="8.88671875" style="7"/>
-    <col min="2297" max="2297" width="14.5546875" style="7" customWidth="1"/>
-    <col min="2298" max="2298" width="14.44140625" style="7" customWidth="1"/>
-    <col min="2299" max="2299" width="8.88671875" style="7" customWidth="1"/>
-    <col min="2300" max="2300" width="19.109375" style="7" customWidth="1"/>
-    <col min="2301" max="2301" width="12.33203125" style="7" customWidth="1"/>
-    <col min="2302" max="2302" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2303" max="2303" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2304" max="2304" width="10.33203125" style="7" customWidth="1"/>
-    <col min="2305" max="2305" width="8" style="7" customWidth="1"/>
-    <col min="2306" max="2307" width="14.33203125" style="7" customWidth="1"/>
-    <col min="2308" max="2308" width="6.5546875" style="7" customWidth="1"/>
-    <col min="2309" max="2309" width="10.109375" style="7" customWidth="1"/>
-    <col min="2310" max="2310" width="7.5546875" style="7" customWidth="1"/>
-    <col min="2311" max="2549" width="8.88671875" style="7"/>
-    <col min="2550" max="2550" width="20.5546875" style="7" customWidth="1"/>
-    <col min="2551" max="2551" width="13.109375" style="7" customWidth="1"/>
-    <col min="2552" max="2552" width="8.88671875" style="7"/>
-    <col min="2553" max="2553" width="14.5546875" style="7" customWidth="1"/>
-    <col min="2554" max="2554" width="14.44140625" style="7" customWidth="1"/>
-    <col min="2555" max="2555" width="8.88671875" style="7" customWidth="1"/>
-    <col min="2556" max="2556" width="19.109375" style="7" customWidth="1"/>
-    <col min="2557" max="2557" width="12.33203125" style="7" customWidth="1"/>
-    <col min="2558" max="2558" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2559" max="2559" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2560" max="2560" width="10.33203125" style="7" customWidth="1"/>
-    <col min="2561" max="2561" width="8" style="7" customWidth="1"/>
-    <col min="2562" max="2563" width="14.33203125" style="7" customWidth="1"/>
-    <col min="2564" max="2564" width="6.5546875" style="7" customWidth="1"/>
-    <col min="2565" max="2565" width="10.109375" style="7" customWidth="1"/>
-    <col min="2566" max="2566" width="7.5546875" style="7" customWidth="1"/>
-    <col min="2567" max="2805" width="8.88671875" style="7"/>
-    <col min="2806" max="2806" width="20.5546875" style="7" customWidth="1"/>
-    <col min="2807" max="2807" width="13.109375" style="7" customWidth="1"/>
-    <col min="2808" max="2808" width="8.88671875" style="7"/>
-    <col min="2809" max="2809" width="14.5546875" style="7" customWidth="1"/>
-    <col min="2810" max="2810" width="14.44140625" style="7" customWidth="1"/>
-    <col min="2811" max="2811" width="8.88671875" style="7" customWidth="1"/>
-    <col min="2812" max="2812" width="19.109375" style="7" customWidth="1"/>
-    <col min="2813" max="2813" width="12.33203125" style="7" customWidth="1"/>
-    <col min="2814" max="2814" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2815" max="2815" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2816" max="2816" width="10.33203125" style="7" customWidth="1"/>
-    <col min="2817" max="2817" width="8" style="7" customWidth="1"/>
-    <col min="2818" max="2819" width="14.33203125" style="7" customWidth="1"/>
-    <col min="2820" max="2820" width="6.5546875" style="7" customWidth="1"/>
-    <col min="2821" max="2821" width="10.109375" style="7" customWidth="1"/>
-    <col min="2822" max="2822" width="7.5546875" style="7" customWidth="1"/>
-    <col min="2823" max="3061" width="8.88671875" style="7"/>
-    <col min="3062" max="3062" width="20.5546875" style="7" customWidth="1"/>
-    <col min="3063" max="3063" width="13.109375" style="7" customWidth="1"/>
-    <col min="3064" max="3064" width="8.88671875" style="7"/>
-    <col min="3065" max="3065" width="14.5546875" style="7" customWidth="1"/>
-    <col min="3066" max="3066" width="14.44140625" style="7" customWidth="1"/>
-    <col min="3067" max="3067" width="8.88671875" style="7" customWidth="1"/>
-    <col min="3068" max="3068" width="19.109375" style="7" customWidth="1"/>
-    <col min="3069" max="3069" width="12.33203125" style="7" customWidth="1"/>
-    <col min="3070" max="3070" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3071" max="3071" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3072" max="3072" width="10.33203125" style="7" customWidth="1"/>
-    <col min="3073" max="3073" width="8" style="7" customWidth="1"/>
-    <col min="3074" max="3075" width="14.33203125" style="7" customWidth="1"/>
-    <col min="3076" max="3076" width="6.5546875" style="7" customWidth="1"/>
-    <col min="3077" max="3077" width="10.109375" style="7" customWidth="1"/>
-    <col min="3078" max="3078" width="7.5546875" style="7" customWidth="1"/>
-    <col min="3079" max="3317" width="8.88671875" style="7"/>
-    <col min="3318" max="3318" width="20.5546875" style="7" customWidth="1"/>
-    <col min="3319" max="3319" width="13.109375" style="7" customWidth="1"/>
-    <col min="3320" max="3320" width="8.88671875" style="7"/>
-    <col min="3321" max="3321" width="14.5546875" style="7" customWidth="1"/>
-    <col min="3322" max="3322" width="14.44140625" style="7" customWidth="1"/>
-    <col min="3323" max="3323" width="8.88671875" style="7" customWidth="1"/>
-    <col min="3324" max="3324" width="19.109375" style="7" customWidth="1"/>
-    <col min="3325" max="3325" width="12.33203125" style="7" customWidth="1"/>
-    <col min="3326" max="3326" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3327" max="3327" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3328" max="3328" width="10.33203125" style="7" customWidth="1"/>
-    <col min="3329" max="3329" width="8" style="7" customWidth="1"/>
-    <col min="3330" max="3331" width="14.33203125" style="7" customWidth="1"/>
-    <col min="3332" max="3332" width="6.5546875" style="7" customWidth="1"/>
-    <col min="3333" max="3333" width="10.109375" style="7" customWidth="1"/>
-    <col min="3334" max="3334" width="7.5546875" style="7" customWidth="1"/>
-    <col min="3335" max="3573" width="8.88671875" style="7"/>
-    <col min="3574" max="3574" width="20.5546875" style="7" customWidth="1"/>
-    <col min="3575" max="3575" width="13.109375" style="7" customWidth="1"/>
-    <col min="3576" max="3576" width="8.88671875" style="7"/>
-    <col min="3577" max="3577" width="14.5546875" style="7" customWidth="1"/>
-    <col min="3578" max="3578" width="14.44140625" style="7" customWidth="1"/>
-    <col min="3579" max="3579" width="8.88671875" style="7" customWidth="1"/>
-    <col min="3580" max="3580" width="19.109375" style="7" customWidth="1"/>
-    <col min="3581" max="3581" width="12.33203125" style="7" customWidth="1"/>
-    <col min="3582" max="3582" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3583" max="3583" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3584" max="3584" width="10.33203125" style="7" customWidth="1"/>
-    <col min="3585" max="3585" width="8" style="7" customWidth="1"/>
-    <col min="3586" max="3587" width="14.33203125" style="7" customWidth="1"/>
-    <col min="3588" max="3588" width="6.5546875" style="7" customWidth="1"/>
-    <col min="3589" max="3589" width="10.109375" style="7" customWidth="1"/>
-    <col min="3590" max="3590" width="7.5546875" style="7" customWidth="1"/>
-    <col min="3591" max="3829" width="8.88671875" style="7"/>
-    <col min="3830" max="3830" width="20.5546875" style="7" customWidth="1"/>
-    <col min="3831" max="3831" width="13.109375" style="7" customWidth="1"/>
-    <col min="3832" max="3832" width="8.88671875" style="7"/>
-    <col min="3833" max="3833" width="14.5546875" style="7" customWidth="1"/>
-    <col min="3834" max="3834" width="14.44140625" style="7" customWidth="1"/>
-    <col min="3835" max="3835" width="8.88671875" style="7" customWidth="1"/>
-    <col min="3836" max="3836" width="19.109375" style="7" customWidth="1"/>
-    <col min="3837" max="3837" width="12.33203125" style="7" customWidth="1"/>
-    <col min="3838" max="3838" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3839" max="3839" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3840" max="3840" width="10.33203125" style="7" customWidth="1"/>
-    <col min="3841" max="3841" width="8" style="7" customWidth="1"/>
-    <col min="3842" max="3843" width="14.33203125" style="7" customWidth="1"/>
-    <col min="3844" max="3844" width="6.5546875" style="7" customWidth="1"/>
-    <col min="3845" max="3845" width="10.109375" style="7" customWidth="1"/>
-    <col min="3846" max="3846" width="7.5546875" style="7" customWidth="1"/>
-    <col min="3847" max="4085" width="8.88671875" style="7"/>
-    <col min="4086" max="4086" width="20.5546875" style="7" customWidth="1"/>
-    <col min="4087" max="4087" width="13.109375" style="7" customWidth="1"/>
-    <col min="4088" max="4088" width="8.88671875" style="7"/>
-    <col min="4089" max="4089" width="14.5546875" style="7" customWidth="1"/>
-    <col min="4090" max="4090" width="14.44140625" style="7" customWidth="1"/>
-    <col min="4091" max="4091" width="8.88671875" style="7" customWidth="1"/>
-    <col min="4092" max="4092" width="19.109375" style="7" customWidth="1"/>
-    <col min="4093" max="4093" width="12.33203125" style="7" customWidth="1"/>
-    <col min="4094" max="4094" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4095" max="4095" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4096" max="4096" width="10.33203125" style="7" customWidth="1"/>
-    <col min="4097" max="4097" width="8" style="7" customWidth="1"/>
-    <col min="4098" max="4099" width="14.33203125" style="7" customWidth="1"/>
-    <col min="4100" max="4100" width="6.5546875" style="7" customWidth="1"/>
-    <col min="4101" max="4101" width="10.109375" style="7" customWidth="1"/>
-    <col min="4102" max="4102" width="7.5546875" style="7" customWidth="1"/>
-    <col min="4103" max="4341" width="8.88671875" style="7"/>
-    <col min="4342" max="4342" width="20.5546875" style="7" customWidth="1"/>
-    <col min="4343" max="4343" width="13.109375" style="7" customWidth="1"/>
-    <col min="4344" max="4344" width="8.88671875" style="7"/>
-    <col min="4345" max="4345" width="14.5546875" style="7" customWidth="1"/>
-    <col min="4346" max="4346" width="14.44140625" style="7" customWidth="1"/>
-    <col min="4347" max="4347" width="8.88671875" style="7" customWidth="1"/>
-    <col min="4348" max="4348" width="19.109375" style="7" customWidth="1"/>
-    <col min="4349" max="4349" width="12.33203125" style="7" customWidth="1"/>
-    <col min="4350" max="4350" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4351" max="4351" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4352" max="4352" width="10.33203125" style="7" customWidth="1"/>
-    <col min="4353" max="4353" width="8" style="7" customWidth="1"/>
-    <col min="4354" max="4355" width="14.33203125" style="7" customWidth="1"/>
-    <col min="4356" max="4356" width="6.5546875" style="7" customWidth="1"/>
-    <col min="4357" max="4357" width="10.109375" style="7" customWidth="1"/>
-    <col min="4358" max="4358" width="7.5546875" style="7" customWidth="1"/>
-    <col min="4359" max="4597" width="8.88671875" style="7"/>
-    <col min="4598" max="4598" width="20.5546875" style="7" customWidth="1"/>
-    <col min="4599" max="4599" width="13.109375" style="7" customWidth="1"/>
-    <col min="4600" max="4600" width="8.88671875" style="7"/>
-    <col min="4601" max="4601" width="14.5546875" style="7" customWidth="1"/>
-    <col min="4602" max="4602" width="14.44140625" style="7" customWidth="1"/>
-    <col min="4603" max="4603" width="8.88671875" style="7" customWidth="1"/>
-    <col min="4604" max="4604" width="19.109375" style="7" customWidth="1"/>
-    <col min="4605" max="4605" width="12.33203125" style="7" customWidth="1"/>
-    <col min="4606" max="4606" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4607" max="4607" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4608" max="4608" width="10.33203125" style="7" customWidth="1"/>
-    <col min="4609" max="4609" width="8" style="7" customWidth="1"/>
-    <col min="4610" max="4611" width="14.33203125" style="7" customWidth="1"/>
-    <col min="4612" max="4612" width="6.5546875" style="7" customWidth="1"/>
-    <col min="4613" max="4613" width="10.109375" style="7" customWidth="1"/>
-    <col min="4614" max="4614" width="7.5546875" style="7" customWidth="1"/>
-    <col min="4615" max="4853" width="8.88671875" style="7"/>
-    <col min="4854" max="4854" width="20.5546875" style="7" customWidth="1"/>
-    <col min="4855" max="4855" width="13.109375" style="7" customWidth="1"/>
-    <col min="4856" max="4856" width="8.88671875" style="7"/>
-    <col min="4857" max="4857" width="14.5546875" style="7" customWidth="1"/>
-    <col min="4858" max="4858" width="14.44140625" style="7" customWidth="1"/>
-    <col min="4859" max="4859" width="8.88671875" style="7" customWidth="1"/>
-    <col min="4860" max="4860" width="19.109375" style="7" customWidth="1"/>
-    <col min="4861" max="4861" width="12.33203125" style="7" customWidth="1"/>
-    <col min="4862" max="4862" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4863" max="4863" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4864" max="4864" width="10.33203125" style="7" customWidth="1"/>
-    <col min="4865" max="4865" width="8" style="7" customWidth="1"/>
-    <col min="4866" max="4867" width="14.33203125" style="7" customWidth="1"/>
-    <col min="4868" max="4868" width="6.5546875" style="7" customWidth="1"/>
-    <col min="4869" max="4869" width="10.109375" style="7" customWidth="1"/>
-    <col min="4870" max="4870" width="7.5546875" style="7" customWidth="1"/>
-    <col min="4871" max="5109" width="8.88671875" style="7"/>
-    <col min="5110" max="5110" width="20.5546875" style="7" customWidth="1"/>
-    <col min="5111" max="5111" width="13.109375" style="7" customWidth="1"/>
-    <col min="5112" max="5112" width="8.88671875" style="7"/>
-    <col min="5113" max="5113" width="14.5546875" style="7" customWidth="1"/>
-    <col min="5114" max="5114" width="14.44140625" style="7" customWidth="1"/>
-    <col min="5115" max="5115" width="8.88671875" style="7" customWidth="1"/>
-    <col min="5116" max="5116" width="19.109375" style="7" customWidth="1"/>
-    <col min="5117" max="5117" width="12.33203125" style="7" customWidth="1"/>
-    <col min="5118" max="5118" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5119" max="5119" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5120" max="5120" width="10.33203125" style="7" customWidth="1"/>
-    <col min="5121" max="5121" width="8" style="7" customWidth="1"/>
-    <col min="5122" max="5123" width="14.33203125" style="7" customWidth="1"/>
-    <col min="5124" max="5124" width="6.5546875" style="7" customWidth="1"/>
-    <col min="5125" max="5125" width="10.109375" style="7" customWidth="1"/>
-    <col min="5126" max="5126" width="7.5546875" style="7" customWidth="1"/>
-    <col min="5127" max="5365" width="8.88671875" style="7"/>
-    <col min="5366" max="5366" width="20.5546875" style="7" customWidth="1"/>
-    <col min="5367" max="5367" width="13.109375" style="7" customWidth="1"/>
-    <col min="5368" max="5368" width="8.88671875" style="7"/>
-    <col min="5369" max="5369" width="14.5546875" style="7" customWidth="1"/>
-    <col min="5370" max="5370" width="14.44140625" style="7" customWidth="1"/>
-    <col min="5371" max="5371" width="8.88671875" style="7" customWidth="1"/>
-    <col min="5372" max="5372" width="19.109375" style="7" customWidth="1"/>
-    <col min="5373" max="5373" width="12.33203125" style="7" customWidth="1"/>
-    <col min="5374" max="5374" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5375" max="5375" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5376" max="5376" width="10.33203125" style="7" customWidth="1"/>
-    <col min="5377" max="5377" width="8" style="7" customWidth="1"/>
-    <col min="5378" max="5379" width="14.33203125" style="7" customWidth="1"/>
-    <col min="5380" max="5380" width="6.5546875" style="7" customWidth="1"/>
-    <col min="5381" max="5381" width="10.109375" style="7" customWidth="1"/>
-    <col min="5382" max="5382" width="7.5546875" style="7" customWidth="1"/>
-    <col min="5383" max="5621" width="8.88671875" style="7"/>
-    <col min="5622" max="5622" width="20.5546875" style="7" customWidth="1"/>
-    <col min="5623" max="5623" width="13.109375" style="7" customWidth="1"/>
-    <col min="5624" max="5624" width="8.88671875" style="7"/>
-    <col min="5625" max="5625" width="14.5546875" style="7" customWidth="1"/>
-    <col min="5626" max="5626" width="14.44140625" style="7" customWidth="1"/>
-    <col min="5627" max="5627" width="8.88671875" style="7" customWidth="1"/>
-    <col min="5628" max="5628" width="19.109375" style="7" customWidth="1"/>
-    <col min="5629" max="5629" width="12.33203125" style="7" customWidth="1"/>
-    <col min="5630" max="5630" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5631" max="5631" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5632" max="5632" width="10.33203125" style="7" customWidth="1"/>
-    <col min="5633" max="5633" width="8" style="7" customWidth="1"/>
-    <col min="5634" max="5635" width="14.33203125" style="7" customWidth="1"/>
-    <col min="5636" max="5636" width="6.5546875" style="7" customWidth="1"/>
-    <col min="5637" max="5637" width="10.109375" style="7" customWidth="1"/>
-    <col min="5638" max="5638" width="7.5546875" style="7" customWidth="1"/>
-    <col min="5639" max="5877" width="8.88671875" style="7"/>
-    <col min="5878" max="5878" width="20.5546875" style="7" customWidth="1"/>
-    <col min="5879" max="5879" width="13.109375" style="7" customWidth="1"/>
-    <col min="5880" max="5880" width="8.88671875" style="7"/>
-    <col min="5881" max="5881" width="14.5546875" style="7" customWidth="1"/>
-    <col min="5882" max="5882" width="14.44140625" style="7" customWidth="1"/>
-    <col min="5883" max="5883" width="8.88671875" style="7" customWidth="1"/>
-    <col min="5884" max="5884" width="19.109375" style="7" customWidth="1"/>
-    <col min="5885" max="5885" width="12.33203125" style="7" customWidth="1"/>
-    <col min="5886" max="5886" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5887" max="5887" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5888" max="5888" width="10.33203125" style="7" customWidth="1"/>
-    <col min="5889" max="5889" width="8" style="7" customWidth="1"/>
-    <col min="5890" max="5891" width="14.33203125" style="7" customWidth="1"/>
-    <col min="5892" max="5892" width="6.5546875" style="7" customWidth="1"/>
-    <col min="5893" max="5893" width="10.109375" style="7" customWidth="1"/>
-    <col min="5894" max="5894" width="7.5546875" style="7" customWidth="1"/>
-    <col min="5895" max="6133" width="8.88671875" style="7"/>
-    <col min="6134" max="6134" width="20.5546875" style="7" customWidth="1"/>
-    <col min="6135" max="6135" width="13.109375" style="7" customWidth="1"/>
-    <col min="6136" max="6136" width="8.88671875" style="7"/>
-    <col min="6137" max="6137" width="14.5546875" style="7" customWidth="1"/>
-    <col min="6138" max="6138" width="14.44140625" style="7" customWidth="1"/>
-    <col min="6139" max="6139" width="8.88671875" style="7" customWidth="1"/>
-    <col min="6140" max="6140" width="19.109375" style="7" customWidth="1"/>
-    <col min="6141" max="6141" width="12.33203125" style="7" customWidth="1"/>
-    <col min="6142" max="6142" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6143" max="6143" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6144" max="6144" width="10.33203125" style="7" customWidth="1"/>
-    <col min="6145" max="6145" width="8" style="7" customWidth="1"/>
-    <col min="6146" max="6147" width="14.33203125" style="7" customWidth="1"/>
-    <col min="6148" max="6148" width="6.5546875" style="7" customWidth="1"/>
-    <col min="6149" max="6149" width="10.109375" style="7" customWidth="1"/>
-    <col min="6150" max="6150" width="7.5546875" style="7" customWidth="1"/>
-    <col min="6151" max="6389" width="8.88671875" style="7"/>
-    <col min="6390" max="6390" width="20.5546875" style="7" customWidth="1"/>
-    <col min="6391" max="6391" width="13.109375" style="7" customWidth="1"/>
-    <col min="6392" max="6392" width="8.88671875" style="7"/>
-    <col min="6393" max="6393" width="14.5546875" style="7" customWidth="1"/>
-    <col min="6394" max="6394" width="14.44140625" style="7" customWidth="1"/>
-    <col min="6395" max="6395" width="8.88671875" style="7" customWidth="1"/>
-    <col min="6396" max="6396" width="19.109375" style="7" customWidth="1"/>
-    <col min="6397" max="6397" width="12.33203125" style="7" customWidth="1"/>
-    <col min="6398" max="6398" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6399" max="6399" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6400" max="6400" width="10.33203125" style="7" customWidth="1"/>
-    <col min="6401" max="6401" width="8" style="7" customWidth="1"/>
-    <col min="6402" max="6403" width="14.33203125" style="7" customWidth="1"/>
-    <col min="6404" max="6404" width="6.5546875" style="7" customWidth="1"/>
-    <col min="6405" max="6405" width="10.109375" style="7" customWidth="1"/>
-    <col min="6406" max="6406" width="7.5546875" style="7" customWidth="1"/>
-    <col min="6407" max="6645" width="8.88671875" style="7"/>
-    <col min="6646" max="6646" width="20.5546875" style="7" customWidth="1"/>
-    <col min="6647" max="6647" width="13.109375" style="7" customWidth="1"/>
-    <col min="6648" max="6648" width="8.88671875" style="7"/>
-    <col min="6649" max="6649" width="14.5546875" style="7" customWidth="1"/>
-    <col min="6650" max="6650" width="14.44140625" style="7" customWidth="1"/>
-    <col min="6651" max="6651" width="8.88671875" style="7" customWidth="1"/>
-    <col min="6652" max="6652" width="19.109375" style="7" customWidth="1"/>
-    <col min="6653" max="6653" width="12.33203125" style="7" customWidth="1"/>
-    <col min="6654" max="6654" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6655" max="6655" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6656" max="6656" width="10.33203125" style="7" customWidth="1"/>
-    <col min="6657" max="6657" width="8" style="7" customWidth="1"/>
-    <col min="6658" max="6659" width="14.33203125" style="7" customWidth="1"/>
-    <col min="6660" max="6660" width="6.5546875" style="7" customWidth="1"/>
-    <col min="6661" max="6661" width="10.109375" style="7" customWidth="1"/>
-    <col min="6662" max="6662" width="7.5546875" style="7" customWidth="1"/>
-    <col min="6663" max="6901" width="8.88671875" style="7"/>
-    <col min="6902" max="6902" width="20.5546875" style="7" customWidth="1"/>
-    <col min="6903" max="6903" width="13.109375" style="7" customWidth="1"/>
-    <col min="6904" max="6904" width="8.88671875" style="7"/>
-    <col min="6905" max="6905" width="14.5546875" style="7" customWidth="1"/>
-    <col min="6906" max="6906" width="14.44140625" style="7" customWidth="1"/>
-    <col min="6907" max="6907" width="8.88671875" style="7" customWidth="1"/>
-    <col min="6908" max="6908" width="19.109375" style="7" customWidth="1"/>
-    <col min="6909" max="6909" width="12.33203125" style="7" customWidth="1"/>
-    <col min="6910" max="6910" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6911" max="6911" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6912" max="6912" width="10.33203125" style="7" customWidth="1"/>
-    <col min="6913" max="6913" width="8" style="7" customWidth="1"/>
-    <col min="6914" max="6915" width="14.33203125" style="7" customWidth="1"/>
-    <col min="6916" max="6916" width="6.5546875" style="7" customWidth="1"/>
-    <col min="6917" max="6917" width="10.109375" style="7" customWidth="1"/>
-    <col min="6918" max="6918" width="7.5546875" style="7" customWidth="1"/>
-    <col min="6919" max="7157" width="8.88671875" style="7"/>
-    <col min="7158" max="7158" width="20.5546875" style="7" customWidth="1"/>
-    <col min="7159" max="7159" width="13.109375" style="7" customWidth="1"/>
-    <col min="7160" max="7160" width="8.88671875" style="7"/>
-    <col min="7161" max="7161" width="14.5546875" style="7" customWidth="1"/>
-    <col min="7162" max="7162" width="14.44140625" style="7" customWidth="1"/>
-    <col min="7163" max="7163" width="8.88671875" style="7" customWidth="1"/>
-    <col min="7164" max="7164" width="19.109375" style="7" customWidth="1"/>
-    <col min="7165" max="7165" width="12.33203125" style="7" customWidth="1"/>
-    <col min="7166" max="7166" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="7167" max="7167" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7168" max="7168" width="10.33203125" style="7" customWidth="1"/>
-    <col min="7169" max="7169" width="8" style="7" customWidth="1"/>
-    <col min="7170" max="7171" width="14.33203125" style="7" customWidth="1"/>
-    <col min="7172" max="7172" width="6.5546875" style="7" customWidth="1"/>
-    <col min="7173" max="7173" width="10.109375" style="7" customWidth="1"/>
-    <col min="7174" max="7174" width="7.5546875" style="7" customWidth="1"/>
-    <col min="7175" max="7413" width="8.88671875" style="7"/>
-    <col min="7414" max="7414" width="20.5546875" style="7" customWidth="1"/>
-    <col min="7415" max="7415" width="13.109375" style="7" customWidth="1"/>
-    <col min="7416" max="7416" width="8.88671875" style="7"/>
-    <col min="7417" max="7417" width="14.5546875" style="7" customWidth="1"/>
-    <col min="7418" max="7418" width="14.44140625" style="7" customWidth="1"/>
-    <col min="7419" max="7419" width="8.88671875" style="7" customWidth="1"/>
-    <col min="7420" max="7420" width="19.109375" style="7" customWidth="1"/>
-    <col min="7421" max="7421" width="12.33203125" style="7" customWidth="1"/>
-    <col min="7422" max="7422" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="7423" max="7423" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7424" max="7424" width="10.33203125" style="7" customWidth="1"/>
-    <col min="7425" max="7425" width="8" style="7" customWidth="1"/>
-    <col min="7426" max="7427" width="14.33203125" style="7" customWidth="1"/>
-    <col min="7428" max="7428" width="6.5546875" style="7" customWidth="1"/>
-    <col min="7429" max="7429" width="10.109375" style="7" customWidth="1"/>
-    <col min="7430" max="7430" width="7.5546875" style="7" customWidth="1"/>
-    <col min="7431" max="7669" width="8.88671875" style="7"/>
-    <col min="7670" max="7670" width="20.5546875" style="7" customWidth="1"/>
-    <col min="7671" max="7671" width="13.109375" style="7" customWidth="1"/>
-    <col min="7672" max="7672" width="8.88671875" style="7"/>
-    <col min="7673" max="7673" width="14.5546875" style="7" customWidth="1"/>
-    <col min="7674" max="7674" width="14.44140625" style="7" customWidth="1"/>
-    <col min="7675" max="7675" width="8.88671875" style="7" customWidth="1"/>
-    <col min="7676" max="7676" width="19.109375" style="7" customWidth="1"/>
-    <col min="7677" max="7677" width="12.33203125" style="7" customWidth="1"/>
-    <col min="7678" max="7678" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="7679" max="7679" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7680" max="7680" width="10.33203125" style="7" customWidth="1"/>
-    <col min="7681" max="7681" width="8" style="7" customWidth="1"/>
-    <col min="7682" max="7683" width="14.33203125" style="7" customWidth="1"/>
-    <col min="7684" max="7684" width="6.5546875" style="7" customWidth="1"/>
-    <col min="7685" max="7685" width="10.109375" style="7" customWidth="1"/>
-    <col min="7686" max="7686" width="7.5546875" style="7" customWidth="1"/>
-    <col min="7687" max="7925" width="8.88671875" style="7"/>
-    <col min="7926" max="7926" width="20.5546875" style="7" customWidth="1"/>
-    <col min="7927" max="7927" width="13.109375" style="7" customWidth="1"/>
-    <col min="7928" max="7928" width="8.88671875" style="7"/>
-    <col min="7929" max="7929" width="14.5546875" style="7" customWidth="1"/>
-    <col min="7930" max="7930" width="14.44140625" style="7" customWidth="1"/>
-    <col min="7931" max="7931" width="8.88671875" style="7" customWidth="1"/>
-    <col min="7932" max="7932" width="19.109375" style="7" customWidth="1"/>
-    <col min="7933" max="7933" width="12.33203125" style="7" customWidth="1"/>
-    <col min="7934" max="7934" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="7935" max="7935" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7936" max="7936" width="10.33203125" style="7" customWidth="1"/>
-    <col min="7937" max="7937" width="8" style="7" customWidth="1"/>
-    <col min="7938" max="7939" width="14.33203125" style="7" customWidth="1"/>
-    <col min="7940" max="7940" width="6.5546875" style="7" customWidth="1"/>
-    <col min="7941" max="7941" width="10.109375" style="7" customWidth="1"/>
-    <col min="7942" max="7942" width="7.5546875" style="7" customWidth="1"/>
-    <col min="7943" max="8181" width="8.88671875" style="7"/>
-    <col min="8182" max="8182" width="20.5546875" style="7" customWidth="1"/>
-    <col min="8183" max="8183" width="13.109375" style="7" customWidth="1"/>
-    <col min="8184" max="8184" width="8.88671875" style="7"/>
-    <col min="8185" max="8185" width="14.5546875" style="7" customWidth="1"/>
-    <col min="8186" max="8186" width="14.44140625" style="7" customWidth="1"/>
-    <col min="8187" max="8187" width="8.88671875" style="7" customWidth="1"/>
-    <col min="8188" max="8188" width="19.109375" style="7" customWidth="1"/>
-    <col min="8189" max="8189" width="12.33203125" style="7" customWidth="1"/>
-    <col min="8190" max="8190" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="8191" max="8191" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8192" max="8192" width="10.33203125" style="7" customWidth="1"/>
-    <col min="8193" max="8193" width="8" style="7" customWidth="1"/>
-    <col min="8194" max="8195" width="14.33203125" style="7" customWidth="1"/>
-    <col min="8196" max="8196" width="6.5546875" style="7" customWidth="1"/>
-    <col min="8197" max="8197" width="10.109375" style="7" customWidth="1"/>
-    <col min="8198" max="8198" width="7.5546875" style="7" customWidth="1"/>
-    <col min="8199" max="8437" width="8.88671875" style="7"/>
-    <col min="8438" max="8438" width="20.5546875" style="7" customWidth="1"/>
-    <col min="8439" max="8439" width="13.109375" style="7" customWidth="1"/>
-    <col min="8440" max="8440" width="8.88671875" style="7"/>
-    <col min="8441" max="8441" width="14.5546875" style="7" customWidth="1"/>
-    <col min="8442" max="8442" width="14.44140625" style="7" customWidth="1"/>
-    <col min="8443" max="8443" width="8.88671875" style="7" customWidth="1"/>
-    <col min="8444" max="8444" width="19.109375" style="7" customWidth="1"/>
-    <col min="8445" max="8445" width="12.33203125" style="7" customWidth="1"/>
-    <col min="8446" max="8446" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="8447" max="8447" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8448" max="8448" width="10.33203125" style="7" customWidth="1"/>
-    <col min="8449" max="8449" width="8" style="7" customWidth="1"/>
-    <col min="8450" max="8451" width="14.33203125" style="7" customWidth="1"/>
-    <col min="8452" max="8452" width="6.5546875" style="7" customWidth="1"/>
-    <col min="8453" max="8453" width="10.109375" style="7" customWidth="1"/>
-    <col min="8454" max="8454" width="7.5546875" style="7" customWidth="1"/>
-    <col min="8455" max="8693" width="8.88671875" style="7"/>
-    <col min="8694" max="8694" width="20.5546875" style="7" customWidth="1"/>
-    <col min="8695" max="8695" width="13.109375" style="7" customWidth="1"/>
-    <col min="8696" max="8696" width="8.88671875" style="7"/>
-    <col min="8697" max="8697" width="14.5546875" style="7" customWidth="1"/>
-    <col min="8698" max="8698" width="14.44140625" style="7" customWidth="1"/>
-    <col min="8699" max="8699" width="8.88671875" style="7" customWidth="1"/>
-    <col min="8700" max="8700" width="19.109375" style="7" customWidth="1"/>
-    <col min="8701" max="8701" width="12.33203125" style="7" customWidth="1"/>
-    <col min="8702" max="8702" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="8703" max="8703" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8704" max="8704" width="10.33203125" style="7" customWidth="1"/>
-    <col min="8705" max="8705" width="8" style="7" customWidth="1"/>
-    <col min="8706" max="8707" width="14.33203125" style="7" customWidth="1"/>
-    <col min="8708" max="8708" width="6.5546875" style="7" customWidth="1"/>
-    <col min="8709" max="8709" width="10.109375" style="7" customWidth="1"/>
-    <col min="8710" max="8710" width="7.5546875" style="7" customWidth="1"/>
-    <col min="8711" max="8949" width="8.88671875" style="7"/>
-    <col min="8950" max="8950" width="20.5546875" style="7" customWidth="1"/>
-    <col min="8951" max="8951" width="13.109375" style="7" customWidth="1"/>
-    <col min="8952" max="8952" width="8.88671875" style="7"/>
-    <col min="8953" max="8953" width="14.5546875" style="7" customWidth="1"/>
-    <col min="8954" max="8954" width="14.44140625" style="7" customWidth="1"/>
-    <col min="8955" max="8955" width="8.88671875" style="7" customWidth="1"/>
-    <col min="8956" max="8956" width="19.109375" style="7" customWidth="1"/>
-    <col min="8957" max="8957" width="12.33203125" style="7" customWidth="1"/>
-    <col min="8958" max="8958" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="8959" max="8959" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8960" max="8960" width="10.33203125" style="7" customWidth="1"/>
-    <col min="8961" max="8961" width="8" style="7" customWidth="1"/>
-    <col min="8962" max="8963" width="14.33203125" style="7" customWidth="1"/>
-    <col min="8964" max="8964" width="6.5546875" style="7" customWidth="1"/>
-    <col min="8965" max="8965" width="10.109375" style="7" customWidth="1"/>
-    <col min="8966" max="8966" width="7.5546875" style="7" customWidth="1"/>
-    <col min="8967" max="9205" width="8.88671875" style="7"/>
-    <col min="9206" max="9206" width="20.5546875" style="7" customWidth="1"/>
-    <col min="9207" max="9207" width="13.109375" style="7" customWidth="1"/>
-    <col min="9208" max="9208" width="8.88671875" style="7"/>
-    <col min="9209" max="9209" width="14.5546875" style="7" customWidth="1"/>
-    <col min="9210" max="9210" width="14.44140625" style="7" customWidth="1"/>
-    <col min="9211" max="9211" width="8.88671875" style="7" customWidth="1"/>
-    <col min="9212" max="9212" width="19.109375" style="7" customWidth="1"/>
-    <col min="9213" max="9213" width="12.33203125" style="7" customWidth="1"/>
-    <col min="9214" max="9214" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9215" max="9215" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9216" max="9216" width="10.33203125" style="7" customWidth="1"/>
-    <col min="9217" max="9217" width="8" style="7" customWidth="1"/>
-    <col min="9218" max="9219" width="14.33203125" style="7" customWidth="1"/>
-    <col min="9220" max="9220" width="6.5546875" style="7" customWidth="1"/>
-    <col min="9221" max="9221" width="10.109375" style="7" customWidth="1"/>
-    <col min="9222" max="9222" width="7.5546875" style="7" customWidth="1"/>
-    <col min="9223" max="9461" width="8.88671875" style="7"/>
-    <col min="9462" max="9462" width="20.5546875" style="7" customWidth="1"/>
-    <col min="9463" max="9463" width="13.109375" style="7" customWidth="1"/>
-    <col min="9464" max="9464" width="8.88671875" style="7"/>
-    <col min="9465" max="9465" width="14.5546875" style="7" customWidth="1"/>
-    <col min="9466" max="9466" width="14.44140625" style="7" customWidth="1"/>
-    <col min="9467" max="9467" width="8.88671875" style="7" customWidth="1"/>
-    <col min="9468" max="9468" width="19.109375" style="7" customWidth="1"/>
-    <col min="9469" max="9469" width="12.33203125" style="7" customWidth="1"/>
-    <col min="9470" max="9470" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9471" max="9471" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9472" max="9472" width="10.33203125" style="7" customWidth="1"/>
-    <col min="9473" max="9473" width="8" style="7" customWidth="1"/>
-    <col min="9474" max="9475" width="14.33203125" style="7" customWidth="1"/>
-    <col min="9476" max="9476" width="6.5546875" style="7" customWidth="1"/>
-    <col min="9477" max="9477" width="10.109375" style="7" customWidth="1"/>
-    <col min="9478" max="9478" width="7.5546875" style="7" customWidth="1"/>
-    <col min="9479" max="9717" width="8.88671875" style="7"/>
-    <col min="9718" max="9718" width="20.5546875" style="7" customWidth="1"/>
-    <col min="9719" max="9719" width="13.109375" style="7" customWidth="1"/>
-    <col min="9720" max="9720" width="8.88671875" style="7"/>
-    <col min="9721" max="9721" width="14.5546875" style="7" customWidth="1"/>
-    <col min="9722" max="9722" width="14.44140625" style="7" customWidth="1"/>
-    <col min="9723" max="9723" width="8.88671875" style="7" customWidth="1"/>
-    <col min="9724" max="9724" width="19.109375" style="7" customWidth="1"/>
-    <col min="9725" max="9725" width="12.33203125" style="7" customWidth="1"/>
-    <col min="9726" max="9726" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9727" max="9727" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9728" max="9728" width="10.33203125" style="7" customWidth="1"/>
-    <col min="9729" max="9729" width="8" style="7" customWidth="1"/>
-    <col min="9730" max="9731" width="14.33203125" style="7" customWidth="1"/>
-    <col min="9732" max="9732" width="6.5546875" style="7" customWidth="1"/>
-    <col min="9733" max="9733" width="10.109375" style="7" customWidth="1"/>
-    <col min="9734" max="9734" width="7.5546875" style="7" customWidth="1"/>
-    <col min="9735" max="9973" width="8.88671875" style="7"/>
-    <col min="9974" max="9974" width="20.5546875" style="7" customWidth="1"/>
-    <col min="9975" max="9975" width="13.109375" style="7" customWidth="1"/>
-    <col min="9976" max="9976" width="8.88671875" style="7"/>
-    <col min="9977" max="9977" width="14.5546875" style="7" customWidth="1"/>
-    <col min="9978" max="9978" width="14.44140625" style="7" customWidth="1"/>
-    <col min="9979" max="9979" width="8.88671875" style="7" customWidth="1"/>
-    <col min="9980" max="9980" width="19.109375" style="7" customWidth="1"/>
-    <col min="9981" max="9981" width="12.33203125" style="7" customWidth="1"/>
-    <col min="9982" max="9982" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9983" max="9983" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9984" max="9984" width="10.33203125" style="7" customWidth="1"/>
-    <col min="9985" max="9985" width="8" style="7" customWidth="1"/>
-    <col min="9986" max="9987" width="14.33203125" style="7" customWidth="1"/>
-    <col min="9988" max="9988" width="6.5546875" style="7" customWidth="1"/>
-    <col min="9989" max="9989" width="10.109375" style="7" customWidth="1"/>
-    <col min="9990" max="9990" width="7.5546875" style="7" customWidth="1"/>
-    <col min="9991" max="10229" width="8.88671875" style="7"/>
-    <col min="10230" max="10230" width="20.5546875" style="7" customWidth="1"/>
-    <col min="10231" max="10231" width="13.109375" style="7" customWidth="1"/>
-    <col min="10232" max="10232" width="8.88671875" style="7"/>
-    <col min="10233" max="10233" width="14.5546875" style="7" customWidth="1"/>
-    <col min="10234" max="10234" width="14.44140625" style="7" customWidth="1"/>
-    <col min="10235" max="10235" width="8.88671875" style="7" customWidth="1"/>
-    <col min="10236" max="10236" width="19.109375" style="7" customWidth="1"/>
-    <col min="10237" max="10237" width="12.33203125" style="7" customWidth="1"/>
-    <col min="10238" max="10238" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="10239" max="10239" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10240" max="10240" width="10.33203125" style="7" customWidth="1"/>
-    <col min="10241" max="10241" width="8" style="7" customWidth="1"/>
-    <col min="10242" max="10243" width="14.33203125" style="7" customWidth="1"/>
-    <col min="10244" max="10244" width="6.5546875" style="7" customWidth="1"/>
-    <col min="10245" max="10245" width="10.109375" style="7" customWidth="1"/>
-    <col min="10246" max="10246" width="7.5546875" style="7" customWidth="1"/>
-    <col min="10247" max="10485" width="8.88671875" style="7"/>
-    <col min="10486" max="10486" width="20.5546875" style="7" customWidth="1"/>
-    <col min="10487" max="10487" width="13.109375" style="7" customWidth="1"/>
-    <col min="10488" max="10488" width="8.88671875" style="7"/>
-    <col min="10489" max="10489" width="14.5546875" style="7" customWidth="1"/>
-    <col min="10490" max="10490" width="14.44140625" style="7" customWidth="1"/>
-    <col min="10491" max="10491" width="8.88671875" style="7" customWidth="1"/>
-    <col min="10492" max="10492" width="19.109375" style="7" customWidth="1"/>
-    <col min="10493" max="10493" width="12.33203125" style="7" customWidth="1"/>
-    <col min="10494" max="10494" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="10495" max="10495" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10496" max="10496" width="10.33203125" style="7" customWidth="1"/>
-    <col min="10497" max="10497" width="8" style="7" customWidth="1"/>
-    <col min="10498" max="10499" width="14.33203125" style="7" customWidth="1"/>
-    <col min="10500" max="10500" width="6.5546875" style="7" customWidth="1"/>
-    <col min="10501" max="10501" width="10.109375" style="7" customWidth="1"/>
-    <col min="10502" max="10502" width="7.5546875" style="7" customWidth="1"/>
-    <col min="10503" max="10741" width="8.88671875" style="7"/>
-    <col min="10742" max="10742" width="20.5546875" style="7" customWidth="1"/>
-    <col min="10743" max="10743" width="13.109375" style="7" customWidth="1"/>
-    <col min="10744" max="10744" width="8.88671875" style="7"/>
-    <col min="10745" max="10745" width="14.5546875" style="7" customWidth="1"/>
-    <col min="10746" max="10746" width="14.44140625" style="7" customWidth="1"/>
-    <col min="10747" max="10747" width="8.88671875" style="7" customWidth="1"/>
-    <col min="10748" max="10748" width="19.109375" style="7" customWidth="1"/>
-    <col min="10749" max="10749" width="12.33203125" style="7" customWidth="1"/>
-    <col min="10750" max="10750" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="10751" max="10751" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10752" max="10752" width="10.33203125" style="7" customWidth="1"/>
-    <col min="10753" max="10753" width="8" style="7" customWidth="1"/>
-    <col min="10754" max="10755" width="14.33203125" style="7" customWidth="1"/>
-    <col min="10756" max="10756" width="6.5546875" style="7" customWidth="1"/>
-    <col min="10757" max="10757" width="10.109375" style="7" customWidth="1"/>
-    <col min="10758" max="10758" width="7.5546875" style="7" customWidth="1"/>
-    <col min="10759" max="10997" width="8.88671875" style="7"/>
-    <col min="10998" max="10998" width="20.5546875" style="7" customWidth="1"/>
-    <col min="10999" max="10999" width="13.109375" style="7" customWidth="1"/>
-    <col min="11000" max="11000" width="8.88671875" style="7"/>
-    <col min="11001" max="11001" width="14.5546875" style="7" customWidth="1"/>
-    <col min="11002" max="11002" width="14.44140625" style="7" customWidth="1"/>
-    <col min="11003" max="11003" width="8.88671875" style="7" customWidth="1"/>
-    <col min="11004" max="11004" width="19.109375" style="7" customWidth="1"/>
-    <col min="11005" max="11005" width="12.33203125" style="7" customWidth="1"/>
-    <col min="11006" max="11006" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="11007" max="11007" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11008" max="11008" width="10.33203125" style="7" customWidth="1"/>
-    <col min="11009" max="11009" width="8" style="7" customWidth="1"/>
-    <col min="11010" max="11011" width="14.33203125" style="7" customWidth="1"/>
-    <col min="11012" max="11012" width="6.5546875" style="7" customWidth="1"/>
-    <col min="11013" max="11013" width="10.109375" style="7" customWidth="1"/>
-    <col min="11014" max="11014" width="7.5546875" style="7" customWidth="1"/>
-    <col min="11015" max="11253" width="8.88671875" style="7"/>
-    <col min="11254" max="11254" width="20.5546875" style="7" customWidth="1"/>
-    <col min="11255" max="11255" width="13.109375" style="7" customWidth="1"/>
-    <col min="11256" max="11256" width="8.88671875" style="7"/>
-    <col min="11257" max="11257" width="14.5546875" style="7" customWidth="1"/>
-    <col min="11258" max="11258" width="14.44140625" style="7" customWidth="1"/>
-    <col min="11259" max="11259" width="8.88671875" style="7" customWidth="1"/>
-    <col min="11260" max="11260" width="19.109375" style="7" customWidth="1"/>
-    <col min="11261" max="11261" width="12.33203125" style="7" customWidth="1"/>
-    <col min="11262" max="11262" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="11263" max="11263" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11264" max="11264" width="10.33203125" style="7" customWidth="1"/>
-    <col min="11265" max="11265" width="8" style="7" customWidth="1"/>
-    <col min="11266" max="11267" width="14.33203125" style="7" customWidth="1"/>
-    <col min="11268" max="11268" width="6.5546875" style="7" customWidth="1"/>
-    <col min="11269" max="11269" width="10.109375" style="7" customWidth="1"/>
-    <col min="11270" max="11270" width="7.5546875" style="7" customWidth="1"/>
-    <col min="11271" max="11509" width="8.88671875" style="7"/>
-    <col min="11510" max="11510" width="20.5546875" style="7" customWidth="1"/>
-    <col min="11511" max="11511" width="13.109375" style="7" customWidth="1"/>
-    <col min="11512" max="11512" width="8.88671875" style="7"/>
-    <col min="11513" max="11513" width="14.5546875" style="7" customWidth="1"/>
-    <col min="11514" max="11514" width="14.44140625" style="7" customWidth="1"/>
-    <col min="11515" max="11515" width="8.88671875" style="7" customWidth="1"/>
-    <col min="11516" max="11516" width="19.109375" style="7" customWidth="1"/>
-    <col min="11517" max="11517" width="12.33203125" style="7" customWidth="1"/>
-    <col min="11518" max="11518" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="11519" max="11519" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11520" max="11520" width="10.33203125" style="7" customWidth="1"/>
-    <col min="11521" max="11521" width="8" style="7" customWidth="1"/>
-    <col min="11522" max="11523" width="14.33203125" style="7" customWidth="1"/>
-    <col min="11524" max="11524" width="6.5546875" style="7" customWidth="1"/>
-    <col min="11525" max="11525" width="10.109375" style="7" customWidth="1"/>
-    <col min="11526" max="11526" width="7.5546875" style="7" customWidth="1"/>
-    <col min="11527" max="11765" width="8.88671875" style="7"/>
-    <col min="11766" max="11766" width="20.5546875" style="7" customWidth="1"/>
-    <col min="11767" max="11767" width="13.109375" style="7" customWidth="1"/>
-    <col min="11768" max="11768" width="8.88671875" style="7"/>
-    <col min="11769" max="11769" width="14.5546875" style="7" customWidth="1"/>
-    <col min="11770" max="11770" width="14.44140625" style="7" customWidth="1"/>
-    <col min="11771" max="11771" width="8.88671875" style="7" customWidth="1"/>
-    <col min="11772" max="11772" width="19.109375" style="7" customWidth="1"/>
-    <col min="11773" max="11773" width="12.33203125" style="7" customWidth="1"/>
-    <col min="11774" max="11774" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="11775" max="11775" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11776" max="11776" width="10.33203125" style="7" customWidth="1"/>
-    <col min="11777" max="11777" width="8" style="7" customWidth="1"/>
-    <col min="11778" max="11779" width="14.33203125" style="7" customWidth="1"/>
-    <col min="11780" max="11780" width="6.5546875" style="7" customWidth="1"/>
-    <col min="11781" max="11781" width="10.109375" style="7" customWidth="1"/>
-    <col min="11782" max="11782" width="7.5546875" style="7" customWidth="1"/>
-    <col min="11783" max="12021" width="8.88671875" style="7"/>
-    <col min="12022" max="12022" width="20.5546875" style="7" customWidth="1"/>
-    <col min="12023" max="12023" width="13.109375" style="7" customWidth="1"/>
-    <col min="12024" max="12024" width="8.88671875" style="7"/>
-    <col min="12025" max="12025" width="14.5546875" style="7" customWidth="1"/>
-    <col min="12026" max="12026" width="14.44140625" style="7" customWidth="1"/>
-    <col min="12027" max="12027" width="8.88671875" style="7" customWidth="1"/>
-    <col min="12028" max="12028" width="19.109375" style="7" customWidth="1"/>
-    <col min="12029" max="12029" width="12.33203125" style="7" customWidth="1"/>
-    <col min="12030" max="12030" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="12031" max="12031" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12032" max="12032" width="10.33203125" style="7" customWidth="1"/>
-    <col min="12033" max="12033" width="8" style="7" customWidth="1"/>
-    <col min="12034" max="12035" width="14.33203125" style="7" customWidth="1"/>
-    <col min="12036" max="12036" width="6.5546875" style="7" customWidth="1"/>
-    <col min="12037" max="12037" width="10.109375" style="7" customWidth="1"/>
-    <col min="12038" max="12038" width="7.5546875" style="7" customWidth="1"/>
-    <col min="12039" max="12277" width="8.88671875" style="7"/>
-    <col min="12278" max="12278" width="20.5546875" style="7" customWidth="1"/>
-    <col min="12279" max="12279" width="13.109375" style="7" customWidth="1"/>
-    <col min="12280" max="12280" width="8.88671875" style="7"/>
-    <col min="12281" max="12281" width="14.5546875" style="7" customWidth="1"/>
-    <col min="12282" max="12282" width="14.44140625" style="7" customWidth="1"/>
-    <col min="12283" max="12283" width="8.88671875" style="7" customWidth="1"/>
-    <col min="12284" max="12284" width="19.109375" style="7" customWidth="1"/>
-    <col min="12285" max="12285" width="12.33203125" style="7" customWidth="1"/>
-    <col min="12286" max="12286" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="12287" max="12287" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12288" max="12288" width="10.33203125" style="7" customWidth="1"/>
-    <col min="12289" max="12289" width="8" style="7" customWidth="1"/>
-    <col min="12290" max="12291" width="14.33203125" style="7" customWidth="1"/>
-    <col min="12292" max="12292" width="6.5546875" style="7" customWidth="1"/>
-    <col min="12293" max="12293" width="10.109375" style="7" customWidth="1"/>
-    <col min="12294" max="12294" width="7.5546875" style="7" customWidth="1"/>
-    <col min="12295" max="12533" width="8.88671875" style="7"/>
-    <col min="12534" max="12534" width="20.5546875" style="7" customWidth="1"/>
-    <col min="12535" max="12535" width="13.109375" style="7" customWidth="1"/>
-    <col min="12536" max="12536" width="8.88671875" style="7"/>
-    <col min="12537" max="12537" width="14.5546875" style="7" customWidth="1"/>
-    <col min="12538" max="12538" width="14.44140625" style="7" customWidth="1"/>
-    <col min="12539" max="12539" width="8.88671875" style="7" customWidth="1"/>
-    <col min="12540" max="12540" width="19.109375" style="7" customWidth="1"/>
-    <col min="12541" max="12541" width="12.33203125" style="7" customWidth="1"/>
-    <col min="12542" max="12542" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="12543" max="12543" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12544" max="12544" width="10.33203125" style="7" customWidth="1"/>
-    <col min="12545" max="12545" width="8" style="7" customWidth="1"/>
-    <col min="12546" max="12547" width="14.33203125" style="7" customWidth="1"/>
-    <col min="12548" max="12548" width="6.5546875" style="7" customWidth="1"/>
-    <col min="12549" max="12549" width="10.109375" style="7" customWidth="1"/>
-    <col min="12550" max="12550" width="7.5546875" style="7" customWidth="1"/>
-    <col min="12551" max="12789" width="8.88671875" style="7"/>
-    <col min="12790" max="12790" width="20.5546875" style="7" customWidth="1"/>
-    <col min="12791" max="12791" width="13.109375" style="7" customWidth="1"/>
-    <col min="12792" max="12792" width="8.88671875" style="7"/>
-    <col min="12793" max="12793" width="14.5546875" style="7" customWidth="1"/>
-    <col min="12794" max="12794" width="14.44140625" style="7" customWidth="1"/>
-    <col min="12795" max="12795" width="8.88671875" style="7" customWidth="1"/>
-    <col min="12796" max="12796" width="19.109375" style="7" customWidth="1"/>
-    <col min="12797" max="12797" width="12.33203125" style="7" customWidth="1"/>
-    <col min="12798" max="12798" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="12799" max="12799" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12800" max="12800" width="10.33203125" style="7" customWidth="1"/>
-    <col min="12801" max="12801" width="8" style="7" customWidth="1"/>
-    <col min="12802" max="12803" width="14.33203125" style="7" customWidth="1"/>
-    <col min="12804" max="12804" width="6.5546875" style="7" customWidth="1"/>
-    <col min="12805" max="12805" width="10.109375" style="7" customWidth="1"/>
-    <col min="12806" max="12806" width="7.5546875" style="7" customWidth="1"/>
-    <col min="12807" max="13045" width="8.88671875" style="7"/>
-    <col min="13046" max="13046" width="20.5546875" style="7" customWidth="1"/>
-    <col min="13047" max="13047" width="13.109375" style="7" customWidth="1"/>
-    <col min="13048" max="13048" width="8.88671875" style="7"/>
-    <col min="13049" max="13049" width="14.5546875" style="7" customWidth="1"/>
-    <col min="13050" max="13050" width="14.44140625" style="7" customWidth="1"/>
-    <col min="13051" max="13051" width="8.88671875" style="7" customWidth="1"/>
-    <col min="13052" max="13052" width="19.109375" style="7" customWidth="1"/>
-    <col min="13053" max="13053" width="12.33203125" style="7" customWidth="1"/>
-    <col min="13054" max="13054" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="13055" max="13055" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13056" max="13056" width="10.33203125" style="7" customWidth="1"/>
-    <col min="13057" max="13057" width="8" style="7" customWidth="1"/>
-    <col min="13058" max="13059" width="14.33203125" style="7" customWidth="1"/>
-    <col min="13060" max="13060" width="6.5546875" style="7" customWidth="1"/>
-    <col min="13061" max="13061" width="10.109375" style="7" customWidth="1"/>
-    <col min="13062" max="13062" width="7.5546875" style="7" customWidth="1"/>
-    <col min="13063" max="13301" width="8.88671875" style="7"/>
-    <col min="13302" max="13302" width="20.5546875" style="7" customWidth="1"/>
-    <col min="13303" max="13303" width="13.109375" style="7" customWidth="1"/>
-    <col min="13304" max="13304" width="8.88671875" style="7"/>
-    <col min="13305" max="13305" width="14.5546875" style="7" customWidth="1"/>
-    <col min="13306" max="13306" width="14.44140625" style="7" customWidth="1"/>
-    <col min="13307" max="13307" width="8.88671875" style="7" customWidth="1"/>
-    <col min="13308" max="13308" width="19.109375" style="7" customWidth="1"/>
-    <col min="13309" max="13309" width="12.33203125" style="7" customWidth="1"/>
-    <col min="13310" max="13310" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="13311" max="13311" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13312" max="13312" width="10.33203125" style="7" customWidth="1"/>
-    <col min="13313" max="13313" width="8" style="7" customWidth="1"/>
-    <col min="13314" max="13315" width="14.33203125" style="7" customWidth="1"/>
-    <col min="13316" max="13316" width="6.5546875" style="7" customWidth="1"/>
-    <col min="13317" max="13317" width="10.109375" style="7" customWidth="1"/>
-    <col min="13318" max="13318" width="7.5546875" style="7" customWidth="1"/>
-    <col min="13319" max="13557" width="8.88671875" style="7"/>
-    <col min="13558" max="13558" width="20.5546875" style="7" customWidth="1"/>
-    <col min="13559" max="13559" width="13.109375" style="7" customWidth="1"/>
-    <col min="13560" max="13560" width="8.88671875" style="7"/>
-    <col min="13561" max="13561" width="14.5546875" style="7" customWidth="1"/>
-    <col min="13562" max="13562" width="14.44140625" style="7" customWidth="1"/>
-    <col min="13563" max="13563" width="8.88671875" style="7" customWidth="1"/>
-    <col min="13564" max="13564" width="19.109375" style="7" customWidth="1"/>
-    <col min="13565" max="13565" width="12.33203125" style="7" customWidth="1"/>
-    <col min="13566" max="13566" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="13567" max="13567" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13568" max="13568" width="10.33203125" style="7" customWidth="1"/>
-    <col min="13569" max="13569" width="8" style="7" customWidth="1"/>
-    <col min="13570" max="13571" width="14.33203125" style="7" customWidth="1"/>
-    <col min="13572" max="13572" width="6.5546875" style="7" customWidth="1"/>
-    <col min="13573" max="13573" width="10.109375" style="7" customWidth="1"/>
-    <col min="13574" max="13574" width="7.5546875" style="7" customWidth="1"/>
-    <col min="13575" max="13813" width="8.88671875" style="7"/>
-    <col min="13814" max="13814" width="20.5546875" style="7" customWidth="1"/>
-    <col min="13815" max="13815" width="13.109375" style="7" customWidth="1"/>
-    <col min="13816" max="13816" width="8.88671875" style="7"/>
-    <col min="13817" max="13817" width="14.5546875" style="7" customWidth="1"/>
-    <col min="13818" max="13818" width="14.44140625" style="7" customWidth="1"/>
-    <col min="13819" max="13819" width="8.88671875" style="7" customWidth="1"/>
-    <col min="13820" max="13820" width="19.109375" style="7" customWidth="1"/>
-    <col min="13821" max="13821" width="12.33203125" style="7" customWidth="1"/>
-    <col min="13822" max="13822" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="13823" max="13823" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13824" max="13824" width="10.33203125" style="7" customWidth="1"/>
-    <col min="13825" max="13825" width="8" style="7" customWidth="1"/>
-    <col min="13826" max="13827" width="14.33203125" style="7" customWidth="1"/>
-    <col min="13828" max="13828" width="6.5546875" style="7" customWidth="1"/>
-    <col min="13829" max="13829" width="10.109375" style="7" customWidth="1"/>
-    <col min="13830" max="13830" width="7.5546875" style="7" customWidth="1"/>
-    <col min="13831" max="14069" width="8.88671875" style="7"/>
-    <col min="14070" max="14070" width="20.5546875" style="7" customWidth="1"/>
-    <col min="14071" max="14071" width="13.109375" style="7" customWidth="1"/>
-    <col min="14072" max="14072" width="8.88671875" style="7"/>
-    <col min="14073" max="14073" width="14.5546875" style="7" customWidth="1"/>
-    <col min="14074" max="14074" width="14.44140625" style="7" customWidth="1"/>
-    <col min="14075" max="14075" width="8.88671875" style="7" customWidth="1"/>
-    <col min="14076" max="14076" width="19.109375" style="7" customWidth="1"/>
-    <col min="14077" max="14077" width="12.33203125" style="7" customWidth="1"/>
-    <col min="14078" max="14078" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="14079" max="14079" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14080" max="14080" width="10.33203125" style="7" customWidth="1"/>
-    <col min="14081" max="14081" width="8" style="7" customWidth="1"/>
-    <col min="14082" max="14083" width="14.33203125" style="7" customWidth="1"/>
-    <col min="14084" max="14084" width="6.5546875" style="7" customWidth="1"/>
-    <col min="14085" max="14085" width="10.109375" style="7" customWidth="1"/>
-    <col min="14086" max="14086" width="7.5546875" style="7" customWidth="1"/>
-    <col min="14087" max="14325" width="8.88671875" style="7"/>
-    <col min="14326" max="14326" width="20.5546875" style="7" customWidth="1"/>
-    <col min="14327" max="14327" width="13.109375" style="7" customWidth="1"/>
-    <col min="14328" max="14328" width="8.88671875" style="7"/>
-    <col min="14329" max="14329" width="14.5546875" style="7" customWidth="1"/>
-    <col min="14330" max="14330" width="14.44140625" style="7" customWidth="1"/>
-    <col min="14331" max="14331" width="8.88671875" style="7" customWidth="1"/>
-    <col min="14332" max="14332" width="19.109375" style="7" customWidth="1"/>
-    <col min="14333" max="14333" width="12.33203125" style="7" customWidth="1"/>
-    <col min="14334" max="14334" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="14335" max="14335" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14336" max="14336" width="10.33203125" style="7" customWidth="1"/>
-    <col min="14337" max="14337" width="8" style="7" customWidth="1"/>
-    <col min="14338" max="14339" width="14.33203125" style="7" customWidth="1"/>
-    <col min="14340" max="14340" width="6.5546875" style="7" customWidth="1"/>
-    <col min="14341" max="14341" width="10.109375" style="7" customWidth="1"/>
-    <col min="14342" max="14342" width="7.5546875" style="7" customWidth="1"/>
-    <col min="14343" max="14581" width="8.88671875" style="7"/>
-    <col min="14582" max="14582" width="20.5546875" style="7" customWidth="1"/>
-    <col min="14583" max="14583" width="13.109375" style="7" customWidth="1"/>
-    <col min="14584" max="14584" width="8.88671875" style="7"/>
-    <col min="14585" max="14585" width="14.5546875" style="7" customWidth="1"/>
-    <col min="14586" max="14586" width="14.44140625" style="7" customWidth="1"/>
-    <col min="14587" max="14587" width="8.88671875" style="7" customWidth="1"/>
-    <col min="14588" max="14588" width="19.109375" style="7" customWidth="1"/>
-    <col min="14589" max="14589" width="12.33203125" style="7" customWidth="1"/>
-    <col min="14590" max="14590" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="14591" max="14591" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14592" max="14592" width="10.33203125" style="7" customWidth="1"/>
-    <col min="14593" max="14593" width="8" style="7" customWidth="1"/>
-    <col min="14594" max="14595" width="14.33203125" style="7" customWidth="1"/>
-    <col min="14596" max="14596" width="6.5546875" style="7" customWidth="1"/>
-    <col min="14597" max="14597" width="10.109375" style="7" customWidth="1"/>
-    <col min="14598" max="14598" width="7.5546875" style="7" customWidth="1"/>
-    <col min="14599" max="14837" width="8.88671875" style="7"/>
-    <col min="14838" max="14838" width="20.5546875" style="7" customWidth="1"/>
-    <col min="14839" max="14839" width="13.109375" style="7" customWidth="1"/>
-    <col min="14840" max="14840" width="8.88671875" style="7"/>
-    <col min="14841" max="14841" width="14.5546875" style="7" customWidth="1"/>
-    <col min="14842" max="14842" width="14.44140625" style="7" customWidth="1"/>
-    <col min="14843" max="14843" width="8.88671875" style="7" customWidth="1"/>
-    <col min="14844" max="14844" width="19.109375" style="7" customWidth="1"/>
-    <col min="14845" max="14845" width="12.33203125" style="7" customWidth="1"/>
-    <col min="14846" max="14846" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="14847" max="14847" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14848" max="14848" width="10.33203125" style="7" customWidth="1"/>
-    <col min="14849" max="14849" width="8" style="7" customWidth="1"/>
-    <col min="14850" max="14851" width="14.33203125" style="7" customWidth="1"/>
-    <col min="14852" max="14852" width="6.5546875" style="7" customWidth="1"/>
-    <col min="14853" max="14853" width="10.109375" style="7" customWidth="1"/>
-    <col min="14854" max="14854" width="7.5546875" style="7" customWidth="1"/>
-    <col min="14855" max="15093" width="8.88671875" style="7"/>
-    <col min="15094" max="15094" width="20.5546875" style="7" customWidth="1"/>
-    <col min="15095" max="15095" width="13.109375" style="7" customWidth="1"/>
-    <col min="15096" max="15096" width="8.88671875" style="7"/>
-    <col min="15097" max="15097" width="14.5546875" style="7" customWidth="1"/>
-    <col min="15098" max="15098" width="14.44140625" style="7" customWidth="1"/>
-    <col min="15099" max="15099" width="8.88671875" style="7" customWidth="1"/>
-    <col min="15100" max="15100" width="19.109375" style="7" customWidth="1"/>
-    <col min="15101" max="15101" width="12.33203125" style="7" customWidth="1"/>
-    <col min="15102" max="15102" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="15103" max="15103" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15104" max="15104" width="10.33203125" style="7" customWidth="1"/>
-    <col min="15105" max="15105" width="8" style="7" customWidth="1"/>
-    <col min="15106" max="15107" width="14.33203125" style="7" customWidth="1"/>
-    <col min="15108" max="15108" width="6.5546875" style="7" customWidth="1"/>
-    <col min="15109" max="15109" width="10.109375" style="7" customWidth="1"/>
-    <col min="15110" max="15110" width="7.5546875" style="7" customWidth="1"/>
-    <col min="15111" max="15349" width="8.88671875" style="7"/>
-    <col min="15350" max="15350" width="20.5546875" style="7" customWidth="1"/>
-    <col min="15351" max="15351" width="13.109375" style="7" customWidth="1"/>
-    <col min="15352" max="15352" width="8.88671875" style="7"/>
-    <col min="15353" max="15353" width="14.5546875" style="7" customWidth="1"/>
-    <col min="15354" max="15354" width="14.44140625" style="7" customWidth="1"/>
-    <col min="15355" max="15355" width="8.88671875" style="7" customWidth="1"/>
-    <col min="15356" max="15356" width="19.109375" style="7" customWidth="1"/>
-    <col min="15357" max="15357" width="12.33203125" style="7" customWidth="1"/>
-    <col min="15358" max="15358" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="15359" max="15359" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15360" max="15360" width="10.33203125" style="7" customWidth="1"/>
-    <col min="15361" max="15361" width="8" style="7" customWidth="1"/>
-    <col min="15362" max="15363" width="14.33203125" style="7" customWidth="1"/>
-    <col min="15364" max="15364" width="6.5546875" style="7" customWidth="1"/>
-    <col min="15365" max="15365" width="10.109375" style="7" customWidth="1"/>
-    <col min="15366" max="15366" width="7.5546875" style="7" customWidth="1"/>
-    <col min="15367" max="15605" width="8.88671875" style="7"/>
-    <col min="15606" max="15606" width="20.5546875" style="7" customWidth="1"/>
-    <col min="15607" max="15607" width="13.109375" style="7" customWidth="1"/>
-    <col min="15608" max="15608" width="8.88671875" style="7"/>
-    <col min="15609" max="15609" width="14.5546875" style="7" customWidth="1"/>
-    <col min="15610" max="15610" width="14.44140625" style="7" customWidth="1"/>
-    <col min="15611" max="15611" width="8.88671875" style="7" customWidth="1"/>
-    <col min="15612" max="15612" width="19.109375" style="7" customWidth="1"/>
-    <col min="15613" max="15613" width="12.33203125" style="7" customWidth="1"/>
-    <col min="15614" max="15614" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="15615" max="15615" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15616" max="15616" width="10.33203125" style="7" customWidth="1"/>
-    <col min="15617" max="15617" width="8" style="7" customWidth="1"/>
-    <col min="15618" max="15619" width="14.33203125" style="7" customWidth="1"/>
-    <col min="15620" max="15620" width="6.5546875" style="7" customWidth="1"/>
-    <col min="15621" max="15621" width="10.109375" style="7" customWidth="1"/>
-    <col min="15622" max="15622" width="7.5546875" style="7" customWidth="1"/>
-    <col min="15623" max="15861" width="8.88671875" style="7"/>
-    <col min="15862" max="15862" width="20.5546875" style="7" customWidth="1"/>
-    <col min="15863" max="15863" width="13.109375" style="7" customWidth="1"/>
-    <col min="15864" max="15864" width="8.88671875" style="7"/>
-    <col min="15865" max="15865" width="14.5546875" style="7" customWidth="1"/>
-    <col min="15866" max="15866" width="14.44140625" style="7" customWidth="1"/>
-    <col min="15867" max="15867" width="8.88671875" style="7" customWidth="1"/>
-    <col min="15868" max="15868" width="19.109375" style="7" customWidth="1"/>
-    <col min="15869" max="15869" width="12.33203125" style="7" customWidth="1"/>
-    <col min="15870" max="15870" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="15871" max="15871" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15872" max="15872" width="10.33203125" style="7" customWidth="1"/>
-    <col min="15873" max="15873" width="8" style="7" customWidth="1"/>
-    <col min="15874" max="15875" width="14.33203125" style="7" customWidth="1"/>
-    <col min="15876" max="15876" width="6.5546875" style="7" customWidth="1"/>
-    <col min="15877" max="15877" width="10.109375" style="7" customWidth="1"/>
-    <col min="15878" max="15878" width="7.5546875" style="7" customWidth="1"/>
-    <col min="15879" max="16117" width="8.88671875" style="7"/>
-    <col min="16118" max="16118" width="20.5546875" style="7" customWidth="1"/>
-    <col min="16119" max="16119" width="13.109375" style="7" customWidth="1"/>
-    <col min="16120" max="16120" width="8.88671875" style="7"/>
-    <col min="16121" max="16121" width="14.5546875" style="7" customWidth="1"/>
-    <col min="16122" max="16122" width="14.44140625" style="7" customWidth="1"/>
-    <col min="16123" max="16123" width="8.88671875" style="7" customWidth="1"/>
-    <col min="16124" max="16124" width="19.109375" style="7" customWidth="1"/>
-    <col min="16125" max="16125" width="12.33203125" style="7" customWidth="1"/>
-    <col min="16126" max="16126" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="16127" max="16127" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="16128" max="16128" width="10.33203125" style="7" customWidth="1"/>
-    <col min="16129" max="16129" width="8" style="7" customWidth="1"/>
-    <col min="16130" max="16131" width="14.33203125" style="7" customWidth="1"/>
-    <col min="16132" max="16132" width="6.5546875" style="7" customWidth="1"/>
-    <col min="16133" max="16133" width="10.109375" style="7" customWidth="1"/>
-    <col min="16134" max="16134" width="7.5546875" style="7" customWidth="1"/>
-    <col min="16135" max="16384" width="8.88671875" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="26.4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="4">
-        <v>151007890</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="4">
-        <v>36394</v>
-      </c>
-      <c r="E2" s="6">
-        <v>44232</v>
-      </c>
-      <c r="F2" s="4">
-        <v>614961</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="4">
-        <v>20</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="4">
-        <v>20</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="4">
-        <v>151040504</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4">
-        <v>36394</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="4">
-        <v>614961</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="4">
-        <v>10</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="4">
-        <v>10</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="5">
-        <v>151058491</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5">
-        <v>36394</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="5">
-        <v>614961</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="5">
-        <v>1</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="5">
-        <v>1</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="11">
-        <v>151265479</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="12">
-        <v>10</v>
-      </c>
-      <c r="D6" s="13">
-        <v>16500</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="15">
-        <v>4</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="15">
-        <v>0</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="16"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-    </row>
-    <row r="8" spans="1:12" s="18" customFormat="1">
-      <c r="A8" s="23">
-        <v>151357107</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="19">
-        <v>90</v>
-      </c>
-      <c r="D8" s="20">
-        <v>2400</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="F8" s="19">
-        <v>615181</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="19">
-        <v>30</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="19">
-        <v>0</v>
-      </c>
-      <c r="K8" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="L8" s="18">
-        <f>J8-16</f>
-        <v>-16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="16"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="1:12" s="18" customFormat="1">
-      <c r="A10" s="16">
-        <v>151357107</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="19">
-        <v>80</v>
-      </c>
-      <c r="D10" s="19">
-        <v>4831</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="F10" s="19">
-        <v>615698</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" s="19">
-        <v>10</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="19">
-        <v>0</v>
-      </c>
-      <c r="K10" s="19" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="16">
-        <v>151296157</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="5">
-        <v>20</v>
-      </c>
-      <c r="D12" s="8">
-        <v>4700</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="10">
-        <v>2</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" s="10">
-        <v>0</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="16">
-        <v>151296157</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="5">
-        <v>10</v>
-      </c>
-      <c r="D14" s="4">
-        <v>3700</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" s="4">
-        <v>615840</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="4">
-        <v>2</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="4">
-        <v>0</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="24"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="23">
-        <v>151335926</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="19">
-        <v>100</v>
-      </c>
-      <c r="D16" s="27">
-        <v>600</v>
-      </c>
-      <c r="E16" s="21">
-        <v>45070</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" s="28">
-        <v>50</v>
-      </c>
-      <c r="I16" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" s="28">
-        <v>0</v>
-      </c>
-      <c r="K16" s="28"/>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-    </row>
-    <row r="18" spans="1:13" s="18" customFormat="1">
-      <c r="A18" s="44">
-        <v>151362001</v>
-      </c>
-      <c r="B18" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="45">
-        <v>10</v>
-      </c>
-      <c r="D18" s="45">
-        <v>5614</v>
-      </c>
-      <c r="E18" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="F18" s="45">
-        <v>616026</v>
-      </c>
-      <c r="G18" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="H18" s="45">
-        <v>10</v>
-      </c>
-      <c r="I18" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" s="45">
-        <v>0</v>
-      </c>
-      <c r="K18" s="47" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" s="18" customFormat="1">
-      <c r="A19" s="52">
-        <v>151362092</v>
-      </c>
-      <c r="B19" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="49">
-        <v>10</v>
-      </c>
-      <c r="D19" s="49">
-        <v>5614</v>
-      </c>
-      <c r="E19" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="F19" s="49">
-        <v>616026</v>
-      </c>
-      <c r="G19" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="H19" s="49">
-        <v>10</v>
-      </c>
-      <c r="I19" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" s="49">
-        <v>0</v>
-      </c>
-      <c r="K19" s="51" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" s="18" customFormat="1">
-      <c r="A20" s="16"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="28"/>
-    </row>
-    <row r="21" spans="1:13" s="18" customFormat="1">
-      <c r="A21" s="11">
-        <v>151338133</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="12">
-        <v>70</v>
-      </c>
-      <c r="D21" s="15">
-        <v>6521</v>
-      </c>
-      <c r="E21" s="14">
-        <v>45077</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H21" s="15">
-        <v>20</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="15">
-        <v>0</v>
-      </c>
-      <c r="K21" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="M22" s="18"/>
-    </row>
-    <row r="23" spans="1:13" s="18" customFormat="1" ht="13.8" customHeight="1">
-      <c r="A23" s="23">
-        <v>151357107</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="19">
-        <v>70</v>
-      </c>
-      <c r="D23" s="19">
-        <v>4048</v>
-      </c>
-      <c r="E23" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="F23" s="19">
-        <v>630059</v>
-      </c>
-      <c r="G23" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="H23" s="19">
-        <v>10</v>
-      </c>
-      <c r="I23" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" s="19">
-        <v>0</v>
-      </c>
-      <c r="K23" s="19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="M24" s="18"/>
-    </row>
-    <row r="25" spans="1:13" s="18" customFormat="1">
-      <c r="A25" s="16">
-        <v>151357107</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="19">
-        <v>60</v>
-      </c>
-      <c r="D25" s="32">
-        <v>5738</v>
-      </c>
-      <c r="E25" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="F25" s="23">
-        <v>632215</v>
-      </c>
-      <c r="G25" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="H25" s="19">
-        <v>10</v>
-      </c>
-      <c r="I25" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="J25" s="19">
-        <v>0</v>
-      </c>
-      <c r="K25" s="23" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="12" customHeight="1">
-      <c r="A26" s="16"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="16"/>
-      <c r="M26" s="18"/>
-    </row>
-    <row r="27" spans="1:13" ht="11.4" customHeight="1">
-      <c r="A27" s="16">
-        <v>151110116</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="5">
-        <v>60</v>
-      </c>
-      <c r="D27" s="4">
-        <v>3450</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" s="4">
-        <v>634355</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H27" s="4">
-        <v>10</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J27" s="4">
-        <v>10</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="M27" s="18"/>
-    </row>
-    <row r="28" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="10"/>
-      <c r="M28" s="18"/>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="12">
-        <v>151008992</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="12">
-        <v>20</v>
-      </c>
-      <c r="D29" s="17">
-        <v>4726</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" s="12">
-        <v>635655</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H29" s="12">
-        <v>10</v>
-      </c>
-      <c r="I29" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="J29" s="12">
-        <v>0</v>
-      </c>
-      <c r="K29" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M29" s="18"/>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="M30" s="18"/>
-    </row>
-    <row r="31" spans="1:13" s="18" customFormat="1">
-      <c r="A31" s="16">
-        <v>151357107</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="19">
-        <v>50</v>
-      </c>
-      <c r="D31" s="20">
-        <v>2818</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="F31" s="23">
-        <v>635656</v>
-      </c>
-      <c r="G31" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="H31" s="19">
-        <v>30</v>
-      </c>
-      <c r="I31" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="J31" s="19">
-        <v>0</v>
-      </c>
-      <c r="K31" s="19" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="M32" s="18"/>
-    </row>
-    <row r="33" spans="1:11" s="18" customFormat="1">
-      <c r="A33" s="11">
-        <v>151338133</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="12">
-        <v>40</v>
-      </c>
-      <c r="D33" s="36">
-        <v>3555</v>
-      </c>
-      <c r="E33" s="30">
-        <v>45077</v>
-      </c>
-      <c r="F33" s="11">
-        <v>646872</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H33" s="12">
-        <v>10</v>
-      </c>
-      <c r="I33" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J33" s="12">
-        <v>0</v>
-      </c>
-      <c r="K33" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="24"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="16"/>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="16">
-        <v>151110116</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="5">
-        <v>40</v>
-      </c>
-      <c r="D35" s="8">
-        <v>112</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H35" s="10">
-        <v>50</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J35" s="10">
-        <v>0</v>
-      </c>
-      <c r="K35" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="11">
-        <v>151338133</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="12">
-        <v>90</v>
-      </c>
-      <c r="D37" s="13">
-        <v>3510</v>
-      </c>
-      <c r="E37" s="14">
-        <v>45077</v>
-      </c>
-      <c r="F37" s="12">
-        <v>663091</v>
-      </c>
-      <c r="G37" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="H37" s="15">
-        <v>10</v>
-      </c>
-      <c r="I37" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J37" s="15">
-        <v>0</v>
-      </c>
-      <c r="K37" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="11">
-        <v>151338133</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" s="12">
-        <v>80</v>
-      </c>
-      <c r="D39" s="13">
-        <v>5130</v>
-      </c>
-      <c r="E39" s="14">
-        <v>45077</v>
-      </c>
-      <c r="F39" s="12">
-        <v>663092</v>
-      </c>
-      <c r="G39" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="H39" s="15">
-        <v>10</v>
-      </c>
-      <c r="I39" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J39" s="15">
-        <v>0</v>
-      </c>
-      <c r="K39" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-    </row>
-    <row r="41" spans="1:11" s="18" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A41" s="11">
-        <v>151330034</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" s="12">
-        <v>60</v>
-      </c>
-      <c r="D41" s="13">
-        <v>6615</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F41" s="12">
-        <v>663093</v>
-      </c>
-      <c r="G41" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="H41" s="15">
-        <v>10</v>
-      </c>
-      <c r="I41" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J41" s="15">
-        <v>0</v>
-      </c>
-      <c r="K41" s="15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-    </row>
-    <row r="43" spans="1:11" s="18" customFormat="1">
-      <c r="A43" s="11">
-        <v>151338133</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C43" s="12">
-        <v>30</v>
-      </c>
-      <c r="D43" s="13">
-        <v>6000</v>
-      </c>
-      <c r="E43" s="30">
-        <v>45077</v>
-      </c>
-      <c r="F43" s="12">
-        <v>668330</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H43" s="15">
-        <v>15</v>
-      </c>
-      <c r="I43" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J43" s="15">
-        <v>15</v>
-      </c>
-      <c r="K43" s="14">
-        <v>45077</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" s="18" customFormat="1">
-      <c r="A44" s="24"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="28"/>
-      <c r="K44" s="28"/>
-    </row>
-    <row r="45" spans="1:11" s="18" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A45" s="11">
-        <v>151353543</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C45" s="12">
-        <v>10</v>
-      </c>
-      <c r="D45" s="13">
-        <v>9703</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="F45" s="11">
-        <v>681149</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="H45" s="15">
-        <v>2</v>
-      </c>
-      <c r="I45" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J45" s="15">
-        <v>0</v>
-      </c>
-      <c r="K45" s="14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-    </row>
-    <row r="47" spans="1:11" s="18" customFormat="1">
-      <c r="A47" s="16">
-        <v>151357107</v>
-      </c>
-      <c r="B47" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" s="19">
-        <v>30</v>
-      </c>
-      <c r="D47" s="27">
-        <v>1908</v>
-      </c>
-      <c r="E47" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="F47" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G47" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H47" s="28">
-        <v>20</v>
-      </c>
-      <c r="I47" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="J47" s="28">
-        <v>0</v>
-      </c>
-      <c r="K47" s="28" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" s="18" customFormat="1">
-      <c r="A48" s="24"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="26"/>
-      <c r="J48" s="28"/>
-      <c r="K48" s="28"/>
-    </row>
-    <row r="49" spans="1:11" s="18" customFormat="1">
-      <c r="A49" s="11">
-        <v>151330034</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C49" s="12">
-        <v>20</v>
-      </c>
-      <c r="D49" s="13">
-        <v>8463</v>
-      </c>
-      <c r="E49" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F49" s="11">
-        <v>687349</v>
-      </c>
-      <c r="G49" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="H49" s="15">
-        <v>25</v>
-      </c>
-      <c r="I49" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J49" s="15">
-        <v>0</v>
-      </c>
-      <c r="K49" s="15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" s="18" customFormat="1">
-      <c r="A50" s="23"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="38"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="28"/>
-      <c r="K50" s="28"/>
-    </row>
-    <row r="51" spans="1:11" s="18" customFormat="1">
-      <c r="A51" s="11">
-        <v>151242082</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C51" s="12">
-        <v>10</v>
-      </c>
-      <c r="D51" s="13">
-        <v>1600</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="F51" s="11">
-        <v>691660</v>
-      </c>
-      <c r="G51" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="H51" s="15">
-        <v>1</v>
-      </c>
-      <c r="I51" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J51" s="15">
-        <v>0</v>
-      </c>
-      <c r="K51" s="15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-    </row>
-    <row r="53" spans="1:11" s="18" customFormat="1">
-      <c r="A53" s="16">
-        <v>151357107</v>
-      </c>
-      <c r="B53" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C53" s="19">
-        <v>20</v>
-      </c>
-      <c r="D53" s="27">
-        <v>565</v>
-      </c>
-      <c r="E53" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="F53" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G53" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="H53" s="28">
-        <v>150</v>
-      </c>
-      <c r="I53" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="J53" s="28">
-        <v>10</v>
-      </c>
-      <c r="K53" s="28">
-        <v>2208.2022999999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="10"/>
-      <c r="K54" s="10"/>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="29">
-        <v>151264212</v>
-      </c>
-      <c r="B55" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C55" s="29">
-        <v>10</v>
-      </c>
-      <c r="D55" s="39">
-        <v>10710</v>
-      </c>
-      <c r="E55" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="F55" s="29">
-        <v>704681</v>
-      </c>
-      <c r="G55" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="H55" s="41">
-        <v>1</v>
-      </c>
-      <c r="I55" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="J55" s="41">
-        <v>0</v>
-      </c>
-      <c r="K55" s="41" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="38"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="10"/>
-      <c r="K56" s="10"/>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D57" s="8">
-        <v>4995</v>
-      </c>
-      <c r="E57" s="9">
-        <v>44223</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H57" s="10">
-        <v>2</v>
-      </c>
-      <c r="I57" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J57" s="10">
-        <v>0</v>
-      </c>
-      <c r="K57" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10"/>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D59" s="8">
-        <v>4245</v>
-      </c>
-      <c r="E59" s="9">
-        <v>44223</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H59" s="10">
-        <v>2</v>
-      </c>
-      <c r="I59" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J59" s="10">
-        <v>0</v>
-      </c>
-      <c r="K59" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="10"/>
-    </row>
-    <row r="61" spans="1:11" s="18" customFormat="1">
-      <c r="A61" s="16">
-        <v>151357107</v>
-      </c>
-      <c r="B61" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C61" s="19">
-        <v>10</v>
-      </c>
-      <c r="D61" s="27">
-        <v>1896</v>
-      </c>
-      <c r="E61" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="F61" s="19">
-        <v>716663</v>
-      </c>
-      <c r="G61" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H61" s="28">
-        <v>10</v>
-      </c>
-      <c r="I61" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="J61" s="28">
-        <v>0</v>
-      </c>
-      <c r="K61" s="28" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="10"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="10"/>
-      <c r="K62" s="10"/>
-    </row>
-    <row r="63" spans="1:11" s="18" customFormat="1">
-      <c r="A63" s="42">
-        <v>151350196</v>
-      </c>
-      <c r="B63" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="C63" s="42">
-        <v>10</v>
-      </c>
-      <c r="D63" s="42">
-        <v>45000</v>
-      </c>
-      <c r="E63" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="F63" s="42">
-        <v>719031</v>
-      </c>
-      <c r="G63" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="H63" s="43">
-        <v>2</v>
-      </c>
-      <c r="I63" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="J63" s="43">
-        <v>2</v>
-      </c>
-      <c r="K63" s="43" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="A64" s="16"/>
-      <c r="B64" s="29"/>
-      <c r="C64" s="29"/>
-      <c r="D64" s="29"/>
-      <c r="E64" s="29"/>
-      <c r="F64" s="29"/>
-      <c r="G64" s="29"/>
-      <c r="H64" s="41"/>
-      <c r="I64" s="29"/>
-      <c r="J64" s="41"/>
-      <c r="K64" s="41"/>
-    </row>
-    <row r="65" spans="1:11" s="18" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A65" s="16">
-        <v>151332508</v>
-      </c>
-      <c r="B65" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C65" s="19">
-        <v>10</v>
-      </c>
-      <c r="D65" s="32">
-        <v>9999</v>
-      </c>
-      <c r="E65" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="F65" s="23">
-        <v>719381</v>
-      </c>
-      <c r="G65" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="H65" s="19">
-        <v>10</v>
-      </c>
-      <c r="I65" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="J65" s="19">
-        <v>0</v>
-      </c>
-      <c r="K65" s="23" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="16"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="33"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="16"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-      <c r="K66" s="16"/>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="11">
-        <v>151341902</v>
-      </c>
-      <c r="B67" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C67" s="37">
-        <v>10</v>
-      </c>
-      <c r="D67" s="37">
-        <v>6800</v>
-      </c>
-      <c r="E67" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="F67" s="37">
-        <v>720138</v>
-      </c>
-      <c r="G67" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="H67" s="37">
-        <v>3</v>
-      </c>
-      <c r="I67" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="J67" s="37">
-        <v>0</v>
-      </c>
-      <c r="K67" s="37" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
-      <c r="K68" s="5"/>
-    </row>
-    <row r="69" spans="1:11" s="18" customFormat="1">
-      <c r="A69" s="11">
-        <v>151343138</v>
-      </c>
-      <c r="B69" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C69" s="12">
-        <v>10</v>
-      </c>
-      <c r="D69" s="12">
-        <v>2490</v>
-      </c>
-      <c r="E69" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="F69" s="11">
-        <v>724214</v>
-      </c>
-      <c r="G69" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H69" s="12">
-        <v>5</v>
-      </c>
-      <c r="I69" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J69" s="12">
-        <v>2</v>
-      </c>
-      <c r="K69" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
-      <c r="K70" s="5"/>
-    </row>
-    <row r="71" spans="1:11">
-      <c r="A71" s="5">
-        <v>16063532</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C71" s="5">
-        <v>10</v>
-      </c>
-      <c r="D71" s="5">
-        <v>2900</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F71" s="5">
-        <v>725828</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H71" s="5">
-        <v>10</v>
-      </c>
-      <c r="I71" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J71" s="5">
-        <v>0</v>
-      </c>
-      <c r="K71" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
-      <c r="K72" s="5"/>
-    </row>
-    <row r="73" spans="1:11" s="18" customFormat="1">
-      <c r="A73" s="23">
-        <v>151315311</v>
-      </c>
-      <c r="B73" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C73" s="19">
-        <v>10</v>
-      </c>
-      <c r="D73" s="19">
-        <v>100</v>
-      </c>
-      <c r="E73" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="F73" s="19">
-        <v>728488</v>
-      </c>
-      <c r="G73" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="H73" s="19">
-        <v>10</v>
-      </c>
-      <c r="I73" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="J73" s="19">
-        <v>0</v>
-      </c>
-      <c r="K73" s="19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M73"/>
   <sheetViews>
@@ -4917,7 +2023,7 @@
     <col min="16135" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="26.4">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="26.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4950,7 +2056,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:11">
       <c r="A2" s="4">
         <v>151007890</v>
       </c>
@@ -4981,7 +2087,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:11">
       <c r="A3" s="4">
         <v>151040504</v>
       </c>
@@ -5012,7 +2118,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:11">
       <c r="A4" s="5">
         <v>151058491</v>
       </c>
@@ -5043,7 +2149,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:11">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -5056,7 +2162,7 @@
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:11">
       <c r="A6" s="11">
         <v>151265479</v>
       </c>
@@ -5091,7 +2197,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:11">
       <c r="A7" s="16"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -5104,7 +2210,7 @@
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
     </row>
-    <row r="8" spans="1:12" s="18" customFormat="1">
+    <row r="8" spans="1:11" s="18" customFormat="1">
       <c r="A8" s="23">
         <v>151357107</v>
       </c>
@@ -5133,17 +2239,13 @@
         <v>12</v>
       </c>
       <c r="J8" s="19">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K8" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="L8" s="18">
-        <f>J8-16</f>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="16"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -5156,42 +2258,42 @@
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:12" s="18" customFormat="1">
-      <c r="A10" s="16">
-        <v>151357107</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="19">
-        <v>80</v>
-      </c>
-      <c r="D10" s="19">
+    <row r="10" spans="1:11" s="18" customFormat="1">
+      <c r="A10" s="54">
+        <v>151364604</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="52">
+        <v>10</v>
+      </c>
+      <c r="D10" s="52">
         <v>4831</v>
       </c>
-      <c r="E10" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="F10" s="19">
+      <c r="E10" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" s="52">
         <v>615698</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="19">
-        <v>10</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="19">
-        <v>0</v>
-      </c>
-      <c r="K10" s="19" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="H10" s="52">
+        <v>10</v>
+      </c>
+      <c r="I10" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="52">
+        <v>10</v>
+      </c>
+      <c r="K10" s="52" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="24"/>
       <c r="B11" s="24"/>
       <c r="C11" s="25"/>
@@ -5204,7 +2306,7 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:11">
       <c r="A12" s="16">
         <v>151296157</v>
       </c>
@@ -5239,7 +2341,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:11">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -5254,7 +2356,7 @@
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:11">
       <c r="A14" s="16">
         <v>151296157</v>
       </c>
@@ -5289,7 +2391,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:11">
       <c r="A15" s="24"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -5302,7 +2404,7 @@
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:11">
       <c r="A16" s="23">
         <v>151335926</v>
       </c>
@@ -5362,7 +2464,7 @@
         <v>5614</v>
       </c>
       <c r="E18" s="46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F18" s="45">
         <v>616026</v>
@@ -5377,45 +2479,45 @@
         <v>12</v>
       </c>
       <c r="J18" s="45">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K18" s="47" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="18" customFormat="1">
-      <c r="A19" s="48">
+      <c r="A19" s="51">
         <v>151362092</v>
       </c>
-      <c r="B19" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="49">
-        <v>10</v>
-      </c>
-      <c r="D19" s="49">
+      <c r="B19" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="48">
+        <v>10</v>
+      </c>
+      <c r="D19" s="48">
         <v>5614</v>
       </c>
-      <c r="E19" s="50" t="s">
+      <c r="E19" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="48">
+        <v>616026</v>
+      </c>
+      <c r="G19" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" s="48">
+        <v>10</v>
+      </c>
+      <c r="I19" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="48">
+        <v>0</v>
+      </c>
+      <c r="K19" s="50" t="s">
         <v>102</v>
-      </c>
-      <c r="F19" s="49">
-        <v>616026</v>
-      </c>
-      <c r="G19" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="H19" s="49">
-        <v>10</v>
-      </c>
-      <c r="I19" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" s="49">
-        <v>10</v>
-      </c>
-      <c r="K19" s="51" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="18" customFormat="1">
@@ -6726,6 +3828,2910 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="13.109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="10" style="7" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="45.5546875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="17.21875" style="7" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" style="7" customWidth="1"/>
+    <col min="12" max="245" width="8.88671875" style="7"/>
+    <col min="246" max="246" width="20.5546875" style="7" customWidth="1"/>
+    <col min="247" max="247" width="13.109375" style="7" customWidth="1"/>
+    <col min="248" max="248" width="8.88671875" style="7"/>
+    <col min="249" max="249" width="14.5546875" style="7" customWidth="1"/>
+    <col min="250" max="250" width="14.44140625" style="7" customWidth="1"/>
+    <col min="251" max="251" width="8.88671875" style="7" customWidth="1"/>
+    <col min="252" max="252" width="19.109375" style="7" customWidth="1"/>
+    <col min="253" max="253" width="12.33203125" style="7" customWidth="1"/>
+    <col min="254" max="254" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="255" max="255" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="256" max="256" width="10.33203125" style="7" customWidth="1"/>
+    <col min="257" max="257" width="8" style="7" customWidth="1"/>
+    <col min="258" max="259" width="14.33203125" style="7" customWidth="1"/>
+    <col min="260" max="260" width="6.5546875" style="7" customWidth="1"/>
+    <col min="261" max="261" width="10.109375" style="7" customWidth="1"/>
+    <col min="262" max="262" width="7.5546875" style="7" customWidth="1"/>
+    <col min="263" max="501" width="8.88671875" style="7"/>
+    <col min="502" max="502" width="20.5546875" style="7" customWidth="1"/>
+    <col min="503" max="503" width="13.109375" style="7" customWidth="1"/>
+    <col min="504" max="504" width="8.88671875" style="7"/>
+    <col min="505" max="505" width="14.5546875" style="7" customWidth="1"/>
+    <col min="506" max="506" width="14.44140625" style="7" customWidth="1"/>
+    <col min="507" max="507" width="8.88671875" style="7" customWidth="1"/>
+    <col min="508" max="508" width="19.109375" style="7" customWidth="1"/>
+    <col min="509" max="509" width="12.33203125" style="7" customWidth="1"/>
+    <col min="510" max="510" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="511" max="511" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="512" max="512" width="10.33203125" style="7" customWidth="1"/>
+    <col min="513" max="513" width="8" style="7" customWidth="1"/>
+    <col min="514" max="515" width="14.33203125" style="7" customWidth="1"/>
+    <col min="516" max="516" width="6.5546875" style="7" customWidth="1"/>
+    <col min="517" max="517" width="10.109375" style="7" customWidth="1"/>
+    <col min="518" max="518" width="7.5546875" style="7" customWidth="1"/>
+    <col min="519" max="757" width="8.88671875" style="7"/>
+    <col min="758" max="758" width="20.5546875" style="7" customWidth="1"/>
+    <col min="759" max="759" width="13.109375" style="7" customWidth="1"/>
+    <col min="760" max="760" width="8.88671875" style="7"/>
+    <col min="761" max="761" width="14.5546875" style="7" customWidth="1"/>
+    <col min="762" max="762" width="14.44140625" style="7" customWidth="1"/>
+    <col min="763" max="763" width="8.88671875" style="7" customWidth="1"/>
+    <col min="764" max="764" width="19.109375" style="7" customWidth="1"/>
+    <col min="765" max="765" width="12.33203125" style="7" customWidth="1"/>
+    <col min="766" max="766" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="767" max="767" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="768" max="768" width="10.33203125" style="7" customWidth="1"/>
+    <col min="769" max="769" width="8" style="7" customWidth="1"/>
+    <col min="770" max="771" width="14.33203125" style="7" customWidth="1"/>
+    <col min="772" max="772" width="6.5546875" style="7" customWidth="1"/>
+    <col min="773" max="773" width="10.109375" style="7" customWidth="1"/>
+    <col min="774" max="774" width="7.5546875" style="7" customWidth="1"/>
+    <col min="775" max="1013" width="8.88671875" style="7"/>
+    <col min="1014" max="1014" width="20.5546875" style="7" customWidth="1"/>
+    <col min="1015" max="1015" width="13.109375" style="7" customWidth="1"/>
+    <col min="1016" max="1016" width="8.88671875" style="7"/>
+    <col min="1017" max="1017" width="14.5546875" style="7" customWidth="1"/>
+    <col min="1018" max="1018" width="14.44140625" style="7" customWidth="1"/>
+    <col min="1019" max="1019" width="8.88671875" style="7" customWidth="1"/>
+    <col min="1020" max="1020" width="19.109375" style="7" customWidth="1"/>
+    <col min="1021" max="1021" width="12.33203125" style="7" customWidth="1"/>
+    <col min="1022" max="1022" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1023" max="1023" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1024" max="1024" width="10.33203125" style="7" customWidth="1"/>
+    <col min="1025" max="1025" width="8" style="7" customWidth="1"/>
+    <col min="1026" max="1027" width="14.33203125" style="7" customWidth="1"/>
+    <col min="1028" max="1028" width="6.5546875" style="7" customWidth="1"/>
+    <col min="1029" max="1029" width="10.109375" style="7" customWidth="1"/>
+    <col min="1030" max="1030" width="7.5546875" style="7" customWidth="1"/>
+    <col min="1031" max="1269" width="8.88671875" style="7"/>
+    <col min="1270" max="1270" width="20.5546875" style="7" customWidth="1"/>
+    <col min="1271" max="1271" width="13.109375" style="7" customWidth="1"/>
+    <col min="1272" max="1272" width="8.88671875" style="7"/>
+    <col min="1273" max="1273" width="14.5546875" style="7" customWidth="1"/>
+    <col min="1274" max="1274" width="14.44140625" style="7" customWidth="1"/>
+    <col min="1275" max="1275" width="8.88671875" style="7" customWidth="1"/>
+    <col min="1276" max="1276" width="19.109375" style="7" customWidth="1"/>
+    <col min="1277" max="1277" width="12.33203125" style="7" customWidth="1"/>
+    <col min="1278" max="1278" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1279" max="1279" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1280" max="1280" width="10.33203125" style="7" customWidth="1"/>
+    <col min="1281" max="1281" width="8" style="7" customWidth="1"/>
+    <col min="1282" max="1283" width="14.33203125" style="7" customWidth="1"/>
+    <col min="1284" max="1284" width="6.5546875" style="7" customWidth="1"/>
+    <col min="1285" max="1285" width="10.109375" style="7" customWidth="1"/>
+    <col min="1286" max="1286" width="7.5546875" style="7" customWidth="1"/>
+    <col min="1287" max="1525" width="8.88671875" style="7"/>
+    <col min="1526" max="1526" width="20.5546875" style="7" customWidth="1"/>
+    <col min="1527" max="1527" width="13.109375" style="7" customWidth="1"/>
+    <col min="1528" max="1528" width="8.88671875" style="7"/>
+    <col min="1529" max="1529" width="14.5546875" style="7" customWidth="1"/>
+    <col min="1530" max="1530" width="14.44140625" style="7" customWidth="1"/>
+    <col min="1531" max="1531" width="8.88671875" style="7" customWidth="1"/>
+    <col min="1532" max="1532" width="19.109375" style="7" customWidth="1"/>
+    <col min="1533" max="1533" width="12.33203125" style="7" customWidth="1"/>
+    <col min="1534" max="1534" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1535" max="1535" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1536" max="1536" width="10.33203125" style="7" customWidth="1"/>
+    <col min="1537" max="1537" width="8" style="7" customWidth="1"/>
+    <col min="1538" max="1539" width="14.33203125" style="7" customWidth="1"/>
+    <col min="1540" max="1540" width="6.5546875" style="7" customWidth="1"/>
+    <col min="1541" max="1541" width="10.109375" style="7" customWidth="1"/>
+    <col min="1542" max="1542" width="7.5546875" style="7" customWidth="1"/>
+    <col min="1543" max="1781" width="8.88671875" style="7"/>
+    <col min="1782" max="1782" width="20.5546875" style="7" customWidth="1"/>
+    <col min="1783" max="1783" width="13.109375" style="7" customWidth="1"/>
+    <col min="1784" max="1784" width="8.88671875" style="7"/>
+    <col min="1785" max="1785" width="14.5546875" style="7" customWidth="1"/>
+    <col min="1786" max="1786" width="14.44140625" style="7" customWidth="1"/>
+    <col min="1787" max="1787" width="8.88671875" style="7" customWidth="1"/>
+    <col min="1788" max="1788" width="19.109375" style="7" customWidth="1"/>
+    <col min="1789" max="1789" width="12.33203125" style="7" customWidth="1"/>
+    <col min="1790" max="1790" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1791" max="1791" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1792" max="1792" width="10.33203125" style="7" customWidth="1"/>
+    <col min="1793" max="1793" width="8" style="7" customWidth="1"/>
+    <col min="1794" max="1795" width="14.33203125" style="7" customWidth="1"/>
+    <col min="1796" max="1796" width="6.5546875" style="7" customWidth="1"/>
+    <col min="1797" max="1797" width="10.109375" style="7" customWidth="1"/>
+    <col min="1798" max="1798" width="7.5546875" style="7" customWidth="1"/>
+    <col min="1799" max="2037" width="8.88671875" style="7"/>
+    <col min="2038" max="2038" width="20.5546875" style="7" customWidth="1"/>
+    <col min="2039" max="2039" width="13.109375" style="7" customWidth="1"/>
+    <col min="2040" max="2040" width="8.88671875" style="7"/>
+    <col min="2041" max="2041" width="14.5546875" style="7" customWidth="1"/>
+    <col min="2042" max="2042" width="14.44140625" style="7" customWidth="1"/>
+    <col min="2043" max="2043" width="8.88671875" style="7" customWidth="1"/>
+    <col min="2044" max="2044" width="19.109375" style="7" customWidth="1"/>
+    <col min="2045" max="2045" width="12.33203125" style="7" customWidth="1"/>
+    <col min="2046" max="2046" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2047" max="2047" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2048" max="2048" width="10.33203125" style="7" customWidth="1"/>
+    <col min="2049" max="2049" width="8" style="7" customWidth="1"/>
+    <col min="2050" max="2051" width="14.33203125" style="7" customWidth="1"/>
+    <col min="2052" max="2052" width="6.5546875" style="7" customWidth="1"/>
+    <col min="2053" max="2053" width="10.109375" style="7" customWidth="1"/>
+    <col min="2054" max="2054" width="7.5546875" style="7" customWidth="1"/>
+    <col min="2055" max="2293" width="8.88671875" style="7"/>
+    <col min="2294" max="2294" width="20.5546875" style="7" customWidth="1"/>
+    <col min="2295" max="2295" width="13.109375" style="7" customWidth="1"/>
+    <col min="2296" max="2296" width="8.88671875" style="7"/>
+    <col min="2297" max="2297" width="14.5546875" style="7" customWidth="1"/>
+    <col min="2298" max="2298" width="14.44140625" style="7" customWidth="1"/>
+    <col min="2299" max="2299" width="8.88671875" style="7" customWidth="1"/>
+    <col min="2300" max="2300" width="19.109375" style="7" customWidth="1"/>
+    <col min="2301" max="2301" width="12.33203125" style="7" customWidth="1"/>
+    <col min="2302" max="2302" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2303" max="2303" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2304" max="2304" width="10.33203125" style="7" customWidth="1"/>
+    <col min="2305" max="2305" width="8" style="7" customWidth="1"/>
+    <col min="2306" max="2307" width="14.33203125" style="7" customWidth="1"/>
+    <col min="2308" max="2308" width="6.5546875" style="7" customWidth="1"/>
+    <col min="2309" max="2309" width="10.109375" style="7" customWidth="1"/>
+    <col min="2310" max="2310" width="7.5546875" style="7" customWidth="1"/>
+    <col min="2311" max="2549" width="8.88671875" style="7"/>
+    <col min="2550" max="2550" width="20.5546875" style="7" customWidth="1"/>
+    <col min="2551" max="2551" width="13.109375" style="7" customWidth="1"/>
+    <col min="2552" max="2552" width="8.88671875" style="7"/>
+    <col min="2553" max="2553" width="14.5546875" style="7" customWidth="1"/>
+    <col min="2554" max="2554" width="14.44140625" style="7" customWidth="1"/>
+    <col min="2555" max="2555" width="8.88671875" style="7" customWidth="1"/>
+    <col min="2556" max="2556" width="19.109375" style="7" customWidth="1"/>
+    <col min="2557" max="2557" width="12.33203125" style="7" customWidth="1"/>
+    <col min="2558" max="2558" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2559" max="2559" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2560" max="2560" width="10.33203125" style="7" customWidth="1"/>
+    <col min="2561" max="2561" width="8" style="7" customWidth="1"/>
+    <col min="2562" max="2563" width="14.33203125" style="7" customWidth="1"/>
+    <col min="2564" max="2564" width="6.5546875" style="7" customWidth="1"/>
+    <col min="2565" max="2565" width="10.109375" style="7" customWidth="1"/>
+    <col min="2566" max="2566" width="7.5546875" style="7" customWidth="1"/>
+    <col min="2567" max="2805" width="8.88671875" style="7"/>
+    <col min="2806" max="2806" width="20.5546875" style="7" customWidth="1"/>
+    <col min="2807" max="2807" width="13.109375" style="7" customWidth="1"/>
+    <col min="2808" max="2808" width="8.88671875" style="7"/>
+    <col min="2809" max="2809" width="14.5546875" style="7" customWidth="1"/>
+    <col min="2810" max="2810" width="14.44140625" style="7" customWidth="1"/>
+    <col min="2811" max="2811" width="8.88671875" style="7" customWidth="1"/>
+    <col min="2812" max="2812" width="19.109375" style="7" customWidth="1"/>
+    <col min="2813" max="2813" width="12.33203125" style="7" customWidth="1"/>
+    <col min="2814" max="2814" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2815" max="2815" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2816" max="2816" width="10.33203125" style="7" customWidth="1"/>
+    <col min="2817" max="2817" width="8" style="7" customWidth="1"/>
+    <col min="2818" max="2819" width="14.33203125" style="7" customWidth="1"/>
+    <col min="2820" max="2820" width="6.5546875" style="7" customWidth="1"/>
+    <col min="2821" max="2821" width="10.109375" style="7" customWidth="1"/>
+    <col min="2822" max="2822" width="7.5546875" style="7" customWidth="1"/>
+    <col min="2823" max="3061" width="8.88671875" style="7"/>
+    <col min="3062" max="3062" width="20.5546875" style="7" customWidth="1"/>
+    <col min="3063" max="3063" width="13.109375" style="7" customWidth="1"/>
+    <col min="3064" max="3064" width="8.88671875" style="7"/>
+    <col min="3065" max="3065" width="14.5546875" style="7" customWidth="1"/>
+    <col min="3066" max="3066" width="14.44140625" style="7" customWidth="1"/>
+    <col min="3067" max="3067" width="8.88671875" style="7" customWidth="1"/>
+    <col min="3068" max="3068" width="19.109375" style="7" customWidth="1"/>
+    <col min="3069" max="3069" width="12.33203125" style="7" customWidth="1"/>
+    <col min="3070" max="3070" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3071" max="3071" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3072" max="3072" width="10.33203125" style="7" customWidth="1"/>
+    <col min="3073" max="3073" width="8" style="7" customWidth="1"/>
+    <col min="3074" max="3075" width="14.33203125" style="7" customWidth="1"/>
+    <col min="3076" max="3076" width="6.5546875" style="7" customWidth="1"/>
+    <col min="3077" max="3077" width="10.109375" style="7" customWidth="1"/>
+    <col min="3078" max="3078" width="7.5546875" style="7" customWidth="1"/>
+    <col min="3079" max="3317" width="8.88671875" style="7"/>
+    <col min="3318" max="3318" width="20.5546875" style="7" customWidth="1"/>
+    <col min="3319" max="3319" width="13.109375" style="7" customWidth="1"/>
+    <col min="3320" max="3320" width="8.88671875" style="7"/>
+    <col min="3321" max="3321" width="14.5546875" style="7" customWidth="1"/>
+    <col min="3322" max="3322" width="14.44140625" style="7" customWidth="1"/>
+    <col min="3323" max="3323" width="8.88671875" style="7" customWidth="1"/>
+    <col min="3324" max="3324" width="19.109375" style="7" customWidth="1"/>
+    <col min="3325" max="3325" width="12.33203125" style="7" customWidth="1"/>
+    <col min="3326" max="3326" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3327" max="3327" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3328" max="3328" width="10.33203125" style="7" customWidth="1"/>
+    <col min="3329" max="3329" width="8" style="7" customWidth="1"/>
+    <col min="3330" max="3331" width="14.33203125" style="7" customWidth="1"/>
+    <col min="3332" max="3332" width="6.5546875" style="7" customWidth="1"/>
+    <col min="3333" max="3333" width="10.109375" style="7" customWidth="1"/>
+    <col min="3334" max="3334" width="7.5546875" style="7" customWidth="1"/>
+    <col min="3335" max="3573" width="8.88671875" style="7"/>
+    <col min="3574" max="3574" width="20.5546875" style="7" customWidth="1"/>
+    <col min="3575" max="3575" width="13.109375" style="7" customWidth="1"/>
+    <col min="3576" max="3576" width="8.88671875" style="7"/>
+    <col min="3577" max="3577" width="14.5546875" style="7" customWidth="1"/>
+    <col min="3578" max="3578" width="14.44140625" style="7" customWidth="1"/>
+    <col min="3579" max="3579" width="8.88671875" style="7" customWidth="1"/>
+    <col min="3580" max="3580" width="19.109375" style="7" customWidth="1"/>
+    <col min="3581" max="3581" width="12.33203125" style="7" customWidth="1"/>
+    <col min="3582" max="3582" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3583" max="3583" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3584" max="3584" width="10.33203125" style="7" customWidth="1"/>
+    <col min="3585" max="3585" width="8" style="7" customWidth="1"/>
+    <col min="3586" max="3587" width="14.33203125" style="7" customWidth="1"/>
+    <col min="3588" max="3588" width="6.5546875" style="7" customWidth="1"/>
+    <col min="3589" max="3589" width="10.109375" style="7" customWidth="1"/>
+    <col min="3590" max="3590" width="7.5546875" style="7" customWidth="1"/>
+    <col min="3591" max="3829" width="8.88671875" style="7"/>
+    <col min="3830" max="3830" width="20.5546875" style="7" customWidth="1"/>
+    <col min="3831" max="3831" width="13.109375" style="7" customWidth="1"/>
+    <col min="3832" max="3832" width="8.88671875" style="7"/>
+    <col min="3833" max="3833" width="14.5546875" style="7" customWidth="1"/>
+    <col min="3834" max="3834" width="14.44140625" style="7" customWidth="1"/>
+    <col min="3835" max="3835" width="8.88671875" style="7" customWidth="1"/>
+    <col min="3836" max="3836" width="19.109375" style="7" customWidth="1"/>
+    <col min="3837" max="3837" width="12.33203125" style="7" customWidth="1"/>
+    <col min="3838" max="3838" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3839" max="3839" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3840" max="3840" width="10.33203125" style="7" customWidth="1"/>
+    <col min="3841" max="3841" width="8" style="7" customWidth="1"/>
+    <col min="3842" max="3843" width="14.33203125" style="7" customWidth="1"/>
+    <col min="3844" max="3844" width="6.5546875" style="7" customWidth="1"/>
+    <col min="3845" max="3845" width="10.109375" style="7" customWidth="1"/>
+    <col min="3846" max="3846" width="7.5546875" style="7" customWidth="1"/>
+    <col min="3847" max="4085" width="8.88671875" style="7"/>
+    <col min="4086" max="4086" width="20.5546875" style="7" customWidth="1"/>
+    <col min="4087" max="4087" width="13.109375" style="7" customWidth="1"/>
+    <col min="4088" max="4088" width="8.88671875" style="7"/>
+    <col min="4089" max="4089" width="14.5546875" style="7" customWidth="1"/>
+    <col min="4090" max="4090" width="14.44140625" style="7" customWidth="1"/>
+    <col min="4091" max="4091" width="8.88671875" style="7" customWidth="1"/>
+    <col min="4092" max="4092" width="19.109375" style="7" customWidth="1"/>
+    <col min="4093" max="4093" width="12.33203125" style="7" customWidth="1"/>
+    <col min="4094" max="4094" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4095" max="4095" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4096" max="4096" width="10.33203125" style="7" customWidth="1"/>
+    <col min="4097" max="4097" width="8" style="7" customWidth="1"/>
+    <col min="4098" max="4099" width="14.33203125" style="7" customWidth="1"/>
+    <col min="4100" max="4100" width="6.5546875" style="7" customWidth="1"/>
+    <col min="4101" max="4101" width="10.109375" style="7" customWidth="1"/>
+    <col min="4102" max="4102" width="7.5546875" style="7" customWidth="1"/>
+    <col min="4103" max="4341" width="8.88671875" style="7"/>
+    <col min="4342" max="4342" width="20.5546875" style="7" customWidth="1"/>
+    <col min="4343" max="4343" width="13.109375" style="7" customWidth="1"/>
+    <col min="4344" max="4344" width="8.88671875" style="7"/>
+    <col min="4345" max="4345" width="14.5546875" style="7" customWidth="1"/>
+    <col min="4346" max="4346" width="14.44140625" style="7" customWidth="1"/>
+    <col min="4347" max="4347" width="8.88671875" style="7" customWidth="1"/>
+    <col min="4348" max="4348" width="19.109375" style="7" customWidth="1"/>
+    <col min="4349" max="4349" width="12.33203125" style="7" customWidth="1"/>
+    <col min="4350" max="4350" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4351" max="4351" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4352" max="4352" width="10.33203125" style="7" customWidth="1"/>
+    <col min="4353" max="4353" width="8" style="7" customWidth="1"/>
+    <col min="4354" max="4355" width="14.33203125" style="7" customWidth="1"/>
+    <col min="4356" max="4356" width="6.5546875" style="7" customWidth="1"/>
+    <col min="4357" max="4357" width="10.109375" style="7" customWidth="1"/>
+    <col min="4358" max="4358" width="7.5546875" style="7" customWidth="1"/>
+    <col min="4359" max="4597" width="8.88671875" style="7"/>
+    <col min="4598" max="4598" width="20.5546875" style="7" customWidth="1"/>
+    <col min="4599" max="4599" width="13.109375" style="7" customWidth="1"/>
+    <col min="4600" max="4600" width="8.88671875" style="7"/>
+    <col min="4601" max="4601" width="14.5546875" style="7" customWidth="1"/>
+    <col min="4602" max="4602" width="14.44140625" style="7" customWidth="1"/>
+    <col min="4603" max="4603" width="8.88671875" style="7" customWidth="1"/>
+    <col min="4604" max="4604" width="19.109375" style="7" customWidth="1"/>
+    <col min="4605" max="4605" width="12.33203125" style="7" customWidth="1"/>
+    <col min="4606" max="4606" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4607" max="4607" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4608" max="4608" width="10.33203125" style="7" customWidth="1"/>
+    <col min="4609" max="4609" width="8" style="7" customWidth="1"/>
+    <col min="4610" max="4611" width="14.33203125" style="7" customWidth="1"/>
+    <col min="4612" max="4612" width="6.5546875" style="7" customWidth="1"/>
+    <col min="4613" max="4613" width="10.109375" style="7" customWidth="1"/>
+    <col min="4614" max="4614" width="7.5546875" style="7" customWidth="1"/>
+    <col min="4615" max="4853" width="8.88671875" style="7"/>
+    <col min="4854" max="4854" width="20.5546875" style="7" customWidth="1"/>
+    <col min="4855" max="4855" width="13.109375" style="7" customWidth="1"/>
+    <col min="4856" max="4856" width="8.88671875" style="7"/>
+    <col min="4857" max="4857" width="14.5546875" style="7" customWidth="1"/>
+    <col min="4858" max="4858" width="14.44140625" style="7" customWidth="1"/>
+    <col min="4859" max="4859" width="8.88671875" style="7" customWidth="1"/>
+    <col min="4860" max="4860" width="19.109375" style="7" customWidth="1"/>
+    <col min="4861" max="4861" width="12.33203125" style="7" customWidth="1"/>
+    <col min="4862" max="4862" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4863" max="4863" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4864" max="4864" width="10.33203125" style="7" customWidth="1"/>
+    <col min="4865" max="4865" width="8" style="7" customWidth="1"/>
+    <col min="4866" max="4867" width="14.33203125" style="7" customWidth="1"/>
+    <col min="4868" max="4868" width="6.5546875" style="7" customWidth="1"/>
+    <col min="4869" max="4869" width="10.109375" style="7" customWidth="1"/>
+    <col min="4870" max="4870" width="7.5546875" style="7" customWidth="1"/>
+    <col min="4871" max="5109" width="8.88671875" style="7"/>
+    <col min="5110" max="5110" width="20.5546875" style="7" customWidth="1"/>
+    <col min="5111" max="5111" width="13.109375" style="7" customWidth="1"/>
+    <col min="5112" max="5112" width="8.88671875" style="7"/>
+    <col min="5113" max="5113" width="14.5546875" style="7" customWidth="1"/>
+    <col min="5114" max="5114" width="14.44140625" style="7" customWidth="1"/>
+    <col min="5115" max="5115" width="8.88671875" style="7" customWidth="1"/>
+    <col min="5116" max="5116" width="19.109375" style="7" customWidth="1"/>
+    <col min="5117" max="5117" width="12.33203125" style="7" customWidth="1"/>
+    <col min="5118" max="5118" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5119" max="5119" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5120" max="5120" width="10.33203125" style="7" customWidth="1"/>
+    <col min="5121" max="5121" width="8" style="7" customWidth="1"/>
+    <col min="5122" max="5123" width="14.33203125" style="7" customWidth="1"/>
+    <col min="5124" max="5124" width="6.5546875" style="7" customWidth="1"/>
+    <col min="5125" max="5125" width="10.109375" style="7" customWidth="1"/>
+    <col min="5126" max="5126" width="7.5546875" style="7" customWidth="1"/>
+    <col min="5127" max="5365" width="8.88671875" style="7"/>
+    <col min="5366" max="5366" width="20.5546875" style="7" customWidth="1"/>
+    <col min="5367" max="5367" width="13.109375" style="7" customWidth="1"/>
+    <col min="5368" max="5368" width="8.88671875" style="7"/>
+    <col min="5369" max="5369" width="14.5546875" style="7" customWidth="1"/>
+    <col min="5370" max="5370" width="14.44140625" style="7" customWidth="1"/>
+    <col min="5371" max="5371" width="8.88671875" style="7" customWidth="1"/>
+    <col min="5372" max="5372" width="19.109375" style="7" customWidth="1"/>
+    <col min="5373" max="5373" width="12.33203125" style="7" customWidth="1"/>
+    <col min="5374" max="5374" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5375" max="5375" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5376" max="5376" width="10.33203125" style="7" customWidth="1"/>
+    <col min="5377" max="5377" width="8" style="7" customWidth="1"/>
+    <col min="5378" max="5379" width="14.33203125" style="7" customWidth="1"/>
+    <col min="5380" max="5380" width="6.5546875" style="7" customWidth="1"/>
+    <col min="5381" max="5381" width="10.109375" style="7" customWidth="1"/>
+    <col min="5382" max="5382" width="7.5546875" style="7" customWidth="1"/>
+    <col min="5383" max="5621" width="8.88671875" style="7"/>
+    <col min="5622" max="5622" width="20.5546875" style="7" customWidth="1"/>
+    <col min="5623" max="5623" width="13.109375" style="7" customWidth="1"/>
+    <col min="5624" max="5624" width="8.88671875" style="7"/>
+    <col min="5625" max="5625" width="14.5546875" style="7" customWidth="1"/>
+    <col min="5626" max="5626" width="14.44140625" style="7" customWidth="1"/>
+    <col min="5627" max="5627" width="8.88671875" style="7" customWidth="1"/>
+    <col min="5628" max="5628" width="19.109375" style="7" customWidth="1"/>
+    <col min="5629" max="5629" width="12.33203125" style="7" customWidth="1"/>
+    <col min="5630" max="5630" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5631" max="5631" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5632" max="5632" width="10.33203125" style="7" customWidth="1"/>
+    <col min="5633" max="5633" width="8" style="7" customWidth="1"/>
+    <col min="5634" max="5635" width="14.33203125" style="7" customWidth="1"/>
+    <col min="5636" max="5636" width="6.5546875" style="7" customWidth="1"/>
+    <col min="5637" max="5637" width="10.109375" style="7" customWidth="1"/>
+    <col min="5638" max="5638" width="7.5546875" style="7" customWidth="1"/>
+    <col min="5639" max="5877" width="8.88671875" style="7"/>
+    <col min="5878" max="5878" width="20.5546875" style="7" customWidth="1"/>
+    <col min="5879" max="5879" width="13.109375" style="7" customWidth="1"/>
+    <col min="5880" max="5880" width="8.88671875" style="7"/>
+    <col min="5881" max="5881" width="14.5546875" style="7" customWidth="1"/>
+    <col min="5882" max="5882" width="14.44140625" style="7" customWidth="1"/>
+    <col min="5883" max="5883" width="8.88671875" style="7" customWidth="1"/>
+    <col min="5884" max="5884" width="19.109375" style="7" customWidth="1"/>
+    <col min="5885" max="5885" width="12.33203125" style="7" customWidth="1"/>
+    <col min="5886" max="5886" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5887" max="5887" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5888" max="5888" width="10.33203125" style="7" customWidth="1"/>
+    <col min="5889" max="5889" width="8" style="7" customWidth="1"/>
+    <col min="5890" max="5891" width="14.33203125" style="7" customWidth="1"/>
+    <col min="5892" max="5892" width="6.5546875" style="7" customWidth="1"/>
+    <col min="5893" max="5893" width="10.109375" style="7" customWidth="1"/>
+    <col min="5894" max="5894" width="7.5546875" style="7" customWidth="1"/>
+    <col min="5895" max="6133" width="8.88671875" style="7"/>
+    <col min="6134" max="6134" width="20.5546875" style="7" customWidth="1"/>
+    <col min="6135" max="6135" width="13.109375" style="7" customWidth="1"/>
+    <col min="6136" max="6136" width="8.88671875" style="7"/>
+    <col min="6137" max="6137" width="14.5546875" style="7" customWidth="1"/>
+    <col min="6138" max="6138" width="14.44140625" style="7" customWidth="1"/>
+    <col min="6139" max="6139" width="8.88671875" style="7" customWidth="1"/>
+    <col min="6140" max="6140" width="19.109375" style="7" customWidth="1"/>
+    <col min="6141" max="6141" width="12.33203125" style="7" customWidth="1"/>
+    <col min="6142" max="6142" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6143" max="6143" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6144" max="6144" width="10.33203125" style="7" customWidth="1"/>
+    <col min="6145" max="6145" width="8" style="7" customWidth="1"/>
+    <col min="6146" max="6147" width="14.33203125" style="7" customWidth="1"/>
+    <col min="6148" max="6148" width="6.5546875" style="7" customWidth="1"/>
+    <col min="6149" max="6149" width="10.109375" style="7" customWidth="1"/>
+    <col min="6150" max="6150" width="7.5546875" style="7" customWidth="1"/>
+    <col min="6151" max="6389" width="8.88671875" style="7"/>
+    <col min="6390" max="6390" width="20.5546875" style="7" customWidth="1"/>
+    <col min="6391" max="6391" width="13.109375" style="7" customWidth="1"/>
+    <col min="6392" max="6392" width="8.88671875" style="7"/>
+    <col min="6393" max="6393" width="14.5546875" style="7" customWidth="1"/>
+    <col min="6394" max="6394" width="14.44140625" style="7" customWidth="1"/>
+    <col min="6395" max="6395" width="8.88671875" style="7" customWidth="1"/>
+    <col min="6396" max="6396" width="19.109375" style="7" customWidth="1"/>
+    <col min="6397" max="6397" width="12.33203125" style="7" customWidth="1"/>
+    <col min="6398" max="6398" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6399" max="6399" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6400" max="6400" width="10.33203125" style="7" customWidth="1"/>
+    <col min="6401" max="6401" width="8" style="7" customWidth="1"/>
+    <col min="6402" max="6403" width="14.33203125" style="7" customWidth="1"/>
+    <col min="6404" max="6404" width="6.5546875" style="7" customWidth="1"/>
+    <col min="6405" max="6405" width="10.109375" style="7" customWidth="1"/>
+    <col min="6406" max="6406" width="7.5546875" style="7" customWidth="1"/>
+    <col min="6407" max="6645" width="8.88671875" style="7"/>
+    <col min="6646" max="6646" width="20.5546875" style="7" customWidth="1"/>
+    <col min="6647" max="6647" width="13.109375" style="7" customWidth="1"/>
+    <col min="6648" max="6648" width="8.88671875" style="7"/>
+    <col min="6649" max="6649" width="14.5546875" style="7" customWidth="1"/>
+    <col min="6650" max="6650" width="14.44140625" style="7" customWidth="1"/>
+    <col min="6651" max="6651" width="8.88671875" style="7" customWidth="1"/>
+    <col min="6652" max="6652" width="19.109375" style="7" customWidth="1"/>
+    <col min="6653" max="6653" width="12.33203125" style="7" customWidth="1"/>
+    <col min="6654" max="6654" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6655" max="6655" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6656" max="6656" width="10.33203125" style="7" customWidth="1"/>
+    <col min="6657" max="6657" width="8" style="7" customWidth="1"/>
+    <col min="6658" max="6659" width="14.33203125" style="7" customWidth="1"/>
+    <col min="6660" max="6660" width="6.5546875" style="7" customWidth="1"/>
+    <col min="6661" max="6661" width="10.109375" style="7" customWidth="1"/>
+    <col min="6662" max="6662" width="7.5546875" style="7" customWidth="1"/>
+    <col min="6663" max="6901" width="8.88671875" style="7"/>
+    <col min="6902" max="6902" width="20.5546875" style="7" customWidth="1"/>
+    <col min="6903" max="6903" width="13.109375" style="7" customWidth="1"/>
+    <col min="6904" max="6904" width="8.88671875" style="7"/>
+    <col min="6905" max="6905" width="14.5546875" style="7" customWidth="1"/>
+    <col min="6906" max="6906" width="14.44140625" style="7" customWidth="1"/>
+    <col min="6907" max="6907" width="8.88671875" style="7" customWidth="1"/>
+    <col min="6908" max="6908" width="19.109375" style="7" customWidth="1"/>
+    <col min="6909" max="6909" width="12.33203125" style="7" customWidth="1"/>
+    <col min="6910" max="6910" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6911" max="6911" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6912" max="6912" width="10.33203125" style="7" customWidth="1"/>
+    <col min="6913" max="6913" width="8" style="7" customWidth="1"/>
+    <col min="6914" max="6915" width="14.33203125" style="7" customWidth="1"/>
+    <col min="6916" max="6916" width="6.5546875" style="7" customWidth="1"/>
+    <col min="6917" max="6917" width="10.109375" style="7" customWidth="1"/>
+    <col min="6918" max="6918" width="7.5546875" style="7" customWidth="1"/>
+    <col min="6919" max="7157" width="8.88671875" style="7"/>
+    <col min="7158" max="7158" width="20.5546875" style="7" customWidth="1"/>
+    <col min="7159" max="7159" width="13.109375" style="7" customWidth="1"/>
+    <col min="7160" max="7160" width="8.88671875" style="7"/>
+    <col min="7161" max="7161" width="14.5546875" style="7" customWidth="1"/>
+    <col min="7162" max="7162" width="14.44140625" style="7" customWidth="1"/>
+    <col min="7163" max="7163" width="8.88671875" style="7" customWidth="1"/>
+    <col min="7164" max="7164" width="19.109375" style="7" customWidth="1"/>
+    <col min="7165" max="7165" width="12.33203125" style="7" customWidth="1"/>
+    <col min="7166" max="7166" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7167" max="7167" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7168" max="7168" width="10.33203125" style="7" customWidth="1"/>
+    <col min="7169" max="7169" width="8" style="7" customWidth="1"/>
+    <col min="7170" max="7171" width="14.33203125" style="7" customWidth="1"/>
+    <col min="7172" max="7172" width="6.5546875" style="7" customWidth="1"/>
+    <col min="7173" max="7173" width="10.109375" style="7" customWidth="1"/>
+    <col min="7174" max="7174" width="7.5546875" style="7" customWidth="1"/>
+    <col min="7175" max="7413" width="8.88671875" style="7"/>
+    <col min="7414" max="7414" width="20.5546875" style="7" customWidth="1"/>
+    <col min="7415" max="7415" width="13.109375" style="7" customWidth="1"/>
+    <col min="7416" max="7416" width="8.88671875" style="7"/>
+    <col min="7417" max="7417" width="14.5546875" style="7" customWidth="1"/>
+    <col min="7418" max="7418" width="14.44140625" style="7" customWidth="1"/>
+    <col min="7419" max="7419" width="8.88671875" style="7" customWidth="1"/>
+    <col min="7420" max="7420" width="19.109375" style="7" customWidth="1"/>
+    <col min="7421" max="7421" width="12.33203125" style="7" customWidth="1"/>
+    <col min="7422" max="7422" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7423" max="7423" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7424" max="7424" width="10.33203125" style="7" customWidth="1"/>
+    <col min="7425" max="7425" width="8" style="7" customWidth="1"/>
+    <col min="7426" max="7427" width="14.33203125" style="7" customWidth="1"/>
+    <col min="7428" max="7428" width="6.5546875" style="7" customWidth="1"/>
+    <col min="7429" max="7429" width="10.109375" style="7" customWidth="1"/>
+    <col min="7430" max="7430" width="7.5546875" style="7" customWidth="1"/>
+    <col min="7431" max="7669" width="8.88671875" style="7"/>
+    <col min="7670" max="7670" width="20.5546875" style="7" customWidth="1"/>
+    <col min="7671" max="7671" width="13.109375" style="7" customWidth="1"/>
+    <col min="7672" max="7672" width="8.88671875" style="7"/>
+    <col min="7673" max="7673" width="14.5546875" style="7" customWidth="1"/>
+    <col min="7674" max="7674" width="14.44140625" style="7" customWidth="1"/>
+    <col min="7675" max="7675" width="8.88671875" style="7" customWidth="1"/>
+    <col min="7676" max="7676" width="19.109375" style="7" customWidth="1"/>
+    <col min="7677" max="7677" width="12.33203125" style="7" customWidth="1"/>
+    <col min="7678" max="7678" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7679" max="7679" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7680" max="7680" width="10.33203125" style="7" customWidth="1"/>
+    <col min="7681" max="7681" width="8" style="7" customWidth="1"/>
+    <col min="7682" max="7683" width="14.33203125" style="7" customWidth="1"/>
+    <col min="7684" max="7684" width="6.5546875" style="7" customWidth="1"/>
+    <col min="7685" max="7685" width="10.109375" style="7" customWidth="1"/>
+    <col min="7686" max="7686" width="7.5546875" style="7" customWidth="1"/>
+    <col min="7687" max="7925" width="8.88671875" style="7"/>
+    <col min="7926" max="7926" width="20.5546875" style="7" customWidth="1"/>
+    <col min="7927" max="7927" width="13.109375" style="7" customWidth="1"/>
+    <col min="7928" max="7928" width="8.88671875" style="7"/>
+    <col min="7929" max="7929" width="14.5546875" style="7" customWidth="1"/>
+    <col min="7930" max="7930" width="14.44140625" style="7" customWidth="1"/>
+    <col min="7931" max="7931" width="8.88671875" style="7" customWidth="1"/>
+    <col min="7932" max="7932" width="19.109375" style="7" customWidth="1"/>
+    <col min="7933" max="7933" width="12.33203125" style="7" customWidth="1"/>
+    <col min="7934" max="7934" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7935" max="7935" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7936" max="7936" width="10.33203125" style="7" customWidth="1"/>
+    <col min="7937" max="7937" width="8" style="7" customWidth="1"/>
+    <col min="7938" max="7939" width="14.33203125" style="7" customWidth="1"/>
+    <col min="7940" max="7940" width="6.5546875" style="7" customWidth="1"/>
+    <col min="7941" max="7941" width="10.109375" style="7" customWidth="1"/>
+    <col min="7942" max="7942" width="7.5546875" style="7" customWidth="1"/>
+    <col min="7943" max="8181" width="8.88671875" style="7"/>
+    <col min="8182" max="8182" width="20.5546875" style="7" customWidth="1"/>
+    <col min="8183" max="8183" width="13.109375" style="7" customWidth="1"/>
+    <col min="8184" max="8184" width="8.88671875" style="7"/>
+    <col min="8185" max="8185" width="14.5546875" style="7" customWidth="1"/>
+    <col min="8186" max="8186" width="14.44140625" style="7" customWidth="1"/>
+    <col min="8187" max="8187" width="8.88671875" style="7" customWidth="1"/>
+    <col min="8188" max="8188" width="19.109375" style="7" customWidth="1"/>
+    <col min="8189" max="8189" width="12.33203125" style="7" customWidth="1"/>
+    <col min="8190" max="8190" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8191" max="8191" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8192" max="8192" width="10.33203125" style="7" customWidth="1"/>
+    <col min="8193" max="8193" width="8" style="7" customWidth="1"/>
+    <col min="8194" max="8195" width="14.33203125" style="7" customWidth="1"/>
+    <col min="8196" max="8196" width="6.5546875" style="7" customWidth="1"/>
+    <col min="8197" max="8197" width="10.109375" style="7" customWidth="1"/>
+    <col min="8198" max="8198" width="7.5546875" style="7" customWidth="1"/>
+    <col min="8199" max="8437" width="8.88671875" style="7"/>
+    <col min="8438" max="8438" width="20.5546875" style="7" customWidth="1"/>
+    <col min="8439" max="8439" width="13.109375" style="7" customWidth="1"/>
+    <col min="8440" max="8440" width="8.88671875" style="7"/>
+    <col min="8441" max="8441" width="14.5546875" style="7" customWidth="1"/>
+    <col min="8442" max="8442" width="14.44140625" style="7" customWidth="1"/>
+    <col min="8443" max="8443" width="8.88671875" style="7" customWidth="1"/>
+    <col min="8444" max="8444" width="19.109375" style="7" customWidth="1"/>
+    <col min="8445" max="8445" width="12.33203125" style="7" customWidth="1"/>
+    <col min="8446" max="8446" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8447" max="8447" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8448" max="8448" width="10.33203125" style="7" customWidth="1"/>
+    <col min="8449" max="8449" width="8" style="7" customWidth="1"/>
+    <col min="8450" max="8451" width="14.33203125" style="7" customWidth="1"/>
+    <col min="8452" max="8452" width="6.5546875" style="7" customWidth="1"/>
+    <col min="8453" max="8453" width="10.109375" style="7" customWidth="1"/>
+    <col min="8454" max="8454" width="7.5546875" style="7" customWidth="1"/>
+    <col min="8455" max="8693" width="8.88671875" style="7"/>
+    <col min="8694" max="8694" width="20.5546875" style="7" customWidth="1"/>
+    <col min="8695" max="8695" width="13.109375" style="7" customWidth="1"/>
+    <col min="8696" max="8696" width="8.88671875" style="7"/>
+    <col min="8697" max="8697" width="14.5546875" style="7" customWidth="1"/>
+    <col min="8698" max="8698" width="14.44140625" style="7" customWidth="1"/>
+    <col min="8699" max="8699" width="8.88671875" style="7" customWidth="1"/>
+    <col min="8700" max="8700" width="19.109375" style="7" customWidth="1"/>
+    <col min="8701" max="8701" width="12.33203125" style="7" customWidth="1"/>
+    <col min="8702" max="8702" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8703" max="8703" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8704" max="8704" width="10.33203125" style="7" customWidth="1"/>
+    <col min="8705" max="8705" width="8" style="7" customWidth="1"/>
+    <col min="8706" max="8707" width="14.33203125" style="7" customWidth="1"/>
+    <col min="8708" max="8708" width="6.5546875" style="7" customWidth="1"/>
+    <col min="8709" max="8709" width="10.109375" style="7" customWidth="1"/>
+    <col min="8710" max="8710" width="7.5546875" style="7" customWidth="1"/>
+    <col min="8711" max="8949" width="8.88671875" style="7"/>
+    <col min="8950" max="8950" width="20.5546875" style="7" customWidth="1"/>
+    <col min="8951" max="8951" width="13.109375" style="7" customWidth="1"/>
+    <col min="8952" max="8952" width="8.88671875" style="7"/>
+    <col min="8953" max="8953" width="14.5546875" style="7" customWidth="1"/>
+    <col min="8954" max="8954" width="14.44140625" style="7" customWidth="1"/>
+    <col min="8955" max="8955" width="8.88671875" style="7" customWidth="1"/>
+    <col min="8956" max="8956" width="19.109375" style="7" customWidth="1"/>
+    <col min="8957" max="8957" width="12.33203125" style="7" customWidth="1"/>
+    <col min="8958" max="8958" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8959" max="8959" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8960" max="8960" width="10.33203125" style="7" customWidth="1"/>
+    <col min="8961" max="8961" width="8" style="7" customWidth="1"/>
+    <col min="8962" max="8963" width="14.33203125" style="7" customWidth="1"/>
+    <col min="8964" max="8964" width="6.5546875" style="7" customWidth="1"/>
+    <col min="8965" max="8965" width="10.109375" style="7" customWidth="1"/>
+    <col min="8966" max="8966" width="7.5546875" style="7" customWidth="1"/>
+    <col min="8967" max="9205" width="8.88671875" style="7"/>
+    <col min="9206" max="9206" width="20.5546875" style="7" customWidth="1"/>
+    <col min="9207" max="9207" width="13.109375" style="7" customWidth="1"/>
+    <col min="9208" max="9208" width="8.88671875" style="7"/>
+    <col min="9209" max="9209" width="14.5546875" style="7" customWidth="1"/>
+    <col min="9210" max="9210" width="14.44140625" style="7" customWidth="1"/>
+    <col min="9211" max="9211" width="8.88671875" style="7" customWidth="1"/>
+    <col min="9212" max="9212" width="19.109375" style="7" customWidth="1"/>
+    <col min="9213" max="9213" width="12.33203125" style="7" customWidth="1"/>
+    <col min="9214" max="9214" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9215" max="9215" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9216" max="9216" width="10.33203125" style="7" customWidth="1"/>
+    <col min="9217" max="9217" width="8" style="7" customWidth="1"/>
+    <col min="9218" max="9219" width="14.33203125" style="7" customWidth="1"/>
+    <col min="9220" max="9220" width="6.5546875" style="7" customWidth="1"/>
+    <col min="9221" max="9221" width="10.109375" style="7" customWidth="1"/>
+    <col min="9222" max="9222" width="7.5546875" style="7" customWidth="1"/>
+    <col min="9223" max="9461" width="8.88671875" style="7"/>
+    <col min="9462" max="9462" width="20.5546875" style="7" customWidth="1"/>
+    <col min="9463" max="9463" width="13.109375" style="7" customWidth="1"/>
+    <col min="9464" max="9464" width="8.88671875" style="7"/>
+    <col min="9465" max="9465" width="14.5546875" style="7" customWidth="1"/>
+    <col min="9466" max="9466" width="14.44140625" style="7" customWidth="1"/>
+    <col min="9467" max="9467" width="8.88671875" style="7" customWidth="1"/>
+    <col min="9468" max="9468" width="19.109375" style="7" customWidth="1"/>
+    <col min="9469" max="9469" width="12.33203125" style="7" customWidth="1"/>
+    <col min="9470" max="9470" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9471" max="9471" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9472" max="9472" width="10.33203125" style="7" customWidth="1"/>
+    <col min="9473" max="9473" width="8" style="7" customWidth="1"/>
+    <col min="9474" max="9475" width="14.33203125" style="7" customWidth="1"/>
+    <col min="9476" max="9476" width="6.5546875" style="7" customWidth="1"/>
+    <col min="9477" max="9477" width="10.109375" style="7" customWidth="1"/>
+    <col min="9478" max="9478" width="7.5546875" style="7" customWidth="1"/>
+    <col min="9479" max="9717" width="8.88671875" style="7"/>
+    <col min="9718" max="9718" width="20.5546875" style="7" customWidth="1"/>
+    <col min="9719" max="9719" width="13.109375" style="7" customWidth="1"/>
+    <col min="9720" max="9720" width="8.88671875" style="7"/>
+    <col min="9721" max="9721" width="14.5546875" style="7" customWidth="1"/>
+    <col min="9722" max="9722" width="14.44140625" style="7" customWidth="1"/>
+    <col min="9723" max="9723" width="8.88671875" style="7" customWidth="1"/>
+    <col min="9724" max="9724" width="19.109375" style="7" customWidth="1"/>
+    <col min="9725" max="9725" width="12.33203125" style="7" customWidth="1"/>
+    <col min="9726" max="9726" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9727" max="9727" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9728" max="9728" width="10.33203125" style="7" customWidth="1"/>
+    <col min="9729" max="9729" width="8" style="7" customWidth="1"/>
+    <col min="9730" max="9731" width="14.33203125" style="7" customWidth="1"/>
+    <col min="9732" max="9732" width="6.5546875" style="7" customWidth="1"/>
+    <col min="9733" max="9733" width="10.109375" style="7" customWidth="1"/>
+    <col min="9734" max="9734" width="7.5546875" style="7" customWidth="1"/>
+    <col min="9735" max="9973" width="8.88671875" style="7"/>
+    <col min="9974" max="9974" width="20.5546875" style="7" customWidth="1"/>
+    <col min="9975" max="9975" width="13.109375" style="7" customWidth="1"/>
+    <col min="9976" max="9976" width="8.88671875" style="7"/>
+    <col min="9977" max="9977" width="14.5546875" style="7" customWidth="1"/>
+    <col min="9978" max="9978" width="14.44140625" style="7" customWidth="1"/>
+    <col min="9979" max="9979" width="8.88671875" style="7" customWidth="1"/>
+    <col min="9980" max="9980" width="19.109375" style="7" customWidth="1"/>
+    <col min="9981" max="9981" width="12.33203125" style="7" customWidth="1"/>
+    <col min="9982" max="9982" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9983" max="9983" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9984" max="9984" width="10.33203125" style="7" customWidth="1"/>
+    <col min="9985" max="9985" width="8" style="7" customWidth="1"/>
+    <col min="9986" max="9987" width="14.33203125" style="7" customWidth="1"/>
+    <col min="9988" max="9988" width="6.5546875" style="7" customWidth="1"/>
+    <col min="9989" max="9989" width="10.109375" style="7" customWidth="1"/>
+    <col min="9990" max="9990" width="7.5546875" style="7" customWidth="1"/>
+    <col min="9991" max="10229" width="8.88671875" style="7"/>
+    <col min="10230" max="10230" width="20.5546875" style="7" customWidth="1"/>
+    <col min="10231" max="10231" width="13.109375" style="7" customWidth="1"/>
+    <col min="10232" max="10232" width="8.88671875" style="7"/>
+    <col min="10233" max="10233" width="14.5546875" style="7" customWidth="1"/>
+    <col min="10234" max="10234" width="14.44140625" style="7" customWidth="1"/>
+    <col min="10235" max="10235" width="8.88671875" style="7" customWidth="1"/>
+    <col min="10236" max="10236" width="19.109375" style="7" customWidth="1"/>
+    <col min="10237" max="10237" width="12.33203125" style="7" customWidth="1"/>
+    <col min="10238" max="10238" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="10239" max="10239" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10240" max="10240" width="10.33203125" style="7" customWidth="1"/>
+    <col min="10241" max="10241" width="8" style="7" customWidth="1"/>
+    <col min="10242" max="10243" width="14.33203125" style="7" customWidth="1"/>
+    <col min="10244" max="10244" width="6.5546875" style="7" customWidth="1"/>
+    <col min="10245" max="10245" width="10.109375" style="7" customWidth="1"/>
+    <col min="10246" max="10246" width="7.5546875" style="7" customWidth="1"/>
+    <col min="10247" max="10485" width="8.88671875" style="7"/>
+    <col min="10486" max="10486" width="20.5546875" style="7" customWidth="1"/>
+    <col min="10487" max="10487" width="13.109375" style="7" customWidth="1"/>
+    <col min="10488" max="10488" width="8.88671875" style="7"/>
+    <col min="10489" max="10489" width="14.5546875" style="7" customWidth="1"/>
+    <col min="10490" max="10490" width="14.44140625" style="7" customWidth="1"/>
+    <col min="10491" max="10491" width="8.88671875" style="7" customWidth="1"/>
+    <col min="10492" max="10492" width="19.109375" style="7" customWidth="1"/>
+    <col min="10493" max="10493" width="12.33203125" style="7" customWidth="1"/>
+    <col min="10494" max="10494" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="10495" max="10495" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10496" max="10496" width="10.33203125" style="7" customWidth="1"/>
+    <col min="10497" max="10497" width="8" style="7" customWidth="1"/>
+    <col min="10498" max="10499" width="14.33203125" style="7" customWidth="1"/>
+    <col min="10500" max="10500" width="6.5546875" style="7" customWidth="1"/>
+    <col min="10501" max="10501" width="10.109375" style="7" customWidth="1"/>
+    <col min="10502" max="10502" width="7.5546875" style="7" customWidth="1"/>
+    <col min="10503" max="10741" width="8.88671875" style="7"/>
+    <col min="10742" max="10742" width="20.5546875" style="7" customWidth="1"/>
+    <col min="10743" max="10743" width="13.109375" style="7" customWidth="1"/>
+    <col min="10744" max="10744" width="8.88671875" style="7"/>
+    <col min="10745" max="10745" width="14.5546875" style="7" customWidth="1"/>
+    <col min="10746" max="10746" width="14.44140625" style="7" customWidth="1"/>
+    <col min="10747" max="10747" width="8.88671875" style="7" customWidth="1"/>
+    <col min="10748" max="10748" width="19.109375" style="7" customWidth="1"/>
+    <col min="10749" max="10749" width="12.33203125" style="7" customWidth="1"/>
+    <col min="10750" max="10750" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="10751" max="10751" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10752" max="10752" width="10.33203125" style="7" customWidth="1"/>
+    <col min="10753" max="10753" width="8" style="7" customWidth="1"/>
+    <col min="10754" max="10755" width="14.33203125" style="7" customWidth="1"/>
+    <col min="10756" max="10756" width="6.5546875" style="7" customWidth="1"/>
+    <col min="10757" max="10757" width="10.109375" style="7" customWidth="1"/>
+    <col min="10758" max="10758" width="7.5546875" style="7" customWidth="1"/>
+    <col min="10759" max="10997" width="8.88671875" style="7"/>
+    <col min="10998" max="10998" width="20.5546875" style="7" customWidth="1"/>
+    <col min="10999" max="10999" width="13.109375" style="7" customWidth="1"/>
+    <col min="11000" max="11000" width="8.88671875" style="7"/>
+    <col min="11001" max="11001" width="14.5546875" style="7" customWidth="1"/>
+    <col min="11002" max="11002" width="14.44140625" style="7" customWidth="1"/>
+    <col min="11003" max="11003" width="8.88671875" style="7" customWidth="1"/>
+    <col min="11004" max="11004" width="19.109375" style="7" customWidth="1"/>
+    <col min="11005" max="11005" width="12.33203125" style="7" customWidth="1"/>
+    <col min="11006" max="11006" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="11007" max="11007" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11008" max="11008" width="10.33203125" style="7" customWidth="1"/>
+    <col min="11009" max="11009" width="8" style="7" customWidth="1"/>
+    <col min="11010" max="11011" width="14.33203125" style="7" customWidth="1"/>
+    <col min="11012" max="11012" width="6.5546875" style="7" customWidth="1"/>
+    <col min="11013" max="11013" width="10.109375" style="7" customWidth="1"/>
+    <col min="11014" max="11014" width="7.5546875" style="7" customWidth="1"/>
+    <col min="11015" max="11253" width="8.88671875" style="7"/>
+    <col min="11254" max="11254" width="20.5546875" style="7" customWidth="1"/>
+    <col min="11255" max="11255" width="13.109375" style="7" customWidth="1"/>
+    <col min="11256" max="11256" width="8.88671875" style="7"/>
+    <col min="11257" max="11257" width="14.5546875" style="7" customWidth="1"/>
+    <col min="11258" max="11258" width="14.44140625" style="7" customWidth="1"/>
+    <col min="11259" max="11259" width="8.88671875" style="7" customWidth="1"/>
+    <col min="11260" max="11260" width="19.109375" style="7" customWidth="1"/>
+    <col min="11261" max="11261" width="12.33203125" style="7" customWidth="1"/>
+    <col min="11262" max="11262" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="11263" max="11263" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11264" max="11264" width="10.33203125" style="7" customWidth="1"/>
+    <col min="11265" max="11265" width="8" style="7" customWidth="1"/>
+    <col min="11266" max="11267" width="14.33203125" style="7" customWidth="1"/>
+    <col min="11268" max="11268" width="6.5546875" style="7" customWidth="1"/>
+    <col min="11269" max="11269" width="10.109375" style="7" customWidth="1"/>
+    <col min="11270" max="11270" width="7.5546875" style="7" customWidth="1"/>
+    <col min="11271" max="11509" width="8.88671875" style="7"/>
+    <col min="11510" max="11510" width="20.5546875" style="7" customWidth="1"/>
+    <col min="11511" max="11511" width="13.109375" style="7" customWidth="1"/>
+    <col min="11512" max="11512" width="8.88671875" style="7"/>
+    <col min="11513" max="11513" width="14.5546875" style="7" customWidth="1"/>
+    <col min="11514" max="11514" width="14.44140625" style="7" customWidth="1"/>
+    <col min="11515" max="11515" width="8.88671875" style="7" customWidth="1"/>
+    <col min="11516" max="11516" width="19.109375" style="7" customWidth="1"/>
+    <col min="11517" max="11517" width="12.33203125" style="7" customWidth="1"/>
+    <col min="11518" max="11518" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="11519" max="11519" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11520" max="11520" width="10.33203125" style="7" customWidth="1"/>
+    <col min="11521" max="11521" width="8" style="7" customWidth="1"/>
+    <col min="11522" max="11523" width="14.33203125" style="7" customWidth="1"/>
+    <col min="11524" max="11524" width="6.5546875" style="7" customWidth="1"/>
+    <col min="11525" max="11525" width="10.109375" style="7" customWidth="1"/>
+    <col min="11526" max="11526" width="7.5546875" style="7" customWidth="1"/>
+    <col min="11527" max="11765" width="8.88671875" style="7"/>
+    <col min="11766" max="11766" width="20.5546875" style="7" customWidth="1"/>
+    <col min="11767" max="11767" width="13.109375" style="7" customWidth="1"/>
+    <col min="11768" max="11768" width="8.88671875" style="7"/>
+    <col min="11769" max="11769" width="14.5546875" style="7" customWidth="1"/>
+    <col min="11770" max="11770" width="14.44140625" style="7" customWidth="1"/>
+    <col min="11771" max="11771" width="8.88671875" style="7" customWidth="1"/>
+    <col min="11772" max="11772" width="19.109375" style="7" customWidth="1"/>
+    <col min="11773" max="11773" width="12.33203125" style="7" customWidth="1"/>
+    <col min="11774" max="11774" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="11775" max="11775" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11776" max="11776" width="10.33203125" style="7" customWidth="1"/>
+    <col min="11777" max="11777" width="8" style="7" customWidth="1"/>
+    <col min="11778" max="11779" width="14.33203125" style="7" customWidth="1"/>
+    <col min="11780" max="11780" width="6.5546875" style="7" customWidth="1"/>
+    <col min="11781" max="11781" width="10.109375" style="7" customWidth="1"/>
+    <col min="11782" max="11782" width="7.5546875" style="7" customWidth="1"/>
+    <col min="11783" max="12021" width="8.88671875" style="7"/>
+    <col min="12022" max="12022" width="20.5546875" style="7" customWidth="1"/>
+    <col min="12023" max="12023" width="13.109375" style="7" customWidth="1"/>
+    <col min="12024" max="12024" width="8.88671875" style="7"/>
+    <col min="12025" max="12025" width="14.5546875" style="7" customWidth="1"/>
+    <col min="12026" max="12026" width="14.44140625" style="7" customWidth="1"/>
+    <col min="12027" max="12027" width="8.88671875" style="7" customWidth="1"/>
+    <col min="12028" max="12028" width="19.109375" style="7" customWidth="1"/>
+    <col min="12029" max="12029" width="12.33203125" style="7" customWidth="1"/>
+    <col min="12030" max="12030" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="12031" max="12031" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12032" max="12032" width="10.33203125" style="7" customWidth="1"/>
+    <col min="12033" max="12033" width="8" style="7" customWidth="1"/>
+    <col min="12034" max="12035" width="14.33203125" style="7" customWidth="1"/>
+    <col min="12036" max="12036" width="6.5546875" style="7" customWidth="1"/>
+    <col min="12037" max="12037" width="10.109375" style="7" customWidth="1"/>
+    <col min="12038" max="12038" width="7.5546875" style="7" customWidth="1"/>
+    <col min="12039" max="12277" width="8.88671875" style="7"/>
+    <col min="12278" max="12278" width="20.5546875" style="7" customWidth="1"/>
+    <col min="12279" max="12279" width="13.109375" style="7" customWidth="1"/>
+    <col min="12280" max="12280" width="8.88671875" style="7"/>
+    <col min="12281" max="12281" width="14.5546875" style="7" customWidth="1"/>
+    <col min="12282" max="12282" width="14.44140625" style="7" customWidth="1"/>
+    <col min="12283" max="12283" width="8.88671875" style="7" customWidth="1"/>
+    <col min="12284" max="12284" width="19.109375" style="7" customWidth="1"/>
+    <col min="12285" max="12285" width="12.33203125" style="7" customWidth="1"/>
+    <col min="12286" max="12286" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="12287" max="12287" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12288" max="12288" width="10.33203125" style="7" customWidth="1"/>
+    <col min="12289" max="12289" width="8" style="7" customWidth="1"/>
+    <col min="12290" max="12291" width="14.33203125" style="7" customWidth="1"/>
+    <col min="12292" max="12292" width="6.5546875" style="7" customWidth="1"/>
+    <col min="12293" max="12293" width="10.109375" style="7" customWidth="1"/>
+    <col min="12294" max="12294" width="7.5546875" style="7" customWidth="1"/>
+    <col min="12295" max="12533" width="8.88671875" style="7"/>
+    <col min="12534" max="12534" width="20.5546875" style="7" customWidth="1"/>
+    <col min="12535" max="12535" width="13.109375" style="7" customWidth="1"/>
+    <col min="12536" max="12536" width="8.88671875" style="7"/>
+    <col min="12537" max="12537" width="14.5546875" style="7" customWidth="1"/>
+    <col min="12538" max="12538" width="14.44140625" style="7" customWidth="1"/>
+    <col min="12539" max="12539" width="8.88671875" style="7" customWidth="1"/>
+    <col min="12540" max="12540" width="19.109375" style="7" customWidth="1"/>
+    <col min="12541" max="12541" width="12.33203125" style="7" customWidth="1"/>
+    <col min="12542" max="12542" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="12543" max="12543" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12544" max="12544" width="10.33203125" style="7" customWidth="1"/>
+    <col min="12545" max="12545" width="8" style="7" customWidth="1"/>
+    <col min="12546" max="12547" width="14.33203125" style="7" customWidth="1"/>
+    <col min="12548" max="12548" width="6.5546875" style="7" customWidth="1"/>
+    <col min="12549" max="12549" width="10.109375" style="7" customWidth="1"/>
+    <col min="12550" max="12550" width="7.5546875" style="7" customWidth="1"/>
+    <col min="12551" max="12789" width="8.88671875" style="7"/>
+    <col min="12790" max="12790" width="20.5546875" style="7" customWidth="1"/>
+    <col min="12791" max="12791" width="13.109375" style="7" customWidth="1"/>
+    <col min="12792" max="12792" width="8.88671875" style="7"/>
+    <col min="12793" max="12793" width="14.5546875" style="7" customWidth="1"/>
+    <col min="12794" max="12794" width="14.44140625" style="7" customWidth="1"/>
+    <col min="12795" max="12795" width="8.88671875" style="7" customWidth="1"/>
+    <col min="12796" max="12796" width="19.109375" style="7" customWidth="1"/>
+    <col min="12797" max="12797" width="12.33203125" style="7" customWidth="1"/>
+    <col min="12798" max="12798" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="12799" max="12799" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12800" max="12800" width="10.33203125" style="7" customWidth="1"/>
+    <col min="12801" max="12801" width="8" style="7" customWidth="1"/>
+    <col min="12802" max="12803" width="14.33203125" style="7" customWidth="1"/>
+    <col min="12804" max="12804" width="6.5546875" style="7" customWidth="1"/>
+    <col min="12805" max="12805" width="10.109375" style="7" customWidth="1"/>
+    <col min="12806" max="12806" width="7.5546875" style="7" customWidth="1"/>
+    <col min="12807" max="13045" width="8.88671875" style="7"/>
+    <col min="13046" max="13046" width="20.5546875" style="7" customWidth="1"/>
+    <col min="13047" max="13047" width="13.109375" style="7" customWidth="1"/>
+    <col min="13048" max="13048" width="8.88671875" style="7"/>
+    <col min="13049" max="13049" width="14.5546875" style="7" customWidth="1"/>
+    <col min="13050" max="13050" width="14.44140625" style="7" customWidth="1"/>
+    <col min="13051" max="13051" width="8.88671875" style="7" customWidth="1"/>
+    <col min="13052" max="13052" width="19.109375" style="7" customWidth="1"/>
+    <col min="13053" max="13053" width="12.33203125" style="7" customWidth="1"/>
+    <col min="13054" max="13054" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="13055" max="13055" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13056" max="13056" width="10.33203125" style="7" customWidth="1"/>
+    <col min="13057" max="13057" width="8" style="7" customWidth="1"/>
+    <col min="13058" max="13059" width="14.33203125" style="7" customWidth="1"/>
+    <col min="13060" max="13060" width="6.5546875" style="7" customWidth="1"/>
+    <col min="13061" max="13061" width="10.109375" style="7" customWidth="1"/>
+    <col min="13062" max="13062" width="7.5546875" style="7" customWidth="1"/>
+    <col min="13063" max="13301" width="8.88671875" style="7"/>
+    <col min="13302" max="13302" width="20.5546875" style="7" customWidth="1"/>
+    <col min="13303" max="13303" width="13.109375" style="7" customWidth="1"/>
+    <col min="13304" max="13304" width="8.88671875" style="7"/>
+    <col min="13305" max="13305" width="14.5546875" style="7" customWidth="1"/>
+    <col min="13306" max="13306" width="14.44140625" style="7" customWidth="1"/>
+    <col min="13307" max="13307" width="8.88671875" style="7" customWidth="1"/>
+    <col min="13308" max="13308" width="19.109375" style="7" customWidth="1"/>
+    <col min="13309" max="13309" width="12.33203125" style="7" customWidth="1"/>
+    <col min="13310" max="13310" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="13311" max="13311" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13312" max="13312" width="10.33203125" style="7" customWidth="1"/>
+    <col min="13313" max="13313" width="8" style="7" customWidth="1"/>
+    <col min="13314" max="13315" width="14.33203125" style="7" customWidth="1"/>
+    <col min="13316" max="13316" width="6.5546875" style="7" customWidth="1"/>
+    <col min="13317" max="13317" width="10.109375" style="7" customWidth="1"/>
+    <col min="13318" max="13318" width="7.5546875" style="7" customWidth="1"/>
+    <col min="13319" max="13557" width="8.88671875" style="7"/>
+    <col min="13558" max="13558" width="20.5546875" style="7" customWidth="1"/>
+    <col min="13559" max="13559" width="13.109375" style="7" customWidth="1"/>
+    <col min="13560" max="13560" width="8.88671875" style="7"/>
+    <col min="13561" max="13561" width="14.5546875" style="7" customWidth="1"/>
+    <col min="13562" max="13562" width="14.44140625" style="7" customWidth="1"/>
+    <col min="13563" max="13563" width="8.88671875" style="7" customWidth="1"/>
+    <col min="13564" max="13564" width="19.109375" style="7" customWidth="1"/>
+    <col min="13565" max="13565" width="12.33203125" style="7" customWidth="1"/>
+    <col min="13566" max="13566" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="13567" max="13567" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13568" max="13568" width="10.33203125" style="7" customWidth="1"/>
+    <col min="13569" max="13569" width="8" style="7" customWidth="1"/>
+    <col min="13570" max="13571" width="14.33203125" style="7" customWidth="1"/>
+    <col min="13572" max="13572" width="6.5546875" style="7" customWidth="1"/>
+    <col min="13573" max="13573" width="10.109375" style="7" customWidth="1"/>
+    <col min="13574" max="13574" width="7.5546875" style="7" customWidth="1"/>
+    <col min="13575" max="13813" width="8.88671875" style="7"/>
+    <col min="13814" max="13814" width="20.5546875" style="7" customWidth="1"/>
+    <col min="13815" max="13815" width="13.109375" style="7" customWidth="1"/>
+    <col min="13816" max="13816" width="8.88671875" style="7"/>
+    <col min="13817" max="13817" width="14.5546875" style="7" customWidth="1"/>
+    <col min="13818" max="13818" width="14.44140625" style="7" customWidth="1"/>
+    <col min="13819" max="13819" width="8.88671875" style="7" customWidth="1"/>
+    <col min="13820" max="13820" width="19.109375" style="7" customWidth="1"/>
+    <col min="13821" max="13821" width="12.33203125" style="7" customWidth="1"/>
+    <col min="13822" max="13822" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="13823" max="13823" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13824" max="13824" width="10.33203125" style="7" customWidth="1"/>
+    <col min="13825" max="13825" width="8" style="7" customWidth="1"/>
+    <col min="13826" max="13827" width="14.33203125" style="7" customWidth="1"/>
+    <col min="13828" max="13828" width="6.5546875" style="7" customWidth="1"/>
+    <col min="13829" max="13829" width="10.109375" style="7" customWidth="1"/>
+    <col min="13830" max="13830" width="7.5546875" style="7" customWidth="1"/>
+    <col min="13831" max="14069" width="8.88671875" style="7"/>
+    <col min="14070" max="14070" width="20.5546875" style="7" customWidth="1"/>
+    <col min="14071" max="14071" width="13.109375" style="7" customWidth="1"/>
+    <col min="14072" max="14072" width="8.88671875" style="7"/>
+    <col min="14073" max="14073" width="14.5546875" style="7" customWidth="1"/>
+    <col min="14074" max="14074" width="14.44140625" style="7" customWidth="1"/>
+    <col min="14075" max="14075" width="8.88671875" style="7" customWidth="1"/>
+    <col min="14076" max="14076" width="19.109375" style="7" customWidth="1"/>
+    <col min="14077" max="14077" width="12.33203125" style="7" customWidth="1"/>
+    <col min="14078" max="14078" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="14079" max="14079" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14080" max="14080" width="10.33203125" style="7" customWidth="1"/>
+    <col min="14081" max="14081" width="8" style="7" customWidth="1"/>
+    <col min="14082" max="14083" width="14.33203125" style="7" customWidth="1"/>
+    <col min="14084" max="14084" width="6.5546875" style="7" customWidth="1"/>
+    <col min="14085" max="14085" width="10.109375" style="7" customWidth="1"/>
+    <col min="14086" max="14086" width="7.5546875" style="7" customWidth="1"/>
+    <col min="14087" max="14325" width="8.88671875" style="7"/>
+    <col min="14326" max="14326" width="20.5546875" style="7" customWidth="1"/>
+    <col min="14327" max="14327" width="13.109375" style="7" customWidth="1"/>
+    <col min="14328" max="14328" width="8.88671875" style="7"/>
+    <col min="14329" max="14329" width="14.5546875" style="7" customWidth="1"/>
+    <col min="14330" max="14330" width="14.44140625" style="7" customWidth="1"/>
+    <col min="14331" max="14331" width="8.88671875" style="7" customWidth="1"/>
+    <col min="14332" max="14332" width="19.109375" style="7" customWidth="1"/>
+    <col min="14333" max="14333" width="12.33203125" style="7" customWidth="1"/>
+    <col min="14334" max="14334" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="14335" max="14335" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14336" max="14336" width="10.33203125" style="7" customWidth="1"/>
+    <col min="14337" max="14337" width="8" style="7" customWidth="1"/>
+    <col min="14338" max="14339" width="14.33203125" style="7" customWidth="1"/>
+    <col min="14340" max="14340" width="6.5546875" style="7" customWidth="1"/>
+    <col min="14341" max="14341" width="10.109375" style="7" customWidth="1"/>
+    <col min="14342" max="14342" width="7.5546875" style="7" customWidth="1"/>
+    <col min="14343" max="14581" width="8.88671875" style="7"/>
+    <col min="14582" max="14582" width="20.5546875" style="7" customWidth="1"/>
+    <col min="14583" max="14583" width="13.109375" style="7" customWidth="1"/>
+    <col min="14584" max="14584" width="8.88671875" style="7"/>
+    <col min="14585" max="14585" width="14.5546875" style="7" customWidth="1"/>
+    <col min="14586" max="14586" width="14.44140625" style="7" customWidth="1"/>
+    <col min="14587" max="14587" width="8.88671875" style="7" customWidth="1"/>
+    <col min="14588" max="14588" width="19.109375" style="7" customWidth="1"/>
+    <col min="14589" max="14589" width="12.33203125" style="7" customWidth="1"/>
+    <col min="14590" max="14590" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="14591" max="14591" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14592" max="14592" width="10.33203125" style="7" customWidth="1"/>
+    <col min="14593" max="14593" width="8" style="7" customWidth="1"/>
+    <col min="14594" max="14595" width="14.33203125" style="7" customWidth="1"/>
+    <col min="14596" max="14596" width="6.5546875" style="7" customWidth="1"/>
+    <col min="14597" max="14597" width="10.109375" style="7" customWidth="1"/>
+    <col min="14598" max="14598" width="7.5546875" style="7" customWidth="1"/>
+    <col min="14599" max="14837" width="8.88671875" style="7"/>
+    <col min="14838" max="14838" width="20.5546875" style="7" customWidth="1"/>
+    <col min="14839" max="14839" width="13.109375" style="7" customWidth="1"/>
+    <col min="14840" max="14840" width="8.88671875" style="7"/>
+    <col min="14841" max="14841" width="14.5546875" style="7" customWidth="1"/>
+    <col min="14842" max="14842" width="14.44140625" style="7" customWidth="1"/>
+    <col min="14843" max="14843" width="8.88671875" style="7" customWidth="1"/>
+    <col min="14844" max="14844" width="19.109375" style="7" customWidth="1"/>
+    <col min="14845" max="14845" width="12.33203125" style="7" customWidth="1"/>
+    <col min="14846" max="14846" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="14847" max="14847" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14848" max="14848" width="10.33203125" style="7" customWidth="1"/>
+    <col min="14849" max="14849" width="8" style="7" customWidth="1"/>
+    <col min="14850" max="14851" width="14.33203125" style="7" customWidth="1"/>
+    <col min="14852" max="14852" width="6.5546875" style="7" customWidth="1"/>
+    <col min="14853" max="14853" width="10.109375" style="7" customWidth="1"/>
+    <col min="14854" max="14854" width="7.5546875" style="7" customWidth="1"/>
+    <col min="14855" max="15093" width="8.88671875" style="7"/>
+    <col min="15094" max="15094" width="20.5546875" style="7" customWidth="1"/>
+    <col min="15095" max="15095" width="13.109375" style="7" customWidth="1"/>
+    <col min="15096" max="15096" width="8.88671875" style="7"/>
+    <col min="15097" max="15097" width="14.5546875" style="7" customWidth="1"/>
+    <col min="15098" max="15098" width="14.44140625" style="7" customWidth="1"/>
+    <col min="15099" max="15099" width="8.88671875" style="7" customWidth="1"/>
+    <col min="15100" max="15100" width="19.109375" style="7" customWidth="1"/>
+    <col min="15101" max="15101" width="12.33203125" style="7" customWidth="1"/>
+    <col min="15102" max="15102" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="15103" max="15103" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15104" max="15104" width="10.33203125" style="7" customWidth="1"/>
+    <col min="15105" max="15105" width="8" style="7" customWidth="1"/>
+    <col min="15106" max="15107" width="14.33203125" style="7" customWidth="1"/>
+    <col min="15108" max="15108" width="6.5546875" style="7" customWidth="1"/>
+    <col min="15109" max="15109" width="10.109375" style="7" customWidth="1"/>
+    <col min="15110" max="15110" width="7.5546875" style="7" customWidth="1"/>
+    <col min="15111" max="15349" width="8.88671875" style="7"/>
+    <col min="15350" max="15350" width="20.5546875" style="7" customWidth="1"/>
+    <col min="15351" max="15351" width="13.109375" style="7" customWidth="1"/>
+    <col min="15352" max="15352" width="8.88671875" style="7"/>
+    <col min="15353" max="15353" width="14.5546875" style="7" customWidth="1"/>
+    <col min="15354" max="15354" width="14.44140625" style="7" customWidth="1"/>
+    <col min="15355" max="15355" width="8.88671875" style="7" customWidth="1"/>
+    <col min="15356" max="15356" width="19.109375" style="7" customWidth="1"/>
+    <col min="15357" max="15357" width="12.33203125" style="7" customWidth="1"/>
+    <col min="15358" max="15358" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="15359" max="15359" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15360" max="15360" width="10.33203125" style="7" customWidth="1"/>
+    <col min="15361" max="15361" width="8" style="7" customWidth="1"/>
+    <col min="15362" max="15363" width="14.33203125" style="7" customWidth="1"/>
+    <col min="15364" max="15364" width="6.5546875" style="7" customWidth="1"/>
+    <col min="15365" max="15365" width="10.109375" style="7" customWidth="1"/>
+    <col min="15366" max="15366" width="7.5546875" style="7" customWidth="1"/>
+    <col min="15367" max="15605" width="8.88671875" style="7"/>
+    <col min="15606" max="15606" width="20.5546875" style="7" customWidth="1"/>
+    <col min="15607" max="15607" width="13.109375" style="7" customWidth="1"/>
+    <col min="15608" max="15608" width="8.88671875" style="7"/>
+    <col min="15609" max="15609" width="14.5546875" style="7" customWidth="1"/>
+    <col min="15610" max="15610" width="14.44140625" style="7" customWidth="1"/>
+    <col min="15611" max="15611" width="8.88671875" style="7" customWidth="1"/>
+    <col min="15612" max="15612" width="19.109375" style="7" customWidth="1"/>
+    <col min="15613" max="15613" width="12.33203125" style="7" customWidth="1"/>
+    <col min="15614" max="15614" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="15615" max="15615" width="42.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15616" max="15616" width="10.33203125" style="7" customWidth="1"/>
+    <col min="15617" 